--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -8996,8 +8996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9502,7 +9502,7 @@
       </c>
       <c r="K20" s="74"/>
     </row>
-    <row r="21" spans="1:11" s="6" customFormat="1" ht="30">
+    <row r="21" spans="1:11" s="6" customFormat="1" ht="16.8" customHeight="1">
       <c r="A21" s="151">
         <v>45219</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="6" customFormat="1" ht="30">
+    <row r="56" spans="1:10" s="6" customFormat="1" ht="16.8" customHeight="1">
       <c r="A56" s="80">
         <v>45241</v>
       </c>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="457">
   <si>
     <t>APRIL</t>
   </si>
@@ -1375,6 +1375,24 @@
   </si>
   <si>
     <t>30DWKPK2286P1Z1</t>
+  </si>
+  <si>
+    <t>Dress Up Laundry Pvt Ltd</t>
+  </si>
+  <si>
+    <t>30AAHCD7450K1ZO</t>
+  </si>
+  <si>
+    <t>2023-24/9851</t>
+  </si>
+  <si>
+    <t>Midway Trading Co.</t>
+  </si>
+  <si>
+    <t>MID/DEC/0140</t>
+  </si>
+  <si>
+    <t>30AACFM5861F1ZM</t>
   </si>
 </sst>
 </file>
@@ -2122,14 +2140,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -9024,10 +9042,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K115"/>
+  <dimension ref="A2:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -11160,20 +11178,6 @@
       <c r="I81" s="27"/>
       <c r="J81" s="27"/>
     </row>
-    <row r="82" spans="1:10">
-      <c r="E82" s="1">
-        <f>E42+F42+G42</f>
-        <v>177076.6</v>
-      </c>
-      <c r="F82" s="1">
-        <f>E81+F81+G81</f>
-        <v>120346.12</v>
-      </c>
-      <c r="G82" s="1">
-        <f>E82-F82</f>
-        <v>56730.48000000001</v>
-      </c>
-    </row>
     <row r="83" spans="1:10" ht="21">
       <c r="A83" s="164" t="s">
         <v>232</v>
@@ -11289,7 +11293,7 @@
       <c r="A88" s="18">
         <v>45261</v>
       </c>
-      <c r="B88" s="154" t="s">
+      <c r="B88" s="156" t="s">
         <v>407</v>
       </c>
       <c r="C88" s="19" t="s">
@@ -11317,7 +11321,7 @@
       <c r="A89" s="18">
         <v>45261</v>
       </c>
-      <c r="B89" s="154" t="s">
+      <c r="B89" s="156" t="s">
         <v>407</v>
       </c>
       <c r="C89" s="19" t="s">
@@ -11368,354 +11372,347 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A91" s="160" t="s">
+    <row r="91" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A91" s="18">
+        <v>45271</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="D91" s="19">
+        <v>4250</v>
+      </c>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19">
+        <v>382.5</v>
+      </c>
+      <c r="G91" s="19">
+        <v>382.5</v>
+      </c>
+      <c r="H91" s="8">
+        <f>D91+E91+F91+G91</f>
+        <v>5015</v>
+      </c>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A92" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="B91" s="160"/>
-      <c r="C91" s="160"/>
-      <c r="D91" s="27">
-        <f>SUM(D86:D90)</f>
-        <v>2190781</v>
-      </c>
-      <c r="E91" s="27">
-        <f>SUM(E86:E90)</f>
+      <c r="B92" s="160"/>
+      <c r="C92" s="160"/>
+      <c r="D92" s="27">
+        <f>SUM(D86:D91)</f>
+        <v>2195031</v>
+      </c>
+      <c r="E92" s="27">
+        <f>SUM(E86:E91)</f>
         <v>0</v>
       </c>
-      <c r="F91" s="27">
-        <f>SUM(F86:F90)</f>
-        <v>197530.8</v>
-      </c>
-      <c r="G91" s="27">
-        <f>SUM(G86:G90)</f>
-        <v>197530.8</v>
-      </c>
-      <c r="H91" s="27">
-        <f>SUM(H86:H90)</f>
-        <v>2589841.6</v>
-      </c>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-    </row>
-    <row r="92" spans="1:10" ht="21">
-      <c r="A92" s="161" t="s">
+      <c r="F92" s="27">
+        <f>SUM(F86:F91)</f>
+        <v>197913.3</v>
+      </c>
+      <c r="G92" s="27">
+        <f>SUM(G86:G91)</f>
+        <v>197913.3</v>
+      </c>
+      <c r="H92" s="27">
+        <f>SUM(H86:H91)</f>
+        <v>2594856.6</v>
+      </c>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="1:10" ht="21">
+      <c r="A93" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="162"/>
-      <c r="C92" s="162"/>
-      <c r="D92" s="162"/>
-      <c r="E92" s="162"/>
-      <c r="F92" s="162"/>
-      <c r="G92" s="162"/>
-      <c r="H92" s="162"/>
-      <c r="I92" s="162"/>
-      <c r="J92" s="163"/>
-    </row>
-    <row r="93" spans="1:10" s="6" customFormat="1">
-      <c r="A93" s="16" t="s">
+      <c r="B93" s="162"/>
+      <c r="C93" s="162"/>
+      <c r="D93" s="162"/>
+      <c r="E93" s="162"/>
+      <c r="F93" s="162"/>
+      <c r="G93" s="162"/>
+      <c r="H93" s="162"/>
+      <c r="I93" s="162"/>
+      <c r="J93" s="163"/>
+    </row>
+    <row r="94" spans="1:10" s="6" customFormat="1">
+      <c r="A94" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B94" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C94" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="16" t="s">
+      <c r="D94" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E94" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F93" s="16" t="s">
+      <c r="F94" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G93" s="16" t="s">
+      <c r="G94" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H93" s="17" t="s">
+      <c r="H94" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I93" s="17" t="s">
+      <c r="I94" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J93" s="17" t="s">
+      <c r="J94" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A94" s="75">
+    <row r="95" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A95" s="75">
         <v>45261</v>
       </c>
-      <c r="B94" s="78" t="s">
+      <c r="B95" s="78" t="s">
         <v>435</v>
       </c>
-      <c r="C94" s="77" t="s">
+      <c r="C95" s="77" t="s">
         <v>436</v>
       </c>
-      <c r="D94" s="76">
+      <c r="D95" s="76">
         <v>20340</v>
       </c>
-      <c r="E94" s="76">
+      <c r="E95" s="76">
         <v>3661</v>
       </c>
-      <c r="F94" s="76"/>
-      <c r="G94" s="76"/>
-      <c r="H94" s="76">
-        <f>D94+E94+F94+G94</f>
+      <c r="F95" s="76"/>
+      <c r="G95" s="76"/>
+      <c r="H95" s="76">
+        <f>D95+E95+F95+G95</f>
         <v>24001</v>
       </c>
-      <c r="I94" s="76"/>
-      <c r="J94" s="77" t="s">
+      <c r="I95" s="76"/>
+      <c r="J95" s="77" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A95" s="85">
+    <row r="96" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A96" s="85">
         <v>45262</v>
       </c>
-      <c r="B95" s="48" t="s">
+      <c r="B96" s="48" t="s">
         <v>426</v>
       </c>
-      <c r="C95" s="48">
+      <c r="C96" s="48">
         <v>2074</v>
       </c>
-      <c r="D95" s="49">
+      <c r="D96" s="49">
         <v>420</v>
       </c>
-      <c r="E95" s="49">
+      <c r="E96" s="49">
         <v>76</v>
       </c>
-      <c r="F95" s="49"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="76">
-        <f t="shared" ref="H95:H104" si="4">D95+E95+F95+G95</f>
+      <c r="F96" s="49"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="76">
+        <f t="shared" ref="H96:H98" si="4">D96+E96+F96+G96</f>
         <v>496</v>
       </c>
-      <c r="I95" s="49"/>
-      <c r="J95" s="88" t="s">
+      <c r="I96" s="49"/>
+      <c r="J96" s="88" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A96" s="155">
+    <row r="97" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A97" s="154">
         <v>45262</v>
       </c>
-      <c r="B96" s="156" t="s">
+      <c r="B97" s="155" t="s">
         <v>449</v>
       </c>
-      <c r="C96" s="156">
+      <c r="C97" s="155">
         <v>3073</v>
       </c>
-      <c r="D96" s="156">
+      <c r="D97" s="155">
         <v>4514.1400000000003</v>
       </c>
-      <c r="E96" s="156"/>
-      <c r="F96" s="156">
+      <c r="E97" s="155"/>
+      <c r="F97" s="155">
         <v>406.27</v>
       </c>
-      <c r="G96" s="156">
+      <c r="G97" s="155">
         <v>406.27</v>
       </c>
-      <c r="H96" s="76">
+      <c r="H97" s="76">
         <v>5327</v>
       </c>
-      <c r="I96" s="156"/>
-      <c r="J96" s="156" t="s">
+      <c r="I97" s="155"/>
+      <c r="J97" s="155" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A97" s="85"/>
-      <c r="B97" s="156"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="49"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I97" s="49"/>
-      <c r="J97" s="49"/>
-    </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A98" s="85"/>
-      <c r="B98" s="156"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49"/>
+      <c r="A98" s="85">
+        <v>45265</v>
+      </c>
+      <c r="B98" s="155" t="s">
+        <v>246</v>
+      </c>
+      <c r="C98" s="49">
+        <v>4279</v>
+      </c>
+      <c r="D98" s="49">
+        <v>4516</v>
+      </c>
       <c r="E98" s="49"/>
-      <c r="F98" s="49"/>
-      <c r="G98" s="49"/>
+      <c r="F98" s="49">
+        <v>406</v>
+      </c>
+      <c r="G98" s="49">
+        <v>406</v>
+      </c>
       <c r="H98" s="76">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5328</v>
       </c>
       <c r="I98" s="49"/>
-      <c r="J98" s="49"/>
+      <c r="J98" s="49" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="99" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A99" s="85"/>
-      <c r="B99" s="156"/>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
+      <c r="A99" s="85">
+        <v>45268</v>
+      </c>
+      <c r="B99" s="155" t="s">
+        <v>451</v>
+      </c>
+      <c r="C99" s="49">
+        <v>5524</v>
+      </c>
+      <c r="D99" s="49">
+        <v>270</v>
+      </c>
       <c r="E99" s="49"/>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49"/>
+      <c r="F99" s="49">
+        <v>24.3</v>
+      </c>
+      <c r="G99" s="49">
+        <v>24.3</v>
+      </c>
       <c r="H99" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="I99" s="49"/>
-      <c r="J99" s="49"/>
+      <c r="J99" s="49" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A100" s="85"/>
-      <c r="B100" s="156"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49"/>
+      <c r="A100" s="85">
+        <v>45271</v>
+      </c>
+      <c r="B100" s="155" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="D100" s="49">
+        <v>3974.58</v>
+      </c>
       <c r="E100" s="49"/>
-      <c r="F100" s="49"/>
-      <c r="G100" s="49"/>
+      <c r="F100" s="49">
+        <v>357.71</v>
+      </c>
+      <c r="G100" s="49">
+        <v>357.11</v>
+      </c>
       <c r="H100" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4690</v>
       </c>
       <c r="I100" s="49"/>
-      <c r="J100" s="49"/>
-    </row>
-    <row r="101" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A101" s="85"/>
-      <c r="B101" s="48"/>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
+      <c r="J100" s="49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A101" s="85">
+        <v>45272</v>
+      </c>
+      <c r="B101" s="155" t="s">
+        <v>454</v>
+      </c>
+      <c r="C101" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="D101" s="49">
+        <v>110</v>
+      </c>
       <c r="E101" s="49"/>
-      <c r="F101" s="49"/>
-      <c r="G101" s="49"/>
+      <c r="F101" s="49">
+        <v>9.9</v>
+      </c>
+      <c r="G101" s="49">
+        <v>9.9</v>
+      </c>
       <c r="H101" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="I101" s="49"/>
-      <c r="J101" s="49"/>
-    </row>
-    <row r="102" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A102" s="85"/>
-      <c r="B102" s="156"/>
-      <c r="C102" s="49"/>
-      <c r="D102" s="49"/>
-      <c r="E102" s="49"/>
-      <c r="F102" s="49"/>
-      <c r="G102" s="49"/>
-      <c r="H102" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I102" s="49"/>
-      <c r="J102" s="49"/>
-    </row>
-    <row r="103" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A103" s="85"/>
-      <c r="B103" s="48"/>
-      <c r="C103" s="48"/>
-      <c r="D103" s="49"/>
-      <c r="E103" s="49"/>
-      <c r="F103" s="49"/>
-      <c r="G103" s="49"/>
-      <c r="H103" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I103" s="49"/>
-      <c r="J103" s="48"/>
-    </row>
-    <row r="104" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A104" s="85"/>
-      <c r="B104" s="49"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="49"/>
-      <c r="E104" s="49"/>
-      <c r="F104" s="49"/>
-      <c r="G104" s="49"/>
-      <c r="H104" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I104" s="49"/>
-      <c r="J104" s="49"/>
-    </row>
-    <row r="105" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A105" s="168" t="s">
+      <c r="J101" s="49" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A102" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="B105" s="169"/>
-      <c r="C105" s="170"/>
-      <c r="D105" s="27">
-        <f>SUM(D94:D104)</f>
-        <v>25274.14</v>
-      </c>
-      <c r="E105" s="27">
-        <f>SUM(E94:E104)</f>
+      <c r="B102" s="169"/>
+      <c r="C102" s="170"/>
+      <c r="D102" s="27">
+        <f>SUM(D95:D101)</f>
+        <v>34144.720000000001</v>
+      </c>
+      <c r="E102" s="27">
+        <f>SUM(E95:E101)</f>
         <v>3737</v>
       </c>
-      <c r="F105" s="27">
-        <f>SUM(F94:F104)</f>
-        <v>406.27</v>
-      </c>
-      <c r="G105" s="27">
-        <f>SUM(G94:G104)</f>
-        <v>406.27</v>
-      </c>
-      <c r="H105" s="27">
-        <f>SUM(H94:H104)</f>
-        <v>29824</v>
-      </c>
-      <c r="I105" s="27"/>
-      <c r="J105" s="27"/>
-    </row>
-    <row r="107" spans="1:10">
-      <c r="A107" s="175"/>
-      <c r="B107" s="175"/>
-      <c r="C107" s="175"/>
-      <c r="D107" s="175"/>
-      <c r="E107" s="175"/>
-    </row>
-    <row r="113" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A113" s="18">
-        <v>45271</v>
-      </c>
-      <c r="B113" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="D113" s="19">
-        <v>4250</v>
-      </c>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19">
-        <v>382.5</v>
-      </c>
-      <c r="G113" s="19">
-        <v>382.5</v>
-      </c>
-      <c r="H113" s="8">
-        <f>D113+E113+F113+G113</f>
-        <v>5015</v>
-      </c>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
-      <c r="A115" s="175"/>
-      <c r="B115" s="175"/>
-      <c r="C115" s="175"/>
-      <c r="D115" s="175"/>
-      <c r="E115" s="175"/>
+      <c r="F102" s="27">
+        <f>SUM(F95:F101)</f>
+        <v>1204.18</v>
+      </c>
+      <c r="G102" s="27">
+        <f>SUM(G95:G101)</f>
+        <v>1203.58</v>
+      </c>
+      <c r="H102" s="27">
+        <f>SUM(H95:H101)</f>
+        <v>40291</v>
+      </c>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="175"/>
+      <c r="B104" s="175"/>
+      <c r="C104" s="175"/>
+      <c r="D104" s="175"/>
+      <c r="E104" s="175"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="175"/>
+      <c r="B112" s="175"/>
+      <c r="C112" s="175"/>
+      <c r="D112" s="175"/>
+      <c r="E112" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -11731,11 +11728,11 @@
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A81:C81"/>
     <mergeCell ref="A83:J83"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:J92"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:J93"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A112:E112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="469">
   <si>
     <t>APRIL</t>
   </si>
@@ -1393,12 +1393,51 @@
   </si>
   <si>
     <t>30AACFM5861F1ZM</t>
+  </si>
+  <si>
+    <t>COLLECTIVE TRADE LINKS PVT.LTD</t>
+  </si>
+  <si>
+    <t>I-C-1-23-454055</t>
+  </si>
+  <si>
+    <t>ARCATRON MOBILITY PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>27AANCA5219P1Z3</t>
+  </si>
+  <si>
+    <t>IN-49477</t>
+  </si>
+  <si>
+    <t>AARNA VENTURES PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>29AATCA0996P1ZJ</t>
+  </si>
+  <si>
+    <t>BFFKA24141945234</t>
+  </si>
+  <si>
+    <t>FAIC592400009322</t>
+  </si>
+  <si>
+    <t>VISVONATA V.S. DUCLO</t>
+  </si>
+  <si>
+    <t>VCM1038</t>
+  </si>
+  <si>
+    <t>83/23-24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -1679,7 +1718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2140,15 +2179,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2195,19 +2231,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2511,30 +2559,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="166"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="165"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="163"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="162"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -2754,11 +2802,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="167" t="s">
+      <c r="A12" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="167"/>
-      <c r="C12" s="167"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="166"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -2783,18 +2831,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="161" t="s">
+      <c r="A13" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="162"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="162"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="163"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="162"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -3581,11 +3629,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="157" t="s">
+      <c r="A42" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="158"/>
-      <c r="C42" s="159"/>
+      <c r="B42" s="157"/>
+      <c r="C42" s="158"/>
       <c r="D42" s="26">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -3610,30 +3658,30 @@
       <c r="J42" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="164" t="s">
+      <c r="A44" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="165"/>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
-      <c r="E44" s="165"/>
-      <c r="F44" s="165"/>
-      <c r="G44" s="165"/>
-      <c r="H44" s="165"/>
-      <c r="I44" s="165"/>
-      <c r="J44" s="166"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
+      <c r="E44" s="164"/>
+      <c r="F44" s="164"/>
+      <c r="G44" s="164"/>
+      <c r="H44" s="164"/>
+      <c r="I44" s="164"/>
+      <c r="J44" s="165"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="161" t="s">
+      <c r="A45" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="162"/>
-      <c r="C45" s="162"/>
-      <c r="D45" s="162"/>
-      <c r="E45" s="162"/>
-      <c r="F45" s="162"/>
-      <c r="G45" s="162"/>
-      <c r="H45" s="163"/>
+      <c r="B45" s="161"/>
+      <c r="C45" s="161"/>
+      <c r="D45" s="161"/>
+      <c r="E45" s="161"/>
+      <c r="F45" s="161"/>
+      <c r="G45" s="161"/>
+      <c r="H45" s="162"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -3909,11 +3957,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="160" t="s">
+      <c r="A56" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="160"/>
-      <c r="C56" s="160"/>
+      <c r="B56" s="159"/>
+      <c r="C56" s="159"/>
       <c r="D56" s="27">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -3938,18 +3986,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="161" t="s">
+      <c r="A57" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="162"/>
-      <c r="C57" s="162"/>
-      <c r="D57" s="162"/>
-      <c r="E57" s="162"/>
-      <c r="F57" s="162"/>
-      <c r="G57" s="162"/>
-      <c r="H57" s="162"/>
-      <c r="I57" s="162"/>
-      <c r="J57" s="163"/>
+      <c r="B57" s="161"/>
+      <c r="C57" s="161"/>
+      <c r="D57" s="161"/>
+      <c r="E57" s="161"/>
+      <c r="F57" s="161"/>
+      <c r="G57" s="161"/>
+      <c r="H57" s="161"/>
+      <c r="I57" s="161"/>
+      <c r="J57" s="162"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -4787,11 +4835,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="168" t="s">
+      <c r="A88" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="169"/>
-      <c r="C88" s="170"/>
+      <c r="B88" s="168"/>
+      <c r="C88" s="169"/>
       <c r="D88" s="27">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -4816,30 +4864,30 @@
       <c r="J88" s="27"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="164" t="s">
+      <c r="A90" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="165"/>
-      <c r="C90" s="165"/>
-      <c r="D90" s="165"/>
-      <c r="E90" s="165"/>
-      <c r="F90" s="165"/>
-      <c r="G90" s="165"/>
-      <c r="H90" s="165"/>
-      <c r="I90" s="165"/>
-      <c r="J90" s="166"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="164"/>
+      <c r="D90" s="164"/>
+      <c r="E90" s="164"/>
+      <c r="F90" s="164"/>
+      <c r="G90" s="164"/>
+      <c r="H90" s="164"/>
+      <c r="I90" s="164"/>
+      <c r="J90" s="165"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="161" t="s">
+      <c r="A91" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="162"/>
-      <c r="C91" s="162"/>
-      <c r="D91" s="162"/>
-      <c r="E91" s="162"/>
-      <c r="F91" s="162"/>
-      <c r="G91" s="162"/>
-      <c r="H91" s="163"/>
+      <c r="B91" s="161"/>
+      <c r="C91" s="161"/>
+      <c r="D91" s="161"/>
+      <c r="E91" s="161"/>
+      <c r="F91" s="161"/>
+      <c r="G91" s="161"/>
+      <c r="H91" s="162"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -5061,11 +5109,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="160" t="s">
+      <c r="A100" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="160"/>
-      <c r="C100" s="160"/>
+      <c r="B100" s="159"/>
+      <c r="C100" s="159"/>
       <c r="D100" s="27">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -5090,18 +5138,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="161" t="s">
+      <c r="A101" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="162"/>
-      <c r="C101" s="162"/>
-      <c r="D101" s="162"/>
-      <c r="E101" s="162"/>
-      <c r="F101" s="162"/>
-      <c r="G101" s="162"/>
-      <c r="H101" s="162"/>
-      <c r="I101" s="162"/>
-      <c r="J101" s="163"/>
+      <c r="B101" s="161"/>
+      <c r="C101" s="161"/>
+      <c r="D101" s="161"/>
+      <c r="E101" s="161"/>
+      <c r="F101" s="161"/>
+      <c r="G101" s="161"/>
+      <c r="H101" s="161"/>
+      <c r="I101" s="161"/>
+      <c r="J101" s="162"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -5756,11 +5804,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="157" t="s">
+      <c r="A125" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="158"/>
-      <c r="C125" s="159"/>
+      <c r="B125" s="157"/>
+      <c r="C125" s="158"/>
       <c r="D125" s="26">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -6018,30 +6066,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="166"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="165"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="163"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="162"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6128,11 +6176,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="171" t="s">
+      <c r="A7" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
       <c r="D7" s="33">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -6157,18 +6205,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="163"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="162"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -6826,11 +6874,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="174" t="s">
+      <c r="A32" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="174"/>
-      <c r="C32" s="174"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="171"/>
       <c r="D32" s="51">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -6860,30 +6908,30 @@
       <c r="C33" s="44"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="164" t="s">
+      <c r="A34" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="165"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="165"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="166"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="165"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="161" t="s">
+      <c r="A35" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="162"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="163"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
+      <c r="H35" s="162"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
@@ -7024,11 +7072,11 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="171" t="s">
+      <c r="A41" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="171"/>
-      <c r="C41" s="171"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
       <c r="D41" s="33">
         <f>SUM(D37:D40)</f>
         <v>613000</v>
@@ -7053,18 +7101,18 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="161" t="s">
+      <c r="A42" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="162"/>
-      <c r="C42" s="162"/>
-      <c r="D42" s="162"/>
-      <c r="E42" s="162"/>
-      <c r="F42" s="162"/>
-      <c r="G42" s="162"/>
-      <c r="H42" s="162"/>
-      <c r="I42" s="162"/>
-      <c r="J42" s="163"/>
+      <c r="B42" s="161"/>
+      <c r="C42" s="161"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="161"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="162"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
@@ -8057,30 +8105,30 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="164" t="s">
+      <c r="A79" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="165"/>
-      <c r="C79" s="165"/>
-      <c r="D79" s="165"/>
-      <c r="E79" s="165"/>
-      <c r="F79" s="165"/>
-      <c r="G79" s="165"/>
-      <c r="H79" s="165"/>
-      <c r="I79" s="165"/>
-      <c r="J79" s="166"/>
+      <c r="B79" s="164"/>
+      <c r="C79" s="164"/>
+      <c r="D79" s="164"/>
+      <c r="E79" s="164"/>
+      <c r="F79" s="164"/>
+      <c r="G79" s="164"/>
+      <c r="H79" s="164"/>
+      <c r="I79" s="164"/>
+      <c r="J79" s="165"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="161" t="s">
+      <c r="A80" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="162"/>
-      <c r="C80" s="162"/>
-      <c r="D80" s="162"/>
-      <c r="E80" s="162"/>
-      <c r="F80" s="162"/>
-      <c r="G80" s="162"/>
-      <c r="H80" s="163"/>
+      <c r="B80" s="161"/>
+      <c r="C80" s="161"/>
+      <c r="D80" s="161"/>
+      <c r="E80" s="161"/>
+      <c r="F80" s="161"/>
+      <c r="G80" s="161"/>
+      <c r="H80" s="162"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
@@ -8194,11 +8242,11 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="171" t="s">
+      <c r="A85" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="171"/>
-      <c r="C85" s="171"/>
+      <c r="B85" s="170"/>
+      <c r="C85" s="170"/>
       <c r="D85" s="33">
         <f>SUM(D82:D84)</f>
         <v>204284</v>
@@ -8223,18 +8271,18 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="161" t="s">
+      <c r="A86" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="162"/>
-      <c r="C86" s="162"/>
-      <c r="D86" s="162"/>
-      <c r="E86" s="162"/>
-      <c r="F86" s="162"/>
-      <c r="G86" s="162"/>
-      <c r="H86" s="162"/>
-      <c r="I86" s="162"/>
-      <c r="J86" s="163"/>
+      <c r="B86" s="161"/>
+      <c r="C86" s="161"/>
+      <c r="D86" s="161"/>
+      <c r="E86" s="161"/>
+      <c r="F86" s="161"/>
+      <c r="G86" s="161"/>
+      <c r="H86" s="161"/>
+      <c r="I86" s="161"/>
+      <c r="J86" s="162"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="53" t="s">
@@ -9019,12 +9067,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A86:J86"/>
     <mergeCell ref="A114:C114"/>
@@ -9034,6 +9076,12 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A80:H80"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9042,10 +9090,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K112"/>
+  <dimension ref="A2:K118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+      <selection activeCell="A108" sqref="A108:C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9064,30 +9112,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="163" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="166"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="165"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="163"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="162"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -9132,11 +9180,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" ht="21">
-      <c r="A6" s="167" t="s">
+      <c r="A6" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
       <c r="D6" s="15">
         <f>SUM(D5:D5)</f>
         <v>0</v>
@@ -9161,18 +9209,18 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="21">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="163"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="162"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="16" t="s">
@@ -9781,11 +9829,11 @@
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="176" t="s">
+      <c r="A29" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="176"/>
-      <c r="C29" s="176"/>
+      <c r="B29" s="174"/>
+      <c r="C29" s="174"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -9811,30 +9859,30 @@
       <c r="K29" s="69"/>
     </row>
     <row r="31" spans="1:11" ht="21">
-      <c r="A31" s="164" t="s">
+      <c r="A31" s="163" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="165"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="165"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="166"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="165"/>
     </row>
     <row r="32" spans="1:11" ht="21">
-      <c r="A32" s="161" t="s">
+      <c r="A32" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="163"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="162"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -10080,11 +10128,11 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="160" t="s">
+      <c r="A42" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="160"/>
-      <c r="C42" s="160"/>
+      <c r="B42" s="159"/>
+      <c r="C42" s="159"/>
       <c r="D42" s="27">
         <f>SUM(D34:D41)</f>
         <v>983754</v>
@@ -10109,18 +10157,18 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="161" t="s">
+      <c r="A43" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="162"/>
-      <c r="C43" s="162"/>
-      <c r="D43" s="162"/>
-      <c r="E43" s="162"/>
-      <c r="F43" s="162"/>
-      <c r="G43" s="162"/>
-      <c r="H43" s="162"/>
-      <c r="I43" s="162"/>
-      <c r="J43" s="163"/>
+      <c r="B43" s="161"/>
+      <c r="C43" s="161"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="161"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="161"/>
+      <c r="J43" s="162"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1">
       <c r="A44" s="16" t="s">
@@ -11150,11 +11198,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A81" s="160" t="s">
+      <c r="A81" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="160"/>
-      <c r="C81" s="160"/>
+      <c r="B81" s="159"/>
+      <c r="C81" s="159"/>
       <c r="D81" s="27">
         <f>SUM(D45:D80)</f>
         <v>599787.05000000005</v>
@@ -11179,30 +11227,30 @@
       <c r="J81" s="27"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="164" t="s">
+      <c r="A83" s="163" t="s">
         <v>232</v>
       </c>
-      <c r="B83" s="165"/>
-      <c r="C83" s="165"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="165"/>
-      <c r="F83" s="165"/>
-      <c r="G83" s="165"/>
-      <c r="H83" s="165"/>
-      <c r="I83" s="165"/>
-      <c r="J83" s="166"/>
+      <c r="B83" s="164"/>
+      <c r="C83" s="164"/>
+      <c r="D83" s="164"/>
+      <c r="E83" s="164"/>
+      <c r="F83" s="164"/>
+      <c r="G83" s="164"/>
+      <c r="H83" s="164"/>
+      <c r="I83" s="164"/>
+      <c r="J83" s="165"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="161" t="s">
+      <c r="A84" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="162"/>
-      <c r="C84" s="162"/>
-      <c r="D84" s="162"/>
-      <c r="E84" s="162"/>
-      <c r="F84" s="162"/>
-      <c r="G84" s="162"/>
-      <c r="H84" s="163"/>
+      <c r="B84" s="161"/>
+      <c r="C84" s="161"/>
+      <c r="D84" s="161"/>
+      <c r="E84" s="161"/>
+      <c r="F84" s="161"/>
+      <c r="G84" s="161"/>
+      <c r="H84" s="162"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
@@ -11293,7 +11341,7 @@
       <c r="A88" s="18">
         <v>45261</v>
       </c>
-      <c r="B88" s="156" t="s">
+      <c r="B88" s="154" t="s">
         <v>407</v>
       </c>
       <c r="C88" s="19" t="s">
@@ -11321,7 +11369,7 @@
       <c r="A89" s="18">
         <v>45261</v>
       </c>
-      <c r="B89" s="156" t="s">
+      <c r="B89" s="154" t="s">
         <v>407</v>
       </c>
       <c r="C89" s="19" t="s">
@@ -11402,11 +11450,11 @@
       </c>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A92" s="160" t="s">
+      <c r="A92" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="B92" s="160"/>
-      <c r="C92" s="160"/>
+      <c r="B92" s="159"/>
+      <c r="C92" s="159"/>
       <c r="D92" s="27">
         <f>SUM(D86:D91)</f>
         <v>2195031</v>
@@ -11431,18 +11479,18 @@
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="1:10" ht="21">
-      <c r="A93" s="161" t="s">
+      <c r="A93" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="162"/>
-      <c r="C93" s="162"/>
-      <c r="D93" s="162"/>
-      <c r="E93" s="162"/>
-      <c r="F93" s="162"/>
-      <c r="G93" s="162"/>
-      <c r="H93" s="162"/>
-      <c r="I93" s="162"/>
-      <c r="J93" s="163"/>
+      <c r="B93" s="161"/>
+      <c r="C93" s="161"/>
+      <c r="D93" s="161"/>
+      <c r="E93" s="161"/>
+      <c r="F93" s="161"/>
+      <c r="G93" s="161"/>
+      <c r="H93" s="161"/>
+      <c r="I93" s="161"/>
+      <c r="J93" s="162"/>
     </row>
     <row r="94" spans="1:10" s="6" customFormat="1">
       <c r="A94" s="16" t="s">
@@ -11477,245 +11525,413 @@
       </c>
     </row>
     <row r="95" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A95" s="75">
+      <c r="A95" s="127">
         <v>45261</v>
       </c>
-      <c r="B95" s="78" t="s">
+      <c r="B95" s="128" t="s">
         <v>435</v>
       </c>
-      <c r="C95" s="77" t="s">
+      <c r="C95" s="125" t="s">
         <v>436</v>
       </c>
-      <c r="D95" s="76">
+      <c r="D95" s="123">
         <v>20340</v>
       </c>
-      <c r="E95" s="76">
+      <c r="E95" s="123">
         <v>3661</v>
       </c>
-      <c r="F95" s="76"/>
-      <c r="G95" s="76"/>
-      <c r="H95" s="76">
+      <c r="F95" s="123"/>
+      <c r="G95" s="123"/>
+      <c r="H95" s="123">
         <f>D95+E95+F95+G95</f>
         <v>24001</v>
       </c>
-      <c r="I95" s="76"/>
-      <c r="J95" s="77" t="s">
+      <c r="I95" s="123"/>
+      <c r="J95" s="125" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A96" s="85">
+      <c r="A96" s="127">
         <v>45262</v>
       </c>
-      <c r="B96" s="48" t="s">
+      <c r="B96" s="125" t="s">
         <v>426</v>
       </c>
-      <c r="C96" s="48">
+      <c r="C96" s="125">
         <v>2074</v>
       </c>
-      <c r="D96" s="49">
+      <c r="D96" s="123">
         <v>420</v>
       </c>
-      <c r="E96" s="49">
+      <c r="E96" s="123">
         <v>76</v>
       </c>
-      <c r="F96" s="49"/>
-      <c r="G96" s="49"/>
-      <c r="H96" s="76">
-        <f t="shared" ref="H96:H98" si="4">D96+E96+F96+G96</f>
+      <c r="F96" s="123"/>
+      <c r="G96" s="123"/>
+      <c r="H96" s="123">
+        <f t="shared" ref="H96:H99" si="4">D96+E96+F96+G96</f>
         <v>496</v>
       </c>
-      <c r="I96" s="49"/>
-      <c r="J96" s="88" t="s">
+      <c r="I96" s="123"/>
+      <c r="J96" s="128" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A97" s="154">
+      <c r="A97" s="127">
         <v>45262</v>
       </c>
-      <c r="B97" s="155" t="s">
+      <c r="B97" s="123" t="s">
         <v>449</v>
       </c>
-      <c r="C97" s="155">
+      <c r="C97" s="123">
         <v>3073</v>
       </c>
-      <c r="D97" s="155">
+      <c r="D97" s="123">
         <v>4514.1400000000003</v>
       </c>
-      <c r="E97" s="155"/>
-      <c r="F97" s="155">
+      <c r="E97" s="123"/>
+      <c r="F97" s="123">
         <v>406.27</v>
       </c>
-      <c r="G97" s="155">
+      <c r="G97" s="123">
         <v>406.27</v>
       </c>
-      <c r="H97" s="76">
+      <c r="H97" s="123">
         <v>5327</v>
       </c>
-      <c r="I97" s="155"/>
-      <c r="J97" s="155" t="s">
+      <c r="I97" s="123"/>
+      <c r="J97" s="123" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A98" s="85">
+      <c r="A98" s="127">
         <v>45265</v>
       </c>
-      <c r="B98" s="155" t="s">
+      <c r="B98" s="123" t="s">
         <v>246</v>
       </c>
-      <c r="C98" s="49">
+      <c r="C98" s="123">
         <v>4279</v>
       </c>
-      <c r="D98" s="49">
+      <c r="D98" s="123">
         <v>4516</v>
       </c>
-      <c r="E98" s="49"/>
-      <c r="F98" s="49">
+      <c r="E98" s="123"/>
+      <c r="F98" s="123">
         <v>406</v>
       </c>
-      <c r="G98" s="49">
+      <c r="G98" s="123">
         <v>406</v>
       </c>
-      <c r="H98" s="76">
+      <c r="H98" s="123">
         <f t="shared" si="4"/>
         <v>5328</v>
       </c>
-      <c r="I98" s="49"/>
-      <c r="J98" s="49" t="s">
+      <c r="I98" s="123"/>
+      <c r="J98" s="123" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A99" s="85">
+      <c r="A99" s="127">
+        <v>45267</v>
+      </c>
+      <c r="B99" s="125" t="s">
+        <v>459</v>
+      </c>
+      <c r="C99" s="125" t="s">
+        <v>461</v>
+      </c>
+      <c r="D99" s="123">
+        <v>591.53</v>
+      </c>
+      <c r="E99" s="123">
+        <v>106.47</v>
+      </c>
+      <c r="F99" s="123"/>
+      <c r="G99" s="123"/>
+      <c r="H99" s="123">
+        <f t="shared" si="4"/>
+        <v>698</v>
+      </c>
+      <c r="I99" s="123"/>
+      <c r="J99" s="125" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A100" s="127">
         <v>45268</v>
       </c>
-      <c r="B99" s="155" t="s">
+      <c r="B100" s="123" t="s">
         <v>451</v>
       </c>
-      <c r="C99" s="49">
+      <c r="C100" s="123">
         <v>5524</v>
       </c>
-      <c r="D99" s="49">
+      <c r="D100" s="123">
         <v>270</v>
       </c>
-      <c r="E99" s="49"/>
-      <c r="F99" s="49">
+      <c r="E100" s="123"/>
+      <c r="F100" s="123">
         <v>24.3</v>
       </c>
-      <c r="G99" s="49">
+      <c r="G100" s="123">
         <v>24.3</v>
       </c>
-      <c r="H99" s="76">
+      <c r="H100" s="123">
         <v>319</v>
       </c>
-      <c r="I99" s="49"/>
-      <c r="J99" s="49" t="s">
+      <c r="I100" s="123"/>
+      <c r="J100" s="123" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A100" s="85">
+    <row r="101" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A101" s="127">
+        <v>45269</v>
+      </c>
+      <c r="B101" s="125" t="s">
+        <v>462</v>
+      </c>
+      <c r="C101" s="125" t="s">
+        <v>464</v>
+      </c>
+      <c r="D101" s="123">
+        <v>24.58</v>
+      </c>
+      <c r="E101" s="123">
+        <v>4.42</v>
+      </c>
+      <c r="F101" s="123"/>
+      <c r="G101" s="123"/>
+      <c r="H101" s="123">
+        <f>D101+E101+F101+G101</f>
+        <v>29</v>
+      </c>
+      <c r="I101" s="123"/>
+      <c r="J101" s="125" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A102" s="127">
+        <v>45269</v>
+      </c>
+      <c r="B102" s="125" t="s">
+        <v>462</v>
+      </c>
+      <c r="C102" s="125" t="s">
+        <v>465</v>
+      </c>
+      <c r="D102" s="123">
+        <v>8050</v>
+      </c>
+      <c r="E102" s="123">
+        <v>1449</v>
+      </c>
+      <c r="F102" s="123"/>
+      <c r="G102" s="123"/>
+      <c r="H102" s="123">
+        <f>D102+E102+F102+G102</f>
+        <v>9499</v>
+      </c>
+      <c r="I102" s="123"/>
+      <c r="J102" s="125" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A103" s="127">
+        <v>45269</v>
+      </c>
+      <c r="B103" s="125" t="s">
+        <v>466</v>
+      </c>
+      <c r="C103" s="125" t="s">
+        <v>467</v>
+      </c>
+      <c r="D103" s="123">
+        <v>142.16999999999999</v>
+      </c>
+      <c r="E103" s="123"/>
+      <c r="F103" s="155">
+        <v>12.8</v>
+      </c>
+      <c r="G103" s="123">
+        <v>12.8</v>
+      </c>
+      <c r="H103" s="123">
+        <v>168</v>
+      </c>
+      <c r="I103" s="123"/>
+      <c r="J103" s="128" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A104" s="127">
         <v>45271</v>
       </c>
-      <c r="B100" s="155" t="s">
+      <c r="B104" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="C100" s="49" t="s">
+      <c r="C104" s="123" t="s">
         <v>453</v>
       </c>
-      <c r="D100" s="49">
+      <c r="D104" s="123">
         <v>3974.58</v>
       </c>
-      <c r="E100" s="49"/>
-      <c r="F100" s="49">
+      <c r="E104" s="123"/>
+      <c r="F104" s="123">
         <v>357.71</v>
       </c>
-      <c r="G100" s="49">
-        <v>357.11</v>
-      </c>
-      <c r="H100" s="76">
+      <c r="G104" s="123">
+        <v>357.71</v>
+      </c>
+      <c r="H104" s="123">
         <v>4690</v>
       </c>
-      <c r="I100" s="49"/>
-      <c r="J100" s="49" t="s">
+      <c r="I104" s="123"/>
+      <c r="J104" s="123" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A101" s="85">
+    <row r="105" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A105" s="127">
         <v>45272</v>
       </c>
-      <c r="B101" s="155" t="s">
+      <c r="B105" s="123" t="s">
         <v>454</v>
       </c>
-      <c r="C101" s="49" t="s">
+      <c r="C105" s="123" t="s">
         <v>455</v>
       </c>
-      <c r="D101" s="49">
+      <c r="D105" s="123">
         <v>110</v>
       </c>
-      <c r="E101" s="49"/>
-      <c r="F101" s="49">
+      <c r="E105" s="123"/>
+      <c r="F105" s="123">
         <v>9.9</v>
       </c>
-      <c r="G101" s="49">
+      <c r="G105" s="123">
         <v>9.9</v>
       </c>
-      <c r="H101" s="76">
+      <c r="H105" s="123">
         <v>130</v>
       </c>
-      <c r="I101" s="49"/>
-      <c r="J101" s="49" t="s">
+      <c r="I105" s="123"/>
+      <c r="J105" s="123" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A102" s="168" t="s">
+    <row r="106" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A106" s="127">
+        <v>45276</v>
+      </c>
+      <c r="B106" s="125" t="s">
+        <v>457</v>
+      </c>
+      <c r="C106" s="128" t="s">
+        <v>458</v>
+      </c>
+      <c r="D106" s="123">
+        <v>111250</v>
+      </c>
+      <c r="E106" s="123">
+        <v>20025</v>
+      </c>
+      <c r="F106" s="123"/>
+      <c r="G106" s="123"/>
+      <c r="H106" s="123">
+        <f>D106+E106+F106+G106</f>
+        <v>131275</v>
+      </c>
+      <c r="I106" s="123"/>
+      <c r="J106" s="125" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A107" s="176">
+        <v>45283</v>
+      </c>
+      <c r="B107" s="177" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107" s="178" t="s">
+        <v>468</v>
+      </c>
+      <c r="D107" s="179">
+        <v>44900</v>
+      </c>
+      <c r="E107" s="179">
+        <v>8082</v>
+      </c>
+      <c r="F107" s="179"/>
+      <c r="G107" s="179"/>
+      <c r="H107" s="123">
+        <f>D107+E107+F107+G107</f>
+        <v>52982</v>
+      </c>
+      <c r="I107" s="179"/>
+      <c r="J107" s="177" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A108" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="B102" s="169"/>
-      <c r="C102" s="170"/>
-      <c r="D102" s="27">
-        <f>SUM(D95:D101)</f>
-        <v>34144.720000000001</v>
-      </c>
-      <c r="E102" s="27">
-        <f>SUM(E95:E101)</f>
-        <v>3737</v>
-      </c>
-      <c r="F102" s="27">
-        <f>SUM(F95:F101)</f>
-        <v>1204.18</v>
-      </c>
-      <c r="G102" s="27">
-        <f>SUM(G95:G101)</f>
-        <v>1203.58</v>
-      </c>
-      <c r="H102" s="27">
-        <f>SUM(H95:H101)</f>
-        <v>40291</v>
-      </c>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-    </row>
-    <row r="104" spans="1:10">
-      <c r="A104" s="175"/>
-      <c r="B104" s="175"/>
-      <c r="C104" s="175"/>
-      <c r="D104" s="175"/>
-      <c r="E104" s="175"/>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="175"/>
-      <c r="B112" s="175"/>
-      <c r="C112" s="175"/>
-      <c r="D112" s="175"/>
-      <c r="E112" s="175"/>
+      <c r="B108" s="174"/>
+      <c r="C108" s="174"/>
+      <c r="D108" s="26">
+        <f>SUM(D95:D107)</f>
+        <v>199103</v>
+      </c>
+      <c r="E108" s="26">
+        <f>SUM(E95:E106)</f>
+        <v>25321.89</v>
+      </c>
+      <c r="F108" s="26">
+        <f>SUM(F95:F106)</f>
+        <v>1216.98</v>
+      </c>
+      <c r="G108" s="26">
+        <f>SUM(G95:G106)</f>
+        <v>1216.98</v>
+      </c>
+      <c r="H108" s="26">
+        <f>SUM(H95:H106)</f>
+        <v>181960</v>
+      </c>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26"/>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="175"/>
+      <c r="B110" s="175"/>
+      <c r="C110" s="175"/>
+      <c r="D110" s="175"/>
+      <c r="E110" s="175"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="175"/>
+      <c r="B118" s="175"/>
+      <c r="C118" s="175"/>
+      <c r="D118" s="175"/>
+      <c r="E118" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:J93"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A118:E118"/>
     <mergeCell ref="A84:H84"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -11728,11 +11944,6 @@
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A81:C81"/>
     <mergeCell ref="A83:J83"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:J93"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A112:E112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11743,7 +11954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J94"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
@@ -11763,30 +11974,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="163" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="166"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="165"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="163"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="162"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -11921,11 +12132,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="171" t="s">
+      <c r="A14" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="171"/>
-      <c r="C14" s="171"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="170"/>
       <c r="D14" s="33">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -11950,18 +12161,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="161" t="s">
+      <c r="A15" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="162"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="163"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="162"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="34" t="s">
@@ -12174,30 +12385,30 @@
       <c r="C30" s="44"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="164" t="s">
+      <c r="A31" s="163" t="s">
         <v>234</v>
       </c>
-      <c r="B31" s="165"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="165"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="166"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="165"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="161" t="s">
+      <c r="A32" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="163"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="162"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -12290,11 +12501,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="171" t="s">
+      <c r="A39" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="171"/>
-      <c r="C39" s="171"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
       <c r="D39" s="33">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -12319,18 +12530,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="161" t="s">
+      <c r="A40" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="162"/>
-      <c r="C40" s="162"/>
-      <c r="D40" s="162"/>
-      <c r="E40" s="162"/>
-      <c r="F40" s="162"/>
-      <c r="G40" s="162"/>
-      <c r="H40" s="162"/>
-      <c r="I40" s="162"/>
-      <c r="J40" s="163"/>
+      <c r="B40" s="161"/>
+      <c r="C40" s="161"/>
+      <c r="D40" s="161"/>
+      <c r="E40" s="161"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="161"/>
+      <c r="J40" s="162"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="34" t="s">
@@ -12641,11 +12852,11 @@
       <c r="J64" s="29"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="174" t="s">
+      <c r="A65" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="174"/>
-      <c r="C65" s="174"/>
+      <c r="B65" s="171"/>
+      <c r="C65" s="171"/>
       <c r="D65" s="51">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -12670,30 +12881,30 @@
       <c r="J65" s="51"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="164" t="s">
+      <c r="A67" s="163" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="165"/>
-      <c r="C67" s="165"/>
-      <c r="D67" s="165"/>
-      <c r="E67" s="165"/>
-      <c r="F67" s="165"/>
-      <c r="G67" s="165"/>
-      <c r="H67" s="165"/>
-      <c r="I67" s="165"/>
-      <c r="J67" s="166"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="164"/>
+      <c r="E67" s="164"/>
+      <c r="F67" s="164"/>
+      <c r="G67" s="164"/>
+      <c r="H67" s="164"/>
+      <c r="I67" s="164"/>
+      <c r="J67" s="165"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="161" t="s">
+      <c r="A68" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="162"/>
-      <c r="C68" s="162"/>
-      <c r="D68" s="162"/>
-      <c r="E68" s="162"/>
-      <c r="F68" s="162"/>
-      <c r="G68" s="162"/>
-      <c r="H68" s="163"/>
+      <c r="B68" s="161"/>
+      <c r="C68" s="161"/>
+      <c r="D68" s="161"/>
+      <c r="E68" s="161"/>
+      <c r="F68" s="161"/>
+      <c r="G68" s="161"/>
+      <c r="H68" s="162"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -12762,11 +12973,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="171" t="s">
+      <c r="A73" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="171"/>
-      <c r="C73" s="171"/>
+      <c r="B73" s="170"/>
+      <c r="C73" s="170"/>
       <c r="D73" s="33">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -12791,18 +13002,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="161" t="s">
+      <c r="A74" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="162"/>
-      <c r="C74" s="162"/>
-      <c r="D74" s="162"/>
-      <c r="E74" s="162"/>
-      <c r="F74" s="162"/>
-      <c r="G74" s="162"/>
-      <c r="H74" s="162"/>
-      <c r="I74" s="162"/>
-      <c r="J74" s="163"/>
+      <c r="B74" s="161"/>
+      <c r="C74" s="161"/>
+      <c r="D74" s="161"/>
+      <c r="E74" s="161"/>
+      <c r="F74" s="161"/>
+      <c r="G74" s="161"/>
+      <c r="H74" s="161"/>
+      <c r="I74" s="161"/>
+      <c r="J74" s="162"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="53" t="s">
@@ -13083,12 +13294,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -13098,6 +13303,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="477">
   <si>
     <t>APRIL</t>
   </si>
@@ -1429,6 +1429,30 @@
   </si>
   <si>
     <t>83/23-24</t>
+  </si>
+  <si>
+    <t>Tuflex Roofings</t>
+  </si>
+  <si>
+    <t>329/23-24</t>
+  </si>
+  <si>
+    <t>27BEOPS0506L1Z4</t>
+  </si>
+  <si>
+    <t>331/23-24</t>
+  </si>
+  <si>
+    <t>CA-614</t>
+  </si>
+  <si>
+    <t>Hatley Technologies</t>
+  </si>
+  <si>
+    <t>PNJ/23-24/3182</t>
+  </si>
+  <si>
+    <t>30AAFFH4689F1ZG</t>
   </si>
 </sst>
 </file>
@@ -2185,6 +2209,18 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2231,31 +2267,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2559,30 +2583,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="165"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="169"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="162"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="166"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -2802,11 +2826,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="166"/>
-      <c r="C12" s="166"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="170"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -2831,18 +2855,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="160" t="s">
+      <c r="A13" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="161"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="162"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="166"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -3629,11 +3653,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="156" t="s">
+      <c r="A42" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="157"/>
-      <c r="C42" s="158"/>
+      <c r="B42" s="161"/>
+      <c r="C42" s="162"/>
       <c r="D42" s="26">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -3658,30 +3682,30 @@
       <c r="J42" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="163" t="s">
+      <c r="A44" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="164"/>
-      <c r="C44" s="164"/>
-      <c r="D44" s="164"/>
-      <c r="E44" s="164"/>
-      <c r="F44" s="164"/>
-      <c r="G44" s="164"/>
-      <c r="H44" s="164"/>
-      <c r="I44" s="164"/>
-      <c r="J44" s="165"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="168"/>
+      <c r="F44" s="168"/>
+      <c r="G44" s="168"/>
+      <c r="H44" s="168"/>
+      <c r="I44" s="168"/>
+      <c r="J44" s="169"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="160" t="s">
+      <c r="A45" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="161"/>
-      <c r="C45" s="161"/>
-      <c r="D45" s="161"/>
-      <c r="E45" s="161"/>
-      <c r="F45" s="161"/>
-      <c r="G45" s="161"/>
-      <c r="H45" s="162"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="165"/>
+      <c r="F45" s="165"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="166"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -3957,11 +3981,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="159" t="s">
+      <c r="A56" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="159"/>
-      <c r="C56" s="159"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="163"/>
       <c r="D56" s="27">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -3986,18 +4010,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="160" t="s">
+      <c r="A57" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="161"/>
-      <c r="C57" s="161"/>
-      <c r="D57" s="161"/>
-      <c r="E57" s="161"/>
-      <c r="F57" s="161"/>
-      <c r="G57" s="161"/>
-      <c r="H57" s="161"/>
-      <c r="I57" s="161"/>
-      <c r="J57" s="162"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
+      <c r="E57" s="165"/>
+      <c r="F57" s="165"/>
+      <c r="G57" s="165"/>
+      <c r="H57" s="165"/>
+      <c r="I57" s="165"/>
+      <c r="J57" s="166"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -4835,11 +4859,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="167" t="s">
+      <c r="A88" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="168"/>
-      <c r="C88" s="169"/>
+      <c r="B88" s="172"/>
+      <c r="C88" s="173"/>
       <c r="D88" s="27">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -4864,30 +4888,30 @@
       <c r="J88" s="27"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="163" t="s">
+      <c r="A90" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="164"/>
-      <c r="C90" s="164"/>
-      <c r="D90" s="164"/>
-      <c r="E90" s="164"/>
-      <c r="F90" s="164"/>
-      <c r="G90" s="164"/>
-      <c r="H90" s="164"/>
-      <c r="I90" s="164"/>
-      <c r="J90" s="165"/>
+      <c r="B90" s="168"/>
+      <c r="C90" s="168"/>
+      <c r="D90" s="168"/>
+      <c r="E90" s="168"/>
+      <c r="F90" s="168"/>
+      <c r="G90" s="168"/>
+      <c r="H90" s="168"/>
+      <c r="I90" s="168"/>
+      <c r="J90" s="169"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="160" t="s">
+      <c r="A91" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="161"/>
-      <c r="C91" s="161"/>
-      <c r="D91" s="161"/>
-      <c r="E91" s="161"/>
-      <c r="F91" s="161"/>
-      <c r="G91" s="161"/>
-      <c r="H91" s="162"/>
+      <c r="B91" s="165"/>
+      <c r="C91" s="165"/>
+      <c r="D91" s="165"/>
+      <c r="E91" s="165"/>
+      <c r="F91" s="165"/>
+      <c r="G91" s="165"/>
+      <c r="H91" s="166"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -5109,11 +5133,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="159" t="s">
+      <c r="A100" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="159"/>
-      <c r="C100" s="159"/>
+      <c r="B100" s="163"/>
+      <c r="C100" s="163"/>
       <c r="D100" s="27">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -5138,18 +5162,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="160" t="s">
+      <c r="A101" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="161"/>
-      <c r="C101" s="161"/>
-      <c r="D101" s="161"/>
-      <c r="E101" s="161"/>
-      <c r="F101" s="161"/>
-      <c r="G101" s="161"/>
-      <c r="H101" s="161"/>
-      <c r="I101" s="161"/>
-      <c r="J101" s="162"/>
+      <c r="B101" s="165"/>
+      <c r="C101" s="165"/>
+      <c r="D101" s="165"/>
+      <c r="E101" s="165"/>
+      <c r="F101" s="165"/>
+      <c r="G101" s="165"/>
+      <c r="H101" s="165"/>
+      <c r="I101" s="165"/>
+      <c r="J101" s="166"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -5804,11 +5828,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="156" t="s">
+      <c r="A125" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="157"/>
-      <c r="C125" s="158"/>
+      <c r="B125" s="161"/>
+      <c r="C125" s="162"/>
       <c r="D125" s="26">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -6066,30 +6090,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="165"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="169"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="162"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="166"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6176,11 +6200,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="170" t="s">
+      <c r="A7" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
       <c r="D7" s="33">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -6205,18 +6229,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="161"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="162"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="166"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -6874,11 +6898,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="171" t="s">
+      <c r="A32" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="171"/>
-      <c r="C32" s="171"/>
+      <c r="B32" s="177"/>
+      <c r="C32" s="177"/>
       <c r="D32" s="51">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -6908,30 +6932,30 @@
       <c r="C33" s="44"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="163" t="s">
+      <c r="A34" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="164"/>
-      <c r="C34" s="164"/>
-      <c r="D34" s="164"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="164"/>
-      <c r="G34" s="164"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="164"/>
-      <c r="J34" s="165"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="168"/>
+      <c r="F34" s="168"/>
+      <c r="G34" s="168"/>
+      <c r="H34" s="168"/>
+      <c r="I34" s="168"/>
+      <c r="J34" s="169"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="160" t="s">
+      <c r="A35" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="161"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="162"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="166"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
@@ -7072,11 +7096,11 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="170" t="s">
+      <c r="A41" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="170"/>
-      <c r="C41" s="170"/>
+      <c r="B41" s="174"/>
+      <c r="C41" s="174"/>
       <c r="D41" s="33">
         <f>SUM(D37:D40)</f>
         <v>613000</v>
@@ -7101,18 +7125,18 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="160" t="s">
+      <c r="A42" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="161"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="161"/>
-      <c r="E42" s="161"/>
-      <c r="F42" s="161"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="162"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="165"/>
+      <c r="F42" s="165"/>
+      <c r="G42" s="165"/>
+      <c r="H42" s="165"/>
+      <c r="I42" s="165"/>
+      <c r="J42" s="166"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
@@ -8058,11 +8082,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="173" t="s">
+      <c r="A77" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="173"/>
-      <c r="C77" s="173"/>
+      <c r="B77" s="176"/>
+      <c r="C77" s="176"/>
       <c r="D77" s="42">
         <f>SUM(D44:D76)</f>
         <v>385770.4</v>
@@ -8105,30 +8129,30 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="163" t="s">
+      <c r="A79" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="164"/>
-      <c r="C79" s="164"/>
-      <c r="D79" s="164"/>
-      <c r="E79" s="164"/>
-      <c r="F79" s="164"/>
-      <c r="G79" s="164"/>
-      <c r="H79" s="164"/>
-      <c r="I79" s="164"/>
-      <c r="J79" s="165"/>
+      <c r="B79" s="168"/>
+      <c r="C79" s="168"/>
+      <c r="D79" s="168"/>
+      <c r="E79" s="168"/>
+      <c r="F79" s="168"/>
+      <c r="G79" s="168"/>
+      <c r="H79" s="168"/>
+      <c r="I79" s="168"/>
+      <c r="J79" s="169"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="160" t="s">
+      <c r="A80" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="161"/>
-      <c r="C80" s="161"/>
-      <c r="D80" s="161"/>
-      <c r="E80" s="161"/>
-      <c r="F80" s="161"/>
-      <c r="G80" s="161"/>
-      <c r="H80" s="162"/>
+      <c r="B80" s="165"/>
+      <c r="C80" s="165"/>
+      <c r="D80" s="165"/>
+      <c r="E80" s="165"/>
+      <c r="F80" s="165"/>
+      <c r="G80" s="165"/>
+      <c r="H80" s="166"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
@@ -8242,11 +8266,11 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="170" t="s">
+      <c r="A85" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="170"/>
-      <c r="C85" s="170"/>
+      <c r="B85" s="174"/>
+      <c r="C85" s="174"/>
       <c r="D85" s="33">
         <f>SUM(D82:D84)</f>
         <v>204284</v>
@@ -8271,18 +8295,18 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="160" t="s">
+      <c r="A86" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="161"/>
-      <c r="C86" s="161"/>
-      <c r="D86" s="161"/>
-      <c r="E86" s="161"/>
-      <c r="F86" s="161"/>
-      <c r="G86" s="161"/>
-      <c r="H86" s="161"/>
-      <c r="I86" s="161"/>
-      <c r="J86" s="162"/>
+      <c r="B86" s="165"/>
+      <c r="C86" s="165"/>
+      <c r="D86" s="165"/>
+      <c r="E86" s="165"/>
+      <c r="F86" s="165"/>
+      <c r="G86" s="165"/>
+      <c r="H86" s="165"/>
+      <c r="I86" s="165"/>
+      <c r="J86" s="166"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="53" t="s">
@@ -9037,11 +9061,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="172" t="s">
+      <c r="A114" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="172"/>
-      <c r="C114" s="172"/>
+      <c r="B114" s="175"/>
+      <c r="C114" s="175"/>
       <c r="D114" s="68">
         <f>SUM(D88:D113)</f>
         <v>438291.73</v>
@@ -9067,6 +9091,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A86:J86"/>
     <mergeCell ref="A114:C114"/>
@@ -9076,12 +9106,6 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A80:H80"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9090,10 +9114,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K118"/>
+  <dimension ref="A2:K120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:C108"/>
+      <selection activeCell="J110" sqref="J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9112,30 +9136,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="167" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="165"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="169"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="162"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="166"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -9180,11 +9204,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" ht="21">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
       <c r="D6" s="15">
         <f>SUM(D5:D5)</f>
         <v>0</v>
@@ -9209,18 +9233,18 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="21">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="161"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="162"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="166"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="16" t="s">
@@ -9303,7 +9327,7 @@
         <v>45</v>
       </c>
       <c r="H10" s="104">
-        <f t="shared" ref="H10:H24" si="0">D10+E10+F10+G10</f>
+        <f>D10+E10+F10+G10</f>
         <v>590</v>
       </c>
       <c r="I10" s="104"/>
@@ -9332,7 +9356,7 @@
         <v>1350</v>
       </c>
       <c r="H11" s="104">
-        <f t="shared" si="0"/>
+        <f>D11+E11+F11+G11</f>
         <v>17700</v>
       </c>
       <c r="I11" s="104"/>
@@ -9589,7 +9613,7 @@
         <v>31.5</v>
       </c>
       <c r="H20" s="104">
-        <f t="shared" si="0"/>
+        <f>D20+E20+F20+G20</f>
         <v>413</v>
       </c>
       <c r="I20" s="103"/>
@@ -9646,7 +9670,7 @@
       <c r="F22" s="103"/>
       <c r="G22" s="103"/>
       <c r="H22" s="104">
-        <f t="shared" si="0"/>
+        <f>D22+E22+F22+G22</f>
         <v>87058.599999999991</v>
       </c>
       <c r="I22" s="103"/>
@@ -9674,7 +9698,7 @@
       <c r="F23" s="103"/>
       <c r="G23" s="103"/>
       <c r="H23" s="104">
-        <f t="shared" si="0"/>
+        <f>D23+E23+F23+G23</f>
         <v>52510</v>
       </c>
       <c r="I23" s="103"/>
@@ -9702,7 +9726,7 @@
       <c r="F24" s="103"/>
       <c r="G24" s="103"/>
       <c r="H24" s="104">
-        <f t="shared" si="0"/>
+        <f>D24+E24+F24+G24</f>
         <v>25960</v>
       </c>
       <c r="I24" s="103"/>
@@ -9789,7 +9813,7 @@
         <v>4.5</v>
       </c>
       <c r="H27" s="76">
-        <f t="shared" ref="H27:H28" si="1">D27+E27+F27+G27</f>
+        <f>D27+E27+F27+G27</f>
         <v>59</v>
       </c>
       <c r="I27" s="77"/>
@@ -9819,7 +9843,7 @@
         <v>31.5</v>
       </c>
       <c r="H28" s="76">
-        <f t="shared" si="1"/>
+        <f>D28+E28+F28+G28</f>
         <v>413</v>
       </c>
       <c r="I28" s="77"/>
@@ -9829,11 +9853,11 @@
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="174" t="s">
+      <c r="A29" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="174"/>
-      <c r="C29" s="174"/>
+      <c r="B29" s="178"/>
+      <c r="C29" s="178"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -9859,30 +9883,30 @@
       <c r="K29" s="69"/>
     </row>
     <row r="31" spans="1:11" ht="21">
-      <c r="A31" s="163" t="s">
+      <c r="A31" s="167" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="164"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="165"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="169"/>
     </row>
     <row r="32" spans="1:11" ht="21">
-      <c r="A32" s="160" t="s">
+      <c r="A32" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="162"/>
+      <c r="B32" s="165"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="166"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -9962,7 +9986,7 @@
         <v>25807.95</v>
       </c>
       <c r="H35" s="19">
-        <f t="shared" ref="H35:H38" si="2">D35+E35+F35+G35</f>
+        <f>D35+E35+F35+G35</f>
         <v>338370.9</v>
       </c>
       <c r="I35" s="5"/>
@@ -9989,7 +10013,7 @@
         <v>23230.35</v>
       </c>
       <c r="H36" s="19">
-        <f t="shared" si="2"/>
+        <f>D36+E36+F36+G36</f>
         <v>304575.69999999995</v>
       </c>
       <c r="I36" s="5"/>
@@ -10016,7 +10040,7 @@
         <v>10242</v>
       </c>
       <c r="H37" s="19">
-        <f t="shared" si="2"/>
+        <f>D37+E37+F37+G37</f>
         <v>134288</v>
       </c>
       <c r="I37" s="13"/>
@@ -10043,7 +10067,7 @@
         <v>8100</v>
       </c>
       <c r="H38" s="19">
-        <f t="shared" si="2"/>
+        <f>D38+E38+F38+G38</f>
         <v>106200</v>
       </c>
       <c r="I38" s="13"/>
@@ -10128,11 +10152,11 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="159" t="s">
+      <c r="A42" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="159"/>
-      <c r="C42" s="159"/>
+      <c r="B42" s="163"/>
+      <c r="C42" s="163"/>
       <c r="D42" s="27">
         <f>SUM(D34:D41)</f>
         <v>983754</v>
@@ -10157,18 +10181,18 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="160" t="s">
+      <c r="A43" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="161"/>
-      <c r="C43" s="161"/>
-      <c r="D43" s="161"/>
-      <c r="E43" s="161"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="161"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="161"/>
-      <c r="J43" s="162"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="165"/>
+      <c r="G43" s="165"/>
+      <c r="H43" s="165"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="166"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1">
       <c r="A44" s="16" t="s">
@@ -10277,7 +10301,7 @@
         <v>315</v>
       </c>
       <c r="H47" s="76">
-        <f t="shared" ref="H47:H73" si="3">D47+E47+F47+G47</f>
+        <f>D47+E47+F47+G47</f>
         <v>4130</v>
       </c>
       <c r="I47" s="76"/>
@@ -10304,7 +10328,7 @@
       <c r="F48" s="76"/>
       <c r="G48" s="76"/>
       <c r="H48" s="76">
-        <f t="shared" si="3"/>
+        <f>D48+E48+F48+G48</f>
         <v>556.5</v>
       </c>
       <c r="I48" s="76"/>
@@ -10385,7 +10409,7 @@
       <c r="F51" s="76"/>
       <c r="G51" s="76"/>
       <c r="H51" s="76">
-        <f t="shared" si="3"/>
+        <f>D51+E51+F51+G51</f>
         <v>698.99</v>
       </c>
       <c r="I51" s="76"/>
@@ -10412,7 +10436,7 @@
       <c r="F52" s="76"/>
       <c r="G52" s="76"/>
       <c r="H52" s="76">
-        <f t="shared" si="3"/>
+        <f>D52+E52+F52+G52</f>
         <v>499</v>
       </c>
       <c r="I52" s="76"/>
@@ -10439,7 +10463,7 @@
       <c r="F53" s="76"/>
       <c r="G53" s="76"/>
       <c r="H53" s="76">
-        <f t="shared" si="3"/>
+        <f>D53+E53+F53+G53</f>
         <v>499</v>
       </c>
       <c r="I53" s="76"/>
@@ -10466,7 +10490,7 @@
       <c r="F54" s="76"/>
       <c r="G54" s="76"/>
       <c r="H54" s="76">
-        <f t="shared" si="3"/>
+        <f>D54+E54+F54+G54</f>
         <v>865.99</v>
       </c>
       <c r="I54" s="76"/>
@@ -10493,7 +10517,7 @@
       <c r="F55" s="76"/>
       <c r="G55" s="76"/>
       <c r="H55" s="76">
-        <f t="shared" si="3"/>
+        <f>D55+E55+F55+G55</f>
         <v>798.99</v>
       </c>
       <c r="I55" s="76"/>
@@ -10548,7 +10572,7 @@
       <c r="F57" s="76"/>
       <c r="G57" s="76"/>
       <c r="H57" s="76">
-        <f t="shared" si="3"/>
+        <f>D57+E57+F57+G57</f>
         <v>39412</v>
       </c>
       <c r="I57" s="76"/>
@@ -10575,7 +10599,7 @@
       <c r="F58" s="76"/>
       <c r="G58" s="76"/>
       <c r="H58" s="76">
-        <f t="shared" si="3"/>
+        <f>D58+E58+F58+G58</f>
         <v>9213.99</v>
       </c>
       <c r="I58" s="76"/>
@@ -10602,7 +10626,7 @@
       <c r="F59" s="76"/>
       <c r="G59" s="76"/>
       <c r="H59" s="76">
-        <f t="shared" si="3"/>
+        <f>D59+E59+F59+G59</f>
         <v>699</v>
       </c>
       <c r="I59" s="76"/>
@@ -10773,7 +10797,7 @@
         <v>312.70999999999998</v>
       </c>
       <c r="H65" s="76">
-        <f t="shared" si="3"/>
+        <f>D65+E65+F65+G65</f>
         <v>4100</v>
       </c>
       <c r="I65" s="76"/>
@@ -10800,7 +10824,7 @@
       <c r="F66" s="76"/>
       <c r="G66" s="76"/>
       <c r="H66" s="76">
-        <f t="shared" si="3"/>
+        <f>D66+E66+F66+G66</f>
         <v>26491</v>
       </c>
       <c r="I66" s="76"/>
@@ -10855,7 +10879,7 @@
         <v>1257.9000000000001</v>
       </c>
       <c r="H68" s="76">
-        <f t="shared" si="3"/>
+        <f>D68+E68+F68+G68</f>
         <v>11500.8</v>
       </c>
       <c r="I68" s="76"/>
@@ -10994,7 +11018,7 @@
       <c r="F73" s="76"/>
       <c r="G73" s="76"/>
       <c r="H73" s="76">
-        <f t="shared" si="3"/>
+        <f>D73+E73+F73+G73</f>
         <v>2561</v>
       </c>
       <c r="I73" s="76"/>
@@ -11198,11 +11222,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A81" s="159" t="s">
+      <c r="A81" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="159"/>
-      <c r="C81" s="159"/>
+      <c r="B81" s="163"/>
+      <c r="C81" s="163"/>
       <c r="D81" s="27">
         <f>SUM(D45:D80)</f>
         <v>599787.05000000005</v>
@@ -11227,30 +11251,30 @@
       <c r="J81" s="27"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="163" t="s">
+      <c r="A83" s="167" t="s">
         <v>232</v>
       </c>
-      <c r="B83" s="164"/>
-      <c r="C83" s="164"/>
-      <c r="D83" s="164"/>
-      <c r="E83" s="164"/>
-      <c r="F83" s="164"/>
-      <c r="G83" s="164"/>
-      <c r="H83" s="164"/>
-      <c r="I83" s="164"/>
-      <c r="J83" s="165"/>
+      <c r="B83" s="168"/>
+      <c r="C83" s="168"/>
+      <c r="D83" s="168"/>
+      <c r="E83" s="168"/>
+      <c r="F83" s="168"/>
+      <c r="G83" s="168"/>
+      <c r="H83" s="168"/>
+      <c r="I83" s="168"/>
+      <c r="J83" s="169"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="160" t="s">
+      <c r="A84" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="161"/>
-      <c r="C84" s="161"/>
-      <c r="D84" s="161"/>
-      <c r="E84" s="161"/>
-      <c r="F84" s="161"/>
-      <c r="G84" s="161"/>
-      <c r="H84" s="162"/>
+      <c r="B84" s="165"/>
+      <c r="C84" s="165"/>
+      <c r="D84" s="165"/>
+      <c r="E84" s="165"/>
+      <c r="F84" s="165"/>
+      <c r="G84" s="165"/>
+      <c r="H84" s="166"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
@@ -11282,656 +11306,706 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A86" s="7">
-        <v>45211</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D86" s="8">
-        <v>1862120</v>
-      </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8">
-        <v>167950.8</v>
-      </c>
-      <c r="G86" s="8">
-        <v>167950.8</v>
+    <row r="86" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A86" s="18">
+        <v>45261</v>
+      </c>
+      <c r="B86" s="154" t="s">
+        <v>407</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D86" s="19">
+        <v>18560</v>
+      </c>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19">
+        <v>1670.6</v>
+      </c>
+      <c r="G86" s="19">
+        <v>1670.6</v>
       </c>
       <c r="H86" s="8">
-        <v>2202021.6</v>
-      </c>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-    </row>
-    <row r="87" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
+        <v>21900</v>
+      </c>
+      <c r="I86" s="5"/>
+      <c r="J86" s="153" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A87" s="18">
-        <v>45252</v>
+        <v>45271</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>411</v>
+        <v>23</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="D87" s="19">
-        <v>130208</v>
+        <v>144300</v>
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="19">
-        <v>11719</v>
+        <v>12987</v>
       </c>
       <c r="G87" s="19">
-        <v>11719</v>
-      </c>
-      <c r="H87" s="19">
+        <v>12987</v>
+      </c>
+      <c r="H87" s="8">
         <f>D87+E87+F87+G87</f>
-        <v>153646</v>
+        <v>170274</v>
       </c>
       <c r="I87" s="5"/>
-      <c r="J87" s="5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A88" s="18">
-        <v>45261</v>
-      </c>
-      <c r="B88" s="154" t="s">
-        <v>407</v>
+        <v>45271</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>445</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="D88" s="19">
-        <v>18560</v>
+        <v>4250</v>
       </c>
       <c r="E88" s="19"/>
       <c r="F88" s="19">
-        <v>1670.6</v>
+        <v>382.5</v>
       </c>
       <c r="G88" s="19">
-        <v>1670.6</v>
+        <v>382.5</v>
       </c>
       <c r="H88" s="8">
-        <v>21900</v>
+        <f>D88+E88+F88+G88</f>
+        <v>5015</v>
       </c>
       <c r="I88" s="5"/>
-      <c r="J88" s="153" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A89" s="18">
+      <c r="J88" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A89" s="163" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="163"/>
+      <c r="C89" s="163"/>
+      <c r="D89" s="27">
+        <f>SUM(D86:D88)</f>
+        <v>167110</v>
+      </c>
+      <c r="E89" s="27">
+        <f>SUM(E86:E88)</f>
+        <v>0</v>
+      </c>
+      <c r="F89" s="27">
+        <f>SUM(F86:F88)</f>
+        <v>15040.1</v>
+      </c>
+      <c r="G89" s="27">
+        <f>SUM(G86:G88)</f>
+        <v>15040.1</v>
+      </c>
+      <c r="H89" s="27">
+        <f>SUM(H86:H88)</f>
+        <v>197189</v>
+      </c>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="1:10" ht="21">
+      <c r="A90" s="164" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="165"/>
+      <c r="C90" s="165"/>
+      <c r="D90" s="165"/>
+      <c r="E90" s="165"/>
+      <c r="F90" s="165"/>
+      <c r="G90" s="165"/>
+      <c r="H90" s="165"/>
+      <c r="I90" s="165"/>
+      <c r="J90" s="166"/>
+    </row>
+    <row r="91" spans="1:10" s="6" customFormat="1">
+      <c r="A91" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I91" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A92" s="127">
         <v>45261</v>
       </c>
-      <c r="B89" s="154" t="s">
-        <v>407</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="D89" s="19">
-        <v>35593</v>
-      </c>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19">
-        <v>3203.4</v>
-      </c>
-      <c r="G89" s="19">
-        <v>3203.4</v>
-      </c>
-      <c r="H89" s="8">
-        <v>42000</v>
-      </c>
-      <c r="I89" s="5"/>
-      <c r="J89" s="153" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A90" s="18">
-        <v>45271</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="D90" s="19">
-        <v>144300</v>
-      </c>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19">
-        <v>12987</v>
-      </c>
-      <c r="G90" s="19">
-        <v>12987</v>
-      </c>
-      <c r="H90" s="8">
-        <f>D90+E90+F90+G90</f>
-        <v>170274</v>
-      </c>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-    </row>
-    <row r="91" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A91" s="18">
-        <v>45271</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="D91" s="19">
-        <v>4250</v>
-      </c>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19">
-        <v>382.5</v>
-      </c>
-      <c r="G91" s="19">
-        <v>382.5</v>
-      </c>
-      <c r="H91" s="8">
-        <f>D91+E91+F91+G91</f>
-        <v>5015</v>
-      </c>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A92" s="159" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" s="159"/>
-      <c r="C92" s="159"/>
-      <c r="D92" s="27">
-        <f>SUM(D86:D91)</f>
-        <v>2195031</v>
-      </c>
-      <c r="E92" s="27">
-        <f>SUM(E86:E91)</f>
-        <v>0</v>
-      </c>
-      <c r="F92" s="27">
-        <f>SUM(F86:F91)</f>
-        <v>197913.3</v>
-      </c>
-      <c r="G92" s="27">
-        <f>SUM(G86:G91)</f>
-        <v>197913.3</v>
-      </c>
-      <c r="H92" s="27">
-        <f>SUM(H86:H91)</f>
-        <v>2594856.6</v>
-      </c>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-    </row>
-    <row r="93" spans="1:10" ht="21">
-      <c r="A93" s="160" t="s">
-        <v>11</v>
-      </c>
-      <c r="B93" s="161"/>
-      <c r="C93" s="161"/>
-      <c r="D93" s="161"/>
-      <c r="E93" s="161"/>
-      <c r="F93" s="161"/>
-      <c r="G93" s="161"/>
-      <c r="H93" s="161"/>
-      <c r="I93" s="161"/>
-      <c r="J93" s="162"/>
-    </row>
-    <row r="94" spans="1:10" s="6" customFormat="1">
-      <c r="A94" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I94" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J94" s="17" t="s">
-        <v>15</v>
+      <c r="B92" s="128" t="s">
+        <v>435</v>
+      </c>
+      <c r="C92" s="125" t="s">
+        <v>436</v>
+      </c>
+      <c r="D92" s="123">
+        <v>20340</v>
+      </c>
+      <c r="E92" s="123">
+        <v>3661</v>
+      </c>
+      <c r="F92" s="123"/>
+      <c r="G92" s="123"/>
+      <c r="H92" s="123">
+        <f>D92+E92+F92+G92</f>
+        <v>24001</v>
+      </c>
+      <c r="I92" s="123"/>
+      <c r="J92" s="125" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A93" s="127">
+        <v>45262</v>
+      </c>
+      <c r="B93" s="125" t="s">
+        <v>426</v>
+      </c>
+      <c r="C93" s="125">
+        <v>2074</v>
+      </c>
+      <c r="D93" s="123">
+        <v>420</v>
+      </c>
+      <c r="E93" s="123">
+        <v>76</v>
+      </c>
+      <c r="F93" s="123"/>
+      <c r="G93" s="123"/>
+      <c r="H93" s="123">
+        <f t="shared" ref="H93:H96" si="0">D93+E93+F93+G93</f>
+        <v>496</v>
+      </c>
+      <c r="I93" s="123"/>
+      <c r="J93" s="128" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A94" s="127">
+        <v>45262</v>
+      </c>
+      <c r="B94" s="123" t="s">
+        <v>449</v>
+      </c>
+      <c r="C94" s="123">
+        <v>3073</v>
+      </c>
+      <c r="D94" s="123">
+        <v>4514.1400000000003</v>
+      </c>
+      <c r="E94" s="123"/>
+      <c r="F94" s="123">
+        <v>406.27</v>
+      </c>
+      <c r="G94" s="123">
+        <v>406.27</v>
+      </c>
+      <c r="H94" s="123">
+        <v>5327</v>
+      </c>
+      <c r="I94" s="123"/>
+      <c r="J94" s="123" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A95" s="127">
-        <v>45261</v>
-      </c>
-      <c r="B95" s="128" t="s">
-        <v>435</v>
-      </c>
-      <c r="C95" s="125" t="s">
-        <v>436</v>
+        <v>45265</v>
+      </c>
+      <c r="B95" s="123" t="s">
+        <v>246</v>
+      </c>
+      <c r="C95" s="123">
+        <v>4279</v>
       </c>
       <c r="D95" s="123">
-        <v>20340</v>
-      </c>
-      <c r="E95" s="123">
-        <v>3661</v>
-      </c>
-      <c r="F95" s="123"/>
-      <c r="G95" s="123"/>
+        <v>4516</v>
+      </c>
+      <c r="E95" s="123"/>
+      <c r="F95" s="123">
+        <v>406</v>
+      </c>
+      <c r="G95" s="123">
+        <v>406</v>
+      </c>
       <c r="H95" s="123">
-        <f>D95+E95+F95+G95</f>
-        <v>24001</v>
+        <f t="shared" si="0"/>
+        <v>5328</v>
       </c>
       <c r="I95" s="123"/>
-      <c r="J95" s="125" t="s">
-        <v>437</v>
+      <c r="J95" s="123" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A96" s="127">
-        <v>45262</v>
+        <v>45267</v>
       </c>
       <c r="B96" s="125" t="s">
-        <v>426</v>
-      </c>
-      <c r="C96" s="125">
-        <v>2074</v>
+        <v>459</v>
+      </c>
+      <c r="C96" s="125" t="s">
+        <v>461</v>
       </c>
       <c r="D96" s="123">
-        <v>420</v>
+        <v>591.53</v>
       </c>
       <c r="E96" s="123">
-        <v>76</v>
+        <v>106.47</v>
       </c>
       <c r="F96" s="123"/>
       <c r="G96" s="123"/>
       <c r="H96" s="123">
-        <f t="shared" ref="H96:H99" si="4">D96+E96+F96+G96</f>
-        <v>496</v>
+        <f t="shared" si="0"/>
+        <v>698</v>
       </c>
       <c r="I96" s="123"/>
-      <c r="J96" s="128" t="s">
-        <v>427</v>
+      <c r="J96" s="125" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A97" s="127">
-        <v>45262</v>
+        <v>45268</v>
       </c>
       <c r="B97" s="123" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C97" s="123">
-        <v>3073</v>
+        <v>5524</v>
       </c>
       <c r="D97" s="123">
-        <v>4514.1400000000003</v>
+        <v>270</v>
       </c>
       <c r="E97" s="123"/>
       <c r="F97" s="123">
-        <v>406.27</v>
+        <v>24.3</v>
       </c>
       <c r="G97" s="123">
-        <v>406.27</v>
+        <v>24.3</v>
       </c>
       <c r="H97" s="123">
-        <v>5327</v>
+        <v>319</v>
       </c>
       <c r="I97" s="123"/>
       <c r="J97" s="123" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A98" s="127">
-        <v>45265</v>
-      </c>
-      <c r="B98" s="123" t="s">
-        <v>246</v>
-      </c>
-      <c r="C98" s="123">
-        <v>4279</v>
+        <v>45269</v>
+      </c>
+      <c r="B98" s="125" t="s">
+        <v>462</v>
+      </c>
+      <c r="C98" s="125" t="s">
+        <v>464</v>
       </c>
       <c r="D98" s="123">
-        <v>4516</v>
-      </c>
-      <c r="E98" s="123"/>
-      <c r="F98" s="123">
-        <v>406</v>
-      </c>
-      <c r="G98" s="123">
-        <v>406</v>
-      </c>
+        <v>24.58</v>
+      </c>
+      <c r="E98" s="123">
+        <v>4.42</v>
+      </c>
+      <c r="F98" s="123"/>
+      <c r="G98" s="123"/>
       <c r="H98" s="123">
-        <f t="shared" si="4"/>
-        <v>5328</v>
+        <f>D98+E98+F98+G98</f>
+        <v>29</v>
       </c>
       <c r="I98" s="123"/>
-      <c r="J98" s="123" t="s">
-        <v>247</v>
+      <c r="J98" s="125" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A99" s="127">
-        <v>45267</v>
+        <v>45269</v>
       </c>
       <c r="B99" s="125" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C99" s="125" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D99" s="123">
-        <v>591.53</v>
+        <v>8050</v>
       </c>
       <c r="E99" s="123">
-        <v>106.47</v>
+        <v>1449</v>
       </c>
       <c r="F99" s="123"/>
       <c r="G99" s="123"/>
       <c r="H99" s="123">
-        <f t="shared" si="4"/>
-        <v>698</v>
+        <f>D99+E99+F99+G99</f>
+        <v>9499</v>
       </c>
       <c r="I99" s="123"/>
       <c r="J99" s="125" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A100" s="127">
-        <v>45268</v>
-      </c>
-      <c r="B100" s="123" t="s">
-        <v>451</v>
-      </c>
-      <c r="C100" s="123">
-        <v>5524</v>
+        <v>45269</v>
+      </c>
+      <c r="B100" s="125" t="s">
+        <v>466</v>
+      </c>
+      <c r="C100" s="125" t="s">
+        <v>467</v>
       </c>
       <c r="D100" s="123">
-        <v>270</v>
+        <v>142.16999999999999</v>
       </c>
       <c r="E100" s="123"/>
-      <c r="F100" s="123">
-        <v>24.3</v>
+      <c r="F100" s="155">
+        <v>12.8</v>
       </c>
       <c r="G100" s="123">
-        <v>24.3</v>
+        <v>12.8</v>
       </c>
       <c r="H100" s="123">
-        <v>319</v>
+        <v>168</v>
       </c>
       <c r="I100" s="123"/>
-      <c r="J100" s="123" t="s">
-        <v>452</v>
+      <c r="J100" s="128" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A101" s="127">
-        <v>45269</v>
-      </c>
-      <c r="B101" s="125" t="s">
-        <v>462</v>
-      </c>
-      <c r="C101" s="125" t="s">
-        <v>464</v>
+        <v>45271</v>
+      </c>
+      <c r="B101" s="123" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" s="123" t="s">
+        <v>453</v>
       </c>
       <c r="D101" s="123">
-        <v>24.58</v>
-      </c>
-      <c r="E101" s="123">
-        <v>4.42</v>
-      </c>
-      <c r="F101" s="123"/>
-      <c r="G101" s="123"/>
+        <v>3974.58</v>
+      </c>
+      <c r="E101" s="123"/>
+      <c r="F101" s="123">
+        <v>357.71</v>
+      </c>
+      <c r="G101" s="123">
+        <v>357.71</v>
+      </c>
       <c r="H101" s="123">
-        <f>D101+E101+F101+G101</f>
-        <v>29</v>
+        <v>4690</v>
       </c>
       <c r="I101" s="123"/>
-      <c r="J101" s="125" t="s">
-        <v>463</v>
+      <c r="J101" s="123" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A102" s="127">
-        <v>45269</v>
-      </c>
-      <c r="B102" s="125" t="s">
-        <v>462</v>
-      </c>
-      <c r="C102" s="125" t="s">
-        <v>465</v>
+        <v>45272</v>
+      </c>
+      <c r="B102" s="123" t="s">
+        <v>454</v>
+      </c>
+      <c r="C102" s="123" t="s">
+        <v>455</v>
       </c>
       <c r="D102" s="123">
-        <v>8050</v>
-      </c>
-      <c r="E102" s="123">
-        <v>1449</v>
-      </c>
-      <c r="F102" s="123"/>
-      <c r="G102" s="123"/>
+        <v>110</v>
+      </c>
+      <c r="E102" s="123"/>
+      <c r="F102" s="123">
+        <v>9.9</v>
+      </c>
+      <c r="G102" s="123">
+        <v>9.9</v>
+      </c>
       <c r="H102" s="123">
-        <f>D102+E102+F102+G102</f>
-        <v>9499</v>
+        <v>130</v>
       </c>
       <c r="I102" s="123"/>
-      <c r="J102" s="125" t="s">
-        <v>463</v>
+      <c r="J102" s="123" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A103" s="127">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="B103" s="125" t="s">
-        <v>466</v>
-      </c>
-      <c r="C103" s="125" t="s">
-        <v>467</v>
+        <v>457</v>
+      </c>
+      <c r="C103" s="128" t="s">
+        <v>458</v>
       </c>
       <c r="D103" s="123">
-        <v>142.16999999999999</v>
-      </c>
-      <c r="E103" s="123"/>
-      <c r="F103" s="155">
-        <v>12.8</v>
-      </c>
-      <c r="G103" s="123">
-        <v>12.8</v>
-      </c>
+        <v>111250</v>
+      </c>
+      <c r="E103" s="123">
+        <v>20025</v>
+      </c>
+      <c r="F103" s="123"/>
+      <c r="G103" s="123"/>
       <c r="H103" s="123">
-        <v>168</v>
+        <f>D103+E103+F103+G103</f>
+        <v>131275</v>
       </c>
       <c r="I103" s="123"/>
-      <c r="J103" s="128" t="s">
-        <v>34</v>
+      <c r="J103" s="125" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A104" s="127">
-        <v>45271</v>
-      </c>
-      <c r="B104" s="123" t="s">
-        <v>125</v>
-      </c>
-      <c r="C104" s="123" t="s">
-        <v>453</v>
-      </c>
-      <c r="D104" s="123">
-        <v>3974.58</v>
-      </c>
-      <c r="E104" s="123"/>
-      <c r="F104" s="123">
-        <v>357.71</v>
-      </c>
-      <c r="G104" s="123">
-        <v>357.71</v>
-      </c>
+      <c r="A104" s="156">
+        <v>45279</v>
+      </c>
+      <c r="B104" s="157" t="s">
+        <v>469</v>
+      </c>
+      <c r="C104" s="158" t="s">
+        <v>470</v>
+      </c>
+      <c r="D104" s="159">
+        <v>11240</v>
+      </c>
+      <c r="E104" s="159">
+        <v>2023.2</v>
+      </c>
+      <c r="F104" s="159"/>
+      <c r="G104" s="159"/>
       <c r="H104" s="123">
-        <v>4690</v>
-      </c>
-      <c r="I104" s="123"/>
-      <c r="J104" s="123" t="s">
-        <v>127</v>
+        <v>13263</v>
+      </c>
+      <c r="I104" s="159"/>
+      <c r="J104" s="157" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A105" s="127">
-        <v>45272</v>
-      </c>
-      <c r="B105" s="123" t="s">
-        <v>454</v>
-      </c>
-      <c r="C105" s="123" t="s">
-        <v>455</v>
-      </c>
-      <c r="D105" s="123">
-        <v>110</v>
-      </c>
-      <c r="E105" s="123"/>
-      <c r="F105" s="123">
-        <v>9.9</v>
-      </c>
-      <c r="G105" s="123">
-        <v>9.9</v>
-      </c>
+      <c r="A105" s="156">
+        <v>45279</v>
+      </c>
+      <c r="B105" s="157" t="s">
+        <v>469</v>
+      </c>
+      <c r="C105" s="158" t="s">
+        <v>472</v>
+      </c>
+      <c r="D105" s="159">
+        <v>5150</v>
+      </c>
+      <c r="E105" s="159">
+        <v>927</v>
+      </c>
+      <c r="F105" s="159"/>
+      <c r="G105" s="159"/>
       <c r="H105" s="123">
-        <v>130</v>
-      </c>
-      <c r="I105" s="123"/>
-      <c r="J105" s="123" t="s">
-        <v>456</v>
+        <f t="shared" ref="H104:H105" si="1">D105+E105+F105+G105</f>
+        <v>6077</v>
+      </c>
+      <c r="I105" s="159"/>
+      <c r="J105" s="157" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A106" s="127">
-        <v>45276</v>
-      </c>
-      <c r="B106" s="125" t="s">
-        <v>457</v>
-      </c>
-      <c r="C106" s="128" t="s">
-        <v>458</v>
-      </c>
-      <c r="D106" s="123">
-        <v>111250</v>
-      </c>
-      <c r="E106" s="123">
-        <v>20025</v>
-      </c>
-      <c r="F106" s="123"/>
-      <c r="G106" s="123"/>
+      <c r="A106" s="156">
+        <v>45282</v>
+      </c>
+      <c r="B106" s="157" t="s">
+        <v>449</v>
+      </c>
+      <c r="C106" s="158">
+        <v>3262</v>
+      </c>
+      <c r="D106" s="159">
+        <v>4770</v>
+      </c>
+      <c r="E106" s="159"/>
+      <c r="F106" s="159">
+        <v>429.3</v>
+      </c>
+      <c r="G106" s="159">
+        <v>429.3</v>
+      </c>
       <c r="H106" s="123">
-        <f>D106+E106+F106+G106</f>
-        <v>131275</v>
-      </c>
-      <c r="I106" s="123"/>
-      <c r="J106" s="125" t="s">
-        <v>66</v>
+        <v>5629</v>
+      </c>
+      <c r="I106" s="159"/>
+      <c r="J106" s="157" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A107" s="176">
+      <c r="A107" s="156">
         <v>45283</v>
       </c>
-      <c r="B107" s="177" t="s">
+      <c r="B107" s="157" t="s">
         <v>105</v>
       </c>
-      <c r="C107" s="178" t="s">
+      <c r="C107" s="158" t="s">
         <v>468</v>
       </c>
-      <c r="D107" s="179">
+      <c r="D107" s="159">
         <v>44900</v>
       </c>
-      <c r="E107" s="179">
+      <c r="E107" s="159">
         <v>8082</v>
       </c>
-      <c r="F107" s="179"/>
-      <c r="G107" s="179"/>
+      <c r="F107" s="159"/>
+      <c r="G107" s="159"/>
       <c r="H107" s="123">
         <f>D107+E107+F107+G107</f>
         <v>52982</v>
       </c>
-      <c r="I107" s="179"/>
-      <c r="J107" s="177" t="s">
+      <c r="I107" s="159"/>
+      <c r="J107" s="157" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A108" s="174" t="s">
+    <row r="108" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A108" s="156">
+        <v>45287</v>
+      </c>
+      <c r="B108" s="157" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" s="158" t="s">
+        <v>473</v>
+      </c>
+      <c r="D108" s="159">
+        <v>796</v>
+      </c>
+      <c r="E108" s="159"/>
+      <c r="F108" s="159">
+        <v>71.7</v>
+      </c>
+      <c r="G108" s="159">
+        <v>71.7</v>
+      </c>
+      <c r="H108" s="123">
+        <v>940</v>
+      </c>
+      <c r="I108" s="159"/>
+      <c r="J108" s="157" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A109" s="156">
+        <v>45287</v>
+      </c>
+      <c r="B109" s="157" t="s">
+        <v>474</v>
+      </c>
+      <c r="C109" s="158" t="s">
+        <v>475</v>
+      </c>
+      <c r="D109" s="159">
+        <v>19800</v>
+      </c>
+      <c r="E109" s="159"/>
+      <c r="F109" s="159">
+        <v>1782</v>
+      </c>
+      <c r="G109" s="159">
+        <v>1782</v>
+      </c>
+      <c r="H109" s="123">
+        <f t="shared" ref="H108:H109" si="2">D109+E109+F109+G109</f>
+        <v>23364</v>
+      </c>
+      <c r="I109" s="159"/>
+      <c r="J109" s="157" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A110" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="174"/>
-      <c r="C108" s="174"/>
-      <c r="D108" s="26">
-        <f>SUM(D95:D107)</f>
-        <v>199103</v>
-      </c>
-      <c r="E108" s="26">
-        <f>SUM(E95:E106)</f>
+      <c r="B110" s="178"/>
+      <c r="C110" s="178"/>
+      <c r="D110" s="26">
+        <f>SUM(D92:D109)</f>
+        <v>240859</v>
+      </c>
+      <c r="E110" s="26">
+        <f>SUM(E92:E103)</f>
         <v>25321.89</v>
       </c>
-      <c r="F108" s="26">
-        <f>SUM(F95:F106)</f>
-        <v>1216.98</v>
-      </c>
-      <c r="G108" s="26">
-        <f>SUM(G95:G106)</f>
-        <v>1216.98</v>
-      </c>
-      <c r="H108" s="26">
-        <f>SUM(H95:H106)</f>
+      <c r="F110" s="26">
+        <f>SUM(F92:F106)</f>
+        <v>1646.28</v>
+      </c>
+      <c r="G110" s="26">
+        <f>SUM(G92:G106)</f>
+        <v>1646.28</v>
+      </c>
+      <c r="H110" s="26">
+        <f>SUM(H92:H103)</f>
         <v>181960</v>
       </c>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26"/>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110" s="175"/>
-      <c r="B110" s="175"/>
-      <c r="C110" s="175"/>
-      <c r="D110" s="175"/>
-      <c r="E110" s="175"/>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="175"/>
-      <c r="B118" s="175"/>
-      <c r="C118" s="175"/>
-      <c r="D118" s="175"/>
-      <c r="E118" s="175"/>
+      <c r="I110" s="26"/>
+      <c r="J110" s="26"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="179"/>
+      <c r="B112" s="179"/>
+      <c r="C112" s="179"/>
+      <c r="D112" s="179"/>
+      <c r="E112" s="179"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="179"/>
+      <c r="B120" s="179"/>
+      <c r="C120" s="179"/>
+      <c r="D120" s="179"/>
+      <c r="E120" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:J93"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A118:E118"/>
     <mergeCell ref="A84:H84"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -11944,6 +12018,11 @@
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A81:C81"/>
     <mergeCell ref="A83:J83"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A90:J90"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A120:E120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11955,7 +12034,7 @@
   <dimension ref="A2:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -11974,30 +12053,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="167" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="165"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="169"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="162"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="166"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -12029,39 +12108,88 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="15.6">
-      <c r="A5" s="24"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A6" s="24"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="19"/>
+    <row r="5" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A5" s="7">
+        <v>45211</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1862120</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8">
+        <v>167950.8</v>
+      </c>
+      <c r="G5" s="8">
+        <v>167950.8</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2202021.6</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="18">
+        <v>45252</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D6" s="19">
+        <v>130208</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19">
+        <v>11719</v>
+      </c>
+      <c r="G6" s="19">
+        <v>11719</v>
+      </c>
+      <c r="H6" s="19">
+        <f>D6+E6+F6+G6</f>
+        <v>153646</v>
+      </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.6">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="19"/>
+      <c r="J6" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A7" s="18">
+        <v>45261</v>
+      </c>
+      <c r="B7" s="154" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="D7" s="19">
+        <v>35593</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19">
+        <v>3203.4</v>
+      </c>
+      <c r="G7" s="19">
+        <v>3203.4</v>
+      </c>
+      <c r="H7" s="8">
+        <v>42000</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="153" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.6">
       <c r="A8" s="20"/>
@@ -12132,14 +12260,14 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="170" t="s">
+      <c r="A14" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="170"/>
-      <c r="C14" s="170"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="174"/>
       <c r="D14" s="33">
         <f>SUM(D5:D13)</f>
-        <v>0</v>
+        <v>2027921</v>
       </c>
       <c r="E14" s="33">
         <f>SUM(E5:E13)</f>
@@ -12147,32 +12275,32 @@
       </c>
       <c r="F14" s="33">
         <f>SUM(F5:F13)</f>
-        <v>0</v>
+        <v>182873.19999999998</v>
       </c>
       <c r="G14" s="33">
         <f>SUM(G5:G13)</f>
-        <v>0</v>
+        <v>182873.19999999998</v>
       </c>
       <c r="H14" s="33">
         <f>SUM(H5:H13)</f>
-        <v>0</v>
+        <v>2397667.6</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="160" t="s">
+      <c r="A15" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="162"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="166"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="34" t="s">
@@ -12351,11 +12479,11 @@
       <c r="J28" s="21"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="173" t="s">
+      <c r="A29" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="173"/>
-      <c r="C29" s="173"/>
+      <c r="B29" s="176"/>
+      <c r="C29" s="176"/>
       <c r="D29" s="42">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -12385,30 +12513,30 @@
       <c r="C30" s="44"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="163" t="s">
+      <c r="A31" s="167" t="s">
         <v>234</v>
       </c>
-      <c r="B31" s="164"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="165"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="169"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="160" t="s">
+      <c r="A32" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="162"/>
+      <c r="B32" s="165"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="166"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -12501,11 +12629,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="170" t="s">
+      <c r="A39" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
+      <c r="B39" s="174"/>
+      <c r="C39" s="174"/>
       <c r="D39" s="33">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -12530,18 +12658,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="160" t="s">
+      <c r="A40" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="161"/>
-      <c r="C40" s="161"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="161"/>
-      <c r="J40" s="162"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="165"/>
+      <c r="J40" s="166"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="34" t="s">
@@ -12852,11 +12980,11 @@
       <c r="J64" s="29"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="171" t="s">
+      <c r="A65" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="171"/>
-      <c r="C65" s="171"/>
+      <c r="B65" s="177"/>
+      <c r="C65" s="177"/>
       <c r="D65" s="51">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -12881,30 +13009,30 @@
       <c r="J65" s="51"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="163" t="s">
+      <c r="A67" s="167" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="164"/>
-      <c r="C67" s="164"/>
-      <c r="D67" s="164"/>
-      <c r="E67" s="164"/>
-      <c r="F67" s="164"/>
-      <c r="G67" s="164"/>
-      <c r="H67" s="164"/>
-      <c r="I67" s="164"/>
-      <c r="J67" s="165"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
+      <c r="E67" s="168"/>
+      <c r="F67" s="168"/>
+      <c r="G67" s="168"/>
+      <c r="H67" s="168"/>
+      <c r="I67" s="168"/>
+      <c r="J67" s="169"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="160" t="s">
+      <c r="A68" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="161"/>
-      <c r="C68" s="161"/>
-      <c r="D68" s="161"/>
-      <c r="E68" s="161"/>
-      <c r="F68" s="161"/>
-      <c r="G68" s="161"/>
-      <c r="H68" s="162"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="165"/>
+      <c r="D68" s="165"/>
+      <c r="E68" s="165"/>
+      <c r="F68" s="165"/>
+      <c r="G68" s="165"/>
+      <c r="H68" s="166"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -12973,11 +13101,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="170" t="s">
+      <c r="A73" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="170"/>
-      <c r="C73" s="170"/>
+      <c r="B73" s="174"/>
+      <c r="C73" s="174"/>
       <c r="D73" s="33">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -13002,18 +13130,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="160" t="s">
+      <c r="A74" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="161"/>
-      <c r="C74" s="161"/>
-      <c r="D74" s="161"/>
-      <c r="E74" s="161"/>
-      <c r="F74" s="161"/>
-      <c r="G74" s="161"/>
-      <c r="H74" s="161"/>
-      <c r="I74" s="161"/>
-      <c r="J74" s="162"/>
+      <c r="B74" s="165"/>
+      <c r="C74" s="165"/>
+      <c r="D74" s="165"/>
+      <c r="E74" s="165"/>
+      <c r="F74" s="165"/>
+      <c r="G74" s="165"/>
+      <c r="H74" s="165"/>
+      <c r="I74" s="165"/>
+      <c r="J74" s="166"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="53" t="s">
@@ -13264,11 +13392,11 @@
       <c r="J93" s="66"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="172" t="s">
+      <c r="A94" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="172"/>
-      <c r="C94" s="172"/>
+      <c r="B94" s="175"/>
+      <c r="C94" s="175"/>
       <c r="D94" s="68">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -13294,6 +13422,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -13303,12 +13437,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -9117,7 +9117,7 @@
   <dimension ref="A2:K120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="J110" sqref="J110"/>
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -11401,7 +11401,7 @@
         <v>167110</v>
       </c>
       <c r="E89" s="27">
-        <f>SUM(E86:E88)</f>
+        <f>SUM(E85:E88)</f>
         <v>0</v>
       </c>
       <c r="F89" s="27">
@@ -11972,20 +11972,20 @@
         <v>240859</v>
       </c>
       <c r="E110" s="26">
-        <f>SUM(E92:E103)</f>
-        <v>25321.89</v>
+        <f>SUM(E92:E109)</f>
+        <v>36354.089999999997</v>
       </c>
       <c r="F110" s="26">
-        <f>SUM(F92:F106)</f>
-        <v>1646.28</v>
+        <f>SUM(F92:F109)</f>
+        <v>3499.98</v>
       </c>
       <c r="G110" s="26">
-        <f>SUM(G92:G106)</f>
-        <v>1646.28</v>
+        <f>SUM(G91:G109)</f>
+        <v>3499.98</v>
       </c>
       <c r="H110" s="26">
-        <f>SUM(H92:H103)</f>
-        <v>181960</v>
+        <f>SUM(H92:H109)</f>
+        <v>284215</v>
       </c>
       <c r="I110" s="26"/>
       <c r="J110" s="26"/>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -2267,12 +2267,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6898,11 +6898,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="177" t="s">
+      <c r="A32" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="177"/>
-      <c r="C32" s="177"/>
+      <c r="B32" s="175"/>
+      <c r="C32" s="175"/>
       <c r="D32" s="51">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -8082,11 +8082,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="176" t="s">
+      <c r="A77" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="176"/>
-      <c r="C77" s="176"/>
+      <c r="B77" s="177"/>
+      <c r="C77" s="177"/>
       <c r="D77" s="42">
         <f>SUM(D44:D76)</f>
         <v>385770.4</v>
@@ -9061,11 +9061,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="175" t="s">
+      <c r="A114" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="175"/>
-      <c r="C114" s="175"/>
+      <c r="B114" s="176"/>
+      <c r="C114" s="176"/>
       <c r="D114" s="68">
         <f>SUM(D88:D113)</f>
         <v>438291.73</v>
@@ -9091,12 +9091,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A86:J86"/>
     <mergeCell ref="A114:C114"/>
@@ -9106,6 +9100,12 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A80:H80"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9117,7 +9117,7 @@
   <dimension ref="A2:K120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -11841,7 +11841,7 @@
       <c r="F105" s="159"/>
       <c r="G105" s="159"/>
       <c r="H105" s="123">
-        <f t="shared" ref="H104:H105" si="1">D105+E105+F105+G105</f>
+        <f t="shared" ref="H105" si="1">D105+E105+F105+G105</f>
         <v>6077</v>
       </c>
       <c r="I105" s="159"/>
@@ -11953,7 +11953,7 @@
         <v>1782</v>
       </c>
       <c r="H109" s="123">
-        <f t="shared" ref="H108:H109" si="2">D109+E109+F109+G109</f>
+        <f t="shared" ref="H109" si="2">D109+E109+F109+G109</f>
         <v>23364</v>
       </c>
       <c r="I109" s="159"/>
@@ -12006,6 +12006,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A90:J90"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A120:E120"/>
     <mergeCell ref="A84:H84"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -12018,11 +12023,6 @@
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A81:C81"/>
     <mergeCell ref="A83:J83"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:J90"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A120:E120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12479,11 +12479,11 @@
       <c r="J28" s="21"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="176" t="s">
+      <c r="A29" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="176"/>
-      <c r="C29" s="176"/>
+      <c r="B29" s="177"/>
+      <c r="C29" s="177"/>
       <c r="D29" s="42">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -12980,11 +12980,11 @@
       <c r="J64" s="29"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="177" t="s">
+      <c r="A65" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="177"/>
-      <c r="C65" s="177"/>
+      <c r="B65" s="175"/>
+      <c r="C65" s="175"/>
       <c r="D65" s="51">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -13392,11 +13392,11 @@
       <c r="J93" s="66"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="175" t="s">
+      <c r="A94" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="175"/>
-      <c r="C94" s="175"/>
+      <c r="B94" s="176"/>
+      <c r="C94" s="176"/>
       <c r="D94" s="68">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -13422,12 +13422,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -13437,6 +13431,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -12,6 +12,11 @@
     <sheet name="Oct-23 to Dec-23" sheetId="3" r:id="rId3"/>
     <sheet name="Jan-24 to Mar-24" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Apr-23 to Jun-23'!$B$2:$B$290</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Jul-23 to Sept-23'!$B$2:$B$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Oct-23 to Dec-23'!$B$2:$B$119</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="488">
   <si>
     <t>APRIL</t>
   </si>
@@ -1453,6 +1458,39 @@
   </si>
   <si>
     <t>30AAFFH4689F1ZG</t>
+  </si>
+  <si>
+    <t>CA-492</t>
+  </si>
+  <si>
+    <t>CA-493</t>
+  </si>
+  <si>
+    <t>CA-496</t>
+  </si>
+  <si>
+    <t>M R Steel</t>
+  </si>
+  <si>
+    <t>MRSI/194/2023-24</t>
+  </si>
+  <si>
+    <t>27ARJPM6764D1ZI</t>
+  </si>
+  <si>
+    <t>SLH/3399</t>
+  </si>
+  <si>
+    <t>2023-24/10627</t>
+  </si>
+  <si>
+    <t>Shruti Infotech</t>
+  </si>
+  <si>
+    <t>SH/23-24/4819</t>
+  </si>
+  <si>
+    <t>30AJOPG7694R1ZC</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1500,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1567,6 +1605,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
     </font>
   </fonts>
   <fills count="5">
@@ -1742,7 +1786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2221,6 +2265,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2276,6 +2326,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2563,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J290"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2583,30 +2636,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="169"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="171"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="166"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="168"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -2826,11 +2879,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="170" t="s">
+      <c r="A12" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="170"/>
-      <c r="C12" s="170"/>
+      <c r="B12" s="172"/>
+      <c r="C12" s="172"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -2855,18 +2908,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="164" t="s">
+      <c r="A13" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="165"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="166"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="168"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -3653,11 +3706,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="160" t="s">
+      <c r="A42" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="161"/>
-      <c r="C42" s="162"/>
+      <c r="B42" s="163"/>
+      <c r="C42" s="164"/>
       <c r="D42" s="26">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -3682,30 +3735,30 @@
       <c r="J42" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="167" t="s">
+      <c r="A44" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="168"/>
-      <c r="C44" s="168"/>
-      <c r="D44" s="168"/>
-      <c r="E44" s="168"/>
-      <c r="F44" s="168"/>
-      <c r="G44" s="168"/>
-      <c r="H44" s="168"/>
-      <c r="I44" s="168"/>
-      <c r="J44" s="169"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="170"/>
+      <c r="E44" s="170"/>
+      <c r="F44" s="170"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="170"/>
+      <c r="J44" s="171"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="164" t="s">
+      <c r="A45" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
-      <c r="E45" s="165"/>
-      <c r="F45" s="165"/>
-      <c r="G45" s="165"/>
-      <c r="H45" s="166"/>
+      <c r="B45" s="167"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="167"/>
+      <c r="E45" s="167"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167"/>
+      <c r="H45" s="168"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -3981,11 +4034,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="163" t="s">
+      <c r="A56" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="163"/>
-      <c r="C56" s="163"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
       <c r="D56" s="27">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -4010,18 +4063,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="164" t="s">
+      <c r="A57" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
-      <c r="E57" s="165"/>
-      <c r="F57" s="165"/>
-      <c r="G57" s="165"/>
-      <c r="H57" s="165"/>
-      <c r="I57" s="165"/>
-      <c r="J57" s="166"/>
+      <c r="B57" s="167"/>
+      <c r="C57" s="167"/>
+      <c r="D57" s="167"/>
+      <c r="E57" s="167"/>
+      <c r="F57" s="167"/>
+      <c r="G57" s="167"/>
+      <c r="H57" s="167"/>
+      <c r="I57" s="167"/>
+      <c r="J57" s="168"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -4859,11 +4912,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="171" t="s">
+      <c r="A88" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="173"/>
+      <c r="B88" s="174"/>
+      <c r="C88" s="175"/>
       <c r="D88" s="27">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -4888,30 +4941,30 @@
       <c r="J88" s="27"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="167" t="s">
+      <c r="A90" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="168"/>
-      <c r="C90" s="168"/>
-      <c r="D90" s="168"/>
-      <c r="E90" s="168"/>
-      <c r="F90" s="168"/>
-      <c r="G90" s="168"/>
-      <c r="H90" s="168"/>
-      <c r="I90" s="168"/>
-      <c r="J90" s="169"/>
+      <c r="B90" s="170"/>
+      <c r="C90" s="170"/>
+      <c r="D90" s="170"/>
+      <c r="E90" s="170"/>
+      <c r="F90" s="170"/>
+      <c r="G90" s="170"/>
+      <c r="H90" s="170"/>
+      <c r="I90" s="170"/>
+      <c r="J90" s="171"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="164" t="s">
+      <c r="A91" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="165"/>
-      <c r="C91" s="165"/>
-      <c r="D91" s="165"/>
-      <c r="E91" s="165"/>
-      <c r="F91" s="165"/>
-      <c r="G91" s="165"/>
-      <c r="H91" s="166"/>
+      <c r="B91" s="167"/>
+      <c r="C91" s="167"/>
+      <c r="D91" s="167"/>
+      <c r="E91" s="167"/>
+      <c r="F91" s="167"/>
+      <c r="G91" s="167"/>
+      <c r="H91" s="168"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -5133,11 +5186,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="163" t="s">
+      <c r="A100" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="163"/>
-      <c r="C100" s="163"/>
+      <c r="B100" s="165"/>
+      <c r="C100" s="165"/>
       <c r="D100" s="27">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -5162,18 +5215,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="164" t="s">
+      <c r="A101" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="165"/>
-      <c r="C101" s="165"/>
-      <c r="D101" s="165"/>
-      <c r="E101" s="165"/>
-      <c r="F101" s="165"/>
-      <c r="G101" s="165"/>
-      <c r="H101" s="165"/>
-      <c r="I101" s="165"/>
-      <c r="J101" s="166"/>
+      <c r="B101" s="167"/>
+      <c r="C101" s="167"/>
+      <c r="D101" s="167"/>
+      <c r="E101" s="167"/>
+      <c r="F101" s="167"/>
+      <c r="G101" s="167"/>
+      <c r="H101" s="167"/>
+      <c r="I101" s="167"/>
+      <c r="J101" s="168"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -5828,11 +5881,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="160" t="s">
+      <c r="A125" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="161"/>
-      <c r="C125" s="162"/>
+      <c r="B125" s="163"/>
+      <c r="C125" s="164"/>
       <c r="D125" s="26">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -6044,6 +6097,7 @@
       <c r="J290" s="80"/>
     </row>
   </sheetData>
+  <autoFilter ref="B2:B290"/>
   <mergeCells count="15">
     <mergeCell ref="A125:C125"/>
     <mergeCell ref="A100:C100"/>
@@ -6070,8 +6124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J114"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B115" sqref="A26:J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -6090,30 +6144,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="169"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="171"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="166"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="168"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6200,11 +6254,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
       <c r="D7" s="33">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -6229,18 +6283,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="165"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="166"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="168"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -6898,11 +6952,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="175" t="s">
+      <c r="A32" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="175"/>
-      <c r="C32" s="175"/>
+      <c r="B32" s="177"/>
+      <c r="C32" s="177"/>
       <c r="D32" s="51">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -6932,30 +6986,30 @@
       <c r="C33" s="44"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="167" t="s">
+      <c r="A34" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="168"/>
-      <c r="C34" s="168"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="168"/>
-      <c r="F34" s="168"/>
-      <c r="G34" s="168"/>
-      <c r="H34" s="168"/>
-      <c r="I34" s="168"/>
-      <c r="J34" s="169"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="171"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="164" t="s">
+      <c r="A35" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="166"/>
+      <c r="B35" s="167"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
+      <c r="H35" s="168"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
@@ -7096,11 +7150,11 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="174" t="s">
+      <c r="A41" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="174"/>
-      <c r="C41" s="174"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="176"/>
       <c r="D41" s="33">
         <f>SUM(D37:D40)</f>
         <v>613000</v>
@@ -7125,18 +7179,18 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="164" t="s">
+      <c r="A42" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="165"/>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
-      <c r="E42" s="165"/>
-      <c r="F42" s="165"/>
-      <c r="G42" s="165"/>
-      <c r="H42" s="165"/>
-      <c r="I42" s="165"/>
-      <c r="J42" s="166"/>
+      <c r="B42" s="167"/>
+      <c r="C42" s="167"/>
+      <c r="D42" s="167"/>
+      <c r="E42" s="167"/>
+      <c r="F42" s="167"/>
+      <c r="G42" s="167"/>
+      <c r="H42" s="167"/>
+      <c r="I42" s="167"/>
+      <c r="J42" s="168"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
@@ -8082,11 +8136,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="177" t="s">
+      <c r="A77" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="177"/>
-      <c r="C77" s="177"/>
+      <c r="B77" s="179"/>
+      <c r="C77" s="179"/>
       <c r="D77" s="42">
         <f>SUM(D44:D76)</f>
         <v>385770.4</v>
@@ -8129,30 +8183,30 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="167" t="s">
+      <c r="A79" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="168"/>
-      <c r="C79" s="168"/>
-      <c r="D79" s="168"/>
-      <c r="E79" s="168"/>
-      <c r="F79" s="168"/>
-      <c r="G79" s="168"/>
-      <c r="H79" s="168"/>
-      <c r="I79" s="168"/>
-      <c r="J79" s="169"/>
+      <c r="B79" s="170"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
+      <c r="E79" s="170"/>
+      <c r="F79" s="170"/>
+      <c r="G79" s="170"/>
+      <c r="H79" s="170"/>
+      <c r="I79" s="170"/>
+      <c r="J79" s="171"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="164" t="s">
+      <c r="A80" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="165"/>
-      <c r="C80" s="165"/>
-      <c r="D80" s="165"/>
-      <c r="E80" s="165"/>
-      <c r="F80" s="165"/>
-      <c r="G80" s="165"/>
-      <c r="H80" s="166"/>
+      <c r="B80" s="167"/>
+      <c r="C80" s="167"/>
+      <c r="D80" s="167"/>
+      <c r="E80" s="167"/>
+      <c r="F80" s="167"/>
+      <c r="G80" s="167"/>
+      <c r="H80" s="168"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
@@ -8266,11 +8320,11 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="174" t="s">
+      <c r="A85" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="174"/>
-      <c r="C85" s="174"/>
+      <c r="B85" s="176"/>
+      <c r="C85" s="176"/>
       <c r="D85" s="33">
         <f>SUM(D82:D84)</f>
         <v>204284</v>
@@ -8295,18 +8349,18 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="164" t="s">
+      <c r="A86" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="165"/>
-      <c r="C86" s="165"/>
-      <c r="D86" s="165"/>
-      <c r="E86" s="165"/>
-      <c r="F86" s="165"/>
-      <c r="G86" s="165"/>
-      <c r="H86" s="165"/>
-      <c r="I86" s="165"/>
-      <c r="J86" s="166"/>
+      <c r="B86" s="167"/>
+      <c r="C86" s="167"/>
+      <c r="D86" s="167"/>
+      <c r="E86" s="167"/>
+      <c r="F86" s="167"/>
+      <c r="G86" s="167"/>
+      <c r="H86" s="167"/>
+      <c r="I86" s="167"/>
+      <c r="J86" s="168"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="53" t="s">
@@ -9061,11 +9115,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="176" t="s">
+      <c r="A114" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="176"/>
-      <c r="C114" s="176"/>
+      <c r="B114" s="178"/>
+      <c r="C114" s="178"/>
       <c r="D114" s="68">
         <f>SUM(D88:D113)</f>
         <v>438291.73</v>
@@ -9090,6 +9144,7 @@
       <c r="J114" s="68"/>
     </row>
   </sheetData>
+  <autoFilter ref="B2:B114"/>
   <mergeCells count="15">
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A86:J86"/>
@@ -9114,10 +9169,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K120"/>
+  <dimension ref="A2:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9136,30 +9191,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="169" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="169"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="171"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="166"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="168"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -9204,11 +9259,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" ht="21">
-      <c r="A6" s="170" t="s">
+      <c r="A6" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="172"/>
       <c r="D6" s="15">
         <f>SUM(D5:D5)</f>
         <v>0</v>
@@ -9233,18 +9288,18 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="21">
-      <c r="A7" s="164" t="s">
+      <c r="A7" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="166"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="168"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="16" t="s">
@@ -9853,11 +9908,11 @@
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="178" t="s">
+      <c r="A29" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="178"/>
-      <c r="C29" s="178"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="180"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -9883,30 +9938,30 @@
       <c r="K29" s="69"/>
     </row>
     <row r="31" spans="1:11" ht="21">
-      <c r="A31" s="167" t="s">
+      <c r="A31" s="169" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="169"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="171"/>
     </row>
     <row r="32" spans="1:11" ht="21">
-      <c r="A32" s="164" t="s">
+      <c r="A32" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="165"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
-      <c r="H32" s="166"/>
+      <c r="B32" s="167"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="168"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -10152,11 +10207,11 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="163" t="s">
+      <c r="A42" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="163"/>
-      <c r="C42" s="163"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
       <c r="D42" s="27">
         <f>SUM(D34:D41)</f>
         <v>983754</v>
@@ -10181,18 +10236,18 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="164" t="s">
+      <c r="A43" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
-      <c r="E43" s="165"/>
-      <c r="F43" s="165"/>
-      <c r="G43" s="165"/>
-      <c r="H43" s="165"/>
-      <c r="I43" s="165"/>
-      <c r="J43" s="166"/>
+      <c r="B43" s="167"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="167"/>
+      <c r="E43" s="167"/>
+      <c r="F43" s="167"/>
+      <c r="G43" s="167"/>
+      <c r="H43" s="167"/>
+      <c r="I43" s="167"/>
+      <c r="J43" s="168"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1">
       <c r="A44" s="16" t="s">
@@ -11222,11 +11277,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A81" s="163" t="s">
+      <c r="A81" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="163"/>
-      <c r="C81" s="163"/>
+      <c r="B81" s="165"/>
+      <c r="C81" s="165"/>
       <c r="D81" s="27">
         <f>SUM(D45:D80)</f>
         <v>599787.05000000005</v>
@@ -11251,30 +11306,30 @@
       <c r="J81" s="27"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="167" t="s">
+      <c r="A83" s="169" t="s">
         <v>232</v>
       </c>
-      <c r="B83" s="168"/>
-      <c r="C83" s="168"/>
-      <c r="D83" s="168"/>
-      <c r="E83" s="168"/>
-      <c r="F83" s="168"/>
-      <c r="G83" s="168"/>
-      <c r="H83" s="168"/>
-      <c r="I83" s="168"/>
-      <c r="J83" s="169"/>
+      <c r="B83" s="170"/>
+      <c r="C83" s="170"/>
+      <c r="D83" s="170"/>
+      <c r="E83" s="170"/>
+      <c r="F83" s="170"/>
+      <c r="G83" s="170"/>
+      <c r="H83" s="170"/>
+      <c r="I83" s="170"/>
+      <c r="J83" s="171"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="164" t="s">
+      <c r="A84" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="165"/>
-      <c r="C84" s="165"/>
-      <c r="D84" s="165"/>
-      <c r="E84" s="165"/>
-      <c r="F84" s="165"/>
-      <c r="G84" s="165"/>
-      <c r="H84" s="166"/>
+      <c r="B84" s="167"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
+      <c r="F84" s="167"/>
+      <c r="G84" s="167"/>
+      <c r="H84" s="168"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
@@ -11391,11 +11446,11 @@
       </c>
     </row>
     <row r="89" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A89" s="163" t="s">
+      <c r="A89" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="163"/>
-      <c r="C89" s="163"/>
+      <c r="B89" s="165"/>
+      <c r="C89" s="165"/>
       <c r="D89" s="27">
         <f>SUM(D86:D88)</f>
         <v>167110</v>
@@ -11420,18 +11475,18 @@
       <c r="J89" s="5"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="164" t="s">
+      <c r="A90" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="165"/>
-      <c r="C90" s="165"/>
-      <c r="D90" s="165"/>
-      <c r="E90" s="165"/>
-      <c r="F90" s="165"/>
-      <c r="G90" s="165"/>
-      <c r="H90" s="165"/>
-      <c r="I90" s="165"/>
-      <c r="J90" s="166"/>
+      <c r="B90" s="167"/>
+      <c r="C90" s="167"/>
+      <c r="D90" s="167"/>
+      <c r="E90" s="167"/>
+      <c r="F90" s="167"/>
+      <c r="G90" s="167"/>
+      <c r="H90" s="167"/>
+      <c r="I90" s="167"/>
+      <c r="J90" s="168"/>
     </row>
     <row r="91" spans="1:10" s="6" customFormat="1">
       <c r="A91" s="16" t="s">
@@ -11466,551 +11521,655 @@
       </c>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A92" s="127">
-        <v>45261</v>
-      </c>
-      <c r="B92" s="128" t="s">
-        <v>435</v>
-      </c>
-      <c r="C92" s="125" t="s">
-        <v>436</v>
-      </c>
-      <c r="D92" s="123">
-        <v>20340</v>
-      </c>
-      <c r="E92" s="123">
-        <v>3661</v>
-      </c>
-      <c r="F92" s="123"/>
-      <c r="G92" s="123"/>
-      <c r="H92" s="123">
-        <f>D92+E92+F92+G92</f>
-        <v>24001</v>
-      </c>
-      <c r="I92" s="123"/>
-      <c r="J92" s="125" t="s">
-        <v>437</v>
+      <c r="A92" s="161">
+        <v>45233</v>
+      </c>
+      <c r="B92" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="48" t="s">
+        <v>477</v>
+      </c>
+      <c r="D92" s="48">
+        <v>33</v>
+      </c>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48">
+        <v>3.05</v>
+      </c>
+      <c r="G92" s="48">
+        <v>3.05</v>
+      </c>
+      <c r="H92" s="49">
+        <v>40</v>
+      </c>
+      <c r="I92" s="49"/>
+      <c r="J92" s="49" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A93" s="127">
-        <v>45262</v>
-      </c>
-      <c r="B93" s="125" t="s">
-        <v>426</v>
-      </c>
-      <c r="C93" s="125">
-        <v>2074</v>
-      </c>
-      <c r="D93" s="123">
-        <v>420</v>
-      </c>
-      <c r="E93" s="123">
-        <v>76</v>
-      </c>
-      <c r="F93" s="123"/>
-      <c r="G93" s="123"/>
-      <c r="H93" s="123">
-        <f t="shared" ref="H93:H96" si="0">D93+E93+F93+G93</f>
-        <v>496</v>
-      </c>
-      <c r="I93" s="123"/>
-      <c r="J93" s="128" t="s">
-        <v>427</v>
+      <c r="A93" s="161">
+        <v>45233</v>
+      </c>
+      <c r="B93" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C93" s="48" t="s">
+        <v>478</v>
+      </c>
+      <c r="D93" s="48">
+        <v>296</v>
+      </c>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48">
+        <v>26.89</v>
+      </c>
+      <c r="G93" s="48">
+        <v>26.89</v>
+      </c>
+      <c r="H93" s="49">
+        <v>350</v>
+      </c>
+      <c r="I93" s="49"/>
+      <c r="J93" s="49" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A94" s="127">
-        <v>45262</v>
-      </c>
-      <c r="B94" s="123" t="s">
-        <v>449</v>
-      </c>
-      <c r="C94" s="123">
-        <v>3073</v>
-      </c>
-      <c r="D94" s="123">
-        <v>4514.1400000000003</v>
-      </c>
-      <c r="E94" s="123"/>
-      <c r="F94" s="123">
-        <v>406.27</v>
-      </c>
-      <c r="G94" s="123">
-        <v>406.27</v>
-      </c>
-      <c r="H94" s="123">
-        <v>5327</v>
-      </c>
-      <c r="I94" s="123"/>
-      <c r="J94" s="123" t="s">
-        <v>450</v>
+      <c r="A94" s="161">
+        <v>45244</v>
+      </c>
+      <c r="B94" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" s="48" t="s">
+        <v>479</v>
+      </c>
+      <c r="D94" s="48">
+        <v>51</v>
+      </c>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48">
+        <v>4.59</v>
+      </c>
+      <c r="G94" s="48">
+        <v>4.59</v>
+      </c>
+      <c r="H94" s="49">
+        <v>60</v>
+      </c>
+      <c r="I94" s="49"/>
+      <c r="J94" s="49" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A95" s="127">
-        <v>45265</v>
-      </c>
-      <c r="B95" s="123" t="s">
-        <v>246</v>
-      </c>
-      <c r="C95" s="123">
-        <v>4279</v>
+        <v>45261</v>
+      </c>
+      <c r="B95" s="128" t="s">
+        <v>435</v>
+      </c>
+      <c r="C95" s="125" t="s">
+        <v>436</v>
       </c>
       <c r="D95" s="123">
-        <v>4516</v>
-      </c>
-      <c r="E95" s="123"/>
-      <c r="F95" s="123">
-        <v>406</v>
-      </c>
-      <c r="G95" s="123">
-        <v>406</v>
-      </c>
+        <v>20340</v>
+      </c>
+      <c r="E95" s="123">
+        <v>3661</v>
+      </c>
+      <c r="F95" s="123"/>
+      <c r="G95" s="123"/>
       <c r="H95" s="123">
-        <f t="shared" si="0"/>
-        <v>5328</v>
+        <f>D95+E95+F95+G95</f>
+        <v>24001</v>
       </c>
       <c r="I95" s="123"/>
-      <c r="J95" s="123" t="s">
-        <v>247</v>
+      <c r="J95" s="125" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A96" s="127">
-        <v>45267</v>
-      </c>
-      <c r="B96" s="125" t="s">
-        <v>459</v>
+        <v>45261</v>
+      </c>
+      <c r="B96" s="128" t="s">
+        <v>480</v>
       </c>
       <c r="C96" s="125" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="D96" s="123">
-        <v>591.53</v>
+        <v>6200</v>
       </c>
       <c r="E96" s="123">
-        <v>106.47</v>
+        <v>1116</v>
       </c>
       <c r="F96" s="123"/>
       <c r="G96" s="123"/>
       <c r="H96" s="123">
+        <f>D96+E96+F96+G96</f>
+        <v>7316</v>
+      </c>
+      <c r="I96" s="123"/>
+      <c r="J96" s="125" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A97" s="127">
+        <v>45262</v>
+      </c>
+      <c r="B97" s="125" t="s">
+        <v>426</v>
+      </c>
+      <c r="C97" s="125">
+        <v>2074</v>
+      </c>
+      <c r="D97" s="123">
+        <v>420</v>
+      </c>
+      <c r="E97" s="123">
+        <v>76</v>
+      </c>
+      <c r="F97" s="123"/>
+      <c r="G97" s="123"/>
+      <c r="H97" s="123">
+        <f t="shared" ref="H97:H100" si="0">D97+E97+F97+G97</f>
+        <v>496</v>
+      </c>
+      <c r="I97" s="123"/>
+      <c r="J97" s="128" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A98" s="127">
+        <v>45262</v>
+      </c>
+      <c r="B98" s="123" t="s">
+        <v>449</v>
+      </c>
+      <c r="C98" s="123">
+        <v>3073</v>
+      </c>
+      <c r="D98" s="123">
+        <v>4514.1400000000003</v>
+      </c>
+      <c r="E98" s="123"/>
+      <c r="F98" s="123">
+        <v>406.27</v>
+      </c>
+      <c r="G98" s="123">
+        <v>406.27</v>
+      </c>
+      <c r="H98" s="123">
+        <v>5327</v>
+      </c>
+      <c r="I98" s="123"/>
+      <c r="J98" s="123" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A99" s="127">
+        <v>45265</v>
+      </c>
+      <c r="B99" s="123" t="s">
+        <v>246</v>
+      </c>
+      <c r="C99" s="123">
+        <v>4279</v>
+      </c>
+      <c r="D99" s="123">
+        <v>4516</v>
+      </c>
+      <c r="E99" s="123"/>
+      <c r="F99" s="123">
+        <v>406</v>
+      </c>
+      <c r="G99" s="123">
+        <v>406</v>
+      </c>
+      <c r="H99" s="123">
+        <f t="shared" si="0"/>
+        <v>5328</v>
+      </c>
+      <c r="I99" s="123"/>
+      <c r="J99" s="123" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A100" s="127">
+        <v>45267</v>
+      </c>
+      <c r="B100" s="125" t="s">
+        <v>459</v>
+      </c>
+      <c r="C100" s="125" t="s">
+        <v>461</v>
+      </c>
+      <c r="D100" s="123">
+        <v>591.53</v>
+      </c>
+      <c r="E100" s="123">
+        <v>106.47</v>
+      </c>
+      <c r="F100" s="123"/>
+      <c r="G100" s="123"/>
+      <c r="H100" s="123">
         <f t="shared" si="0"/>
         <v>698</v>
       </c>
-      <c r="I96" s="123"/>
-      <c r="J96" s="125" t="s">
+      <c r="I100" s="123"/>
+      <c r="J100" s="125" t="s">
         <v>460</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A97" s="127">
-        <v>45268</v>
-      </c>
-      <c r="B97" s="123" t="s">
-        <v>451</v>
-      </c>
-      <c r="C97" s="123">
-        <v>5524</v>
-      </c>
-      <c r="D97" s="123">
-        <v>270</v>
-      </c>
-      <c r="E97" s="123"/>
-      <c r="F97" s="123">
-        <v>24.3</v>
-      </c>
-      <c r="G97" s="123">
-        <v>24.3</v>
-      </c>
-      <c r="H97" s="123">
-        <v>319</v>
-      </c>
-      <c r="I97" s="123"/>
-      <c r="J97" s="123" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A98" s="127">
-        <v>45269</v>
-      </c>
-      <c r="B98" s="125" t="s">
-        <v>462</v>
-      </c>
-      <c r="C98" s="125" t="s">
-        <v>464</v>
-      </c>
-      <c r="D98" s="123">
-        <v>24.58</v>
-      </c>
-      <c r="E98" s="123">
-        <v>4.42</v>
-      </c>
-      <c r="F98" s="123"/>
-      <c r="G98" s="123"/>
-      <c r="H98" s="123">
-        <f>D98+E98+F98+G98</f>
-        <v>29</v>
-      </c>
-      <c r="I98" s="123"/>
-      <c r="J98" s="125" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A99" s="127">
-        <v>45269</v>
-      </c>
-      <c r="B99" s="125" t="s">
-        <v>462</v>
-      </c>
-      <c r="C99" s="125" t="s">
-        <v>465</v>
-      </c>
-      <c r="D99" s="123">
-        <v>8050</v>
-      </c>
-      <c r="E99" s="123">
-        <v>1449</v>
-      </c>
-      <c r="F99" s="123"/>
-      <c r="G99" s="123"/>
-      <c r="H99" s="123">
-        <f>D99+E99+F99+G99</f>
-        <v>9499</v>
-      </c>
-      <c r="I99" s="123"/>
-      <c r="J99" s="125" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A100" s="127">
-        <v>45269</v>
-      </c>
-      <c r="B100" s="125" t="s">
-        <v>466</v>
-      </c>
-      <c r="C100" s="125" t="s">
-        <v>467</v>
-      </c>
-      <c r="D100" s="123">
-        <v>142.16999999999999</v>
-      </c>
-      <c r="E100" s="123"/>
-      <c r="F100" s="155">
-        <v>12.8</v>
-      </c>
-      <c r="G100" s="123">
-        <v>12.8</v>
-      </c>
-      <c r="H100" s="123">
-        <v>168</v>
-      </c>
-      <c r="I100" s="123"/>
-      <c r="J100" s="128" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A101" s="127">
-        <v>45271</v>
+        <v>45268</v>
       </c>
       <c r="B101" s="123" t="s">
-        <v>125</v>
-      </c>
-      <c r="C101" s="123" t="s">
-        <v>453</v>
+        <v>451</v>
+      </c>
+      <c r="C101" s="123">
+        <v>5524</v>
       </c>
       <c r="D101" s="123">
-        <v>3974.58</v>
+        <v>270</v>
       </c>
       <c r="E101" s="123"/>
       <c r="F101" s="123">
-        <v>357.71</v>
+        <v>24.3</v>
       </c>
       <c r="G101" s="123">
-        <v>357.71</v>
+        <v>24.3</v>
       </c>
       <c r="H101" s="123">
-        <v>4690</v>
+        <v>319</v>
       </c>
       <c r="I101" s="123"/>
       <c r="J101" s="123" t="s">
-        <v>127</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A102" s="127">
-        <v>45272</v>
-      </c>
-      <c r="B102" s="123" t="s">
-        <v>454</v>
-      </c>
-      <c r="C102" s="123" t="s">
-        <v>455</v>
+        <v>45269</v>
+      </c>
+      <c r="B102" s="125" t="s">
+        <v>462</v>
+      </c>
+      <c r="C102" s="125" t="s">
+        <v>464</v>
       </c>
       <c r="D102" s="123">
-        <v>110</v>
-      </c>
-      <c r="E102" s="123"/>
-      <c r="F102" s="123">
-        <v>9.9</v>
-      </c>
-      <c r="G102" s="123">
-        <v>9.9</v>
-      </c>
+        <v>24.58</v>
+      </c>
+      <c r="E102" s="123">
+        <v>4.42</v>
+      </c>
+      <c r="F102" s="123"/>
+      <c r="G102" s="123"/>
       <c r="H102" s="123">
-        <v>130</v>
+        <f>D102+E102+F102+G102</f>
+        <v>29</v>
       </c>
       <c r="I102" s="123"/>
-      <c r="J102" s="123" t="s">
-        <v>456</v>
+      <c r="J102" s="125" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A103" s="127">
-        <v>45276</v>
+        <v>45269</v>
       </c>
       <c r="B103" s="125" t="s">
-        <v>457</v>
-      </c>
-      <c r="C103" s="128" t="s">
-        <v>458</v>
+        <v>462</v>
+      </c>
+      <c r="C103" s="125" t="s">
+        <v>465</v>
       </c>
       <c r="D103" s="123">
-        <v>111250</v>
+        <v>8050</v>
       </c>
       <c r="E103" s="123">
-        <v>20025</v>
+        <v>1449</v>
       </c>
       <c r="F103" s="123"/>
       <c r="G103" s="123"/>
       <c r="H103" s="123">
         <f>D103+E103+F103+G103</f>
-        <v>131275</v>
+        <v>9499</v>
       </c>
       <c r="I103" s="123"/>
       <c r="J103" s="125" t="s">
-        <v>66</v>
+        <v>463</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A104" s="156">
-        <v>45279</v>
-      </c>
-      <c r="B104" s="157" t="s">
-        <v>469</v>
-      </c>
-      <c r="C104" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="D104" s="159">
-        <v>11240</v>
-      </c>
-      <c r="E104" s="159">
-        <v>2023.2</v>
-      </c>
-      <c r="F104" s="159"/>
-      <c r="G104" s="159"/>
+      <c r="A104" s="127">
+        <v>45269</v>
+      </c>
+      <c r="B104" s="125" t="s">
+        <v>466</v>
+      </c>
+      <c r="C104" s="125" t="s">
+        <v>467</v>
+      </c>
+      <c r="D104" s="123">
+        <v>142.16999999999999</v>
+      </c>
+      <c r="E104" s="123"/>
+      <c r="F104" s="155">
+        <v>12.8</v>
+      </c>
+      <c r="G104" s="123">
+        <v>12.8</v>
+      </c>
       <c r="H104" s="123">
-        <v>13263</v>
-      </c>
-      <c r="I104" s="159"/>
-      <c r="J104" s="157" t="s">
-        <v>471</v>
+        <v>168</v>
+      </c>
+      <c r="I104" s="123"/>
+      <c r="J104" s="128" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A105" s="156">
-        <v>45279</v>
-      </c>
-      <c r="B105" s="157" t="s">
-        <v>469</v>
-      </c>
-      <c r="C105" s="158" t="s">
-        <v>472</v>
-      </c>
-      <c r="D105" s="159">
-        <v>5150</v>
-      </c>
-      <c r="E105" s="159">
-        <v>927</v>
-      </c>
-      <c r="F105" s="159"/>
-      <c r="G105" s="159"/>
+      <c r="A105" s="127">
+        <v>45271</v>
+      </c>
+      <c r="B105" s="123" t="s">
+        <v>125</v>
+      </c>
+      <c r="C105" s="123" t="s">
+        <v>453</v>
+      </c>
+      <c r="D105" s="123">
+        <v>3974.58</v>
+      </c>
+      <c r="E105" s="123"/>
+      <c r="F105" s="123">
+        <v>357.71</v>
+      </c>
+      <c r="G105" s="123">
+        <v>357.71</v>
+      </c>
       <c r="H105" s="123">
-        <f t="shared" ref="H105" si="1">D105+E105+F105+G105</f>
-        <v>6077</v>
-      </c>
-      <c r="I105" s="159"/>
-      <c r="J105" s="157" t="s">
-        <v>471</v>
+        <v>4690</v>
+      </c>
+      <c r="I105" s="123"/>
+      <c r="J105" s="123" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A106" s="156">
-        <v>45282</v>
-      </c>
-      <c r="B106" s="157" t="s">
-        <v>449</v>
-      </c>
-      <c r="C106" s="158">
-        <v>3262</v>
-      </c>
-      <c r="D106" s="159">
-        <v>4770</v>
-      </c>
-      <c r="E106" s="159"/>
-      <c r="F106" s="159">
-        <v>429.3</v>
-      </c>
-      <c r="G106" s="159">
-        <v>429.3</v>
+      <c r="A106" s="127">
+        <v>45272</v>
+      </c>
+      <c r="B106" s="123" t="s">
+        <v>454</v>
+      </c>
+      <c r="C106" s="123" t="s">
+        <v>455</v>
+      </c>
+      <c r="D106" s="123">
+        <v>110</v>
+      </c>
+      <c r="E106" s="123"/>
+      <c r="F106" s="123">
+        <v>9.9</v>
+      </c>
+      <c r="G106" s="123">
+        <v>9.9</v>
       </c>
       <c r="H106" s="123">
-        <v>5629</v>
-      </c>
-      <c r="I106" s="159"/>
-      <c r="J106" s="157" t="s">
-        <v>450</v>
+        <v>130</v>
+      </c>
+      <c r="I106" s="123"/>
+      <c r="J106" s="123" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A107" s="156">
-        <v>45283</v>
-      </c>
-      <c r="B107" s="157" t="s">
-        <v>105</v>
-      </c>
-      <c r="C107" s="158" t="s">
-        <v>468</v>
-      </c>
-      <c r="D107" s="159">
-        <v>44900</v>
-      </c>
-      <c r="E107" s="159">
-        <v>8082</v>
-      </c>
-      <c r="F107" s="159"/>
-      <c r="G107" s="159"/>
+      <c r="A107" s="127">
+        <v>45276</v>
+      </c>
+      <c r="B107" s="125" t="s">
+        <v>457</v>
+      </c>
+      <c r="C107" s="128" t="s">
+        <v>458</v>
+      </c>
+      <c r="D107" s="123">
+        <v>111250</v>
+      </c>
+      <c r="E107" s="123">
+        <v>20025</v>
+      </c>
+      <c r="F107" s="123"/>
+      <c r="G107" s="123"/>
       <c r="H107" s="123">
         <f>D107+E107+F107+G107</f>
-        <v>52982</v>
-      </c>
-      <c r="I107" s="159"/>
-      <c r="J107" s="157" t="s">
-        <v>61</v>
+        <v>131275</v>
+      </c>
+      <c r="I107" s="123"/>
+      <c r="J107" s="125" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A108" s="156">
-        <v>45287</v>
+        <v>45279</v>
       </c>
       <c r="B108" s="157" t="s">
-        <v>35</v>
+        <v>469</v>
       </c>
       <c r="C108" s="158" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D108" s="159">
-        <v>796</v>
-      </c>
-      <c r="E108" s="159"/>
-      <c r="F108" s="159">
-        <v>71.7</v>
-      </c>
-      <c r="G108" s="159">
-        <v>71.7</v>
-      </c>
+        <v>11240</v>
+      </c>
+      <c r="E108" s="159">
+        <v>2023.2</v>
+      </c>
+      <c r="F108" s="159"/>
+      <c r="G108" s="159"/>
       <c r="H108" s="123">
-        <v>940</v>
+        <v>13263</v>
       </c>
       <c r="I108" s="159"/>
       <c r="J108" s="157" t="s">
-        <v>37</v>
+        <v>471</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A109" s="156">
-        <v>45287</v>
+        <v>45279</v>
       </c>
       <c r="B109" s="157" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C109" s="158" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D109" s="159">
-        <v>19800</v>
-      </c>
-      <c r="E109" s="159"/>
-      <c r="F109" s="159">
-        <v>1782</v>
-      </c>
-      <c r="G109" s="159">
-        <v>1782</v>
-      </c>
+        <v>5150</v>
+      </c>
+      <c r="E109" s="159">
+        <v>927</v>
+      </c>
+      <c r="F109" s="159"/>
+      <c r="G109" s="159"/>
       <c r="H109" s="123">
-        <f t="shared" ref="H109" si="2">D109+E109+F109+G109</f>
-        <v>23364</v>
+        <f t="shared" ref="H109" si="1">D109+E109+F109+G109</f>
+        <v>6077</v>
       </c>
       <c r="I109" s="159"/>
       <c r="J109" s="157" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A110" s="156">
+        <v>45282</v>
+      </c>
+      <c r="B110" s="157" t="s">
+        <v>449</v>
+      </c>
+      <c r="C110" s="158">
+        <v>3262</v>
+      </c>
+      <c r="D110" s="159">
+        <v>4770</v>
+      </c>
+      <c r="E110" s="159"/>
+      <c r="F110" s="159">
+        <v>429.3</v>
+      </c>
+      <c r="G110" s="159">
+        <v>429.3</v>
+      </c>
+      <c r="H110" s="123">
+        <v>5629</v>
+      </c>
+      <c r="I110" s="159"/>
+      <c r="J110" s="157" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A111" s="156">
+        <v>45283</v>
+      </c>
+      <c r="B111" s="157" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111" s="158" t="s">
+        <v>468</v>
+      </c>
+      <c r="D111" s="159">
+        <v>44900</v>
+      </c>
+      <c r="E111" s="159">
+        <v>8082</v>
+      </c>
+      <c r="F111" s="159"/>
+      <c r="G111" s="159"/>
+      <c r="H111" s="123">
+        <f>D111+E111+F111+G111</f>
+        <v>52982</v>
+      </c>
+      <c r="I111" s="159"/>
+      <c r="J111" s="157" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A112" s="156">
+        <v>45287</v>
+      </c>
+      <c r="B112" s="157" t="s">
+        <v>35</v>
+      </c>
+      <c r="C112" s="158" t="s">
+        <v>473</v>
+      </c>
+      <c r="D112" s="159">
+        <v>796</v>
+      </c>
+      <c r="E112" s="159"/>
+      <c r="F112" s="159">
+        <v>71.7</v>
+      </c>
+      <c r="G112" s="159">
+        <v>71.7</v>
+      </c>
+      <c r="H112" s="123">
+        <v>940</v>
+      </c>
+      <c r="I112" s="159"/>
+      <c r="J112" s="157" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A113" s="156">
+        <v>45287</v>
+      </c>
+      <c r="B113" s="157" t="s">
+        <v>474</v>
+      </c>
+      <c r="C113" s="158" t="s">
+        <v>475</v>
+      </c>
+      <c r="D113" s="159">
+        <v>19800</v>
+      </c>
+      <c r="E113" s="159"/>
+      <c r="F113" s="159">
+        <v>1782</v>
+      </c>
+      <c r="G113" s="159">
+        <v>1782</v>
+      </c>
+      <c r="H113" s="123">
+        <f t="shared" ref="H113" si="2">D113+E113+F113+G113</f>
+        <v>23364</v>
+      </c>
+      <c r="I113" s="159"/>
+      <c r="J113" s="157" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A110" s="178" t="s">
+    <row r="114" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A114" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="B110" s="178"/>
-      <c r="C110" s="178"/>
-      <c r="D110" s="26">
-        <f>SUM(D92:D109)</f>
-        <v>240859</v>
-      </c>
-      <c r="E110" s="26">
-        <f>SUM(E92:E109)</f>
-        <v>36354.089999999997</v>
-      </c>
-      <c r="F110" s="26">
-        <f>SUM(F92:F109)</f>
+      <c r="B114" s="181"/>
+      <c r="C114" s="181"/>
+      <c r="D114" s="160">
+        <f>SUM(D95:D113)</f>
+        <v>247059</v>
+      </c>
+      <c r="E114" s="160">
+        <f>SUM(E95:E113)</f>
+        <v>37470.089999999997</v>
+      </c>
+      <c r="F114" s="160">
+        <f>SUM(F95:F113)</f>
         <v>3499.98</v>
       </c>
-      <c r="G110" s="26">
-        <f>SUM(G91:G109)</f>
-        <v>3499.98</v>
-      </c>
-      <c r="H110" s="26">
-        <f>SUM(H92:H109)</f>
-        <v>284215</v>
-      </c>
-      <c r="I110" s="26"/>
-      <c r="J110" s="26"/>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="179"/>
-      <c r="B112" s="179"/>
-      <c r="C112" s="179"/>
-      <c r="D112" s="179"/>
-      <c r="E112" s="179"/>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="179"/>
-      <c r="B120" s="179"/>
-      <c r="C120" s="179"/>
-      <c r="D120" s="179"/>
-      <c r="E120" s="179"/>
+      <c r="G114" s="160">
+        <f>SUM(G91:G113)</f>
+        <v>3534.51</v>
+      </c>
+      <c r="H114" s="160">
+        <f>SUM(H95:H113)</f>
+        <v>291531</v>
+      </c>
+      <c r="I114" s="160"/>
+      <c r="J114" s="160"/>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="182"/>
+      <c r="B116" s="182"/>
+      <c r="C116" s="182"/>
+      <c r="D116" s="182"/>
+      <c r="E116" s="182"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <autoFilter ref="B2:B119"/>
+  <mergeCells count="16">
     <mergeCell ref="A89:C89"/>
     <mergeCell ref="A90:J90"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A116:E116"/>
     <mergeCell ref="A84:H84"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -12034,7 +12193,7 @@
   <dimension ref="A2:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12053,30 +12212,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="169" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="169"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="171"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="166"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="168"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -12260,11 +12419,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="174" t="s">
+      <c r="A14" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="174"/>
-      <c r="C14" s="174"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="176"/>
       <c r="D14" s="33">
         <f>SUM(D5:D13)</f>
         <v>2027921</v>
@@ -12289,18 +12448,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="164" t="s">
+      <c r="A15" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="165"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="166"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="168"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="34" t="s">
@@ -12335,40 +12494,88 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.2" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="A17" s="11">
+        <v>45292</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D17" s="12">
+        <v>271.2</v>
+      </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="F17" s="12">
+        <v>24.41</v>
+      </c>
+      <c r="G17" s="12">
+        <v>24.41</v>
+      </c>
+      <c r="H17" s="12">
+        <v>320</v>
+      </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="J17" s="12" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="A18" s="11">
+        <v>45292</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="D18" s="12">
+        <v>5125</v>
+      </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="F18" s="12">
+        <v>461.25</v>
+      </c>
+      <c r="G18" s="12">
+        <v>461.25</v>
+      </c>
+      <c r="H18" s="12">
+        <v>6048</v>
+      </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="J18" s="12" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="A19" s="36">
+        <v>45295</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="D19" s="37">
+        <v>10169.49</v>
+      </c>
       <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
+      <c r="F19" s="37">
+        <v>915.25</v>
+      </c>
+      <c r="G19" s="37">
+        <v>915.25</v>
+      </c>
+      <c r="H19" s="12">
+        <v>12000</v>
+      </c>
       <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
+      <c r="J19" s="37" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1">
       <c r="A20" s="38"/>
@@ -12378,7 +12585,10 @@
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="H20" s="12">
+        <f t="shared" ref="H20:H28" si="0">D20+E20+F20+G20</f>
+        <v>0</v>
+      </c>
       <c r="I20" s="41"/>
       <c r="J20" s="40"/>
     </row>
@@ -12390,7 +12600,10 @@
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
     </row>
@@ -12402,7 +12615,10 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="H22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
@@ -12414,7 +12630,10 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="H23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
@@ -12426,7 +12645,10 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="H24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
@@ -12438,7 +12660,10 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="H25" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
@@ -12450,7 +12675,10 @@
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="H26" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
@@ -12462,7 +12690,10 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
@@ -12474,19 +12705,22 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="H28" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I28" s="12"/>
       <c r="J28" s="21"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="177"/>
-      <c r="C29" s="177"/>
+      <c r="B29" s="179"/>
+      <c r="C29" s="179"/>
       <c r="D29" s="42">
         <f>SUM(D17:D28)</f>
-        <v>0</v>
+        <v>15565.689999999999</v>
       </c>
       <c r="E29" s="42">
         <f>SUM(E17:E28)</f>
@@ -12494,15 +12728,15 @@
       </c>
       <c r="F29" s="42">
         <f>SUM(F17:F28)</f>
-        <v>0</v>
+        <v>1400.91</v>
       </c>
       <c r="G29" s="42">
         <f>SUM(G17:G28)</f>
-        <v>0</v>
+        <v>1400.91</v>
       </c>
       <c r="H29" s="43">
         <f>SUM(H17:H28)</f>
-        <v>0</v>
+        <v>18368</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
@@ -12513,30 +12747,30 @@
       <c r="C30" s="44"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="167" t="s">
+      <c r="A31" s="169" t="s">
         <v>234</v>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="169"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="171"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="164" t="s">
+      <c r="A32" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="165"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
-      <c r="H32" s="166"/>
+      <c r="B32" s="167"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="168"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -12629,11 +12863,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="174" t="s">
+      <c r="A39" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="174"/>
-      <c r="C39" s="174"/>
+      <c r="B39" s="176"/>
+      <c r="C39" s="176"/>
       <c r="D39" s="33">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -12658,18 +12892,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="164" t="s">
+      <c r="A40" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="165"/>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
-      <c r="E40" s="165"/>
-      <c r="F40" s="165"/>
-      <c r="G40" s="165"/>
-      <c r="H40" s="165"/>
-      <c r="I40" s="165"/>
-      <c r="J40" s="166"/>
+      <c r="B40" s="167"/>
+      <c r="C40" s="167"/>
+      <c r="D40" s="167"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="167"/>
+      <c r="H40" s="167"/>
+      <c r="I40" s="167"/>
+      <c r="J40" s="168"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="34" t="s">
@@ -12980,11 +13214,11 @@
       <c r="J64" s="29"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="175" t="s">
+      <c r="A65" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="175"/>
-      <c r="C65" s="175"/>
+      <c r="B65" s="177"/>
+      <c r="C65" s="177"/>
       <c r="D65" s="51">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -13009,30 +13243,30 @@
       <c r="J65" s="51"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="167" t="s">
+      <c r="A67" s="169" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="168"/>
-      <c r="C67" s="168"/>
-      <c r="D67" s="168"/>
-      <c r="E67" s="168"/>
-      <c r="F67" s="168"/>
-      <c r="G67" s="168"/>
-      <c r="H67" s="168"/>
-      <c r="I67" s="168"/>
-      <c r="J67" s="169"/>
+      <c r="B67" s="170"/>
+      <c r="C67" s="170"/>
+      <c r="D67" s="170"/>
+      <c r="E67" s="170"/>
+      <c r="F67" s="170"/>
+      <c r="G67" s="170"/>
+      <c r="H67" s="170"/>
+      <c r="I67" s="170"/>
+      <c r="J67" s="171"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="164" t="s">
+      <c r="A68" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="165"/>
-      <c r="C68" s="165"/>
-      <c r="D68" s="165"/>
-      <c r="E68" s="165"/>
-      <c r="F68" s="165"/>
-      <c r="G68" s="165"/>
-      <c r="H68" s="166"/>
+      <c r="B68" s="167"/>
+      <c r="C68" s="167"/>
+      <c r="D68" s="167"/>
+      <c r="E68" s="167"/>
+      <c r="F68" s="167"/>
+      <c r="G68" s="167"/>
+      <c r="H68" s="168"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -13101,11 +13335,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="174" t="s">
+      <c r="A73" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="174"/>
-      <c r="C73" s="174"/>
+      <c r="B73" s="176"/>
+      <c r="C73" s="176"/>
       <c r="D73" s="33">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -13130,18 +13364,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="164" t="s">
+      <c r="A74" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="165"/>
-      <c r="C74" s="165"/>
-      <c r="D74" s="165"/>
-      <c r="E74" s="165"/>
-      <c r="F74" s="165"/>
-      <c r="G74" s="165"/>
-      <c r="H74" s="165"/>
-      <c r="I74" s="165"/>
-      <c r="J74" s="166"/>
+      <c r="B74" s="167"/>
+      <c r="C74" s="167"/>
+      <c r="D74" s="167"/>
+      <c r="E74" s="167"/>
+      <c r="F74" s="167"/>
+      <c r="G74" s="167"/>
+      <c r="H74" s="167"/>
+      <c r="I74" s="167"/>
+      <c r="J74" s="168"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="53" t="s">
@@ -13392,11 +13626,11 @@
       <c r="J93" s="66"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="176" t="s">
+      <c r="A94" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="176"/>
-      <c r="C94" s="176"/>
+      <c r="B94" s="178"/>
+      <c r="C94" s="178"/>
       <c r="D94" s="68">
         <f>SUM(D76:D93)</f>
         <v>0</v>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Apr-23 to Jun-23" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Apr-23 to Jun-23'!$B$2:$B$290</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Jul-23 to Sept-23'!$B$2:$B$114</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Oct-23 to Dec-23'!$B$2:$B$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Oct-23 to Dec-23'!$B$2:$B$117</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="489">
   <si>
     <t>APRIL</t>
   </si>
@@ -1460,15 +1460,6 @@
     <t>30AAFFH4689F1ZG</t>
   </si>
   <si>
-    <t>CA-492</t>
-  </si>
-  <si>
-    <t>CA-493</t>
-  </si>
-  <si>
-    <t>CA-496</t>
-  </si>
-  <si>
     <t>M R Steel</t>
   </si>
   <si>
@@ -1491,6 +1482,18 @@
   </si>
   <si>
     <t>30AJOPG7694R1ZC</t>
+  </si>
+  <si>
+    <t>Pinge</t>
+  </si>
+  <si>
+    <t>b23-24MQ401</t>
+  </si>
+  <si>
+    <t>El Shaddai</t>
+  </si>
+  <si>
+    <t>b23-24MQ402</t>
   </si>
 </sst>
 </file>
@@ -1786,7 +1789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2267,9 +2270,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2616,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J290"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2636,30 +2636,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="171"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="170"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="168"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="167"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -2879,11 +2879,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="172"/>
-      <c r="C12" s="172"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="171"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -2908,18 +2908,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="167"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="168"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="167"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -3706,11 +3706,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="162" t="s">
+      <c r="A42" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="163"/>
-      <c r="C42" s="164"/>
+      <c r="B42" s="162"/>
+      <c r="C42" s="163"/>
       <c r="D42" s="26">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -3735,30 +3735,30 @@
       <c r="J42" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="169" t="s">
+      <c r="A44" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="170"/>
-      <c r="F44" s="170"/>
-      <c r="G44" s="170"/>
-      <c r="H44" s="170"/>
-      <c r="I44" s="170"/>
-      <c r="J44" s="171"/>
+      <c r="B44" s="169"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="169"/>
+      <c r="H44" s="169"/>
+      <c r="I44" s="169"/>
+      <c r="J44" s="170"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="167"/>
-      <c r="F45" s="167"/>
-      <c r="G45" s="167"/>
-      <c r="H45" s="168"/>
+      <c r="B45" s="166"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="166"/>
+      <c r="E45" s="166"/>
+      <c r="F45" s="166"/>
+      <c r="G45" s="166"/>
+      <c r="H45" s="167"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -4034,11 +4034,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="165" t="s">
+      <c r="A56" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="164"/>
       <c r="D56" s="27">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -4063,18 +4063,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="166" t="s">
+      <c r="A57" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
-      <c r="E57" s="167"/>
-      <c r="F57" s="167"/>
-      <c r="G57" s="167"/>
-      <c r="H57" s="167"/>
-      <c r="I57" s="167"/>
-      <c r="J57" s="168"/>
+      <c r="B57" s="166"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="166"/>
+      <c r="E57" s="166"/>
+      <c r="F57" s="166"/>
+      <c r="G57" s="166"/>
+      <c r="H57" s="166"/>
+      <c r="I57" s="166"/>
+      <c r="J57" s="167"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -4912,11 +4912,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="173" t="s">
+      <c r="A88" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="174"/>
-      <c r="C88" s="175"/>
+      <c r="B88" s="173"/>
+      <c r="C88" s="174"/>
       <c r="D88" s="27">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -4941,30 +4941,30 @@
       <c r="J88" s="27"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="169" t="s">
+      <c r="A90" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="170"/>
-      <c r="C90" s="170"/>
-      <c r="D90" s="170"/>
-      <c r="E90" s="170"/>
-      <c r="F90" s="170"/>
-      <c r="G90" s="170"/>
-      <c r="H90" s="170"/>
-      <c r="I90" s="170"/>
-      <c r="J90" s="171"/>
+      <c r="B90" s="169"/>
+      <c r="C90" s="169"/>
+      <c r="D90" s="169"/>
+      <c r="E90" s="169"/>
+      <c r="F90" s="169"/>
+      <c r="G90" s="169"/>
+      <c r="H90" s="169"/>
+      <c r="I90" s="169"/>
+      <c r="J90" s="170"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="166" t="s">
+      <c r="A91" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="167"/>
-      <c r="C91" s="167"/>
-      <c r="D91" s="167"/>
-      <c r="E91" s="167"/>
-      <c r="F91" s="167"/>
-      <c r="G91" s="167"/>
-      <c r="H91" s="168"/>
+      <c r="B91" s="166"/>
+      <c r="C91" s="166"/>
+      <c r="D91" s="166"/>
+      <c r="E91" s="166"/>
+      <c r="F91" s="166"/>
+      <c r="G91" s="166"/>
+      <c r="H91" s="167"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -5186,11 +5186,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="165" t="s">
+      <c r="A100" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="165"/>
-      <c r="C100" s="165"/>
+      <c r="B100" s="164"/>
+      <c r="C100" s="164"/>
       <c r="D100" s="27">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -5215,18 +5215,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="166" t="s">
+      <c r="A101" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="167"/>
-      <c r="C101" s="167"/>
-      <c r="D101" s="167"/>
-      <c r="E101" s="167"/>
-      <c r="F101" s="167"/>
-      <c r="G101" s="167"/>
-      <c r="H101" s="167"/>
-      <c r="I101" s="167"/>
-      <c r="J101" s="168"/>
+      <c r="B101" s="166"/>
+      <c r="C101" s="166"/>
+      <c r="D101" s="166"/>
+      <c r="E101" s="166"/>
+      <c r="F101" s="166"/>
+      <c r="G101" s="166"/>
+      <c r="H101" s="166"/>
+      <c r="I101" s="166"/>
+      <c r="J101" s="167"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -5881,11 +5881,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="162" t="s">
+      <c r="A125" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="163"/>
-      <c r="C125" s="164"/>
+      <c r="B125" s="162"/>
+      <c r="C125" s="163"/>
       <c r="D125" s="26">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -6124,8 +6124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B115" sqref="A26:J115"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -6144,30 +6144,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="171"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="170"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="168"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="167"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6254,11 +6254,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="176" t="s">
+      <c r="A7" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="176"/>
+      <c r="B7" s="175"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="33">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -6283,18 +6283,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="168"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="167"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -6952,11 +6952,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="177" t="s">
+      <c r="A32" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="177"/>
-      <c r="C32" s="177"/>
+      <c r="B32" s="176"/>
+      <c r="C32" s="176"/>
       <c r="D32" s="51">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -6986,30 +6986,30 @@
       <c r="C33" s="44"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="169" t="s">
+      <c r="A34" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="170"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="171"/>
+      <c r="B34" s="169"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="169"/>
+      <c r="G34" s="169"/>
+      <c r="H34" s="169"/>
+      <c r="I34" s="169"/>
+      <c r="J34" s="170"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="166" t="s">
+      <c r="A35" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="167"/>
-      <c r="H35" s="168"/>
+      <c r="B35" s="166"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="166"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="166"/>
+      <c r="G35" s="166"/>
+      <c r="H35" s="167"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
@@ -7150,11 +7150,11 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="176" t="s">
+      <c r="A41" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
+      <c r="B41" s="175"/>
+      <c r="C41" s="175"/>
       <c r="D41" s="33">
         <f>SUM(D37:D40)</f>
         <v>613000</v>
@@ -7179,18 +7179,18 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="166" t="s">
+      <c r="A42" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
-      <c r="E42" s="167"/>
-      <c r="F42" s="167"/>
-      <c r="G42" s="167"/>
-      <c r="H42" s="167"/>
-      <c r="I42" s="167"/>
-      <c r="J42" s="168"/>
+      <c r="B42" s="166"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="166"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="166"/>
+      <c r="G42" s="166"/>
+      <c r="H42" s="166"/>
+      <c r="I42" s="166"/>
+      <c r="J42" s="167"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
@@ -8136,11 +8136,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="179" t="s">
+      <c r="A77" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="179"/>
-      <c r="C77" s="179"/>
+      <c r="B77" s="178"/>
+      <c r="C77" s="178"/>
       <c r="D77" s="42">
         <f>SUM(D44:D76)</f>
         <v>385770.4</v>
@@ -8183,30 +8183,30 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="169" t="s">
+      <c r="A79" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="170"/>
-      <c r="C79" s="170"/>
-      <c r="D79" s="170"/>
-      <c r="E79" s="170"/>
-      <c r="F79" s="170"/>
-      <c r="G79" s="170"/>
-      <c r="H79" s="170"/>
-      <c r="I79" s="170"/>
-      <c r="J79" s="171"/>
+      <c r="B79" s="169"/>
+      <c r="C79" s="169"/>
+      <c r="D79" s="169"/>
+      <c r="E79" s="169"/>
+      <c r="F79" s="169"/>
+      <c r="G79" s="169"/>
+      <c r="H79" s="169"/>
+      <c r="I79" s="169"/>
+      <c r="J79" s="170"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="166" t="s">
+      <c r="A80" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="167"/>
-      <c r="C80" s="167"/>
-      <c r="D80" s="167"/>
-      <c r="E80" s="167"/>
-      <c r="F80" s="167"/>
-      <c r="G80" s="167"/>
-      <c r="H80" s="168"/>
+      <c r="B80" s="166"/>
+      <c r="C80" s="166"/>
+      <c r="D80" s="166"/>
+      <c r="E80" s="166"/>
+      <c r="F80" s="166"/>
+      <c r="G80" s="166"/>
+      <c r="H80" s="167"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
@@ -8320,11 +8320,11 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="176" t="s">
+      <c r="A85" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="176"/>
-      <c r="C85" s="176"/>
+      <c r="B85" s="175"/>
+      <c r="C85" s="175"/>
       <c r="D85" s="33">
         <f>SUM(D82:D84)</f>
         <v>204284</v>
@@ -8349,18 +8349,18 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="166" t="s">
+      <c r="A86" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="167"/>
-      <c r="C86" s="167"/>
-      <c r="D86" s="167"/>
-      <c r="E86" s="167"/>
-      <c r="F86" s="167"/>
-      <c r="G86" s="167"/>
-      <c r="H86" s="167"/>
-      <c r="I86" s="167"/>
-      <c r="J86" s="168"/>
+      <c r="B86" s="166"/>
+      <c r="C86" s="166"/>
+      <c r="D86" s="166"/>
+      <c r="E86" s="166"/>
+      <c r="F86" s="166"/>
+      <c r="G86" s="166"/>
+      <c r="H86" s="166"/>
+      <c r="I86" s="166"/>
+      <c r="J86" s="167"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="53" t="s">
@@ -9115,11 +9115,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="178" t="s">
+      <c r="A114" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="178"/>
-      <c r="C114" s="178"/>
+      <c r="B114" s="177"/>
+      <c r="C114" s="177"/>
       <c r="D114" s="68">
         <f>SUM(D88:D113)</f>
         <v>438291.73</v>
@@ -9169,10 +9169,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K116"/>
+  <dimension ref="A2:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9191,30 +9191,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="168" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="171"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="170"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="168"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="167"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -9259,11 +9259,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" ht="21">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="172"/>
-      <c r="C6" s="172"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
       <c r="D6" s="15">
         <f>SUM(D5:D5)</f>
         <v>0</v>
@@ -9288,18 +9288,18 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="21">
-      <c r="A7" s="166" t="s">
+      <c r="A7" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="167"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="168"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="167"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="16" t="s">
@@ -9908,11 +9908,11 @@
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="180" t="s">
+      <c r="A29" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="180"/>
-      <c r="C29" s="180"/>
+      <c r="B29" s="179"/>
+      <c r="C29" s="179"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -9938,30 +9938,30 @@
       <c r="K29" s="69"/>
     </row>
     <row r="31" spans="1:11" ht="21">
-      <c r="A31" s="169" t="s">
+      <c r="A31" s="168" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="170"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="171"/>
+      <c r="B31" s="169"/>
+      <c r="C31" s="169"/>
+      <c r="D31" s="169"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="169"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="169"/>
+      <c r="J31" s="170"/>
     </row>
     <row r="32" spans="1:11" ht="21">
-      <c r="A32" s="166" t="s">
+      <c r="A32" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="167"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="168"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="167"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -10207,11 +10207,11 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="165" t="s">
+      <c r="A42" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="165"/>
-      <c r="C42" s="165"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="164"/>
       <c r="D42" s="27">
         <f>SUM(D34:D41)</f>
         <v>983754</v>
@@ -10236,18 +10236,18 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="166" t="s">
+      <c r="A43" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
-      <c r="E43" s="167"/>
-      <c r="F43" s="167"/>
-      <c r="G43" s="167"/>
-      <c r="H43" s="167"/>
-      <c r="I43" s="167"/>
-      <c r="J43" s="168"/>
+      <c r="B43" s="166"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="166"/>
+      <c r="E43" s="166"/>
+      <c r="F43" s="166"/>
+      <c r="G43" s="166"/>
+      <c r="H43" s="166"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="167"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1">
       <c r="A44" s="16" t="s">
@@ -11277,11 +11277,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A81" s="165" t="s">
+      <c r="A81" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="165"/>
-      <c r="C81" s="165"/>
+      <c r="B81" s="164"/>
+      <c r="C81" s="164"/>
       <c r="D81" s="27">
         <f>SUM(D45:D80)</f>
         <v>599787.05000000005</v>
@@ -11306,30 +11306,30 @@
       <c r="J81" s="27"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="169" t="s">
+      <c r="A83" s="168" t="s">
         <v>232</v>
       </c>
-      <c r="B83" s="170"/>
-      <c r="C83" s="170"/>
-      <c r="D83" s="170"/>
-      <c r="E83" s="170"/>
-      <c r="F83" s="170"/>
-      <c r="G83" s="170"/>
-      <c r="H83" s="170"/>
-      <c r="I83" s="170"/>
-      <c r="J83" s="171"/>
+      <c r="B83" s="169"/>
+      <c r="C83" s="169"/>
+      <c r="D83" s="169"/>
+      <c r="E83" s="169"/>
+      <c r="F83" s="169"/>
+      <c r="G83" s="169"/>
+      <c r="H83" s="169"/>
+      <c r="I83" s="169"/>
+      <c r="J83" s="170"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="166" t="s">
+      <c r="A84" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="167"/>
-      <c r="C84" s="167"/>
-      <c r="D84" s="167"/>
-      <c r="E84" s="167"/>
-      <c r="F84" s="167"/>
-      <c r="G84" s="167"/>
-      <c r="H84" s="168"/>
+      <c r="B84" s="166"/>
+      <c r="C84" s="166"/>
+      <c r="D84" s="166"/>
+      <c r="E84" s="166"/>
+      <c r="F84" s="166"/>
+      <c r="G84" s="166"/>
+      <c r="H84" s="167"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
@@ -11445,356 +11445,354 @@
         <v>447</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A89" s="165" t="s">
+    <row r="89" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A89" s="18">
+        <v>45252</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D89" s="19">
+        <v>130208</v>
+      </c>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19">
+        <v>11719</v>
+      </c>
+      <c r="G89" s="19">
+        <v>11719</v>
+      </c>
+      <c r="H89" s="19">
+        <v>153645</v>
+      </c>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A90" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="165"/>
-      <c r="C89" s="165"/>
-      <c r="D89" s="27">
-        <f>SUM(D86:D88)</f>
-        <v>167110</v>
-      </c>
-      <c r="E89" s="27">
-        <f>SUM(E85:E88)</f>
+      <c r="B90" s="164"/>
+      <c r="C90" s="164"/>
+      <c r="D90" s="27">
+        <f>SUM(D86:D89)</f>
+        <v>297318</v>
+      </c>
+      <c r="E90" s="27">
+        <f>SUM(E86:E89)</f>
         <v>0</v>
       </c>
-      <c r="F89" s="27">
-        <f>SUM(F86:F88)</f>
-        <v>15040.1</v>
-      </c>
-      <c r="G89" s="27">
-        <f>SUM(G86:G88)</f>
-        <v>15040.1</v>
-      </c>
-      <c r="H89" s="27">
-        <f>SUM(H86:H88)</f>
-        <v>197189</v>
-      </c>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-    </row>
-    <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="166" t="s">
+      <c r="F90" s="27">
+        <f>SUM(F86:F89)</f>
+        <v>26759.1</v>
+      </c>
+      <c r="G90" s="27">
+        <f>SUM(G86:G89)</f>
+        <v>26759.1</v>
+      </c>
+      <c r="H90" s="27">
+        <f>SUM(H86:H89)</f>
+        <v>350834</v>
+      </c>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="1:10" ht="21">
+      <c r="A91" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="167"/>
-      <c r="C90" s="167"/>
-      <c r="D90" s="167"/>
-      <c r="E90" s="167"/>
-      <c r="F90" s="167"/>
-      <c r="G90" s="167"/>
-      <c r="H90" s="167"/>
-      <c r="I90" s="167"/>
-      <c r="J90" s="168"/>
-    </row>
-    <row r="91" spans="1:10" s="6" customFormat="1">
-      <c r="A91" s="16" t="s">
+      <c r="B91" s="166"/>
+      <c r="C91" s="166"/>
+      <c r="D91" s="166"/>
+      <c r="E91" s="166"/>
+      <c r="F91" s="166"/>
+      <c r="G91" s="166"/>
+      <c r="H91" s="166"/>
+      <c r="I91" s="166"/>
+      <c r="J91" s="167"/>
+    </row>
+    <row r="92" spans="1:10" s="6" customFormat="1">
+      <c r="A92" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B92" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C92" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="16" t="s">
+      <c r="D92" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E92" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F91" s="16" t="s">
+      <c r="F92" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G91" s="16" t="s">
+      <c r="G92" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="17" t="s">
+      <c r="H92" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I91" s="17" t="s">
+      <c r="I92" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J91" s="17" t="s">
+      <c r="J92" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A92" s="161">
-        <v>45233</v>
-      </c>
-      <c r="B92" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C92" s="48" t="s">
+    <row r="93" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A93" s="127">
+        <v>45261</v>
+      </c>
+      <c r="B93" s="128" t="s">
+        <v>435</v>
+      </c>
+      <c r="C93" s="125" t="s">
+        <v>436</v>
+      </c>
+      <c r="D93" s="123">
+        <v>20340</v>
+      </c>
+      <c r="E93" s="123">
+        <v>3661</v>
+      </c>
+      <c r="F93" s="123"/>
+      <c r="G93" s="123"/>
+      <c r="H93" s="123">
+        <f>D93+E93+F93+G93</f>
+        <v>24001</v>
+      </c>
+      <c r="I93" s="123"/>
+      <c r="J93" s="125" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A94" s="127">
+        <v>45261</v>
+      </c>
+      <c r="B94" s="128" t="s">
         <v>477</v>
       </c>
-      <c r="D92" s="48">
-        <v>33</v>
-      </c>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48">
-        <v>3.05</v>
-      </c>
-      <c r="G92" s="48">
-        <v>3.05</v>
-      </c>
-      <c r="H92" s="49">
-        <v>40</v>
-      </c>
-      <c r="I92" s="49"/>
-      <c r="J92" s="49" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A93" s="161">
-        <v>45233</v>
-      </c>
-      <c r="B93" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C93" s="48" t="s">
+      <c r="C94" s="125" t="s">
         <v>478</v>
       </c>
-      <c r="D93" s="48">
-        <v>296</v>
-      </c>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48">
-        <v>26.89</v>
-      </c>
-      <c r="G93" s="48">
-        <v>26.89</v>
-      </c>
-      <c r="H93" s="49">
-        <v>350</v>
-      </c>
-      <c r="I93" s="49"/>
-      <c r="J93" s="49" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A94" s="161">
-        <v>45244</v>
-      </c>
-      <c r="B94" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C94" s="48" t="s">
+      <c r="D94" s="123">
+        <v>6200</v>
+      </c>
+      <c r="E94" s="123">
+        <v>1116</v>
+      </c>
+      <c r="F94" s="123"/>
+      <c r="G94" s="123"/>
+      <c r="H94" s="123">
+        <f>D94+E94+F94+G94</f>
+        <v>7316</v>
+      </c>
+      <c r="I94" s="123"/>
+      <c r="J94" s="125" t="s">
         <v>479</v>
-      </c>
-      <c r="D94" s="48">
-        <v>51</v>
-      </c>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48">
-        <v>4.59</v>
-      </c>
-      <c r="G94" s="48">
-        <v>4.59</v>
-      </c>
-      <c r="H94" s="49">
-        <v>60</v>
-      </c>
-      <c r="I94" s="49"/>
-      <c r="J94" s="49" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A95" s="127">
-        <v>45261</v>
-      </c>
-      <c r="B95" s="128" t="s">
-        <v>435</v>
-      </c>
-      <c r="C95" s="125" t="s">
-        <v>436</v>
+        <v>45262</v>
+      </c>
+      <c r="B95" s="125" t="s">
+        <v>426</v>
+      </c>
+      <c r="C95" s="125">
+        <v>2074</v>
       </c>
       <c r="D95" s="123">
-        <v>20340</v>
+        <v>420</v>
       </c>
       <c r="E95" s="123">
-        <v>3661</v>
+        <v>76</v>
       </c>
       <c r="F95" s="123"/>
       <c r="G95" s="123"/>
       <c r="H95" s="123">
-        <f>D95+E95+F95+G95</f>
-        <v>24001</v>
+        <f t="shared" ref="H95:H98" si="0">D95+E95+F95+G95</f>
+        <v>496</v>
       </c>
       <c r="I95" s="123"/>
-      <c r="J95" s="125" t="s">
-        <v>437</v>
+      <c r="J95" s="128" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A96" s="127">
-        <v>45261</v>
-      </c>
-      <c r="B96" s="128" t="s">
-        <v>480</v>
-      </c>
-      <c r="C96" s="125" t="s">
-        <v>481</v>
+        <v>45262</v>
+      </c>
+      <c r="B96" s="123" t="s">
+        <v>449</v>
+      </c>
+      <c r="C96" s="123">
+        <v>3073</v>
       </c>
       <c r="D96" s="123">
-        <v>6200</v>
-      </c>
-      <c r="E96" s="123">
-        <v>1116</v>
-      </c>
-      <c r="F96" s="123"/>
-      <c r="G96" s="123"/>
+        <v>4514.1400000000003</v>
+      </c>
+      <c r="E96" s="123"/>
+      <c r="F96" s="123">
+        <v>406.27</v>
+      </c>
+      <c r="G96" s="123">
+        <v>406.27</v>
+      </c>
       <c r="H96" s="123">
-        <f>D96+E96+F96+G96</f>
-        <v>7316</v>
+        <v>5327</v>
       </c>
       <c r="I96" s="123"/>
-      <c r="J96" s="125" t="s">
-        <v>482</v>
+      <c r="J96" s="123" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A97" s="127">
-        <v>45262</v>
-      </c>
-      <c r="B97" s="125" t="s">
-        <v>426</v>
-      </c>
-      <c r="C97" s="125">
-        <v>2074</v>
+        <v>45265</v>
+      </c>
+      <c r="B97" s="123" t="s">
+        <v>246</v>
+      </c>
+      <c r="C97" s="123">
+        <v>4279</v>
       </c>
       <c r="D97" s="123">
-        <v>420</v>
-      </c>
-      <c r="E97" s="123">
-        <v>76</v>
-      </c>
-      <c r="F97" s="123"/>
-      <c r="G97" s="123"/>
+        <v>4516</v>
+      </c>
+      <c r="E97" s="123"/>
+      <c r="F97" s="123">
+        <v>406</v>
+      </c>
+      <c r="G97" s="123">
+        <v>406</v>
+      </c>
       <c r="H97" s="123">
-        <f t="shared" ref="H97:H100" si="0">D97+E97+F97+G97</f>
-        <v>496</v>
+        <f t="shared" si="0"/>
+        <v>5328</v>
       </c>
       <c r="I97" s="123"/>
-      <c r="J97" s="128" t="s">
-        <v>427</v>
+      <c r="J97" s="123" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A98" s="127">
-        <v>45262</v>
-      </c>
-      <c r="B98" s="123" t="s">
-        <v>449</v>
-      </c>
-      <c r="C98" s="123">
-        <v>3073</v>
+        <v>45267</v>
+      </c>
+      <c r="B98" s="125" t="s">
+        <v>459</v>
+      </c>
+      <c r="C98" s="125" t="s">
+        <v>461</v>
       </c>
       <c r="D98" s="123">
-        <v>4514.1400000000003</v>
-      </c>
-      <c r="E98" s="123"/>
-      <c r="F98" s="123">
-        <v>406.27</v>
-      </c>
-      <c r="G98" s="123">
-        <v>406.27</v>
-      </c>
+        <v>591.53</v>
+      </c>
+      <c r="E98" s="123">
+        <v>106.47</v>
+      </c>
+      <c r="F98" s="123"/>
+      <c r="G98" s="123"/>
       <c r="H98" s="123">
-        <v>5327</v>
+        <f t="shared" si="0"/>
+        <v>698</v>
       </c>
       <c r="I98" s="123"/>
-      <c r="J98" s="123" t="s">
-        <v>450</v>
+      <c r="J98" s="125" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A99" s="127">
-        <v>45265</v>
+        <v>45268</v>
       </c>
       <c r="B99" s="123" t="s">
-        <v>246</v>
+        <v>451</v>
       </c>
       <c r="C99" s="123">
-        <v>4279</v>
+        <v>5524</v>
       </c>
       <c r="D99" s="123">
-        <v>4516</v>
+        <v>270</v>
       </c>
       <c r="E99" s="123"/>
       <c r="F99" s="123">
-        <v>406</v>
+        <v>24.3</v>
       </c>
       <c r="G99" s="123">
-        <v>406</v>
+        <v>24.3</v>
       </c>
       <c r="H99" s="123">
-        <f t="shared" si="0"/>
-        <v>5328</v>
+        <v>319</v>
       </c>
       <c r="I99" s="123"/>
       <c r="J99" s="123" t="s">
-        <v>247</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A100" s="127">
-        <v>45267</v>
+        <v>45269</v>
       </c>
       <c r="B100" s="125" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C100" s="125" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D100" s="123">
-        <v>591.53</v>
+        <v>24.58</v>
       </c>
       <c r="E100" s="123">
-        <v>106.47</v>
+        <v>4.42</v>
       </c>
       <c r="F100" s="123"/>
       <c r="G100" s="123"/>
       <c r="H100" s="123">
-        <f t="shared" si="0"/>
-        <v>698</v>
+        <f>D100+E100+F100+G100</f>
+        <v>29</v>
       </c>
       <c r="I100" s="123"/>
       <c r="J100" s="125" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A101" s="127">
-        <v>45268</v>
-      </c>
-      <c r="B101" s="123" t="s">
-        <v>451</v>
-      </c>
-      <c r="C101" s="123">
-        <v>5524</v>
+        <v>45269</v>
+      </c>
+      <c r="B101" s="125" t="s">
+        <v>462</v>
+      </c>
+      <c r="C101" s="125" t="s">
+        <v>465</v>
       </c>
       <c r="D101" s="123">
-        <v>270</v>
-      </c>
-      <c r="E101" s="123"/>
-      <c r="F101" s="123">
-        <v>24.3</v>
-      </c>
-      <c r="G101" s="123">
-        <v>24.3</v>
-      </c>
+        <v>8050</v>
+      </c>
+      <c r="E101" s="123">
+        <v>1449</v>
+      </c>
+      <c r="F101" s="123"/>
+      <c r="G101" s="123"/>
       <c r="H101" s="123">
-        <v>319</v>
+        <f>D101+E101+F101+G101</f>
+        <v>9499</v>
       </c>
       <c r="I101" s="123"/>
-      <c r="J101" s="123" t="s">
-        <v>452</v>
+      <c r="J101" s="125" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1" ht="15">
@@ -11802,386 +11800,332 @@
         <v>45269</v>
       </c>
       <c r="B102" s="125" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C102" s="125" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D102" s="123">
-        <v>24.58</v>
-      </c>
-      <c r="E102" s="123">
-        <v>4.42</v>
-      </c>
-      <c r="F102" s="123"/>
-      <c r="G102" s="123"/>
+        <v>142.16999999999999</v>
+      </c>
+      <c r="E102" s="123"/>
+      <c r="F102" s="155">
+        <v>12.8</v>
+      </c>
+      <c r="G102" s="123">
+        <v>12.8</v>
+      </c>
       <c r="H102" s="123">
-        <f>D102+E102+F102+G102</f>
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="I102" s="123"/>
-      <c r="J102" s="125" t="s">
-        <v>463</v>
+      <c r="J102" s="128" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A103" s="127">
-        <v>45269</v>
-      </c>
-      <c r="B103" s="125" t="s">
-        <v>462</v>
-      </c>
-      <c r="C103" s="125" t="s">
-        <v>465</v>
+        <v>45271</v>
+      </c>
+      <c r="B103" s="123" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103" s="123" t="s">
+        <v>453</v>
       </c>
       <c r="D103" s="123">
-        <v>8050</v>
-      </c>
-      <c r="E103" s="123">
-        <v>1449</v>
-      </c>
-      <c r="F103" s="123"/>
-      <c r="G103" s="123"/>
+        <v>3974.58</v>
+      </c>
+      <c r="E103" s="123"/>
+      <c r="F103" s="123">
+        <v>357.71</v>
+      </c>
+      <c r="G103" s="123">
+        <v>357.71</v>
+      </c>
       <c r="H103" s="123">
-        <f>D103+E103+F103+G103</f>
-        <v>9499</v>
+        <v>4690</v>
       </c>
       <c r="I103" s="123"/>
-      <c r="J103" s="125" t="s">
-        <v>463</v>
+      <c r="J103" s="123" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A104" s="127">
-        <v>45269</v>
-      </c>
-      <c r="B104" s="125" t="s">
-        <v>466</v>
-      </c>
-      <c r="C104" s="125" t="s">
-        <v>467</v>
+        <v>45272</v>
+      </c>
+      <c r="B104" s="123" t="s">
+        <v>454</v>
+      </c>
+      <c r="C104" s="123" t="s">
+        <v>455</v>
       </c>
       <c r="D104" s="123">
-        <v>142.16999999999999</v>
+        <v>110</v>
       </c>
       <c r="E104" s="123"/>
-      <c r="F104" s="155">
-        <v>12.8</v>
+      <c r="F104" s="123">
+        <v>9.9</v>
       </c>
       <c r="G104" s="123">
-        <v>12.8</v>
+        <v>9.9</v>
       </c>
       <c r="H104" s="123">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="I104" s="123"/>
-      <c r="J104" s="128" t="s">
-        <v>34</v>
+      <c r="J104" s="123" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A105" s="127">
-        <v>45271</v>
-      </c>
-      <c r="B105" s="123" t="s">
-        <v>125</v>
-      </c>
-      <c r="C105" s="123" t="s">
-        <v>453</v>
+        <v>45276</v>
+      </c>
+      <c r="B105" s="125" t="s">
+        <v>457</v>
+      </c>
+      <c r="C105" s="128" t="s">
+        <v>458</v>
       </c>
       <c r="D105" s="123">
-        <v>3974.58</v>
-      </c>
-      <c r="E105" s="123"/>
-      <c r="F105" s="123">
-        <v>357.71</v>
-      </c>
-      <c r="G105" s="123">
-        <v>357.71</v>
-      </c>
+        <v>111250</v>
+      </c>
+      <c r="E105" s="123">
+        <v>20025</v>
+      </c>
+      <c r="F105" s="123"/>
+      <c r="G105" s="123"/>
       <c r="H105" s="123">
-        <v>4690</v>
+        <f>D105+E105+F105+G105</f>
+        <v>131275</v>
       </c>
       <c r="I105" s="123"/>
-      <c r="J105" s="123" t="s">
-        <v>127</v>
+      <c r="J105" s="125" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A106" s="127">
-        <v>45272</v>
-      </c>
-      <c r="B106" s="123" t="s">
-        <v>454</v>
-      </c>
-      <c r="C106" s="123" t="s">
-        <v>455</v>
-      </c>
-      <c r="D106" s="123">
-        <v>110</v>
-      </c>
-      <c r="E106" s="123"/>
-      <c r="F106" s="123">
-        <v>9.9</v>
-      </c>
-      <c r="G106" s="123">
-        <v>9.9</v>
-      </c>
+      <c r="A106" s="156">
+        <v>45279</v>
+      </c>
+      <c r="B106" s="157" t="s">
+        <v>469</v>
+      </c>
+      <c r="C106" s="158" t="s">
+        <v>470</v>
+      </c>
+      <c r="D106" s="159">
+        <v>11240</v>
+      </c>
+      <c r="E106" s="159">
+        <v>2023.2</v>
+      </c>
+      <c r="F106" s="159"/>
+      <c r="G106" s="159"/>
       <c r="H106" s="123">
-        <v>130</v>
-      </c>
-      <c r="I106" s="123"/>
-      <c r="J106" s="123" t="s">
-        <v>456</v>
+        <v>13263</v>
+      </c>
+      <c r="I106" s="159"/>
+      <c r="J106" s="157" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A107" s="127">
-        <v>45276</v>
-      </c>
-      <c r="B107" s="125" t="s">
-        <v>457</v>
-      </c>
-      <c r="C107" s="128" t="s">
-        <v>458</v>
-      </c>
-      <c r="D107" s="123">
-        <v>111250</v>
-      </c>
-      <c r="E107" s="123">
-        <v>20025</v>
-      </c>
-      <c r="F107" s="123"/>
-      <c r="G107" s="123"/>
+      <c r="A107" s="156">
+        <v>45279</v>
+      </c>
+      <c r="B107" s="157" t="s">
+        <v>469</v>
+      </c>
+      <c r="C107" s="158" t="s">
+        <v>472</v>
+      </c>
+      <c r="D107" s="159">
+        <v>5150</v>
+      </c>
+      <c r="E107" s="159">
+        <v>927</v>
+      </c>
+      <c r="F107" s="159"/>
+      <c r="G107" s="159"/>
       <c r="H107" s="123">
-        <f>D107+E107+F107+G107</f>
-        <v>131275</v>
-      </c>
-      <c r="I107" s="123"/>
-      <c r="J107" s="125" t="s">
-        <v>66</v>
+        <f t="shared" ref="H107" si="1">D107+E107+F107+G107</f>
+        <v>6077</v>
+      </c>
+      <c r="I107" s="159"/>
+      <c r="J107" s="157" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="108" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A108" s="156">
-        <v>45279</v>
+        <v>45282</v>
       </c>
       <c r="B108" s="157" t="s">
-        <v>469</v>
-      </c>
-      <c r="C108" s="158" t="s">
-        <v>470</v>
+        <v>449</v>
+      </c>
+      <c r="C108" s="158">
+        <v>3262</v>
       </c>
       <c r="D108" s="159">
-        <v>11240</v>
-      </c>
-      <c r="E108" s="159">
-        <v>2023.2</v>
-      </c>
-      <c r="F108" s="159"/>
-      <c r="G108" s="159"/>
+        <v>4770</v>
+      </c>
+      <c r="E108" s="159"/>
+      <c r="F108" s="159">
+        <v>429.3</v>
+      </c>
+      <c r="G108" s="159">
+        <v>429.3</v>
+      </c>
       <c r="H108" s="123">
-        <v>13263</v>
+        <v>5629</v>
       </c>
       <c r="I108" s="159"/>
       <c r="J108" s="157" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A109" s="156">
-        <v>45279</v>
+        <v>45283</v>
       </c>
       <c r="B109" s="157" t="s">
-        <v>469</v>
+        <v>105</v>
       </c>
       <c r="C109" s="158" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D109" s="159">
-        <v>5150</v>
+        <v>44900</v>
       </c>
       <c r="E109" s="159">
-        <v>927</v>
+        <v>8082</v>
       </c>
       <c r="F109" s="159"/>
       <c r="G109" s="159"/>
       <c r="H109" s="123">
-        <f t="shared" ref="H109" si="1">D109+E109+F109+G109</f>
-        <v>6077</v>
+        <f>D109+E109+F109+G109</f>
+        <v>52982</v>
       </c>
       <c r="I109" s="159"/>
       <c r="J109" s="157" t="s">
-        <v>471</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A110" s="156">
-        <v>45282</v>
+        <v>45287</v>
       </c>
       <c r="B110" s="157" t="s">
-        <v>449</v>
-      </c>
-      <c r="C110" s="158">
-        <v>3262</v>
+        <v>35</v>
+      </c>
+      <c r="C110" s="158" t="s">
+        <v>473</v>
       </c>
       <c r="D110" s="159">
-        <v>4770</v>
+        <v>796</v>
       </c>
       <c r="E110" s="159"/>
       <c r="F110" s="159">
-        <v>429.3</v>
+        <v>71.7</v>
       </c>
       <c r="G110" s="159">
-        <v>429.3</v>
+        <v>71.7</v>
       </c>
       <c r="H110" s="123">
-        <v>5629</v>
+        <v>940</v>
       </c>
       <c r="I110" s="159"/>
       <c r="J110" s="157" t="s">
-        <v>450</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A111" s="156">
-        <v>45283</v>
+        <v>45287</v>
       </c>
       <c r="B111" s="157" t="s">
-        <v>105</v>
+        <v>474</v>
       </c>
       <c r="C111" s="158" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D111" s="159">
-        <v>44900</v>
-      </c>
-      <c r="E111" s="159">
-        <v>8082</v>
-      </c>
-      <c r="F111" s="159"/>
-      <c r="G111" s="159"/>
+        <v>19800</v>
+      </c>
+      <c r="E111" s="159"/>
+      <c r="F111" s="159">
+        <v>1782</v>
+      </c>
+      <c r="G111" s="159">
+        <v>1782</v>
+      </c>
       <c r="H111" s="123">
-        <f>D111+E111+F111+G111</f>
-        <v>52982</v>
+        <f t="shared" ref="H111" si="2">D111+E111+F111+G111</f>
+        <v>23364</v>
       </c>
       <c r="I111" s="159"/>
       <c r="J111" s="157" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A112" s="156">
-        <v>45287</v>
-      </c>
-      <c r="B112" s="157" t="s">
-        <v>35</v>
-      </c>
-      <c r="C112" s="158" t="s">
-        <v>473</v>
-      </c>
-      <c r="D112" s="159">
-        <v>796</v>
-      </c>
-      <c r="E112" s="159"/>
-      <c r="F112" s="159">
-        <v>71.7</v>
-      </c>
-      <c r="G112" s="159">
-        <v>71.7</v>
-      </c>
-      <c r="H112" s="123">
-        <v>940</v>
-      </c>
-      <c r="I112" s="159"/>
-      <c r="J112" s="157" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A113" s="156">
-        <v>45287</v>
-      </c>
-      <c r="B113" s="157" t="s">
-        <v>474</v>
-      </c>
-      <c r="C113" s="158" t="s">
-        <v>475</v>
-      </c>
-      <c r="D113" s="159">
-        <v>19800</v>
-      </c>
-      <c r="E113" s="159"/>
-      <c r="F113" s="159">
-        <v>1782</v>
-      </c>
-      <c r="G113" s="159">
-        <v>1782</v>
-      </c>
-      <c r="H113" s="123">
-        <f t="shared" ref="H113" si="2">D113+E113+F113+G113</f>
-        <v>23364</v>
-      </c>
-      <c r="I113" s="159"/>
-      <c r="J113" s="157" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A114" s="181" t="s">
+    <row r="112" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A112" s="180" t="s">
         <v>10</v>
       </c>
+      <c r="B112" s="180"/>
+      <c r="C112" s="180"/>
+      <c r="D112" s="160">
+        <f>SUM(D93:D111)</f>
+        <v>247059</v>
+      </c>
+      <c r="E112" s="160">
+        <f>SUM(E93:E111)</f>
+        <v>37470.089999999997</v>
+      </c>
+      <c r="F112" s="160">
+        <f>SUM(F93:F111)</f>
+        <v>3499.98</v>
+      </c>
+      <c r="G112" s="160">
+        <f>SUM(G92:G111)</f>
+        <v>3499.98</v>
+      </c>
+      <c r="H112" s="160">
+        <f>SUM(H93:H111)</f>
+        <v>291531</v>
+      </c>
+      <c r="I112" s="160"/>
+      <c r="J112" s="160"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="181"/>
       <c r="B114" s="181"/>
       <c r="C114" s="181"/>
-      <c r="D114" s="160">
-        <f>SUM(D95:D113)</f>
-        <v>247059</v>
-      </c>
-      <c r="E114" s="160">
-        <f>SUM(E95:E113)</f>
-        <v>37470.089999999997</v>
-      </c>
-      <c r="F114" s="160">
-        <f>SUM(F95:F113)</f>
-        <v>3499.98</v>
-      </c>
-      <c r="G114" s="160">
-        <f>SUM(G91:G113)</f>
-        <v>3534.51</v>
-      </c>
-      <c r="H114" s="160">
-        <f>SUM(H95:H113)</f>
-        <v>291531</v>
-      </c>
-      <c r="I114" s="160"/>
-      <c r="J114" s="160"/>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116" s="182"/>
-      <c r="B116" s="182"/>
-      <c r="C116" s="182"/>
-      <c r="D116" s="182"/>
-      <c r="E116" s="182"/>
+      <c r="D114" s="181"/>
+      <c r="E114" s="181"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:B119"/>
+  <autoFilter ref="B2:B117"/>
   <mergeCells count="16">
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:J90"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A114:E114"/>
     <mergeCell ref="A84:H84"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A83:J83"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A83:J83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12190,10 +12134,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J94"/>
+  <dimension ref="A2:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A10" sqref="A10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12212,30 +12156,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="168" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="171"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="170"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="168"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="167"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -12293,322 +12237,350 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A6" s="18">
-        <v>45252</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>411</v>
+        <v>45261</v>
+      </c>
+      <c r="B6" s="154" t="s">
+        <v>407</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D6" s="19">
-        <v>130208</v>
+        <v>35593</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19">
-        <v>11719</v>
+        <v>3203.4</v>
       </c>
       <c r="G6" s="19">
-        <v>11719</v>
-      </c>
-      <c r="H6" s="19">
-        <f>D6+E6+F6+G6</f>
-        <v>153646</v>
+        <v>3203.4</v>
+      </c>
+      <c r="H6" s="8">
+        <v>42000</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A7" s="18">
-        <v>45261</v>
-      </c>
-      <c r="B7" s="154" t="s">
-        <v>407</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="D7" s="19">
-        <v>35593</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19">
-        <v>3203.4</v>
-      </c>
-      <c r="G7" s="19">
-        <v>3203.4</v>
-      </c>
-      <c r="H7" s="8">
-        <v>42000</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="153" t="s">
+      <c r="J6" s="153" t="s">
         <v>409</v>
       </c>
     </row>
+    <row r="7" spans="1:10" ht="15.6">
+      <c r="A7" s="20">
+        <v>45293</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="D7" s="22">
+        <v>69690</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22">
+        <v>6272.1</v>
+      </c>
+      <c r="G7" s="22">
+        <v>6272.1</v>
+      </c>
+      <c r="H7" s="19">
+        <f>D7+E7+F7+G7</f>
+        <v>82234.200000000012</v>
+      </c>
+    </row>
     <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="20"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="20">
+        <v>45292</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="D8" s="22">
+        <v>184600</v>
+      </c>
       <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="20"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.6">
-      <c r="A11" s="24"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="24"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.6">
-      <c r="A13" s="24"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="176" t="s">
+      <c r="F8" s="22">
+        <v>19494</v>
+      </c>
+      <c r="G8" s="22">
+        <v>19494</v>
+      </c>
+      <c r="H8" s="19">
+        <f t="shared" ref="H8" si="0">D8+E8+F8+G8</f>
+        <v>223588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21">
+      <c r="A9" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="176"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="33">
-        <f>SUM(D5:D13)</f>
-        <v>2027921</v>
-      </c>
-      <c r="E14" s="33">
-        <f>SUM(E5:E13)</f>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="33">
+        <f>SUM(D5:D8)</f>
+        <v>2152003</v>
+      </c>
+      <c r="E9" s="33">
+        <f>SUM(E5:E8)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="33">
-        <f>SUM(F5:F13)</f>
-        <v>182873.19999999998</v>
-      </c>
-      <c r="G14" s="33">
-        <f>SUM(G5:G13)</f>
-        <v>182873.19999999998</v>
-      </c>
-      <c r="H14" s="33">
-        <f>SUM(H5:H13)</f>
-        <v>2397667.6</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="166" t="s">
+      <c r="F9" s="33">
+        <f>SUM(F5:F8)</f>
+        <v>196920.3</v>
+      </c>
+      <c r="G9" s="33">
+        <f>SUM(G5:G8)</f>
+        <v>196920.3</v>
+      </c>
+      <c r="H9" s="33">
+        <f>SUM(H5:H8)</f>
+        <v>2549843.8000000003</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="21">
+      <c r="A10" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="168"/>
-    </row>
-    <row r="16" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A16" s="34" t="s">
+      <c r="B10" s="166"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="167"/>
+    </row>
+    <row r="11" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A11" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B11" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D11" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J11" s="35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.2" customHeight="1">
-      <c r="A17" s="11">
+    <row r="12" spans="1:10" ht="16.2" customHeight="1">
+      <c r="A12" s="11">
         <v>45292</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C12" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="D12" s="12">
+        <v>271.2</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
+        <v>24.41</v>
+      </c>
+      <c r="G12" s="12">
+        <v>24.41</v>
+      </c>
+      <c r="H12" s="12">
+        <v>320</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="13.8" customHeight="1">
+      <c r="A13" s="11">
+        <v>45292</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="D13" s="12">
+        <v>5125</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12">
+        <v>461.25</v>
+      </c>
+      <c r="G13" s="12">
+        <v>461.25</v>
+      </c>
+      <c r="H13" s="12">
+        <v>6048</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A14" s="36">
+        <v>45295</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="C14" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="D17" s="12">
-        <v>271.2</v>
-      </c>
+      <c r="D14" s="37">
+        <v>10169.49</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37">
+        <v>915.25</v>
+      </c>
+      <c r="G14" s="37">
+        <v>915.25</v>
+      </c>
+      <c r="H14" s="12">
+        <v>12000</v>
+      </c>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="12">
+        <f t="shared" ref="H15:H23" si="1">D15+E15+F15+G15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="41"/>
+      <c r="J15" s="40"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.2" customHeight="1">
+      <c r="A16" s="28"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A17" s="28"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="12">
-        <v>24.41</v>
-      </c>
-      <c r="G17" s="12">
-        <v>24.41</v>
-      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="12">
-        <v>320</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="21" customHeight="1">
-      <c r="A18" s="11">
-        <v>45292</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="D18" s="12">
-        <v>5125</v>
-      </c>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="12">
-        <v>461.25</v>
-      </c>
-      <c r="G18" s="12">
-        <v>461.25</v>
-      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="12">
-        <v>6048</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A19" s="36">
-        <v>45295</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>485</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>486</v>
-      </c>
-      <c r="D19" s="37">
-        <v>10169.49</v>
-      </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37">
-        <v>915.25</v>
-      </c>
-      <c r="G19" s="37">
-        <v>915.25</v>
-      </c>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="12">
-        <v>12000</v>
-      </c>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="12">
-        <f t="shared" ref="H20:H28" si="0">D20+E20+F20+G20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="40"/>
-    </row>
-    <row r="21" spans="1:10" ht="16.2" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A22" s="28"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -12616,338 +12588,323 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="16.5" customHeight="1">
+    <row r="23" spans="1:10" ht="15.6">
       <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12">
-        <f t="shared" si="0"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="1:10" ht="21">
+      <c r="A24" s="178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="178"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="42">
+        <f>SUM(D12:D23)</f>
+        <v>15565.689999999999</v>
+      </c>
+      <c r="E24" s="42">
+        <f>SUM(E12:E23)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12">
-        <f t="shared" si="0"/>
+      <c r="F24" s="42">
+        <f>SUM(F12:F23)</f>
+        <v>1400.91</v>
+      </c>
+      <c r="G24" s="42">
+        <f>SUM(G12:G23)</f>
+        <v>1400.91</v>
+      </c>
+      <c r="H24" s="43">
+        <f>SUM(H12:H23)</f>
+        <v>18368</v>
+      </c>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+    </row>
+    <row r="26" spans="1:10" ht="21">
+      <c r="A26" s="168" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="169"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="169"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="169"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="170"/>
+    </row>
+    <row r="27" spans="1:10" ht="21">
+      <c r="A27" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="166"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="31.2">
+      <c r="A28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.6">
+      <c r="A29" s="24"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.6">
+      <c r="A30" s="24"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.6">
+      <c r="A31" s="24"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.6">
+      <c r="A32" s="24"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.6">
+      <c r="A33" s="24"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="21">
+      <c r="A34" s="175" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="175"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="33">
+        <f>SUM(D29:D33)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12">
-        <f t="shared" si="0"/>
+      <c r="E34" s="33">
+        <f>SUM(E29:E33)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12">
-        <f t="shared" si="0"/>
+      <c r="F34" s="33">
+        <f>SUM(F29:F33)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.6">
-      <c r="A28" s="11"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12">
-        <f t="shared" si="0"/>
+      <c r="G34" s="33">
+        <f>SUM(G29:G33)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="21"/>
-    </row>
-    <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="179" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="179"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="42">
-        <f>SUM(D17:D28)</f>
-        <v>15565.689999999999</v>
-      </c>
-      <c r="E29" s="42">
-        <f>SUM(E17:E28)</f>
+      <c r="H34" s="33">
+        <f>SUM(H29:H33)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="42">
-        <f>SUM(F17:F28)</f>
-        <v>1400.91</v>
-      </c>
-      <c r="G29" s="42">
-        <f>SUM(G17:G28)</f>
-        <v>1400.91</v>
-      </c>
-      <c r="H29" s="43">
-        <f>SUM(H17:H28)</f>
-        <v>18368</v>
-      </c>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-    </row>
-    <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="169" t="s">
-        <v>234</v>
-      </c>
-      <c r="B31" s="170"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="171"/>
-    </row>
-    <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="167"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="168"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" ht="31.2">
-      <c r="A33" s="3" t="s">
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="21">
+      <c r="A35" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="166"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="166"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="166"/>
+      <c r="G35" s="166"/>
+      <c r="H35" s="166"/>
+      <c r="I35" s="166"/>
+      <c r="J35" s="167"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B36" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="C36" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="E36" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G36" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H36" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="24"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="24"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.6">
-      <c r="A36" s="24"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="2"/>
+      <c r="I36" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="35" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="15.6">
       <c r="A37" s="24"/>
       <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="2"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="1:10" ht="15.6">
       <c r="A38" s="24"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="176" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="176"/>
-      <c r="C39" s="176"/>
-      <c r="D39" s="33">
-        <f>SUM(D34:D38)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="33">
-        <f>SUM(E34:E38)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="33">
-        <f>SUM(F34:F38)</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="33">
-        <f>SUM(G34:G38)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="33">
-        <f>SUM(H34:H38)</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="166" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="167"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
-      <c r="E40" s="167"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="168"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="35" t="s">
-        <v>15</v>
-      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" ht="19.8" customHeight="1">
+      <c r="A39" s="24"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="48"/>
+    </row>
+    <row r="40" spans="1:10" ht="18" customHeight="1">
+      <c r="A40" s="24"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="48"/>
+    </row>
+    <row r="41" spans="1:10" ht="18" customHeight="1">
+      <c r="A41" s="24"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="45"/>
     </row>
     <row r="42" spans="1:10" ht="15.6">
       <c r="A42" s="24"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
       <c r="H42" s="47"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="21"/>
+      <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" ht="15.6">
       <c r="A43" s="24"/>
@@ -12961,7 +12918,7 @@
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" ht="19.8" customHeight="1">
+    <row r="44" spans="1:10" ht="15.6">
       <c r="A44" s="24"/>
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
@@ -12973,32 +12930,32 @@
       <c r="I44" s="49"/>
       <c r="J44" s="48"/>
     </row>
-    <row r="45" spans="1:10" ht="18" customHeight="1">
-      <c r="A45" s="24"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="48"/>
-    </row>
-    <row r="46" spans="1:10" ht="18" customHeight="1">
-      <c r="A46" s="24"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
+    <row r="45" spans="1:10" ht="15.6">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.6">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="47"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="45"/>
+      <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" ht="15.6">
-      <c r="A47" s="24"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -13010,7 +12967,7 @@
       <c r="J47" s="12"/>
     </row>
     <row r="48" spans="1:10" ht="15.6">
-      <c r="A48" s="24"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -13022,16 +12979,16 @@
       <c r="J48" s="12"/>
     </row>
     <row r="49" spans="1:10" ht="15.6">
-      <c r="A49" s="24"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="48"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="45"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="11"/>
@@ -13059,32 +13016,32 @@
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="47"/>
       <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="1:10" ht="15.6">
       <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="47"/>
       <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="1:10" ht="15.6">
       <c r="A54" s="11"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
@@ -13119,19 +13076,19 @@
     </row>
     <row r="57" spans="1:10" ht="15.6">
       <c r="A57" s="11"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="47"/>
       <c r="I57" s="12"/>
-      <c r="J57" s="21"/>
+      <c r="J57" s="12"/>
     </row>
     <row r="58" spans="1:10" ht="15.6">
       <c r="A58" s="11"/>
-      <c r="B58" s="21"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="21"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -13142,296 +13099,296 @@
       <c r="J58" s="21"/>
     </row>
     <row r="59" spans="1:10" ht="15.6">
-      <c r="A59" s="11"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
       <c r="H59" s="47"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="45"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.6">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.6">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.6">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.6">
-      <c r="A63" s="11"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="21"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.6">
-      <c r="A64" s="28"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="29"/>
-    </row>
-    <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="177" t="s">
+      <c r="I59" s="31"/>
+      <c r="J59" s="29"/>
+    </row>
+    <row r="60" spans="1:10" ht="21">
+      <c r="A60" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="177"/>
-      <c r="C65" s="177"/>
-      <c r="D65" s="51">
-        <f>SUM(D42:D64)</f>
+      <c r="B60" s="176"/>
+      <c r="C60" s="176"/>
+      <c r="D60" s="51">
+        <f>SUM(D37:D59)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="51">
-        <f>SUM(E42:E64)</f>
+      <c r="E60" s="51">
+        <f>SUM(E37:E59)</f>
         <v>0</v>
       </c>
-      <c r="F65" s="51">
-        <f>SUM(F42:F64)</f>
+      <c r="F60" s="51">
+        <f>SUM(F37:F59)</f>
         <v>0</v>
       </c>
-      <c r="G65" s="51">
-        <f>SUM(G42:G64)</f>
+      <c r="G60" s="51">
+        <f>SUM(G37:G59)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="52">
-        <f>SUM(H42:H64)</f>
+      <c r="H60" s="52">
+        <f>SUM(H37:H59)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="51"/>
-      <c r="J65" s="51"/>
-    </row>
-    <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="169" t="s">
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+    </row>
+    <row r="62" spans="1:10" ht="21">
+      <c r="A62" s="168" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="170"/>
-      <c r="C67" s="170"/>
-      <c r="D67" s="170"/>
-      <c r="E67" s="170"/>
-      <c r="F67" s="170"/>
-      <c r="G67" s="170"/>
-      <c r="H67" s="170"/>
-      <c r="I67" s="170"/>
-      <c r="J67" s="171"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
+      <c r="E62" s="169"/>
+      <c r="F62" s="169"/>
+      <c r="G62" s="169"/>
+      <c r="H62" s="169"/>
+      <c r="I62" s="169"/>
+      <c r="J62" s="170"/>
+    </row>
+    <row r="63" spans="1:10" ht="21">
+      <c r="A63" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="166"/>
+      <c r="C63" s="166"/>
+      <c r="D63" s="166"/>
+      <c r="E63" s="166"/>
+      <c r="F63" s="166"/>
+      <c r="G63" s="166"/>
+      <c r="H63" s="167"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" ht="31.2">
+      <c r="A64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" ht="15.6">
+      <c r="A65" s="20"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" ht="15.6">
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.6">
+      <c r="A67" s="20"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
-      <c r="E68" s="167"/>
-      <c r="F68" s="167"/>
-      <c r="G68" s="167"/>
-      <c r="H68" s="168"/>
+      <c r="A68" s="175" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="175"/>
+      <c r="C68" s="175"/>
+      <c r="D68" s="33">
+        <f>SUM(D65:D67)</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="33">
+        <f>SUM(E65:E67)</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="33">
+        <f>SUM(F65:F67)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="33">
+        <f>SUM(G65:G67)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="33">
+        <f>SUM(H65:H67)</f>
+        <v>0</v>
+      </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" ht="31.2">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:10" ht="21">
+      <c r="A69" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="166"/>
+      <c r="C69" s="166"/>
+      <c r="D69" s="166"/>
+      <c r="E69" s="166"/>
+      <c r="F69" s="166"/>
+      <c r="G69" s="166"/>
+      <c r="H69" s="166"/>
+      <c r="I69" s="166"/>
+      <c r="J69" s="167"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B70" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="3" t="s">
+      <c r="C70" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="3" t="s">
+      <c r="E70" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G70" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H70" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.6">
-      <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
+      <c r="I70" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" s="54" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="71" spans="1:10" ht="15.6">
-      <c r="A71" s="20"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
+      <c r="A71" s="55"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
     </row>
     <row r="72" spans="1:10" ht="15.6">
-      <c r="A72" s="20"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="176" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="176"/>
-      <c r="C73" s="176"/>
-      <c r="D73" s="33">
-        <f>SUM(D70:D72)</f>
-        <v>0</v>
-      </c>
-      <c r="E73" s="33">
-        <f>SUM(E70:E72)</f>
-        <v>0</v>
-      </c>
-      <c r="F73" s="33">
-        <f>SUM(F70:F72)</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="33">
-        <f>SUM(G70:G72)</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="33">
-        <f>SUM(H70:H72)</f>
-        <v>0</v>
-      </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-    </row>
-    <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="166" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="167"/>
-      <c r="C74" s="167"/>
-      <c r="D74" s="167"/>
-      <c r="E74" s="167"/>
-      <c r="F74" s="167"/>
-      <c r="G74" s="167"/>
-      <c r="H74" s="167"/>
-      <c r="I74" s="167"/>
-      <c r="J74" s="168"/>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="G75" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H75" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="I75" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="J75" s="54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="15.6">
-      <c r="A76" s="55"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="56"/>
-    </row>
-    <row r="77" spans="1:10" ht="15.6">
-      <c r="A77" s="55"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="56"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="56"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="56"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="56"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.6">
+      <c r="A73" s="57"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="58"/>
+      <c r="J73" s="58"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.6">
+      <c r="A74" s="57"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="58"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="58"/>
+      <c r="J74" s="58"/>
+    </row>
+    <row r="75" spans="1:10" ht="15.6">
+      <c r="A75" s="57"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="58"/>
+      <c r="J75" s="58"/>
+    </row>
+    <row r="76" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A76" s="11"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="21"/>
+    </row>
+    <row r="77" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A77" s="11"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="59"/>
     </row>
     <row r="78" spans="1:10" ht="15.6">
       <c r="A78" s="57"/>
@@ -13441,7 +13398,7 @@
       <c r="E78" s="58"/>
       <c r="F78" s="58"/>
       <c r="G78" s="58"/>
-      <c r="H78" s="56"/>
+      <c r="H78" s="58"/>
       <c r="I78" s="58"/>
       <c r="J78" s="58"/>
     </row>
@@ -13469,208 +13426,148 @@
       <c r="I80" s="58"/>
       <c r="J80" s="58"/>
     </row>
-    <row r="81" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A81" s="11"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="21"/>
-    </row>
-    <row r="82" spans="1:10" ht="16.2" thickBot="1">
+    <row r="81" spans="1:10" ht="15.6">
+      <c r="A81" s="57"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="58"/>
+      <c r="I81" s="58"/>
+      <c r="J81" s="58"/>
+    </row>
+    <row r="82" spans="1:10" ht="15.6">
       <c r="A82" s="11"/>
-      <c r="B82" s="45"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
       <c r="H82" s="12"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="59"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="1:10" ht="15.6">
-      <c r="A83" s="57"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="58"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="30"/>
     </row>
     <row r="84" spans="1:10" ht="15.6">
-      <c r="A84" s="57"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58"/>
+      <c r="A84" s="60"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="61"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="61"/>
     </row>
     <row r="85" spans="1:10" ht="15.6">
-      <c r="A85" s="57"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="58"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="58"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="62"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
       <c r="H85" s="58"/>
-      <c r="I85" s="58"/>
-      <c r="J85" s="58"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="63"/>
     </row>
     <row r="86" spans="1:10" ht="15.6">
-      <c r="A86" s="57"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58"/>
-      <c r="F86" s="58"/>
-      <c r="G86" s="58"/>
-      <c r="H86" s="58"/>
-      <c r="I86" s="58"/>
-      <c r="J86" s="58"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="1:10" ht="15.6">
-      <c r="A87" s="11"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="21"/>
-    </row>
-    <row r="88" spans="1:10" ht="15.6">
-      <c r="A88" s="28"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="30"/>
-    </row>
-    <row r="89" spans="1:10" ht="15.6">
-      <c r="A89" s="60"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="61"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="61"/>
-      <c r="J89" s="61"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.6">
-      <c r="A90" s="36"/>
-      <c r="B90" s="62"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="58"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="63"/>
-    </row>
-    <row r="91" spans="1:10" ht="15.6">
-      <c r="A91" s="11"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="21"/>
-    </row>
-    <row r="92" spans="1:10" ht="15.6">
-      <c r="A92" s="36"/>
-      <c r="B92" s="62"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="62"/>
-    </row>
-    <row r="93" spans="1:10" ht="15">
-      <c r="A93" s="64"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="67"/>
-      <c r="I93" s="67"/>
-      <c r="J93" s="66"/>
-    </row>
-    <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="178" t="s">
+      <c r="A87" s="36"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="62"/>
+    </row>
+    <row r="88" spans="1:10" ht="15">
+      <c r="A88" s="64"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="67"/>
+      <c r="J88" s="66"/>
+    </row>
+    <row r="89" spans="1:10" ht="21">
+      <c r="A89" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="178"/>
-      <c r="C94" s="178"/>
-      <c r="D94" s="68">
-        <f>SUM(D76:D93)</f>
+      <c r="B89" s="177"/>
+      <c r="C89" s="177"/>
+      <c r="D89" s="68">
+        <f>SUM(D71:D88)</f>
         <v>0</v>
       </c>
-      <c r="E94" s="68">
-        <f>SUM(E76:E93)</f>
+      <c r="E89" s="68">
+        <f>SUM(E71:E88)</f>
         <v>0</v>
       </c>
-      <c r="F94" s="68">
-        <f>SUM(F76:F93)</f>
+      <c r="F89" s="68">
+        <f>SUM(F71:F88)</f>
         <v>0</v>
       </c>
-      <c r="G94" s="68">
-        <f>SUM(G76:G93)</f>
+      <c r="G89" s="68">
+        <f>SUM(G71:G88)</f>
         <v>0</v>
       </c>
-      <c r="H94" s="68">
-        <f>SUM(H76:H93)</f>
+      <c r="H89" s="68">
+        <f>SUM(H71:H88)</f>
         <v>0</v>
       </c>
-      <c r="I94" s="68"/>
-      <c r="J94" s="68"/>
+      <c r="I89" s="68"/>
+      <c r="J89" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A26:J26"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Apr-23 to Jun-23" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Apr-23 to Jun-23'!$B$2:$B$290</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Jul-23 to Sept-23'!$B$2:$B$114</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Oct-23 to Dec-23'!$B$2:$B$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Oct-23 to Dec-23'!$B$2:$B$119</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="491">
   <si>
     <t>APRIL</t>
   </si>
@@ -1494,6 +1494,12 @@
   </si>
   <si>
     <t>b23-24MQ402</t>
+  </si>
+  <si>
+    <t>PNJ/23-243165</t>
+  </si>
+  <si>
+    <t>GST/2023-24/1638</t>
   </si>
 </sst>
 </file>
@@ -2616,7 +2622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
@@ -9169,10 +9175,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K114"/>
+  <dimension ref="A2:K116"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9182,7 +9188,7 @@
     <col min="3" max="3" width="22.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" style="1" customWidth="1"/>
@@ -11746,53 +11752,55 @@
         <v>45269</v>
       </c>
       <c r="B100" s="125" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C100" s="125" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D100" s="123">
-        <v>24.58</v>
-      </c>
-      <c r="E100" s="123">
-        <v>4.42</v>
-      </c>
-      <c r="F100" s="123"/>
-      <c r="G100" s="123"/>
+        <v>142.16999999999999</v>
+      </c>
+      <c r="E100" s="123"/>
+      <c r="F100" s="155">
+        <v>12.8</v>
+      </c>
+      <c r="G100" s="123">
+        <v>12.8</v>
+      </c>
       <c r="H100" s="123">
-        <f>D100+E100+F100+G100</f>
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="I100" s="123"/>
-      <c r="J100" s="125" t="s">
-        <v>463</v>
+      <c r="J100" s="128" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A101" s="127">
-        <v>45269</v>
-      </c>
-      <c r="B101" s="125" t="s">
-        <v>462</v>
-      </c>
-      <c r="C101" s="125" t="s">
-        <v>465</v>
+        <v>45271</v>
+      </c>
+      <c r="B101" s="123" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" s="123" t="s">
+        <v>453</v>
       </c>
       <c r="D101" s="123">
-        <v>8050</v>
-      </c>
-      <c r="E101" s="123">
-        <v>1449</v>
-      </c>
-      <c r="F101" s="123"/>
-      <c r="G101" s="123"/>
+        <v>3974.58</v>
+      </c>
+      <c r="E101" s="123"/>
+      <c r="F101" s="123">
+        <v>357.71</v>
+      </c>
+      <c r="G101" s="123">
+        <v>357.71</v>
+      </c>
       <c r="H101" s="123">
-        <f>D101+E101+F101+G101</f>
-        <v>9499</v>
+        <v>4690</v>
       </c>
       <c r="I101" s="123"/>
-      <c r="J101" s="125" t="s">
-        <v>463</v>
+      <c r="J101" s="123" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1" ht="15">
@@ -11800,55 +11808,53 @@
         <v>45269</v>
       </c>
       <c r="B102" s="125" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C102" s="125" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D102" s="123">
-        <v>142.16999999999999</v>
-      </c>
-      <c r="E102" s="123"/>
-      <c r="F102" s="155">
-        <v>12.8</v>
-      </c>
-      <c r="G102" s="123">
-        <v>12.8</v>
-      </c>
+        <v>24.58</v>
+      </c>
+      <c r="E102" s="123">
+        <v>4.42</v>
+      </c>
+      <c r="F102" s="123"/>
+      <c r="G102" s="123"/>
       <c r="H102" s="123">
-        <v>168</v>
+        <f>D102+E102+F102+G102</f>
+        <v>29</v>
       </c>
       <c r="I102" s="123"/>
-      <c r="J102" s="128" t="s">
-        <v>34</v>
+      <c r="J102" s="125" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A103" s="127">
-        <v>45271</v>
-      </c>
-      <c r="B103" s="123" t="s">
-        <v>125</v>
-      </c>
-      <c r="C103" s="123" t="s">
-        <v>453</v>
+        <v>45269</v>
+      </c>
+      <c r="B103" s="125" t="s">
+        <v>462</v>
+      </c>
+      <c r="C103" s="125" t="s">
+        <v>465</v>
       </c>
       <c r="D103" s="123">
-        <v>3974.58</v>
-      </c>
-      <c r="E103" s="123"/>
-      <c r="F103" s="123">
-        <v>357.71</v>
-      </c>
-      <c r="G103" s="123">
-        <v>357.71</v>
-      </c>
+        <v>8050</v>
+      </c>
+      <c r="E103" s="123">
+        <v>1449</v>
+      </c>
+      <c r="F103" s="123"/>
+      <c r="G103" s="123"/>
       <c r="H103" s="123">
-        <v>4690</v>
+        <f>D103+E103+F103+G103</f>
+        <v>9499</v>
       </c>
       <c r="I103" s="123"/>
-      <c r="J103" s="123" t="s">
-        <v>127</v>
+      <c r="J103" s="125" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="6" customFormat="1" ht="15">
@@ -12016,30 +12022,31 @@
     </row>
     <row r="110" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A110" s="156">
-        <v>45287</v>
+        <v>45286</v>
       </c>
       <c r="B110" s="157" t="s">
-        <v>35</v>
+        <v>474</v>
       </c>
       <c r="C110" s="158" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="D110" s="159">
-        <v>796</v>
+        <v>3600</v>
       </c>
       <c r="E110" s="159"/>
       <c r="F110" s="159">
-        <v>71.7</v>
+        <v>324</v>
       </c>
       <c r="G110" s="159">
-        <v>71.7</v>
+        <v>324</v>
       </c>
       <c r="H110" s="123">
-        <v>940</v>
+        <f>D110+E110+F110+G110</f>
+        <v>4248</v>
       </c>
       <c r="I110" s="159"/>
       <c r="J110" s="157" t="s">
-        <v>37</v>
+        <v>476</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="6" customFormat="1" ht="15">
@@ -12047,73 +12054,130 @@
         <v>45287</v>
       </c>
       <c r="B111" s="157" t="s">
-        <v>474</v>
+        <v>35</v>
       </c>
       <c r="C111" s="158" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D111" s="159">
-        <v>19800</v>
+        <v>796</v>
       </c>
       <c r="E111" s="159"/>
       <c r="F111" s="159">
-        <v>1782</v>
+        <v>71.7</v>
       </c>
       <c r="G111" s="159">
-        <v>1782</v>
+        <v>71.7</v>
       </c>
       <c r="H111" s="123">
-        <f t="shared" ref="H111" si="2">D111+E111+F111+G111</f>
-        <v>23364</v>
+        <v>940</v>
       </c>
       <c r="I111" s="159"/>
       <c r="J111" s="157" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A112" s="156">
+        <v>45287</v>
+      </c>
+      <c r="B112" s="157" t="s">
+        <v>474</v>
+      </c>
+      <c r="C112" s="158" t="s">
+        <v>475</v>
+      </c>
+      <c r="D112" s="159">
+        <v>19800</v>
+      </c>
+      <c r="E112" s="159"/>
+      <c r="F112" s="159">
+        <v>1782</v>
+      </c>
+      <c r="G112" s="159">
+        <v>1782</v>
+      </c>
+      <c r="H112" s="123">
+        <f t="shared" ref="H112:H113" si="2">D112+E112+F112+G112</f>
+        <v>23364</v>
+      </c>
+      <c r="I112" s="159"/>
+      <c r="J112" s="157" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A112" s="180" t="s">
+    <row r="113" spans="1:10" s="6" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A113" s="127">
+        <v>45290</v>
+      </c>
+      <c r="B113" s="125" t="s">
+        <v>382</v>
+      </c>
+      <c r="C113" s="125" t="s">
+        <v>490</v>
+      </c>
+      <c r="D113" s="123">
+        <v>110100</v>
+      </c>
+      <c r="E113" s="123"/>
+      <c r="F113" s="123">
+        <v>11729</v>
+      </c>
+      <c r="G113" s="123">
+        <v>11729</v>
+      </c>
+      <c r="H113" s="123">
+        <f t="shared" si="2"/>
+        <v>133558</v>
+      </c>
+      <c r="I113" s="123"/>
+      <c r="J113" s="125" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A114" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="B112" s="180"/>
-      <c r="C112" s="180"/>
-      <c r="D112" s="160">
-        <f>SUM(D93:D111)</f>
-        <v>247059</v>
-      </c>
-      <c r="E112" s="160">
-        <f>SUM(E93:E111)</f>
+      <c r="B114" s="180"/>
+      <c r="C114" s="180"/>
+      <c r="D114" s="160">
+        <f>SUM(D93:D113)</f>
+        <v>360759</v>
+      </c>
+      <c r="E114" s="160">
+        <f>SUM(E93:E113)</f>
         <v>37470.089999999997</v>
       </c>
-      <c r="F112" s="160">
-        <f>SUM(F93:F111)</f>
-        <v>3499.98</v>
-      </c>
-      <c r="G112" s="160">
-        <f>SUM(G92:G111)</f>
-        <v>3499.98</v>
-      </c>
-      <c r="H112" s="160">
-        <f>SUM(H93:H111)</f>
-        <v>291531</v>
-      </c>
-      <c r="I112" s="160"/>
-      <c r="J112" s="160"/>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="181"/>
-      <c r="B114" s="181"/>
-      <c r="C114" s="181"/>
-      <c r="D114" s="181"/>
-      <c r="E114" s="181"/>
+      <c r="F114" s="160">
+        <f>SUM(F93:F113)</f>
+        <v>15552.98</v>
+      </c>
+      <c r="G114" s="160">
+        <f>SUM(G93:G113)</f>
+        <v>15552.98</v>
+      </c>
+      <c r="H114" s="160">
+        <f>SUM(H93:H113)</f>
+        <v>429337</v>
+      </c>
+      <c r="I114" s="160"/>
+      <c r="J114" s="160"/>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="181"/>
+      <c r="B116" s="181"/>
+      <c r="C116" s="181"/>
+      <c r="D116" s="181"/>
+      <c r="E116" s="181"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:B117"/>
+  <autoFilter ref="B2:B119"/>
   <mergeCells count="16">
     <mergeCell ref="A90:C90"/>
     <mergeCell ref="A91:J91"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A116:E116"/>
     <mergeCell ref="A84:H84"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -2323,22 +2323,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6958,11 +6958,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="176" t="s">
+      <c r="A32" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="176"/>
-      <c r="C32" s="176"/>
+      <c r="B32" s="178"/>
+      <c r="C32" s="178"/>
       <c r="D32" s="51">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -8142,11 +8142,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="178" t="s">
+      <c r="A77" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="178"/>
-      <c r="C77" s="178"/>
+      <c r="B77" s="177"/>
+      <c r="C77" s="177"/>
       <c r="D77" s="42">
         <f>SUM(D44:D76)</f>
         <v>385770.4</v>
@@ -9121,11 +9121,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="177" t="s">
+      <c r="A114" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="177"/>
-      <c r="C114" s="177"/>
+      <c r="B114" s="176"/>
+      <c r="C114" s="176"/>
       <c r="D114" s="68">
         <f>SUM(D88:D113)</f>
         <v>438291.73</v>
@@ -9152,6 +9152,12 @@
   </sheetData>
   <autoFilter ref="B2:B114"/>
   <mergeCells count="15">
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A86:J86"/>
     <mergeCell ref="A114:C114"/>
@@ -9161,12 +9167,6 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A80:H80"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9177,8 +9177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9914,11 +9914,11 @@
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="179"/>
-      <c r="C29" s="179"/>
+      <c r="B29" s="181"/>
+      <c r="C29" s="181"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -12136,11 +12136,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A114" s="180" t="s">
+      <c r="A114" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="180"/>
-      <c r="C114" s="180"/>
+      <c r="B114" s="179"/>
+      <c r="C114" s="179"/>
       <c r="D114" s="160">
         <f>SUM(D93:D113)</f>
         <v>360759</v>
@@ -12165,31 +12165,31 @@
       <c r="J114" s="160"/>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="181"/>
-      <c r="B116" s="181"/>
-      <c r="C116" s="181"/>
-      <c r="D116" s="181"/>
-      <c r="E116" s="181"/>
+      <c r="A116" s="180"/>
+      <c r="B116" s="180"/>
+      <c r="C116" s="180"/>
+      <c r="D116" s="180"/>
+      <c r="E116" s="180"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:B119"/>
   <mergeCells count="16">
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A84:H84"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A83:J83"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A84:H84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12674,11 +12674,11 @@
       <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="178" t="s">
+      <c r="A24" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="178"/>
-      <c r="C24" s="178"/>
+      <c r="B24" s="177"/>
+      <c r="C24" s="177"/>
       <c r="D24" s="42">
         <f>SUM(D12:D23)</f>
         <v>15565.689999999999</v>
@@ -13175,11 +13175,11 @@
       <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="176" t="s">
+      <c r="A60" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="176"/>
-      <c r="C60" s="176"/>
+      <c r="B60" s="178"/>
+      <c r="C60" s="178"/>
       <c r="D60" s="51">
         <f>SUM(D37:D59)</f>
         <v>0</v>
@@ -13587,11 +13587,11 @@
       <c r="J88" s="66"/>
     </row>
     <row r="89" spans="1:10" ht="21">
-      <c r="A89" s="177" t="s">
+      <c r="A89" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="177"/>
-      <c r="C89" s="177"/>
+      <c r="B89" s="176"/>
+      <c r="C89" s="176"/>
       <c r="D89" s="68">
         <f>SUM(D71:D88)</f>
         <v>0</v>
@@ -13617,6 +13617,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="A69:J69"/>
     <mergeCell ref="A89:C89"/>
@@ -13626,12 +13632,6 @@
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A62:J62"/>
     <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -2323,22 +2323,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6958,11 +6958,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="178" t="s">
+      <c r="A32" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="178"/>
-      <c r="C32" s="178"/>
+      <c r="B32" s="176"/>
+      <c r="C32" s="176"/>
       <c r="D32" s="51">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -8142,11 +8142,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="177" t="s">
+      <c r="A77" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="177"/>
-      <c r="C77" s="177"/>
+      <c r="B77" s="178"/>
+      <c r="C77" s="178"/>
       <c r="D77" s="42">
         <f>SUM(D44:D76)</f>
         <v>385770.4</v>
@@ -9121,11 +9121,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="176" t="s">
+      <c r="A114" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="176"/>
-      <c r="C114" s="176"/>
+      <c r="B114" s="177"/>
+      <c r="C114" s="177"/>
       <c r="D114" s="68">
         <f>SUM(D88:D113)</f>
         <v>438291.73</v>
@@ -9152,12 +9152,6 @@
   </sheetData>
   <autoFilter ref="B2:B114"/>
   <mergeCells count="15">
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A86:J86"/>
     <mergeCell ref="A114:C114"/>
@@ -9167,6 +9161,12 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A80:H80"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9178,7 +9178,7 @@
   <dimension ref="A2:K116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:J114"/>
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9914,11 +9914,11 @@
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="181" t="s">
+      <c r="A29" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="181"/>
-      <c r="C29" s="181"/>
+      <c r="B29" s="179"/>
+      <c r="C29" s="179"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -12136,11 +12136,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A114" s="179" t="s">
+      <c r="A114" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="179"/>
-      <c r="C114" s="179"/>
+      <c r="B114" s="180"/>
+      <c r="C114" s="180"/>
       <c r="D114" s="160">
         <f>SUM(D93:D113)</f>
         <v>360759</v>
@@ -12165,31 +12165,31 @@
       <c r="J114" s="160"/>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="180"/>
-      <c r="B116" s="180"/>
-      <c r="C116" s="180"/>
-      <c r="D116" s="180"/>
-      <c r="E116" s="180"/>
+      <c r="A116" s="181"/>
+      <c r="B116" s="181"/>
+      <c r="C116" s="181"/>
+      <c r="D116" s="181"/>
+      <c r="E116" s="181"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:B119"/>
   <mergeCells count="16">
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A84:H84"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A83:J83"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A84:H84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12674,11 +12674,11 @@
       <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="177" t="s">
+      <c r="A24" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="177"/>
-      <c r="C24" s="177"/>
+      <c r="B24" s="178"/>
+      <c r="C24" s="178"/>
       <c r="D24" s="42">
         <f>SUM(D12:D23)</f>
         <v>15565.689999999999</v>
@@ -13175,11 +13175,11 @@
       <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="178" t="s">
+      <c r="A60" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="178"/>
-      <c r="C60" s="178"/>
+      <c r="B60" s="176"/>
+      <c r="C60" s="176"/>
       <c r="D60" s="51">
         <f>SUM(D37:D59)</f>
         <v>0</v>
@@ -13587,11 +13587,11 @@
       <c r="J88" s="66"/>
     </row>
     <row r="89" spans="1:10" ht="21">
-      <c r="A89" s="176" t="s">
+      <c r="A89" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="176"/>
-      <c r="C89" s="176"/>
+      <c r="B89" s="177"/>
+      <c r="C89" s="177"/>
       <c r="D89" s="68">
         <f>SUM(D71:D88)</f>
         <v>0</v>
@@ -13617,12 +13617,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="A69:J69"/>
     <mergeCell ref="A89:C89"/>
@@ -13632,6 +13626,12 @@
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A62:J62"/>
     <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Apr-23 to Jun-23" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="497">
   <si>
     <t>APRIL</t>
   </si>
@@ -1500,6 +1500,24 @@
   </si>
   <si>
     <t>GST/2023-24/1638</t>
+  </si>
+  <si>
+    <t>I-C-1-24-454287</t>
+  </si>
+  <si>
+    <t>I-C-1-24-454286</t>
+  </si>
+  <si>
+    <t>88/23-24</t>
+  </si>
+  <si>
+    <t>2023-24/1238</t>
+  </si>
+  <si>
+    <t>27AAEO1482E1ZE</t>
+  </si>
+  <si>
+    <t>89/23-24</t>
   </si>
 </sst>
 </file>
@@ -1795,7 +1813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2277,6 +2295,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2323,22 +2344,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2642,30 +2663,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="171"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="167"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="168"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -2885,11 +2906,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="171"/>
-      <c r="C12" s="171"/>
+      <c r="B12" s="172"/>
+      <c r="C12" s="172"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -2914,18 +2935,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="166"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="167"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="168"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -3712,11 +3733,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="161" t="s">
+      <c r="A42" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="162"/>
-      <c r="C42" s="163"/>
+      <c r="B42" s="163"/>
+      <c r="C42" s="164"/>
       <c r="D42" s="26">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -3741,30 +3762,30 @@
       <c r="J42" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="168" t="s">
+      <c r="A44" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
-      <c r="E44" s="169"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="169"/>
-      <c r="H44" s="169"/>
-      <c r="I44" s="169"/>
-      <c r="J44" s="170"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="170"/>
+      <c r="E44" s="170"/>
+      <c r="F44" s="170"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="170"/>
+      <c r="J44" s="171"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="165" t="s">
+      <c r="A45" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="166"/>
-      <c r="C45" s="166"/>
-      <c r="D45" s="166"/>
-      <c r="E45" s="166"/>
-      <c r="F45" s="166"/>
-      <c r="G45" s="166"/>
-      <c r="H45" s="167"/>
+      <c r="B45" s="167"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="167"/>
+      <c r="E45" s="167"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167"/>
+      <c r="H45" s="168"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -4040,11 +4061,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="164" t="s">
+      <c r="A56" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="164"/>
-      <c r="C56" s="164"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
       <c r="D56" s="27">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -4069,18 +4090,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="165" t="s">
+      <c r="A57" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="166"/>
-      <c r="C57" s="166"/>
-      <c r="D57" s="166"/>
-      <c r="E57" s="166"/>
-      <c r="F57" s="166"/>
-      <c r="G57" s="166"/>
-      <c r="H57" s="166"/>
-      <c r="I57" s="166"/>
-      <c r="J57" s="167"/>
+      <c r="B57" s="167"/>
+      <c r="C57" s="167"/>
+      <c r="D57" s="167"/>
+      <c r="E57" s="167"/>
+      <c r="F57" s="167"/>
+      <c r="G57" s="167"/>
+      <c r="H57" s="167"/>
+      <c r="I57" s="167"/>
+      <c r="J57" s="168"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -4918,11 +4939,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="173"/>
-      <c r="C88" s="174"/>
+      <c r="B88" s="174"/>
+      <c r="C88" s="175"/>
       <c r="D88" s="27">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -4947,30 +4968,30 @@
       <c r="J88" s="27"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="168" t="s">
+      <c r="A90" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="169"/>
-      <c r="C90" s="169"/>
-      <c r="D90" s="169"/>
-      <c r="E90" s="169"/>
-      <c r="F90" s="169"/>
-      <c r="G90" s="169"/>
-      <c r="H90" s="169"/>
-      <c r="I90" s="169"/>
-      <c r="J90" s="170"/>
+      <c r="B90" s="170"/>
+      <c r="C90" s="170"/>
+      <c r="D90" s="170"/>
+      <c r="E90" s="170"/>
+      <c r="F90" s="170"/>
+      <c r="G90" s="170"/>
+      <c r="H90" s="170"/>
+      <c r="I90" s="170"/>
+      <c r="J90" s="171"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="165" t="s">
+      <c r="A91" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="166"/>
-      <c r="C91" s="166"/>
-      <c r="D91" s="166"/>
-      <c r="E91" s="166"/>
-      <c r="F91" s="166"/>
-      <c r="G91" s="166"/>
-      <c r="H91" s="167"/>
+      <c r="B91" s="167"/>
+      <c r="C91" s="167"/>
+      <c r="D91" s="167"/>
+      <c r="E91" s="167"/>
+      <c r="F91" s="167"/>
+      <c r="G91" s="167"/>
+      <c r="H91" s="168"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -5192,11 +5213,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="164" t="s">
+      <c r="A100" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="164"/>
-      <c r="C100" s="164"/>
+      <c r="B100" s="165"/>
+      <c r="C100" s="165"/>
       <c r="D100" s="27">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -5221,18 +5242,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="165" t="s">
+      <c r="A101" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="166"/>
-      <c r="C101" s="166"/>
-      <c r="D101" s="166"/>
-      <c r="E101" s="166"/>
-      <c r="F101" s="166"/>
-      <c r="G101" s="166"/>
-      <c r="H101" s="166"/>
-      <c r="I101" s="166"/>
-      <c r="J101" s="167"/>
+      <c r="B101" s="167"/>
+      <c r="C101" s="167"/>
+      <c r="D101" s="167"/>
+      <c r="E101" s="167"/>
+      <c r="F101" s="167"/>
+      <c r="G101" s="167"/>
+      <c r="H101" s="167"/>
+      <c r="I101" s="167"/>
+      <c r="J101" s="168"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -5887,11 +5908,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="161" t="s">
+      <c r="A125" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="162"/>
-      <c r="C125" s="163"/>
+      <c r="B125" s="163"/>
+      <c r="C125" s="164"/>
       <c r="D125" s="26">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -6150,30 +6171,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="171"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="167"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="168"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6260,11 +6281,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="175" t="s">
+      <c r="A7" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
       <c r="D7" s="33">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -6289,18 +6310,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="167"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="168"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -6958,11 +6979,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="176" t="s">
+      <c r="A32" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="176"/>
-      <c r="C32" s="176"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="179"/>
       <c r="D32" s="51">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -6992,30 +7013,30 @@
       <c r="C33" s="44"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="168" t="s">
+      <c r="A34" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="169"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="169"/>
-      <c r="H34" s="169"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="170"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="171"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="165" t="s">
+      <c r="A35" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="166"/>
-      <c r="C35" s="166"/>
-      <c r="D35" s="166"/>
-      <c r="E35" s="166"/>
-      <c r="F35" s="166"/>
-      <c r="G35" s="166"/>
-      <c r="H35" s="167"/>
+      <c r="B35" s="167"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
+      <c r="H35" s="168"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
@@ -7156,11 +7177,11 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="175" t="s">
+      <c r="A41" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="175"/>
-      <c r="C41" s="175"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="176"/>
       <c r="D41" s="33">
         <f>SUM(D37:D40)</f>
         <v>613000</v>
@@ -7185,18 +7206,18 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="165" t="s">
+      <c r="A42" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="166"/>
-      <c r="C42" s="166"/>
-      <c r="D42" s="166"/>
-      <c r="E42" s="166"/>
-      <c r="F42" s="166"/>
-      <c r="G42" s="166"/>
-      <c r="H42" s="166"/>
-      <c r="I42" s="166"/>
-      <c r="J42" s="167"/>
+      <c r="B42" s="167"/>
+      <c r="C42" s="167"/>
+      <c r="D42" s="167"/>
+      <c r="E42" s="167"/>
+      <c r="F42" s="167"/>
+      <c r="G42" s="167"/>
+      <c r="H42" s="167"/>
+      <c r="I42" s="167"/>
+      <c r="J42" s="168"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
@@ -8189,30 +8210,30 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="168" t="s">
+      <c r="A79" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="169"/>
-      <c r="C79" s="169"/>
-      <c r="D79" s="169"/>
-      <c r="E79" s="169"/>
-      <c r="F79" s="169"/>
-      <c r="G79" s="169"/>
-      <c r="H79" s="169"/>
-      <c r="I79" s="169"/>
-      <c r="J79" s="170"/>
+      <c r="B79" s="170"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
+      <c r="E79" s="170"/>
+      <c r="F79" s="170"/>
+      <c r="G79" s="170"/>
+      <c r="H79" s="170"/>
+      <c r="I79" s="170"/>
+      <c r="J79" s="171"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="165" t="s">
+      <c r="A80" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="166"/>
-      <c r="C80" s="166"/>
-      <c r="D80" s="166"/>
-      <c r="E80" s="166"/>
-      <c r="F80" s="166"/>
-      <c r="G80" s="166"/>
-      <c r="H80" s="167"/>
+      <c r="B80" s="167"/>
+      <c r="C80" s="167"/>
+      <c r="D80" s="167"/>
+      <c r="E80" s="167"/>
+      <c r="F80" s="167"/>
+      <c r="G80" s="167"/>
+      <c r="H80" s="168"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
@@ -8326,11 +8347,11 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="175" t="s">
+      <c r="A85" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="175"/>
-      <c r="C85" s="175"/>
+      <c r="B85" s="176"/>
+      <c r="C85" s="176"/>
       <c r="D85" s="33">
         <f>SUM(D82:D84)</f>
         <v>204284</v>
@@ -8355,18 +8376,18 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="165" t="s">
+      <c r="A86" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="166"/>
-      <c r="C86" s="166"/>
-      <c r="D86" s="166"/>
-      <c r="E86" s="166"/>
-      <c r="F86" s="166"/>
-      <c r="G86" s="166"/>
-      <c r="H86" s="166"/>
-      <c r="I86" s="166"/>
-      <c r="J86" s="167"/>
+      <c r="B86" s="167"/>
+      <c r="C86" s="167"/>
+      <c r="D86" s="167"/>
+      <c r="E86" s="167"/>
+      <c r="F86" s="167"/>
+      <c r="G86" s="167"/>
+      <c r="H86" s="167"/>
+      <c r="I86" s="167"/>
+      <c r="J86" s="168"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="53" t="s">
@@ -9152,6 +9173,12 @@
   </sheetData>
   <autoFilter ref="B2:B114"/>
   <mergeCells count="15">
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A86:J86"/>
     <mergeCell ref="A114:C114"/>
@@ -9161,12 +9188,6 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A80:H80"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9177,7 +9198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+    <sheetView topLeftCell="A107" workbookViewId="0">
       <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
@@ -9197,30 +9218,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="169" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="171"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="167"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="168"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -9265,11 +9286,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" ht="21">
-      <c r="A6" s="171" t="s">
+      <c r="A6" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="172"/>
       <c r="D6" s="15">
         <f>SUM(D5:D5)</f>
         <v>0</v>
@@ -9294,18 +9315,18 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="21">
-      <c r="A7" s="165" t="s">
+      <c r="A7" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="167"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="168"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="16" t="s">
@@ -9914,11 +9935,11 @@
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="179"/>
-      <c r="C29" s="179"/>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -9944,30 +9965,30 @@
       <c r="K29" s="69"/>
     </row>
     <row r="31" spans="1:11" ht="21">
-      <c r="A31" s="168" t="s">
+      <c r="A31" s="169" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="169"/>
-      <c r="C31" s="169"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="169"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="169"/>
-      <c r="J31" s="170"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="171"/>
     </row>
     <row r="32" spans="1:11" ht="21">
-      <c r="A32" s="165" t="s">
+      <c r="A32" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="166"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="167"/>
+      <c r="B32" s="167"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="168"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -10213,11 +10234,11 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="164" t="s">
+      <c r="A42" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="164"/>
-      <c r="C42" s="164"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
       <c r="D42" s="27">
         <f>SUM(D34:D41)</f>
         <v>983754</v>
@@ -10242,18 +10263,18 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="165" t="s">
+      <c r="A43" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="166"/>
-      <c r="C43" s="166"/>
-      <c r="D43" s="166"/>
-      <c r="E43" s="166"/>
-      <c r="F43" s="166"/>
-      <c r="G43" s="166"/>
-      <c r="H43" s="166"/>
-      <c r="I43" s="166"/>
-      <c r="J43" s="167"/>
+      <c r="B43" s="167"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="167"/>
+      <c r="E43" s="167"/>
+      <c r="F43" s="167"/>
+      <c r="G43" s="167"/>
+      <c r="H43" s="167"/>
+      <c r="I43" s="167"/>
+      <c r="J43" s="168"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1">
       <c r="A44" s="16" t="s">
@@ -11283,11 +11304,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A81" s="164" t="s">
+      <c r="A81" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="164"/>
-      <c r="C81" s="164"/>
+      <c r="B81" s="165"/>
+      <c r="C81" s="165"/>
       <c r="D81" s="27">
         <f>SUM(D45:D80)</f>
         <v>599787.05000000005</v>
@@ -11312,30 +11333,30 @@
       <c r="J81" s="27"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="168" t="s">
+      <c r="A83" s="169" t="s">
         <v>232</v>
       </c>
-      <c r="B83" s="169"/>
-      <c r="C83" s="169"/>
-      <c r="D83" s="169"/>
-      <c r="E83" s="169"/>
-      <c r="F83" s="169"/>
-      <c r="G83" s="169"/>
-      <c r="H83" s="169"/>
-      <c r="I83" s="169"/>
-      <c r="J83" s="170"/>
+      <c r="B83" s="170"/>
+      <c r="C83" s="170"/>
+      <c r="D83" s="170"/>
+      <c r="E83" s="170"/>
+      <c r="F83" s="170"/>
+      <c r="G83" s="170"/>
+      <c r="H83" s="170"/>
+      <c r="I83" s="170"/>
+      <c r="J83" s="171"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="165" t="s">
+      <c r="A84" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="166"/>
-      <c r="C84" s="166"/>
-      <c r="D84" s="166"/>
-      <c r="E84" s="166"/>
-      <c r="F84" s="166"/>
-      <c r="G84" s="166"/>
-      <c r="H84" s="167"/>
+      <c r="B84" s="167"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
+      <c r="F84" s="167"/>
+      <c r="G84" s="167"/>
+      <c r="H84" s="168"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
@@ -11480,11 +11501,11 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A90" s="164" t="s">
+      <c r="A90" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="164"/>
-      <c r="C90" s="164"/>
+      <c r="B90" s="165"/>
+      <c r="C90" s="165"/>
       <c r="D90" s="27">
         <f>SUM(D86:D89)</f>
         <v>297318</v>
@@ -11509,18 +11530,18 @@
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="165" t="s">
+      <c r="A91" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="166"/>
-      <c r="C91" s="166"/>
-      <c r="D91" s="166"/>
-      <c r="E91" s="166"/>
-      <c r="F91" s="166"/>
-      <c r="G91" s="166"/>
-      <c r="H91" s="166"/>
-      <c r="I91" s="166"/>
-      <c r="J91" s="167"/>
+      <c r="B91" s="167"/>
+      <c r="C91" s="167"/>
+      <c r="D91" s="167"/>
+      <c r="E91" s="167"/>
+      <c r="F91" s="167"/>
+      <c r="G91" s="167"/>
+      <c r="H91" s="167"/>
+      <c r="I91" s="167"/>
+      <c r="J91" s="168"/>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1">
       <c r="A92" s="16" t="s">
@@ -12174,22 +12195,22 @@
   </sheetData>
   <autoFilter ref="B2:B119"/>
   <mergeCells count="16">
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A84:H84"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A83:J83"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A84:H84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12198,10 +12219,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J89"/>
+  <dimension ref="A2:J91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:J10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12220,30 +12241,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="169" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="171"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="167"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="168"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -12380,11 +12401,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="33">
         <f>SUM(D5:D8)</f>
         <v>2152003</v>
@@ -12409,18 +12430,18 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="166"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="166"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="166"/>
-      <c r="J10" s="167"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="168"/>
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1">
       <c r="A11" s="34" t="s">
@@ -12510,123 +12531,195 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" customHeight="1">
+    <row r="14" spans="1:10" s="161" customFormat="1" ht="13.8" customHeight="1">
       <c r="A14" s="36">
-        <v>45295</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>482</v>
+        <v>45294</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D14" s="37">
-        <v>10169.49</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37">
-        <v>915.25</v>
-      </c>
-      <c r="G14" s="37">
-        <v>915.25</v>
-      </c>
+        <v>29500</v>
+      </c>
+      <c r="E14" s="37">
+        <v>5310</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="12">
-        <v>12000</v>
+        <f>D14+E14+F14+G14</f>
+        <v>34810</v>
       </c>
       <c r="I14" s="37"/>
       <c r="J14" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="161" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A15" s="11">
+        <v>45294</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="D15" s="12">
+        <v>55000</v>
+      </c>
+      <c r="E15" s="12">
+        <v>9900</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12">
+        <f>D15+E15+F15+G15</f>
+        <v>64900</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A16" s="11">
+        <v>45295</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D16" s="12">
+        <v>10169.49</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12">
+        <v>915.25</v>
+      </c>
+      <c r="G16" s="12">
+        <v>915.25</v>
+      </c>
+      <c r="H16" s="12">
+        <v>12000</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="12">
-        <f t="shared" ref="H15:H23" si="1">D15+E15+F15+G15</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="40"/>
-    </row>
-    <row r="16" spans="1:10" ht="16.2" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-    </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="A17" s="38">
+        <v>45295</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="D17" s="41">
+        <v>124350</v>
+      </c>
+      <c r="E17" s="41">
+        <v>22383</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+        <f t="shared" ref="H17:H25" si="1">D17+E17+F17+G17</f>
+        <v>146733</v>
+      </c>
+      <c r="I17" s="41"/>
+      <c r="J17" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.2" customHeight="1">
+      <c r="A18" s="28">
+        <v>45295</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="C18" s="31">
+        <v>2117</v>
+      </c>
+      <c r="D18" s="31">
+        <v>1330</v>
+      </c>
+      <c r="E18" s="31">
+        <v>239</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+        <v>1569</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A19" s="28">
+        <v>45299</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D19" s="12">
+        <v>3890</v>
+      </c>
+      <c r="E19" s="12">
+        <v>700</v>
+      </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4590</v>
       </c>
       <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="J19" s="12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A20" s="11">
+        <v>45299</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="D20" s="12">
+        <v>30700</v>
+      </c>
+      <c r="E20" s="12">
+        <v>5526</v>
+      </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36226</v>
       </c>
       <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="J20" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="21.75" customHeight="1">
       <c r="A21" s="11"/>
@@ -12658,10 +12751,10 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="15.6">
+    <row r="23" spans="1:10" ht="21.75" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -12671,120 +12764,126 @@
         <v>0</v>
       </c>
       <c r="I23" s="12"/>
-      <c r="J23" s="21"/>
-    </row>
-    <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="178" t="s">
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.6">
+      <c r="A25" s="11"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="1:10" ht="21">
+      <c r="A26" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="178"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="42">
-        <f>SUM(D12:D23)</f>
-        <v>15565.689999999999</v>
-      </c>
-      <c r="E24" s="42">
-        <f>SUM(E12:E23)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="42">
-        <f>SUM(F12:F23)</f>
+      <c r="B26" s="178"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="42">
+        <f>SUM(D12:D25)</f>
+        <v>260335.69</v>
+      </c>
+      <c r="E26" s="42">
+        <f>SUM(E12:E25)</f>
+        <v>44058</v>
+      </c>
+      <c r="F26" s="42">
+        <f>SUM(F12:F25)</f>
         <v>1400.91</v>
       </c>
-      <c r="G24" s="42">
-        <f>SUM(G12:G23)</f>
+      <c r="G26" s="42">
+        <f>SUM(G12:G25)</f>
         <v>1400.91</v>
       </c>
-      <c r="H24" s="43">
-        <f>SUM(H12:H23)</f>
-        <v>18368</v>
-      </c>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-    </row>
-    <row r="26" spans="1:10" ht="21">
-      <c r="A26" s="168" t="s">
+      <c r="H26" s="43">
+        <f>SUM(H12:H25)</f>
+        <v>307196</v>
+      </c>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+    </row>
+    <row r="28" spans="1:10" ht="21">
+      <c r="A28" s="169" t="s">
         <v>234</v>
       </c>
-      <c r="B26" s="169"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="169"/>
-      <c r="J26" s="170"/>
-    </row>
-    <row r="27" spans="1:10" ht="21">
-      <c r="A27" s="165" t="s">
+      <c r="B28" s="170"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="171"/>
+    </row>
+    <row r="29" spans="1:10" ht="21">
+      <c r="A29" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" ht="31.2">
-      <c r="A28" s="3" t="s">
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="31.2">
+      <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.6">
-      <c r="A29" s="24"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.6">
-      <c r="A30" s="24"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="45"/>
+      <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="15.6">
@@ -12823,179 +12922,179 @@
       <c r="I33" s="45"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="175" t="s">
+    <row r="34" spans="1:10" ht="15.6">
+      <c r="A34" s="24"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.6">
+      <c r="A35" s="24"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="21">
+      <c r="A36" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="175"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="33">
-        <f>SUM(D29:D33)</f>
+      <c r="B36" s="176"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="33">
+        <f>SUM(D31:D35)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="33">
-        <f>SUM(E29:E33)</f>
+      <c r="E36" s="33">
+        <f>SUM(E31:E35)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="33">
-        <f>SUM(F29:F33)</f>
+      <c r="F36" s="33">
+        <f>SUM(F31:F35)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="33">
-        <f>SUM(G29:G33)</f>
+      <c r="G36" s="33">
+        <f>SUM(G31:G35)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="33">
-        <f>SUM(H29:H33)</f>
+      <c r="H36" s="33">
+        <f>SUM(H31:H35)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="165" t="s">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="21">
+      <c r="A37" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="166"/>
-      <c r="C35" s="166"/>
-      <c r="D35" s="166"/>
-      <c r="E35" s="166"/>
-      <c r="F35" s="166"/>
-      <c r="G35" s="166"/>
-      <c r="H35" s="166"/>
-      <c r="I35" s="166"/>
-      <c r="J35" s="167"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="34" t="s">
+      <c r="B37" s="167"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="168"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B38" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C38" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D38" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E38" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F38" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="34" t="s">
+      <c r="G38" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="H38" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I36" s="35" t="s">
+      <c r="I38" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J36" s="35" t="s">
+      <c r="J38" s="35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.6">
-      <c r="A37" s="24"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="21"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.6">
-      <c r="A38" s="24"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-    </row>
-    <row r="39" spans="1:10" ht="19.8" customHeight="1">
+    <row r="39" spans="1:10" ht="15.6">
       <c r="A39" s="24"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="48"/>
-    </row>
-    <row r="40" spans="1:10" ht="18" customHeight="1">
+      <c r="B39" s="21"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.6">
       <c r="A40" s="24"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="48"/>
-    </row>
-    <row r="41" spans="1:10" ht="18" customHeight="1">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:10" ht="19.8" customHeight="1">
       <c r="A41" s="24"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="45"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.6">
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="48"/>
+    </row>
+    <row r="42" spans="1:10" ht="18" customHeight="1">
       <c r="A42" s="24"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.6">
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="48"/>
+    </row>
+    <row r="43" spans="1:10" ht="18" customHeight="1">
       <c r="A43" s="24"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="47"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
+      <c r="J43" s="45"/>
     </row>
     <row r="44" spans="1:10" ht="15.6">
       <c r="A44" s="24"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="48"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
     </row>
     <row r="45" spans="1:10" ht="15.6">
-      <c r="A45" s="11"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -13007,16 +13106,16 @@
       <c r="J45" s="12"/>
     </row>
     <row r="46" spans="1:10" ht="15.6">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="48"/>
     </row>
     <row r="47" spans="1:10" ht="15.6">
       <c r="A47" s="11"/>
@@ -13044,15 +13143,15 @@
     </row>
     <row r="49" spans="1:10" ht="15.6">
       <c r="A49" s="11"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="47"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="45"/>
+      <c r="J49" s="12"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="11"/>
@@ -13068,39 +13167,39 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="47"/>
       <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
+      <c r="J51" s="45"/>
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="11"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="47"/>
       <c r="I52" s="12"/>
-      <c r="J52" s="21"/>
+      <c r="J52" s="12"/>
     </row>
     <row r="53" spans="1:10" ht="15.6">
       <c r="A53" s="11"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="47"/>
       <c r="I53" s="12"/>
-      <c r="J53" s="21"/>
+      <c r="J53" s="12"/>
     </row>
     <row r="54" spans="1:10" ht="15.6">
       <c r="A54" s="11"/>
@@ -13112,31 +13211,31 @@
       <c r="G54" s="12"/>
       <c r="H54" s="47"/>
       <c r="I54" s="12"/>
-      <c r="J54" s="45"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="1:10" ht="15.6">
       <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="47"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="1:10" ht="15.6">
       <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="47"/>
       <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
+      <c r="J56" s="45"/>
     </row>
     <row r="57" spans="1:10" ht="15.6">
       <c r="A57" s="11"/>
@@ -13152,140 +13251,140 @@
     </row>
     <row r="58" spans="1:10" ht="15.6">
       <c r="A58" s="11"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="21"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="47"/>
       <c r="I58" s="12"/>
-      <c r="J58" s="21"/>
+      <c r="J58" s="12"/>
     </row>
     <row r="59" spans="1:10" ht="15.6">
-      <c r="A59" s="28"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
       <c r="H59" s="47"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="29"/>
-    </row>
-    <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="176" t="s">
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.6">
+      <c r="A60" s="11"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.6">
+      <c r="A61" s="28"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="29"/>
+    </row>
+    <row r="62" spans="1:10" ht="21">
+      <c r="A62" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="176"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="51">
-        <f>SUM(D37:D59)</f>
+      <c r="B62" s="179"/>
+      <c r="C62" s="179"/>
+      <c r="D62" s="51">
+        <f>SUM(D39:D61)</f>
         <v>0</v>
       </c>
-      <c r="E60" s="51">
-        <f>SUM(E37:E59)</f>
+      <c r="E62" s="51">
+        <f>SUM(E39:E61)</f>
         <v>0</v>
       </c>
-      <c r="F60" s="51">
-        <f>SUM(F37:F59)</f>
+      <c r="F62" s="51">
+        <f>SUM(F39:F61)</f>
         <v>0</v>
       </c>
-      <c r="G60" s="51">
-        <f>SUM(G37:G59)</f>
+      <c r="G62" s="51">
+        <f>SUM(G39:G61)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="52">
-        <f>SUM(H37:H59)</f>
+      <c r="H62" s="52">
+        <f>SUM(H39:H61)</f>
         <v>0</v>
       </c>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-    </row>
-    <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="168" t="s">
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+    </row>
+    <row r="64" spans="1:10" ht="21">
+      <c r="A64" s="169" t="s">
         <v>235</v>
       </c>
-      <c r="B62" s="169"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="169"/>
-      <c r="E62" s="169"/>
-      <c r="F62" s="169"/>
-      <c r="G62" s="169"/>
-      <c r="H62" s="169"/>
-      <c r="I62" s="169"/>
-      <c r="J62" s="170"/>
-    </row>
-    <row r="63" spans="1:10" ht="21">
-      <c r="A63" s="165" t="s">
+      <c r="B64" s="170"/>
+      <c r="C64" s="170"/>
+      <c r="D64" s="170"/>
+      <c r="E64" s="170"/>
+      <c r="F64" s="170"/>
+      <c r="G64" s="170"/>
+      <c r="H64" s="170"/>
+      <c r="I64" s="170"/>
+      <c r="J64" s="171"/>
+    </row>
+    <row r="65" spans="1:10" ht="21">
+      <c r="A65" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="166"/>
-      <c r="C63" s="166"/>
-      <c r="D63" s="166"/>
-      <c r="E63" s="166"/>
-      <c r="F63" s="166"/>
-      <c r="G63" s="166"/>
-      <c r="H63" s="167"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:10" ht="31.2">
-      <c r="A64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="1:10" ht="15.6">
-      <c r="A65" s="20"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
+      <c r="B65" s="167"/>
+      <c r="C65" s="167"/>
+      <c r="D65" s="167"/>
+      <c r="E65" s="167"/>
+      <c r="F65" s="167"/>
+      <c r="G65" s="167"/>
+      <c r="H65" s="168"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" ht="15.6">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
+    <row r="66" spans="1:10" ht="31.2">
+      <c r="A66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10" ht="15.6">
       <c r="A67" s="20"/>
-      <c r="B67" s="19"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
@@ -13295,128 +13394,128 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="175" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" s="175"/>
-      <c r="C68" s="175"/>
-      <c r="D68" s="33">
-        <f>SUM(D65:D67)</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="33">
-        <f>SUM(E65:E67)</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="33">
-        <f>SUM(F65:F67)</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="33">
-        <f>SUM(G65:G67)</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="33">
-        <f>SUM(H65:H67)</f>
-        <v>0</v>
-      </c>
+    <row r="68" spans="1:10" ht="15.6">
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" ht="21">
-      <c r="A69" s="165" t="s">
+    <row r="69" spans="1:10" ht="15.6">
+      <c r="A69" s="20"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" ht="21">
+      <c r="A70" s="176" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="176"/>
+      <c r="C70" s="176"/>
+      <c r="D70" s="33">
+        <f>SUM(D67:D69)</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="33">
+        <f>SUM(E67:E69)</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="33">
+        <f>SUM(F67:F69)</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="33">
+        <f>SUM(G67:G69)</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="33">
+        <f>SUM(H67:H69)</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" ht="21">
+      <c r="A71" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="166"/>
-      <c r="C69" s="166"/>
-      <c r="D69" s="166"/>
-      <c r="E69" s="166"/>
-      <c r="F69" s="166"/>
-      <c r="G69" s="166"/>
-      <c r="H69" s="166"/>
-      <c r="I69" s="166"/>
-      <c r="J69" s="167"/>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="53" t="s">
+      <c r="B71" s="167"/>
+      <c r="C71" s="167"/>
+      <c r="D71" s="167"/>
+      <c r="E71" s="167"/>
+      <c r="F71" s="167"/>
+      <c r="G71" s="167"/>
+      <c r="H71" s="167"/>
+      <c r="I71" s="167"/>
+      <c r="J71" s="168"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="53" t="s">
+      <c r="B72" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="53" t="s">
+      <c r="C72" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="53" t="s">
+      <c r="D72" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="53" t="s">
+      <c r="E72" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="53" t="s">
+      <c r="F72" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G70" s="53" t="s">
+      <c r="G72" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H70" s="54" t="s">
+      <c r="H72" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I70" s="54" t="s">
+      <c r="I72" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="J70" s="54" t="s">
+      <c r="J72" s="54" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.6">
-      <c r="A71" s="55"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.6">
-      <c r="A72" s="55"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="56"/>
-    </row>
     <row r="73" spans="1:10" ht="15.6">
-      <c r="A73" s="57"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="58"/>
+      <c r="A73" s="55"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
       <c r="H73" s="56"/>
-      <c r="I73" s="58"/>
-      <c r="J73" s="58"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="56"/>
     </row>
     <row r="74" spans="1:10" ht="15.6">
-      <c r="A74" s="57"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
+      <c r="A74" s="55"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
     </row>
     <row r="75" spans="1:10" ht="15.6">
       <c r="A75" s="57"/>
@@ -13426,57 +13525,57 @@
       <c r="E75" s="58"/>
       <c r="F75" s="58"/>
       <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
+      <c r="H75" s="56"/>
       <c r="I75" s="58"/>
       <c r="J75" s="58"/>
     </row>
-    <row r="76" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A76" s="11"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="21"/>
-    </row>
-    <row r="77" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A77" s="11"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="59"/>
-    </row>
-    <row r="78" spans="1:10" ht="15.6">
-      <c r="A78" s="57"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="58"/>
-      <c r="F78" s="58"/>
-      <c r="G78" s="58"/>
-      <c r="H78" s="58"/>
-      <c r="I78" s="58"/>
-      <c r="J78" s="58"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.6">
-      <c r="A79" s="57"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
+    <row r="76" spans="1:10" ht="15.6">
+      <c r="A76" s="57"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="58"/>
+      <c r="J76" s="58"/>
+    </row>
+    <row r="77" spans="1:10" ht="15.6">
+      <c r="A77" s="57"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="58"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="58"/>
+      <c r="J77" s="58"/>
+    </row>
+    <row r="78" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A78" s="11"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A79" s="11"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="59"/>
     </row>
     <row r="80" spans="1:10" ht="15.6">
       <c r="A80" s="57"/>
@@ -13503,135 +13602,159 @@
       <c r="J81" s="58"/>
     </row>
     <row r="82" spans="1:10" ht="15.6">
-      <c r="A82" s="11"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="21"/>
+      <c r="A82" s="57"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="58"/>
+      <c r="J82" s="58"/>
     </row>
     <row r="83" spans="1:10" ht="15.6">
-      <c r="A83" s="28"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="30"/>
+      <c r="A83" s="57"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="58"/>
+      <c r="J83" s="58"/>
     </row>
     <row r="84" spans="1:10" ht="15.6">
-      <c r="A84" s="60"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="61"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="61"/>
-      <c r="J84" s="61"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="1:10" ht="15.6">
-      <c r="A85" s="36"/>
-      <c r="B85" s="62"/>
-      <c r="C85" s="62"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="58"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="63"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="30"/>
     </row>
     <row r="86" spans="1:10" ht="15.6">
-      <c r="A86" s="11"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="21"/>
+      <c r="A86" s="60"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="61"/>
+      <c r="I86" s="61"/>
+      <c r="J86" s="61"/>
     </row>
     <row r="87" spans="1:10" ht="15.6">
       <c r="A87" s="36"/>
       <c r="B87" s="62"/>
-      <c r="C87" s="63"/>
+      <c r="C87" s="62"/>
       <c r="D87" s="37"/>
       <c r="E87" s="37"/>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
+      <c r="H87" s="58"/>
       <c r="I87" s="37"/>
-      <c r="J87" s="62"/>
-    </row>
-    <row r="88" spans="1:10" ht="15">
-      <c r="A88" s="64"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
-      <c r="I88" s="67"/>
-      <c r="J88" s="66"/>
-    </row>
-    <row r="89" spans="1:10" ht="21">
-      <c r="A89" s="177" t="s">
+      <c r="J87" s="63"/>
+    </row>
+    <row r="88" spans="1:10" ht="15.6">
+      <c r="A88" s="11"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="21"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.6">
+      <c r="A89" s="36"/>
+      <c r="B89" s="62"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="62"/>
+    </row>
+    <row r="90" spans="1:10" ht="15">
+      <c r="A90" s="64"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="67"/>
+      <c r="J90" s="66"/>
+    </row>
+    <row r="91" spans="1:10" ht="21">
+      <c r="A91" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="177"/>
-      <c r="C89" s="177"/>
-      <c r="D89" s="68">
-        <f>SUM(D71:D88)</f>
+      <c r="B91" s="177"/>
+      <c r="C91" s="177"/>
+      <c r="D91" s="68">
+        <f>SUM(D73:D90)</f>
         <v>0</v>
       </c>
-      <c r="E89" s="68">
-        <f>SUM(E71:E88)</f>
+      <c r="E91" s="68">
+        <f>SUM(E73:E90)</f>
         <v>0</v>
       </c>
-      <c r="F89" s="68">
-        <f>SUM(F71:F88)</f>
+      <c r="F91" s="68">
+        <f>SUM(F73:F90)</f>
         <v>0</v>
       </c>
-      <c r="G89" s="68">
-        <f>SUM(G71:G88)</f>
+      <c r="G91" s="68">
+        <f>SUM(G73:G90)</f>
         <v>0</v>
       </c>
-      <c r="H89" s="68">
-        <f>SUM(H71:H88)</f>
+      <c r="H91" s="68">
+        <f>SUM(H73:H90)</f>
         <v>0</v>
       </c>
-      <c r="I89" s="68"/>
-      <c r="J89" s="68"/>
+      <c r="I91" s="68"/>
+      <c r="J91" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A28:J28"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:H65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Apr-23 to Jun-23" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Apr-23 to Jun-23'!$B$2:$B$290</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Jul-23 to Sept-23'!$B$2:$B$114</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Oct-23 to Dec-23'!$B$2:$B$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Oct-23 to Dec-23'!$B$2:$B$123</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="503">
   <si>
     <t>APRIL</t>
   </si>
@@ -1518,6 +1518,24 @@
   </si>
   <si>
     <t>89/23-24</t>
+  </si>
+  <si>
+    <t>V TRANS, V XPRESS &amp; V LOGIS</t>
+  </si>
+  <si>
+    <t>24AAACV1559Q1ZW</t>
+  </si>
+  <si>
+    <t>24-23-11-T023079</t>
+  </si>
+  <si>
+    <t>VRL LOGISTICS LIMITED</t>
+  </si>
+  <si>
+    <t>27AABCV3609C1ZN</t>
+  </si>
+  <si>
+    <t>24301C0000133043</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +1831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2277,21 +2295,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2344,13 +2347,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2358,8 +2364,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2663,30 +2684,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="171"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="166"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="168"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="163"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -2906,11 +2927,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="172"/>
-      <c r="C12" s="172"/>
+      <c r="B12" s="167"/>
+      <c r="C12" s="167"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -2935,18 +2956,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="167"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="168"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="163"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -3733,11 +3754,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="162" t="s">
+      <c r="A42" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="163"/>
-      <c r="C42" s="164"/>
+      <c r="B42" s="158"/>
+      <c r="C42" s="159"/>
       <c r="D42" s="26">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -3762,30 +3783,30 @@
       <c r="J42" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="169" t="s">
+      <c r="A44" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="170"/>
-      <c r="F44" s="170"/>
-      <c r="G44" s="170"/>
-      <c r="H44" s="170"/>
-      <c r="I44" s="170"/>
-      <c r="J44" s="171"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="166"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="167"/>
-      <c r="F45" s="167"/>
-      <c r="G45" s="167"/>
-      <c r="H45" s="168"/>
+      <c r="B45" s="162"/>
+      <c r="C45" s="162"/>
+      <c r="D45" s="162"/>
+      <c r="E45" s="162"/>
+      <c r="F45" s="162"/>
+      <c r="G45" s="162"/>
+      <c r="H45" s="163"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -4061,11 +4082,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="165" t="s">
+      <c r="A56" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
+      <c r="B56" s="160"/>
+      <c r="C56" s="160"/>
       <c r="D56" s="27">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -4090,18 +4111,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="166" t="s">
+      <c r="A57" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
-      <c r="E57" s="167"/>
-      <c r="F57" s="167"/>
-      <c r="G57" s="167"/>
-      <c r="H57" s="167"/>
-      <c r="I57" s="167"/>
-      <c r="J57" s="168"/>
+      <c r="B57" s="162"/>
+      <c r="C57" s="162"/>
+      <c r="D57" s="162"/>
+      <c r="E57" s="162"/>
+      <c r="F57" s="162"/>
+      <c r="G57" s="162"/>
+      <c r="H57" s="162"/>
+      <c r="I57" s="162"/>
+      <c r="J57" s="163"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -4939,11 +4960,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="173" t="s">
+      <c r="A88" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="174"/>
-      <c r="C88" s="175"/>
+      <c r="B88" s="169"/>
+      <c r="C88" s="170"/>
       <c r="D88" s="27">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -4968,30 +4989,30 @@
       <c r="J88" s="27"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="169" t="s">
+      <c r="A90" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="170"/>
-      <c r="C90" s="170"/>
-      <c r="D90" s="170"/>
-      <c r="E90" s="170"/>
-      <c r="F90" s="170"/>
-      <c r="G90" s="170"/>
-      <c r="H90" s="170"/>
-      <c r="I90" s="170"/>
-      <c r="J90" s="171"/>
+      <c r="B90" s="165"/>
+      <c r="C90" s="165"/>
+      <c r="D90" s="165"/>
+      <c r="E90" s="165"/>
+      <c r="F90" s="165"/>
+      <c r="G90" s="165"/>
+      <c r="H90" s="165"/>
+      <c r="I90" s="165"/>
+      <c r="J90" s="166"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="166" t="s">
+      <c r="A91" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="167"/>
-      <c r="C91" s="167"/>
-      <c r="D91" s="167"/>
-      <c r="E91" s="167"/>
-      <c r="F91" s="167"/>
-      <c r="G91" s="167"/>
-      <c r="H91" s="168"/>
+      <c r="B91" s="162"/>
+      <c r="C91" s="162"/>
+      <c r="D91" s="162"/>
+      <c r="E91" s="162"/>
+      <c r="F91" s="162"/>
+      <c r="G91" s="162"/>
+      <c r="H91" s="163"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -5213,11 +5234,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="165" t="s">
+      <c r="A100" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="165"/>
-      <c r="C100" s="165"/>
+      <c r="B100" s="160"/>
+      <c r="C100" s="160"/>
       <c r="D100" s="27">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -5242,18 +5263,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="166" t="s">
+      <c r="A101" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="167"/>
-      <c r="C101" s="167"/>
-      <c r="D101" s="167"/>
-      <c r="E101" s="167"/>
-      <c r="F101" s="167"/>
-      <c r="G101" s="167"/>
-      <c r="H101" s="167"/>
-      <c r="I101" s="167"/>
-      <c r="J101" s="168"/>
+      <c r="B101" s="162"/>
+      <c r="C101" s="162"/>
+      <c r="D101" s="162"/>
+      <c r="E101" s="162"/>
+      <c r="F101" s="162"/>
+      <c r="G101" s="162"/>
+      <c r="H101" s="162"/>
+      <c r="I101" s="162"/>
+      <c r="J101" s="163"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -5908,11 +5929,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="162" t="s">
+      <c r="A125" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="163"/>
-      <c r="C125" s="164"/>
+      <c r="B125" s="158"/>
+      <c r="C125" s="159"/>
       <c r="D125" s="26">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -6171,30 +6192,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="171"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="166"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="168"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="163"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6281,11 +6302,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="176" t="s">
+      <c r="A7" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="176"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
       <c r="D7" s="33">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -6310,18 +6331,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="168"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -6979,11 +7000,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="179" t="s">
+      <c r="A32" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="179"/>
-      <c r="C32" s="179"/>
+      <c r="B32" s="172"/>
+      <c r="C32" s="172"/>
       <c r="D32" s="51">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -7013,30 +7034,30 @@
       <c r="C33" s="44"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="169" t="s">
+      <c r="A34" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="170"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="171"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="166"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="166" t="s">
+      <c r="A35" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="167"/>
-      <c r="H35" s="168"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="162"/>
+      <c r="D35" s="162"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="162"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="163"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
@@ -7177,11 +7198,11 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="176" t="s">
+      <c r="A41" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
+      <c r="B41" s="171"/>
+      <c r="C41" s="171"/>
       <c r="D41" s="33">
         <f>SUM(D37:D40)</f>
         <v>613000</v>
@@ -7206,18 +7227,18 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="166" t="s">
+      <c r="A42" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
-      <c r="E42" s="167"/>
-      <c r="F42" s="167"/>
-      <c r="G42" s="167"/>
-      <c r="H42" s="167"/>
-      <c r="I42" s="167"/>
-      <c r="J42" s="168"/>
+      <c r="B42" s="162"/>
+      <c r="C42" s="162"/>
+      <c r="D42" s="162"/>
+      <c r="E42" s="162"/>
+      <c r="F42" s="162"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="162"/>
+      <c r="I42" s="162"/>
+      <c r="J42" s="163"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
@@ -8163,11 +8184,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="178" t="s">
+      <c r="A77" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="178"/>
-      <c r="C77" s="178"/>
+      <c r="B77" s="174"/>
+      <c r="C77" s="174"/>
       <c r="D77" s="42">
         <f>SUM(D44:D76)</f>
         <v>385770.4</v>
@@ -8210,30 +8231,30 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="169" t="s">
+      <c r="A79" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="170"/>
-      <c r="C79" s="170"/>
-      <c r="D79" s="170"/>
-      <c r="E79" s="170"/>
-      <c r="F79" s="170"/>
-      <c r="G79" s="170"/>
-      <c r="H79" s="170"/>
-      <c r="I79" s="170"/>
-      <c r="J79" s="171"/>
+      <c r="B79" s="165"/>
+      <c r="C79" s="165"/>
+      <c r="D79" s="165"/>
+      <c r="E79" s="165"/>
+      <c r="F79" s="165"/>
+      <c r="G79" s="165"/>
+      <c r="H79" s="165"/>
+      <c r="I79" s="165"/>
+      <c r="J79" s="166"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="166" t="s">
+      <c r="A80" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="167"/>
-      <c r="C80" s="167"/>
-      <c r="D80" s="167"/>
-      <c r="E80" s="167"/>
-      <c r="F80" s="167"/>
-      <c r="G80" s="167"/>
-      <c r="H80" s="168"/>
+      <c r="B80" s="162"/>
+      <c r="C80" s="162"/>
+      <c r="D80" s="162"/>
+      <c r="E80" s="162"/>
+      <c r="F80" s="162"/>
+      <c r="G80" s="162"/>
+      <c r="H80" s="163"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
@@ -8347,11 +8368,11 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="176" t="s">
+      <c r="A85" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="176"/>
-      <c r="C85" s="176"/>
+      <c r="B85" s="171"/>
+      <c r="C85" s="171"/>
       <c r="D85" s="33">
         <f>SUM(D82:D84)</f>
         <v>204284</v>
@@ -8376,18 +8397,18 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="166" t="s">
+      <c r="A86" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="167"/>
-      <c r="C86" s="167"/>
-      <c r="D86" s="167"/>
-      <c r="E86" s="167"/>
-      <c r="F86" s="167"/>
-      <c r="G86" s="167"/>
-      <c r="H86" s="167"/>
-      <c r="I86" s="167"/>
-      <c r="J86" s="168"/>
+      <c r="B86" s="162"/>
+      <c r="C86" s="162"/>
+      <c r="D86" s="162"/>
+      <c r="E86" s="162"/>
+      <c r="F86" s="162"/>
+      <c r="G86" s="162"/>
+      <c r="H86" s="162"/>
+      <c r="I86" s="162"/>
+      <c r="J86" s="163"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="53" t="s">
@@ -9142,11 +9163,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="177" t="s">
+      <c r="A114" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="177"/>
-      <c r="C114" s="177"/>
+      <c r="B114" s="173"/>
+      <c r="C114" s="173"/>
       <c r="D114" s="68">
         <f>SUM(D88:D113)</f>
         <v>438291.73</v>
@@ -9173,12 +9194,6 @@
   </sheetData>
   <autoFilter ref="B2:B114"/>
   <mergeCells count="15">
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A86:J86"/>
     <mergeCell ref="A114:C114"/>
@@ -9188,6 +9203,12 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A80:H80"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9196,10 +9217,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K116"/>
+  <dimension ref="A2:K120"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9218,30 +9239,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="164" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="171"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="166"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="168"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="163"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -9286,11 +9307,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" ht="21">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="172"/>
-      <c r="C6" s="172"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
       <c r="D6" s="15">
         <f>SUM(D5:D5)</f>
         <v>0</v>
@@ -9315,18 +9336,18 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="21">
-      <c r="A7" s="166" t="s">
+      <c r="A7" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="167"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="168"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="163"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="16" t="s">
@@ -9935,11 +9956,11 @@
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="182" t="s">
+      <c r="A29" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="182"/>
-      <c r="C29" s="182"/>
+      <c r="B29" s="175"/>
+      <c r="C29" s="175"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -9965,30 +9986,30 @@
       <c r="K29" s="69"/>
     </row>
     <row r="31" spans="1:11" ht="21">
-      <c r="A31" s="169" t="s">
+      <c r="A31" s="164" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="170"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="171"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="166"/>
     </row>
     <row r="32" spans="1:11" ht="21">
-      <c r="A32" s="166" t="s">
+      <c r="A32" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="167"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="168"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="163"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -10234,11 +10255,11 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="165" t="s">
+      <c r="A42" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="165"/>
-      <c r="C42" s="165"/>
+      <c r="B42" s="160"/>
+      <c r="C42" s="160"/>
       <c r="D42" s="27">
         <f>SUM(D34:D41)</f>
         <v>983754</v>
@@ -10263,18 +10284,18 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="166" t="s">
+      <c r="A43" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
-      <c r="E43" s="167"/>
-      <c r="F43" s="167"/>
-      <c r="G43" s="167"/>
-      <c r="H43" s="167"/>
-      <c r="I43" s="167"/>
-      <c r="J43" s="168"/>
+      <c r="B43" s="162"/>
+      <c r="C43" s="162"/>
+      <c r="D43" s="162"/>
+      <c r="E43" s="162"/>
+      <c r="F43" s="162"/>
+      <c r="G43" s="162"/>
+      <c r="H43" s="162"/>
+      <c r="I43" s="162"/>
+      <c r="J43" s="163"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1">
       <c r="A44" s="16" t="s">
@@ -11304,11 +11325,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A81" s="165" t="s">
+      <c r="A81" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="165"/>
-      <c r="C81" s="165"/>
+      <c r="B81" s="160"/>
+      <c r="C81" s="160"/>
       <c r="D81" s="27">
         <f>SUM(D45:D80)</f>
         <v>599787.05000000005</v>
@@ -11333,30 +11354,30 @@
       <c r="J81" s="27"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="169" t="s">
+      <c r="A83" s="164" t="s">
         <v>232</v>
       </c>
-      <c r="B83" s="170"/>
-      <c r="C83" s="170"/>
-      <c r="D83" s="170"/>
-      <c r="E83" s="170"/>
-      <c r="F83" s="170"/>
-      <c r="G83" s="170"/>
-      <c r="H83" s="170"/>
-      <c r="I83" s="170"/>
-      <c r="J83" s="171"/>
+      <c r="B83" s="165"/>
+      <c r="C83" s="165"/>
+      <c r="D83" s="165"/>
+      <c r="E83" s="165"/>
+      <c r="F83" s="165"/>
+      <c r="G83" s="165"/>
+      <c r="H83" s="165"/>
+      <c r="I83" s="165"/>
+      <c r="J83" s="166"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="166" t="s">
+      <c r="A84" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="167"/>
-      <c r="C84" s="167"/>
-      <c r="D84" s="167"/>
-      <c r="E84" s="167"/>
-      <c r="F84" s="167"/>
-      <c r="G84" s="167"/>
-      <c r="H84" s="168"/>
+      <c r="B84" s="162"/>
+      <c r="C84" s="162"/>
+      <c r="D84" s="162"/>
+      <c r="E84" s="162"/>
+      <c r="F84" s="162"/>
+      <c r="G84" s="162"/>
+      <c r="H84" s="163"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
@@ -11501,11 +11522,11 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A90" s="165" t="s">
+      <c r="A90" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="165"/>
-      <c r="C90" s="165"/>
+      <c r="B90" s="160"/>
+      <c r="C90" s="160"/>
       <c r="D90" s="27">
         <f>SUM(D86:D89)</f>
         <v>297318</v>
@@ -11530,18 +11551,18 @@
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="166" t="s">
+      <c r="A91" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="167"/>
-      <c r="C91" s="167"/>
-      <c r="D91" s="167"/>
-      <c r="E91" s="167"/>
-      <c r="F91" s="167"/>
-      <c r="G91" s="167"/>
-      <c r="H91" s="167"/>
-      <c r="I91" s="167"/>
-      <c r="J91" s="168"/>
+      <c r="B91" s="162"/>
+      <c r="C91" s="162"/>
+      <c r="D91" s="162"/>
+      <c r="E91" s="162"/>
+      <c r="F91" s="162"/>
+      <c r="G91" s="162"/>
+      <c r="H91" s="162"/>
+      <c r="I91" s="162"/>
+      <c r="J91" s="163"/>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1">
       <c r="A92" s="16" t="s">
@@ -11648,7 +11669,7 @@
       <c r="F95" s="123"/>
       <c r="G95" s="123"/>
       <c r="H95" s="123">
-        <f t="shared" ref="H95:H98" si="0">D95+E95+F95+G95</f>
+        <f t="shared" ref="H95:H99" si="0">D95+E95+F95+G95</f>
         <v>496</v>
       </c>
       <c r="I95" s="123"/>
@@ -11685,532 +11706,642 @@
       </c>
     </row>
     <row r="97" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A97" s="127">
+      <c r="A97" s="178">
         <v>45265</v>
       </c>
-      <c r="B97" s="123" t="s">
+      <c r="B97" s="179" t="s">
         <v>246</v>
       </c>
-      <c r="C97" s="123">
+      <c r="C97" s="179">
         <v>4279</v>
       </c>
-      <c r="D97" s="123">
+      <c r="D97" s="179">
         <v>4516</v>
       </c>
-      <c r="E97" s="123"/>
-      <c r="F97" s="123">
+      <c r="E97" s="179"/>
+      <c r="F97" s="179">
         <v>406</v>
       </c>
-      <c r="G97" s="123">
+      <c r="G97" s="179">
         <v>406</v>
       </c>
-      <c r="H97" s="123">
+      <c r="H97" s="179">
         <f t="shared" si="0"/>
         <v>5328</v>
       </c>
-      <c r="I97" s="123"/>
-      <c r="J97" s="123" t="s">
+      <c r="I97" s="179"/>
+      <c r="J97" s="179" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A98" s="127">
+      <c r="A98" s="178">
+        <v>45265</v>
+      </c>
+      <c r="B98" s="182" t="s">
+        <v>500</v>
+      </c>
+      <c r="C98" s="183">
+        <v>2881087170</v>
+      </c>
+      <c r="D98" s="179">
+        <v>320</v>
+      </c>
+      <c r="E98" s="179">
+        <v>16</v>
+      </c>
+      <c r="F98" s="179"/>
+      <c r="G98" s="179"/>
+      <c r="H98" s="179">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="I98" s="179"/>
+      <c r="J98" s="182" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A99" s="178">
         <v>45267</v>
       </c>
-      <c r="B98" s="125" t="s">
+      <c r="B99" s="182" t="s">
         <v>459</v>
       </c>
-      <c r="C98" s="125" t="s">
+      <c r="C99" s="182" t="s">
         <v>461</v>
       </c>
-      <c r="D98" s="123">
+      <c r="D99" s="179">
         <v>591.53</v>
       </c>
-      <c r="E98" s="123">
+      <c r="E99" s="179">
         <v>106.47</v>
       </c>
-      <c r="F98" s="123"/>
-      <c r="G98" s="123"/>
-      <c r="H98" s="123">
+      <c r="F99" s="179"/>
+      <c r="G99" s="179"/>
+      <c r="H99" s="179">
         <f t="shared" si="0"/>
         <v>698</v>
       </c>
-      <c r="I98" s="123"/>
-      <c r="J98" s="125" t="s">
+      <c r="I99" s="179"/>
+      <c r="J99" s="182" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A99" s="127">
+    <row r="100" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A100" s="178">
         <v>45268</v>
       </c>
-      <c r="B99" s="123" t="s">
+      <c r="B100" s="179" t="s">
         <v>451</v>
       </c>
-      <c r="C99" s="123">
+      <c r="C100" s="179">
         <v>5524</v>
       </c>
-      <c r="D99" s="123">
+      <c r="D100" s="179">
         <v>270</v>
       </c>
-      <c r="E99" s="123"/>
-      <c r="F99" s="123">
+      <c r="E100" s="179"/>
+      <c r="F100" s="179">
         <v>24.3</v>
       </c>
-      <c r="G99" s="123">
+      <c r="G100" s="179">
         <v>24.3</v>
       </c>
-      <c r="H99" s="123">
+      <c r="H100" s="179">
         <v>319</v>
       </c>
-      <c r="I99" s="123"/>
-      <c r="J99" s="123" t="s">
+      <c r="I100" s="179"/>
+      <c r="J100" s="179" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A100" s="127">
+    <row r="101" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A101" s="178">
         <v>45269</v>
       </c>
-      <c r="B100" s="125" t="s">
+      <c r="B101" s="182" t="s">
         <v>466</v>
       </c>
-      <c r="C100" s="125" t="s">
+      <c r="C101" s="182" t="s">
         <v>467</v>
       </c>
-      <c r="D100" s="123">
+      <c r="D101" s="179">
         <v>142.16999999999999</v>
       </c>
-      <c r="E100" s="123"/>
-      <c r="F100" s="155">
+      <c r="E101" s="179"/>
+      <c r="F101" s="180">
         <v>12.8</v>
       </c>
-      <c r="G100" s="123">
+      <c r="G101" s="179">
         <v>12.8</v>
       </c>
-      <c r="H100" s="123">
+      <c r="H101" s="179">
         <v>168</v>
       </c>
-      <c r="I100" s="123"/>
-      <c r="J100" s="128" t="s">
+      <c r="I101" s="179"/>
+      <c r="J101" s="183" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A101" s="127">
-        <v>45271</v>
-      </c>
-      <c r="B101" s="123" t="s">
-        <v>125</v>
-      </c>
-      <c r="C101" s="123" t="s">
-        <v>453</v>
-      </c>
-      <c r="D101" s="123">
-        <v>3974.58</v>
-      </c>
-      <c r="E101" s="123"/>
-      <c r="F101" s="123">
-        <v>357.71</v>
-      </c>
-      <c r="G101" s="123">
-        <v>357.71</v>
-      </c>
-      <c r="H101" s="123">
-        <v>4690</v>
-      </c>
-      <c r="I101" s="123"/>
-      <c r="J101" s="123" t="s">
-        <v>127</v>
-      </c>
-    </row>
     <row r="102" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A102" s="127">
+      <c r="A102" s="178">
         <v>45269</v>
       </c>
-      <c r="B102" s="125" t="s">
-        <v>462</v>
-      </c>
-      <c r="C102" s="125" t="s">
-        <v>464</v>
-      </c>
-      <c r="D102" s="123">
-        <v>24.58</v>
-      </c>
-      <c r="E102" s="123">
-        <v>4.42</v>
-      </c>
-      <c r="F102" s="123"/>
-      <c r="G102" s="123"/>
-      <c r="H102" s="123">
+      <c r="B102" s="182" t="s">
+        <v>497</v>
+      </c>
+      <c r="C102" s="182" t="s">
+        <v>499</v>
+      </c>
+      <c r="D102" s="179">
+        <v>1352</v>
+      </c>
+      <c r="E102" s="179">
+        <v>162</v>
+      </c>
+      <c r="F102" s="180"/>
+      <c r="G102" s="179"/>
+      <c r="H102" s="181">
         <f>D102+E102+F102+G102</f>
-        <v>29</v>
-      </c>
-      <c r="I102" s="123"/>
-      <c r="J102" s="125" t="s">
-        <v>463</v>
+        <v>1514</v>
+      </c>
+      <c r="I102" s="179"/>
+      <c r="J102" s="182" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A103" s="127">
-        <v>45269</v>
-      </c>
-      <c r="B103" s="125" t="s">
-        <v>462</v>
-      </c>
-      <c r="C103" s="125" t="s">
-        <v>465</v>
+        <v>45271</v>
+      </c>
+      <c r="B103" s="123" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103" s="123" t="s">
+        <v>453</v>
       </c>
       <c r="D103" s="123">
-        <v>8050</v>
-      </c>
-      <c r="E103" s="123">
-        <v>1449</v>
-      </c>
-      <c r="F103" s="123"/>
-      <c r="G103" s="123"/>
+        <v>3974.58</v>
+      </c>
+      <c r="E103" s="123"/>
+      <c r="F103" s="123">
+        <v>357.71</v>
+      </c>
+      <c r="G103" s="123">
+        <v>357.71</v>
+      </c>
       <c r="H103" s="123">
-        <f>D103+E103+F103+G103</f>
-        <v>9499</v>
+        <v>4690</v>
       </c>
       <c r="I103" s="123"/>
-      <c r="J103" s="125" t="s">
-        <v>463</v>
+      <c r="J103" s="123" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A104" s="127">
-        <v>45272</v>
-      </c>
-      <c r="B104" s="123" t="s">
-        <v>454</v>
-      </c>
-      <c r="C104" s="123" t="s">
-        <v>455</v>
+        <v>45269</v>
+      </c>
+      <c r="B104" s="125" t="s">
+        <v>462</v>
+      </c>
+      <c r="C104" s="125" t="s">
+        <v>464</v>
       </c>
       <c r="D104" s="123">
-        <v>110</v>
-      </c>
-      <c r="E104" s="123"/>
-      <c r="F104" s="123">
-        <v>9.9</v>
-      </c>
-      <c r="G104" s="123">
-        <v>9.9</v>
-      </c>
+        <v>24.58</v>
+      </c>
+      <c r="E104" s="123">
+        <v>4.42</v>
+      </c>
+      <c r="F104" s="123"/>
+      <c r="G104" s="123"/>
       <c r="H104" s="123">
-        <v>130</v>
+        <f>D104+E104+F104+G104</f>
+        <v>29</v>
       </c>
       <c r="I104" s="123"/>
-      <c r="J104" s="123" t="s">
-        <v>456</v>
+      <c r="J104" s="125" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A105" s="127">
-        <v>45276</v>
+        <v>45269</v>
       </c>
       <c r="B105" s="125" t="s">
-        <v>457</v>
-      </c>
-      <c r="C105" s="128" t="s">
-        <v>458</v>
+        <v>462</v>
+      </c>
+      <c r="C105" s="125" t="s">
+        <v>465</v>
       </c>
       <c r="D105" s="123">
-        <v>111250</v>
+        <v>8050</v>
       </c>
       <c r="E105" s="123">
-        <v>20025</v>
+        <v>1449</v>
       </c>
       <c r="F105" s="123"/>
       <c r="G105" s="123"/>
       <c r="H105" s="123">
         <f>D105+E105+F105+G105</f>
-        <v>131275</v>
+        <v>9499</v>
       </c>
       <c r="I105" s="123"/>
       <c r="J105" s="125" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A106" s="127">
+        <v>45272</v>
+      </c>
+      <c r="B106" s="123" t="s">
+        <v>454</v>
+      </c>
+      <c r="C106" s="123" t="s">
+        <v>455</v>
+      </c>
+      <c r="D106" s="123">
+        <v>110</v>
+      </c>
+      <c r="E106" s="123"/>
+      <c r="F106" s="123">
+        <v>9.9</v>
+      </c>
+      <c r="G106" s="123">
+        <v>9.9</v>
+      </c>
+      <c r="H106" s="123">
+        <v>130</v>
+      </c>
+      <c r="I106" s="123"/>
+      <c r="J106" s="123" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A107" s="127">
+        <v>45276</v>
+      </c>
+      <c r="B107" s="125" t="s">
+        <v>457</v>
+      </c>
+      <c r="C107" s="128" t="s">
+        <v>458</v>
+      </c>
+      <c r="D107" s="123">
+        <v>111250</v>
+      </c>
+      <c r="E107" s="123">
+        <v>20025</v>
+      </c>
+      <c r="F107" s="123"/>
+      <c r="G107" s="123"/>
+      <c r="H107" s="123">
+        <f>D107+E107+F107+G107</f>
+        <v>131275</v>
+      </c>
+      <c r="I107" s="123"/>
+      <c r="J107" s="125" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A106" s="156">
+    <row r="108" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A108" s="127">
         <v>45279</v>
       </c>
-      <c r="B106" s="157" t="s">
+      <c r="B108" s="125" t="s">
         <v>469</v>
       </c>
-      <c r="C106" s="158" t="s">
+      <c r="C108" s="128" t="s">
         <v>470</v>
       </c>
-      <c r="D106" s="159">
+      <c r="D108" s="123">
         <v>11240</v>
       </c>
-      <c r="E106" s="159">
+      <c r="E108" s="123">
         <v>2023.2</v>
       </c>
-      <c r="F106" s="159"/>
-      <c r="G106" s="159"/>
-      <c r="H106" s="123">
+      <c r="F108" s="123"/>
+      <c r="G108" s="123"/>
+      <c r="H108" s="123">
         <v>13263</v>
       </c>
-      <c r="I106" s="159"/>
-      <c r="J106" s="157" t="s">
+      <c r="I108" s="123"/>
+      <c r="J108" s="125" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A107" s="156">
+    <row r="109" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A109" s="127">
         <v>45279</v>
       </c>
-      <c r="B107" s="157" t="s">
+      <c r="B109" s="125" t="s">
         <v>469</v>
       </c>
-      <c r="C107" s="158" t="s">
+      <c r="C109" s="128" t="s">
         <v>472</v>
       </c>
-      <c r="D107" s="159">
+      <c r="D109" s="123">
         <v>5150</v>
       </c>
-      <c r="E107" s="159">
+      <c r="E109" s="123">
         <v>927</v>
       </c>
-      <c r="F107" s="159"/>
-      <c r="G107" s="159"/>
-      <c r="H107" s="123">
-        <f t="shared" ref="H107" si="1">D107+E107+F107+G107</f>
+      <c r="F109" s="123"/>
+      <c r="G109" s="123"/>
+      <c r="H109" s="123">
+        <f t="shared" ref="H109" si="1">D109+E109+F109+G109</f>
         <v>6077</v>
       </c>
-      <c r="I107" s="159"/>
-      <c r="J107" s="157" t="s">
+      <c r="I109" s="123"/>
+      <c r="J109" s="125" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A108" s="156">
+    <row r="110" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A110" s="127">
         <v>45282</v>
       </c>
-      <c r="B108" s="157" t="s">
+      <c r="B110" s="125" t="s">
         <v>449</v>
       </c>
-      <c r="C108" s="158">
+      <c r="C110" s="128">
         <v>3262</v>
       </c>
-      <c r="D108" s="159">
+      <c r="D110" s="123">
         <v>4770</v>
       </c>
-      <c r="E108" s="159"/>
-      <c r="F108" s="159">
+      <c r="E110" s="123"/>
+      <c r="F110" s="123">
         <v>429.3</v>
       </c>
-      <c r="G108" s="159">
+      <c r="G110" s="123">
         <v>429.3</v>
       </c>
-      <c r="H108" s="123">
+      <c r="H110" s="123">
         <v>5629</v>
       </c>
-      <c r="I108" s="159"/>
-      <c r="J108" s="157" t="s">
+      <c r="I110" s="123"/>
+      <c r="J110" s="125" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A109" s="156">
+    <row r="111" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A111" s="127">
+        <v>45282</v>
+      </c>
+      <c r="B111" s="125" t="s">
+        <v>440</v>
+      </c>
+      <c r="C111" s="128">
+        <v>2881088167</v>
+      </c>
+      <c r="D111" s="123">
+        <v>800</v>
+      </c>
+      <c r="E111" s="123">
+        <v>40</v>
+      </c>
+      <c r="F111" s="123"/>
+      <c r="G111" s="123"/>
+      <c r="H111" s="123">
+        <f>D111+E111+F111+G111</f>
+        <v>840</v>
+      </c>
+      <c r="I111" s="123"/>
+      <c r="J111" s="125" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A112" s="127">
         <v>45283</v>
       </c>
-      <c r="B109" s="157" t="s">
+      <c r="B112" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="C109" s="158" t="s">
+      <c r="C112" s="128" t="s">
         <v>468</v>
       </c>
-      <c r="D109" s="159">
+      <c r="D112" s="123">
         <v>44900</v>
       </c>
-      <c r="E109" s="159">
+      <c r="E112" s="123">
         <v>8082</v>
       </c>
-      <c r="F109" s="159"/>
-      <c r="G109" s="159"/>
-      <c r="H109" s="123">
-        <f>D109+E109+F109+G109</f>
+      <c r="F112" s="123"/>
+      <c r="G112" s="123"/>
+      <c r="H112" s="123">
+        <f>D112+E112+F112+G112</f>
         <v>52982</v>
       </c>
-      <c r="I109" s="159"/>
-      <c r="J109" s="157" t="s">
+      <c r="I112" s="123"/>
+      <c r="J112" s="125" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A110" s="156">
+    <row r="113" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A113" s="127">
         <v>45286</v>
       </c>
-      <c r="B110" s="157" t="s">
+      <c r="B113" s="125" t="s">
         <v>474</v>
       </c>
-      <c r="C110" s="158" t="s">
+      <c r="C113" s="128" t="s">
         <v>489</v>
       </c>
-      <c r="D110" s="159">
+      <c r="D113" s="123">
         <v>3600</v>
-      </c>
-      <c r="E110" s="159"/>
-      <c r="F110" s="159">
-        <v>324</v>
-      </c>
-      <c r="G110" s="159">
-        <v>324</v>
-      </c>
-      <c r="H110" s="123">
-        <f>D110+E110+F110+G110</f>
-        <v>4248</v>
-      </c>
-      <c r="I110" s="159"/>
-      <c r="J110" s="157" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A111" s="156">
-        <v>45287</v>
-      </c>
-      <c r="B111" s="157" t="s">
-        <v>35</v>
-      </c>
-      <c r="C111" s="158" t="s">
-        <v>473</v>
-      </c>
-      <c r="D111" s="159">
-        <v>796</v>
-      </c>
-      <c r="E111" s="159"/>
-      <c r="F111" s="159">
-        <v>71.7</v>
-      </c>
-      <c r="G111" s="159">
-        <v>71.7</v>
-      </c>
-      <c r="H111" s="123">
-        <v>940</v>
-      </c>
-      <c r="I111" s="159"/>
-      <c r="J111" s="157" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A112" s="156">
-        <v>45287</v>
-      </c>
-      <c r="B112" s="157" t="s">
-        <v>474</v>
-      </c>
-      <c r="C112" s="158" t="s">
-        <v>475</v>
-      </c>
-      <c r="D112" s="159">
-        <v>19800</v>
-      </c>
-      <c r="E112" s="159"/>
-      <c r="F112" s="159">
-        <v>1782</v>
-      </c>
-      <c r="G112" s="159">
-        <v>1782</v>
-      </c>
-      <c r="H112" s="123">
-        <f t="shared" ref="H112:H113" si="2">D112+E112+F112+G112</f>
-        <v>23364</v>
-      </c>
-      <c r="I112" s="159"/>
-      <c r="J112" s="157" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" s="6" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A113" s="127">
-        <v>45290</v>
-      </c>
-      <c r="B113" s="125" t="s">
-        <v>382</v>
-      </c>
-      <c r="C113" s="125" t="s">
-        <v>490</v>
-      </c>
-      <c r="D113" s="123">
-        <v>110100</v>
       </c>
       <c r="E113" s="123"/>
       <c r="F113" s="123">
+        <v>324</v>
+      </c>
+      <c r="G113" s="123">
+        <v>324</v>
+      </c>
+      <c r="H113" s="123">
+        <f>D113+E113+F113+G113</f>
+        <v>4248</v>
+      </c>
+      <c r="I113" s="123"/>
+      <c r="J113" s="125" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A114" s="127">
+        <v>45287</v>
+      </c>
+      <c r="B114" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" s="128" t="s">
+        <v>473</v>
+      </c>
+      <c r="D114" s="123">
+        <v>796</v>
+      </c>
+      <c r="E114" s="123"/>
+      <c r="F114" s="123">
+        <v>71.7</v>
+      </c>
+      <c r="G114" s="123">
+        <v>71.7</v>
+      </c>
+      <c r="H114" s="123">
+        <v>940</v>
+      </c>
+      <c r="I114" s="123"/>
+      <c r="J114" s="125" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A115" s="127">
+        <v>45287</v>
+      </c>
+      <c r="B115" s="125" t="s">
+        <v>474</v>
+      </c>
+      <c r="C115" s="128" t="s">
+        <v>475</v>
+      </c>
+      <c r="D115" s="123">
+        <v>19800</v>
+      </c>
+      <c r="E115" s="123"/>
+      <c r="F115" s="123">
+        <v>1782</v>
+      </c>
+      <c r="G115" s="123">
+        <v>1782</v>
+      </c>
+      <c r="H115" s="123">
+        <f t="shared" ref="H115:H117" si="2">D115+E115+F115+G115</f>
+        <v>23364</v>
+      </c>
+      <c r="I115" s="123"/>
+      <c r="J115" s="125" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="6" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A116" s="127">
+        <v>45290</v>
+      </c>
+      <c r="B116" s="125" t="s">
+        <v>382</v>
+      </c>
+      <c r="C116" s="125" t="s">
+        <v>490</v>
+      </c>
+      <c r="D116" s="123">
+        <v>110100</v>
+      </c>
+      <c r="E116" s="123"/>
+      <c r="F116" s="123">
         <v>11729</v>
       </c>
-      <c r="G113" s="123">
+      <c r="G116" s="123">
         <v>11729</v>
       </c>
-      <c r="H113" s="123">
+      <c r="H116" s="123">
         <f t="shared" si="2"/>
         <v>133558</v>
       </c>
-      <c r="I113" s="123"/>
-      <c r="J113" s="125" t="s">
+      <c r="I116" s="123"/>
+      <c r="J116" s="125" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A114" s="180" t="s">
+    <row r="117" spans="1:10" s="6" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A117" s="127">
+        <v>45291</v>
+      </c>
+      <c r="B117" s="125" t="s">
+        <v>92</v>
+      </c>
+      <c r="C117" s="125" t="s">
+        <v>502</v>
+      </c>
+      <c r="D117" s="123">
+        <v>50</v>
+      </c>
+      <c r="E117" s="123"/>
+      <c r="F117" s="123">
+        <v>4.5</v>
+      </c>
+      <c r="G117" s="123">
+        <v>4.5</v>
+      </c>
+      <c r="H117" s="123">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="I117" s="123"/>
+      <c r="J117" s="125" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A118" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="180"/>
-      <c r="C114" s="180"/>
-      <c r="D114" s="160">
-        <f>SUM(D93:D113)</f>
-        <v>360759</v>
-      </c>
-      <c r="E114" s="160">
-        <f>SUM(E93:E113)</f>
-        <v>37470.089999999997</v>
-      </c>
-      <c r="F114" s="160">
-        <f>SUM(F93:F113)</f>
-        <v>15552.98</v>
-      </c>
-      <c r="G114" s="160">
-        <f>SUM(G93:G113)</f>
-        <v>15552.98</v>
-      </c>
-      <c r="H114" s="160">
-        <f>SUM(H93:H113)</f>
-        <v>429337</v>
-      </c>
-      <c r="I114" s="160"/>
-      <c r="J114" s="160"/>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116" s="181"/>
-      <c r="B116" s="181"/>
-      <c r="C116" s="181"/>
-      <c r="D116" s="181"/>
-      <c r="E116" s="181"/>
+      <c r="B118" s="176"/>
+      <c r="C118" s="176"/>
+      <c r="D118" s="155">
+        <f>SUM(D93:D117)</f>
+        <v>363281</v>
+      </c>
+      <c r="E118" s="155">
+        <f>SUM(E93:E117)</f>
+        <v>37688.089999999997</v>
+      </c>
+      <c r="F118" s="155">
+        <f>SUM(F93:F117)</f>
+        <v>15557.48</v>
+      </c>
+      <c r="G118" s="155">
+        <f>SUM(G93:G117)</f>
+        <v>15557.48</v>
+      </c>
+      <c r="H118" s="155">
+        <f>SUM(H93:H117)</f>
+        <v>432086</v>
+      </c>
+      <c r="I118" s="155"/>
+      <c r="J118" s="155"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="177"/>
+      <c r="B120" s="177"/>
+      <c r="C120" s="177"/>
+      <c r="D120" s="177"/>
+      <c r="E120" s="177"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:B119"/>
+  <autoFilter ref="B2:B123"/>
   <mergeCells count="16">
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A84:H84"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A83:J83"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A84:H84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12219,10 +12350,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J91"/>
+  <dimension ref="A2:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12241,30 +12372,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="164" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="171"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="166"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="168"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="163"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -12401,11 +12532,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="176" t="s">
+      <c r="A9" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171"/>
       <c r="D9" s="33">
         <f>SUM(D5:D8)</f>
         <v>2152003</v>
@@ -12430,18 +12561,18 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="167"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="168"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="163"/>
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1">
       <c r="A11" s="34" t="s">
@@ -12531,7 +12662,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="161" customFormat="1" ht="13.8" customHeight="1">
+    <row r="14" spans="1:10" s="156" customFormat="1" ht="13.8" customHeight="1">
       <c r="A14" s="36">
         <v>45294</v>
       </c>
@@ -12558,7 +12689,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="161" customFormat="1" ht="13.8" customHeight="1">
+    <row r="15" spans="1:10" s="156" customFormat="1" ht="13.8" customHeight="1">
       <c r="A15" s="11">
         <v>45294</v>
       </c>
@@ -12632,7 +12763,7 @@
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
       <c r="H17" s="12">
-        <f t="shared" ref="H17:H25" si="1">D17+E17+F17+G17</f>
+        <f t="shared" ref="H17:H20" si="1">D17+E17+F17+G17</f>
         <v>146733</v>
       </c>
       <c r="I17" s="41"/>
@@ -12721,317 +12852,302 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12">
-        <f t="shared" si="1"/>
+    <row r="21" spans="1:10" ht="21">
+      <c r="A21" s="174" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="174"/>
+      <c r="C21" s="174"/>
+      <c r="D21" s="42">
+        <f>SUM(D12:D20)</f>
+        <v>260335.69</v>
+      </c>
+      <c r="E21" s="42">
+        <f>SUM(E12:E20)</f>
+        <v>44058</v>
+      </c>
+      <c r="F21" s="42">
+        <f>SUM(F12:F20)</f>
+        <v>1400.91</v>
+      </c>
+      <c r="G21" s="42">
+        <f>SUM(G12:G20)</f>
+        <v>1400.91</v>
+      </c>
+      <c r="H21" s="43">
+        <f>SUM(H12:H20)</f>
+        <v>307196</v>
+      </c>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+    </row>
+    <row r="23" spans="1:10" ht="21">
+      <c r="A23" s="164" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23" s="165"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="166"/>
+    </row>
+    <row r="24" spans="1:10" ht="21">
+      <c r="A24" s="161" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="162"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="31.2">
+      <c r="A25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.6">
+      <c r="A26" s="24"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.6">
+      <c r="A27" s="24"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.6">
+      <c r="A28" s="24"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.6">
+      <c r="A29" s="24"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.6">
+      <c r="A30" s="24"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="21">
+      <c r="A31" s="171" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="171"/>
+      <c r="C31" s="171"/>
+      <c r="D31" s="33">
+        <f>SUM(D26:D30)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12">
-        <f t="shared" si="1"/>
+      <c r="E31" s="33">
+        <f>SUM(E26:E30)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12">
-        <f t="shared" si="1"/>
+      <c r="F31" s="33">
+        <f>SUM(F26:F30)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12">
-        <f t="shared" si="1"/>
+      <c r="G31" s="33">
+        <f>SUM(G26:G30)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.6">
-      <c r="A25" s="11"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12">
-        <f t="shared" si="1"/>
+      <c r="H31" s="33">
+        <f>SUM(H26:H30)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="21"/>
-    </row>
-    <row r="26" spans="1:10" ht="21">
-      <c r="A26" s="178" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="178"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="42">
-        <f>SUM(D12:D25)</f>
-        <v>260335.69</v>
-      </c>
-      <c r="E26" s="42">
-        <f>SUM(E12:E25)</f>
-        <v>44058</v>
-      </c>
-      <c r="F26" s="42">
-        <f>SUM(F12:F25)</f>
-        <v>1400.91</v>
-      </c>
-      <c r="G26" s="42">
-        <f>SUM(G12:G25)</f>
-        <v>1400.91</v>
-      </c>
-      <c r="H26" s="43">
-        <f>SUM(H12:H25)</f>
-        <v>307196</v>
-      </c>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-    </row>
-    <row r="28" spans="1:10" ht="21">
-      <c r="A28" s="169" t="s">
-        <v>234</v>
-      </c>
-      <c r="B28" s="170"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="171"/>
-    </row>
-    <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" ht="31.2">
-      <c r="A30" s="3" t="s">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="21">
+      <c r="A32" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="162"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="163"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B33" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="C33" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="E33" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G33" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H33" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.6">
-      <c r="A31" s="24"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.6">
-      <c r="A32" s="24"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="24"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="2"/>
+      <c r="I33" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="35" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
       <c r="A34" s="24"/>
       <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="2"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="1:10" ht="15.6">
       <c r="A35" s="24"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="176" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="33">
-        <f>SUM(D31:D35)</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="33">
-        <f>SUM(E31:E35)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="33">
-        <f>SUM(F31:F35)</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="33">
-        <f>SUM(G31:G35)</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="33">
-        <f>SUM(H31:H35)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" ht="21">
-      <c r="A37" s="166" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="168"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="35" t="s">
-        <v>15</v>
-      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10" ht="19.8" customHeight="1">
+      <c r="A36" s="24"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="48"/>
+    </row>
+    <row r="37" spans="1:10" ht="18" customHeight="1">
+      <c r="A37" s="24"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="48"/>
+    </row>
+    <row r="38" spans="1:10" ht="18" customHeight="1">
+      <c r="A38" s="24"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="45"/>
     </row>
     <row r="39" spans="1:10" ht="15.6">
       <c r="A39" s="24"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
       <c r="H39" s="47"/>
       <c r="I39" s="12"/>
-      <c r="J39" s="21"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40" spans="1:10" ht="15.6">
       <c r="A40" s="24"/>
@@ -13045,7 +13161,7 @@
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="19.8" customHeight="1">
+    <row r="41" spans="1:10" ht="15.6">
       <c r="A41" s="24"/>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
@@ -13057,32 +13173,32 @@
       <c r="I41" s="49"/>
       <c r="J41" s="48"/>
     </row>
-    <row r="42" spans="1:10" ht="18" customHeight="1">
-      <c r="A42" s="24"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="48"/>
-    </row>
-    <row r="43" spans="1:10" ht="18" customHeight="1">
-      <c r="A43" s="24"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
+    <row r="42" spans="1:10" ht="15.6">
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.6">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="47"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="45"/>
+      <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:10" ht="15.6">
-      <c r="A44" s="24"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -13094,7 +13210,7 @@
       <c r="J44" s="12"/>
     </row>
     <row r="45" spans="1:10" ht="15.6">
-      <c r="A45" s="24"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -13106,16 +13222,16 @@
       <c r="J45" s="12"/>
     </row>
     <row r="46" spans="1:10" ht="15.6">
-      <c r="A46" s="24"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="48"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="45"/>
     </row>
     <row r="47" spans="1:10" ht="15.6">
       <c r="A47" s="11"/>
@@ -13143,32 +13259,32 @@
     </row>
     <row r="49" spans="1:10" ht="15.6">
       <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="47"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="47"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="11"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -13203,19 +13319,19 @@
     </row>
     <row r="54" spans="1:10" ht="15.6">
       <c r="A54" s="11"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="47"/>
       <c r="I54" s="12"/>
-      <c r="J54" s="21"/>
+      <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:10" ht="15.6">
       <c r="A55" s="11"/>
-      <c r="B55" s="21"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="21"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -13226,296 +13342,296 @@
       <c r="J55" s="21"/>
     </row>
     <row r="56" spans="1:10" ht="15.6">
-      <c r="A56" s="11"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
       <c r="H56" s="47"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="45"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.6">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.6">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.6">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.6">
-      <c r="A60" s="11"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="21"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.6">
-      <c r="A61" s="28"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="29"/>
-    </row>
-    <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="179" t="s">
+      <c r="I56" s="31"/>
+      <c r="J56" s="29"/>
+    </row>
+    <row r="57" spans="1:10" ht="21">
+      <c r="A57" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="179"/>
-      <c r="C62" s="179"/>
-      <c r="D62" s="51">
-        <f>SUM(D39:D61)</f>
+      <c r="B57" s="172"/>
+      <c r="C57" s="172"/>
+      <c r="D57" s="51">
+        <f>SUM(D34:D56)</f>
         <v>0</v>
       </c>
-      <c r="E62" s="51">
-        <f>SUM(E39:E61)</f>
+      <c r="E57" s="51">
+        <f>SUM(E34:E56)</f>
         <v>0</v>
       </c>
-      <c r="F62" s="51">
-        <f>SUM(F39:F61)</f>
+      <c r="F57" s="51">
+        <f>SUM(F34:F56)</f>
         <v>0</v>
       </c>
-      <c r="G62" s="51">
-        <f>SUM(G39:G61)</f>
+      <c r="G57" s="51">
+        <f>SUM(G34:G56)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="52">
-        <f>SUM(H39:H61)</f>
+      <c r="H57" s="52">
+        <f>SUM(H34:H56)</f>
         <v>0</v>
       </c>
-      <c r="I62" s="51"/>
-      <c r="J62" s="51"/>
-    </row>
-    <row r="64" spans="1:10" ht="21">
-      <c r="A64" s="169" t="s">
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+    </row>
+    <row r="59" spans="1:10" ht="21">
+      <c r="A59" s="164" t="s">
         <v>235</v>
       </c>
-      <c r="B64" s="170"/>
-      <c r="C64" s="170"/>
-      <c r="D64" s="170"/>
-      <c r="E64" s="170"/>
-      <c r="F64" s="170"/>
-      <c r="G64" s="170"/>
-      <c r="H64" s="170"/>
-      <c r="I64" s="170"/>
-      <c r="J64" s="171"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
+      <c r="E59" s="165"/>
+      <c r="F59" s="165"/>
+      <c r="G59" s="165"/>
+      <c r="H59" s="165"/>
+      <c r="I59" s="165"/>
+      <c r="J59" s="166"/>
+    </row>
+    <row r="60" spans="1:10" ht="21">
+      <c r="A60" s="161" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="162"/>
+      <c r="C60" s="162"/>
+      <c r="D60" s="162"/>
+      <c r="E60" s="162"/>
+      <c r="F60" s="162"/>
+      <c r="G60" s="162"/>
+      <c r="H60" s="163"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" ht="31.2">
+      <c r="A61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.6">
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.6">
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.6">
+      <c r="A64" s="20"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="167"/>
-      <c r="C65" s="167"/>
-      <c r="D65" s="167"/>
-      <c r="E65" s="167"/>
-      <c r="F65" s="167"/>
-      <c r="G65" s="167"/>
-      <c r="H65" s="168"/>
+      <c r="A65" s="171" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="171"/>
+      <c r="C65" s="171"/>
+      <c r="D65" s="33">
+        <f>SUM(D62:D64)</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="33">
+        <f>SUM(E62:E64)</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="33">
+        <f>SUM(F62:F64)</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="33">
+        <f>SUM(G62:G64)</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="33">
+        <f>SUM(H62:H64)</f>
+        <v>0</v>
+      </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" ht="31.2">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:10" ht="21">
+      <c r="A66" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="162"/>
+      <c r="C66" s="162"/>
+      <c r="D66" s="162"/>
+      <c r="E66" s="162"/>
+      <c r="F66" s="162"/>
+      <c r="G66" s="162"/>
+      <c r="H66" s="162"/>
+      <c r="I66" s="162"/>
+      <c r="J66" s="163"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B67" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="3" t="s">
+      <c r="C67" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" s="3" t="s">
+      <c r="E67" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G67" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H67" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.6">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
+      <c r="I67" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" s="54" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="68" spans="1:10" ht="15.6">
-      <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
+      <c r="A68" s="55"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
     </row>
     <row r="69" spans="1:10" ht="15.6">
-      <c r="A69" s="20"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-    </row>
-    <row r="70" spans="1:10" ht="21">
-      <c r="A70" s="176" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" s="176"/>
-      <c r="C70" s="176"/>
-      <c r="D70" s="33">
-        <f>SUM(D67:D69)</f>
-        <v>0</v>
-      </c>
-      <c r="E70" s="33">
-        <f>SUM(E67:E69)</f>
-        <v>0</v>
-      </c>
-      <c r="F70" s="33">
-        <f>SUM(F67:F69)</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="33">
-        <f>SUM(G67:G69)</f>
-        <v>0</v>
-      </c>
-      <c r="H70" s="33">
-        <f>SUM(H67:H69)</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="166" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" s="167"/>
-      <c r="C71" s="167"/>
-      <c r="D71" s="167"/>
-      <c r="E71" s="167"/>
-      <c r="F71" s="167"/>
-      <c r="G71" s="167"/>
-      <c r="H71" s="167"/>
-      <c r="I71" s="167"/>
-      <c r="J71" s="168"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="G72" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="J72" s="54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="15.6">
-      <c r="A73" s="55"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="56"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.6">
-      <c r="A74" s="55"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-      <c r="G74" s="56"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56"/>
+      <c r="A69" s="55"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.6">
+      <c r="A70" s="57"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="58"/>
+      <c r="J70" s="58"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.6">
+      <c r="A71" s="57"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="58"/>
+      <c r="J71" s="58"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.6">
+      <c r="A72" s="57"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
+      <c r="J72" s="58"/>
+    </row>
+    <row r="73" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A73" s="11"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A74" s="11"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="59"/>
     </row>
     <row r="75" spans="1:10" ht="15.6">
       <c r="A75" s="57"/>
@@ -13525,7 +13641,7 @@
       <c r="E75" s="58"/>
       <c r="F75" s="58"/>
       <c r="G75" s="58"/>
-      <c r="H75" s="56"/>
+      <c r="H75" s="58"/>
       <c r="I75" s="58"/>
       <c r="J75" s="58"/>
     </row>
@@ -13553,208 +13669,148 @@
       <c r="I77" s="58"/>
       <c r="J77" s="58"/>
     </row>
-    <row r="78" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A78" s="11"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="21"/>
-    </row>
-    <row r="79" spans="1:10" ht="16.2" thickBot="1">
+    <row r="78" spans="1:10" ht="15.6">
+      <c r="A78" s="57"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="58"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="58"/>
+      <c r="I78" s="58"/>
+      <c r="J78" s="58"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.6">
       <c r="A79" s="11"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
       <c r="H79" s="12"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="59"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="1:10" ht="15.6">
-      <c r="A80" s="57"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="58"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="58"/>
-      <c r="G80" s="58"/>
-      <c r="H80" s="58"/>
-      <c r="I80" s="58"/>
-      <c r="J80" s="58"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="30"/>
     </row>
     <row r="81" spans="1:10" ht="15.6">
-      <c r="A81" s="57"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="58"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="58"/>
-      <c r="I81" s="58"/>
-      <c r="J81" s="58"/>
+      <c r="A81" s="60"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="61"/>
     </row>
     <row r="82" spans="1:10" ht="15.6">
-      <c r="A82" s="57"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="58"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
       <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="63"/>
     </row>
     <row r="83" spans="1:10" ht="15.6">
-      <c r="A83" s="57"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="58"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="1:10" ht="15.6">
-      <c r="A84" s="11"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="21"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.6">
-      <c r="A85" s="28"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="30"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.6">
-      <c r="A86" s="60"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="61"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="61"/>
-      <c r="I86" s="61"/>
-      <c r="J86" s="61"/>
-    </row>
-    <row r="87" spans="1:10" ht="15.6">
-      <c r="A87" s="36"/>
-      <c r="B87" s="62"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="58"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="63"/>
-    </row>
-    <row r="88" spans="1:10" ht="15.6">
-      <c r="A88" s="11"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="21"/>
-    </row>
-    <row r="89" spans="1:10" ht="15.6">
-      <c r="A89" s="36"/>
-      <c r="B89" s="62"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="62"/>
-    </row>
-    <row r="90" spans="1:10" ht="15">
-      <c r="A90" s="64"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="67"/>
-      <c r="J90" s="66"/>
-    </row>
-    <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="177" t="s">
+      <c r="A84" s="36"/>
+      <c r="B84" s="62"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="62"/>
+    </row>
+    <row r="85" spans="1:10" ht="15">
+      <c r="A85" s="64"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="67"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="67"/>
+      <c r="J85" s="66"/>
+    </row>
+    <row r="86" spans="1:10" ht="21">
+      <c r="A86" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B91" s="177"/>
-      <c r="C91" s="177"/>
-      <c r="D91" s="68">
-        <f>SUM(D73:D90)</f>
+      <c r="B86" s="173"/>
+      <c r="C86" s="173"/>
+      <c r="D86" s="68">
+        <f>SUM(D68:D85)</f>
         <v>0</v>
       </c>
-      <c r="E91" s="68">
-        <f>SUM(E73:E90)</f>
+      <c r="E86" s="68">
+        <f>SUM(E68:E85)</f>
         <v>0</v>
       </c>
-      <c r="F91" s="68">
-        <f>SUM(F73:F90)</f>
+      <c r="F86" s="68">
+        <f>SUM(F68:F85)</f>
         <v>0</v>
       </c>
-      <c r="G91" s="68">
-        <f>SUM(G73:G90)</f>
+      <c r="G86" s="68">
+        <f>SUM(G68:G85)</f>
         <v>0</v>
       </c>
-      <c r="H91" s="68">
-        <f>SUM(H73:H90)</f>
+      <c r="H86" s="68">
+        <f>SUM(H68:H85)</f>
         <v>0</v>
       </c>
-      <c r="I91" s="68"/>
-      <c r="J91" s="68"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A23:J23"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Apr-23 to Jun-23" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="508">
   <si>
     <t>APRIL</t>
   </si>
@@ -1536,6 +1536,21 @@
   </si>
   <si>
     <t>24301C0000133043</t>
+  </si>
+  <si>
+    <t>b23-24MQ403</t>
+  </si>
+  <si>
+    <t>b23-24AQ404</t>
+  </si>
+  <si>
+    <t>b23-24MQ405</t>
+  </si>
+  <si>
+    <t>b23-24MQ406</t>
+  </si>
+  <si>
+    <t>b22-23MQ433</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +1846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2301,6 +2316,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2364,23 +2400,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2664,7 +2685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J290"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
@@ -2684,30 +2705,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="166"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="173"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="163"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="170"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -2927,11 +2948,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="167" t="s">
+      <c r="A12" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="167"/>
-      <c r="C12" s="167"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="174"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -2956,18 +2977,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="161" t="s">
+      <c r="A13" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="162"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="162"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="163"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="170"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -3754,11 +3775,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="157" t="s">
+      <c r="A42" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="158"/>
-      <c r="C42" s="159"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="166"/>
       <c r="D42" s="26">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -3783,30 +3804,30 @@
       <c r="J42" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="164" t="s">
+      <c r="A44" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="165"/>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
-      <c r="E44" s="165"/>
-      <c r="F44" s="165"/>
-      <c r="G44" s="165"/>
-      <c r="H44" s="165"/>
-      <c r="I44" s="165"/>
-      <c r="J44" s="166"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="172"/>
+      <c r="D44" s="172"/>
+      <c r="E44" s="172"/>
+      <c r="F44" s="172"/>
+      <c r="G44" s="172"/>
+      <c r="H44" s="172"/>
+      <c r="I44" s="172"/>
+      <c r="J44" s="173"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="161" t="s">
+      <c r="A45" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="162"/>
-      <c r="C45" s="162"/>
-      <c r="D45" s="162"/>
-      <c r="E45" s="162"/>
-      <c r="F45" s="162"/>
-      <c r="G45" s="162"/>
-      <c r="H45" s="163"/>
+      <c r="B45" s="169"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="169"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="169"/>
+      <c r="G45" s="169"/>
+      <c r="H45" s="170"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -4082,11 +4103,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="160" t="s">
+      <c r="A56" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="160"/>
-      <c r="C56" s="160"/>
+      <c r="B56" s="167"/>
+      <c r="C56" s="167"/>
       <c r="D56" s="27">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -4111,18 +4132,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="161" t="s">
+      <c r="A57" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="162"/>
-      <c r="C57" s="162"/>
-      <c r="D57" s="162"/>
-      <c r="E57" s="162"/>
-      <c r="F57" s="162"/>
-      <c r="G57" s="162"/>
-      <c r="H57" s="162"/>
-      <c r="I57" s="162"/>
-      <c r="J57" s="163"/>
+      <c r="B57" s="169"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
+      <c r="E57" s="169"/>
+      <c r="F57" s="169"/>
+      <c r="G57" s="169"/>
+      <c r="H57" s="169"/>
+      <c r="I57" s="169"/>
+      <c r="J57" s="170"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -4960,11 +4981,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="168" t="s">
+      <c r="A88" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="169"/>
-      <c r="C88" s="170"/>
+      <c r="B88" s="176"/>
+      <c r="C88" s="177"/>
       <c r="D88" s="27">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -4989,30 +5010,30 @@
       <c r="J88" s="27"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="164" t="s">
+      <c r="A90" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="165"/>
-      <c r="C90" s="165"/>
-      <c r="D90" s="165"/>
-      <c r="E90" s="165"/>
-      <c r="F90" s="165"/>
-      <c r="G90" s="165"/>
-      <c r="H90" s="165"/>
-      <c r="I90" s="165"/>
-      <c r="J90" s="166"/>
+      <c r="B90" s="172"/>
+      <c r="C90" s="172"/>
+      <c r="D90" s="172"/>
+      <c r="E90" s="172"/>
+      <c r="F90" s="172"/>
+      <c r="G90" s="172"/>
+      <c r="H90" s="172"/>
+      <c r="I90" s="172"/>
+      <c r="J90" s="173"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="161" t="s">
+      <c r="A91" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="162"/>
-      <c r="C91" s="162"/>
-      <c r="D91" s="162"/>
-      <c r="E91" s="162"/>
-      <c r="F91" s="162"/>
-      <c r="G91" s="162"/>
-      <c r="H91" s="163"/>
+      <c r="B91" s="169"/>
+      <c r="C91" s="169"/>
+      <c r="D91" s="169"/>
+      <c r="E91" s="169"/>
+      <c r="F91" s="169"/>
+      <c r="G91" s="169"/>
+      <c r="H91" s="170"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -5234,11 +5255,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="160" t="s">
+      <c r="A100" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="160"/>
-      <c r="C100" s="160"/>
+      <c r="B100" s="167"/>
+      <c r="C100" s="167"/>
       <c r="D100" s="27">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -5263,18 +5284,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="161" t="s">
+      <c r="A101" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="162"/>
-      <c r="C101" s="162"/>
-      <c r="D101" s="162"/>
-      <c r="E101" s="162"/>
-      <c r="F101" s="162"/>
-      <c r="G101" s="162"/>
-      <c r="H101" s="162"/>
-      <c r="I101" s="162"/>
-      <c r="J101" s="163"/>
+      <c r="B101" s="169"/>
+      <c r="C101" s="169"/>
+      <c r="D101" s="169"/>
+      <c r="E101" s="169"/>
+      <c r="F101" s="169"/>
+      <c r="G101" s="169"/>
+      <c r="H101" s="169"/>
+      <c r="I101" s="169"/>
+      <c r="J101" s="170"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -5929,11 +5950,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="157" t="s">
+      <c r="A125" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="158"/>
-      <c r="C125" s="159"/>
+      <c r="B125" s="165"/>
+      <c r="C125" s="166"/>
       <c r="D125" s="26">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -6172,7 +6193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J114"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -6192,30 +6213,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="166"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="173"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="163"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="170"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6302,11 +6323,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="171" t="s">
+      <c r="A7" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
       <c r="D7" s="33">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -6331,18 +6352,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="163"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="170"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -7000,11 +7021,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="172" t="s">
+      <c r="A32" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="172"/>
-      <c r="C32" s="172"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="179"/>
       <c r="D32" s="51">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -7034,30 +7055,30 @@
       <c r="C33" s="44"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="164" t="s">
+      <c r="A34" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="165"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="165"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="166"/>
+      <c r="B34" s="172"/>
+      <c r="C34" s="172"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="173"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="161" t="s">
+      <c r="A35" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="162"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="163"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="169"/>
+      <c r="E35" s="169"/>
+      <c r="F35" s="169"/>
+      <c r="G35" s="169"/>
+      <c r="H35" s="170"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
@@ -7198,11 +7219,11 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="171" t="s">
+      <c r="A41" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="171"/>
-      <c r="C41" s="171"/>
+      <c r="B41" s="178"/>
+      <c r="C41" s="178"/>
       <c r="D41" s="33">
         <f>SUM(D37:D40)</f>
         <v>613000</v>
@@ -7227,18 +7248,18 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="161" t="s">
+      <c r="A42" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="162"/>
-      <c r="C42" s="162"/>
-      <c r="D42" s="162"/>
-      <c r="E42" s="162"/>
-      <c r="F42" s="162"/>
-      <c r="G42" s="162"/>
-      <c r="H42" s="162"/>
-      <c r="I42" s="162"/>
-      <c r="J42" s="163"/>
+      <c r="B42" s="169"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="169"/>
+      <c r="E42" s="169"/>
+      <c r="F42" s="169"/>
+      <c r="G42" s="169"/>
+      <c r="H42" s="169"/>
+      <c r="I42" s="169"/>
+      <c r="J42" s="170"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
@@ -8184,11 +8205,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="174" t="s">
+      <c r="A77" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="174"/>
-      <c r="C77" s="174"/>
+      <c r="B77" s="181"/>
+      <c r="C77" s="181"/>
       <c r="D77" s="42">
         <f>SUM(D44:D76)</f>
         <v>385770.4</v>
@@ -8231,30 +8252,30 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="164" t="s">
+      <c r="A79" s="171" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="165"/>
-      <c r="C79" s="165"/>
-      <c r="D79" s="165"/>
-      <c r="E79" s="165"/>
-      <c r="F79" s="165"/>
-      <c r="G79" s="165"/>
-      <c r="H79" s="165"/>
-      <c r="I79" s="165"/>
-      <c r="J79" s="166"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="172"/>
+      <c r="E79" s="172"/>
+      <c r="F79" s="172"/>
+      <c r="G79" s="172"/>
+      <c r="H79" s="172"/>
+      <c r="I79" s="172"/>
+      <c r="J79" s="173"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="161" t="s">
+      <c r="A80" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="162"/>
-      <c r="C80" s="162"/>
-      <c r="D80" s="162"/>
-      <c r="E80" s="162"/>
-      <c r="F80" s="162"/>
-      <c r="G80" s="162"/>
-      <c r="H80" s="163"/>
+      <c r="B80" s="169"/>
+      <c r="C80" s="169"/>
+      <c r="D80" s="169"/>
+      <c r="E80" s="169"/>
+      <c r="F80" s="169"/>
+      <c r="G80" s="169"/>
+      <c r="H80" s="170"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
@@ -8368,11 +8389,11 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="171" t="s">
+      <c r="A85" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="171"/>
-      <c r="C85" s="171"/>
+      <c r="B85" s="178"/>
+      <c r="C85" s="178"/>
       <c r="D85" s="33">
         <f>SUM(D82:D84)</f>
         <v>204284</v>
@@ -8397,18 +8418,18 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="161" t="s">
+      <c r="A86" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="162"/>
-      <c r="C86" s="162"/>
-      <c r="D86" s="162"/>
-      <c r="E86" s="162"/>
-      <c r="F86" s="162"/>
-      <c r="G86" s="162"/>
-      <c r="H86" s="162"/>
-      <c r="I86" s="162"/>
-      <c r="J86" s="163"/>
+      <c r="B86" s="169"/>
+      <c r="C86" s="169"/>
+      <c r="D86" s="169"/>
+      <c r="E86" s="169"/>
+      <c r="F86" s="169"/>
+      <c r="G86" s="169"/>
+      <c r="H86" s="169"/>
+      <c r="I86" s="169"/>
+      <c r="J86" s="170"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="53" t="s">
@@ -9163,11 +9184,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="173" t="s">
+      <c r="A114" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="173"/>
-      <c r="C114" s="173"/>
+      <c r="B114" s="180"/>
+      <c r="C114" s="180"/>
       <c r="D114" s="68">
         <f>SUM(D88:D113)</f>
         <v>438291.73</v>
@@ -9219,8 +9240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9239,30 +9260,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="171" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="166"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="173"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="163"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="170"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -9307,11 +9328,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" ht="21">
-      <c r="A6" s="167" t="s">
+      <c r="A6" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
       <c r="D6" s="15">
         <f>SUM(D5:D5)</f>
         <v>0</v>
@@ -9336,18 +9357,18 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="21">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="163"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="16" t="s">
@@ -9956,11 +9977,11 @@
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="175" t="s">
+      <c r="A29" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="175"/>
-      <c r="C29" s="175"/>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -9986,30 +10007,30 @@
       <c r="K29" s="69"/>
     </row>
     <row r="31" spans="1:11" ht="21">
-      <c r="A31" s="164" t="s">
+      <c r="A31" s="171" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="165"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="165"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="166"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="172"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="173"/>
     </row>
     <row r="32" spans="1:11" ht="21">
-      <c r="A32" s="161" t="s">
+      <c r="A32" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="163"/>
+      <c r="B32" s="169"/>
+      <c r="C32" s="169"/>
+      <c r="D32" s="169"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="169"/>
+      <c r="H32" s="170"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -10255,11 +10276,11 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="160" t="s">
+      <c r="A42" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="160"/>
-      <c r="C42" s="160"/>
+      <c r="B42" s="167"/>
+      <c r="C42" s="167"/>
       <c r="D42" s="27">
         <f>SUM(D34:D41)</f>
         <v>983754</v>
@@ -10284,18 +10305,18 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="161" t="s">
+      <c r="A43" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="162"/>
-      <c r="C43" s="162"/>
-      <c r="D43" s="162"/>
-      <c r="E43" s="162"/>
-      <c r="F43" s="162"/>
-      <c r="G43" s="162"/>
-      <c r="H43" s="162"/>
-      <c r="I43" s="162"/>
-      <c r="J43" s="163"/>
+      <c r="B43" s="169"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="169"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="169"/>
+      <c r="G43" s="169"/>
+      <c r="H43" s="169"/>
+      <c r="I43" s="169"/>
+      <c r="J43" s="170"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1">
       <c r="A44" s="16" t="s">
@@ -11325,11 +11346,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A81" s="160" t="s">
+      <c r="A81" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="160"/>
-      <c r="C81" s="160"/>
+      <c r="B81" s="167"/>
+      <c r="C81" s="167"/>
       <c r="D81" s="27">
         <f>SUM(D45:D80)</f>
         <v>599787.05000000005</v>
@@ -11354,30 +11375,30 @@
       <c r="J81" s="27"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="164" t="s">
+      <c r="A83" s="171" t="s">
         <v>232</v>
       </c>
-      <c r="B83" s="165"/>
-      <c r="C83" s="165"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="165"/>
-      <c r="F83" s="165"/>
-      <c r="G83" s="165"/>
-      <c r="H83" s="165"/>
-      <c r="I83" s="165"/>
-      <c r="J83" s="166"/>
+      <c r="B83" s="172"/>
+      <c r="C83" s="172"/>
+      <c r="D83" s="172"/>
+      <c r="E83" s="172"/>
+      <c r="F83" s="172"/>
+      <c r="G83" s="172"/>
+      <c r="H83" s="172"/>
+      <c r="I83" s="172"/>
+      <c r="J83" s="173"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="161" t="s">
+      <c r="A84" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="162"/>
-      <c r="C84" s="162"/>
-      <c r="D84" s="162"/>
-      <c r="E84" s="162"/>
-      <c r="F84" s="162"/>
-      <c r="G84" s="162"/>
-      <c r="H84" s="163"/>
+      <c r="B84" s="169"/>
+      <c r="C84" s="169"/>
+      <c r="D84" s="169"/>
+      <c r="E84" s="169"/>
+      <c r="F84" s="169"/>
+      <c r="G84" s="169"/>
+      <c r="H84" s="170"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
@@ -11522,11 +11543,11 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A90" s="160" t="s">
+      <c r="A90" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="160"/>
-      <c r="C90" s="160"/>
+      <c r="B90" s="167"/>
+      <c r="C90" s="167"/>
       <c r="D90" s="27">
         <f>SUM(D86:D89)</f>
         <v>297318</v>
@@ -11551,18 +11572,18 @@
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="161" t="s">
+      <c r="A91" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="162"/>
-      <c r="C91" s="162"/>
-      <c r="D91" s="162"/>
-      <c r="E91" s="162"/>
-      <c r="F91" s="162"/>
-      <c r="G91" s="162"/>
-      <c r="H91" s="162"/>
-      <c r="I91" s="162"/>
-      <c r="J91" s="163"/>
+      <c r="B91" s="169"/>
+      <c r="C91" s="169"/>
+      <c r="D91" s="169"/>
+      <c r="E91" s="169"/>
+      <c r="F91" s="169"/>
+      <c r="G91" s="169"/>
+      <c r="H91" s="169"/>
+      <c r="I91" s="169"/>
+      <c r="J91" s="170"/>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1">
       <c r="A92" s="16" t="s">
@@ -11706,168 +11727,168 @@
       </c>
     </row>
     <row r="97" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A97" s="178">
+      <c r="A97" s="158">
         <v>45265</v>
       </c>
-      <c r="B97" s="179" t="s">
+      <c r="B97" s="159" t="s">
         <v>246</v>
       </c>
-      <c r="C97" s="179">
+      <c r="C97" s="159">
         <v>4279</v>
       </c>
-      <c r="D97" s="179">
+      <c r="D97" s="159">
         <v>4516</v>
       </c>
-      <c r="E97" s="179"/>
-      <c r="F97" s="179">
+      <c r="E97" s="159"/>
+      <c r="F97" s="159">
         <v>406</v>
       </c>
-      <c r="G97" s="179">
+      <c r="G97" s="159">
         <v>406</v>
       </c>
-      <c r="H97" s="179">
+      <c r="H97" s="159">
         <f t="shared" si="0"/>
         <v>5328</v>
       </c>
-      <c r="I97" s="179"/>
-      <c r="J97" s="179" t="s">
+      <c r="I97" s="159"/>
+      <c r="J97" s="159" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A98" s="178">
+      <c r="A98" s="158">
         <v>45265</v>
       </c>
-      <c r="B98" s="182" t="s">
+      <c r="B98" s="162" t="s">
         <v>500</v>
       </c>
-      <c r="C98" s="183">
+      <c r="C98" s="163">
         <v>2881087170</v>
       </c>
-      <c r="D98" s="179">
+      <c r="D98" s="159">
         <v>320</v>
       </c>
-      <c r="E98" s="179">
+      <c r="E98" s="159">
         <v>16</v>
       </c>
-      <c r="F98" s="179"/>
-      <c r="G98" s="179"/>
-      <c r="H98" s="179">
+      <c r="F98" s="159"/>
+      <c r="G98" s="159"/>
+      <c r="H98" s="159">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
-      <c r="I98" s="179"/>
-      <c r="J98" s="182" t="s">
+      <c r="I98" s="159"/>
+      <c r="J98" s="162" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A99" s="178">
+      <c r="A99" s="158">
         <v>45267</v>
       </c>
-      <c r="B99" s="182" t="s">
+      <c r="B99" s="162" t="s">
         <v>459</v>
       </c>
-      <c r="C99" s="182" t="s">
+      <c r="C99" s="162" t="s">
         <v>461</v>
       </c>
-      <c r="D99" s="179">
+      <c r="D99" s="159">
         <v>591.53</v>
       </c>
-      <c r="E99" s="179">
+      <c r="E99" s="159">
         <v>106.47</v>
       </c>
-      <c r="F99" s="179"/>
-      <c r="G99" s="179"/>
-      <c r="H99" s="179">
+      <c r="F99" s="159"/>
+      <c r="G99" s="159"/>
+      <c r="H99" s="159">
         <f t="shared" si="0"/>
         <v>698</v>
       </c>
-      <c r="I99" s="179"/>
-      <c r="J99" s="182" t="s">
+      <c r="I99" s="159"/>
+      <c r="J99" s="162" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A100" s="178">
+      <c r="A100" s="158">
         <v>45268</v>
       </c>
-      <c r="B100" s="179" t="s">
+      <c r="B100" s="159" t="s">
         <v>451</v>
       </c>
-      <c r="C100" s="179">
+      <c r="C100" s="159">
         <v>5524</v>
       </c>
-      <c r="D100" s="179">
+      <c r="D100" s="159">
         <v>270</v>
       </c>
-      <c r="E100" s="179"/>
-      <c r="F100" s="179">
+      <c r="E100" s="159"/>
+      <c r="F100" s="159">
         <v>24.3</v>
       </c>
-      <c r="G100" s="179">
+      <c r="G100" s="159">
         <v>24.3</v>
       </c>
-      <c r="H100" s="179">
+      <c r="H100" s="159">
         <v>319</v>
       </c>
-      <c r="I100" s="179"/>
-      <c r="J100" s="179" t="s">
+      <c r="I100" s="159"/>
+      <c r="J100" s="159" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A101" s="178">
+      <c r="A101" s="158">
         <v>45269</v>
       </c>
-      <c r="B101" s="182" t="s">
+      <c r="B101" s="162" t="s">
         <v>466</v>
       </c>
-      <c r="C101" s="182" t="s">
+      <c r="C101" s="162" t="s">
         <v>467</v>
       </c>
-      <c r="D101" s="179">
+      <c r="D101" s="159">
         <v>142.16999999999999</v>
       </c>
-      <c r="E101" s="179"/>
-      <c r="F101" s="180">
+      <c r="E101" s="159"/>
+      <c r="F101" s="160">
         <v>12.8</v>
       </c>
-      <c r="G101" s="179">
+      <c r="G101" s="159">
         <v>12.8</v>
       </c>
-      <c r="H101" s="179">
+      <c r="H101" s="159">
         <v>168</v>
       </c>
-      <c r="I101" s="179"/>
-      <c r="J101" s="183" t="s">
+      <c r="I101" s="159"/>
+      <c r="J101" s="163" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A102" s="178">
+      <c r="A102" s="158">
         <v>45269</v>
       </c>
-      <c r="B102" s="182" t="s">
+      <c r="B102" s="162" t="s">
         <v>497</v>
       </c>
-      <c r="C102" s="182" t="s">
+      <c r="C102" s="162" t="s">
         <v>499</v>
       </c>
-      <c r="D102" s="179">
+      <c r="D102" s="159">
         <v>1352</v>
       </c>
-      <c r="E102" s="179">
+      <c r="E102" s="159">
         <v>162</v>
       </c>
-      <c r="F102" s="180"/>
-      <c r="G102" s="179"/>
-      <c r="H102" s="181">
+      <c r="F102" s="160"/>
+      <c r="G102" s="159"/>
+      <c r="H102" s="161">
         <f>D102+E102+F102+G102</f>
         <v>1514</v>
       </c>
-      <c r="I102" s="179"/>
-      <c r="J102" s="182" t="s">
+      <c r="I102" s="159"/>
+      <c r="J102" s="162" t="s">
         <v>498</v>
       </c>
     </row>
@@ -12288,11 +12309,11 @@
       </c>
     </row>
     <row r="118" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A118" s="176" t="s">
+      <c r="A118" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B118" s="176"/>
-      <c r="C118" s="176"/>
+      <c r="B118" s="183"/>
+      <c r="C118" s="183"/>
       <c r="D118" s="155">
         <f>SUM(D93:D117)</f>
         <v>363281</v>
@@ -12317,11 +12338,11 @@
       <c r="J118" s="155"/>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="177"/>
-      <c r="B120" s="177"/>
-      <c r="C120" s="177"/>
-      <c r="D120" s="177"/>
-      <c r="E120" s="177"/>
+      <c r="A120" s="184"/>
+      <c r="B120" s="184"/>
+      <c r="C120" s="184"/>
+      <c r="D120" s="184"/>
+      <c r="E120" s="184"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:B123"/>
@@ -12350,10 +12371,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J86"/>
+  <dimension ref="A2:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12372,30 +12393,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="171" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="166"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="173"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="163"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="170"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -12527,627 +12548,692 @@
         <v>19494</v>
       </c>
       <c r="H8" s="19">
-        <f t="shared" ref="H8" si="0">D8+E8+F8+G8</f>
+        <f t="shared" ref="H8:H12" si="0">D8+E8+F8+G8</f>
         <v>223588</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="171" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="33">
-        <f>SUM(D5:D8)</f>
-        <v>2152003</v>
-      </c>
-      <c r="E9" s="33">
-        <f>SUM(E5:E8)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="33">
-        <f>SUM(F5:F8)</f>
-        <v>196920.3</v>
-      </c>
-      <c r="G9" s="33">
-        <f>SUM(G5:G8)</f>
-        <v>196920.3</v>
-      </c>
-      <c r="H9" s="33">
-        <f>SUM(H5:H8)</f>
-        <v>2549843.8000000003</v>
+    <row r="9" spans="1:10" s="185" customFormat="1" ht="15.6">
+      <c r="A9" s="18">
+        <v>44991</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1713185</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19">
+        <v>154186.65</v>
+      </c>
+      <c r="G9" s="19">
+        <v>154186.65</v>
+      </c>
+      <c r="H9" s="8">
+        <f>D9+E9+F9+G9</f>
+        <v>2021558.2999999998</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="161" t="s">
+    <row r="10" spans="1:10" s="157" customFormat="1" ht="15.6">
+      <c r="A10" s="20">
+        <v>45297</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="D10" s="22">
+        <v>442305</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22">
+        <v>39807</v>
+      </c>
+      <c r="G10" s="22">
+        <v>39807</v>
+      </c>
+      <c r="H10" s="19">
+        <v>521920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="157" customFormat="1" ht="15.6">
+      <c r="A11" s="20">
+        <v>45297</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="D11" s="22">
+        <v>84210</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22">
+        <v>7579</v>
+      </c>
+      <c r="G11" s="22">
+        <v>7579</v>
+      </c>
+      <c r="H11" s="19">
+        <f t="shared" si="0"/>
+        <v>99368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="157" customFormat="1" ht="15.6">
+      <c r="A12" s="20">
+        <v>45297</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="D12" s="22">
+        <v>15000</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22">
+        <v>1350</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1350</v>
+      </c>
+      <c r="H12" s="19">
+        <f t="shared" si="0"/>
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="157" customFormat="1" ht="15.6">
+      <c r="A13" s="20">
+        <v>45301</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="D13" s="22">
+        <v>228015</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22">
+        <v>20521</v>
+      </c>
+      <c r="G13" s="22">
+        <v>20521</v>
+      </c>
+      <c r="H13" s="19">
+        <v>269058</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21">
+      <c r="A14" s="178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="178"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="33">
+        <f>SUM(D5:D13)</f>
+        <v>4634718</v>
+      </c>
+      <c r="E14" s="33">
+        <f>SUM(E5:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="33">
+        <f>SUM(F5:F13)</f>
+        <v>420363.94999999995</v>
+      </c>
+      <c r="G14" s="33">
+        <f>SUM(G5:G13)</f>
+        <v>420363.94999999995</v>
+      </c>
+      <c r="H14" s="33">
+        <f>SUM(H5:H13)</f>
+        <v>5479448.0999999996</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="21">
+      <c r="A15" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="163"/>
-    </row>
-    <row r="11" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A11" s="34" t="s">
+      <c r="B15" s="169"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="170"/>
+    </row>
+    <row r="16" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A16" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B16" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C16" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D16" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E16" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G16" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I16" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J16" s="35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.2" customHeight="1">
-      <c r="A12" s="11">
+    <row r="17" spans="1:10" ht="16.2" customHeight="1">
+      <c r="A17" s="11">
         <v>45292</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D17" s="12">
         <v>271.2</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12">
         <v>24.41</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G17" s="12">
         <v>24.41</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H17" s="12">
         <v>320</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12" t="s">
+      <c r="I17" s="12"/>
+      <c r="J17" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.8" customHeight="1">
-      <c r="A13" s="11">
+    <row r="18" spans="1:10" ht="13.8" customHeight="1">
+      <c r="A18" s="11">
         <v>45292</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B18" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D18" s="12">
         <v>5125</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12">
         <v>461.25</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G18" s="12">
         <v>461.25</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H18" s="12">
         <v>6048</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12" t="s">
+      <c r="I18" s="12"/>
+      <c r="J18" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="156" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A14" s="36">
+    <row r="19" spans="1:10" s="156" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A19" s="36">
         <v>45294</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B19" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C19" s="37" t="s">
         <v>492</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D19" s="37">
         <v>29500</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E19" s="37">
         <v>5310</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="12">
-        <f>D14+E14+F14+G14</f>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="12">
+        <f>D19+E19+F19+G19</f>
         <v>34810</v>
       </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37" t="s">
+      <c r="I19" s="37"/>
+      <c r="J19" s="37" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="156" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A15" s="11">
+    <row r="20" spans="1:10" s="156" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A20" s="11">
         <v>45294</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B20" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D20" s="12">
         <v>55000</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E20" s="12">
         <v>9900</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12">
-        <f>D15+E15+F15+G15</f>
-        <v>64900</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A16" s="11">
-        <v>45295</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="D16" s="12">
-        <v>10169.49</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12">
-        <v>915.25</v>
-      </c>
-      <c r="G16" s="12">
-        <v>915.25</v>
-      </c>
-      <c r="H16" s="12">
-        <v>12000</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A17" s="38">
-        <v>45295</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>493</v>
-      </c>
-      <c r="D17" s="41">
-        <v>124350</v>
-      </c>
-      <c r="E17" s="41">
-        <v>22383</v>
-      </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="12">
-        <f t="shared" ref="H17:H20" si="1">D17+E17+F17+G17</f>
-        <v>146733</v>
-      </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.2" customHeight="1">
-      <c r="A18" s="28">
-        <v>45295</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>426</v>
-      </c>
-      <c r="C18" s="31">
-        <v>2117</v>
-      </c>
-      <c r="D18" s="31">
-        <v>1330</v>
-      </c>
-      <c r="E18" s="31">
-        <v>239</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="12">
-        <f t="shared" si="1"/>
-        <v>1569</v>
-      </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A19" s="28">
-        <v>45299</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="D19" s="12">
-        <v>3890</v>
-      </c>
-      <c r="E19" s="12">
-        <v>700</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
-        <f t="shared" si="1"/>
-        <v>4590</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A20" s="11">
-        <v>45299</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="D20" s="12">
-        <v>30700</v>
-      </c>
-      <c r="E20" s="12">
-        <v>5526</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12">
+        <f>D20+E20+F20+G20</f>
+        <v>64900</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A21" s="11">
+        <v>45295</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D21" s="12">
+        <v>10169.49</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12">
+        <v>915.25</v>
+      </c>
+      <c r="G21" s="12">
+        <v>915.25</v>
+      </c>
+      <c r="H21" s="12">
+        <v>12000</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A22" s="38">
+        <v>45295</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="D22" s="41">
+        <v>124350</v>
+      </c>
+      <c r="E22" s="41">
+        <v>22383</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="12">
+        <f t="shared" ref="H22:H25" si="1">D22+E22+F22+G22</f>
+        <v>146733</v>
+      </c>
+      <c r="I22" s="41"/>
+      <c r="J22" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.2" customHeight="1">
+      <c r="A23" s="28">
+        <v>45295</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="C23" s="31">
+        <v>2117</v>
+      </c>
+      <c r="D23" s="31">
+        <v>1330</v>
+      </c>
+      <c r="E23" s="31">
+        <v>239</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="12">
+        <f t="shared" si="1"/>
+        <v>1569</v>
+      </c>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A24" s="28">
+        <v>45299</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D24" s="12">
+        <v>3890</v>
+      </c>
+      <c r="E24" s="12">
+        <v>700</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12">
+        <f t="shared" si="1"/>
+        <v>4590</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A25" s="11">
+        <v>45299</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="D25" s="12">
+        <v>30700</v>
+      </c>
+      <c r="E25" s="12">
+        <v>5526</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12">
         <f t="shared" si="1"/>
         <v>36226</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12" t="s">
+      <c r="I25" s="12"/>
+      <c r="J25" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="21">
-      <c r="A21" s="174" t="s">
+    <row r="26" spans="1:10" ht="21">
+      <c r="A26" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="174"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="42">
-        <f>SUM(D12:D20)</f>
+      <c r="B26" s="181"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="42">
+        <f>SUM(D17:D25)</f>
         <v>260335.69</v>
       </c>
-      <c r="E21" s="42">
-        <f>SUM(E12:E20)</f>
+      <c r="E26" s="42">
+        <f>SUM(E17:E25)</f>
         <v>44058</v>
       </c>
-      <c r="F21" s="42">
-        <f>SUM(F12:F20)</f>
+      <c r="F26" s="42">
+        <f>SUM(F17:F25)</f>
         <v>1400.91</v>
       </c>
-      <c r="G21" s="42">
-        <f>SUM(G12:G20)</f>
+      <c r="G26" s="42">
+        <f>SUM(G17:G25)</f>
         <v>1400.91</v>
       </c>
-      <c r="H21" s="43">
-        <f>SUM(H12:H20)</f>
+      <c r="H26" s="43">
+        <f>SUM(H17:H25)</f>
         <v>307196</v>
       </c>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-    </row>
-    <row r="23" spans="1:10" ht="21">
-      <c r="A23" s="164" t="s">
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+    </row>
+    <row r="28" spans="1:10" ht="21">
+      <c r="A28" s="171" t="s">
         <v>234</v>
       </c>
-      <c r="B23" s="165"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="166"/>
-    </row>
-    <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="161" t="s">
+      <c r="B28" s="172"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="173"/>
+    </row>
+    <row r="29" spans="1:10" ht="21">
+      <c r="A29" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="162"/>
-      <c r="C24" s="162"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" ht="31.2">
-      <c r="A25" s="3" t="s">
+      <c r="B29" s="169"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="31.2">
+      <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.6">
-      <c r="A26" s="24"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.6">
-      <c r="A27" s="24"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.6">
-      <c r="A28" s="24"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.6">
-      <c r="A29" s="24"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.6">
-      <c r="A30" s="24"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="45"/>
+      <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="171" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="171"/>
-      <c r="C31" s="171"/>
-      <c r="D31" s="33">
-        <f>SUM(D26:D30)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="33">
-        <f>SUM(E26:E30)</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="33">
-        <f>SUM(F26:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="33">
-        <f>SUM(G26:G30)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="33">
-        <f>SUM(H26:H30)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="2"/>
+    <row r="31" spans="1:10" ht="15.6">
+      <c r="A31" s="24"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="45"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="162"/>
-      <c r="I32" s="162"/>
-      <c r="J32" s="163"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="35" t="s">
-        <v>15</v>
-      </c>
+    <row r="32" spans="1:10" ht="15.6">
+      <c r="A32" s="24"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.6">
+      <c r="A33" s="24"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="15.6">
       <c r="A34" s="24"/>
       <c r="B34" s="21"/>
-      <c r="C34" s="46"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="15.6">
       <c r="A35" s="24"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="1:10" ht="19.8" customHeight="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="48"/>
-    </row>
-    <row r="37" spans="1:10" ht="18" customHeight="1">
-      <c r="A37" s="24"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="48"/>
-    </row>
-    <row r="38" spans="1:10" ht="18" customHeight="1">
-      <c r="A38" s="24"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="45"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="21">
+      <c r="A36" s="178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="178"/>
+      <c r="C36" s="178"/>
+      <c r="D36" s="33">
+        <f>SUM(D31:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="33">
+        <f>SUM(E31:E35)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="33">
+        <f>SUM(F31:F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="33">
+        <f>SUM(G31:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="33">
+        <f>SUM(H31:H35)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="21">
+      <c r="A37" s="168" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="169"/>
+      <c r="G37" s="169"/>
+      <c r="H37" s="169"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="170"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="35" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="15.6">
       <c r="A39" s="24"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
       <c r="H39" s="47"/>
       <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="1:10" ht="15.6">
       <c r="A40" s="24"/>
@@ -13161,7 +13247,7 @@
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="15.6">
+    <row r="41" spans="1:10" ht="19.8" customHeight="1">
       <c r="A41" s="24"/>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
@@ -13173,32 +13259,32 @@
       <c r="I41" s="49"/>
       <c r="J41" s="48"/>
     </row>
-    <row r="42" spans="1:10" ht="15.6">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.6">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
+    <row r="42" spans="1:10" ht="18" customHeight="1">
+      <c r="A42" s="24"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="48"/>
+    </row>
+    <row r="43" spans="1:10" ht="18" customHeight="1">
+      <c r="A43" s="24"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="47"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
+      <c r="J43" s="45"/>
     </row>
     <row r="44" spans="1:10" ht="15.6">
-      <c r="A44" s="11"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -13210,7 +13296,7 @@
       <c r="J44" s="12"/>
     </row>
     <row r="45" spans="1:10" ht="15.6">
-      <c r="A45" s="11"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -13222,16 +13308,16 @@
       <c r="J45" s="12"/>
     </row>
     <row r="46" spans="1:10" ht="15.6">
-      <c r="A46" s="11"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="45"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="48"/>
     </row>
     <row r="47" spans="1:10" ht="15.6">
       <c r="A47" s="11"/>
@@ -13259,32 +13345,32 @@
     </row>
     <row r="49" spans="1:10" ht="15.6">
       <c r="A49" s="11"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="47"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="21"/>
+      <c r="J49" s="12"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="11"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="47"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="21"/>
+      <c r="J50" s="12"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="11"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -13319,19 +13405,19 @@
     </row>
     <row r="54" spans="1:10" ht="15.6">
       <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="47"/>
       <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="1:10" ht="15.6">
       <c r="A55" s="11"/>
-      <c r="B55" s="25"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="21"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -13342,296 +13428,296 @@
       <c r="J55" s="21"/>
     </row>
     <row r="56" spans="1:10" ht="15.6">
-      <c r="A56" s="28"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
       <c r="H56" s="47"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="29"/>
-    </row>
-    <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="172" t="s">
+      <c r="I56" s="12"/>
+      <c r="J56" s="45"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.6">
+      <c r="A57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.6">
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.6">
+      <c r="A59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.6">
+      <c r="A60" s="11"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.6">
+      <c r="A61" s="28"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="29"/>
+    </row>
+    <row r="62" spans="1:10" ht="21">
+      <c r="A62" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="172"/>
-      <c r="C57" s="172"/>
-      <c r="D57" s="51">
-        <f>SUM(D34:D56)</f>
+      <c r="B62" s="179"/>
+      <c r="C62" s="179"/>
+      <c r="D62" s="51">
+        <f>SUM(D39:D61)</f>
         <v>0</v>
       </c>
-      <c r="E57" s="51">
-        <f>SUM(E34:E56)</f>
+      <c r="E62" s="51">
+        <f>SUM(E39:E61)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="51">
-        <f>SUM(F34:F56)</f>
+      <c r="F62" s="51">
+        <f>SUM(F39:F61)</f>
         <v>0</v>
       </c>
-      <c r="G57" s="51">
-        <f>SUM(G34:G56)</f>
+      <c r="G62" s="51">
+        <f>SUM(G39:G61)</f>
         <v>0</v>
       </c>
-      <c r="H57" s="52">
-        <f>SUM(H34:H56)</f>
+      <c r="H62" s="52">
+        <f>SUM(H39:H61)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-    </row>
-    <row r="59" spans="1:10" ht="21">
-      <c r="A59" s="164" t="s">
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+    </row>
+    <row r="64" spans="1:10" ht="21">
+      <c r="A64" s="171" t="s">
         <v>235</v>
       </c>
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
-      <c r="E59" s="165"/>
-      <c r="F59" s="165"/>
-      <c r="G59" s="165"/>
-      <c r="H59" s="165"/>
-      <c r="I59" s="165"/>
-      <c r="J59" s="166"/>
-    </row>
-    <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="161" t="s">
+      <c r="B64" s="172"/>
+      <c r="C64" s="172"/>
+      <c r="D64" s="172"/>
+      <c r="E64" s="172"/>
+      <c r="F64" s="172"/>
+      <c r="G64" s="172"/>
+      <c r="H64" s="172"/>
+      <c r="I64" s="172"/>
+      <c r="J64" s="173"/>
+    </row>
+    <row r="65" spans="1:10" ht="21">
+      <c r="A65" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="162"/>
-      <c r="C60" s="162"/>
-      <c r="D60" s="162"/>
-      <c r="E60" s="162"/>
-      <c r="F60" s="162"/>
-      <c r="G60" s="162"/>
-      <c r="H60" s="163"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="1:10" ht="31.2">
-      <c r="A61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.6">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.6">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.6">
-      <c r="A64" s="20"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="171" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="171"/>
-      <c r="C65" s="171"/>
-      <c r="D65" s="33">
-        <f>SUM(D62:D64)</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="33">
-        <f>SUM(E62:E64)</f>
-        <v>0</v>
-      </c>
-      <c r="F65" s="33">
-        <f>SUM(F62:F64)</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="33">
-        <f>SUM(G62:G64)</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="33">
-        <f>SUM(H62:H64)</f>
-        <v>0</v>
-      </c>
+      <c r="B65" s="169"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="169"/>
+      <c r="E65" s="169"/>
+      <c r="F65" s="169"/>
+      <c r="G65" s="169"/>
+      <c r="H65" s="170"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" ht="21">
-      <c r="A66" s="161" t="s">
+    <row r="66" spans="1:10" ht="31.2">
+      <c r="A66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.6">
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.6">
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.6">
+      <c r="A69" s="20"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" ht="21">
+      <c r="A70" s="178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="178"/>
+      <c r="C70" s="178"/>
+      <c r="D70" s="33">
+        <f>SUM(D67:D69)</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="33">
+        <f>SUM(E67:E69)</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="33">
+        <f>SUM(F67:F69)</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="33">
+        <f>SUM(G67:G69)</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="33">
+        <f>SUM(H67:H69)</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" ht="21">
+      <c r="A71" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="162"/>
-      <c r="C66" s="162"/>
-      <c r="D66" s="162"/>
-      <c r="E66" s="162"/>
-      <c r="F66" s="162"/>
-      <c r="G66" s="162"/>
-      <c r="H66" s="162"/>
-      <c r="I66" s="162"/>
-      <c r="J66" s="163"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="53" t="s">
+      <c r="B71" s="169"/>
+      <c r="C71" s="169"/>
+      <c r="D71" s="169"/>
+      <c r="E71" s="169"/>
+      <c r="F71" s="169"/>
+      <c r="G71" s="169"/>
+      <c r="H71" s="169"/>
+      <c r="I71" s="169"/>
+      <c r="J71" s="170"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="53" t="s">
+      <c r="B72" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="53" t="s">
+      <c r="C72" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="53" t="s">
+      <c r="D72" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="53" t="s">
+      <c r="E72" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="53" t="s">
+      <c r="F72" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G67" s="53" t="s">
+      <c r="G72" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H67" s="54" t="s">
+      <c r="H72" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I67" s="54" t="s">
+      <c r="I72" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="J67" s="54" t="s">
+      <c r="J72" s="54" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.6">
-      <c r="A68" s="55"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.6">
-      <c r="A69" s="55"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="56"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.6">
-      <c r="A70" s="57"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="58"/>
-      <c r="J70" s="58"/>
-    </row>
-    <row r="71" spans="1:10" ht="15.6">
-      <c r="A71" s="57"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.6">
-      <c r="A72" s="57"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="58"/>
-    </row>
-    <row r="73" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A73" s="11"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="21"/>
-    </row>
-    <row r="74" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A74" s="11"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="59"/>
+    <row r="73" spans="1:10" ht="15.6">
+      <c r="A73" s="55"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="56"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.6">
+      <c r="A74" s="55"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
     </row>
     <row r="75" spans="1:10" ht="15.6">
       <c r="A75" s="57"/>
@@ -13641,7 +13727,7 @@
       <c r="E75" s="58"/>
       <c r="F75" s="58"/>
       <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
+      <c r="H75" s="56"/>
       <c r="I75" s="58"/>
       <c r="J75" s="58"/>
     </row>
@@ -13669,149 +13755,210 @@
       <c r="I77" s="58"/>
       <c r="J77" s="58"/>
     </row>
-    <row r="78" spans="1:10" ht="15.6">
-      <c r="A78" s="57"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="58"/>
-      <c r="F78" s="58"/>
-      <c r="G78" s="58"/>
-      <c r="H78" s="58"/>
-      <c r="I78" s="58"/>
-      <c r="J78" s="58"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.6">
+    <row r="78" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A78" s="11"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="1:10" ht="16.2" thickBot="1">
       <c r="A79" s="11"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
       <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="21"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="59"/>
     </row>
     <row r="80" spans="1:10" ht="15.6">
-      <c r="A80" s="28"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="30"/>
+      <c r="A80" s="57"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="58"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="58"/>
+      <c r="J80" s="58"/>
     </row>
     <row r="81" spans="1:10" ht="15.6">
-      <c r="A81" s="60"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="61"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="61"/>
+      <c r="A81" s="57"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="58"/>
+      <c r="I81" s="58"/>
+      <c r="J81" s="58"/>
     </row>
     <row r="82" spans="1:10" ht="15.6">
-      <c r="A82" s="36"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
+      <c r="A82" s="57"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="58"/>
       <c r="H82" s="58"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="63"/>
+      <c r="I82" s="58"/>
+      <c r="J82" s="58"/>
     </row>
     <row r="83" spans="1:10" ht="15.6">
-      <c r="A83" s="11"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="21"/>
+      <c r="A83" s="57"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="58"/>
+      <c r="J83" s="58"/>
     </row>
     <row r="84" spans="1:10" ht="15.6">
-      <c r="A84" s="36"/>
-      <c r="B84" s="62"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="62"/>
-    </row>
-    <row r="85" spans="1:10" ht="15">
-      <c r="A85" s="64"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="66"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="67"/>
-      <c r="H85" s="67"/>
-      <c r="I85" s="67"/>
-      <c r="J85" s="66"/>
-    </row>
-    <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="173" t="s">
+      <c r="A84" s="11"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.6">
+      <c r="A85" s="28"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="30"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.6">
+      <c r="A86" s="60"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="61"/>
+      <c r="I86" s="61"/>
+      <c r="J86" s="61"/>
+    </row>
+    <row r="87" spans="1:10" ht="15.6">
+      <c r="A87" s="36"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="63"/>
+    </row>
+    <row r="88" spans="1:10" ht="15.6">
+      <c r="A88" s="11"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="21"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.6">
+      <c r="A89" s="36"/>
+      <c r="B89" s="62"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="62"/>
+    </row>
+    <row r="90" spans="1:10" ht="15">
+      <c r="A90" s="64"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="67"/>
+      <c r="J90" s="66"/>
+    </row>
+    <row r="91" spans="1:10" ht="21">
+      <c r="A91" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="173"/>
-      <c r="C86" s="173"/>
-      <c r="D86" s="68">
-        <f>SUM(D68:D85)</f>
+      <c r="B91" s="180"/>
+      <c r="C91" s="180"/>
+      <c r="D91" s="68">
+        <f>SUM(D73:D90)</f>
         <v>0</v>
       </c>
-      <c r="E86" s="68">
-        <f>SUM(E68:E85)</f>
+      <c r="E91" s="68">
+        <f>SUM(E73:E90)</f>
         <v>0</v>
       </c>
-      <c r="F86" s="68">
-        <f>SUM(F68:F85)</f>
+      <c r="F91" s="68">
+        <f>SUM(F73:F90)</f>
         <v>0</v>
       </c>
-      <c r="G86" s="68">
-        <f>SUM(G68:G85)</f>
+      <c r="G91" s="68">
+        <f>SUM(G73:G90)</f>
         <v>0</v>
       </c>
-      <c r="H86" s="68">
-        <f>SUM(H68:H85)</f>
+      <c r="H91" s="68">
+        <f>SUM(H73:H90)</f>
         <v>0</v>
       </c>
-      <c r="I86" s="68"/>
-      <c r="J86" s="68"/>
+      <c r="I91" s="68"/>
+      <c r="J91" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A28:J28"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Apr-23 to Jun-23" sheetId="1" r:id="rId1"/>
@@ -2337,6 +2337,9 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2383,16 +2386,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2400,8 +2400,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2705,30 +2705,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="173"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="174"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="171"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -2948,11 +2948,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="174"/>
-      <c r="C12" s="174"/>
+      <c r="B12" s="175"/>
+      <c r="C12" s="175"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -2977,18 +2977,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="168" t="s">
+      <c r="A13" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="169"/>
-      <c r="J13" s="170"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="171"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -3775,11 +3775,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="164" t="s">
+      <c r="A42" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="165"/>
-      <c r="C42" s="166"/>
+      <c r="B42" s="166"/>
+      <c r="C42" s="167"/>
       <c r="D42" s="26">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -3804,30 +3804,30 @@
       <c r="J42" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="171" t="s">
+      <c r="A44" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="172"/>
-      <c r="C44" s="172"/>
-      <c r="D44" s="172"/>
-      <c r="E44" s="172"/>
-      <c r="F44" s="172"/>
-      <c r="G44" s="172"/>
-      <c r="H44" s="172"/>
-      <c r="I44" s="172"/>
-      <c r="J44" s="173"/>
+      <c r="B44" s="173"/>
+      <c r="C44" s="173"/>
+      <c r="D44" s="173"/>
+      <c r="E44" s="173"/>
+      <c r="F44" s="173"/>
+      <c r="G44" s="173"/>
+      <c r="H44" s="173"/>
+      <c r="I44" s="173"/>
+      <c r="J44" s="174"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="168" t="s">
+      <c r="A45" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="169"/>
-      <c r="E45" s="169"/>
-      <c r="F45" s="169"/>
-      <c r="G45" s="169"/>
-      <c r="H45" s="170"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="171"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -4103,11 +4103,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="167" t="s">
+      <c r="A56" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
       <c r="D56" s="27">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -4132,18 +4132,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="168" t="s">
+      <c r="A57" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="169"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="169"/>
-      <c r="E57" s="169"/>
-      <c r="F57" s="169"/>
-      <c r="G57" s="169"/>
-      <c r="H57" s="169"/>
-      <c r="I57" s="169"/>
-      <c r="J57" s="170"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="170"/>
+      <c r="E57" s="170"/>
+      <c r="F57" s="170"/>
+      <c r="G57" s="170"/>
+      <c r="H57" s="170"/>
+      <c r="I57" s="170"/>
+      <c r="J57" s="171"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -4981,11 +4981,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="175" t="s">
+      <c r="A88" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="176"/>
-      <c r="C88" s="177"/>
+      <c r="B88" s="177"/>
+      <c r="C88" s="178"/>
       <c r="D88" s="27">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -5010,30 +5010,30 @@
       <c r="J88" s="27"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="171" t="s">
+      <c r="A90" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="172"/>
-      <c r="C90" s="172"/>
-      <c r="D90" s="172"/>
-      <c r="E90" s="172"/>
-      <c r="F90" s="172"/>
-      <c r="G90" s="172"/>
-      <c r="H90" s="172"/>
-      <c r="I90" s="172"/>
-      <c r="J90" s="173"/>
+      <c r="B90" s="173"/>
+      <c r="C90" s="173"/>
+      <c r="D90" s="173"/>
+      <c r="E90" s="173"/>
+      <c r="F90" s="173"/>
+      <c r="G90" s="173"/>
+      <c r="H90" s="173"/>
+      <c r="I90" s="173"/>
+      <c r="J90" s="174"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="168" t="s">
+      <c r="A91" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="169"/>
-      <c r="C91" s="169"/>
-      <c r="D91" s="169"/>
-      <c r="E91" s="169"/>
-      <c r="F91" s="169"/>
-      <c r="G91" s="169"/>
-      <c r="H91" s="170"/>
+      <c r="B91" s="170"/>
+      <c r="C91" s="170"/>
+      <c r="D91" s="170"/>
+      <c r="E91" s="170"/>
+      <c r="F91" s="170"/>
+      <c r="G91" s="170"/>
+      <c r="H91" s="171"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -5255,11 +5255,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="167" t="s">
+      <c r="A100" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="167"/>
-      <c r="C100" s="167"/>
+      <c r="B100" s="168"/>
+      <c r="C100" s="168"/>
       <c r="D100" s="27">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -5284,18 +5284,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="168" t="s">
+      <c r="A101" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="169"/>
-      <c r="C101" s="169"/>
-      <c r="D101" s="169"/>
-      <c r="E101" s="169"/>
-      <c r="F101" s="169"/>
-      <c r="G101" s="169"/>
-      <c r="H101" s="169"/>
-      <c r="I101" s="169"/>
-      <c r="J101" s="170"/>
+      <c r="B101" s="170"/>
+      <c r="C101" s="170"/>
+      <c r="D101" s="170"/>
+      <c r="E101" s="170"/>
+      <c r="F101" s="170"/>
+      <c r="G101" s="170"/>
+      <c r="H101" s="170"/>
+      <c r="I101" s="170"/>
+      <c r="J101" s="171"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -5950,11 +5950,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="164" t="s">
+      <c r="A125" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="165"/>
-      <c r="C125" s="166"/>
+      <c r="B125" s="166"/>
+      <c r="C125" s="167"/>
       <c r="D125" s="26">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -6213,30 +6213,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="173"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="174"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="171"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6323,11 +6323,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="178" t="s">
+      <c r="A7" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
       <c r="D7" s="33">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -6352,18 +6352,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="169"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="170"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="171"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -7021,11 +7021,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="179" t="s">
+      <c r="A32" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="179"/>
-      <c r="C32" s="179"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="182"/>
       <c r="D32" s="51">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -7055,30 +7055,30 @@
       <c r="C33" s="44"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="171" t="s">
+      <c r="A34" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="172"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="173"/>
+      <c r="B34" s="173"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="173"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="174"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="168" t="s">
+      <c r="A35" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="169"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="169"/>
-      <c r="G35" s="169"/>
-      <c r="H35" s="170"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="171"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
@@ -7219,11 +7219,11 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="178" t="s">
+      <c r="A41" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="178"/>
-      <c r="C41" s="178"/>
+      <c r="B41" s="179"/>
+      <c r="C41" s="179"/>
       <c r="D41" s="33">
         <f>SUM(D37:D40)</f>
         <v>613000</v>
@@ -7248,18 +7248,18 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="168" t="s">
+      <c r="A42" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="169"/>
-      <c r="C42" s="169"/>
-      <c r="D42" s="169"/>
-      <c r="E42" s="169"/>
-      <c r="F42" s="169"/>
-      <c r="G42" s="169"/>
-      <c r="H42" s="169"/>
-      <c r="I42" s="169"/>
-      <c r="J42" s="170"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="170"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="171"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
@@ -8252,30 +8252,30 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="171" t="s">
+      <c r="A79" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="172"/>
-      <c r="C79" s="172"/>
-      <c r="D79" s="172"/>
-      <c r="E79" s="172"/>
-      <c r="F79" s="172"/>
-      <c r="G79" s="172"/>
-      <c r="H79" s="172"/>
-      <c r="I79" s="172"/>
-      <c r="J79" s="173"/>
+      <c r="B79" s="173"/>
+      <c r="C79" s="173"/>
+      <c r="D79" s="173"/>
+      <c r="E79" s="173"/>
+      <c r="F79" s="173"/>
+      <c r="G79" s="173"/>
+      <c r="H79" s="173"/>
+      <c r="I79" s="173"/>
+      <c r="J79" s="174"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="168" t="s">
+      <c r="A80" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="169"/>
-      <c r="C80" s="169"/>
-      <c r="D80" s="169"/>
-      <c r="E80" s="169"/>
-      <c r="F80" s="169"/>
-      <c r="G80" s="169"/>
-      <c r="H80" s="170"/>
+      <c r="B80" s="170"/>
+      <c r="C80" s="170"/>
+      <c r="D80" s="170"/>
+      <c r="E80" s="170"/>
+      <c r="F80" s="170"/>
+      <c r="G80" s="170"/>
+      <c r="H80" s="171"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
@@ -8389,11 +8389,11 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="178" t="s">
+      <c r="A85" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="178"/>
-      <c r="C85" s="178"/>
+      <c r="B85" s="179"/>
+      <c r="C85" s="179"/>
       <c r="D85" s="33">
         <f>SUM(D82:D84)</f>
         <v>204284</v>
@@ -8418,18 +8418,18 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="168" t="s">
+      <c r="A86" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="169"/>
-      <c r="C86" s="169"/>
-      <c r="D86" s="169"/>
-      <c r="E86" s="169"/>
-      <c r="F86" s="169"/>
-      <c r="G86" s="169"/>
-      <c r="H86" s="169"/>
-      <c r="I86" s="169"/>
-      <c r="J86" s="170"/>
+      <c r="B86" s="170"/>
+      <c r="C86" s="170"/>
+      <c r="D86" s="170"/>
+      <c r="E86" s="170"/>
+      <c r="F86" s="170"/>
+      <c r="G86" s="170"/>
+      <c r="H86" s="170"/>
+      <c r="I86" s="170"/>
+      <c r="J86" s="171"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="53" t="s">
@@ -9215,6 +9215,12 @@
   </sheetData>
   <autoFilter ref="B2:B114"/>
   <mergeCells count="15">
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A86:J86"/>
     <mergeCell ref="A114:C114"/>
@@ -9224,12 +9230,6 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A80:H80"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9240,7 +9240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
@@ -9260,30 +9260,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="172" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="173"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="174"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="171"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -9328,11 +9328,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" ht="21">
-      <c r="A6" s="174" t="s">
+      <c r="A6" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="15">
         <f>SUM(D5:D5)</f>
         <v>0</v>
@@ -9357,18 +9357,18 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="21">
-      <c r="A7" s="168" t="s">
+      <c r="A7" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="169"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="171"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="16" t="s">
@@ -9977,11 +9977,11 @@
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="182" t="s">
+      <c r="A29" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="182"/>
-      <c r="C29" s="182"/>
+      <c r="B29" s="185"/>
+      <c r="C29" s="185"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -10007,30 +10007,30 @@
       <c r="K29" s="69"/>
     </row>
     <row r="31" spans="1:11" ht="21">
-      <c r="A31" s="171" t="s">
+      <c r="A31" s="172" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="172"/>
-      <c r="C31" s="172"/>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="173"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="173"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="174"/>
     </row>
     <row r="32" spans="1:11" ht="21">
-      <c r="A32" s="168" t="s">
+      <c r="A32" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="169"/>
-      <c r="C32" s="169"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="170"/>
+      <c r="B32" s="170"/>
+      <c r="C32" s="170"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="171"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -10276,11 +10276,11 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="167" t="s">
+      <c r="A42" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
       <c r="D42" s="27">
         <f>SUM(D34:D41)</f>
         <v>983754</v>
@@ -10305,18 +10305,18 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="168" t="s">
+      <c r="A43" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="169"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="169"/>
-      <c r="E43" s="169"/>
-      <c r="F43" s="169"/>
-      <c r="G43" s="169"/>
-      <c r="H43" s="169"/>
-      <c r="I43" s="169"/>
-      <c r="J43" s="170"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="170"/>
+      <c r="E43" s="170"/>
+      <c r="F43" s="170"/>
+      <c r="G43" s="170"/>
+      <c r="H43" s="170"/>
+      <c r="I43" s="170"/>
+      <c r="J43" s="171"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1">
       <c r="A44" s="16" t="s">
@@ -11346,11 +11346,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A81" s="167" t="s">
+      <c r="A81" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="167"/>
-      <c r="C81" s="167"/>
+      <c r="B81" s="168"/>
+      <c r="C81" s="168"/>
       <c r="D81" s="27">
         <f>SUM(D45:D80)</f>
         <v>599787.05000000005</v>
@@ -11375,30 +11375,30 @@
       <c r="J81" s="27"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="171" t="s">
+      <c r="A83" s="172" t="s">
         <v>232</v>
       </c>
-      <c r="B83" s="172"/>
-      <c r="C83" s="172"/>
-      <c r="D83" s="172"/>
-      <c r="E83" s="172"/>
-      <c r="F83" s="172"/>
-      <c r="G83" s="172"/>
-      <c r="H83" s="172"/>
-      <c r="I83" s="172"/>
-      <c r="J83" s="173"/>
+      <c r="B83" s="173"/>
+      <c r="C83" s="173"/>
+      <c r="D83" s="173"/>
+      <c r="E83" s="173"/>
+      <c r="F83" s="173"/>
+      <c r="G83" s="173"/>
+      <c r="H83" s="173"/>
+      <c r="I83" s="173"/>
+      <c r="J83" s="174"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="168" t="s">
+      <c r="A84" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="169"/>
-      <c r="C84" s="169"/>
-      <c r="D84" s="169"/>
-      <c r="E84" s="169"/>
-      <c r="F84" s="169"/>
-      <c r="G84" s="169"/>
-      <c r="H84" s="170"/>
+      <c r="B84" s="170"/>
+      <c r="C84" s="170"/>
+      <c r="D84" s="170"/>
+      <c r="E84" s="170"/>
+      <c r="F84" s="170"/>
+      <c r="G84" s="170"/>
+      <c r="H84" s="171"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
@@ -11543,11 +11543,11 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A90" s="167" t="s">
+      <c r="A90" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="167"/>
-      <c r="C90" s="167"/>
+      <c r="B90" s="168"/>
+      <c r="C90" s="168"/>
       <c r="D90" s="27">
         <f>SUM(D86:D89)</f>
         <v>297318</v>
@@ -11572,18 +11572,18 @@
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="168" t="s">
+      <c r="A91" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="169"/>
-      <c r="C91" s="169"/>
-      <c r="D91" s="169"/>
-      <c r="E91" s="169"/>
-      <c r="F91" s="169"/>
-      <c r="G91" s="169"/>
-      <c r="H91" s="169"/>
-      <c r="I91" s="169"/>
-      <c r="J91" s="170"/>
+      <c r="B91" s="170"/>
+      <c r="C91" s="170"/>
+      <c r="D91" s="170"/>
+      <c r="E91" s="170"/>
+      <c r="F91" s="170"/>
+      <c r="G91" s="170"/>
+      <c r="H91" s="170"/>
+      <c r="I91" s="170"/>
+      <c r="J91" s="171"/>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1">
       <c r="A92" s="16" t="s">
@@ -12347,22 +12347,22 @@
   </sheetData>
   <autoFilter ref="B2:B123"/>
   <mergeCells count="16">
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="A84:H84"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A83:J83"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A84:H84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12373,7 +12373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -12393,30 +12393,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="172" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="173"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="174"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="171"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -12552,7 +12552,7 @@
         <v>223588</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="185" customFormat="1" ht="15.6">
+    <row r="9" spans="1:10" s="164" customFormat="1" ht="15.6">
       <c r="A9" s="18">
         <v>44991</v>
       </c>
@@ -12678,11 +12678,11 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="178" t="s">
+      <c r="A14" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="178"/>
-      <c r="C14" s="178"/>
+      <c r="B14" s="179"/>
+      <c r="C14" s="179"/>
       <c r="D14" s="33">
         <f>SUM(D5:D13)</f>
         <v>4634718</v>
@@ -12707,18 +12707,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="170"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="171"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="34" t="s">
@@ -13033,30 +13033,30 @@
       <c r="C27" s="44"/>
     </row>
     <row r="28" spans="1:10" ht="21">
-      <c r="A28" s="171" t="s">
+      <c r="A28" s="172" t="s">
         <v>234</v>
       </c>
-      <c r="B28" s="172"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="173"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="174"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="168" t="s">
+      <c r="A29" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="169"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="170"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="171"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
@@ -13149,11 +13149,11 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="178" t="s">
+      <c r="A36" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="178"/>
-      <c r="C36" s="178"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="179"/>
       <c r="D36" s="33">
         <f>SUM(D31:D35)</f>
         <v>0</v>
@@ -13178,18 +13178,18 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="21">
-      <c r="A37" s="168" t="s">
+      <c r="A37" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="169"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="170"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="171"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="34" t="s">
@@ -13500,11 +13500,11 @@
       <c r="J61" s="29"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="179" t="s">
+      <c r="A62" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="179"/>
-      <c r="C62" s="179"/>
+      <c r="B62" s="182"/>
+      <c r="C62" s="182"/>
       <c r="D62" s="51">
         <f>SUM(D39:D61)</f>
         <v>0</v>
@@ -13529,30 +13529,30 @@
       <c r="J62" s="51"/>
     </row>
     <row r="64" spans="1:10" ht="21">
-      <c r="A64" s="171" t="s">
+      <c r="A64" s="172" t="s">
         <v>235</v>
       </c>
-      <c r="B64" s="172"/>
-      <c r="C64" s="172"/>
-      <c r="D64" s="172"/>
-      <c r="E64" s="172"/>
-      <c r="F64" s="172"/>
-      <c r="G64" s="172"/>
-      <c r="H64" s="172"/>
-      <c r="I64" s="172"/>
-      <c r="J64" s="173"/>
+      <c r="B64" s="173"/>
+      <c r="C64" s="173"/>
+      <c r="D64" s="173"/>
+      <c r="E64" s="173"/>
+      <c r="F64" s="173"/>
+      <c r="G64" s="173"/>
+      <c r="H64" s="173"/>
+      <c r="I64" s="173"/>
+      <c r="J64" s="174"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="168" t="s">
+      <c r="A65" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="169"/>
-      <c r="C65" s="169"/>
-      <c r="D65" s="169"/>
-      <c r="E65" s="169"/>
-      <c r="F65" s="169"/>
-      <c r="G65" s="169"/>
-      <c r="H65" s="170"/>
+      <c r="B65" s="170"/>
+      <c r="C65" s="170"/>
+      <c r="D65" s="170"/>
+      <c r="E65" s="170"/>
+      <c r="F65" s="170"/>
+      <c r="G65" s="170"/>
+      <c r="H65" s="171"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
@@ -13621,11 +13621,11 @@
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" ht="21">
-      <c r="A70" s="178" t="s">
+      <c r="A70" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="178"/>
-      <c r="C70" s="178"/>
+      <c r="B70" s="179"/>
+      <c r="C70" s="179"/>
       <c r="D70" s="33">
         <f>SUM(D67:D69)</f>
         <v>0</v>
@@ -13650,18 +13650,18 @@
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="168" t="s">
+      <c r="A71" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="169"/>
-      <c r="C71" s="169"/>
-      <c r="D71" s="169"/>
-      <c r="E71" s="169"/>
-      <c r="F71" s="169"/>
-      <c r="G71" s="169"/>
-      <c r="H71" s="169"/>
-      <c r="I71" s="169"/>
-      <c r="J71" s="170"/>
+      <c r="B71" s="170"/>
+      <c r="C71" s="170"/>
+      <c r="D71" s="170"/>
+      <c r="E71" s="170"/>
+      <c r="F71" s="170"/>
+      <c r="G71" s="170"/>
+      <c r="H71" s="170"/>
+      <c r="I71" s="170"/>
+      <c r="J71" s="171"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="53" t="s">
@@ -13942,6 +13942,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A71:J71"/>
     <mergeCell ref="A91:C91"/>
@@ -13951,12 +13957,6 @@
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="A64:J64"/>
     <mergeCell ref="A65:H65"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Apr-23 to Jun-23" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Apr-23 to Jun-23'!$B$2:$B$290</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Jul-23 to Sept-23'!$B$2:$B$114</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Oct-23 to Dec-23'!$B$2:$B$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Oct-23 to Dec-23'!$B$2:$B$127</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="518">
   <si>
     <t>APRIL</t>
   </si>
@@ -1484,12 +1484,6 @@
     <t>30AJOPG7694R1ZC</t>
   </si>
   <si>
-    <t>Pinge</t>
-  </si>
-  <si>
-    <t>b23-24MQ401</t>
-  </si>
-  <si>
     <t>El Shaddai</t>
   </si>
   <si>
@@ -1551,6 +1545,42 @@
   </si>
   <si>
     <t>b22-23MQ433</t>
+  </si>
+  <si>
+    <t>PNJ/23-24/3230</t>
+  </si>
+  <si>
+    <t>Vissu Virginsar &amp; Sons</t>
+  </si>
+  <si>
+    <t>IPS/1803</t>
+  </si>
+  <si>
+    <t>30AABFV2748M1Z3</t>
+  </si>
+  <si>
+    <t>Aquachemitech</t>
+  </si>
+  <si>
+    <t>30ABIFA5337P1ZA</t>
+  </si>
+  <si>
+    <t>SLH/3601</t>
+  </si>
+  <si>
+    <t>SLH/3633</t>
+  </si>
+  <si>
+    <t>30AEAFS8324R1ZT</t>
+  </si>
+  <si>
+    <t>CA-492</t>
+  </si>
+  <si>
+    <t>CA-493</t>
+  </si>
+  <si>
+    <t>CA-486</t>
   </si>
 </sst>
 </file>
@@ -1846,7 +1876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2340,6 +2370,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2386,22 +2422,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2685,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J290"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2705,30 +2741,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="174"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="176"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="171"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="173"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -2948,11 +2984,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="175" t="s">
+      <c r="A12" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="175"/>
-      <c r="C12" s="175"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="177"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -2977,18 +3013,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="170"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="171"/>
+      <c r="B13" s="172"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="173"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -3775,11 +3811,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="165" t="s">
+      <c r="A42" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="166"/>
-      <c r="C42" s="167"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="169"/>
       <c r="D42" s="26">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -3804,30 +3840,30 @@
       <c r="J42" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="173"/>
-      <c r="C44" s="173"/>
-      <c r="D44" s="173"/>
-      <c r="E44" s="173"/>
-      <c r="F44" s="173"/>
-      <c r="G44" s="173"/>
-      <c r="H44" s="173"/>
-      <c r="I44" s="173"/>
-      <c r="J44" s="174"/>
+      <c r="B44" s="175"/>
+      <c r="C44" s="175"/>
+      <c r="D44" s="175"/>
+      <c r="E44" s="175"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="175"/>
+      <c r="I44" s="175"/>
+      <c r="J44" s="176"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="169" t="s">
+      <c r="A45" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="170"/>
-      <c r="F45" s="170"/>
-      <c r="G45" s="170"/>
-      <c r="H45" s="171"/>
+      <c r="B45" s="172"/>
+      <c r="C45" s="172"/>
+      <c r="D45" s="172"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="172"/>
+      <c r="G45" s="172"/>
+      <c r="H45" s="173"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -4103,11 +4139,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="168" t="s">
+      <c r="A56" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="168"/>
-      <c r="C56" s="168"/>
+      <c r="B56" s="170"/>
+      <c r="C56" s="170"/>
       <c r="D56" s="27">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -4132,18 +4168,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="169" t="s">
+      <c r="A57" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="170"/>
-      <c r="C57" s="170"/>
-      <c r="D57" s="170"/>
-      <c r="E57" s="170"/>
-      <c r="F57" s="170"/>
-      <c r="G57" s="170"/>
-      <c r="H57" s="170"/>
-      <c r="I57" s="170"/>
-      <c r="J57" s="171"/>
+      <c r="B57" s="172"/>
+      <c r="C57" s="172"/>
+      <c r="D57" s="172"/>
+      <c r="E57" s="172"/>
+      <c r="F57" s="172"/>
+      <c r="G57" s="172"/>
+      <c r="H57" s="172"/>
+      <c r="I57" s="172"/>
+      <c r="J57" s="173"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -4981,11 +5017,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="176" t="s">
+      <c r="A88" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="177"/>
-      <c r="C88" s="178"/>
+      <c r="B88" s="179"/>
+      <c r="C88" s="180"/>
       <c r="D88" s="27">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -5010,30 +5046,30 @@
       <c r="J88" s="27"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="172" t="s">
+      <c r="A90" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="173"/>
-      <c r="C90" s="173"/>
-      <c r="D90" s="173"/>
-      <c r="E90" s="173"/>
-      <c r="F90" s="173"/>
-      <c r="G90" s="173"/>
-      <c r="H90" s="173"/>
-      <c r="I90" s="173"/>
-      <c r="J90" s="174"/>
+      <c r="B90" s="175"/>
+      <c r="C90" s="175"/>
+      <c r="D90" s="175"/>
+      <c r="E90" s="175"/>
+      <c r="F90" s="175"/>
+      <c r="G90" s="175"/>
+      <c r="H90" s="175"/>
+      <c r="I90" s="175"/>
+      <c r="J90" s="176"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="169" t="s">
+      <c r="A91" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="170"/>
-      <c r="C91" s="170"/>
-      <c r="D91" s="170"/>
-      <c r="E91" s="170"/>
-      <c r="F91" s="170"/>
-      <c r="G91" s="170"/>
-      <c r="H91" s="171"/>
+      <c r="B91" s="172"/>
+      <c r="C91" s="172"/>
+      <c r="D91" s="172"/>
+      <c r="E91" s="172"/>
+      <c r="F91" s="172"/>
+      <c r="G91" s="172"/>
+      <c r="H91" s="173"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -5255,11 +5291,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="168" t="s">
+      <c r="A100" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="168"/>
-      <c r="C100" s="168"/>
+      <c r="B100" s="170"/>
+      <c r="C100" s="170"/>
       <c r="D100" s="27">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -5284,18 +5320,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="169" t="s">
+      <c r="A101" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="170"/>
-      <c r="C101" s="170"/>
-      <c r="D101" s="170"/>
-      <c r="E101" s="170"/>
-      <c r="F101" s="170"/>
-      <c r="G101" s="170"/>
-      <c r="H101" s="170"/>
-      <c r="I101" s="170"/>
-      <c r="J101" s="171"/>
+      <c r="B101" s="172"/>
+      <c r="C101" s="172"/>
+      <c r="D101" s="172"/>
+      <c r="E101" s="172"/>
+      <c r="F101" s="172"/>
+      <c r="G101" s="172"/>
+      <c r="H101" s="172"/>
+      <c r="I101" s="172"/>
+      <c r="J101" s="173"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -5950,11 +5986,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="165" t="s">
+      <c r="A125" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="166"/>
-      <c r="C125" s="167"/>
+      <c r="B125" s="168"/>
+      <c r="C125" s="169"/>
       <c r="D125" s="26">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -6193,8 +6229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -6213,30 +6249,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="174"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="176"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="171"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="173"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6323,11 +6359,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="179" t="s">
+      <c r="A7" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="33">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -6352,18 +6388,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="171"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -7055,30 +7091,30 @@
       <c r="C33" s="44"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="172" t="s">
+      <c r="A34" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="173"/>
-      <c r="C34" s="173"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="173"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="174"/>
+      <c r="B34" s="175"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="175"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="176"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="169" t="s">
+      <c r="A35" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="171"/>
+      <c r="B35" s="172"/>
+      <c r="C35" s="172"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="173"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
@@ -7219,11 +7255,11 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="179" t="s">
+      <c r="A41" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="179"/>
-      <c r="C41" s="179"/>
+      <c r="B41" s="181"/>
+      <c r="C41" s="181"/>
       <c r="D41" s="33">
         <f>SUM(D37:D40)</f>
         <v>613000</v>
@@ -7248,18 +7284,18 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="169" t="s">
+      <c r="A42" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="170"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="171"/>
+      <c r="B42" s="172"/>
+      <c r="C42" s="172"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="172"/>
+      <c r="G42" s="172"/>
+      <c r="H42" s="172"/>
+      <c r="I42" s="172"/>
+      <c r="J42" s="173"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
@@ -8205,11 +8241,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="181" t="s">
+      <c r="A77" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="181"/>
-      <c r="C77" s="181"/>
+      <c r="B77" s="184"/>
+      <c r="C77" s="184"/>
       <c r="D77" s="42">
         <f>SUM(D44:D76)</f>
         <v>385770.4</v>
@@ -8252,30 +8288,30 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="172" t="s">
+      <c r="A79" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="173"/>
-      <c r="C79" s="173"/>
-      <c r="D79" s="173"/>
-      <c r="E79" s="173"/>
-      <c r="F79" s="173"/>
-      <c r="G79" s="173"/>
-      <c r="H79" s="173"/>
-      <c r="I79" s="173"/>
-      <c r="J79" s="174"/>
+      <c r="B79" s="175"/>
+      <c r="C79" s="175"/>
+      <c r="D79" s="175"/>
+      <c r="E79" s="175"/>
+      <c r="F79" s="175"/>
+      <c r="G79" s="175"/>
+      <c r="H79" s="175"/>
+      <c r="I79" s="175"/>
+      <c r="J79" s="176"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="169" t="s">
+      <c r="A80" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="170"/>
-      <c r="C80" s="170"/>
-      <c r="D80" s="170"/>
-      <c r="E80" s="170"/>
-      <c r="F80" s="170"/>
-      <c r="G80" s="170"/>
-      <c r="H80" s="171"/>
+      <c r="B80" s="172"/>
+      <c r="C80" s="172"/>
+      <c r="D80" s="172"/>
+      <c r="E80" s="172"/>
+      <c r="F80" s="172"/>
+      <c r="G80" s="172"/>
+      <c r="H80" s="173"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
@@ -8389,11 +8425,11 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="179" t="s">
+      <c r="A85" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="179"/>
-      <c r="C85" s="179"/>
+      <c r="B85" s="181"/>
+      <c r="C85" s="181"/>
       <c r="D85" s="33">
         <f>SUM(D82:D84)</f>
         <v>204284</v>
@@ -8418,18 +8454,18 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="169" t="s">
+      <c r="A86" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="170"/>
-      <c r="C86" s="170"/>
-      <c r="D86" s="170"/>
-      <c r="E86" s="170"/>
-      <c r="F86" s="170"/>
-      <c r="G86" s="170"/>
-      <c r="H86" s="170"/>
-      <c r="I86" s="170"/>
-      <c r="J86" s="171"/>
+      <c r="B86" s="172"/>
+      <c r="C86" s="172"/>
+      <c r="D86" s="172"/>
+      <c r="E86" s="172"/>
+      <c r="F86" s="172"/>
+      <c r="G86" s="172"/>
+      <c r="H86" s="172"/>
+      <c r="I86" s="172"/>
+      <c r="J86" s="173"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="53" t="s">
@@ -9184,11 +9220,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="180" t="s">
+      <c r="A114" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="180"/>
-      <c r="C114" s="180"/>
+      <c r="B114" s="183"/>
+      <c r="C114" s="183"/>
       <c r="D114" s="68">
         <f>SUM(D88:D113)</f>
         <v>438291.73</v>
@@ -9215,12 +9251,6 @@
   </sheetData>
   <autoFilter ref="B2:B114"/>
   <mergeCells count="15">
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A86:J86"/>
     <mergeCell ref="A114:C114"/>
@@ -9230,6 +9260,12 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A80:H80"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9238,10 +9274,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K120"/>
+  <dimension ref="A2:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9260,30 +9296,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="174" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="174"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="176"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="171"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="173"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -9328,11 +9364,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" ht="21">
-      <c r="A6" s="175" t="s">
+      <c r="A6" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="175"/>
-      <c r="C6" s="175"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="15">
         <f>SUM(D5:D5)</f>
         <v>0</v>
@@ -9357,18 +9393,18 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="21">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="171"/>
+      <c r="B7" s="172"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="173"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="16" t="s">
@@ -10007,30 +10043,30 @@
       <c r="K29" s="69"/>
     </row>
     <row r="31" spans="1:11" ht="21">
-      <c r="A31" s="172" t="s">
+      <c r="A31" s="174" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="173"/>
-      <c r="C31" s="173"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="174"/>
+      <c r="B31" s="175"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="176"/>
     </row>
     <row r="32" spans="1:11" ht="21">
-      <c r="A32" s="169" t="s">
+      <c r="A32" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="170"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="171"/>
+      <c r="B32" s="172"/>
+      <c r="C32" s="172"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="173"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -10276,11 +10312,11 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="168" t="s">
+      <c r="A42" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="168"/>
-      <c r="C42" s="168"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
       <c r="D42" s="27">
         <f>SUM(D34:D41)</f>
         <v>983754</v>
@@ -10305,18 +10341,18 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="169" t="s">
+      <c r="A43" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="170"/>
-      <c r="F43" s="170"/>
-      <c r="G43" s="170"/>
-      <c r="H43" s="170"/>
-      <c r="I43" s="170"/>
-      <c r="J43" s="171"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="172"/>
+      <c r="D43" s="172"/>
+      <c r="E43" s="172"/>
+      <c r="F43" s="172"/>
+      <c r="G43" s="172"/>
+      <c r="H43" s="172"/>
+      <c r="I43" s="172"/>
+      <c r="J43" s="173"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1">
       <c r="A44" s="16" t="s">
@@ -11346,11 +11382,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A81" s="168" t="s">
+      <c r="A81" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="168"/>
-      <c r="C81" s="168"/>
+      <c r="B81" s="170"/>
+      <c r="C81" s="170"/>
       <c r="D81" s="27">
         <f>SUM(D45:D80)</f>
         <v>599787.05000000005</v>
@@ -11375,30 +11411,30 @@
       <c r="J81" s="27"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="172" t="s">
+      <c r="A83" s="174" t="s">
         <v>232</v>
       </c>
-      <c r="B83" s="173"/>
-      <c r="C83" s="173"/>
-      <c r="D83" s="173"/>
-      <c r="E83" s="173"/>
-      <c r="F83" s="173"/>
-      <c r="G83" s="173"/>
-      <c r="H83" s="173"/>
-      <c r="I83" s="173"/>
-      <c r="J83" s="174"/>
+      <c r="B83" s="175"/>
+      <c r="C83" s="175"/>
+      <c r="D83" s="175"/>
+      <c r="E83" s="175"/>
+      <c r="F83" s="175"/>
+      <c r="G83" s="175"/>
+      <c r="H83" s="175"/>
+      <c r="I83" s="175"/>
+      <c r="J83" s="176"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="169" t="s">
+      <c r="A84" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="170"/>
-      <c r="C84" s="170"/>
-      <c r="D84" s="170"/>
-      <c r="E84" s="170"/>
-      <c r="F84" s="170"/>
-      <c r="G84" s="170"/>
-      <c r="H84" s="171"/>
+      <c r="B84" s="172"/>
+      <c r="C84" s="172"/>
+      <c r="D84" s="172"/>
+      <c r="E84" s="172"/>
+      <c r="F84" s="172"/>
+      <c r="G84" s="172"/>
+      <c r="H84" s="173"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
@@ -11543,11 +11579,11 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A90" s="168" t="s">
+      <c r="A90" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="168"/>
-      <c r="C90" s="168"/>
+      <c r="B90" s="170"/>
+      <c r="C90" s="170"/>
       <c r="D90" s="27">
         <f>SUM(D86:D89)</f>
         <v>297318</v>
@@ -11572,18 +11608,18 @@
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="169" t="s">
+      <c r="A91" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="170"/>
-      <c r="C91" s="170"/>
-      <c r="D91" s="170"/>
-      <c r="E91" s="170"/>
-      <c r="F91" s="170"/>
-      <c r="G91" s="170"/>
-      <c r="H91" s="170"/>
-      <c r="I91" s="170"/>
-      <c r="J91" s="171"/>
+      <c r="B91" s="172"/>
+      <c r="C91" s="172"/>
+      <c r="D91" s="172"/>
+      <c r="E91" s="172"/>
+      <c r="F91" s="172"/>
+      <c r="G91" s="172"/>
+      <c r="H91" s="172"/>
+      <c r="I91" s="172"/>
+      <c r="J91" s="173"/>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1">
       <c r="A92" s="16" t="s">
@@ -11617,752 +11653,865 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A93" s="127">
-        <v>45261</v>
-      </c>
-      <c r="B93" s="128" t="s">
-        <v>435</v>
-      </c>
-      <c r="C93" s="125" t="s">
-        <v>436</v>
-      </c>
-      <c r="D93" s="123">
-        <v>20340</v>
-      </c>
-      <c r="E93" s="123">
-        <v>3661</v>
-      </c>
-      <c r="F93" s="123"/>
-      <c r="G93" s="123"/>
-      <c r="H93" s="123">
+    <row r="93" spans="1:10" s="69" customFormat="1" ht="15">
+      <c r="A93" s="166">
+        <v>45233</v>
+      </c>
+      <c r="B93" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C93" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="D93" s="48">
+        <v>33.9</v>
+      </c>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48">
+        <v>3.05</v>
+      </c>
+      <c r="G93" s="48">
+        <v>3.05</v>
+      </c>
+      <c r="H93" s="49">
         <f>D93+E93+F93+G93</f>
-        <v>24001</v>
-      </c>
-      <c r="I93" s="123"/>
-      <c r="J93" s="125" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A94" s="127">
-        <v>45261</v>
-      </c>
-      <c r="B94" s="128" t="s">
-        <v>477</v>
-      </c>
-      <c r="C94" s="125" t="s">
-        <v>478</v>
-      </c>
-      <c r="D94" s="123">
-        <v>6200</v>
-      </c>
-      <c r="E94" s="123">
-        <v>1116</v>
-      </c>
-      <c r="F94" s="123"/>
-      <c r="G94" s="123"/>
-      <c r="H94" s="123">
-        <f>D94+E94+F94+G94</f>
-        <v>7316</v>
-      </c>
-      <c r="I94" s="123"/>
-      <c r="J94" s="125" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A95" s="127">
-        <v>45262</v>
-      </c>
-      <c r="B95" s="125" t="s">
-        <v>426</v>
-      </c>
-      <c r="C95" s="125">
-        <v>2074</v>
-      </c>
-      <c r="D95" s="123">
-        <v>420</v>
-      </c>
-      <c r="E95" s="123">
-        <v>76</v>
-      </c>
-      <c r="F95" s="123"/>
-      <c r="G95" s="123"/>
-      <c r="H95" s="123">
-        <f t="shared" ref="H95:H99" si="0">D95+E95+F95+G95</f>
-        <v>496</v>
-      </c>
-      <c r="I95" s="123"/>
-      <c r="J95" s="128" t="s">
-        <v>427</v>
+        <v>39.999999999999993</v>
+      </c>
+      <c r="I93" s="49"/>
+      <c r="J93" s="49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="69" customFormat="1" ht="15">
+      <c r="A94" s="166">
+        <v>45233</v>
+      </c>
+      <c r="B94" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" s="48" t="s">
+        <v>516</v>
+      </c>
+      <c r="D94" s="48">
+        <v>296.5</v>
+      </c>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48">
+        <v>26.69</v>
+      </c>
+      <c r="G94" s="48">
+        <v>26.69</v>
+      </c>
+      <c r="H94" s="49">
+        <v>350</v>
+      </c>
+      <c r="I94" s="49"/>
+      <c r="J94" s="49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="69" customFormat="1" ht="15">
+      <c r="A95" s="166">
+        <v>45244</v>
+      </c>
+      <c r="B95" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="D95" s="48">
+        <v>51</v>
+      </c>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48">
+        <v>4.59</v>
+      </c>
+      <c r="G95" s="48">
+        <v>4.59</v>
+      </c>
+      <c r="H95" s="49">
+        <v>60</v>
+      </c>
+      <c r="I95" s="49"/>
+      <c r="J95" s="49" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A96" s="127">
+        <v>45261</v>
+      </c>
+      <c r="B96" s="128" t="s">
+        <v>435</v>
+      </c>
+      <c r="C96" s="125" t="s">
+        <v>436</v>
+      </c>
+      <c r="D96" s="123">
+        <v>20340</v>
+      </c>
+      <c r="E96" s="123">
+        <v>3661</v>
+      </c>
+      <c r="F96" s="123"/>
+      <c r="G96" s="123"/>
+      <c r="H96" s="123">
+        <f>D96+E96+F96+G96</f>
+        <v>24001</v>
+      </c>
+      <c r="I96" s="123"/>
+      <c r="J96" s="125" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A97" s="127">
+        <v>45261</v>
+      </c>
+      <c r="B97" s="128" t="s">
+        <v>477</v>
+      </c>
+      <c r="C97" s="125" t="s">
+        <v>478</v>
+      </c>
+      <c r="D97" s="123">
+        <v>6200</v>
+      </c>
+      <c r="E97" s="123">
+        <v>1116</v>
+      </c>
+      <c r="F97" s="123"/>
+      <c r="G97" s="123"/>
+      <c r="H97" s="123">
+        <f>D97+E97+F97+G97</f>
+        <v>7316</v>
+      </c>
+      <c r="I97" s="123"/>
+      <c r="J97" s="125" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A98" s="127">
         <v>45262</v>
       </c>
-      <c r="B96" s="123" t="s">
+      <c r="B98" s="125" t="s">
+        <v>426</v>
+      </c>
+      <c r="C98" s="125">
+        <v>2074</v>
+      </c>
+      <c r="D98" s="123">
+        <v>420</v>
+      </c>
+      <c r="E98" s="123">
+        <v>76</v>
+      </c>
+      <c r="F98" s="123"/>
+      <c r="G98" s="123"/>
+      <c r="H98" s="123">
+        <f t="shared" ref="H98:H102" si="0">D98+E98+F98+G98</f>
+        <v>496</v>
+      </c>
+      <c r="I98" s="123"/>
+      <c r="J98" s="128" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A99" s="127">
+        <v>45262</v>
+      </c>
+      <c r="B99" s="123" t="s">
         <v>449</v>
       </c>
-      <c r="C96" s="123">
+      <c r="C99" s="123">
         <v>3073</v>
       </c>
-      <c r="D96" s="123">
+      <c r="D99" s="123">
         <v>4514.1400000000003</v>
       </c>
-      <c r="E96" s="123"/>
-      <c r="F96" s="123">
+      <c r="E99" s="123"/>
+      <c r="F99" s="123">
         <v>406.27</v>
       </c>
-      <c r="G96" s="123">
+      <c r="G99" s="123">
         <v>406.27</v>
       </c>
-      <c r="H96" s="123">
+      <c r="H99" s="123">
         <v>5327</v>
       </c>
-      <c r="I96" s="123"/>
-      <c r="J96" s="123" t="s">
+      <c r="I99" s="123"/>
+      <c r="J99" s="123" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A97" s="158">
+    <row r="100" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A100" s="158">
         <v>45265</v>
       </c>
-      <c r="B97" s="159" t="s">
+      <c r="B100" s="159" t="s">
         <v>246</v>
       </c>
-      <c r="C97" s="159">
+      <c r="C100" s="159">
         <v>4279</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D100" s="159">
         <v>4516</v>
       </c>
-      <c r="E97" s="159"/>
-      <c r="F97" s="159">
+      <c r="E100" s="159"/>
+      <c r="F100" s="159">
         <v>406</v>
       </c>
-      <c r="G97" s="159">
+      <c r="G100" s="159">
         <v>406</v>
       </c>
-      <c r="H97" s="159">
+      <c r="H100" s="159">
         <f t="shared" si="0"/>
         <v>5328</v>
       </c>
-      <c r="I97" s="159"/>
-      <c r="J97" s="159" t="s">
+      <c r="I100" s="159"/>
+      <c r="J100" s="159" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A98" s="158">
+    <row r="101" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A101" s="158">
         <v>45265</v>
       </c>
-      <c r="B98" s="162" t="s">
-        <v>500</v>
-      </c>
-      <c r="C98" s="163">
+      <c r="B101" s="162" t="s">
+        <v>498</v>
+      </c>
+      <c r="C101" s="163">
         <v>2881087170</v>
       </c>
-      <c r="D98" s="159">
+      <c r="D101" s="159">
         <v>320</v>
       </c>
-      <c r="E98" s="159">
+      <c r="E101" s="159">
         <v>16</v>
       </c>
-      <c r="F98" s="159"/>
-      <c r="G98" s="159"/>
-      <c r="H98" s="159">
+      <c r="F101" s="159"/>
+      <c r="G101" s="159"/>
+      <c r="H101" s="159">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
-      <c r="I98" s="159"/>
-      <c r="J98" s="162" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A99" s="158">
+      <c r="I101" s="159"/>
+      <c r="J101" s="162" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A102" s="158">
         <v>45267</v>
       </c>
-      <c r="B99" s="162" t="s">
+      <c r="B102" s="162" t="s">
         <v>459</v>
       </c>
-      <c r="C99" s="162" t="s">
+      <c r="C102" s="162" t="s">
         <v>461</v>
       </c>
-      <c r="D99" s="159">
+      <c r="D102" s="159">
         <v>591.53</v>
       </c>
-      <c r="E99" s="159">
+      <c r="E102" s="159">
         <v>106.47</v>
       </c>
-      <c r="F99" s="159"/>
-      <c r="G99" s="159"/>
-      <c r="H99" s="159">
+      <c r="F102" s="159"/>
+      <c r="G102" s="159"/>
+      <c r="H102" s="159">
         <f t="shared" si="0"/>
         <v>698</v>
       </c>
-      <c r="I99" s="159"/>
-      <c r="J99" s="162" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A100" s="158">
-        <v>45268</v>
-      </c>
-      <c r="B100" s="159" t="s">
-        <v>451</v>
-      </c>
-      <c r="C100" s="159">
-        <v>5524</v>
-      </c>
-      <c r="D100" s="159">
-        <v>270</v>
-      </c>
-      <c r="E100" s="159"/>
-      <c r="F100" s="159">
-        <v>24.3</v>
-      </c>
-      <c r="G100" s="159">
-        <v>24.3</v>
-      </c>
-      <c r="H100" s="159">
-        <v>319</v>
-      </c>
-      <c r="I100" s="159"/>
-      <c r="J100" s="159" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A101" s="158">
-        <v>45269</v>
-      </c>
-      <c r="B101" s="162" t="s">
-        <v>466</v>
-      </c>
-      <c r="C101" s="162" t="s">
-        <v>467</v>
-      </c>
-      <c r="D101" s="159">
-        <v>142.16999999999999</v>
-      </c>
-      <c r="E101" s="159"/>
-      <c r="F101" s="160">
-        <v>12.8</v>
-      </c>
-      <c r="G101" s="159">
-        <v>12.8</v>
-      </c>
-      <c r="H101" s="159">
-        <v>168</v>
-      </c>
-      <c r="I101" s="159"/>
-      <c r="J101" s="163" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A102" s="158">
-        <v>45269</v>
-      </c>
-      <c r="B102" s="162" t="s">
-        <v>497</v>
-      </c>
-      <c r="C102" s="162" t="s">
-        <v>499</v>
-      </c>
-      <c r="D102" s="159">
-        <v>1352</v>
-      </c>
-      <c r="E102" s="159">
-        <v>162</v>
-      </c>
-      <c r="F102" s="160"/>
-      <c r="G102" s="159"/>
-      <c r="H102" s="161">
-        <f>D102+E102+F102+G102</f>
-        <v>1514</v>
-      </c>
       <c r="I102" s="159"/>
       <c r="J102" s="162" t="s">
-        <v>498</v>
+        <v>460</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A103" s="127">
-        <v>45271</v>
-      </c>
-      <c r="B103" s="123" t="s">
-        <v>125</v>
-      </c>
-      <c r="C103" s="123" t="s">
-        <v>453</v>
-      </c>
-      <c r="D103" s="123">
-        <v>3974.58</v>
-      </c>
-      <c r="E103" s="123"/>
-      <c r="F103" s="123">
-        <v>357.71</v>
-      </c>
-      <c r="G103" s="123">
-        <v>357.71</v>
-      </c>
-      <c r="H103" s="123">
-        <v>4690</v>
-      </c>
-      <c r="I103" s="123"/>
-      <c r="J103" s="123" t="s">
-        <v>127</v>
+      <c r="A103" s="158">
+        <v>45268</v>
+      </c>
+      <c r="B103" s="159" t="s">
+        <v>451</v>
+      </c>
+      <c r="C103" s="159">
+        <v>5524</v>
+      </c>
+      <c r="D103" s="159">
+        <v>270</v>
+      </c>
+      <c r="E103" s="159"/>
+      <c r="F103" s="159">
+        <v>24.3</v>
+      </c>
+      <c r="G103" s="159">
+        <v>24.3</v>
+      </c>
+      <c r="H103" s="159">
+        <v>319</v>
+      </c>
+      <c r="I103" s="159"/>
+      <c r="J103" s="159" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A104" s="127">
+      <c r="A104" s="158">
         <v>45269</v>
       </c>
-      <c r="B104" s="125" t="s">
-        <v>462</v>
-      </c>
-      <c r="C104" s="125" t="s">
-        <v>464</v>
-      </c>
-      <c r="D104" s="123">
-        <v>24.58</v>
-      </c>
-      <c r="E104" s="123">
-        <v>4.42</v>
-      </c>
-      <c r="F104" s="123"/>
-      <c r="G104" s="123"/>
-      <c r="H104" s="123">
-        <f>D104+E104+F104+G104</f>
-        <v>29</v>
-      </c>
-      <c r="I104" s="123"/>
-      <c r="J104" s="125" t="s">
-        <v>463</v>
+      <c r="B104" s="162" t="s">
+        <v>466</v>
+      </c>
+      <c r="C104" s="162" t="s">
+        <v>467</v>
+      </c>
+      <c r="D104" s="159">
+        <v>142.16999999999999</v>
+      </c>
+      <c r="E104" s="159"/>
+      <c r="F104" s="160">
+        <v>12.8</v>
+      </c>
+      <c r="G104" s="159">
+        <v>12.8</v>
+      </c>
+      <c r="H104" s="159">
+        <v>168</v>
+      </c>
+      <c r="I104" s="159"/>
+      <c r="J104" s="163" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A105" s="127">
+      <c r="A105" s="158">
         <v>45269</v>
       </c>
-      <c r="B105" s="125" t="s">
-        <v>462</v>
-      </c>
-      <c r="C105" s="125" t="s">
-        <v>465</v>
-      </c>
-      <c r="D105" s="123">
-        <v>8050</v>
-      </c>
-      <c r="E105" s="123">
-        <v>1449</v>
-      </c>
-      <c r="F105" s="123"/>
-      <c r="G105" s="123"/>
-      <c r="H105" s="123">
+      <c r="B105" s="162" t="s">
+        <v>495</v>
+      </c>
+      <c r="C105" s="162" t="s">
+        <v>497</v>
+      </c>
+      <c r="D105" s="159">
+        <v>1352</v>
+      </c>
+      <c r="E105" s="159">
+        <v>162</v>
+      </c>
+      <c r="F105" s="160"/>
+      <c r="G105" s="159"/>
+      <c r="H105" s="161">
         <f>D105+E105+F105+G105</f>
-        <v>9499</v>
-      </c>
-      <c r="I105" s="123"/>
-      <c r="J105" s="125" t="s">
-        <v>463</v>
+        <v>1514</v>
+      </c>
+      <c r="I105" s="159"/>
+      <c r="J105" s="162" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A106" s="127">
-        <v>45272</v>
+        <v>45271</v>
       </c>
       <c r="B106" s="123" t="s">
-        <v>454</v>
+        <v>125</v>
       </c>
       <c r="C106" s="123" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D106" s="123">
-        <v>110</v>
+        <v>3974.58</v>
       </c>
       <c r="E106" s="123"/>
       <c r="F106" s="123">
-        <v>9.9</v>
+        <v>357.71</v>
       </c>
       <c r="G106" s="123">
-        <v>9.9</v>
+        <v>357.71</v>
       </c>
       <c r="H106" s="123">
-        <v>130</v>
+        <v>4690</v>
       </c>
       <c r="I106" s="123"/>
       <c r="J106" s="123" t="s">
-        <v>456</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A107" s="127">
-        <v>45276</v>
+        <v>45269</v>
       </c>
       <c r="B107" s="125" t="s">
-        <v>457</v>
-      </c>
-      <c r="C107" s="128" t="s">
-        <v>458</v>
+        <v>462</v>
+      </c>
+      <c r="C107" s="125" t="s">
+        <v>464</v>
       </c>
       <c r="D107" s="123">
-        <v>111250</v>
+        <v>24.58</v>
       </c>
       <c r="E107" s="123">
-        <v>20025</v>
+        <v>4.42</v>
       </c>
       <c r="F107" s="123"/>
       <c r="G107" s="123"/>
       <c r="H107" s="123">
         <f>D107+E107+F107+G107</f>
-        <v>131275</v>
+        <v>29</v>
       </c>
       <c r="I107" s="123"/>
       <c r="J107" s="125" t="s">
-        <v>66</v>
+        <v>463</v>
       </c>
     </row>
     <row r="108" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A108" s="127">
-        <v>45279</v>
+        <v>45269</v>
       </c>
       <c r="B108" s="125" t="s">
-        <v>469</v>
-      </c>
-      <c r="C108" s="128" t="s">
-        <v>470</v>
+        <v>462</v>
+      </c>
+      <c r="C108" s="125" t="s">
+        <v>465</v>
       </c>
       <c r="D108" s="123">
-        <v>11240</v>
+        <v>8050</v>
       </c>
       <c r="E108" s="123">
-        <v>2023.2</v>
+        <v>1449</v>
       </c>
       <c r="F108" s="123"/>
       <c r="G108" s="123"/>
       <c r="H108" s="123">
-        <v>13263</v>
+        <f>D108+E108+F108+G108</f>
+        <v>9499</v>
       </c>
       <c r="I108" s="123"/>
       <c r="J108" s="125" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A109" s="127">
-        <v>45279</v>
-      </c>
-      <c r="B109" s="125" t="s">
-        <v>469</v>
-      </c>
-      <c r="C109" s="128" t="s">
-        <v>472</v>
+        <v>45272</v>
+      </c>
+      <c r="B109" s="123" t="s">
+        <v>454</v>
+      </c>
+      <c r="C109" s="123" t="s">
+        <v>455</v>
       </c>
       <c r="D109" s="123">
-        <v>5150</v>
-      </c>
-      <c r="E109" s="123">
-        <v>927</v>
-      </c>
-      <c r="F109" s="123"/>
-      <c r="G109" s="123"/>
+        <v>110</v>
+      </c>
+      <c r="E109" s="123"/>
+      <c r="F109" s="123">
+        <v>9.9</v>
+      </c>
+      <c r="G109" s="123">
+        <v>9.9</v>
+      </c>
       <c r="H109" s="123">
-        <f t="shared" ref="H109" si="1">D109+E109+F109+G109</f>
-        <v>6077</v>
+        <v>130</v>
       </c>
       <c r="I109" s="123"/>
-      <c r="J109" s="125" t="s">
-        <v>471</v>
+      <c r="J109" s="123" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A110" s="127">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="B110" s="125" t="s">
-        <v>449</v>
-      </c>
-      <c r="C110" s="128">
-        <v>3262</v>
+        <v>457</v>
+      </c>
+      <c r="C110" s="128" t="s">
+        <v>458</v>
       </c>
       <c r="D110" s="123">
-        <v>4770</v>
-      </c>
-      <c r="E110" s="123"/>
-      <c r="F110" s="123">
-        <v>429.3</v>
-      </c>
-      <c r="G110" s="123">
-        <v>429.3</v>
-      </c>
+        <v>111250</v>
+      </c>
+      <c r="E110" s="123">
+        <v>20025</v>
+      </c>
+      <c r="F110" s="123"/>
+      <c r="G110" s="123"/>
       <c r="H110" s="123">
-        <v>5629</v>
+        <f>D110+E110+F110+G110</f>
+        <v>131275</v>
       </c>
       <c r="I110" s="123"/>
       <c r="J110" s="125" t="s">
-        <v>450</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A111" s="127">
-        <v>45282</v>
+        <v>45279</v>
       </c>
       <c r="B111" s="125" t="s">
-        <v>440</v>
-      </c>
-      <c r="C111" s="128">
-        <v>2881088167</v>
+        <v>469</v>
+      </c>
+      <c r="C111" s="128" t="s">
+        <v>470</v>
       </c>
       <c r="D111" s="123">
-        <v>800</v>
+        <v>11240</v>
       </c>
       <c r="E111" s="123">
-        <v>40</v>
+        <v>2023.2</v>
       </c>
       <c r="F111" s="123"/>
       <c r="G111" s="123"/>
       <c r="H111" s="123">
-        <f>D111+E111+F111+G111</f>
-        <v>840</v>
+        <v>13263</v>
       </c>
       <c r="I111" s="123"/>
       <c r="J111" s="125" t="s">
-        <v>85</v>
+        <v>471</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A112" s="127">
-        <v>45283</v>
+        <v>45279</v>
       </c>
       <c r="B112" s="125" t="s">
-        <v>105</v>
+        <v>469</v>
       </c>
       <c r="C112" s="128" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D112" s="123">
-        <v>44900</v>
+        <v>5150</v>
       </c>
       <c r="E112" s="123">
-        <v>8082</v>
+        <v>927</v>
       </c>
       <c r="F112" s="123"/>
       <c r="G112" s="123"/>
       <c r="H112" s="123">
-        <f>D112+E112+F112+G112</f>
-        <v>52982</v>
+        <f t="shared" ref="H112" si="1">D112+E112+F112+G112</f>
+        <v>6077</v>
       </c>
       <c r="I112" s="123"/>
       <c r="J112" s="125" t="s">
-        <v>61</v>
+        <v>471</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A113" s="127">
-        <v>45286</v>
+        <v>45282</v>
       </c>
       <c r="B113" s="125" t="s">
-        <v>474</v>
-      </c>
-      <c r="C113" s="128" t="s">
-        <v>489</v>
+        <v>449</v>
+      </c>
+      <c r="C113" s="128">
+        <v>3262</v>
       </c>
       <c r="D113" s="123">
-        <v>3600</v>
+        <v>4770</v>
       </c>
       <c r="E113" s="123"/>
       <c r="F113" s="123">
-        <v>324</v>
+        <v>429.3</v>
       </c>
       <c r="G113" s="123">
-        <v>324</v>
+        <v>429.3</v>
       </c>
       <c r="H113" s="123">
-        <f>D113+E113+F113+G113</f>
-        <v>4248</v>
+        <v>5629</v>
       </c>
       <c r="I113" s="123"/>
       <c r="J113" s="125" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
     </row>
     <row r="114" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A114" s="127">
-        <v>45287</v>
+        <v>45282</v>
       </c>
       <c r="B114" s="125" t="s">
-        <v>35</v>
-      </c>
-      <c r="C114" s="128" t="s">
-        <v>473</v>
+        <v>440</v>
+      </c>
+      <c r="C114" s="128">
+        <v>2881088167</v>
       </c>
       <c r="D114" s="123">
-        <v>796</v>
-      </c>
-      <c r="E114" s="123"/>
-      <c r="F114" s="123">
-        <v>71.7</v>
-      </c>
-      <c r="G114" s="123">
-        <v>71.7</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="E114" s="123">
+        <v>40</v>
+      </c>
+      <c r="F114" s="123"/>
+      <c r="G114" s="123"/>
       <c r="H114" s="123">
-        <v>940</v>
+        <f>D114+E114+F114+G114</f>
+        <v>840</v>
       </c>
       <c r="I114" s="123"/>
       <c r="J114" s="125" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A115" s="127">
-        <v>45287</v>
+        <v>45283</v>
       </c>
       <c r="B115" s="125" t="s">
-        <v>474</v>
+        <v>105</v>
       </c>
       <c r="C115" s="128" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D115" s="123">
-        <v>19800</v>
-      </c>
-      <c r="E115" s="123"/>
-      <c r="F115" s="123">
-        <v>1782</v>
-      </c>
-      <c r="G115" s="123">
-        <v>1782</v>
-      </c>
+        <v>44900</v>
+      </c>
+      <c r="E115" s="123">
+        <v>8082</v>
+      </c>
+      <c r="F115" s="123"/>
+      <c r="G115" s="123"/>
       <c r="H115" s="123">
-        <f t="shared" ref="H115:H117" si="2">D115+E115+F115+G115</f>
-        <v>23364</v>
+        <f>D115+E115+F115+G115</f>
+        <v>52982</v>
       </c>
       <c r="I115" s="123"/>
       <c r="J115" s="125" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" s="6" customFormat="1" ht="18.600000000000001" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A116" s="127">
-        <v>45290</v>
+        <v>45286</v>
       </c>
       <c r="B116" s="125" t="s">
-        <v>382</v>
-      </c>
-      <c r="C116" s="125" t="s">
-        <v>490</v>
+        <v>474</v>
+      </c>
+      <c r="C116" s="128" t="s">
+        <v>487</v>
       </c>
       <c r="D116" s="123">
-        <v>110100</v>
+        <v>3600</v>
       </c>
       <c r="E116" s="123"/>
       <c r="F116" s="123">
+        <v>324</v>
+      </c>
+      <c r="G116" s="123">
+        <v>324</v>
+      </c>
+      <c r="H116" s="123">
+        <f>D116+E116+F116+G116</f>
+        <v>4248</v>
+      </c>
+      <c r="I116" s="123"/>
+      <c r="J116" s="125" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A117" s="127">
+        <v>45287</v>
+      </c>
+      <c r="B117" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="C117" s="128" t="s">
+        <v>473</v>
+      </c>
+      <c r="D117" s="123">
+        <v>796</v>
+      </c>
+      <c r="E117" s="123"/>
+      <c r="F117" s="123">
+        <v>71.7</v>
+      </c>
+      <c r="G117" s="123">
+        <v>71.7</v>
+      </c>
+      <c r="H117" s="123">
+        <v>940</v>
+      </c>
+      <c r="I117" s="123"/>
+      <c r="J117" s="125" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A118" s="127">
+        <v>45287</v>
+      </c>
+      <c r="B118" s="125" t="s">
+        <v>474</v>
+      </c>
+      <c r="C118" s="128" t="s">
+        <v>475</v>
+      </c>
+      <c r="D118" s="123">
+        <v>16200</v>
+      </c>
+      <c r="E118" s="123"/>
+      <c r="F118" s="123">
+        <v>1458</v>
+      </c>
+      <c r="G118" s="123">
+        <v>1458</v>
+      </c>
+      <c r="H118" s="123">
+        <f t="shared" ref="H118:H121" si="2">D118+E118+F118+G118</f>
+        <v>19116</v>
+      </c>
+      <c r="I118" s="123"/>
+      <c r="J118" s="125" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="6" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A119" s="127">
+        <v>45290</v>
+      </c>
+      <c r="B119" s="125" t="s">
+        <v>382</v>
+      </c>
+      <c r="C119" s="125" t="s">
+        <v>488</v>
+      </c>
+      <c r="D119" s="123">
+        <v>110100</v>
+      </c>
+      <c r="E119" s="123"/>
+      <c r="F119" s="123">
         <v>11729</v>
       </c>
-      <c r="G116" s="123">
+      <c r="G119" s="123">
         <v>11729</v>
       </c>
-      <c r="H116" s="123">
+      <c r="H119" s="123">
         <f t="shared" si="2"/>
         <v>133558</v>
       </c>
-      <c r="I116" s="123"/>
-      <c r="J116" s="125" t="s">
+      <c r="I119" s="123"/>
+      <c r="J119" s="125" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="6" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A117" s="127">
+    <row r="120" spans="1:10" s="6" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A120" s="85">
+        <v>45290</v>
+      </c>
+      <c r="B120" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="C120" s="86" t="s">
+        <v>506</v>
+      </c>
+      <c r="D120" s="49">
+        <v>9360</v>
+      </c>
+      <c r="E120" s="49"/>
+      <c r="F120" s="49">
+        <v>842.4</v>
+      </c>
+      <c r="G120" s="49">
+        <v>842.4</v>
+      </c>
+      <c r="H120" s="49">
+        <v>11045</v>
+      </c>
+      <c r="I120" s="49"/>
+      <c r="J120" s="48" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="6" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A121" s="127">
         <v>45291</v>
       </c>
-      <c r="B117" s="125" t="s">
+      <c r="B121" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="C117" s="125" t="s">
-        <v>502</v>
-      </c>
-      <c r="D117" s="123">
+      <c r="C121" s="125" t="s">
+        <v>500</v>
+      </c>
+      <c r="D121" s="123">
         <v>50</v>
       </c>
-      <c r="E117" s="123"/>
-      <c r="F117" s="123">
+      <c r="E121" s="123"/>
+      <c r="F121" s="123">
         <v>4.5</v>
       </c>
-      <c r="G117" s="123">
+      <c r="G121" s="123">
         <v>4.5</v>
       </c>
-      <c r="H117" s="123">
+      <c r="H121" s="123">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="I117" s="123"/>
-      <c r="J117" s="125" t="s">
+      <c r="I121" s="123"/>
+      <c r="J121" s="125" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A118" s="183" t="s">
+    <row r="122" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A122" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B118" s="183"/>
-      <c r="C118" s="183"/>
-      <c r="D118" s="155">
-        <f>SUM(D93:D117)</f>
-        <v>363281</v>
-      </c>
-      <c r="E118" s="155">
-        <f>SUM(E93:E117)</f>
+      <c r="B122" s="186"/>
+      <c r="C122" s="186"/>
+      <c r="D122" s="155">
+        <f>SUM(D93:D121)</f>
+        <v>369422.4</v>
+      </c>
+      <c r="E122" s="155">
+        <f>SUM(E93:E121)</f>
         <v>37688.089999999997</v>
       </c>
-      <c r="F118" s="155">
-        <f>SUM(F93:F117)</f>
-        <v>15557.48</v>
-      </c>
-      <c r="G118" s="155">
-        <f>SUM(G93:G117)</f>
-        <v>15557.48</v>
-      </c>
-      <c r="H118" s="155">
-        <f>SUM(H93:H117)</f>
-        <v>432086</v>
-      </c>
-      <c r="I118" s="155"/>
-      <c r="J118" s="155"/>
-    </row>
-    <row r="120" spans="1:10">
-      <c r="A120" s="184"/>
-      <c r="B120" s="184"/>
-      <c r="C120" s="184"/>
-      <c r="D120" s="184"/>
-      <c r="E120" s="184"/>
+      <c r="F122" s="155">
+        <f>SUM(F93:F121)</f>
+        <v>16110.21</v>
+      </c>
+      <c r="G122" s="155">
+        <f>SUM(G93:G121)</f>
+        <v>16110.21</v>
+      </c>
+      <c r="H122" s="155">
+        <f>SUM(H93:H121)</f>
+        <v>439333</v>
+      </c>
+      <c r="I122" s="155"/>
+      <c r="J122" s="155"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="187"/>
+      <c r="B124" s="187"/>
+      <c r="C124" s="187"/>
+      <c r="D124" s="187"/>
+      <c r="E124" s="187"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:B123"/>
+  <autoFilter ref="B2:B127"/>
   <mergeCells count="16">
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A84:H84"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A83:J83"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="A84:H84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12371,10 +12520,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J91"/>
+  <dimension ref="A2:J94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12393,30 +12542,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="174" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="174"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="176"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="171"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="173"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -12504,7 +12653,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.6">
       <c r="A7" s="20">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>485</v>
@@ -12513,94 +12662,94 @@
         <v>486</v>
       </c>
       <c r="D7" s="22">
-        <v>69690</v>
+        <v>184600</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22">
-        <v>6272.1</v>
+        <v>19494</v>
       </c>
       <c r="G7" s="22">
-        <v>6272.1</v>
+        <v>19494</v>
       </c>
       <c r="H7" s="19">
-        <f>D7+E7+F7+G7</f>
-        <v>82234.200000000012</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="20">
-        <v>45292</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>487</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>488</v>
-      </c>
-      <c r="D8" s="22">
-        <v>184600</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22">
-        <v>19494</v>
-      </c>
-      <c r="G8" s="22">
-        <v>19494</v>
-      </c>
-      <c r="H8" s="19">
-        <f t="shared" ref="H8:H12" si="0">D8+E8+F8+G8</f>
+        <f t="shared" ref="H7:H11" si="0">D7+E7+F7+G7</f>
         <v>223588</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="164" customFormat="1" ht="15.6">
-      <c r="A9" s="18">
+    <row r="8" spans="1:10" s="164" customFormat="1" ht="15.6">
+      <c r="A8" s="18">
         <v>44991</v>
       </c>
+      <c r="B8" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1713185</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19">
+        <v>154186.65</v>
+      </c>
+      <c r="G8" s="19">
+        <v>154186.65</v>
+      </c>
+      <c r="H8" s="8">
+        <f>D8+E8+F8+G8</f>
+        <v>2021558.2999999998</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" s="157" customFormat="1" ht="15.6">
+      <c r="A9" s="20">
+        <v>45297</v>
+      </c>
       <c r="B9" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>507</v>
-      </c>
-      <c r="D9" s="19">
-        <v>1713185</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19">
-        <v>154186.65</v>
-      </c>
-      <c r="G9" s="19">
-        <v>154186.65</v>
-      </c>
-      <c r="H9" s="8">
-        <f>D9+E9+F9+G9</f>
-        <v>2021558.2999999998</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="D9" s="22">
+        <v>442305</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
+        <v>39807</v>
+      </c>
+      <c r="G9" s="22">
+        <v>39807</v>
+      </c>
+      <c r="H9" s="19">
+        <v>521920</v>
+      </c>
     </row>
     <row r="10" spans="1:10" s="157" customFormat="1" ht="15.6">
       <c r="A10" s="20">
         <v>45297</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D10" s="22">
-        <v>442305</v>
+        <v>84210</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22">
-        <v>39807</v>
+        <v>7579</v>
       </c>
       <c r="G10" s="22">
-        <v>39807</v>
+        <v>7579</v>
       </c>
       <c r="H10" s="19">
-        <v>521920</v>
+        <f t="shared" si="0"/>
+        <v>99368</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="157" customFormat="1" ht="15.6">
@@ -12611,517 +12760,568 @@
         <v>23</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D11" s="22">
-        <v>84210</v>
+        <v>15000</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22">
-        <v>7579</v>
+        <v>1350</v>
       </c>
       <c r="G11" s="22">
-        <v>7579</v>
+        <v>1350</v>
       </c>
       <c r="H11" s="19">
         <f t="shared" si="0"/>
-        <v>99368</v>
+        <v>17700</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="157" customFormat="1" ht="15.6">
       <c r="A12" s="20">
-        <v>45297</v>
+        <v>45301</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D12" s="22">
-        <v>15000</v>
+        <v>228015</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22">
-        <v>1350</v>
+        <v>20521</v>
       </c>
       <c r="G12" s="22">
-        <v>1350</v>
+        <v>20521</v>
       </c>
       <c r="H12" s="19">
-        <f t="shared" si="0"/>
-        <v>17700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="157" customFormat="1" ht="15.6">
-      <c r="A13" s="20">
-        <v>45301</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>506</v>
-      </c>
-      <c r="D13" s="22">
-        <v>228015</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22">
-        <v>20521</v>
-      </c>
-      <c r="G13" s="22">
-        <v>20521</v>
-      </c>
-      <c r="H13" s="19">
         <v>269058</v>
       </c>
     </row>
+    <row r="13" spans="1:10" ht="21">
+      <c r="A13" s="181" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="181"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="33">
+        <f>SUM(D5:D12)</f>
+        <v>4565028</v>
+      </c>
+      <c r="E13" s="33">
+        <f>SUM(E5:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="33">
+        <f>SUM(F5:F12)</f>
+        <v>414091.85</v>
+      </c>
+      <c r="G13" s="33">
+        <f>SUM(G5:G12)</f>
+        <v>414091.85</v>
+      </c>
+      <c r="H13" s="33">
+        <f>SUM(H5:H12)</f>
+        <v>5397213.9000000004</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="179" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="179"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="33">
-        <f>SUM(D5:D13)</f>
-        <v>4634718</v>
-      </c>
-      <c r="E14" s="33">
-        <f>SUM(E5:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="33">
-        <f>SUM(F5:F13)</f>
-        <v>420363.94999999995</v>
-      </c>
-      <c r="G14" s="33">
-        <f>SUM(G5:G13)</f>
-        <v>420363.94999999995</v>
-      </c>
-      <c r="H14" s="33">
-        <f>SUM(H5:H13)</f>
-        <v>5479448.0999999996</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="169" t="s">
+      <c r="A14" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="171"/>
-    </row>
-    <row r="16" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A16" s="34" t="s">
+      <c r="B14" s="172"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="173"/>
+    </row>
+    <row r="15" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A15" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B15" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D15" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E15" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F15" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I15" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J15" s="35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.2" customHeight="1">
+    <row r="16" spans="1:10" ht="16.2" customHeight="1">
+      <c r="A16" s="11">
+        <v>45292</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="D16" s="12">
+        <v>271.2</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12">
+        <v>24.41</v>
+      </c>
+      <c r="G16" s="12">
+        <v>24.41</v>
+      </c>
+      <c r="H16" s="12">
+        <v>320</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="13.8" customHeight="1">
       <c r="A17" s="11">
         <v>45292</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>48</v>
+      <c r="B17" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D17" s="12">
-        <v>271.2</v>
+        <v>5125</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12">
-        <v>24.41</v>
+        <v>461.25</v>
       </c>
       <c r="G17" s="12">
-        <v>24.41</v>
+        <v>461.25</v>
       </c>
       <c r="H17" s="12">
-        <v>320</v>
+        <v>6048</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="13.8" customHeight="1">
-      <c r="A18" s="11">
-        <v>45292</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="D18" s="12">
-        <v>5125</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12">
-        <v>461.25</v>
-      </c>
-      <c r="G18" s="12">
-        <v>461.25</v>
-      </c>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="156" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A18" s="36">
+        <v>45294</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="D18" s="37">
+        <v>29500</v>
+      </c>
+      <c r="E18" s="37">
+        <v>5310</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="12">
-        <v>6048</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12" t="s">
-        <v>127</v>
+        <f>D18+E18+F18+G18</f>
+        <v>34810</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="156" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A19" s="36">
+      <c r="A19" s="11">
         <v>45294</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="37" t="s">
-        <v>492</v>
-      </c>
-      <c r="D19" s="37">
-        <v>29500</v>
-      </c>
-      <c r="E19" s="37">
-        <v>5310</v>
-      </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
+      <c r="C19" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D19" s="12">
+        <v>55000</v>
+      </c>
+      <c r="E19" s="12">
+        <v>9900</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="12">
         <f>D19+E19+F19+G19</f>
-        <v>34810</v>
-      </c>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37" t="s">
+        <v>64900</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="156" customFormat="1" ht="13.8" customHeight="1">
+    <row r="20" spans="1:10" ht="16.5" customHeight="1">
       <c r="A20" s="11">
-        <v>45294</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>64</v>
+        <v>45295</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>482</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D20" s="12">
-        <v>55000</v>
-      </c>
-      <c r="E20" s="12">
-        <v>9900</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+        <v>10169.49</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12">
+        <v>915.25</v>
+      </c>
+      <c r="G20" s="12">
+        <v>915.25</v>
+      </c>
       <c r="H20" s="12">
-        <f>D20+E20+F20+G20</f>
-        <v>64900</v>
+        <v>12000</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12" t="s">
-        <v>66</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A21" s="11">
+      <c r="A21" s="38">
         <v>45295</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="D21" s="12">
-        <v>10169.49</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12">
-        <v>915.25</v>
-      </c>
-      <c r="G21" s="12">
-        <v>915.25</v>
-      </c>
+      <c r="B21" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="D21" s="41">
+        <v>124350</v>
+      </c>
+      <c r="E21" s="41">
+        <v>22383</v>
+      </c>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="12">
-        <v>12000</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A22" s="38">
+        <f t="shared" ref="H21:H24" si="1">D21+E21+F21+G21</f>
+        <v>146733</v>
+      </c>
+      <c r="I21" s="41"/>
+      <c r="J21" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.2" customHeight="1">
+      <c r="A22" s="28">
         <v>45295</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>493</v>
-      </c>
-      <c r="D22" s="41">
-        <v>124350</v>
-      </c>
-      <c r="E22" s="41">
-        <v>22383</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="B22" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="C22" s="31">
+        <v>2117</v>
+      </c>
+      <c r="D22" s="31">
+        <v>1330</v>
+      </c>
+      <c r="E22" s="31">
+        <v>239</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="12">
-        <f t="shared" ref="H22:H25" si="1">D22+E22+F22+G22</f>
-        <v>146733</v>
-      </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.2" customHeight="1">
+        <f t="shared" si="1"/>
+        <v>1569</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" customHeight="1">
       <c r="A23" s="28">
-        <v>45295</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>426</v>
-      </c>
-      <c r="C23" s="31">
-        <v>2117</v>
-      </c>
-      <c r="D23" s="31">
-        <v>1330</v>
-      </c>
-      <c r="E23" s="31">
-        <v>239</v>
-      </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+        <v>45299</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="D23" s="12">
+        <v>3890</v>
+      </c>
+      <c r="E23" s="12">
+        <v>700</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="12">
         <f t="shared" si="1"/>
-        <v>1569</v>
-      </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31" t="s">
-        <v>427</v>
+        <v>4590</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A24" s="28">
+      <c r="A24" s="11">
         <v>45299</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>435</v>
+        <v>105</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>494</v>
       </c>
       <c r="D24" s="12">
-        <v>3890</v>
+        <v>30700</v>
       </c>
       <c r="E24" s="12">
-        <v>700</v>
+        <v>5526</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12">
         <f t="shared" si="1"/>
-        <v>4590</v>
+        <v>36226</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="165" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="11">
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>105</v>
+        <v>507</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="D25" s="12">
-        <v>30700</v>
-      </c>
-      <c r="E25" s="12">
-        <v>5526</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+        <v>34322.230000000003</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12">
+        <v>3089</v>
+      </c>
+      <c r="G25" s="12">
+        <v>3089</v>
+      </c>
       <c r="H25" s="12">
-        <f t="shared" si="1"/>
-        <v>36226</v>
+        <v>40500</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="21">
-      <c r="A26" s="181" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="165" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A26" s="11">
+        <v>45306</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1436</v>
+      </c>
+      <c r="D26" s="12">
+        <v>22372.720000000001</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12">
+        <v>2013.54</v>
+      </c>
+      <c r="G26" s="12">
+        <v>2013.54</v>
+      </c>
+      <c r="H26" s="12">
+        <v>26400</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="165" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A27" s="11">
+        <v>45307</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2942</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12">
+        <v>264.77999999999997</v>
+      </c>
+      <c r="G27" s="12">
+        <v>264.77999999999997</v>
+      </c>
+      <c r="H27" s="12">
+        <v>3472</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="165" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A28" s="11">
+        <v>45308</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="D28" s="12">
+        <v>2438</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12">
+        <v>219.42</v>
+      </c>
+      <c r="G28" s="12">
+        <v>219.42</v>
+      </c>
+      <c r="H28" s="12">
+        <v>2877</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21">
+      <c r="A29" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="181"/>
-      <c r="C26" s="181"/>
-      <c r="D26" s="42">
-        <f>SUM(D17:D25)</f>
-        <v>260335.69</v>
-      </c>
-      <c r="E26" s="42">
-        <f>SUM(E17:E25)</f>
+      <c r="B29" s="184"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="42">
+        <f>SUM(D16:D28)</f>
+        <v>322410.64</v>
+      </c>
+      <c r="E29" s="42">
+        <f>SUM(E16:E28)</f>
         <v>44058</v>
       </c>
-      <c r="F26" s="42">
-        <f>SUM(F17:F25)</f>
-        <v>1400.91</v>
-      </c>
-      <c r="G26" s="42">
-        <f>SUM(G17:G25)</f>
-        <v>1400.91</v>
-      </c>
-      <c r="H26" s="43">
-        <f>SUM(H17:H25)</f>
-        <v>307196</v>
-      </c>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-    </row>
-    <row r="28" spans="1:10" ht="21">
-      <c r="A28" s="172" t="s">
+      <c r="F29" s="42">
+        <f>SUM(F16:F28)</f>
+        <v>6987.65</v>
+      </c>
+      <c r="G29" s="42">
+        <f>SUM(G16:G28)</f>
+        <v>6987.65</v>
+      </c>
+      <c r="H29" s="43">
+        <f>SUM(H16:H28)</f>
+        <v>380445</v>
+      </c>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+    </row>
+    <row r="31" spans="1:10" ht="21">
+      <c r="A31" s="174" t="s">
         <v>234</v>
       </c>
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="174"/>
-    </row>
-    <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="169" t="s">
+      <c r="B31" s="175"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="176"/>
+    </row>
+    <row r="32" spans="1:10" ht="21">
+      <c r="A32" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="170"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" ht="31.2">
-      <c r="A30" s="3" t="s">
+      <c r="B32" s="172"/>
+      <c r="C32" s="172"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="31.2">
+      <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.6">
-      <c r="A31" s="24"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.6">
-      <c r="A32" s="24"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="24"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="45"/>
+      <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="15.6">
@@ -13148,179 +13348,179 @@
       <c r="I35" s="45"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="179" t="s">
+    <row r="36" spans="1:10" ht="15.6">
+      <c r="A36" s="24"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.6">
+      <c r="A37" s="24"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.6">
+      <c r="A38" s="24"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" ht="21">
+      <c r="A39" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="179"/>
-      <c r="C36" s="179"/>
-      <c r="D36" s="33">
-        <f>SUM(D31:D35)</f>
+      <c r="B39" s="181"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="33">
+        <f>SUM(D34:D38)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="33">
-        <f>SUM(E31:E35)</f>
+      <c r="E39" s="33">
+        <f>SUM(E34:E38)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="33">
-        <f>SUM(F31:F35)</f>
+      <c r="F39" s="33">
+        <f>SUM(F34:F38)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="33">
-        <f>SUM(G31:G35)</f>
+      <c r="G39" s="33">
+        <f>SUM(G34:G38)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="33">
-        <f>SUM(H31:H35)</f>
+      <c r="H39" s="33">
+        <f>SUM(H34:H38)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" ht="21">
-      <c r="A37" s="169" t="s">
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" ht="21">
+      <c r="A40" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="171"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="34" t="s">
+      <c r="B40" s="172"/>
+      <c r="C40" s="172"/>
+      <c r="D40" s="172"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="172"/>
+      <c r="G40" s="172"/>
+      <c r="H40" s="172"/>
+      <c r="I40" s="172"/>
+      <c r="J40" s="173"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B41" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C41" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D41" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E41" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F41" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="34" t="s">
+      <c r="G41" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="35" t="s">
+      <c r="H41" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I38" s="35" t="s">
+      <c r="I41" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="35" t="s">
+      <c r="J41" s="35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.6">
-      <c r="A39" s="24"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="21"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.6">
-      <c r="A40" s="24"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-    </row>
-    <row r="41" spans="1:10" ht="19.8" customHeight="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="48"/>
-    </row>
-    <row r="42" spans="1:10" ht="18" customHeight="1">
+    <row r="42" spans="1:10" ht="15.6">
       <c r="A42" s="24"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="48"/>
-    </row>
-    <row r="43" spans="1:10" ht="18" customHeight="1">
+      <c r="B42" s="21"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.6">
       <c r="A43" s="24"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="47"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="45"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.6">
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:10" ht="19.8" customHeight="1">
       <c r="A44" s="24"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.6">
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="48"/>
+    </row>
+    <row r="45" spans="1:10" ht="18" customHeight="1">
       <c r="A45" s="24"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.6">
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="48"/>
+    </row>
+    <row r="46" spans="1:10" ht="18" customHeight="1">
       <c r="A46" s="24"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="48"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="45"/>
     </row>
     <row r="47" spans="1:10" ht="15.6">
-      <c r="A47" s="11"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -13332,7 +13532,7 @@
       <c r="J47" s="12"/>
     </row>
     <row r="48" spans="1:10" ht="15.6">
-      <c r="A48" s="11"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -13344,16 +13544,16 @@
       <c r="J48" s="12"/>
     </row>
     <row r="49" spans="1:10" ht="15.6">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="48"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="11"/>
@@ -13369,15 +13569,15 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="11"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="47"/>
       <c r="I51" s="12"/>
-      <c r="J51" s="45"/>
+      <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="11"/>
@@ -13405,379 +13605,379 @@
     </row>
     <row r="54" spans="1:10" ht="15.6">
       <c r="A54" s="11"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="47"/>
       <c r="I54" s="12"/>
-      <c r="J54" s="21"/>
+      <c r="J54" s="45"/>
     </row>
     <row r="55" spans="1:10" ht="15.6">
       <c r="A55" s="11"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="47"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="21"/>
+      <c r="J55" s="12"/>
     </row>
     <row r="56" spans="1:10" ht="15.6">
       <c r="A56" s="11"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="47"/>
       <c r="I56" s="12"/>
-      <c r="J56" s="45"/>
+      <c r="J56" s="12"/>
     </row>
     <row r="57" spans="1:10" ht="15.6">
       <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="47"/>
       <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="1:10" ht="15.6">
       <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="47"/>
       <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="1:10" ht="15.6">
       <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="47"/>
       <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
+      <c r="J59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="15.6">
       <c r="A60" s="11"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="21"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="47"/>
       <c r="I60" s="12"/>
-      <c r="J60" s="21"/>
+      <c r="J60" s="12"/>
     </row>
     <row r="61" spans="1:10" ht="15.6">
-      <c r="A61" s="28"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
       <c r="H61" s="47"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="29"/>
-    </row>
-    <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="182" t="s">
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.6">
+      <c r="A62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.6">
+      <c r="A63" s="11"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.6">
+      <c r="A64" s="28"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="29"/>
+    </row>
+    <row r="65" spans="1:10" ht="21">
+      <c r="A65" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="182"/>
-      <c r="C62" s="182"/>
-      <c r="D62" s="51">
-        <f>SUM(D39:D61)</f>
+      <c r="B65" s="182"/>
+      <c r="C65" s="182"/>
+      <c r="D65" s="51">
+        <f>SUM(D42:D64)</f>
         <v>0</v>
       </c>
-      <c r="E62" s="51">
-        <f>SUM(E39:E61)</f>
+      <c r="E65" s="51">
+        <f>SUM(E42:E64)</f>
         <v>0</v>
       </c>
-      <c r="F62" s="51">
-        <f>SUM(F39:F61)</f>
+      <c r="F65" s="51">
+        <f>SUM(F42:F64)</f>
         <v>0</v>
       </c>
-      <c r="G62" s="51">
-        <f>SUM(G39:G61)</f>
+      <c r="G65" s="51">
+        <f>SUM(G42:G64)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="52">
-        <f>SUM(H39:H61)</f>
+      <c r="H65" s="52">
+        <f>SUM(H42:H64)</f>
         <v>0</v>
       </c>
-      <c r="I62" s="51"/>
-      <c r="J62" s="51"/>
-    </row>
-    <row r="64" spans="1:10" ht="21">
-      <c r="A64" s="172" t="s">
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+    </row>
+    <row r="67" spans="1:10" ht="21">
+      <c r="A67" s="174" t="s">
         <v>235</v>
       </c>
-      <c r="B64" s="173"/>
-      <c r="C64" s="173"/>
-      <c r="D64" s="173"/>
-      <c r="E64" s="173"/>
-      <c r="F64" s="173"/>
-      <c r="G64" s="173"/>
-      <c r="H64" s="173"/>
-      <c r="I64" s="173"/>
-      <c r="J64" s="174"/>
-    </row>
-    <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="169" t="s">
+      <c r="B67" s="175"/>
+      <c r="C67" s="175"/>
+      <c r="D67" s="175"/>
+      <c r="E67" s="175"/>
+      <c r="F67" s="175"/>
+      <c r="G67" s="175"/>
+      <c r="H67" s="175"/>
+      <c r="I67" s="175"/>
+      <c r="J67" s="176"/>
+    </row>
+    <row r="68" spans="1:10" ht="21">
+      <c r="A68" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="170"/>
-      <c r="C65" s="170"/>
-      <c r="D65" s="170"/>
-      <c r="E65" s="170"/>
-      <c r="F65" s="170"/>
-      <c r="G65" s="170"/>
-      <c r="H65" s="171"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="1:10" ht="31.2">
-      <c r="A66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.6">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.6">
-      <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
+      <c r="B68" s="172"/>
+      <c r="C68" s="172"/>
+      <c r="D68" s="172"/>
+      <c r="E68" s="172"/>
+      <c r="F68" s="172"/>
+      <c r="G68" s="172"/>
+      <c r="H68" s="173"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" ht="15.6">
-      <c r="A69" s="20"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
+    <row r="69" spans="1:10" ht="31.2">
+      <c r="A69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" ht="21">
-      <c r="A70" s="179" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" s="179"/>
-      <c r="C70" s="179"/>
-      <c r="D70" s="33">
-        <f>SUM(D67:D69)</f>
-        <v>0</v>
-      </c>
-      <c r="E70" s="33">
-        <f>SUM(E67:E69)</f>
-        <v>0</v>
-      </c>
-      <c r="F70" s="33">
-        <f>SUM(F67:F69)</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="33">
-        <f>SUM(G67:G69)</f>
-        <v>0</v>
-      </c>
-      <c r="H70" s="33">
-        <f>SUM(H67:H69)</f>
-        <v>0</v>
-      </c>
+    <row r="70" spans="1:10" ht="15.6">
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="169" t="s">
+    <row r="71" spans="1:10" ht="15.6">
+      <c r="A71" s="20"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.6">
+      <c r="A72" s="20"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" ht="21">
+      <c r="A73" s="181" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="181"/>
+      <c r="C73" s="181"/>
+      <c r="D73" s="33">
+        <f>SUM(D70:D72)</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="33">
+        <f>SUM(E70:E72)</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="33">
+        <f>SUM(F70:F72)</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="33">
+        <f>SUM(G70:G72)</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="33">
+        <f>SUM(H70:H72)</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" ht="21">
+      <c r="A74" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="170"/>
-      <c r="C71" s="170"/>
-      <c r="D71" s="170"/>
-      <c r="E71" s="170"/>
-      <c r="F71" s="170"/>
-      <c r="G71" s="170"/>
-      <c r="H71" s="170"/>
-      <c r="I71" s="170"/>
-      <c r="J71" s="171"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="53" t="s">
+      <c r="B74" s="172"/>
+      <c r="C74" s="172"/>
+      <c r="D74" s="172"/>
+      <c r="E74" s="172"/>
+      <c r="F74" s="172"/>
+      <c r="G74" s="172"/>
+      <c r="H74" s="172"/>
+      <c r="I74" s="172"/>
+      <c r="J74" s="173"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B75" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="53" t="s">
+      <c r="C75" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="53" t="s">
+      <c r="D75" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="53" t="s">
+      <c r="E75" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="53" t="s">
+      <c r="F75" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="53" t="s">
+      <c r="G75" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="54" t="s">
+      <c r="H75" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I72" s="54" t="s">
+      <c r="I75" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="J72" s="54" t="s">
+      <c r="J75" s="54" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.6">
-      <c r="A73" s="55"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="56"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.6">
-      <c r="A74" s="55"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-      <c r="G74" s="56"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.6">
-      <c r="A75" s="57"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-    </row>
     <row r="76" spans="1:10" ht="15.6">
-      <c r="A76" s="57"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="58"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="58"/>
+      <c r="A76" s="55"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
     </row>
     <row r="77" spans="1:10" ht="15.6">
-      <c r="A77" s="57"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="58"/>
-      <c r="I77" s="58"/>
-      <c r="J77" s="58"/>
-    </row>
-    <row r="78" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A78" s="11"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="21"/>
-    </row>
-    <row r="79" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A79" s="11"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="59"/>
+      <c r="A77" s="55"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="56"/>
+    </row>
+    <row r="78" spans="1:10" ht="15.6">
+      <c r="A78" s="57"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="58"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="58"/>
+      <c r="J78" s="58"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.6">
+      <c r="A79" s="57"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="58"/>
+      <c r="J79" s="58"/>
     </row>
     <row r="80" spans="1:10" ht="15.6">
       <c r="A80" s="57"/>
@@ -13791,29 +13991,29 @@
       <c r="I80" s="58"/>
       <c r="J80" s="58"/>
     </row>
-    <row r="81" spans="1:10" ht="15.6">
-      <c r="A81" s="57"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="58"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="58"/>
-      <c r="I81" s="58"/>
-      <c r="J81" s="58"/>
-    </row>
-    <row r="82" spans="1:10" ht="15.6">
-      <c r="A82" s="57"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
+    <row r="81" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A81" s="11"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A82" s="11"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="59"/>
     </row>
     <row r="83" spans="1:10" ht="15.6">
       <c r="A83" s="57"/>
@@ -13828,135 +14028,171 @@
       <c r="J83" s="58"/>
     </row>
     <row r="84" spans="1:10" ht="15.6">
-      <c r="A84" s="11"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="21"/>
+      <c r="A84" s="57"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="58"/>
+      <c r="I84" s="58"/>
+      <c r="J84" s="58"/>
     </row>
     <row r="85" spans="1:10" ht="15.6">
-      <c r="A85" s="28"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="30"/>
+      <c r="A85" s="57"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="58"/>
+      <c r="I85" s="58"/>
+      <c r="J85" s="58"/>
     </row>
     <row r="86" spans="1:10" ht="15.6">
-      <c r="A86" s="60"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="61"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="61"/>
-      <c r="I86" s="61"/>
-      <c r="J86" s="61"/>
+      <c r="A86" s="57"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="58"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="58"/>
+      <c r="J86" s="58"/>
     </row>
     <row r="87" spans="1:10" ht="15.6">
-      <c r="A87" s="36"/>
-      <c r="B87" s="62"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="58"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="63"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="1:10" ht="15.6">
-      <c r="A88" s="11"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="21"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="30"/>
     </row>
     <row r="89" spans="1:10" ht="15.6">
-      <c r="A89" s="36"/>
-      <c r="B89" s="62"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="62"/>
-    </row>
-    <row r="90" spans="1:10" ht="15">
-      <c r="A90" s="64"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="67"/>
-      <c r="J90" s="66"/>
-    </row>
-    <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="180" t="s">
+      <c r="A89" s="60"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="61"/>
+      <c r="H89" s="61"/>
+      <c r="I89" s="61"/>
+      <c r="J89" s="61"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.6">
+      <c r="A90" s="36"/>
+      <c r="B90" s="62"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="63"/>
+    </row>
+    <row r="91" spans="1:10" ht="15.6">
+      <c r="A91" s="11"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="21"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.6">
+      <c r="A92" s="36"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="62"/>
+    </row>
+    <row r="93" spans="1:10" ht="15">
+      <c r="A93" s="64"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="67"/>
+      <c r="I93" s="67"/>
+      <c r="J93" s="66"/>
+    </row>
+    <row r="94" spans="1:10" ht="21">
+      <c r="A94" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B91" s="180"/>
-      <c r="C91" s="180"/>
-      <c r="D91" s="68">
-        <f>SUM(D73:D90)</f>
+      <c r="B94" s="183"/>
+      <c r="C94" s="183"/>
+      <c r="D94" s="68">
+        <f>SUM(D76:D93)</f>
         <v>0</v>
       </c>
-      <c r="E91" s="68">
-        <f>SUM(E73:E90)</f>
+      <c r="E94" s="68">
+        <f>SUM(E76:E93)</f>
         <v>0</v>
       </c>
-      <c r="F91" s="68">
-        <f>SUM(F73:F90)</f>
+      <c r="F94" s="68">
+        <f>SUM(F76:F93)</f>
         <v>0</v>
       </c>
-      <c r="G91" s="68">
-        <f>SUM(G73:G90)</f>
+      <c r="G94" s="68">
+        <f>SUM(G76:G93)</f>
         <v>0</v>
       </c>
-      <c r="H91" s="68">
-        <f>SUM(H73:H90)</f>
+      <c r="H94" s="68">
+        <f>SUM(H76:H93)</f>
         <v>0</v>
       </c>
-      <c r="I91" s="68"/>
-      <c r="J91" s="68"/>
+      <c r="I94" s="68"/>
+      <c r="J94" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -2422,22 +2422,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7057,11 +7057,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="182" t="s">
+      <c r="A32" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="182"/>
-      <c r="C32" s="182"/>
+      <c r="B32" s="184"/>
+      <c r="C32" s="184"/>
       <c r="D32" s="51">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -8241,11 +8241,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="184" t="s">
+      <c r="A77" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="184"/>
-      <c r="C77" s="184"/>
+      <c r="B77" s="183"/>
+      <c r="C77" s="183"/>
       <c r="D77" s="42">
         <f>SUM(D44:D76)</f>
         <v>385770.4</v>
@@ -9220,11 +9220,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="183" t="s">
+      <c r="A114" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="183"/>
-      <c r="C114" s="183"/>
+      <c r="B114" s="182"/>
+      <c r="C114" s="182"/>
       <c r="D114" s="68">
         <f>SUM(D88:D113)</f>
         <v>438291.73</v>
@@ -9251,6 +9251,12 @@
   </sheetData>
   <autoFilter ref="B2:B114"/>
   <mergeCells count="15">
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A86:J86"/>
     <mergeCell ref="A114:C114"/>
@@ -9260,12 +9266,6 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A80:H80"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10013,11 +10013,11 @@
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="185" t="s">
+      <c r="A29" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="185"/>
-      <c r="C29" s="185"/>
+      <c r="B29" s="187"/>
+      <c r="C29" s="187"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -12458,11 +12458,11 @@
       </c>
     </row>
     <row r="122" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A122" s="186" t="s">
+      <c r="A122" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="186"/>
-      <c r="C122" s="186"/>
+      <c r="B122" s="185"/>
+      <c r="C122" s="185"/>
       <c r="D122" s="155">
         <f>SUM(D93:D121)</f>
         <v>369422.4</v>
@@ -12487,31 +12487,31 @@
       <c r="J122" s="155"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="187"/>
-      <c r="B124" s="187"/>
-      <c r="C124" s="187"/>
-      <c r="D124" s="187"/>
-      <c r="E124" s="187"/>
+      <c r="A124" s="186"/>
+      <c r="B124" s="186"/>
+      <c r="C124" s="186"/>
+      <c r="D124" s="186"/>
+      <c r="E124" s="186"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:B127"/>
   <mergeCells count="16">
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A84:H84"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A83:J83"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A84:H84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13235,11 +13235,11 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="184" t="s">
+      <c r="A29" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="184"/>
-      <c r="C29" s="184"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="183"/>
       <c r="D29" s="42">
         <f>SUM(D16:D28)</f>
         <v>322410.64</v>
@@ -13736,11 +13736,11 @@
       <c r="J64" s="29"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="182" t="s">
+      <c r="A65" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="182"/>
-      <c r="C65" s="182"/>
+      <c r="B65" s="184"/>
+      <c r="C65" s="184"/>
       <c r="D65" s="51">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -14148,11 +14148,11 @@
       <c r="J93" s="66"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="183" t="s">
+      <c r="A94" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="183"/>
-      <c r="C94" s="183"/>
+      <c r="B94" s="182"/>
+      <c r="C94" s="182"/>
       <c r="D94" s="68">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -14178,6 +14178,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -14187,12 +14193,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="528">
   <si>
     <t>APRIL</t>
   </si>
@@ -1581,6 +1581,36 @@
   </si>
   <si>
     <t>CA-486</t>
+  </si>
+  <si>
+    <t>Ethernet Xpress India Pvt Ltd</t>
+  </si>
+  <si>
+    <t>EXPL-245241</t>
+  </si>
+  <si>
+    <t>VLADO SKY ENTERPRISE PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>23AAGCV5953J1Z0</t>
+  </si>
+  <si>
+    <t>VBDC-56241</t>
+  </si>
+  <si>
+    <t>SPLASHJET INKJET INK PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>27ABDCS2178Q1ZN</t>
+  </si>
+  <si>
+    <t>PNQ3-3302</t>
+  </si>
+  <si>
+    <t>R K Engineering Works</t>
+  </si>
+  <si>
+    <t>b23-24MQ314</t>
   </si>
 </sst>
 </file>
@@ -1876,7 +1906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2346,35 +2376,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2741,30 +2780,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="176"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="179"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="173"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="176"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -2984,11 +3023,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="177" t="s">
+      <c r="A12" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="177"/>
-      <c r="C12" s="177"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="180"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -3013,18 +3052,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="172"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="173"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="176"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -3811,11 +3850,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="167" t="s">
+      <c r="A42" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="168"/>
-      <c r="C42" s="169"/>
+      <c r="B42" s="171"/>
+      <c r="C42" s="172"/>
       <c r="D42" s="26">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -3840,30 +3879,30 @@
       <c r="J42" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="174" t="s">
+      <c r="A44" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="175"/>
-      <c r="C44" s="175"/>
-      <c r="D44" s="175"/>
-      <c r="E44" s="175"/>
-      <c r="F44" s="175"/>
-      <c r="G44" s="175"/>
-      <c r="H44" s="175"/>
-      <c r="I44" s="175"/>
-      <c r="J44" s="176"/>
+      <c r="B44" s="178"/>
+      <c r="C44" s="178"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="178"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="178"/>
+      <c r="J44" s="179"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="171" t="s">
+      <c r="A45" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="172"/>
-      <c r="C45" s="172"/>
-      <c r="D45" s="172"/>
-      <c r="E45" s="172"/>
-      <c r="F45" s="172"/>
-      <c r="G45" s="172"/>
-      <c r="H45" s="173"/>
+      <c r="B45" s="175"/>
+      <c r="C45" s="175"/>
+      <c r="D45" s="175"/>
+      <c r="E45" s="175"/>
+      <c r="F45" s="175"/>
+      <c r="G45" s="175"/>
+      <c r="H45" s="176"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -4139,11 +4178,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="170" t="s">
+      <c r="A56" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="170"/>
-      <c r="C56" s="170"/>
+      <c r="B56" s="173"/>
+      <c r="C56" s="173"/>
       <c r="D56" s="27">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -4168,18 +4207,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="171" t="s">
+      <c r="A57" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="172"/>
-      <c r="C57" s="172"/>
-      <c r="D57" s="172"/>
-      <c r="E57" s="172"/>
-      <c r="F57" s="172"/>
-      <c r="G57" s="172"/>
-      <c r="H57" s="172"/>
-      <c r="I57" s="172"/>
-      <c r="J57" s="173"/>
+      <c r="B57" s="175"/>
+      <c r="C57" s="175"/>
+      <c r="D57" s="175"/>
+      <c r="E57" s="175"/>
+      <c r="F57" s="175"/>
+      <c r="G57" s="175"/>
+      <c r="H57" s="175"/>
+      <c r="I57" s="175"/>
+      <c r="J57" s="176"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -5017,11 +5056,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="178" t="s">
+      <c r="A88" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="179"/>
-      <c r="C88" s="180"/>
+      <c r="B88" s="182"/>
+      <c r="C88" s="183"/>
       <c r="D88" s="27">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -5046,30 +5085,30 @@
       <c r="J88" s="27"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="174" t="s">
+      <c r="A90" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="175"/>
-      <c r="C90" s="175"/>
-      <c r="D90" s="175"/>
-      <c r="E90" s="175"/>
-      <c r="F90" s="175"/>
-      <c r="G90" s="175"/>
-      <c r="H90" s="175"/>
-      <c r="I90" s="175"/>
-      <c r="J90" s="176"/>
+      <c r="B90" s="178"/>
+      <c r="C90" s="178"/>
+      <c r="D90" s="178"/>
+      <c r="E90" s="178"/>
+      <c r="F90" s="178"/>
+      <c r="G90" s="178"/>
+      <c r="H90" s="178"/>
+      <c r="I90" s="178"/>
+      <c r="J90" s="179"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="171" t="s">
+      <c r="A91" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="172"/>
-      <c r="C91" s="172"/>
-      <c r="D91" s="172"/>
-      <c r="E91" s="172"/>
-      <c r="F91" s="172"/>
-      <c r="G91" s="172"/>
-      <c r="H91" s="173"/>
+      <c r="B91" s="175"/>
+      <c r="C91" s="175"/>
+      <c r="D91" s="175"/>
+      <c r="E91" s="175"/>
+      <c r="F91" s="175"/>
+      <c r="G91" s="175"/>
+      <c r="H91" s="176"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -5291,11 +5330,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="170" t="s">
+      <c r="A100" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="170"/>
-      <c r="C100" s="170"/>
+      <c r="B100" s="173"/>
+      <c r="C100" s="173"/>
       <c r="D100" s="27">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -5320,18 +5359,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="171" t="s">
+      <c r="A101" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="172"/>
-      <c r="C101" s="172"/>
-      <c r="D101" s="172"/>
-      <c r="E101" s="172"/>
-      <c r="F101" s="172"/>
-      <c r="G101" s="172"/>
-      <c r="H101" s="172"/>
-      <c r="I101" s="172"/>
-      <c r="J101" s="173"/>
+      <c r="B101" s="175"/>
+      <c r="C101" s="175"/>
+      <c r="D101" s="175"/>
+      <c r="E101" s="175"/>
+      <c r="F101" s="175"/>
+      <c r="G101" s="175"/>
+      <c r="H101" s="175"/>
+      <c r="I101" s="175"/>
+      <c r="J101" s="176"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -5986,11 +6025,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="167" t="s">
+      <c r="A125" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="168"/>
-      <c r="C125" s="169"/>
+      <c r="B125" s="171"/>
+      <c r="C125" s="172"/>
       <c r="D125" s="26">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -6249,30 +6288,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="176"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="179"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="173"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="176"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6359,11 +6398,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="181" t="s">
+      <c r="A7" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="184"/>
       <c r="D7" s="33">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -6388,18 +6427,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="171" t="s">
+      <c r="A8" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="172"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="172"/>
-      <c r="H8" s="172"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
+      <c r="B8" s="175"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="175"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="176"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -7057,11 +7096,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="184" t="s">
+      <c r="A32" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="184"/>
-      <c r="C32" s="184"/>
+      <c r="B32" s="187"/>
+      <c r="C32" s="187"/>
       <c r="D32" s="51">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -7091,30 +7130,30 @@
       <c r="C33" s="44"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="174" t="s">
+      <c r="A34" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="175"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="175"/>
-      <c r="E34" s="175"/>
-      <c r="F34" s="175"/>
-      <c r="G34" s="175"/>
-      <c r="H34" s="175"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="176"/>
+      <c r="B34" s="178"/>
+      <c r="C34" s="178"/>
+      <c r="D34" s="178"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="179"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="171" t="s">
+      <c r="A35" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="172"/>
-      <c r="C35" s="172"/>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="173"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="175"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="175"/>
+      <c r="F35" s="175"/>
+      <c r="G35" s="175"/>
+      <c r="H35" s="176"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
@@ -7255,11 +7294,11 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="181" t="s">
+      <c r="A41" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="181"/>
-      <c r="C41" s="181"/>
+      <c r="B41" s="184"/>
+      <c r="C41" s="184"/>
       <c r="D41" s="33">
         <f>SUM(D37:D40)</f>
         <v>613000</v>
@@ -7284,18 +7323,18 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="171" t="s">
+      <c r="A42" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="172"/>
-      <c r="C42" s="172"/>
-      <c r="D42" s="172"/>
-      <c r="E42" s="172"/>
-      <c r="F42" s="172"/>
-      <c r="G42" s="172"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="173"/>
+      <c r="B42" s="175"/>
+      <c r="C42" s="175"/>
+      <c r="D42" s="175"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="175"/>
+      <c r="H42" s="175"/>
+      <c r="I42" s="175"/>
+      <c r="J42" s="176"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
@@ -8241,11 +8280,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="183" t="s">
+      <c r="A77" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="183"/>
-      <c r="C77" s="183"/>
+      <c r="B77" s="186"/>
+      <c r="C77" s="186"/>
       <c r="D77" s="42">
         <f>SUM(D44:D76)</f>
         <v>385770.4</v>
@@ -8288,30 +8327,30 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="174" t="s">
+      <c r="A79" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="175"/>
-      <c r="C79" s="175"/>
-      <c r="D79" s="175"/>
-      <c r="E79" s="175"/>
-      <c r="F79" s="175"/>
-      <c r="G79" s="175"/>
-      <c r="H79" s="175"/>
-      <c r="I79" s="175"/>
-      <c r="J79" s="176"/>
+      <c r="B79" s="178"/>
+      <c r="C79" s="178"/>
+      <c r="D79" s="178"/>
+      <c r="E79" s="178"/>
+      <c r="F79" s="178"/>
+      <c r="G79" s="178"/>
+      <c r="H79" s="178"/>
+      <c r="I79" s="178"/>
+      <c r="J79" s="179"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="171" t="s">
+      <c r="A80" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="172"/>
-      <c r="C80" s="172"/>
-      <c r="D80" s="172"/>
-      <c r="E80" s="172"/>
-      <c r="F80" s="172"/>
-      <c r="G80" s="172"/>
-      <c r="H80" s="173"/>
+      <c r="B80" s="175"/>
+      <c r="C80" s="175"/>
+      <c r="D80" s="175"/>
+      <c r="E80" s="175"/>
+      <c r="F80" s="175"/>
+      <c r="G80" s="175"/>
+      <c r="H80" s="176"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
@@ -8425,11 +8464,11 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="181" t="s">
+      <c r="A85" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="181"/>
-      <c r="C85" s="181"/>
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
       <c r="D85" s="33">
         <f>SUM(D82:D84)</f>
         <v>204284</v>
@@ -8454,18 +8493,18 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="171" t="s">
+      <c r="A86" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="172"/>
-      <c r="C86" s="172"/>
-      <c r="D86" s="172"/>
-      <c r="E86" s="172"/>
-      <c r="F86" s="172"/>
-      <c r="G86" s="172"/>
-      <c r="H86" s="172"/>
-      <c r="I86" s="172"/>
-      <c r="J86" s="173"/>
+      <c r="B86" s="175"/>
+      <c r="C86" s="175"/>
+      <c r="D86" s="175"/>
+      <c r="E86" s="175"/>
+      <c r="F86" s="175"/>
+      <c r="G86" s="175"/>
+      <c r="H86" s="175"/>
+      <c r="I86" s="175"/>
+      <c r="J86" s="176"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="53" t="s">
@@ -9220,11 +9259,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="182" t="s">
+      <c r="A114" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="182"/>
-      <c r="C114" s="182"/>
+      <c r="B114" s="185"/>
+      <c r="C114" s="185"/>
       <c r="D114" s="68">
         <f>SUM(D88:D113)</f>
         <v>438291.73</v>
@@ -9277,7 +9316,7 @@
   <dimension ref="A2:K124"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9296,30 +9335,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="177" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="176"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="179"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="173"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="176"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -9364,11 +9403,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" ht="21">
-      <c r="A6" s="177" t="s">
+      <c r="A6" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="177"/>
-      <c r="C6" s="177"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="180"/>
       <c r="D6" s="15">
         <f>SUM(D5:D5)</f>
         <v>0</v>
@@ -9393,18 +9432,18 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="21">
-      <c r="A7" s="171" t="s">
+      <c r="A7" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="172"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="173"/>
+      <c r="B7" s="175"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="16" t="s">
@@ -10013,11 +10052,11 @@
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="187" t="s">
+      <c r="A29" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="187"/>
-      <c r="C29" s="187"/>
+      <c r="B29" s="190"/>
+      <c r="C29" s="190"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -10043,30 +10082,30 @@
       <c r="K29" s="69"/>
     </row>
     <row r="31" spans="1:11" ht="21">
-      <c r="A31" s="174" t="s">
+      <c r="A31" s="177" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="176"/>
+      <c r="B31" s="178"/>
+      <c r="C31" s="178"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="179"/>
     </row>
     <row r="32" spans="1:11" ht="21">
-      <c r="A32" s="171" t="s">
+      <c r="A32" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="172"/>
-      <c r="C32" s="172"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="173"/>
+      <c r="B32" s="175"/>
+      <c r="C32" s="175"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="175"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="176"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -10312,11 +10351,11 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="170" t="s">
+      <c r="A42" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="173"/>
       <c r="D42" s="27">
         <f>SUM(D34:D41)</f>
         <v>983754</v>
@@ -10341,18 +10380,18 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="171" t="s">
+      <c r="A43" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
-      <c r="D43" s="172"/>
-      <c r="E43" s="172"/>
-      <c r="F43" s="172"/>
-      <c r="G43" s="172"/>
-      <c r="H43" s="172"/>
-      <c r="I43" s="172"/>
-      <c r="J43" s="173"/>
+      <c r="B43" s="175"/>
+      <c r="C43" s="175"/>
+      <c r="D43" s="175"/>
+      <c r="E43" s="175"/>
+      <c r="F43" s="175"/>
+      <c r="G43" s="175"/>
+      <c r="H43" s="175"/>
+      <c r="I43" s="175"/>
+      <c r="J43" s="176"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1">
       <c r="A44" s="16" t="s">
@@ -11382,11 +11421,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A81" s="170" t="s">
+      <c r="A81" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="170"/>
-      <c r="C81" s="170"/>
+      <c r="B81" s="173"/>
+      <c r="C81" s="173"/>
       <c r="D81" s="27">
         <f>SUM(D45:D80)</f>
         <v>599787.05000000005</v>
@@ -11411,30 +11450,30 @@
       <c r="J81" s="27"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="174" t="s">
+      <c r="A83" s="177" t="s">
         <v>232</v>
       </c>
-      <c r="B83" s="175"/>
-      <c r="C83" s="175"/>
-      <c r="D83" s="175"/>
-      <c r="E83" s="175"/>
-      <c r="F83" s="175"/>
-      <c r="G83" s="175"/>
-      <c r="H83" s="175"/>
-      <c r="I83" s="175"/>
-      <c r="J83" s="176"/>
+      <c r="B83" s="178"/>
+      <c r="C83" s="178"/>
+      <c r="D83" s="178"/>
+      <c r="E83" s="178"/>
+      <c r="F83" s="178"/>
+      <c r="G83" s="178"/>
+      <c r="H83" s="178"/>
+      <c r="I83" s="178"/>
+      <c r="J83" s="179"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="171" t="s">
+      <c r="A84" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="172"/>
-      <c r="C84" s="172"/>
-      <c r="D84" s="172"/>
-      <c r="E84" s="172"/>
-      <c r="F84" s="172"/>
-      <c r="G84" s="172"/>
-      <c r="H84" s="173"/>
+      <c r="B84" s="175"/>
+      <c r="C84" s="175"/>
+      <c r="D84" s="175"/>
+      <c r="E84" s="175"/>
+      <c r="F84" s="175"/>
+      <c r="G84" s="175"/>
+      <c r="H84" s="176"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
@@ -11579,11 +11618,11 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A90" s="170" t="s">
+      <c r="A90" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="170"/>
-      <c r="C90" s="170"/>
+      <c r="B90" s="173"/>
+      <c r="C90" s="173"/>
       <c r="D90" s="27">
         <f>SUM(D86:D89)</f>
         <v>297318</v>
@@ -11608,18 +11647,18 @@
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="171" t="s">
+      <c r="A91" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="172"/>
-      <c r="C91" s="172"/>
-      <c r="D91" s="172"/>
-      <c r="E91" s="172"/>
-      <c r="F91" s="172"/>
-      <c r="G91" s="172"/>
-      <c r="H91" s="172"/>
-      <c r="I91" s="172"/>
-      <c r="J91" s="173"/>
+      <c r="B91" s="175"/>
+      <c r="C91" s="175"/>
+      <c r="D91" s="175"/>
+      <c r="E91" s="175"/>
+      <c r="F91" s="175"/>
+      <c r="G91" s="175"/>
+      <c r="H91" s="175"/>
+      <c r="I91" s="175"/>
+      <c r="J91" s="176"/>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1">
       <c r="A92" s="16" t="s">
@@ -11654,7 +11693,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" s="69" customFormat="1" ht="15">
-      <c r="A93" s="166">
+      <c r="A93" s="165">
         <v>45233</v>
       </c>
       <c r="B93" s="48" t="s">
@@ -11683,7 +11722,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" s="69" customFormat="1" ht="15">
-      <c r="A94" s="166">
+      <c r="A94" s="165">
         <v>45233</v>
       </c>
       <c r="B94" s="48" t="s">
@@ -11711,7 +11750,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" s="69" customFormat="1" ht="15">
-      <c r="A95" s="166">
+      <c r="A95" s="165">
         <v>45244</v>
       </c>
       <c r="B95" s="48" t="s">
@@ -11848,168 +11887,168 @@
       </c>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A100" s="158">
+      <c r="A100" s="157">
         <v>45265</v>
       </c>
-      <c r="B100" s="159" t="s">
+      <c r="B100" s="158" t="s">
         <v>246</v>
       </c>
-      <c r="C100" s="159">
+      <c r="C100" s="158">
         <v>4279</v>
       </c>
-      <c r="D100" s="159">
+      <c r="D100" s="158">
         <v>4516</v>
       </c>
-      <c r="E100" s="159"/>
-      <c r="F100" s="159">
+      <c r="E100" s="158"/>
+      <c r="F100" s="158">
         <v>406</v>
       </c>
-      <c r="G100" s="159">
+      <c r="G100" s="158">
         <v>406</v>
       </c>
-      <c r="H100" s="159">
+      <c r="H100" s="158">
         <f t="shared" si="0"/>
         <v>5328</v>
       </c>
-      <c r="I100" s="159"/>
-      <c r="J100" s="159" t="s">
+      <c r="I100" s="158"/>
+      <c r="J100" s="158" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A101" s="158">
+      <c r="A101" s="157">
         <v>45265</v>
       </c>
-      <c r="B101" s="162" t="s">
+      <c r="B101" s="161" t="s">
         <v>498</v>
       </c>
-      <c r="C101" s="163">
+      <c r="C101" s="162">
         <v>2881087170</v>
       </c>
-      <c r="D101" s="159">
+      <c r="D101" s="158">
         <v>320</v>
       </c>
-      <c r="E101" s="159">
+      <c r="E101" s="158">
         <v>16</v>
       </c>
-      <c r="F101" s="159"/>
-      <c r="G101" s="159"/>
-      <c r="H101" s="159">
+      <c r="F101" s="158"/>
+      <c r="G101" s="158"/>
+      <c r="H101" s="158">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
-      <c r="I101" s="159"/>
-      <c r="J101" s="162" t="s">
+      <c r="I101" s="158"/>
+      <c r="J101" s="161" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A102" s="158">
+      <c r="A102" s="157">
         <v>45267</v>
       </c>
-      <c r="B102" s="162" t="s">
+      <c r="B102" s="161" t="s">
         <v>459</v>
       </c>
-      <c r="C102" s="162" t="s">
+      <c r="C102" s="161" t="s">
         <v>461</v>
       </c>
-      <c r="D102" s="159">
+      <c r="D102" s="158">
         <v>591.53</v>
       </c>
-      <c r="E102" s="159">
+      <c r="E102" s="158">
         <v>106.47</v>
       </c>
-      <c r="F102" s="159"/>
-      <c r="G102" s="159"/>
-      <c r="H102" s="159">
+      <c r="F102" s="158"/>
+      <c r="G102" s="158"/>
+      <c r="H102" s="158">
         <f t="shared" si="0"/>
         <v>698</v>
       </c>
-      <c r="I102" s="159"/>
-      <c r="J102" s="162" t="s">
+      <c r="I102" s="158"/>
+      <c r="J102" s="161" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A103" s="158">
+      <c r="A103" s="157">
         <v>45268</v>
       </c>
-      <c r="B103" s="159" t="s">
+      <c r="B103" s="158" t="s">
         <v>451</v>
       </c>
-      <c r="C103" s="159">
+      <c r="C103" s="158">
         <v>5524</v>
       </c>
-      <c r="D103" s="159">
+      <c r="D103" s="158">
         <v>270</v>
       </c>
-      <c r="E103" s="159"/>
-      <c r="F103" s="159">
+      <c r="E103" s="158"/>
+      <c r="F103" s="158">
         <v>24.3</v>
       </c>
-      <c r="G103" s="159">
+      <c r="G103" s="158">
         <v>24.3</v>
       </c>
-      <c r="H103" s="159">
+      <c r="H103" s="158">
         <v>319</v>
       </c>
-      <c r="I103" s="159"/>
-      <c r="J103" s="159" t="s">
+      <c r="I103" s="158"/>
+      <c r="J103" s="158" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A104" s="158">
+      <c r="A104" s="157">
         <v>45269</v>
       </c>
-      <c r="B104" s="162" t="s">
+      <c r="B104" s="161" t="s">
         <v>466</v>
       </c>
-      <c r="C104" s="162" t="s">
+      <c r="C104" s="161" t="s">
         <v>467</v>
       </c>
-      <c r="D104" s="159">
+      <c r="D104" s="158">
         <v>142.16999999999999</v>
       </c>
-      <c r="E104" s="159"/>
-      <c r="F104" s="160">
+      <c r="E104" s="158"/>
+      <c r="F104" s="159">
         <v>12.8</v>
       </c>
-      <c r="G104" s="159">
+      <c r="G104" s="158">
         <v>12.8</v>
       </c>
-      <c r="H104" s="159">
+      <c r="H104" s="158">
         <v>168</v>
       </c>
-      <c r="I104" s="159"/>
-      <c r="J104" s="163" t="s">
+      <c r="I104" s="158"/>
+      <c r="J104" s="162" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A105" s="158">
+      <c r="A105" s="157">
         <v>45269</v>
       </c>
-      <c r="B105" s="162" t="s">
+      <c r="B105" s="161" t="s">
         <v>495</v>
       </c>
-      <c r="C105" s="162" t="s">
+      <c r="C105" s="161" t="s">
         <v>497</v>
       </c>
-      <c r="D105" s="159">
+      <c r="D105" s="158">
         <v>1352</v>
       </c>
-      <c r="E105" s="159">
+      <c r="E105" s="158">
         <v>162</v>
       </c>
-      <c r="F105" s="160"/>
-      <c r="G105" s="159"/>
-      <c r="H105" s="161">
+      <c r="F105" s="159"/>
+      <c r="G105" s="158"/>
+      <c r="H105" s="160">
         <f>D105+E105+F105+G105</f>
         <v>1514</v>
       </c>
-      <c r="I105" s="159"/>
-      <c r="J105" s="162" t="s">
+      <c r="I105" s="158"/>
+      <c r="J105" s="161" t="s">
         <v>496</v>
       </c>
     </row>
@@ -12458,11 +12497,11 @@
       </c>
     </row>
     <row r="122" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A122" s="185" t="s">
+      <c r="A122" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="185"/>
-      <c r="C122" s="185"/>
+      <c r="B122" s="188"/>
+      <c r="C122" s="188"/>
       <c r="D122" s="155">
         <f>SUM(D93:D121)</f>
         <v>369422.4</v>
@@ -12487,11 +12526,11 @@
       <c r="J122" s="155"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="186"/>
-      <c r="B124" s="186"/>
-      <c r="C124" s="186"/>
-      <c r="D124" s="186"/>
-      <c r="E124" s="186"/>
+      <c r="A124" s="189"/>
+      <c r="B124" s="189"/>
+      <c r="C124" s="189"/>
+      <c r="D124" s="189"/>
+      <c r="E124" s="189"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:B127"/>
@@ -12522,8 +12561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12542,30 +12581,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="177" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="176"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="179"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="173"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="176"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -12597,560 +12636,563 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A5" s="7">
-        <v>45211</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1862120</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
-        <v>167950.8</v>
-      </c>
-      <c r="G5" s="8">
-        <v>167950.8</v>
-      </c>
-      <c r="H5" s="8">
-        <v>2202021.6</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A6" s="18">
-        <v>45261</v>
-      </c>
-      <c r="B6" s="154" t="s">
-        <v>407</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="D6" s="19">
-        <v>35593</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19">
-        <v>3203.4</v>
-      </c>
-      <c r="G6" s="19">
-        <v>3203.4</v>
-      </c>
-      <c r="H6" s="8">
-        <v>42000</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="153" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.6">
+    <row r="5" spans="1:10" s="156" customFormat="1" ht="15.6">
+      <c r="A5" s="20">
+        <v>45297</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="D5" s="22">
+        <v>442305</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22">
+        <v>39807</v>
+      </c>
+      <c r="G5" s="22">
+        <v>39807</v>
+      </c>
+      <c r="H5" s="19">
+        <v>521920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="156" customFormat="1" ht="15.6">
+      <c r="A6" s="20">
+        <v>45297</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="D6" s="22">
+        <v>84210</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22">
+        <v>7579</v>
+      </c>
+      <c r="G6" s="22">
+        <v>7579</v>
+      </c>
+      <c r="H6" s="19">
+        <f t="shared" ref="H6:H7" si="0">D6+E6+F6+G6</f>
+        <v>99368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="156" customFormat="1" ht="15.6">
       <c r="A7" s="20">
-        <v>45292</v>
+        <v>45297</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>485</v>
+        <v>23</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="D7" s="22">
-        <v>184600</v>
+        <v>15000</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22">
-        <v>19494</v>
+        <v>1350</v>
       </c>
       <c r="G7" s="22">
-        <v>19494</v>
+        <v>1350</v>
       </c>
       <c r="H7" s="19">
-        <f t="shared" ref="H7:H11" si="0">D7+E7+F7+G7</f>
-        <v>223588</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="164" customFormat="1" ht="15.6">
-      <c r="A8" s="18">
-        <v>44991</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="D8" s="19">
-        <v>1713185</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19">
-        <v>154186.65</v>
-      </c>
-      <c r="G8" s="19">
-        <v>154186.65</v>
-      </c>
-      <c r="H8" s="8">
-        <f>D8+E8+F8+G8</f>
-        <v>2021558.2999999998</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" s="157" customFormat="1" ht="15.6">
-      <c r="A9" s="20">
-        <v>45297</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>501</v>
-      </c>
-      <c r="D9" s="22">
-        <v>442305</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22">
-        <v>39807</v>
-      </c>
-      <c r="G9" s="22">
-        <v>39807</v>
-      </c>
-      <c r="H9" s="19">
-        <v>521920</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="157" customFormat="1" ht="15.6">
-      <c r="A10" s="20">
-        <v>45297</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="D10" s="22">
-        <v>84210</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22">
-        <v>7579</v>
-      </c>
-      <c r="G10" s="22">
-        <v>7579</v>
-      </c>
-      <c r="H10" s="19">
-        <f t="shared" si="0"/>
-        <v>99368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="157" customFormat="1" ht="15.6">
-      <c r="A11" s="20">
-        <v>45297</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="D11" s="22">
-        <v>15000</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22">
-        <v>1350</v>
-      </c>
-      <c r="G11" s="22">
-        <v>1350</v>
-      </c>
-      <c r="H11" s="19">
         <f t="shared" si="0"/>
         <v>17700</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="157" customFormat="1" ht="15.6">
-      <c r="A12" s="20">
+    <row r="8" spans="1:10" s="156" customFormat="1" ht="15.6">
+      <c r="A8" s="20">
         <v>45301</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C8" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D8" s="22">
         <v>228015</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22">
+      <c r="E8" s="22"/>
+      <c r="F8" s="22">
         <v>20521</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G8" s="22">
         <v>20521</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H8" s="19">
         <v>269058</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="181" t="s">
+    <row r="9" spans="1:10" ht="21">
+      <c r="A9" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="181"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="33">
-        <f>SUM(D5:D12)</f>
-        <v>4565028</v>
-      </c>
-      <c r="E13" s="33">
-        <f>SUM(E5:E12)</f>
+      <c r="B9" s="184"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="33">
+        <f>SUM(D5:D8)</f>
+        <v>769530</v>
+      </c>
+      <c r="E9" s="33">
+        <f>SUM(E5:E8)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="33">
-        <f>SUM(F5:F12)</f>
-        <v>414091.85</v>
-      </c>
-      <c r="G13" s="33">
-        <f>SUM(G5:G12)</f>
-        <v>414091.85</v>
-      </c>
-      <c r="H13" s="33">
-        <f>SUM(H5:H12)</f>
-        <v>5397213.9000000004</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="171" t="s">
+      <c r="F9" s="33">
+        <f>SUM(F5:F8)</f>
+        <v>69257</v>
+      </c>
+      <c r="G9" s="33">
+        <f>SUM(G5:G8)</f>
+        <v>69257</v>
+      </c>
+      <c r="H9" s="33">
+        <f>SUM(H5:H8)</f>
+        <v>908046</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="21">
+      <c r="A10" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="172"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="173"/>
-    </row>
-    <row r="15" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A15" s="34" t="s">
+      <c r="B10" s="175"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="176"/>
+    </row>
+    <row r="11" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A11" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B11" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D11" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J11" s="35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.2" customHeight="1">
+    <row r="12" spans="1:10" s="6" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A12" s="11">
+        <v>45292</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="D12" s="12">
+        <v>271.2</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
+        <v>24.41</v>
+      </c>
+      <c r="G12" s="12">
+        <v>24.41</v>
+      </c>
+      <c r="H12" s="12">
+        <v>320</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A13" s="11">
+        <v>45292</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="D13" s="12">
+        <v>5125</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12">
+        <v>461.25</v>
+      </c>
+      <c r="G13" s="12">
+        <v>461.25</v>
+      </c>
+      <c r="H13" s="12">
+        <v>6048</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A14" s="75">
+        <v>45292</v>
+      </c>
+      <c r="B14" s="167" t="s">
+        <v>523</v>
+      </c>
+      <c r="C14" s="167" t="s">
+        <v>525</v>
+      </c>
+      <c r="D14" s="168">
+        <v>506.78</v>
+      </c>
+      <c r="E14" s="168"/>
+      <c r="F14" s="168">
+        <v>91.22</v>
+      </c>
+      <c r="G14" s="168"/>
+      <c r="H14" s="76">
+        <f>D14+E14+F14+G14</f>
+        <v>598</v>
+      </c>
+      <c r="I14" s="168"/>
+      <c r="J14" s="167" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="6" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A15" s="36">
+        <v>45294</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="D15" s="37">
+        <v>29500</v>
+      </c>
+      <c r="E15" s="37">
+        <v>5310</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="12">
+        <f>D15+E15+F15+G15</f>
+        <v>34810</v>
+      </c>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1" ht="13.8" customHeight="1">
       <c r="A16" s="11">
-        <v>45292</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>48</v>
+        <v>45294</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D16" s="12">
-        <v>271.2</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12">
-        <v>24.41</v>
-      </c>
-      <c r="G16" s="12">
-        <v>24.41</v>
-      </c>
+        <v>55000</v>
+      </c>
+      <c r="E16" s="12">
+        <v>9900</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="12">
-        <v>320</v>
+        <f>D16+E16+F16+G16</f>
+        <v>64900</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="13.8" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="11">
-        <v>45292</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>125</v>
+        <v>45295</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>482</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D17" s="12">
-        <v>5125</v>
+        <v>10169.49</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12">
-        <v>461.25</v>
+        <v>915.25</v>
       </c>
       <c r="G17" s="12">
-        <v>461.25</v>
+        <v>915.25</v>
       </c>
       <c r="H17" s="12">
-        <v>6048</v>
+        <v>12000</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="156" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A18" s="36">
-        <v>45294</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>490</v>
-      </c>
-      <c r="D18" s="37">
-        <v>29500</v>
-      </c>
-      <c r="E18" s="37">
-        <v>5310</v>
-      </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A18" s="38">
+        <v>45295</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="D18" s="41">
+        <v>124350</v>
+      </c>
+      <c r="E18" s="41">
+        <v>22383</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="12">
-        <f>D18+E18+F18+G18</f>
-        <v>34810</v>
-      </c>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="156" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A19" s="11">
-        <v>45294</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D19" s="12">
-        <v>55000</v>
-      </c>
-      <c r="E19" s="12">
-        <v>9900</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+        <f t="shared" ref="H18:H21" si="1">D18+E18+F18+G18</f>
+        <v>146733</v>
+      </c>
+      <c r="I18" s="41"/>
+      <c r="J18" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.2" customHeight="1">
+      <c r="A19" s="28">
+        <v>45295</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="C19" s="31">
+        <v>2117</v>
+      </c>
+      <c r="D19" s="31">
+        <v>1330</v>
+      </c>
+      <c r="E19" s="31">
+        <v>239</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="12">
-        <f>D19+E19+F19+G19</f>
-        <v>64900</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12" t="s">
-        <v>66</v>
+        <f t="shared" si="1"/>
+        <v>1569</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A20" s="11">
-        <v>45295</v>
+      <c r="A20" s="28">
+        <v>45299</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D20" s="12">
-        <v>10169.49</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12">
-        <v>915.25</v>
-      </c>
-      <c r="G20" s="12">
-        <v>915.25</v>
-      </c>
+        <v>3890</v>
+      </c>
+      <c r="E20" s="12">
+        <v>700</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="12">
-        <v>12000</v>
+        <f t="shared" si="1"/>
+        <v>4590</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A21" s="38">
-        <v>45295</v>
-      </c>
-      <c r="B21" s="39" t="s">
+      <c r="A21" s="11">
+        <v>45299</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="40" t="s">
-        <v>491</v>
-      </c>
-      <c r="D21" s="41">
-        <v>124350</v>
-      </c>
-      <c r="E21" s="41">
-        <v>22383</v>
-      </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
+      <c r="C21" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D21" s="12">
+        <v>30700</v>
+      </c>
+      <c r="E21" s="12">
+        <v>5526</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="12">
-        <f t="shared" ref="H21:H24" si="1">D21+E21+F21+G21</f>
-        <v>146733</v>
-      </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="40" t="s">
+        <f t="shared" si="1"/>
+        <v>36226</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.2" customHeight="1">
-      <c r="A22" s="28">
-        <v>45295</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>426</v>
-      </c>
-      <c r="C22" s="31">
-        <v>2117</v>
-      </c>
-      <c r="D22" s="31">
-        <v>1330</v>
-      </c>
-      <c r="E22" s="31">
-        <v>239</v>
-      </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+    <row r="22" spans="1:10" s="164" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A22" s="11">
+        <v>45302</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="D22" s="12">
+        <v>34322.230000000003</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12">
+        <v>3089</v>
+      </c>
+      <c r="G22" s="12">
+        <v>3089</v>
+      </c>
       <c r="H22" s="12">
-        <f t="shared" si="1"/>
-        <v>1569</v>
-      </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A23" s="28">
-        <v>45299</v>
+        <v>40500</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="169" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A23" s="11">
+        <v>45302</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>492</v>
+        <v>438</v>
+      </c>
+      <c r="C23" s="12">
+        <v>468</v>
       </c>
       <c r="D23" s="12">
-        <v>3890</v>
+        <v>5250</v>
       </c>
       <c r="E23" s="12">
-        <v>700</v>
+        <v>945</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12">
-        <f t="shared" si="1"/>
-        <v>4590</v>
+        <f>D23+E23+F23+G23</f>
+        <v>6195</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="12" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A24" s="11">
-        <v>45299</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="D24" s="12">
-        <v>30700</v>
-      </c>
-      <c r="E24" s="12">
-        <v>5526</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12">
-        <f t="shared" si="1"/>
-        <v>36226</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="165" customFormat="1" ht="16.5" customHeight="1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="166" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A24" s="75">
+        <v>45303</v>
+      </c>
+      <c r="B24" s="77" t="s">
+        <v>520</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>522</v>
+      </c>
+      <c r="D24" s="76">
+        <v>422.88</v>
+      </c>
+      <c r="E24" s="76">
+        <v>76.11</v>
+      </c>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76">
+        <f>D24+E24+F24+G24</f>
+        <v>498.99</v>
+      </c>
+      <c r="I24" s="76"/>
+      <c r="J24" s="77" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="166" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="11">
-        <v>45302</v>
+        <v>45304</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="D25" s="12">
-        <v>34322.230000000003</v>
+        <v>7495</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12">
-        <v>3089</v>
+        <v>674.55</v>
       </c>
       <c r="G25" s="12">
-        <v>3089</v>
+        <v>674.55</v>
       </c>
       <c r="H25" s="12">
-        <v>40500</v>
+        <v>8845</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="165" customFormat="1" ht="16.5" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="164" customFormat="1" ht="16.5" customHeight="1">
       <c r="A26" s="11">
         <v>45306</v>
       </c>
@@ -13178,7 +13220,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="165" customFormat="1" ht="16.5" customHeight="1">
+    <row r="27" spans="1:10" s="164" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="11">
         <v>45307</v>
       </c>
@@ -13206,7 +13248,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="165" customFormat="1" ht="16.5" customHeight="1">
+    <row r="28" spans="1:10" s="164" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="11">
         <v>45308</v>
       </c>
@@ -13235,30 +13277,30 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="183" t="s">
+      <c r="A29" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="183"/>
-      <c r="C29" s="183"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
       <c r="D29" s="42">
-        <f>SUM(D16:D28)</f>
-        <v>322410.64</v>
+        <f>SUM(D12:D28)</f>
+        <v>336085.30000000005</v>
       </c>
       <c r="E29" s="42">
-        <f>SUM(E16:E28)</f>
-        <v>44058</v>
+        <f>SUM(E12:E28)</f>
+        <v>45079.11</v>
       </c>
       <c r="F29" s="42">
-        <f>SUM(F16:F28)</f>
-        <v>6987.65</v>
+        <f>SUM(F12:F28)</f>
+        <v>7753.42</v>
       </c>
       <c r="G29" s="42">
-        <f>SUM(G16:G28)</f>
-        <v>6987.65</v>
+        <f>SUM(G12:G28)</f>
+        <v>7662.2</v>
       </c>
       <c r="H29" s="43">
-        <f>SUM(H16:H28)</f>
-        <v>380445</v>
+        <f>SUM(H12:H28)</f>
+        <v>396581.99</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
@@ -13269,30 +13311,30 @@
       <c r="C30" s="44"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="174" t="s">
+      <c r="A31" s="177" t="s">
         <v>234</v>
       </c>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="176"/>
+      <c r="B31" s="178"/>
+      <c r="C31" s="178"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="179"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="171" t="s">
+      <c r="A32" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="172"/>
-      <c r="C32" s="172"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="173"/>
+      <c r="B32" s="175"/>
+      <c r="C32" s="175"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="175"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="176"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -13324,75 +13366,148 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="24"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="24"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.6">
-      <c r="A36" s="24"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="2"/>
+    <row r="34" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A34" s="7">
+        <v>45211</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1862120</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8">
+        <v>167950.8</v>
+      </c>
+      <c r="G34" s="8">
+        <v>167950.8</v>
+      </c>
+      <c r="H34" s="8">
+        <v>2202021.6</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A35" s="18">
+        <v>45261</v>
+      </c>
+      <c r="B35" s="154" t="s">
+        <v>407</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="D35" s="19">
+        <v>35593</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19">
+        <v>3203.4</v>
+      </c>
+      <c r="G35" s="19">
+        <v>3203.4</v>
+      </c>
+      <c r="H35" s="8">
+        <v>42000</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="153" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A36" s="18">
+        <v>45273</v>
+      </c>
+      <c r="B36" s="154" t="s">
+        <v>526</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D36" s="19">
+        <v>19560</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19">
+        <v>1760.4</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1760.4</v>
+      </c>
+      <c r="H36" s="8">
+        <f>D36+E36+F36+G36</f>
+        <v>23080.800000000003</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="153"/>
     </row>
     <row r="37" spans="1:10" ht="15.6">
-      <c r="A37" s="24"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.6">
-      <c r="A38" s="24"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="45"/>
+      <c r="A37" s="20">
+        <v>45292</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="D37" s="22">
+        <v>184600</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22">
+        <v>19494</v>
+      </c>
+      <c r="G37" s="22">
+        <v>19494</v>
+      </c>
+      <c r="H37" s="19">
+        <f>D37+E37+F37+G37</f>
+        <v>223588</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="163" customFormat="1" ht="15.6">
+      <c r="A38" s="18">
+        <v>44991</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="D38" s="19">
+        <v>1713185</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19">
+        <v>154186.65</v>
+      </c>
+      <c r="G38" s="19">
+        <v>154186.65</v>
+      </c>
+      <c r="H38" s="8">
+        <f>D38+E38+F38+G38</f>
+        <v>2021558.2999999998</v>
+      </c>
+      <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="181" t="s">
+      <c r="A39" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="181"/>
-      <c r="C39" s="181"/>
+      <c r="B39" s="184"/>
+      <c r="C39" s="184"/>
       <c r="D39" s="33">
         <f>SUM(D34:D38)</f>
-        <v>0</v>
+        <v>3815058</v>
       </c>
       <c r="E39" s="33">
         <f>SUM(E34:E38)</f>
@@ -13400,32 +13515,32 @@
       </c>
       <c r="F39" s="33">
         <f>SUM(F34:F38)</f>
-        <v>0</v>
+        <v>346595.25</v>
       </c>
       <c r="G39" s="33">
         <f>SUM(G34:G38)</f>
-        <v>0</v>
+        <v>346595.25</v>
       </c>
       <c r="H39" s="33">
         <f>SUM(H34:H38)</f>
-        <v>0</v>
+        <v>4512248.6999999993</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="171" t="s">
+      <c r="A40" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="172"/>
-      <c r="C40" s="172"/>
-      <c r="D40" s="172"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="173"/>
+      <c r="B40" s="175"/>
+      <c r="C40" s="175"/>
+      <c r="D40" s="175"/>
+      <c r="E40" s="175"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="175"/>
+      <c r="H40" s="175"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="176"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="34" t="s">
@@ -13736,11 +13851,11 @@
       <c r="J64" s="29"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="184" t="s">
+      <c r="A65" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="184"/>
-      <c r="C65" s="184"/>
+      <c r="B65" s="187"/>
+      <c r="C65" s="187"/>
       <c r="D65" s="51">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -13765,30 +13880,30 @@
       <c r="J65" s="51"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="174" t="s">
+      <c r="A67" s="177" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="175"/>
-      <c r="C67" s="175"/>
-      <c r="D67" s="175"/>
-      <c r="E67" s="175"/>
-      <c r="F67" s="175"/>
-      <c r="G67" s="175"/>
-      <c r="H67" s="175"/>
-      <c r="I67" s="175"/>
-      <c r="J67" s="176"/>
+      <c r="B67" s="178"/>
+      <c r="C67" s="178"/>
+      <c r="D67" s="178"/>
+      <c r="E67" s="178"/>
+      <c r="F67" s="178"/>
+      <c r="G67" s="178"/>
+      <c r="H67" s="178"/>
+      <c r="I67" s="178"/>
+      <c r="J67" s="179"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="171" t="s">
+      <c r="A68" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="172"/>
-      <c r="C68" s="172"/>
-      <c r="D68" s="172"/>
-      <c r="E68" s="172"/>
-      <c r="F68" s="172"/>
-      <c r="G68" s="172"/>
-      <c r="H68" s="173"/>
+      <c r="B68" s="175"/>
+      <c r="C68" s="175"/>
+      <c r="D68" s="175"/>
+      <c r="E68" s="175"/>
+      <c r="F68" s="175"/>
+      <c r="G68" s="175"/>
+      <c r="H68" s="176"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -13857,11 +13972,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="181" t="s">
+      <c r="A73" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="181"/>
-      <c r="C73" s="181"/>
+      <c r="B73" s="184"/>
+      <c r="C73" s="184"/>
       <c r="D73" s="33">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -13886,18 +14001,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="171" t="s">
+      <c r="A74" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="172"/>
-      <c r="C74" s="172"/>
-      <c r="D74" s="172"/>
-      <c r="E74" s="172"/>
-      <c r="F74" s="172"/>
-      <c r="G74" s="172"/>
-      <c r="H74" s="172"/>
-      <c r="I74" s="172"/>
-      <c r="J74" s="173"/>
+      <c r="B74" s="175"/>
+      <c r="C74" s="175"/>
+      <c r="D74" s="175"/>
+      <c r="E74" s="175"/>
+      <c r="F74" s="175"/>
+      <c r="G74" s="175"/>
+      <c r="H74" s="175"/>
+      <c r="I74" s="175"/>
+      <c r="J74" s="176"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="53" t="s">
@@ -14148,11 +14263,11 @@
       <c r="J93" s="66"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="182" t="s">
+      <c r="A94" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="182"/>
-      <c r="C94" s="182"/>
+      <c r="B94" s="185"/>
+      <c r="C94" s="185"/>
       <c r="D94" s="68">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -14181,8 +14296,8 @@
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:J10"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="529">
   <si>
     <t>APRIL</t>
   </si>
@@ -1611,6 +1611,9 @@
   </si>
   <si>
     <t>b23-24MQ314</t>
+  </si>
+  <si>
+    <t>MD/23/24/21965</t>
   </si>
 </sst>
 </file>
@@ -1906,7 +1909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2415,6 +2418,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2461,22 +2467,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2780,30 +2786,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="179"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="180"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="176"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="177"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -3023,11 +3029,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="180"/>
-      <c r="C12" s="180"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="181"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -3052,18 +3058,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="175"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="176"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="177"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -3850,11 +3856,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="170" t="s">
+      <c r="A42" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="171"/>
-      <c r="C42" s="172"/>
+      <c r="B42" s="172"/>
+      <c r="C42" s="173"/>
       <c r="D42" s="26">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -3879,30 +3885,30 @@
       <c r="J42" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="177" t="s">
+      <c r="A44" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="178"/>
-      <c r="C44" s="178"/>
-      <c r="D44" s="178"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="178"/>
-      <c r="G44" s="178"/>
-      <c r="H44" s="178"/>
-      <c r="I44" s="178"/>
-      <c r="J44" s="179"/>
+      <c r="B44" s="179"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="179"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="179"/>
+      <c r="H44" s="179"/>
+      <c r="I44" s="179"/>
+      <c r="J44" s="180"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="174" t="s">
+      <c r="A45" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="175"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="175"/>
-      <c r="E45" s="175"/>
-      <c r="F45" s="175"/>
-      <c r="G45" s="175"/>
-      <c r="H45" s="176"/>
+      <c r="B45" s="176"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="176"/>
+      <c r="E45" s="176"/>
+      <c r="F45" s="176"/>
+      <c r="G45" s="176"/>
+      <c r="H45" s="177"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -4178,11 +4184,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="173" t="s">
+      <c r="A56" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="173"/>
-      <c r="C56" s="173"/>
+      <c r="B56" s="174"/>
+      <c r="C56" s="174"/>
       <c r="D56" s="27">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -4207,18 +4213,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="174" t="s">
+      <c r="A57" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="175"/>
-      <c r="C57" s="175"/>
-      <c r="D57" s="175"/>
-      <c r="E57" s="175"/>
-      <c r="F57" s="175"/>
-      <c r="G57" s="175"/>
-      <c r="H57" s="175"/>
-      <c r="I57" s="175"/>
-      <c r="J57" s="176"/>
+      <c r="B57" s="176"/>
+      <c r="C57" s="176"/>
+      <c r="D57" s="176"/>
+      <c r="E57" s="176"/>
+      <c r="F57" s="176"/>
+      <c r="G57" s="176"/>
+      <c r="H57" s="176"/>
+      <c r="I57" s="176"/>
+      <c r="J57" s="177"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -5056,11 +5062,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="181" t="s">
+      <c r="A88" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="182"/>
-      <c r="C88" s="183"/>
+      <c r="B88" s="183"/>
+      <c r="C88" s="184"/>
       <c r="D88" s="27">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -5085,30 +5091,30 @@
       <c r="J88" s="27"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="177" t="s">
+      <c r="A90" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="178"/>
-      <c r="C90" s="178"/>
-      <c r="D90" s="178"/>
-      <c r="E90" s="178"/>
-      <c r="F90" s="178"/>
-      <c r="G90" s="178"/>
-      <c r="H90" s="178"/>
-      <c r="I90" s="178"/>
-      <c r="J90" s="179"/>
+      <c r="B90" s="179"/>
+      <c r="C90" s="179"/>
+      <c r="D90" s="179"/>
+      <c r="E90" s="179"/>
+      <c r="F90" s="179"/>
+      <c r="G90" s="179"/>
+      <c r="H90" s="179"/>
+      <c r="I90" s="179"/>
+      <c r="J90" s="180"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="174" t="s">
+      <c r="A91" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="175"/>
-      <c r="C91" s="175"/>
-      <c r="D91" s="175"/>
-      <c r="E91" s="175"/>
-      <c r="F91" s="175"/>
-      <c r="G91" s="175"/>
-      <c r="H91" s="176"/>
+      <c r="B91" s="176"/>
+      <c r="C91" s="176"/>
+      <c r="D91" s="176"/>
+      <c r="E91" s="176"/>
+      <c r="F91" s="176"/>
+      <c r="G91" s="176"/>
+      <c r="H91" s="177"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -5330,11 +5336,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="173" t="s">
+      <c r="A100" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="173"/>
-      <c r="C100" s="173"/>
+      <c r="B100" s="174"/>
+      <c r="C100" s="174"/>
       <c r="D100" s="27">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -5359,18 +5365,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="174" t="s">
+      <c r="A101" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="175"/>
-      <c r="C101" s="175"/>
-      <c r="D101" s="175"/>
-      <c r="E101" s="175"/>
-      <c r="F101" s="175"/>
-      <c r="G101" s="175"/>
-      <c r="H101" s="175"/>
-      <c r="I101" s="175"/>
-      <c r="J101" s="176"/>
+      <c r="B101" s="176"/>
+      <c r="C101" s="176"/>
+      <c r="D101" s="176"/>
+      <c r="E101" s="176"/>
+      <c r="F101" s="176"/>
+      <c r="G101" s="176"/>
+      <c r="H101" s="176"/>
+      <c r="I101" s="176"/>
+      <c r="J101" s="177"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -6025,11 +6031,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="170" t="s">
+      <c r="A125" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="171"/>
-      <c r="C125" s="172"/>
+      <c r="B125" s="172"/>
+      <c r="C125" s="173"/>
       <c r="D125" s="26">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -6288,30 +6294,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="179"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="180"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="176"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="177"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6398,11 +6404,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="184" t="s">
+      <c r="A7" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="184"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="185"/>
       <c r="D7" s="33">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -6427,18 +6433,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="175"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="176"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="177"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -7096,11 +7102,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="187" t="s">
+      <c r="A32" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="187"/>
-      <c r="C32" s="187"/>
+      <c r="B32" s="186"/>
+      <c r="C32" s="186"/>
       <c r="D32" s="51">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -7130,30 +7136,30 @@
       <c r="C33" s="44"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="177" t="s">
+      <c r="A34" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="178"/>
-      <c r="C34" s="178"/>
-      <c r="D34" s="178"/>
-      <c r="E34" s="178"/>
-      <c r="F34" s="178"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="179"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="179"/>
+      <c r="E34" s="179"/>
+      <c r="F34" s="179"/>
+      <c r="G34" s="179"/>
+      <c r="H34" s="179"/>
+      <c r="I34" s="179"/>
+      <c r="J34" s="180"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="174" t="s">
+      <c r="A35" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="175"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="175"/>
-      <c r="F35" s="175"/>
-      <c r="G35" s="175"/>
-      <c r="H35" s="176"/>
+      <c r="B35" s="176"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="176"/>
+      <c r="F35" s="176"/>
+      <c r="G35" s="176"/>
+      <c r="H35" s="177"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
@@ -7294,11 +7300,11 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="184" t="s">
+      <c r="A41" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="184"/>
-      <c r="C41" s="184"/>
+      <c r="B41" s="185"/>
+      <c r="C41" s="185"/>
       <c r="D41" s="33">
         <f>SUM(D37:D40)</f>
         <v>613000</v>
@@ -7323,18 +7329,18 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="174" t="s">
+      <c r="A42" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="175"/>
-      <c r="C42" s="175"/>
-      <c r="D42" s="175"/>
-      <c r="E42" s="175"/>
-      <c r="F42" s="175"/>
-      <c r="G42" s="175"/>
-      <c r="H42" s="175"/>
-      <c r="I42" s="175"/>
-      <c r="J42" s="176"/>
+      <c r="B42" s="176"/>
+      <c r="C42" s="176"/>
+      <c r="D42" s="176"/>
+      <c r="E42" s="176"/>
+      <c r="F42" s="176"/>
+      <c r="G42" s="176"/>
+      <c r="H42" s="176"/>
+      <c r="I42" s="176"/>
+      <c r="J42" s="177"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
@@ -8280,11 +8286,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="186" t="s">
+      <c r="A77" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="186"/>
-      <c r="C77" s="186"/>
+      <c r="B77" s="188"/>
+      <c r="C77" s="188"/>
       <c r="D77" s="42">
         <f>SUM(D44:D76)</f>
         <v>385770.4</v>
@@ -8327,30 +8333,30 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="177" t="s">
+      <c r="A79" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="178"/>
-      <c r="C79" s="178"/>
-      <c r="D79" s="178"/>
-      <c r="E79" s="178"/>
-      <c r="F79" s="178"/>
-      <c r="G79" s="178"/>
-      <c r="H79" s="178"/>
-      <c r="I79" s="178"/>
-      <c r="J79" s="179"/>
+      <c r="B79" s="179"/>
+      <c r="C79" s="179"/>
+      <c r="D79" s="179"/>
+      <c r="E79" s="179"/>
+      <c r="F79" s="179"/>
+      <c r="G79" s="179"/>
+      <c r="H79" s="179"/>
+      <c r="I79" s="179"/>
+      <c r="J79" s="180"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="174" t="s">
+      <c r="A80" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="175"/>
-      <c r="C80" s="175"/>
-      <c r="D80" s="175"/>
-      <c r="E80" s="175"/>
-      <c r="F80" s="175"/>
-      <c r="G80" s="175"/>
-      <c r="H80" s="176"/>
+      <c r="B80" s="176"/>
+      <c r="C80" s="176"/>
+      <c r="D80" s="176"/>
+      <c r="E80" s="176"/>
+      <c r="F80" s="176"/>
+      <c r="G80" s="176"/>
+      <c r="H80" s="177"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
@@ -8464,11 +8470,11 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="184" t="s">
+      <c r="A85" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="184"/>
-      <c r="C85" s="184"/>
+      <c r="B85" s="185"/>
+      <c r="C85" s="185"/>
       <c r="D85" s="33">
         <f>SUM(D82:D84)</f>
         <v>204284</v>
@@ -8493,18 +8499,18 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="174" t="s">
+      <c r="A86" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="175"/>
-      <c r="C86" s="175"/>
-      <c r="D86" s="175"/>
-      <c r="E86" s="175"/>
-      <c r="F86" s="175"/>
-      <c r="G86" s="175"/>
-      <c r="H86" s="175"/>
-      <c r="I86" s="175"/>
-      <c r="J86" s="176"/>
+      <c r="B86" s="176"/>
+      <c r="C86" s="176"/>
+      <c r="D86" s="176"/>
+      <c r="E86" s="176"/>
+      <c r="F86" s="176"/>
+      <c r="G86" s="176"/>
+      <c r="H86" s="176"/>
+      <c r="I86" s="176"/>
+      <c r="J86" s="177"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="53" t="s">
@@ -9259,11 +9265,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="185" t="s">
+      <c r="A114" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="185"/>
-      <c r="C114" s="185"/>
+      <c r="B114" s="187"/>
+      <c r="C114" s="187"/>
       <c r="D114" s="68">
         <f>SUM(D88:D113)</f>
         <v>438291.73</v>
@@ -9290,12 +9296,6 @@
   </sheetData>
   <autoFilter ref="B2:B114"/>
   <mergeCells count="15">
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A86:J86"/>
     <mergeCell ref="A114:C114"/>
@@ -9305,6 +9305,12 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A80:H80"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9335,30 +9341,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="178" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="179"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="180"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="176"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="177"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -9403,11 +9409,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" ht="21">
-      <c r="A6" s="180" t="s">
+      <c r="A6" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="15">
         <f>SUM(D5:D5)</f>
         <v>0</v>
@@ -9432,18 +9438,18 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="21">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="176"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="177"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="16" t="s">
@@ -10052,11 +10058,11 @@
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="190" t="s">
+      <c r="A29" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="190"/>
-      <c r="C29" s="190"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="189"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -10082,30 +10088,30 @@
       <c r="K29" s="69"/>
     </row>
     <row r="31" spans="1:11" ht="21">
-      <c r="A31" s="177" t="s">
+      <c r="A31" s="178" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="178"/>
-      <c r="C31" s="178"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="179"/>
+      <c r="B31" s="179"/>
+      <c r="C31" s="179"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="180"/>
     </row>
     <row r="32" spans="1:11" ht="21">
-      <c r="A32" s="174" t="s">
+      <c r="A32" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="175"/>
-      <c r="C32" s="175"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="175"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="176"/>
+      <c r="B32" s="176"/>
+      <c r="C32" s="176"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="176"/>
+      <c r="G32" s="176"/>
+      <c r="H32" s="177"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -10351,11 +10357,11 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="173" t="s">
+      <c r="A42" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="173"/>
-      <c r="C42" s="173"/>
+      <c r="B42" s="174"/>
+      <c r="C42" s="174"/>
       <c r="D42" s="27">
         <f>SUM(D34:D41)</f>
         <v>983754</v>
@@ -10380,18 +10386,18 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="174" t="s">
+      <c r="A43" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="175"/>
-      <c r="C43" s="175"/>
-      <c r="D43" s="175"/>
-      <c r="E43" s="175"/>
-      <c r="F43" s="175"/>
-      <c r="G43" s="175"/>
-      <c r="H43" s="175"/>
-      <c r="I43" s="175"/>
-      <c r="J43" s="176"/>
+      <c r="B43" s="176"/>
+      <c r="C43" s="176"/>
+      <c r="D43" s="176"/>
+      <c r="E43" s="176"/>
+      <c r="F43" s="176"/>
+      <c r="G43" s="176"/>
+      <c r="H43" s="176"/>
+      <c r="I43" s="176"/>
+      <c r="J43" s="177"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1">
       <c r="A44" s="16" t="s">
@@ -11421,11 +11427,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A81" s="173" t="s">
+      <c r="A81" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="173"/>
-      <c r="C81" s="173"/>
+      <c r="B81" s="174"/>
+      <c r="C81" s="174"/>
       <c r="D81" s="27">
         <f>SUM(D45:D80)</f>
         <v>599787.05000000005</v>
@@ -11450,30 +11456,30 @@
       <c r="J81" s="27"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="177" t="s">
+      <c r="A83" s="178" t="s">
         <v>232</v>
       </c>
-      <c r="B83" s="178"/>
-      <c r="C83" s="178"/>
-      <c r="D83" s="178"/>
-      <c r="E83" s="178"/>
-      <c r="F83" s="178"/>
-      <c r="G83" s="178"/>
-      <c r="H83" s="178"/>
-      <c r="I83" s="178"/>
-      <c r="J83" s="179"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="179"/>
+      <c r="D83" s="179"/>
+      <c r="E83" s="179"/>
+      <c r="F83" s="179"/>
+      <c r="G83" s="179"/>
+      <c r="H83" s="179"/>
+      <c r="I83" s="179"/>
+      <c r="J83" s="180"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="174" t="s">
+      <c r="A84" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="175"/>
-      <c r="C84" s="175"/>
-      <c r="D84" s="175"/>
-      <c r="E84" s="175"/>
-      <c r="F84" s="175"/>
-      <c r="G84" s="175"/>
-      <c r="H84" s="176"/>
+      <c r="B84" s="176"/>
+      <c r="C84" s="176"/>
+      <c r="D84" s="176"/>
+      <c r="E84" s="176"/>
+      <c r="F84" s="176"/>
+      <c r="G84" s="176"/>
+      <c r="H84" s="177"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
@@ -11618,11 +11624,11 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A90" s="173" t="s">
+      <c r="A90" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="173"/>
-      <c r="C90" s="173"/>
+      <c r="B90" s="174"/>
+      <c r="C90" s="174"/>
       <c r="D90" s="27">
         <f>SUM(D86:D89)</f>
         <v>297318</v>
@@ -11647,18 +11653,18 @@
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="174" t="s">
+      <c r="A91" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="175"/>
-      <c r="C91" s="175"/>
-      <c r="D91" s="175"/>
-      <c r="E91" s="175"/>
-      <c r="F91" s="175"/>
-      <c r="G91" s="175"/>
-      <c r="H91" s="175"/>
-      <c r="I91" s="175"/>
-      <c r="J91" s="176"/>
+      <c r="B91" s="176"/>
+      <c r="C91" s="176"/>
+      <c r="D91" s="176"/>
+      <c r="E91" s="176"/>
+      <c r="F91" s="176"/>
+      <c r="G91" s="176"/>
+      <c r="H91" s="176"/>
+      <c r="I91" s="176"/>
+      <c r="J91" s="177"/>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1">
       <c r="A92" s="16" t="s">
@@ -12497,11 +12503,11 @@
       </c>
     </row>
     <row r="122" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A122" s="188" t="s">
+      <c r="A122" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="188"/>
-      <c r="C122" s="188"/>
+      <c r="B122" s="190"/>
+      <c r="C122" s="190"/>
       <c r="D122" s="155">
         <f>SUM(D93:D121)</f>
         <v>369422.4</v>
@@ -12526,31 +12532,31 @@
       <c r="J122" s="155"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="189"/>
-      <c r="B124" s="189"/>
-      <c r="C124" s="189"/>
-      <c r="D124" s="189"/>
-      <c r="E124" s="189"/>
+      <c r="A124" s="191"/>
+      <c r="B124" s="191"/>
+      <c r="C124" s="191"/>
+      <c r="D124" s="191"/>
+      <c r="E124" s="191"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:B127"/>
   <mergeCells count="16">
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A84:H84"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A83:J83"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A84:H84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12559,10 +12565,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J94"/>
+  <dimension ref="A2:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12581,30 +12587,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="178" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="179"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="180"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="176"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="177"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -12735,11 +12741,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="184"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="185"/>
       <c r="D9" s="33">
         <f>SUM(D5:D8)</f>
         <v>769530</v>
@@ -12764,18 +12770,18 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="175"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="176"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="177"/>
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1">
       <c r="A11" s="34" t="s">
@@ -13276,341 +13282,358 @@
         <v>514</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="186" t="s">
+    <row r="29" spans="1:10" s="170" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A29" s="75">
+        <v>45315</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>528</v>
+      </c>
+      <c r="D29" s="76">
+        <v>640.62</v>
+      </c>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76">
+        <v>89.69</v>
+      </c>
+      <c r="G29" s="76">
+        <v>89.69</v>
+      </c>
+      <c r="H29" s="76">
+        <f>D29+E29+F29+G29</f>
+        <v>820</v>
+      </c>
+      <c r="I29" s="76"/>
+      <c r="J29" s="77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="21">
+      <c r="A30" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="186"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="42">
-        <f>SUM(D12:D28)</f>
-        <v>336085.30000000005</v>
-      </c>
-      <c r="E29" s="42">
+      <c r="B30" s="188"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="42">
+        <f>SUM(D12:D29)</f>
+        <v>336725.92000000004</v>
+      </c>
+      <c r="E30" s="42">
         <f>SUM(E12:E28)</f>
         <v>45079.11</v>
       </c>
-      <c r="F29" s="42">
-        <f>SUM(F12:F28)</f>
-        <v>7753.42</v>
-      </c>
-      <c r="G29" s="42">
-        <f>SUM(G12:G28)</f>
-        <v>7662.2</v>
-      </c>
-      <c r="H29" s="43">
+      <c r="F30" s="42">
+        <f>SUM(F12:F29)</f>
+        <v>7843.11</v>
+      </c>
+      <c r="G30" s="42">
+        <f>SUM(G12:G29)</f>
+        <v>7751.8899999999994</v>
+      </c>
+      <c r="H30" s="43">
         <f>SUM(H12:H28)</f>
         <v>396581.99</v>
       </c>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-    </row>
-    <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="177" t="s">
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+    </row>
+    <row r="32" spans="1:10" ht="21">
+      <c r="A32" s="178" t="s">
         <v>234</v>
       </c>
-      <c r="B31" s="178"/>
-      <c r="C31" s="178"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="179"/>
-    </row>
-    <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="174" t="s">
+      <c r="B32" s="179"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="180"/>
+    </row>
+    <row r="33" spans="1:10" ht="21">
+      <c r="A33" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="175"/>
-      <c r="C32" s="175"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="175"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" ht="31.2">
-      <c r="A33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B33" s="176"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="176"/>
+      <c r="G33" s="176"/>
+      <c r="H33" s="177"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A34" s="7">
+    <row r="34" spans="1:10" ht="31.2">
+      <c r="A34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A35" s="7">
         <v>45211</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D35" s="8">
         <v>1862120</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8">
         <v>167950.8</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G35" s="8">
         <v>167950.8</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H35" s="8">
         <v>2202021.6</v>
       </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A35" s="18">
-        <v>45261</v>
-      </c>
-      <c r="B35" s="154" t="s">
-        <v>407</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="D35" s="19">
-        <v>35593</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19">
-        <v>3203.4</v>
-      </c>
-      <c r="G35" s="19">
-        <v>3203.4</v>
-      </c>
-      <c r="H35" s="8">
-        <v>42000</v>
-      </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="153" t="s">
-        <v>409</v>
-      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A36" s="18">
-        <v>45273</v>
+        <v>45261</v>
       </c>
       <c r="B36" s="154" t="s">
-        <v>526</v>
+        <v>407</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>527</v>
+        <v>410</v>
       </c>
       <c r="D36" s="19">
-        <v>19560</v>
+        <v>35593</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19">
+        <v>3203.4</v>
+      </c>
+      <c r="G36" s="19">
+        <v>3203.4</v>
+      </c>
+      <c r="H36" s="8">
+        <v>42000</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="153" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A37" s="18">
+        <v>45273</v>
+      </c>
+      <c r="B37" s="154" t="s">
+        <v>526</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D37" s="19">
+        <v>19560</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19">
         <v>1760.4</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G37" s="19">
         <v>1760.4</v>
       </c>
-      <c r="H36" s="8">
-        <f>D36+E36+F36+G36</f>
+      <c r="H37" s="8">
+        <f>D37+E37+F37+G37</f>
         <v>23080.800000000003</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="153"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.6">
-      <c r="A37" s="20">
+      <c r="I37" s="5"/>
+      <c r="J37" s="153"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.6">
+      <c r="A38" s="20">
         <v>45292</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B38" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C38" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D38" s="22">
         <v>184600</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22">
+      <c r="E38" s="22"/>
+      <c r="F38" s="22">
         <v>19494</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G38" s="22">
         <v>19494</v>
       </c>
-      <c r="H37" s="19">
-        <f>D37+E37+F37+G37</f>
+      <c r="H38" s="19">
+        <f>D38+E38+F38+G38</f>
         <v>223588</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="163" customFormat="1" ht="15.6">
-      <c r="A38" s="18">
+    <row r="39" spans="1:10" s="163" customFormat="1" ht="15.6">
+      <c r="A39" s="18">
         <v>44991</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B39" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C39" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D39" s="19">
         <v>1713185</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19">
+      <c r="E39" s="19"/>
+      <c r="F39" s="19">
         <v>154186.65</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G39" s="19">
         <v>154186.65</v>
       </c>
-      <c r="H38" s="8">
-        <f>D38+E38+F38+G38</f>
+      <c r="H39" s="8">
+        <f>D39+E39+F39+G39</f>
         <v>2021558.2999999998</v>
-      </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="184" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="184"/>
-      <c r="C39" s="184"/>
-      <c r="D39" s="33">
-        <f>SUM(D34:D38)</f>
-        <v>3815058</v>
-      </c>
-      <c r="E39" s="33">
-        <f>SUM(E34:E38)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="33">
-        <f>SUM(F34:F38)</f>
-        <v>346595.25</v>
-      </c>
-      <c r="G39" s="33">
-        <f>SUM(G34:G38)</f>
-        <v>346595.25</v>
-      </c>
-      <c r="H39" s="33">
-        <f>SUM(H34:H38)</f>
-        <v>4512248.6999999993</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="174" t="s">
+      <c r="A40" s="185" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="185"/>
+      <c r="C40" s="185"/>
+      <c r="D40" s="33">
+        <f>SUM(D35:D39)</f>
+        <v>3815058</v>
+      </c>
+      <c r="E40" s="33">
+        <f>SUM(E35:E39)</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="33">
+        <f>SUM(F35:F39)</f>
+        <v>346595.25</v>
+      </c>
+      <c r="G40" s="33">
+        <f>SUM(G35:G39)</f>
+        <v>346595.25</v>
+      </c>
+      <c r="H40" s="33">
+        <f>SUM(H35:H39)</f>
+        <v>4512248.6999999993</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" ht="21">
+      <c r="A41" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="175"/>
-      <c r="C40" s="175"/>
-      <c r="D40" s="175"/>
-      <c r="E40" s="175"/>
-      <c r="F40" s="175"/>
-      <c r="G40" s="175"/>
-      <c r="H40" s="175"/>
-      <c r="I40" s="175"/>
-      <c r="J40" s="176"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="34" t="s">
+      <c r="B41" s="176"/>
+      <c r="C41" s="176"/>
+      <c r="D41" s="176"/>
+      <c r="E41" s="176"/>
+      <c r="F41" s="176"/>
+      <c r="G41" s="176"/>
+      <c r="H41" s="176"/>
+      <c r="I41" s="176"/>
+      <c r="J41" s="177"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B42" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C42" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D42" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E42" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="F42" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="34" t="s">
+      <c r="G42" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H41" s="35" t="s">
+      <c r="H42" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="35" t="s">
+      <c r="I42" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J41" s="35" t="s">
+      <c r="J42" s="35" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.6">
-      <c r="A42" s="24"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="1:10" ht="15.6">
       <c r="A43" s="24"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
       <c r="H43" s="47"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-    </row>
-    <row r="44" spans="1:10" ht="19.8" customHeight="1">
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.6">
       <c r="A44" s="24"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="48"/>
-    </row>
-    <row r="45" spans="1:10" ht="18" customHeight="1">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="1:10" ht="19.8" customHeight="1">
       <c r="A45" s="24"/>
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
@@ -13624,27 +13647,27 @@
     </row>
     <row r="46" spans="1:10" ht="18" customHeight="1">
       <c r="A46" s="24"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="45"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.6">
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="48"/>
+    </row>
+    <row r="47" spans="1:10" ht="18" customHeight="1">
       <c r="A47" s="24"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="47"/>
       <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
+      <c r="J47" s="45"/>
     </row>
     <row r="48" spans="1:10" ht="15.6">
       <c r="A48" s="24"/>
@@ -13660,27 +13683,27 @@
     </row>
     <row r="49" spans="1:10" ht="15.6">
       <c r="A49" s="24"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="48"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="48"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="11"/>
@@ -13720,27 +13743,27 @@
     </row>
     <row r="54" spans="1:10" ht="15.6">
       <c r="A54" s="11"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="47"/>
       <c r="I54" s="12"/>
-      <c r="J54" s="45"/>
+      <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:10" ht="15.6">
       <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="47"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
+      <c r="J55" s="45"/>
     </row>
     <row r="56" spans="1:10" ht="15.6">
       <c r="A56" s="11"/>
@@ -13756,15 +13779,15 @@
     </row>
     <row r="57" spans="1:10" ht="15.6">
       <c r="A57" s="11"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="47"/>
       <c r="I57" s="12"/>
-      <c r="J57" s="21"/>
+      <c r="J57" s="12"/>
     </row>
     <row r="58" spans="1:10" ht="15.6">
       <c r="A58" s="11"/>
@@ -13788,19 +13811,19 @@
       <c r="G59" s="12"/>
       <c r="H59" s="47"/>
       <c r="I59" s="12"/>
-      <c r="J59" s="45"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="1:10" ht="15.6">
       <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="47"/>
       <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
+      <c r="J60" s="45"/>
     </row>
     <row r="61" spans="1:10" ht="15.6">
       <c r="A61" s="11"/>
@@ -13828,122 +13851,122 @@
     </row>
     <row r="63" spans="1:10" ht="15.6">
       <c r="A63" s="11"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="21"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="47"/>
       <c r="I63" s="12"/>
-      <c r="J63" s="21"/>
+      <c r="J63" s="12"/>
     </row>
     <row r="64" spans="1:10" ht="15.6">
-      <c r="A64" s="28"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
       <c r="H64" s="47"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="29"/>
-    </row>
-    <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="187" t="s">
+      <c r="I64" s="12"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="1:10" ht="15.6">
+      <c r="A65" s="28"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="29"/>
+    </row>
+    <row r="66" spans="1:10" ht="21">
+      <c r="A66" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="187"/>
-      <c r="C65" s="187"/>
-      <c r="D65" s="51">
-        <f>SUM(D42:D64)</f>
+      <c r="B66" s="186"/>
+      <c r="C66" s="186"/>
+      <c r="D66" s="51">
+        <f>SUM(D43:D65)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="51">
-        <f>SUM(E42:E64)</f>
+      <c r="E66" s="51">
+        <f>SUM(E43:E65)</f>
         <v>0</v>
       </c>
-      <c r="F65" s="51">
-        <f>SUM(F42:F64)</f>
+      <c r="F66" s="51">
+        <f>SUM(F43:F65)</f>
         <v>0</v>
       </c>
-      <c r="G65" s="51">
-        <f>SUM(G42:G64)</f>
+      <c r="G66" s="51">
+        <f>SUM(G43:G65)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="52">
-        <f>SUM(H42:H64)</f>
+      <c r="H66" s="52">
+        <f>SUM(H43:H65)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="51"/>
-      <c r="J65" s="51"/>
-    </row>
-    <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="177" t="s">
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+    </row>
+    <row r="68" spans="1:10" ht="21">
+      <c r="A68" s="178" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="178"/>
-      <c r="C67" s="178"/>
-      <c r="D67" s="178"/>
-      <c r="E67" s="178"/>
-      <c r="F67" s="178"/>
-      <c r="G67" s="178"/>
-      <c r="H67" s="178"/>
-      <c r="I67" s="178"/>
-      <c r="J67" s="179"/>
-    </row>
-    <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="174" t="s">
+      <c r="B68" s="179"/>
+      <c r="C68" s="179"/>
+      <c r="D68" s="179"/>
+      <c r="E68" s="179"/>
+      <c r="F68" s="179"/>
+      <c r="G68" s="179"/>
+      <c r="H68" s="179"/>
+      <c r="I68" s="179"/>
+      <c r="J68" s="180"/>
+    </row>
+    <row r="69" spans="1:10" ht="21">
+      <c r="A69" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="175"/>
-      <c r="C68" s="175"/>
-      <c r="D68" s="175"/>
-      <c r="E68" s="175"/>
-      <c r="F68" s="175"/>
-      <c r="G68" s="175"/>
-      <c r="H68" s="176"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="1:10" ht="31.2">
-      <c r="A69" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B69" s="176"/>
+      <c r="C69" s="176"/>
+      <c r="D69" s="176"/>
+      <c r="E69" s="176"/>
+      <c r="F69" s="176"/>
+      <c r="G69" s="176"/>
+      <c r="H69" s="177"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" ht="15.6">
-      <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
+    <row r="70" spans="1:10" ht="31.2">
+      <c r="A70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
@@ -13961,7 +13984,7 @@
     </row>
     <row r="72" spans="1:10" ht="15.6">
       <c r="A72" s="20"/>
-      <c r="B72" s="19"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
@@ -13971,96 +13994,96 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="184" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="184"/>
-      <c r="C73" s="184"/>
-      <c r="D73" s="33">
-        <f>SUM(D70:D72)</f>
-        <v>0</v>
-      </c>
-      <c r="E73" s="33">
-        <f>SUM(E70:E72)</f>
-        <v>0</v>
-      </c>
-      <c r="F73" s="33">
-        <f>SUM(F70:F72)</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="33">
-        <f>SUM(G70:G72)</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="33">
-        <f>SUM(H70:H72)</f>
-        <v>0</v>
-      </c>
+    <row r="73" spans="1:10" ht="15.6">
+      <c r="A73" s="20"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="174" t="s">
+      <c r="A74" s="185" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="185"/>
+      <c r="C74" s="185"/>
+      <c r="D74" s="33">
+        <f>SUM(D71:D73)</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="33">
+        <f>SUM(E71:E73)</f>
+        <v>0</v>
+      </c>
+      <c r="F74" s="33">
+        <f>SUM(F71:F73)</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="33">
+        <f>SUM(G71:G73)</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="33">
+        <f>SUM(H71:H73)</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" ht="21">
+      <c r="A75" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="175"/>
-      <c r="C74" s="175"/>
-      <c r="D74" s="175"/>
-      <c r="E74" s="175"/>
-      <c r="F74" s="175"/>
-      <c r="G74" s="175"/>
-      <c r="H74" s="175"/>
-      <c r="I74" s="175"/>
-      <c r="J74" s="176"/>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="53" t="s">
+      <c r="B75" s="176"/>
+      <c r="C75" s="176"/>
+      <c r="D75" s="176"/>
+      <c r="E75" s="176"/>
+      <c r="F75" s="176"/>
+      <c r="G75" s="176"/>
+      <c r="H75" s="176"/>
+      <c r="I75" s="176"/>
+      <c r="J75" s="177"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="53" t="s">
+      <c r="B76" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="53" t="s">
+      <c r="C76" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="53" t="s">
+      <c r="D76" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="53" t="s">
+      <c r="E76" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="53" t="s">
+      <c r="F76" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="53" t="s">
+      <c r="G76" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H75" s="54" t="s">
+      <c r="H76" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I75" s="54" t="s">
+      <c r="I76" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="J75" s="54" t="s">
+      <c r="J76" s="54" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="15.6">
-      <c r="A76" s="55"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="56"/>
     </row>
     <row r="77" spans="1:10" ht="15.6">
       <c r="A77" s="55"/>
-      <c r="B77" s="12"/>
+      <c r="B77" s="8"/>
       <c r="C77" s="56"/>
       <c r="D77" s="56"/>
       <c r="E77" s="56"/>
@@ -14071,16 +14094,16 @@
       <c r="J77" s="56"/>
     </row>
     <row r="78" spans="1:10" ht="15.6">
-      <c r="A78" s="57"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="58"/>
-      <c r="F78" s="58"/>
-      <c r="G78" s="58"/>
+      <c r="A78" s="55"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="56"/>
       <c r="H78" s="56"/>
-      <c r="I78" s="58"/>
-      <c r="J78" s="58"/>
+      <c r="I78" s="56"/>
+      <c r="J78" s="56"/>
     </row>
     <row r="79" spans="1:10" ht="15.6">
       <c r="A79" s="57"/>
@@ -14090,7 +14113,7 @@
       <c r="E79" s="58"/>
       <c r="F79" s="58"/>
       <c r="G79" s="58"/>
-      <c r="H79" s="58"/>
+      <c r="H79" s="56"/>
       <c r="I79" s="58"/>
       <c r="J79" s="58"/>
     </row>
@@ -14106,41 +14129,41 @@
       <c r="I80" s="58"/>
       <c r="J80" s="58"/>
     </row>
-    <row r="81" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A81" s="11"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="21"/>
+    <row r="81" spans="1:10" ht="15.6">
+      <c r="A81" s="57"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="58"/>
+      <c r="I81" s="58"/>
+      <c r="J81" s="58"/>
     </row>
     <row r="82" spans="1:10" ht="16.2" thickBot="1">
       <c r="A82" s="11"/>
-      <c r="B82" s="45"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
       <c r="H82" s="12"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="59"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.6">
-      <c r="A83" s="57"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="58"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="21"/>
+    </row>
+    <row r="83" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A83" s="11"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="59"/>
     </row>
     <row r="84" spans="1:10" ht="15.6">
       <c r="A84" s="57"/>
@@ -14179,135 +14202,147 @@
       <c r="J86" s="58"/>
     </row>
     <row r="87" spans="1:10" ht="15.6">
-      <c r="A87" s="11"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="21"/>
+      <c r="A87" s="57"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="58"/>
+      <c r="J87" s="58"/>
     </row>
     <row r="88" spans="1:10" ht="15.6">
-      <c r="A88" s="28"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="30"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="1:10" ht="15.6">
-      <c r="A89" s="60"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="61"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="61"/>
-      <c r="J89" s="61"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="30"/>
     </row>
     <row r="90" spans="1:10" ht="15.6">
-      <c r="A90" s="36"/>
-      <c r="B90" s="62"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="58"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="63"/>
+      <c r="A90" s="60"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="61"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="61"/>
     </row>
     <row r="91" spans="1:10" ht="15.6">
-      <c r="A91" s="11"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="21"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="62"/>
+      <c r="C91" s="62"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="63"/>
     </row>
     <row r="92" spans="1:10" ht="15.6">
-      <c r="A92" s="36"/>
-      <c r="B92" s="62"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="62"/>
-    </row>
-    <row r="93" spans="1:10" ht="15">
-      <c r="A93" s="64"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="67"/>
-      <c r="I93" s="67"/>
-      <c r="J93" s="66"/>
-    </row>
-    <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="185" t="s">
+      <c r="A92" s="11"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="21"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.6">
+      <c r="A93" s="36"/>
+      <c r="B93" s="62"/>
+      <c r="C93" s="63"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="62"/>
+    </row>
+    <row r="94" spans="1:10" ht="15">
+      <c r="A94" s="64"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="67"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="67"/>
+      <c r="J94" s="66"/>
+    </row>
+    <row r="95" spans="1:10" ht="21">
+      <c r="A95" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="185"/>
-      <c r="C94" s="185"/>
-      <c r="D94" s="68">
-        <f>SUM(D76:D93)</f>
+      <c r="B95" s="187"/>
+      <c r="C95" s="187"/>
+      <c r="D95" s="68">
+        <f>SUM(D77:D94)</f>
         <v>0</v>
       </c>
-      <c r="E94" s="68">
-        <f>SUM(E76:E93)</f>
+      <c r="E95" s="68">
+        <f>SUM(E77:E94)</f>
         <v>0</v>
       </c>
-      <c r="F94" s="68">
-        <f>SUM(F76:F93)</f>
+      <c r="F95" s="68">
+        <f>SUM(F77:F94)</f>
         <v>0</v>
       </c>
-      <c r="G94" s="68">
-        <f>SUM(G76:G93)</f>
+      <c r="G95" s="68">
+        <f>SUM(G77:G94)</f>
         <v>0</v>
       </c>
-      <c r="H94" s="68">
-        <f>SUM(H76:H93)</f>
+      <c r="H95" s="68">
+        <f>SUM(H77:H94)</f>
         <v>0</v>
       </c>
-      <c r="I94" s="68"/>
-      <c r="J94" s="68"/>
+      <c r="I95" s="68"/>
+      <c r="J95" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A32:J32"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="531">
   <si>
     <t>APRIL</t>
   </si>
@@ -1614,6 +1614,12 @@
   </si>
   <si>
     <t>MD/23/24/21965</t>
+  </si>
+  <si>
+    <t>CA-701</t>
+  </si>
+  <si>
+    <t>CA-703</t>
   </si>
 </sst>
 </file>
@@ -1909,7 +1915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2414,6 +2420,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2786,30 +2795,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="180"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="181"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="177"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="178"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -3029,11 +3038,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="181" t="s">
+      <c r="A12" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="181"/>
-      <c r="C12" s="181"/>
+      <c r="B12" s="182"/>
+      <c r="C12" s="182"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -3058,18 +3067,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="175" t="s">
+      <c r="A13" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="176"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="177"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="178"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -3856,11 +3865,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="171" t="s">
+      <c r="A42" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="172"/>
-      <c r="C42" s="173"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="174"/>
       <c r="D42" s="26">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -3885,30 +3894,30 @@
       <c r="J42" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="178" t="s">
+      <c r="A44" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="179"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="179"/>
-      <c r="E44" s="179"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="179"/>
-      <c r="H44" s="179"/>
-      <c r="I44" s="179"/>
-      <c r="J44" s="180"/>
+      <c r="B44" s="180"/>
+      <c r="C44" s="180"/>
+      <c r="D44" s="180"/>
+      <c r="E44" s="180"/>
+      <c r="F44" s="180"/>
+      <c r="G44" s="180"/>
+      <c r="H44" s="180"/>
+      <c r="I44" s="180"/>
+      <c r="J44" s="181"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="175" t="s">
+      <c r="A45" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="176"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="176"/>
-      <c r="E45" s="176"/>
-      <c r="F45" s="176"/>
-      <c r="G45" s="176"/>
-      <c r="H45" s="177"/>
+      <c r="B45" s="177"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="177"/>
+      <c r="F45" s="177"/>
+      <c r="G45" s="177"/>
+      <c r="H45" s="178"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -4184,11 +4193,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="174" t="s">
+      <c r="A56" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="174"/>
-      <c r="C56" s="174"/>
+      <c r="B56" s="175"/>
+      <c r="C56" s="175"/>
       <c r="D56" s="27">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -4213,18 +4222,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="175" t="s">
+      <c r="A57" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="176"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="176"/>
-      <c r="E57" s="176"/>
-      <c r="F57" s="176"/>
-      <c r="G57" s="176"/>
-      <c r="H57" s="176"/>
-      <c r="I57" s="176"/>
-      <c r="J57" s="177"/>
+      <c r="B57" s="177"/>
+      <c r="C57" s="177"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="177"/>
+      <c r="F57" s="177"/>
+      <c r="G57" s="177"/>
+      <c r="H57" s="177"/>
+      <c r="I57" s="177"/>
+      <c r="J57" s="178"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -5062,11 +5071,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="182" t="s">
+      <c r="A88" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="183"/>
-      <c r="C88" s="184"/>
+      <c r="B88" s="184"/>
+      <c r="C88" s="185"/>
       <c r="D88" s="27">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -5091,30 +5100,30 @@
       <c r="J88" s="27"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="178" t="s">
+      <c r="A90" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="179"/>
-      <c r="C90" s="179"/>
-      <c r="D90" s="179"/>
-      <c r="E90" s="179"/>
-      <c r="F90" s="179"/>
-      <c r="G90" s="179"/>
-      <c r="H90" s="179"/>
-      <c r="I90" s="179"/>
-      <c r="J90" s="180"/>
+      <c r="B90" s="180"/>
+      <c r="C90" s="180"/>
+      <c r="D90" s="180"/>
+      <c r="E90" s="180"/>
+      <c r="F90" s="180"/>
+      <c r="G90" s="180"/>
+      <c r="H90" s="180"/>
+      <c r="I90" s="180"/>
+      <c r="J90" s="181"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="175" t="s">
+      <c r="A91" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="176"/>
-      <c r="C91" s="176"/>
-      <c r="D91" s="176"/>
-      <c r="E91" s="176"/>
-      <c r="F91" s="176"/>
-      <c r="G91" s="176"/>
-      <c r="H91" s="177"/>
+      <c r="B91" s="177"/>
+      <c r="C91" s="177"/>
+      <c r="D91" s="177"/>
+      <c r="E91" s="177"/>
+      <c r="F91" s="177"/>
+      <c r="G91" s="177"/>
+      <c r="H91" s="178"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -5336,11 +5345,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="174" t="s">
+      <c r="A100" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="174"/>
-      <c r="C100" s="174"/>
+      <c r="B100" s="175"/>
+      <c r="C100" s="175"/>
       <c r="D100" s="27">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -5365,18 +5374,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="175" t="s">
+      <c r="A101" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="176"/>
-      <c r="C101" s="176"/>
-      <c r="D101" s="176"/>
-      <c r="E101" s="176"/>
-      <c r="F101" s="176"/>
-      <c r="G101" s="176"/>
-      <c r="H101" s="176"/>
-      <c r="I101" s="176"/>
-      <c r="J101" s="177"/>
+      <c r="B101" s="177"/>
+      <c r="C101" s="177"/>
+      <c r="D101" s="177"/>
+      <c r="E101" s="177"/>
+      <c r="F101" s="177"/>
+      <c r="G101" s="177"/>
+      <c r="H101" s="177"/>
+      <c r="I101" s="177"/>
+      <c r="J101" s="178"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -6031,11 +6040,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="171" t="s">
+      <c r="A125" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="172"/>
-      <c r="C125" s="173"/>
+      <c r="B125" s="173"/>
+      <c r="C125" s="174"/>
       <c r="D125" s="26">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -6294,30 +6303,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="180"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="181"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="177"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="178"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6404,11 +6413,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="185"/>
-      <c r="C7" s="185"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
       <c r="D7" s="33">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -6433,18 +6442,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="175" t="s">
+      <c r="A8" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="176"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="177"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="178"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -7102,11 +7111,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="186" t="s">
+      <c r="A32" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="186"/>
-      <c r="C32" s="186"/>
+      <c r="B32" s="187"/>
+      <c r="C32" s="187"/>
       <c r="D32" s="51">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -7136,30 +7145,30 @@
       <c r="C33" s="44"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="178" t="s">
+      <c r="A34" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="179"/>
-      <c r="C34" s="179"/>
-      <c r="D34" s="179"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="179"/>
-      <c r="G34" s="179"/>
-      <c r="H34" s="179"/>
-      <c r="I34" s="179"/>
-      <c r="J34" s="180"/>
+      <c r="B34" s="180"/>
+      <c r="C34" s="180"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="180"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="180"/>
+      <c r="H34" s="180"/>
+      <c r="I34" s="180"/>
+      <c r="J34" s="181"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="175" t="s">
+      <c r="A35" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="176"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="176"/>
-      <c r="F35" s="176"/>
-      <c r="G35" s="176"/>
-      <c r="H35" s="177"/>
+      <c r="B35" s="177"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="177"/>
+      <c r="G35" s="177"/>
+      <c r="H35" s="178"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
@@ -7300,11 +7309,11 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="185" t="s">
+      <c r="A41" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="185"/>
-      <c r="C41" s="185"/>
+      <c r="B41" s="186"/>
+      <c r="C41" s="186"/>
       <c r="D41" s="33">
         <f>SUM(D37:D40)</f>
         <v>613000</v>
@@ -7329,18 +7338,18 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="175" t="s">
+      <c r="A42" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="176"/>
-      <c r="C42" s="176"/>
-      <c r="D42" s="176"/>
-      <c r="E42" s="176"/>
-      <c r="F42" s="176"/>
-      <c r="G42" s="176"/>
-      <c r="H42" s="176"/>
-      <c r="I42" s="176"/>
-      <c r="J42" s="177"/>
+      <c r="B42" s="177"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
+      <c r="E42" s="177"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="177"/>
+      <c r="H42" s="177"/>
+      <c r="I42" s="177"/>
+      <c r="J42" s="178"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
@@ -8286,11 +8295,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="188" t="s">
+      <c r="A77" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="188"/>
-      <c r="C77" s="188"/>
+      <c r="B77" s="189"/>
+      <c r="C77" s="189"/>
       <c r="D77" s="42">
         <f>SUM(D44:D76)</f>
         <v>385770.4</v>
@@ -8333,30 +8342,30 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="178" t="s">
+      <c r="A79" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="179"/>
-      <c r="C79" s="179"/>
-      <c r="D79" s="179"/>
-      <c r="E79" s="179"/>
-      <c r="F79" s="179"/>
-      <c r="G79" s="179"/>
-      <c r="H79" s="179"/>
-      <c r="I79" s="179"/>
-      <c r="J79" s="180"/>
+      <c r="B79" s="180"/>
+      <c r="C79" s="180"/>
+      <c r="D79" s="180"/>
+      <c r="E79" s="180"/>
+      <c r="F79" s="180"/>
+      <c r="G79" s="180"/>
+      <c r="H79" s="180"/>
+      <c r="I79" s="180"/>
+      <c r="J79" s="181"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="175" t="s">
+      <c r="A80" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="176"/>
-      <c r="C80" s="176"/>
-      <c r="D80" s="176"/>
-      <c r="E80" s="176"/>
-      <c r="F80" s="176"/>
-      <c r="G80" s="176"/>
-      <c r="H80" s="177"/>
+      <c r="B80" s="177"/>
+      <c r="C80" s="177"/>
+      <c r="D80" s="177"/>
+      <c r="E80" s="177"/>
+      <c r="F80" s="177"/>
+      <c r="G80" s="177"/>
+      <c r="H80" s="178"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
@@ -8470,11 +8479,11 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="185" t="s">
+      <c r="A85" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="185"/>
-      <c r="C85" s="185"/>
+      <c r="B85" s="186"/>
+      <c r="C85" s="186"/>
       <c r="D85" s="33">
         <f>SUM(D82:D84)</f>
         <v>204284</v>
@@ -8499,18 +8508,18 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="175" t="s">
+      <c r="A86" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="176"/>
-      <c r="C86" s="176"/>
-      <c r="D86" s="176"/>
-      <c r="E86" s="176"/>
-      <c r="F86" s="176"/>
-      <c r="G86" s="176"/>
-      <c r="H86" s="176"/>
-      <c r="I86" s="176"/>
-      <c r="J86" s="177"/>
+      <c r="B86" s="177"/>
+      <c r="C86" s="177"/>
+      <c r="D86" s="177"/>
+      <c r="E86" s="177"/>
+      <c r="F86" s="177"/>
+      <c r="G86" s="177"/>
+      <c r="H86" s="177"/>
+      <c r="I86" s="177"/>
+      <c r="J86" s="178"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="53" t="s">
@@ -9265,11 +9274,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="187" t="s">
+      <c r="A114" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="187"/>
-      <c r="C114" s="187"/>
+      <c r="B114" s="188"/>
+      <c r="C114" s="188"/>
       <c r="D114" s="68">
         <f>SUM(D88:D113)</f>
         <v>438291.73</v>
@@ -9341,30 +9350,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="179" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="180"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="181"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="177"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="178"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -9409,11 +9418,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" ht="21">
-      <c r="A6" s="181" t="s">
+      <c r="A6" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="181"/>
-      <c r="C6" s="181"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
       <c r="D6" s="15">
         <f>SUM(D5:D5)</f>
         <v>0</v>
@@ -9438,18 +9447,18 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="21">
-      <c r="A7" s="175" t="s">
+      <c r="A7" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="177"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="178"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="16" t="s">
@@ -10058,11 +10067,11 @@
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="189" t="s">
+      <c r="A29" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="189"/>
-      <c r="C29" s="189"/>
+      <c r="B29" s="190"/>
+      <c r="C29" s="190"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -10088,30 +10097,30 @@
       <c r="K29" s="69"/>
     </row>
     <row r="31" spans="1:11" ht="21">
-      <c r="A31" s="178" t="s">
+      <c r="A31" s="179" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="179"/>
-      <c r="C31" s="179"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="180"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="180"/>
+      <c r="D31" s="180"/>
+      <c r="E31" s="180"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="180"/>
+      <c r="H31" s="180"/>
+      <c r="I31" s="180"/>
+      <c r="J31" s="181"/>
     </row>
     <row r="32" spans="1:11" ht="21">
-      <c r="A32" s="175" t="s">
+      <c r="A32" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="176"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="177"/>
+      <c r="B32" s="177"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="178"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -10357,11 +10366,11 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="174" t="s">
+      <c r="A42" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="174"/>
-      <c r="C42" s="174"/>
+      <c r="B42" s="175"/>
+      <c r="C42" s="175"/>
       <c r="D42" s="27">
         <f>SUM(D34:D41)</f>
         <v>983754</v>
@@ -10386,18 +10395,18 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="175" t="s">
+      <c r="A43" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="176"/>
-      <c r="C43" s="176"/>
-      <c r="D43" s="176"/>
-      <c r="E43" s="176"/>
-      <c r="F43" s="176"/>
-      <c r="G43" s="176"/>
-      <c r="H43" s="176"/>
-      <c r="I43" s="176"/>
-      <c r="J43" s="177"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="177"/>
+      <c r="E43" s="177"/>
+      <c r="F43" s="177"/>
+      <c r="G43" s="177"/>
+      <c r="H43" s="177"/>
+      <c r="I43" s="177"/>
+      <c r="J43" s="178"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1">
       <c r="A44" s="16" t="s">
@@ -11427,11 +11436,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A81" s="174" t="s">
+      <c r="A81" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="174"/>
-      <c r="C81" s="174"/>
+      <c r="B81" s="175"/>
+      <c r="C81" s="175"/>
       <c r="D81" s="27">
         <f>SUM(D45:D80)</f>
         <v>599787.05000000005</v>
@@ -11456,30 +11465,30 @@
       <c r="J81" s="27"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="178" t="s">
+      <c r="A83" s="179" t="s">
         <v>232</v>
       </c>
-      <c r="B83" s="179"/>
-      <c r="C83" s="179"/>
-      <c r="D83" s="179"/>
-      <c r="E83" s="179"/>
-      <c r="F83" s="179"/>
-      <c r="G83" s="179"/>
-      <c r="H83" s="179"/>
-      <c r="I83" s="179"/>
-      <c r="J83" s="180"/>
+      <c r="B83" s="180"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="180"/>
+      <c r="F83" s="180"/>
+      <c r="G83" s="180"/>
+      <c r="H83" s="180"/>
+      <c r="I83" s="180"/>
+      <c r="J83" s="181"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="175" t="s">
+      <c r="A84" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="176"/>
-      <c r="C84" s="176"/>
-      <c r="D84" s="176"/>
-      <c r="E84" s="176"/>
-      <c r="F84" s="176"/>
-      <c r="G84" s="176"/>
-      <c r="H84" s="177"/>
+      <c r="B84" s="177"/>
+      <c r="C84" s="177"/>
+      <c r="D84" s="177"/>
+      <c r="E84" s="177"/>
+      <c r="F84" s="177"/>
+      <c r="G84" s="177"/>
+      <c r="H84" s="178"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
@@ -11624,11 +11633,11 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A90" s="174" t="s">
+      <c r="A90" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="174"/>
-      <c r="C90" s="174"/>
+      <c r="B90" s="175"/>
+      <c r="C90" s="175"/>
       <c r="D90" s="27">
         <f>SUM(D86:D89)</f>
         <v>297318</v>
@@ -11653,18 +11662,18 @@
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="175" t="s">
+      <c r="A91" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="176"/>
-      <c r="C91" s="176"/>
-      <c r="D91" s="176"/>
-      <c r="E91" s="176"/>
-      <c r="F91" s="176"/>
-      <c r="G91" s="176"/>
-      <c r="H91" s="176"/>
-      <c r="I91" s="176"/>
-      <c r="J91" s="177"/>
+      <c r="B91" s="177"/>
+      <c r="C91" s="177"/>
+      <c r="D91" s="177"/>
+      <c r="E91" s="177"/>
+      <c r="F91" s="177"/>
+      <c r="G91" s="177"/>
+      <c r="H91" s="177"/>
+      <c r="I91" s="177"/>
+      <c r="J91" s="178"/>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1">
       <c r="A92" s="16" t="s">
@@ -12503,11 +12512,11 @@
       </c>
     </row>
     <row r="122" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A122" s="190" t="s">
+      <c r="A122" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="190"/>
-      <c r="C122" s="190"/>
+      <c r="B122" s="191"/>
+      <c r="C122" s="191"/>
       <c r="D122" s="155">
         <f>SUM(D93:D121)</f>
         <v>369422.4</v>
@@ -12532,11 +12541,11 @@
       <c r="J122" s="155"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="191"/>
-      <c r="B124" s="191"/>
-      <c r="C124" s="191"/>
-      <c r="D124" s="191"/>
-      <c r="E124" s="191"/>
+      <c r="A124" s="192"/>
+      <c r="B124" s="192"/>
+      <c r="C124" s="192"/>
+      <c r="D124" s="192"/>
+      <c r="E124" s="192"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:B127"/>
@@ -12565,10 +12574,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J95"/>
+  <dimension ref="A2:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12587,30 +12596,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="179" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="180"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="181"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="177"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="178"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -12741,11 +12750,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="185"/>
-      <c r="C9" s="185"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
       <c r="D9" s="33">
         <f>SUM(D5:D8)</f>
         <v>769530</v>
@@ -12770,18 +12779,18 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="176"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="177"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="178"/>
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1">
       <c r="A11" s="34" t="s">
@@ -12884,10 +12893,10 @@
       <c r="D14" s="168">
         <v>506.78</v>
       </c>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168">
+      <c r="E14" s="168">
         <v>91.22</v>
       </c>
+      <c r="F14" s="168"/>
       <c r="G14" s="168"/>
       <c r="H14" s="76">
         <f>D14+E14+F14+G14</f>
@@ -13311,402 +13320,450 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="188" t="s">
+    <row r="30" spans="1:10" s="171" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A30" s="75">
+        <v>45318</v>
+      </c>
+      <c r="B30" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>529</v>
+      </c>
+      <c r="D30" s="76">
+        <v>1315.49</v>
+      </c>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76">
+        <v>107.26</v>
+      </c>
+      <c r="G30" s="76">
+        <v>107.26</v>
+      </c>
+      <c r="H30" s="76">
+        <v>1530</v>
+      </c>
+      <c r="I30" s="76"/>
+      <c r="J30" s="77" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="171" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A31" s="75">
+        <v>45318</v>
+      </c>
+      <c r="B31" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="77" t="s">
+        <v>530</v>
+      </c>
+      <c r="D31" s="76">
+        <v>1240.43</v>
+      </c>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76">
+        <v>109.78</v>
+      </c>
+      <c r="G31" s="76">
+        <v>109.78</v>
+      </c>
+      <c r="H31" s="76">
+        <v>1460</v>
+      </c>
+      <c r="I31" s="76"/>
+      <c r="J31" s="77" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="171" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A32" s="75">
+        <v>45320</v>
+      </c>
+      <c r="B32" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="77">
+        <v>6308</v>
+      </c>
+      <c r="D32" s="76">
+        <v>1711</v>
+      </c>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76">
+        <v>153.99</v>
+      </c>
+      <c r="G32" s="76">
+        <v>153.99</v>
+      </c>
+      <c r="H32" s="76">
+        <v>2019</v>
+      </c>
+      <c r="I32" s="76"/>
+      <c r="J32" s="77" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="21">
+      <c r="A33" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="188"/>
-      <c r="C30" s="188"/>
-      <c r="D30" s="42">
-        <f>SUM(D12:D29)</f>
-        <v>336725.92000000004</v>
-      </c>
-      <c r="E30" s="42">
-        <f>SUM(E12:E28)</f>
-        <v>45079.11</v>
-      </c>
-      <c r="F30" s="42">
-        <f>SUM(F12:F29)</f>
-        <v>7843.11</v>
-      </c>
-      <c r="G30" s="42">
-        <f>SUM(G12:G29)</f>
-        <v>7751.8899999999994</v>
-      </c>
-      <c r="H30" s="43">
-        <f>SUM(H12:H28)</f>
-        <v>396581.99</v>
-      </c>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-    </row>
-    <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="178" t="s">
+      <c r="B33" s="189"/>
+      <c r="C33" s="189"/>
+      <c r="D33" s="42">
+        <f>SUM(D12:D32)</f>
+        <v>340992.84</v>
+      </c>
+      <c r="E33" s="42">
+        <f>SUM(E12:E32)</f>
+        <v>45170.33</v>
+      </c>
+      <c r="F33" s="42">
+        <f>SUM(F12:F32)</f>
+        <v>8122.9199999999992</v>
+      </c>
+      <c r="G33" s="42">
+        <f>SUM(G12:G32)</f>
+        <v>8122.9199999999992</v>
+      </c>
+      <c r="H33" s="43">
+        <f>SUM(H12:H32)</f>
+        <v>402410.99</v>
+      </c>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+    </row>
+    <row r="35" spans="1:10" ht="21">
+      <c r="A35" s="179" t="s">
         <v>234</v>
       </c>
-      <c r="B32" s="179"/>
-      <c r="C32" s="179"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="180"/>
-    </row>
-    <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="175" t="s">
+      <c r="B35" s="180"/>
+      <c r="C35" s="180"/>
+      <c r="D35" s="180"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="180"/>
+      <c r="H35" s="180"/>
+      <c r="I35" s="180"/>
+      <c r="J35" s="181"/>
+    </row>
+    <row r="36" spans="1:10" ht="21">
+      <c r="A36" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" ht="31.2">
-      <c r="A34" s="3" t="s">
+      <c r="B36" s="177"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="31.2">
+      <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A35" s="7">
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A38" s="7">
         <v>45211</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D38" s="8">
         <v>1862120</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8">
+      <c r="E38" s="8"/>
+      <c r="F38" s="8">
         <v>167950.8</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G38" s="8">
         <v>167950.8</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H38" s="8">
         <v>2202021.6</v>
       </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A36" s="18">
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A39" s="18">
         <v>45261</v>
       </c>
-      <c r="B36" s="154" t="s">
+      <c r="B39" s="154" t="s">
         <v>407</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C39" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D39" s="19">
         <v>35593</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19">
-        <v>3203.4</v>
-      </c>
-      <c r="G36" s="19">
-        <v>3203.4</v>
-      </c>
-      <c r="H36" s="8">
-        <v>42000</v>
-      </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="153" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A37" s="18">
-        <v>45273</v>
-      </c>
-      <c r="B37" s="154" t="s">
-        <v>526</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="D37" s="19">
-        <v>19560</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19">
-        <v>1760.4</v>
-      </c>
-      <c r="G37" s="19">
-        <v>1760.4</v>
-      </c>
-      <c r="H37" s="8">
-        <f>D37+E37+F37+G37</f>
-        <v>23080.800000000003</v>
-      </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="153"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.6">
-      <c r="A38" s="20">
-        <v>45292</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="D38" s="22">
-        <v>184600</v>
-      </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22">
-        <v>19494</v>
-      </c>
-      <c r="G38" s="22">
-        <v>19494</v>
-      </c>
-      <c r="H38" s="19">
-        <f>D38+E38+F38+G38</f>
-        <v>223588</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="163" customFormat="1" ht="15.6">
-      <c r="A39" s="18">
-        <v>44991</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="D39" s="19">
-        <v>1713185</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19">
+        <v>3203.4</v>
+      </c>
+      <c r="G39" s="19">
+        <v>3203.4</v>
+      </c>
+      <c r="H39" s="8">
+        <v>42000</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="153" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A40" s="18">
+        <v>45273</v>
+      </c>
+      <c r="B40" s="154" t="s">
+        <v>526</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D40" s="19">
+        <v>19560</v>
+      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19">
+        <v>1760.4</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1760.4</v>
+      </c>
+      <c r="H40" s="8">
+        <f>D40+E40+F40+G40</f>
+        <v>23080.800000000003</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="153"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.6">
+      <c r="A41" s="20">
+        <v>45292</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="D41" s="22">
+        <v>184600</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22">
+        <v>19494</v>
+      </c>
+      <c r="G41" s="22">
+        <v>19494</v>
+      </c>
+      <c r="H41" s="19">
+        <f>D41+E41+F41+G41</f>
+        <v>223588</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="163" customFormat="1" ht="15.6">
+      <c r="A42" s="18">
+        <v>44991</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="D42" s="19">
+        <v>1713185</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19">
         <v>154186.65</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G42" s="19">
         <v>154186.65</v>
       </c>
-      <c r="H39" s="8">
-        <f>D39+E39+F39+G39</f>
+      <c r="H42" s="8">
+        <f>D42+E42+F42+G42</f>
         <v>2021558.2999999998</v>
       </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="185" t="s">
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" ht="21">
+      <c r="A43" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="185"/>
-      <c r="C40" s="185"/>
-      <c r="D40" s="33">
-        <f>SUM(D35:D39)</f>
+      <c r="B43" s="186"/>
+      <c r="C43" s="186"/>
+      <c r="D43" s="33">
+        <f>SUM(D38:D42)</f>
         <v>3815058</v>
       </c>
-      <c r="E40" s="33">
-        <f>SUM(E35:E39)</f>
+      <c r="E43" s="33">
+        <f>SUM(E38:E42)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="33">
-        <f>SUM(F35:F39)</f>
+      <c r="F43" s="33">
+        <f>SUM(F38:F42)</f>
         <v>346595.25</v>
       </c>
-      <c r="G40" s="33">
-        <f>SUM(G35:G39)</f>
+      <c r="G43" s="33">
+        <f>SUM(G38:G42)</f>
         <v>346595.25</v>
       </c>
-      <c r="H40" s="33">
-        <f>SUM(H35:H39)</f>
+      <c r="H43" s="33">
+        <f>SUM(H38:H42)</f>
         <v>4512248.6999999993</v>
       </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="175" t="s">
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" ht="21">
+      <c r="A44" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="176"/>
-      <c r="E41" s="176"/>
-      <c r="F41" s="176"/>
-      <c r="G41" s="176"/>
-      <c r="H41" s="176"/>
-      <c r="I41" s="176"/>
-      <c r="J41" s="177"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="34" t="s">
+      <c r="B44" s="177"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="177"/>
+      <c r="F44" s="177"/>
+      <c r="G44" s="177"/>
+      <c r="H44" s="177"/>
+      <c r="I44" s="177"/>
+      <c r="J44" s="178"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B45" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C45" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D45" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E45" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F45" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G45" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="35" t="s">
+      <c r="H45" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="35" t="s">
+      <c r="I45" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="35" t="s">
+      <c r="J45" s="35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.6">
-      <c r="A43" s="24"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="21"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.6">
-      <c r="A44" s="24"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-    </row>
-    <row r="45" spans="1:10" ht="19.8" customHeight="1">
-      <c r="A45" s="24"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="48"/>
-    </row>
-    <row r="46" spans="1:10" ht="18" customHeight="1">
+    <row r="46" spans="1:10" ht="15.6">
       <c r="A46" s="24"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="48"/>
-    </row>
-    <row r="47" spans="1:10" ht="18" customHeight="1">
+      <c r="B46" s="21"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.6">
       <c r="A47" s="24"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="47"/>
       <c r="I47" s="12"/>
-      <c r="J47" s="45"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.6">
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" ht="19.8" customHeight="1">
       <c r="A48" s="24"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.6">
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="48"/>
+    </row>
+    <row r="49" spans="1:10" ht="18" customHeight="1">
       <c r="A49" s="24"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.6">
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="48"/>
+    </row>
+    <row r="50" spans="1:10" ht="18" customHeight="1">
       <c r="A50" s="24"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="48"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="45"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
-      <c r="A51" s="11"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -13718,7 +13775,7 @@
       <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:10" ht="15.6">
-      <c r="A52" s="11"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -13730,16 +13787,16 @@
       <c r="J52" s="12"/>
     </row>
     <row r="53" spans="1:10" ht="15.6">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="48"/>
     </row>
     <row r="54" spans="1:10" ht="15.6">
       <c r="A54" s="11"/>
@@ -13755,15 +13812,15 @@
     </row>
     <row r="55" spans="1:10" ht="15.6">
       <c r="A55" s="11"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="47"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="45"/>
+      <c r="J55" s="12"/>
     </row>
     <row r="56" spans="1:10" ht="15.6">
       <c r="A56" s="11"/>
@@ -13791,379 +13848,379 @@
     </row>
     <row r="58" spans="1:10" ht="15.6">
       <c r="A58" s="11"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="47"/>
       <c r="I58" s="12"/>
-      <c r="J58" s="21"/>
+      <c r="J58" s="45"/>
     </row>
     <row r="59" spans="1:10" ht="15.6">
       <c r="A59" s="11"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="47"/>
       <c r="I59" s="12"/>
-      <c r="J59" s="21"/>
+      <c r="J59" s="12"/>
     </row>
     <row r="60" spans="1:10" ht="15.6">
       <c r="A60" s="11"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="47"/>
       <c r="I60" s="12"/>
-      <c r="J60" s="45"/>
+      <c r="J60" s="12"/>
     </row>
     <row r="61" spans="1:10" ht="15.6">
       <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="47"/>
       <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="1:10" ht="15.6">
       <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="47"/>
       <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="1:10" ht="15.6">
       <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="47"/>
       <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
+      <c r="J63" s="45"/>
     </row>
     <row r="64" spans="1:10" ht="15.6">
       <c r="A64" s="11"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="21"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="47"/>
       <c r="I64" s="12"/>
-      <c r="J64" s="21"/>
+      <c r="J64" s="12"/>
     </row>
     <row r="65" spans="1:10" ht="15.6">
-      <c r="A65" s="28"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
       <c r="H65" s="47"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="29"/>
-    </row>
-    <row r="66" spans="1:10" ht="21">
-      <c r="A66" s="186" t="s">
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+    </row>
+    <row r="66" spans="1:10" ht="15.6">
+      <c r="A66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.6">
+      <c r="A67" s="11"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.6">
+      <c r="A68" s="28"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="29"/>
+    </row>
+    <row r="69" spans="1:10" ht="21">
+      <c r="A69" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="186"/>
-      <c r="C66" s="186"/>
-      <c r="D66" s="51">
-        <f>SUM(D43:D65)</f>
+      <c r="B69" s="187"/>
+      <c r="C69" s="187"/>
+      <c r="D69" s="51">
+        <f>SUM(D46:D68)</f>
         <v>0</v>
       </c>
-      <c r="E66" s="51">
-        <f>SUM(E43:E65)</f>
+      <c r="E69" s="51">
+        <f>SUM(E46:E68)</f>
         <v>0</v>
       </c>
-      <c r="F66" s="51">
-        <f>SUM(F43:F65)</f>
+      <c r="F69" s="51">
+        <f>SUM(F46:F68)</f>
         <v>0</v>
       </c>
-      <c r="G66" s="51">
-        <f>SUM(G43:G65)</f>
+      <c r="G69" s="51">
+        <f>SUM(G46:G68)</f>
         <v>0</v>
       </c>
-      <c r="H66" s="52">
-        <f>SUM(H43:H65)</f>
+      <c r="H69" s="52">
+        <f>SUM(H46:H68)</f>
         <v>0</v>
       </c>
-      <c r="I66" s="51"/>
-      <c r="J66" s="51"/>
-    </row>
-    <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="178" t="s">
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+    </row>
+    <row r="71" spans="1:10" ht="21">
+      <c r="A71" s="179" t="s">
         <v>235</v>
       </c>
-      <c r="B68" s="179"/>
-      <c r="C68" s="179"/>
-      <c r="D68" s="179"/>
-      <c r="E68" s="179"/>
-      <c r="F68" s="179"/>
-      <c r="G68" s="179"/>
-      <c r="H68" s="179"/>
-      <c r="I68" s="179"/>
-      <c r="J68" s="180"/>
-    </row>
-    <row r="69" spans="1:10" ht="21">
-      <c r="A69" s="175" t="s">
+      <c r="B71" s="180"/>
+      <c r="C71" s="180"/>
+      <c r="D71" s="180"/>
+      <c r="E71" s="180"/>
+      <c r="F71" s="180"/>
+      <c r="G71" s="180"/>
+      <c r="H71" s="180"/>
+      <c r="I71" s="180"/>
+      <c r="J71" s="181"/>
+    </row>
+    <row r="72" spans="1:10" ht="21">
+      <c r="A72" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="176"/>
-      <c r="C69" s="176"/>
-      <c r="D69" s="176"/>
-      <c r="E69" s="176"/>
-      <c r="F69" s="176"/>
-      <c r="G69" s="176"/>
-      <c r="H69" s="177"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-    </row>
-    <row r="70" spans="1:10" ht="31.2">
-      <c r="A70" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="1:10" ht="15.6">
-      <c r="A71" s="20"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.6">
-      <c r="A72" s="20"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
+      <c r="B72" s="177"/>
+      <c r="C72" s="177"/>
+      <c r="D72" s="177"/>
+      <c r="E72" s="177"/>
+      <c r="F72" s="177"/>
+      <c r="G72" s="177"/>
+      <c r="H72" s="178"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" ht="15.6">
-      <c r="A73" s="20"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
+    <row r="73" spans="1:10" ht="31.2">
+      <c r="A73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="185" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="185"/>
-      <c r="C74" s="185"/>
-      <c r="D74" s="33">
-        <f>SUM(D71:D73)</f>
-        <v>0</v>
-      </c>
-      <c r="E74" s="33">
-        <f>SUM(E71:E73)</f>
-        <v>0</v>
-      </c>
-      <c r="F74" s="33">
-        <f>SUM(F71:F73)</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="33">
-        <f>SUM(G71:G73)</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="33">
-        <f>SUM(H71:H73)</f>
-        <v>0</v>
-      </c>
+    <row r="74" spans="1:10" ht="15.6">
+      <c r="A74" s="20"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="175" t="s">
+    <row r="75" spans="1:10" ht="15.6">
+      <c r="A75" s="20"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.6">
+      <c r="A76" s="20"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" ht="21">
+      <c r="A77" s="186" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="186"/>
+      <c r="C77" s="186"/>
+      <c r="D77" s="33">
+        <f>SUM(D74:D76)</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="33">
+        <f>SUM(E74:E76)</f>
+        <v>0</v>
+      </c>
+      <c r="F77" s="33">
+        <f>SUM(F74:F76)</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="33">
+        <f>SUM(G74:G76)</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="33">
+        <f>SUM(H74:H76)</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" ht="21">
+      <c r="A78" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="176"/>
-      <c r="C75" s="176"/>
-      <c r="D75" s="176"/>
-      <c r="E75" s="176"/>
-      <c r="F75" s="176"/>
-      <c r="G75" s="176"/>
-      <c r="H75" s="176"/>
-      <c r="I75" s="176"/>
-      <c r="J75" s="177"/>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="53" t="s">
+      <c r="B78" s="177"/>
+      <c r="C78" s="177"/>
+      <c r="D78" s="177"/>
+      <c r="E78" s="177"/>
+      <c r="F78" s="177"/>
+      <c r="G78" s="177"/>
+      <c r="H78" s="177"/>
+      <c r="I78" s="177"/>
+      <c r="J78" s="178"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="53" t="s">
+      <c r="B79" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="53" t="s">
+      <c r="C79" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="53" t="s">
+      <c r="D79" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="53" t="s">
+      <c r="E79" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="53" t="s">
+      <c r="F79" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="53" t="s">
+      <c r="G79" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H76" s="54" t="s">
+      <c r="H79" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I76" s="54" t="s">
+      <c r="I79" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="J76" s="54" t="s">
+      <c r="J79" s="54" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.6">
-      <c r="A77" s="55"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="56"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="56"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="56"/>
-    </row>
-    <row r="78" spans="1:10" ht="15.6">
-      <c r="A78" s="55"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="56"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.6">
-      <c r="A79" s="57"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-    </row>
     <row r="80" spans="1:10" ht="15.6">
-      <c r="A80" s="57"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="58"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="58"/>
-      <c r="G80" s="58"/>
-      <c r="H80" s="58"/>
-      <c r="I80" s="58"/>
-      <c r="J80" s="58"/>
+      <c r="A80" s="55"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56"/>
     </row>
     <row r="81" spans="1:10" ht="15.6">
-      <c r="A81" s="57"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="58"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="58"/>
-      <c r="I81" s="58"/>
-      <c r="J81" s="58"/>
-    </row>
-    <row r="82" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A82" s="11"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="21"/>
-    </row>
-    <row r="83" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A83" s="11"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="59"/>
+      <c r="A81" s="55"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="56"/>
+    </row>
+    <row r="82" spans="1:10" ht="15.6">
+      <c r="A82" s="57"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="58"/>
+      <c r="J82" s="58"/>
+    </row>
+    <row r="83" spans="1:10" ht="15.6">
+      <c r="A83" s="57"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="58"/>
+      <c r="J83" s="58"/>
     </row>
     <row r="84" spans="1:10" ht="15.6">
       <c r="A84" s="57"/>
@@ -14177,29 +14234,29 @@
       <c r="I84" s="58"/>
       <c r="J84" s="58"/>
     </row>
-    <row r="85" spans="1:10" ht="15.6">
-      <c r="A85" s="57"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="58"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="58"/>
-      <c r="H85" s="58"/>
-      <c r="I85" s="58"/>
-      <c r="J85" s="58"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.6">
-      <c r="A86" s="57"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58"/>
-      <c r="F86" s="58"/>
-      <c r="G86" s="58"/>
-      <c r="H86" s="58"/>
-      <c r="I86" s="58"/>
-      <c r="J86" s="58"/>
+    <row r="85" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A85" s="11"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="21"/>
+    </row>
+    <row r="86" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A86" s="11"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="59"/>
     </row>
     <row r="87" spans="1:10" ht="15.6">
       <c r="A87" s="57"/>
@@ -14214,135 +14271,171 @@
       <c r="J87" s="58"/>
     </row>
     <row r="88" spans="1:10" ht="15.6">
-      <c r="A88" s="11"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="21"/>
+      <c r="A88" s="57"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="58"/>
+      <c r="J88" s="58"/>
     </row>
     <row r="89" spans="1:10" ht="15.6">
-      <c r="A89" s="28"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="30"/>
+      <c r="A89" s="57"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="58"/>
+      <c r="J89" s="58"/>
     </row>
     <row r="90" spans="1:10" ht="15.6">
-      <c r="A90" s="60"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
-      <c r="G90" s="61"/>
-      <c r="H90" s="61"/>
-      <c r="I90" s="61"/>
-      <c r="J90" s="61"/>
+      <c r="A90" s="57"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="58"/>
+      <c r="J90" s="58"/>
     </row>
     <row r="91" spans="1:10" ht="15.6">
-      <c r="A91" s="36"/>
-      <c r="B91" s="62"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="58"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="63"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="1:10" ht="15.6">
-      <c r="A92" s="11"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="21"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="30"/>
     </row>
     <row r="93" spans="1:10" ht="15.6">
-      <c r="A93" s="36"/>
-      <c r="B93" s="62"/>
-      <c r="C93" s="63"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="62"/>
-    </row>
-    <row r="94" spans="1:10" ht="15">
-      <c r="A94" s="64"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="67"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="67"/>
-      <c r="H94" s="67"/>
-      <c r="I94" s="67"/>
-      <c r="J94" s="66"/>
-    </row>
-    <row r="95" spans="1:10" ht="21">
-      <c r="A95" s="187" t="s">
+      <c r="A93" s="60"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="61"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="61"/>
+      <c r="I93" s="61"/>
+      <c r="J93" s="61"/>
+    </row>
+    <row r="94" spans="1:10" ht="15.6">
+      <c r="A94" s="36"/>
+      <c r="B94" s="62"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="63"/>
+    </row>
+    <row r="95" spans="1:10" ht="15.6">
+      <c r="A95" s="11"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="21"/>
+    </row>
+    <row r="96" spans="1:10" ht="15.6">
+      <c r="A96" s="36"/>
+      <c r="B96" s="62"/>
+      <c r="C96" s="63"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="62"/>
+    </row>
+    <row r="97" spans="1:10" ht="15">
+      <c r="A97" s="64"/>
+      <c r="B97" s="65"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="67"/>
+      <c r="H97" s="67"/>
+      <c r="I97" s="67"/>
+      <c r="J97" s="66"/>
+    </row>
+    <row r="98" spans="1:10" ht="21">
+      <c r="A98" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="187"/>
-      <c r="C95" s="187"/>
-      <c r="D95" s="68">
-        <f>SUM(D77:D94)</f>
+      <c r="B98" s="188"/>
+      <c r="C98" s="188"/>
+      <c r="D98" s="68">
+        <f>SUM(D80:D97)</f>
         <v>0</v>
       </c>
-      <c r="E95" s="68">
-        <f>SUM(E77:E94)</f>
+      <c r="E98" s="68">
+        <f>SUM(E80:E97)</f>
         <v>0</v>
       </c>
-      <c r="F95" s="68">
-        <f>SUM(F77:F94)</f>
+      <c r="F98" s="68">
+        <f>SUM(F80:F97)</f>
         <v>0</v>
       </c>
-      <c r="G95" s="68">
-        <f>SUM(G77:G94)</f>
+      <c r="G98" s="68">
+        <f>SUM(G80:G97)</f>
         <v>0</v>
       </c>
-      <c r="H95" s="68">
-        <f>SUM(H77:H94)</f>
+      <c r="H98" s="68">
+        <f>SUM(H80:H97)</f>
         <v>0</v>
       </c>
-      <c r="I95" s="68"/>
-      <c r="J95" s="68"/>
+      <c r="I98" s="68"/>
+      <c r="J98" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="A35:J35"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="534">
   <si>
     <t>APRIL</t>
   </si>
@@ -1620,6 +1620,15 @@
   </si>
   <si>
     <t>CA-703</t>
+  </si>
+  <si>
+    <t>EXPL-250159</t>
+  </si>
+  <si>
+    <t>MD/23/24/22306</t>
+  </si>
+  <si>
+    <t>SLH/3668</t>
   </si>
 </sst>
 </file>
@@ -1915,7 +1924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2420,6 +2429,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2795,30 +2807,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="181"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="182"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="178"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="179"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -3038,11 +3050,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="182"/>
-      <c r="C12" s="182"/>
+      <c r="B12" s="183"/>
+      <c r="C12" s="183"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -3067,18 +3079,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="176" t="s">
+      <c r="A13" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="177"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="178"/>
+      <c r="B13" s="178"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="179"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -3865,11 +3877,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="172" t="s">
+      <c r="A42" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="173"/>
-      <c r="C42" s="174"/>
+      <c r="B42" s="174"/>
+      <c r="C42" s="175"/>
       <c r="D42" s="26">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -3894,30 +3906,30 @@
       <c r="J42" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="179" t="s">
+      <c r="A44" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="180"/>
-      <c r="C44" s="180"/>
-      <c r="D44" s="180"/>
-      <c r="E44" s="180"/>
-      <c r="F44" s="180"/>
-      <c r="G44" s="180"/>
-      <c r="H44" s="180"/>
-      <c r="I44" s="180"/>
-      <c r="J44" s="181"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="181"/>
+      <c r="E44" s="181"/>
+      <c r="F44" s="181"/>
+      <c r="G44" s="181"/>
+      <c r="H44" s="181"/>
+      <c r="I44" s="181"/>
+      <c r="J44" s="182"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="176" t="s">
+      <c r="A45" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="177"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
-      <c r="E45" s="177"/>
-      <c r="F45" s="177"/>
-      <c r="G45" s="177"/>
-      <c r="H45" s="178"/>
+      <c r="B45" s="178"/>
+      <c r="C45" s="178"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="178"/>
+      <c r="G45" s="178"/>
+      <c r="H45" s="179"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -4193,11 +4205,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="175" t="s">
+      <c r="A56" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="175"/>
-      <c r="C56" s="175"/>
+      <c r="B56" s="176"/>
+      <c r="C56" s="176"/>
       <c r="D56" s="27">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -4222,18 +4234,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="176" t="s">
+      <c r="A57" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="177"/>
-      <c r="C57" s="177"/>
-      <c r="D57" s="177"/>
-      <c r="E57" s="177"/>
-      <c r="F57" s="177"/>
-      <c r="G57" s="177"/>
-      <c r="H57" s="177"/>
-      <c r="I57" s="177"/>
-      <c r="J57" s="178"/>
+      <c r="B57" s="178"/>
+      <c r="C57" s="178"/>
+      <c r="D57" s="178"/>
+      <c r="E57" s="178"/>
+      <c r="F57" s="178"/>
+      <c r="G57" s="178"/>
+      <c r="H57" s="178"/>
+      <c r="I57" s="178"/>
+      <c r="J57" s="179"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -5071,11 +5083,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="183" t="s">
+      <c r="A88" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="184"/>
-      <c r="C88" s="185"/>
+      <c r="B88" s="185"/>
+      <c r="C88" s="186"/>
       <c r="D88" s="27">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -5100,30 +5112,30 @@
       <c r="J88" s="27"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="179" t="s">
+      <c r="A90" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="180"/>
-      <c r="C90" s="180"/>
-      <c r="D90" s="180"/>
-      <c r="E90" s="180"/>
-      <c r="F90" s="180"/>
-      <c r="G90" s="180"/>
-      <c r="H90" s="180"/>
-      <c r="I90" s="180"/>
-      <c r="J90" s="181"/>
+      <c r="B90" s="181"/>
+      <c r="C90" s="181"/>
+      <c r="D90" s="181"/>
+      <c r="E90" s="181"/>
+      <c r="F90" s="181"/>
+      <c r="G90" s="181"/>
+      <c r="H90" s="181"/>
+      <c r="I90" s="181"/>
+      <c r="J90" s="182"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="176" t="s">
+      <c r="A91" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="177"/>
-      <c r="C91" s="177"/>
-      <c r="D91" s="177"/>
-      <c r="E91" s="177"/>
-      <c r="F91" s="177"/>
-      <c r="G91" s="177"/>
-      <c r="H91" s="178"/>
+      <c r="B91" s="178"/>
+      <c r="C91" s="178"/>
+      <c r="D91" s="178"/>
+      <c r="E91" s="178"/>
+      <c r="F91" s="178"/>
+      <c r="G91" s="178"/>
+      <c r="H91" s="179"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -5345,11 +5357,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="175" t="s">
+      <c r="A100" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="175"/>
-      <c r="C100" s="175"/>
+      <c r="B100" s="176"/>
+      <c r="C100" s="176"/>
       <c r="D100" s="27">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -5374,18 +5386,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="176" t="s">
+      <c r="A101" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="177"/>
-      <c r="C101" s="177"/>
-      <c r="D101" s="177"/>
-      <c r="E101" s="177"/>
-      <c r="F101" s="177"/>
-      <c r="G101" s="177"/>
-      <c r="H101" s="177"/>
-      <c r="I101" s="177"/>
-      <c r="J101" s="178"/>
+      <c r="B101" s="178"/>
+      <c r="C101" s="178"/>
+      <c r="D101" s="178"/>
+      <c r="E101" s="178"/>
+      <c r="F101" s="178"/>
+      <c r="G101" s="178"/>
+      <c r="H101" s="178"/>
+      <c r="I101" s="178"/>
+      <c r="J101" s="179"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -6040,11 +6052,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="172" t="s">
+      <c r="A125" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="173"/>
-      <c r="C125" s="174"/>
+      <c r="B125" s="174"/>
+      <c r="C125" s="175"/>
       <c r="D125" s="26">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -6303,30 +6315,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="181"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="182"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="178"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="179"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6413,11 +6425,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="186" t="s">
+      <c r="A7" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
       <c r="D7" s="33">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -6442,18 +6454,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="176" t="s">
+      <c r="A8" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="177"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="178"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="179"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -7111,11 +7123,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="187" t="s">
+      <c r="A32" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="187"/>
-      <c r="C32" s="187"/>
+      <c r="B32" s="188"/>
+      <c r="C32" s="188"/>
       <c r="D32" s="51">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -7145,30 +7157,30 @@
       <c r="C33" s="44"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="179" t="s">
+      <c r="A34" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="180"/>
-      <c r="C34" s="180"/>
-      <c r="D34" s="180"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="180"/>
-      <c r="H34" s="180"/>
-      <c r="I34" s="180"/>
-      <c r="J34" s="181"/>
+      <c r="B34" s="181"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="181"/>
+      <c r="F34" s="181"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="181"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="182"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="176" t="s">
+      <c r="A35" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="177"/>
-      <c r="C35" s="177"/>
-      <c r="D35" s="177"/>
-      <c r="E35" s="177"/>
-      <c r="F35" s="177"/>
-      <c r="G35" s="177"/>
-      <c r="H35" s="178"/>
+      <c r="B35" s="178"/>
+      <c r="C35" s="178"/>
+      <c r="D35" s="178"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="178"/>
+      <c r="G35" s="178"/>
+      <c r="H35" s="179"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
@@ -7309,11 +7321,11 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="186" t="s">
+      <c r="A41" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="186"/>
-      <c r="C41" s="186"/>
+      <c r="B41" s="187"/>
+      <c r="C41" s="187"/>
       <c r="D41" s="33">
         <f>SUM(D37:D40)</f>
         <v>613000</v>
@@ -7338,18 +7350,18 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="176" t="s">
+      <c r="A42" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="177"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="177"/>
-      <c r="E42" s="177"/>
-      <c r="F42" s="177"/>
-      <c r="G42" s="177"/>
-      <c r="H42" s="177"/>
-      <c r="I42" s="177"/>
-      <c r="J42" s="178"/>
+      <c r="B42" s="178"/>
+      <c r="C42" s="178"/>
+      <c r="D42" s="178"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="178"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="179"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
@@ -8295,11 +8307,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="189" t="s">
+      <c r="A77" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="189"/>
-      <c r="C77" s="189"/>
+      <c r="B77" s="190"/>
+      <c r="C77" s="190"/>
       <c r="D77" s="42">
         <f>SUM(D44:D76)</f>
         <v>385770.4</v>
@@ -8342,30 +8354,30 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="179" t="s">
+      <c r="A79" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="180"/>
-      <c r="C79" s="180"/>
-      <c r="D79" s="180"/>
-      <c r="E79" s="180"/>
-      <c r="F79" s="180"/>
-      <c r="G79" s="180"/>
-      <c r="H79" s="180"/>
-      <c r="I79" s="180"/>
-      <c r="J79" s="181"/>
+      <c r="B79" s="181"/>
+      <c r="C79" s="181"/>
+      <c r="D79" s="181"/>
+      <c r="E79" s="181"/>
+      <c r="F79" s="181"/>
+      <c r="G79" s="181"/>
+      <c r="H79" s="181"/>
+      <c r="I79" s="181"/>
+      <c r="J79" s="182"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="176" t="s">
+      <c r="A80" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="177"/>
-      <c r="C80" s="177"/>
-      <c r="D80" s="177"/>
-      <c r="E80" s="177"/>
-      <c r="F80" s="177"/>
-      <c r="G80" s="177"/>
-      <c r="H80" s="178"/>
+      <c r="B80" s="178"/>
+      <c r="C80" s="178"/>
+      <c r="D80" s="178"/>
+      <c r="E80" s="178"/>
+      <c r="F80" s="178"/>
+      <c r="G80" s="178"/>
+      <c r="H80" s="179"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
@@ -8479,11 +8491,11 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="186" t="s">
+      <c r="A85" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="186"/>
-      <c r="C85" s="186"/>
+      <c r="B85" s="187"/>
+      <c r="C85" s="187"/>
       <c r="D85" s="33">
         <f>SUM(D82:D84)</f>
         <v>204284</v>
@@ -8508,18 +8520,18 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="176" t="s">
+      <c r="A86" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="177"/>
-      <c r="C86" s="177"/>
-      <c r="D86" s="177"/>
-      <c r="E86" s="177"/>
-      <c r="F86" s="177"/>
-      <c r="G86" s="177"/>
-      <c r="H86" s="177"/>
-      <c r="I86" s="177"/>
-      <c r="J86" s="178"/>
+      <c r="B86" s="178"/>
+      <c r="C86" s="178"/>
+      <c r="D86" s="178"/>
+      <c r="E86" s="178"/>
+      <c r="F86" s="178"/>
+      <c r="G86" s="178"/>
+      <c r="H86" s="178"/>
+      <c r="I86" s="178"/>
+      <c r="J86" s="179"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="53" t="s">
@@ -9274,11 +9286,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="188" t="s">
+      <c r="A114" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="188"/>
-      <c r="C114" s="188"/>
+      <c r="B114" s="189"/>
+      <c r="C114" s="189"/>
       <c r="D114" s="68">
         <f>SUM(D88:D113)</f>
         <v>438291.73</v>
@@ -9350,30 +9362,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="180" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="181"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="182"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="178"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="179"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -9418,11 +9430,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" ht="21">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
+      <c r="B6" s="183"/>
+      <c r="C6" s="183"/>
       <c r="D6" s="15">
         <f>SUM(D5:D5)</f>
         <v>0</v>
@@ -9447,18 +9459,18 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="21">
-      <c r="A7" s="176" t="s">
+      <c r="A7" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="178"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="179"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="16" t="s">
@@ -10067,11 +10079,11 @@
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="190" t="s">
+      <c r="A29" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="190"/>
-      <c r="C29" s="190"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -10097,30 +10109,30 @@
       <c r="K29" s="69"/>
     </row>
     <row r="31" spans="1:11" ht="21">
-      <c r="A31" s="179" t="s">
+      <c r="A31" s="180" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="180"/>
-      <c r="C31" s="180"/>
-      <c r="D31" s="180"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="181"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="182"/>
     </row>
     <row r="32" spans="1:11" ht="21">
-      <c r="A32" s="176" t="s">
+      <c r="A32" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="177"/>
-      <c r="C32" s="177"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="177"/>
-      <c r="H32" s="178"/>
+      <c r="B32" s="178"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="179"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -10366,11 +10378,11 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="175" t="s">
+      <c r="A42" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="175"/>
-      <c r="C42" s="175"/>
+      <c r="B42" s="176"/>
+      <c r="C42" s="176"/>
       <c r="D42" s="27">
         <f>SUM(D34:D41)</f>
         <v>983754</v>
@@ -10395,18 +10407,18 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="176" t="s">
+      <c r="A43" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="177"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="177"/>
-      <c r="E43" s="177"/>
-      <c r="F43" s="177"/>
-      <c r="G43" s="177"/>
-      <c r="H43" s="177"/>
-      <c r="I43" s="177"/>
-      <c r="J43" s="178"/>
+      <c r="B43" s="178"/>
+      <c r="C43" s="178"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="178"/>
+      <c r="G43" s="178"/>
+      <c r="H43" s="178"/>
+      <c r="I43" s="178"/>
+      <c r="J43" s="179"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1">
       <c r="A44" s="16" t="s">
@@ -11436,11 +11448,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A81" s="175" t="s">
+      <c r="A81" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="175"/>
-      <c r="C81" s="175"/>
+      <c r="B81" s="176"/>
+      <c r="C81" s="176"/>
       <c r="D81" s="27">
         <f>SUM(D45:D80)</f>
         <v>599787.05000000005</v>
@@ -11465,30 +11477,30 @@
       <c r="J81" s="27"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="179" t="s">
+      <c r="A83" s="180" t="s">
         <v>232</v>
       </c>
-      <c r="B83" s="180"/>
-      <c r="C83" s="180"/>
-      <c r="D83" s="180"/>
-      <c r="E83" s="180"/>
-      <c r="F83" s="180"/>
-      <c r="G83" s="180"/>
-      <c r="H83" s="180"/>
-      <c r="I83" s="180"/>
-      <c r="J83" s="181"/>
+      <c r="B83" s="181"/>
+      <c r="C83" s="181"/>
+      <c r="D83" s="181"/>
+      <c r="E83" s="181"/>
+      <c r="F83" s="181"/>
+      <c r="G83" s="181"/>
+      <c r="H83" s="181"/>
+      <c r="I83" s="181"/>
+      <c r="J83" s="182"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="176" t="s">
+      <c r="A84" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="177"/>
-      <c r="C84" s="177"/>
-      <c r="D84" s="177"/>
-      <c r="E84" s="177"/>
-      <c r="F84" s="177"/>
-      <c r="G84" s="177"/>
-      <c r="H84" s="178"/>
+      <c r="B84" s="178"/>
+      <c r="C84" s="178"/>
+      <c r="D84" s="178"/>
+      <c r="E84" s="178"/>
+      <c r="F84" s="178"/>
+      <c r="G84" s="178"/>
+      <c r="H84" s="179"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
@@ -11633,11 +11645,11 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A90" s="175" t="s">
+      <c r="A90" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="175"/>
-      <c r="C90" s="175"/>
+      <c r="B90" s="176"/>
+      <c r="C90" s="176"/>
       <c r="D90" s="27">
         <f>SUM(D86:D89)</f>
         <v>297318</v>
@@ -11662,18 +11674,18 @@
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="176" t="s">
+      <c r="A91" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="177"/>
-      <c r="C91" s="177"/>
-      <c r="D91" s="177"/>
-      <c r="E91" s="177"/>
-      <c r="F91" s="177"/>
-      <c r="G91" s="177"/>
-      <c r="H91" s="177"/>
-      <c r="I91" s="177"/>
-      <c r="J91" s="178"/>
+      <c r="B91" s="178"/>
+      <c r="C91" s="178"/>
+      <c r="D91" s="178"/>
+      <c r="E91" s="178"/>
+      <c r="F91" s="178"/>
+      <c r="G91" s="178"/>
+      <c r="H91" s="178"/>
+      <c r="I91" s="178"/>
+      <c r="J91" s="179"/>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1">
       <c r="A92" s="16" t="s">
@@ -12512,11 +12524,11 @@
       </c>
     </row>
     <row r="122" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A122" s="191" t="s">
+      <c r="A122" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="191"/>
-      <c r="C122" s="191"/>
+      <c r="B122" s="192"/>
+      <c r="C122" s="192"/>
       <c r="D122" s="155">
         <f>SUM(D93:D121)</f>
         <v>369422.4</v>
@@ -12541,11 +12553,11 @@
       <c r="J122" s="155"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="192"/>
-      <c r="B124" s="192"/>
-      <c r="C124" s="192"/>
-      <c r="D124" s="192"/>
-      <c r="E124" s="192"/>
+      <c r="A124" s="193"/>
+      <c r="B124" s="193"/>
+      <c r="C124" s="193"/>
+      <c r="D124" s="193"/>
+      <c r="E124" s="193"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:B127"/>
@@ -12574,10 +12586,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J98"/>
+  <dimension ref="A2:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12596,30 +12608,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="180" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="181"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="182"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="178"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="179"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -12750,11 +12762,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="186" t="s">
+      <c r="A9" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="187"/>
       <c r="D9" s="33">
         <f>SUM(D5:D8)</f>
         <v>769530</v>
@@ -12779,18 +12791,18 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="177"/>
-      <c r="C10" s="177"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="177"/>
-      <c r="J10" s="178"/>
+      <c r="B10" s="178"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="179"/>
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1">
       <c r="A11" s="34" t="s">
@@ -13291,515 +13303,582 @@
         <v>514</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="170" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A29" s="75">
+    <row r="29" spans="1:10" s="172" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A29" s="11">
+        <v>45311</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1488</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12">
+        <v>133.91999999999999</v>
+      </c>
+      <c r="G29" s="12">
+        <v>133.91999999999999</v>
+      </c>
+      <c r="H29" s="12">
+        <v>1756</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="170" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A30" s="75">
         <v>45315</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B30" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C30" s="77" t="s">
         <v>528</v>
       </c>
-      <c r="D29" s="76">
+      <c r="D30" s="76">
         <v>640.62</v>
-      </c>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76">
-        <v>89.69</v>
-      </c>
-      <c r="G29" s="76">
-        <v>89.69</v>
-      </c>
-      <c r="H29" s="76">
-        <f>D29+E29+F29+G29</f>
-        <v>820</v>
-      </c>
-      <c r="I29" s="76"/>
-      <c r="J29" s="77" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="171" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A30" s="75">
-        <v>45318</v>
-      </c>
-      <c r="B30" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="77" t="s">
-        <v>529</v>
-      </c>
-      <c r="D30" s="76">
-        <v>1315.49</v>
       </c>
       <c r="E30" s="76"/>
       <c r="F30" s="76">
-        <v>107.26</v>
+        <v>89.69</v>
       </c>
       <c r="G30" s="76">
-        <v>107.26</v>
+        <v>89.69</v>
       </c>
       <c r="H30" s="76">
-        <v>1530</v>
+        <f>D30+E30+F30+G30</f>
+        <v>820</v>
       </c>
       <c r="I30" s="76"/>
       <c r="J30" s="77" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="171" customFormat="1" ht="16.5" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="172" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="75">
-        <v>45318</v>
+        <v>45316</v>
       </c>
       <c r="B31" s="77" t="s">
-        <v>35</v>
+        <v>518</v>
       </c>
       <c r="C31" s="77" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D31" s="76">
-        <v>1240.43</v>
+        <v>300</v>
       </c>
       <c r="E31" s="76"/>
       <c r="F31" s="76">
-        <v>109.78</v>
+        <v>27</v>
       </c>
       <c r="G31" s="76">
-        <v>109.78</v>
+        <v>27</v>
       </c>
       <c r="H31" s="76">
-        <v>1460</v>
+        <f>D31+E31+F31+G31</f>
+        <v>354</v>
       </c>
       <c r="I31" s="76"/>
       <c r="J31" s="77" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="171" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="75">
-        <v>45320</v>
+        <v>45318</v>
       </c>
       <c r="B32" s="77" t="s">
-        <v>246</v>
-      </c>
-      <c r="C32" s="77">
-        <v>6308</v>
+        <v>35</v>
+      </c>
+      <c r="C32" s="77" t="s">
+        <v>529</v>
       </c>
       <c r="D32" s="76">
-        <v>1711</v>
+        <v>1315.49</v>
       </c>
       <c r="E32" s="76"/>
       <c r="F32" s="76">
-        <v>153.99</v>
+        <v>107.26</v>
       </c>
       <c r="G32" s="76">
-        <v>153.99</v>
+        <v>107.26</v>
       </c>
       <c r="H32" s="76">
-        <v>2019</v>
+        <v>1530</v>
       </c>
       <c r="I32" s="76"/>
       <c r="J32" s="77" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="171" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A33" s="75">
+        <v>45318</v>
+      </c>
+      <c r="B33" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="77" t="s">
+        <v>530</v>
+      </c>
+      <c r="D33" s="76">
+        <v>1240.43</v>
+      </c>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76">
+        <v>109.78</v>
+      </c>
+      <c r="G33" s="76">
+        <v>109.78</v>
+      </c>
+      <c r="H33" s="76">
+        <v>1460</v>
+      </c>
+      <c r="I33" s="76"/>
+      <c r="J33" s="77" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="172" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A34" s="75">
+        <v>45320</v>
+      </c>
+      <c r="B34" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="77" t="s">
+        <v>532</v>
+      </c>
+      <c r="D34" s="76">
+        <v>640.62</v>
+      </c>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76">
+        <v>89.69</v>
+      </c>
+      <c r="G34" s="76">
+        <v>89.69</v>
+      </c>
+      <c r="H34" s="76">
+        <f>D34+E34+F34+G34</f>
+        <v>820</v>
+      </c>
+      <c r="I34" s="76"/>
+      <c r="J34" s="77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="171" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A35" s="75">
+        <v>45320</v>
+      </c>
+      <c r="B35" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="C35" s="77">
+        <v>6308</v>
+      </c>
+      <c r="D35" s="76">
+        <v>1711</v>
+      </c>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76">
+        <v>153.99</v>
+      </c>
+      <c r="G35" s="76">
+        <v>153.99</v>
+      </c>
+      <c r="H35" s="76">
+        <v>2019</v>
+      </c>
+      <c r="I35" s="76"/>
+      <c r="J35" s="77" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="189" t="s">
+    <row r="36" spans="1:10" ht="21">
+      <c r="A36" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="189"/>
-      <c r="C33" s="189"/>
-      <c r="D33" s="42">
-        <f>SUM(D12:D32)</f>
-        <v>340992.84</v>
-      </c>
-      <c r="E33" s="42">
-        <f>SUM(E12:E32)</f>
+      <c r="B36" s="190"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="42">
+        <f>SUM(D12:D35)</f>
+        <v>343421.46</v>
+      </c>
+      <c r="E36" s="42">
+        <f>SUM(E12:E35)</f>
         <v>45170.33</v>
       </c>
-      <c r="F33" s="42">
-        <f>SUM(F12:F32)</f>
-        <v>8122.9199999999992</v>
-      </c>
-      <c r="G33" s="42">
-        <f>SUM(G12:G32)</f>
-        <v>8122.9199999999992</v>
-      </c>
-      <c r="H33" s="43">
-        <f>SUM(H12:H32)</f>
-        <v>402410.99</v>
-      </c>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-    </row>
-    <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="179" t="s">
+      <c r="F36" s="42">
+        <f>SUM(F12:F35)</f>
+        <v>8373.5299999999988</v>
+      </c>
+      <c r="G36" s="42">
+        <f>SUM(G12:G35)</f>
+        <v>8373.5299999999988</v>
+      </c>
+      <c r="H36" s="43">
+        <f>SUM(H12:H35)</f>
+        <v>405340.99</v>
+      </c>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+    </row>
+    <row r="38" spans="1:10" ht="21">
+      <c r="A38" s="180" t="s">
         <v>234</v>
       </c>
-      <c r="B35" s="180"/>
-      <c r="C35" s="180"/>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="181"/>
-    </row>
-    <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="176" t="s">
+      <c r="B38" s="181"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
+      <c r="E38" s="181"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="181"/>
+      <c r="H38" s="181"/>
+      <c r="I38" s="181"/>
+      <c r="J38" s="182"/>
+    </row>
+    <row r="39" spans="1:10" ht="21">
+      <c r="A39" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="177"/>
-      <c r="C36" s="177"/>
-      <c r="D36" s="177"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="177"/>
-      <c r="G36" s="177"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" ht="31.2">
-      <c r="A37" s="3" t="s">
+      <c r="B39" s="178"/>
+      <c r="C39" s="178"/>
+      <c r="D39" s="178"/>
+      <c r="E39" s="178"/>
+      <c r="F39" s="178"/>
+      <c r="G39" s="178"/>
+      <c r="H39" s="179"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" ht="31.2">
+      <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A38" s="7">
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A41" s="7">
         <v>45211</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D41" s="8">
         <v>1862120</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8">
+      <c r="E41" s="8"/>
+      <c r="F41" s="8">
         <v>167950.8</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G41" s="8">
         <v>167950.8</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H41" s="8">
         <v>2202021.6</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A39" s="18">
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A42" s="18">
         <v>45261</v>
       </c>
-      <c r="B39" s="154" t="s">
+      <c r="B42" s="154" t="s">
         <v>407</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C42" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D42" s="19">
         <v>35593</v>
-      </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19">
-        <v>3203.4</v>
-      </c>
-      <c r="G39" s="19">
-        <v>3203.4</v>
-      </c>
-      <c r="H39" s="8">
-        <v>42000</v>
-      </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="153" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A40" s="18">
-        <v>45273</v>
-      </c>
-      <c r="B40" s="154" t="s">
-        <v>526</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="D40" s="19">
-        <v>19560</v>
-      </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19">
-        <v>1760.4</v>
-      </c>
-      <c r="G40" s="19">
-        <v>1760.4</v>
-      </c>
-      <c r="H40" s="8">
-        <f>D40+E40+F40+G40</f>
-        <v>23080.800000000003</v>
-      </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="153"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.6">
-      <c r="A41" s="20">
-        <v>45292</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="D41" s="22">
-        <v>184600</v>
-      </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22">
-        <v>19494</v>
-      </c>
-      <c r="G41" s="22">
-        <v>19494</v>
-      </c>
-      <c r="H41" s="19">
-        <f>D41+E41+F41+G41</f>
-        <v>223588</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="163" customFormat="1" ht="15.6">
-      <c r="A42" s="18">
-        <v>44991</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="D42" s="19">
-        <v>1713185</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="19">
+        <v>3203.4</v>
+      </c>
+      <c r="G42" s="19">
+        <v>3203.4</v>
+      </c>
+      <c r="H42" s="8">
+        <v>42000</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="153" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A43" s="18">
+        <v>45273</v>
+      </c>
+      <c r="B43" s="154" t="s">
+        <v>526</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D43" s="19">
+        <v>19560</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19">
+        <v>1760.4</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1760.4</v>
+      </c>
+      <c r="H43" s="8">
+        <f>D43+E43+F43+G43</f>
+        <v>23080.800000000003</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="153"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.6">
+      <c r="A44" s="20">
+        <v>45292</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="D44" s="22">
+        <v>184600</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22">
+        <v>19494</v>
+      </c>
+      <c r="G44" s="22">
+        <v>19494</v>
+      </c>
+      <c r="H44" s="19">
+        <f>D44+E44+F44+G44</f>
+        <v>223588</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="163" customFormat="1" ht="15.6">
+      <c r="A45" s="18">
+        <v>44991</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="D45" s="19">
+        <v>1713185</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19">
         <v>154186.65</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G45" s="19">
         <v>154186.65</v>
       </c>
-      <c r="H42" s="8">
-        <f>D42+E42+F42+G42</f>
+      <c r="H45" s="8">
+        <f>D45+E45+F45+G45</f>
         <v>2021558.2999999998</v>
       </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="186" t="s">
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" ht="21">
+      <c r="A46" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="186"/>
-      <c r="C43" s="186"/>
-      <c r="D43" s="33">
-        <f>SUM(D38:D42)</f>
+      <c r="B46" s="187"/>
+      <c r="C46" s="187"/>
+      <c r="D46" s="33">
+        <f>SUM(D41:D45)</f>
         <v>3815058</v>
       </c>
-      <c r="E43" s="33">
-        <f>SUM(E38:E42)</f>
+      <c r="E46" s="33">
+        <f>SUM(E41:E45)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="33">
-        <f>SUM(F38:F42)</f>
+      <c r="F46" s="33">
+        <f>SUM(F41:F45)</f>
         <v>346595.25</v>
       </c>
-      <c r="G43" s="33">
-        <f>SUM(G38:G42)</f>
+      <c r="G46" s="33">
+        <f>SUM(G41:G45)</f>
         <v>346595.25</v>
       </c>
-      <c r="H43" s="33">
-        <f>SUM(H38:H42)</f>
+      <c r="H46" s="33">
+        <f>SUM(H41:H45)</f>
         <v>4512248.6999999993</v>
       </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="176" t="s">
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" ht="21">
+      <c r="A47" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="177"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="177"/>
-      <c r="E44" s="177"/>
-      <c r="F44" s="177"/>
-      <c r="G44" s="177"/>
-      <c r="H44" s="177"/>
-      <c r="I44" s="177"/>
-      <c r="J44" s="178"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="34" t="s">
+      <c r="B47" s="178"/>
+      <c r="C47" s="178"/>
+      <c r="D47" s="178"/>
+      <c r="E47" s="178"/>
+      <c r="F47" s="178"/>
+      <c r="G47" s="178"/>
+      <c r="H47" s="178"/>
+      <c r="I47" s="178"/>
+      <c r="J47" s="179"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B48" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C48" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D48" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E48" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F48" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="34" t="s">
+      <c r="G48" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="35" t="s">
+      <c r="H48" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I45" s="35" t="s">
+      <c r="I48" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J45" s="35" t="s">
+      <c r="J48" s="35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.6">
-      <c r="A46" s="24"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="21"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.6">
-      <c r="A47" s="24"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-    </row>
-    <row r="48" spans="1:10" ht="19.8" customHeight="1">
-      <c r="A48" s="24"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="48"/>
-    </row>
-    <row r="49" spans="1:10" ht="18" customHeight="1">
-      <c r="A49" s="24"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="48"/>
-    </row>
-    <row r="50" spans="1:10" ht="18" customHeight="1">
+    <row r="49" spans="1:10" ht="15.6">
+      <c r="A49" s="24">
+        <v>45325</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" s="46">
+        <v>4593</v>
+      </c>
+      <c r="D49" s="21">
+        <v>1698</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21">
+        <v>152.82</v>
+      </c>
+      <c r="G49" s="21">
+        <v>152.82</v>
+      </c>
+      <c r="H49" s="47">
+        <f>D49+E49+F49+G49</f>
+        <v>2003.6399999999999</v>
+      </c>
+      <c r="I49" s="12"/>
+      <c r="J49" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="24"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="47"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="45"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.6">
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="1:10" ht="19.8" customHeight="1">
       <c r="A51" s="24"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.6">
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="48"/>
+    </row>
+    <row r="52" spans="1:10" ht="18" customHeight="1">
       <c r="A52" s="24"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.6">
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="48"/>
+    </row>
+    <row r="53" spans="1:10" ht="18" customHeight="1">
       <c r="A53" s="24"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="48"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="45"/>
     </row>
     <row r="54" spans="1:10" ht="15.6">
-      <c r="A54" s="11"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -13811,7 +13890,7 @@
       <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:10" ht="15.6">
-      <c r="A55" s="11"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -13823,16 +13902,16 @@
       <c r="J55" s="12"/>
     </row>
     <row r="56" spans="1:10" ht="15.6">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="48"/>
     </row>
     <row r="57" spans="1:10" ht="15.6">
       <c r="A57" s="11"/>
@@ -13848,15 +13927,15 @@
     </row>
     <row r="58" spans="1:10" ht="15.6">
       <c r="A58" s="11"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="47"/>
       <c r="I58" s="12"/>
-      <c r="J58" s="45"/>
+      <c r="J58" s="12"/>
     </row>
     <row r="59" spans="1:10" ht="15.6">
       <c r="A59" s="11"/>
@@ -13884,379 +13963,379 @@
     </row>
     <row r="61" spans="1:10" ht="15.6">
       <c r="A61" s="11"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="47"/>
       <c r="I61" s="12"/>
-      <c r="J61" s="21"/>
+      <c r="J61" s="45"/>
     </row>
     <row r="62" spans="1:10" ht="15.6">
       <c r="A62" s="11"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="47"/>
       <c r="I62" s="12"/>
-      <c r="J62" s="21"/>
+      <c r="J62" s="12"/>
     </row>
     <row r="63" spans="1:10" ht="15.6">
       <c r="A63" s="11"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="47"/>
       <c r="I63" s="12"/>
-      <c r="J63" s="45"/>
+      <c r="J63" s="12"/>
     </row>
     <row r="64" spans="1:10" ht="15.6">
       <c r="A64" s="11"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="47"/>
       <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="1:10" ht="15.6">
       <c r="A65" s="11"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="47"/>
       <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="1:10" ht="15.6">
       <c r="A66" s="11"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="47"/>
       <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
+      <c r="J66" s="45"/>
     </row>
     <row r="67" spans="1:10" ht="15.6">
       <c r="A67" s="11"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="21"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="47"/>
       <c r="I67" s="12"/>
-      <c r="J67" s="21"/>
+      <c r="J67" s="12"/>
     </row>
     <row r="68" spans="1:10" ht="15.6">
-      <c r="A68" s="28"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
       <c r="H68" s="47"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="29"/>
-    </row>
-    <row r="69" spans="1:10" ht="21">
-      <c r="A69" s="187" t="s">
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.6">
+      <c r="A69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.6">
+      <c r="A70" s="11"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="21"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.6">
+      <c r="A71" s="28"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="29"/>
+    </row>
+    <row r="72" spans="1:10" ht="21">
+      <c r="A72" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="187"/>
-      <c r="C69" s="187"/>
-      <c r="D69" s="51">
-        <f>SUM(D46:D68)</f>
+      <c r="B72" s="188"/>
+      <c r="C72" s="188"/>
+      <c r="D72" s="51">
+        <f>SUM(D49:D71)</f>
+        <v>1698</v>
+      </c>
+      <c r="E72" s="51">
+        <f>SUM(E49:E71)</f>
         <v>0</v>
       </c>
-      <c r="E69" s="51">
-        <f>SUM(E46:E68)</f>
-        <v>0</v>
-      </c>
-      <c r="F69" s="51">
-        <f>SUM(F46:F68)</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="51">
-        <f>SUM(G46:G68)</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="52">
-        <f>SUM(H46:H68)</f>
-        <v>0</v>
-      </c>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-    </row>
-    <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="179" t="s">
+      <c r="F72" s="51">
+        <f>SUM(F49:F71)</f>
+        <v>152.82</v>
+      </c>
+      <c r="G72" s="51">
+        <f>SUM(G49:G71)</f>
+        <v>152.82</v>
+      </c>
+      <c r="H72" s="52">
+        <f>SUM(H49:H71)</f>
+        <v>2003.6399999999999</v>
+      </c>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+    </row>
+    <row r="74" spans="1:10" ht="21">
+      <c r="A74" s="180" t="s">
         <v>235</v>
       </c>
-      <c r="B71" s="180"/>
-      <c r="C71" s="180"/>
-      <c r="D71" s="180"/>
-      <c r="E71" s="180"/>
-      <c r="F71" s="180"/>
-      <c r="G71" s="180"/>
-      <c r="H71" s="180"/>
-      <c r="I71" s="180"/>
-      <c r="J71" s="181"/>
-    </row>
-    <row r="72" spans="1:10" ht="21">
-      <c r="A72" s="176" t="s">
+      <c r="B74" s="181"/>
+      <c r="C74" s="181"/>
+      <c r="D74" s="181"/>
+      <c r="E74" s="181"/>
+      <c r="F74" s="181"/>
+      <c r="G74" s="181"/>
+      <c r="H74" s="181"/>
+      <c r="I74" s="181"/>
+      <c r="J74" s="182"/>
+    </row>
+    <row r="75" spans="1:10" ht="21">
+      <c r="A75" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="177"/>
-      <c r="C72" s="177"/>
-      <c r="D72" s="177"/>
-      <c r="E72" s="177"/>
-      <c r="F72" s="177"/>
-      <c r="G72" s="177"/>
-      <c r="H72" s="178"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="1:10" ht="31.2">
-      <c r="A73" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.6">
-      <c r="A74" s="20"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.6">
-      <c r="A75" s="20"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
+      <c r="B75" s="178"/>
+      <c r="C75" s="178"/>
+      <c r="D75" s="178"/>
+      <c r="E75" s="178"/>
+      <c r="F75" s="178"/>
+      <c r="G75" s="178"/>
+      <c r="H75" s="179"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" ht="15.6">
-      <c r="A76" s="20"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
+    <row r="76" spans="1:10" ht="31.2">
+      <c r="A76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="186" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="186"/>
-      <c r="C77" s="186"/>
-      <c r="D77" s="33">
-        <f>SUM(D74:D76)</f>
-        <v>0</v>
-      </c>
-      <c r="E77" s="33">
-        <f>SUM(E74:E76)</f>
-        <v>0</v>
-      </c>
-      <c r="F77" s="33">
-        <f>SUM(F74:F76)</f>
-        <v>0</v>
-      </c>
-      <c r="G77" s="33">
-        <f>SUM(G74:G76)</f>
-        <v>0</v>
-      </c>
-      <c r="H77" s="33">
-        <f>SUM(H74:H76)</f>
-        <v>0</v>
-      </c>
+    <row r="77" spans="1:10" ht="15.6">
+      <c r="A77" s="20"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="21">
-      <c r="A78" s="176" t="s">
+    <row r="78" spans="1:10" ht="15.6">
+      <c r="A78" s="20"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.6">
+      <c r="A79" s="20"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" ht="21">
+      <c r="A80" s="187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="187"/>
+      <c r="C80" s="187"/>
+      <c r="D80" s="33">
+        <f>SUM(D77:D79)</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="33">
+        <f>SUM(E77:E79)</f>
+        <v>0</v>
+      </c>
+      <c r="F80" s="33">
+        <f>SUM(F77:F79)</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="33">
+        <f>SUM(G77:G79)</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="33">
+        <f>SUM(H77:H79)</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:10" ht="21">
+      <c r="A81" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="177"/>
-      <c r="C78" s="177"/>
-      <c r="D78" s="177"/>
-      <c r="E78" s="177"/>
-      <c r="F78" s="177"/>
-      <c r="G78" s="177"/>
-      <c r="H78" s="177"/>
-      <c r="I78" s="177"/>
-      <c r="J78" s="178"/>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="53" t="s">
+      <c r="B81" s="178"/>
+      <c r="C81" s="178"/>
+      <c r="D81" s="178"/>
+      <c r="E81" s="178"/>
+      <c r="F81" s="178"/>
+      <c r="G81" s="178"/>
+      <c r="H81" s="178"/>
+      <c r="I81" s="178"/>
+      <c r="J81" s="179"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="53" t="s">
+      <c r="B82" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="53" t="s">
+      <c r="C82" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="53" t="s">
+      <c r="D82" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="53" t="s">
+      <c r="E82" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="53" t="s">
+      <c r="F82" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G79" s="53" t="s">
+      <c r="G82" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H79" s="54" t="s">
+      <c r="H82" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I79" s="54" t="s">
+      <c r="I82" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="J79" s="54" t="s">
+      <c r="J82" s="54" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.6">
-      <c r="A80" s="55"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="56"/>
-    </row>
-    <row r="81" spans="1:10" ht="15.6">
-      <c r="A81" s="55"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="56"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="56"/>
-    </row>
-    <row r="82" spans="1:10" ht="15.6">
-      <c r="A82" s="57"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-    </row>
     <row r="83" spans="1:10" ht="15.6">
-      <c r="A83" s="57"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="58"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
+      <c r="A83" s="55"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="56"/>
     </row>
     <row r="84" spans="1:10" ht="15.6">
-      <c r="A84" s="57"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58"/>
-    </row>
-    <row r="85" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A85" s="11"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="21"/>
-    </row>
-    <row r="86" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A86" s="11"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="59"/>
+      <c r="A84" s="55"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="56"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.6">
+      <c r="A85" s="57"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="58"/>
+      <c r="J85" s="58"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.6">
+      <c r="A86" s="57"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="58"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="58"/>
+      <c r="J86" s="58"/>
     </row>
     <row r="87" spans="1:10" ht="15.6">
       <c r="A87" s="57"/>
@@ -14270,29 +14349,29 @@
       <c r="I87" s="58"/>
       <c r="J87" s="58"/>
     </row>
-    <row r="88" spans="1:10" ht="15.6">
-      <c r="A88" s="57"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="58"/>
-    </row>
-    <row r="89" spans="1:10" ht="15.6">
-      <c r="A89" s="57"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="58"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="58"/>
-      <c r="I89" s="58"/>
-      <c r="J89" s="58"/>
+    <row r="88" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A88" s="11"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="21"/>
+    </row>
+    <row r="89" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A89" s="11"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="59"/>
     </row>
     <row r="90" spans="1:10" ht="15.6">
       <c r="A90" s="57"/>
@@ -14307,135 +14386,171 @@
       <c r="J90" s="58"/>
     </row>
     <row r="91" spans="1:10" ht="15.6">
-      <c r="A91" s="11"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="21"/>
+      <c r="A91" s="57"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="58"/>
+      <c r="J91" s="58"/>
     </row>
     <row r="92" spans="1:10" ht="15.6">
-      <c r="A92" s="28"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="30"/>
+      <c r="A92" s="57"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="58"/>
+      <c r="J92" s="58"/>
     </row>
     <row r="93" spans="1:10" ht="15.6">
-      <c r="A93" s="60"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="61"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="61"/>
-      <c r="I93" s="61"/>
-      <c r="J93" s="61"/>
+      <c r="A93" s="57"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="58"/>
+      <c r="J93" s="58"/>
     </row>
     <row r="94" spans="1:10" ht="15.6">
-      <c r="A94" s="36"/>
-      <c r="B94" s="62"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="63"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="1:10" ht="15.6">
-      <c r="A95" s="11"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="21"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="30"/>
     </row>
     <row r="96" spans="1:10" ht="15.6">
-      <c r="A96" s="36"/>
-      <c r="B96" s="62"/>
-      <c r="C96" s="63"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="62"/>
-    </row>
-    <row r="97" spans="1:10" ht="15">
-      <c r="A97" s="64"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="66"/>
-      <c r="D97" s="67"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="67"/>
-      <c r="H97" s="67"/>
-      <c r="I97" s="67"/>
-      <c r="J97" s="66"/>
-    </row>
-    <row r="98" spans="1:10" ht="21">
-      <c r="A98" s="188" t="s">
+      <c r="A96" s="60"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="61"/>
+      <c r="G96" s="61"/>
+      <c r="H96" s="61"/>
+      <c r="I96" s="61"/>
+      <c r="J96" s="61"/>
+    </row>
+    <row r="97" spans="1:10" ht="15.6">
+      <c r="A97" s="36"/>
+      <c r="B97" s="62"/>
+      <c r="C97" s="62"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="63"/>
+    </row>
+    <row r="98" spans="1:10" ht="15.6">
+      <c r="A98" s="11"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="21"/>
+    </row>
+    <row r="99" spans="1:10" ht="15.6">
+      <c r="A99" s="36"/>
+      <c r="B99" s="62"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="62"/>
+    </row>
+    <row r="100" spans="1:10" ht="15">
+      <c r="A100" s="64"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="66"/>
+      <c r="D100" s="67"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="67"/>
+      <c r="J100" s="66"/>
+    </row>
+    <row r="101" spans="1:10" ht="21">
+      <c r="A101" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="188"/>
-      <c r="C98" s="188"/>
-      <c r="D98" s="68">
-        <f>SUM(D80:D97)</f>
+      <c r="B101" s="189"/>
+      <c r="C101" s="189"/>
+      <c r="D101" s="68">
+        <f>SUM(D83:D100)</f>
         <v>0</v>
       </c>
-      <c r="E98" s="68">
-        <f>SUM(E80:E97)</f>
+      <c r="E101" s="68">
+        <f>SUM(E83:E100)</f>
         <v>0</v>
       </c>
-      <c r="F98" s="68">
-        <f>SUM(F80:F97)</f>
+      <c r="F101" s="68">
+        <f>SUM(F83:F100)</f>
         <v>0</v>
       </c>
-      <c r="G98" s="68">
-        <f>SUM(G80:G97)</f>
+      <c r="G101" s="68">
+        <f>SUM(G83:G100)</f>
         <v>0</v>
       </c>
-      <c r="H98" s="68">
-        <f>SUM(H80:H97)</f>
+      <c r="H101" s="68">
+        <f>SUM(H83:H100)</f>
         <v>0</v>
       </c>
-      <c r="I98" s="68"/>
-      <c r="J98" s="68"/>
+      <c r="I101" s="68"/>
+      <c r="J101" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A72:H72"/>
-    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:J81"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="A38:J38"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -2488,22 +2488,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7123,11 +7123,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="188" t="s">
+      <c r="A32" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="188"/>
-      <c r="C32" s="188"/>
+      <c r="B32" s="190"/>
+      <c r="C32" s="190"/>
       <c r="D32" s="51">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -8307,11 +8307,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="190" t="s">
+      <c r="A77" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="190"/>
-      <c r="C77" s="190"/>
+      <c r="B77" s="189"/>
+      <c r="C77" s="189"/>
       <c r="D77" s="42">
         <f>SUM(D44:D76)</f>
         <v>385770.4</v>
@@ -9286,11 +9286,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="189" t="s">
+      <c r="A114" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="189"/>
-      <c r="C114" s="189"/>
+      <c r="B114" s="188"/>
+      <c r="C114" s="188"/>
       <c r="D114" s="68">
         <f>SUM(D88:D113)</f>
         <v>438291.73</v>
@@ -9317,6 +9317,12 @@
   </sheetData>
   <autoFilter ref="B2:B114"/>
   <mergeCells count="15">
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A86:J86"/>
     <mergeCell ref="A114:C114"/>
@@ -9326,12 +9332,6 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A80:H80"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10079,11 +10079,11 @@
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="191" t="s">
+      <c r="A29" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
+      <c r="B29" s="193"/>
+      <c r="C29" s="193"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -12524,11 +12524,11 @@
       </c>
     </row>
     <row r="122" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A122" s="192" t="s">
+      <c r="A122" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="192"/>
-      <c r="C122" s="192"/>
+      <c r="B122" s="191"/>
+      <c r="C122" s="191"/>
       <c r="D122" s="155">
         <f>SUM(D93:D121)</f>
         <v>369422.4</v>
@@ -12553,31 +12553,31 @@
       <c r="J122" s="155"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="193"/>
-      <c r="B124" s="193"/>
-      <c r="C124" s="193"/>
-      <c r="D124" s="193"/>
-      <c r="E124" s="193"/>
+      <c r="A124" s="192"/>
+      <c r="B124" s="192"/>
+      <c r="C124" s="192"/>
+      <c r="D124" s="192"/>
+      <c r="E124" s="192"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:B127"/>
   <mergeCells count="16">
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A84:H84"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A83:J83"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A84:H84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13503,11 +13503,11 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="190" t="s">
+      <c r="A36" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="190"/>
-      <c r="C36" s="190"/>
+      <c r="B36" s="189"/>
+      <c r="C36" s="189"/>
       <c r="D36" s="42">
         <f>SUM(D12:D35)</f>
         <v>343421.46</v>
@@ -14094,11 +14094,11 @@
       <c r="J71" s="29"/>
     </row>
     <row r="72" spans="1:10" ht="21">
-      <c r="A72" s="188" t="s">
+      <c r="A72" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="188"/>
-      <c r="C72" s="188"/>
+      <c r="B72" s="190"/>
+      <c r="C72" s="190"/>
       <c r="D72" s="51">
         <f>SUM(D49:D71)</f>
         <v>1698</v>
@@ -14506,11 +14506,11 @@
       <c r="J100" s="66"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="189" t="s">
+      <c r="A101" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="189"/>
-      <c r="C101" s="189"/>
+      <c r="B101" s="188"/>
+      <c r="C101" s="188"/>
       <c r="D101" s="68">
         <f>SUM(D83:D100)</f>
         <v>0</v>
@@ -14536,6 +14536,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A36:C36"/>
     <mergeCell ref="A80:C80"/>
     <mergeCell ref="A81:J81"/>
     <mergeCell ref="A101:C101"/>
@@ -14545,12 +14551,6 @@
     <mergeCell ref="A72:C72"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A75:H75"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -2488,22 +2488,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7123,11 +7123,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="190" t="s">
+      <c r="A32" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="190"/>
-      <c r="C32" s="190"/>
+      <c r="B32" s="188"/>
+      <c r="C32" s="188"/>
       <c r="D32" s="51">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -8307,11 +8307,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="189" t="s">
+      <c r="A77" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="189"/>
-      <c r="C77" s="189"/>
+      <c r="B77" s="190"/>
+      <c r="C77" s="190"/>
       <c r="D77" s="42">
         <f>SUM(D44:D76)</f>
         <v>385770.4</v>
@@ -9286,11 +9286,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="188" t="s">
+      <c r="A114" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="188"/>
-      <c r="C114" s="188"/>
+      <c r="B114" s="189"/>
+      <c r="C114" s="189"/>
       <c r="D114" s="68">
         <f>SUM(D88:D113)</f>
         <v>438291.73</v>
@@ -9317,12 +9317,6 @@
   </sheetData>
   <autoFilter ref="B2:B114"/>
   <mergeCells count="15">
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A86:J86"/>
     <mergeCell ref="A114:C114"/>
@@ -9332,6 +9326,12 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A80:H80"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10079,11 +10079,11 @@
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="193" t="s">
+      <c r="A29" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="193"/>
-      <c r="C29" s="193"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -12524,11 +12524,11 @@
       </c>
     </row>
     <row r="122" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A122" s="191" t="s">
+      <c r="A122" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="191"/>
-      <c r="C122" s="191"/>
+      <c r="B122" s="192"/>
+      <c r="C122" s="192"/>
       <c r="D122" s="155">
         <f>SUM(D93:D121)</f>
         <v>369422.4</v>
@@ -12553,31 +12553,31 @@
       <c r="J122" s="155"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="192"/>
-      <c r="B124" s="192"/>
-      <c r="C124" s="192"/>
-      <c r="D124" s="192"/>
-      <c r="E124" s="192"/>
+      <c r="A124" s="193"/>
+      <c r="B124" s="193"/>
+      <c r="C124" s="193"/>
+      <c r="D124" s="193"/>
+      <c r="E124" s="193"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:B127"/>
   <mergeCells count="16">
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A84:H84"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A83:J83"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A84:H84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12588,8 +12588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -13503,11 +13503,11 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="189" t="s">
+      <c r="A36" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="189"/>
-      <c r="C36" s="189"/>
+      <c r="B36" s="190"/>
+      <c r="C36" s="190"/>
       <c r="D36" s="42">
         <f>SUM(D12:D35)</f>
         <v>343421.46</v>
@@ -14094,11 +14094,11 @@
       <c r="J71" s="29"/>
     </row>
     <row r="72" spans="1:10" ht="21">
-      <c r="A72" s="190" t="s">
+      <c r="A72" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="190"/>
-      <c r="C72" s="190"/>
+      <c r="B72" s="188"/>
+      <c r="C72" s="188"/>
       <c r="D72" s="51">
         <f>SUM(D49:D71)</f>
         <v>1698</v>
@@ -14506,11 +14506,11 @@
       <c r="J100" s="66"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="188" t="s">
+      <c r="A101" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="188"/>
-      <c r="C101" s="188"/>
+      <c r="B101" s="189"/>
+      <c r="C101" s="189"/>
       <c r="D101" s="68">
         <f>SUM(D83:D100)</f>
         <v>0</v>
@@ -14536,12 +14536,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A36:C36"/>
     <mergeCell ref="A80:C80"/>
     <mergeCell ref="A81:J81"/>
     <mergeCell ref="A101:C101"/>
@@ -14551,6 +14545,12 @@
     <mergeCell ref="A72:C72"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A75:H75"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="536">
   <si>
     <t>APRIL</t>
   </si>
@@ -1632,6 +1632,9 @@
   </si>
   <si>
     <t>2023-24/1369</t>
+  </si>
+  <si>
+    <t>KB00-1741904</t>
   </si>
 </sst>
 </file>
@@ -1927,7 +1930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2429,6 +2432,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2807,30 +2813,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="181"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="182"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="178"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="179"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -3050,11 +3056,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="182"/>
-      <c r="C12" s="182"/>
+      <c r="B12" s="183"/>
+      <c r="C12" s="183"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -3079,18 +3085,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="176" t="s">
+      <c r="A13" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="177"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="178"/>
+      <c r="B13" s="178"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="179"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -3877,11 +3883,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="172" t="s">
+      <c r="A42" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="173"/>
-      <c r="C42" s="174"/>
+      <c r="B42" s="174"/>
+      <c r="C42" s="175"/>
       <c r="D42" s="26">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -3906,30 +3912,30 @@
       <c r="J42" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="179" t="s">
+      <c r="A44" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="180"/>
-      <c r="C44" s="180"/>
-      <c r="D44" s="180"/>
-      <c r="E44" s="180"/>
-      <c r="F44" s="180"/>
-      <c r="G44" s="180"/>
-      <c r="H44" s="180"/>
-      <c r="I44" s="180"/>
-      <c r="J44" s="181"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="181"/>
+      <c r="E44" s="181"/>
+      <c r="F44" s="181"/>
+      <c r="G44" s="181"/>
+      <c r="H44" s="181"/>
+      <c r="I44" s="181"/>
+      <c r="J44" s="182"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="176" t="s">
+      <c r="A45" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="177"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
-      <c r="E45" s="177"/>
-      <c r="F45" s="177"/>
-      <c r="G45" s="177"/>
-      <c r="H45" s="178"/>
+      <c r="B45" s="178"/>
+      <c r="C45" s="178"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="178"/>
+      <c r="G45" s="178"/>
+      <c r="H45" s="179"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -4205,11 +4211,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="175" t="s">
+      <c r="A56" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="175"/>
-      <c r="C56" s="175"/>
+      <c r="B56" s="176"/>
+      <c r="C56" s="176"/>
       <c r="D56" s="27">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -4234,18 +4240,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="176" t="s">
+      <c r="A57" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="177"/>
-      <c r="C57" s="177"/>
-      <c r="D57" s="177"/>
-      <c r="E57" s="177"/>
-      <c r="F57" s="177"/>
-      <c r="G57" s="177"/>
-      <c r="H57" s="177"/>
-      <c r="I57" s="177"/>
-      <c r="J57" s="178"/>
+      <c r="B57" s="178"/>
+      <c r="C57" s="178"/>
+      <c r="D57" s="178"/>
+      <c r="E57" s="178"/>
+      <c r="F57" s="178"/>
+      <c r="G57" s="178"/>
+      <c r="H57" s="178"/>
+      <c r="I57" s="178"/>
+      <c r="J57" s="179"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -5083,11 +5089,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="183" t="s">
+      <c r="A88" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="184"/>
-      <c r="C88" s="185"/>
+      <c r="B88" s="185"/>
+      <c r="C88" s="186"/>
       <c r="D88" s="27">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -5112,30 +5118,30 @@
       <c r="J88" s="27"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="179" t="s">
+      <c r="A90" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="180"/>
-      <c r="C90" s="180"/>
-      <c r="D90" s="180"/>
-      <c r="E90" s="180"/>
-      <c r="F90" s="180"/>
-      <c r="G90" s="180"/>
-      <c r="H90" s="180"/>
-      <c r="I90" s="180"/>
-      <c r="J90" s="181"/>
+      <c r="B90" s="181"/>
+      <c r="C90" s="181"/>
+      <c r="D90" s="181"/>
+      <c r="E90" s="181"/>
+      <c r="F90" s="181"/>
+      <c r="G90" s="181"/>
+      <c r="H90" s="181"/>
+      <c r="I90" s="181"/>
+      <c r="J90" s="182"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="176" t="s">
+      <c r="A91" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="177"/>
-      <c r="C91" s="177"/>
-      <c r="D91" s="177"/>
-      <c r="E91" s="177"/>
-      <c r="F91" s="177"/>
-      <c r="G91" s="177"/>
-      <c r="H91" s="178"/>
+      <c r="B91" s="178"/>
+      <c r="C91" s="178"/>
+      <c r="D91" s="178"/>
+      <c r="E91" s="178"/>
+      <c r="F91" s="178"/>
+      <c r="G91" s="178"/>
+      <c r="H91" s="179"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -5357,11 +5363,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="175" t="s">
+      <c r="A100" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="175"/>
-      <c r="C100" s="175"/>
+      <c r="B100" s="176"/>
+      <c r="C100" s="176"/>
       <c r="D100" s="27">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -5386,18 +5392,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="176" t="s">
+      <c r="A101" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="177"/>
-      <c r="C101" s="177"/>
-      <c r="D101" s="177"/>
-      <c r="E101" s="177"/>
-      <c r="F101" s="177"/>
-      <c r="G101" s="177"/>
-      <c r="H101" s="177"/>
-      <c r="I101" s="177"/>
-      <c r="J101" s="178"/>
+      <c r="B101" s="178"/>
+      <c r="C101" s="178"/>
+      <c r="D101" s="178"/>
+      <c r="E101" s="178"/>
+      <c r="F101" s="178"/>
+      <c r="G101" s="178"/>
+      <c r="H101" s="178"/>
+      <c r="I101" s="178"/>
+      <c r="J101" s="179"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -6052,11 +6058,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="172" t="s">
+      <c r="A125" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="173"/>
-      <c r="C125" s="174"/>
+      <c r="B125" s="174"/>
+      <c r="C125" s="175"/>
       <c r="D125" s="26">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -6315,30 +6321,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="181"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="182"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="178"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="179"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6425,11 +6431,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="186" t="s">
+      <c r="A7" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
       <c r="D7" s="33">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -6454,18 +6460,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="176" t="s">
+      <c r="A8" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="177"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="178"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="179"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -7123,11 +7129,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="187" t="s">
+      <c r="A32" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="187"/>
-      <c r="C32" s="187"/>
+      <c r="B32" s="188"/>
+      <c r="C32" s="188"/>
       <c r="D32" s="50">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -7157,30 +7163,30 @@
       <c r="C33" s="44"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="179" t="s">
+      <c r="A34" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="180"/>
-      <c r="C34" s="180"/>
-      <c r="D34" s="180"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="180"/>
-      <c r="H34" s="180"/>
-      <c r="I34" s="180"/>
-      <c r="J34" s="181"/>
+      <c r="B34" s="181"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="181"/>
+      <c r="F34" s="181"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="181"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="182"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="176" t="s">
+      <c r="A35" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="177"/>
-      <c r="C35" s="177"/>
-      <c r="D35" s="177"/>
-      <c r="E35" s="177"/>
-      <c r="F35" s="177"/>
-      <c r="G35" s="177"/>
-      <c r="H35" s="178"/>
+      <c r="B35" s="178"/>
+      <c r="C35" s="178"/>
+      <c r="D35" s="178"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="178"/>
+      <c r="G35" s="178"/>
+      <c r="H35" s="179"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
@@ -7321,11 +7327,11 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="186" t="s">
+      <c r="A41" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="186"/>
-      <c r="C41" s="186"/>
+      <c r="B41" s="187"/>
+      <c r="C41" s="187"/>
       <c r="D41" s="33">
         <f>SUM(D37:D40)</f>
         <v>613000</v>
@@ -7350,18 +7356,18 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="176" t="s">
+      <c r="A42" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="177"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="177"/>
-      <c r="E42" s="177"/>
-      <c r="F42" s="177"/>
-      <c r="G42" s="177"/>
-      <c r="H42" s="177"/>
-      <c r="I42" s="177"/>
-      <c r="J42" s="178"/>
+      <c r="B42" s="178"/>
+      <c r="C42" s="178"/>
+      <c r="D42" s="178"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="178"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="179"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
@@ -8307,11 +8313,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="189" t="s">
+      <c r="A77" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="189"/>
-      <c r="C77" s="189"/>
+      <c r="B77" s="190"/>
+      <c r="C77" s="190"/>
       <c r="D77" s="42">
         <f>SUM(D44:D76)</f>
         <v>385770.4</v>
@@ -8354,30 +8360,30 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="179" t="s">
+      <c r="A79" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="180"/>
-      <c r="C79" s="180"/>
-      <c r="D79" s="180"/>
-      <c r="E79" s="180"/>
-      <c r="F79" s="180"/>
-      <c r="G79" s="180"/>
-      <c r="H79" s="180"/>
-      <c r="I79" s="180"/>
-      <c r="J79" s="181"/>
+      <c r="B79" s="181"/>
+      <c r="C79" s="181"/>
+      <c r="D79" s="181"/>
+      <c r="E79" s="181"/>
+      <c r="F79" s="181"/>
+      <c r="G79" s="181"/>
+      <c r="H79" s="181"/>
+      <c r="I79" s="181"/>
+      <c r="J79" s="182"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="176" t="s">
+      <c r="A80" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="177"/>
-      <c r="C80" s="177"/>
-      <c r="D80" s="177"/>
-      <c r="E80" s="177"/>
-      <c r="F80" s="177"/>
-      <c r="G80" s="177"/>
-      <c r="H80" s="178"/>
+      <c r="B80" s="178"/>
+      <c r="C80" s="178"/>
+      <c r="D80" s="178"/>
+      <c r="E80" s="178"/>
+      <c r="F80" s="178"/>
+      <c r="G80" s="178"/>
+      <c r="H80" s="179"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
@@ -8491,11 +8497,11 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="186" t="s">
+      <c r="A85" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="186"/>
-      <c r="C85" s="186"/>
+      <c r="B85" s="187"/>
+      <c r="C85" s="187"/>
       <c r="D85" s="33">
         <f>SUM(D82:D84)</f>
         <v>204284</v>
@@ -8520,18 +8526,18 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="176" t="s">
+      <c r="A86" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="177"/>
-      <c r="C86" s="177"/>
-      <c r="D86" s="177"/>
-      <c r="E86" s="177"/>
-      <c r="F86" s="177"/>
-      <c r="G86" s="177"/>
-      <c r="H86" s="177"/>
-      <c r="I86" s="177"/>
-      <c r="J86" s="178"/>
+      <c r="B86" s="178"/>
+      <c r="C86" s="178"/>
+      <c r="D86" s="178"/>
+      <c r="E86" s="178"/>
+      <c r="F86" s="178"/>
+      <c r="G86" s="178"/>
+      <c r="H86" s="178"/>
+      <c r="I86" s="178"/>
+      <c r="J86" s="179"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="52" t="s">
@@ -9286,11 +9292,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="188" t="s">
+      <c r="A114" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="188"/>
-      <c r="C114" s="188"/>
+      <c r="B114" s="189"/>
+      <c r="C114" s="189"/>
       <c r="D114" s="67">
         <f>SUM(D88:D113)</f>
         <v>438291.73</v>
@@ -9362,30 +9368,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="180" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="181"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="182"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="178"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="179"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -9430,11 +9436,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" ht="21">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
+      <c r="B6" s="183"/>
+      <c r="C6" s="183"/>
       <c r="D6" s="15">
         <f>SUM(D5:D5)</f>
         <v>0</v>
@@ -9459,18 +9465,18 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="21">
-      <c r="A7" s="176" t="s">
+      <c r="A7" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="178"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="179"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="16" t="s">
@@ -10079,11 +10085,11 @@
       <c r="K28" s="68"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="190" t="s">
+      <c r="A29" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="190"/>
-      <c r="C29" s="190"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -10109,30 +10115,30 @@
       <c r="K29" s="68"/>
     </row>
     <row r="31" spans="1:11" ht="21">
-      <c r="A31" s="179" t="s">
+      <c r="A31" s="180" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="180"/>
-      <c r="C31" s="180"/>
-      <c r="D31" s="180"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="181"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="182"/>
     </row>
     <row r="32" spans="1:11" ht="21">
-      <c r="A32" s="176" t="s">
+      <c r="A32" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="177"/>
-      <c r="C32" s="177"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="177"/>
-      <c r="H32" s="178"/>
+      <c r="B32" s="178"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="179"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -10378,11 +10384,11 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="175" t="s">
+      <c r="A42" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="175"/>
-      <c r="C42" s="175"/>
+      <c r="B42" s="176"/>
+      <c r="C42" s="176"/>
       <c r="D42" s="27">
         <f>SUM(D34:D41)</f>
         <v>983754</v>
@@ -10407,18 +10413,18 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="176" t="s">
+      <c r="A43" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="177"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="177"/>
-      <c r="E43" s="177"/>
-      <c r="F43" s="177"/>
-      <c r="G43" s="177"/>
-      <c r="H43" s="177"/>
-      <c r="I43" s="177"/>
-      <c r="J43" s="178"/>
+      <c r="B43" s="178"/>
+      <c r="C43" s="178"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="178"/>
+      <c r="G43" s="178"/>
+      <c r="H43" s="178"/>
+      <c r="I43" s="178"/>
+      <c r="J43" s="179"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1">
       <c r="A44" s="16" t="s">
@@ -11448,11 +11454,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A81" s="175" t="s">
+      <c r="A81" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="175"/>
-      <c r="C81" s="175"/>
+      <c r="B81" s="176"/>
+      <c r="C81" s="176"/>
       <c r="D81" s="27">
         <f>SUM(D45:D80)</f>
         <v>599787.05000000005</v>
@@ -11477,30 +11483,30 @@
       <c r="J81" s="27"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="179" t="s">
+      <c r="A83" s="180" t="s">
         <v>232</v>
       </c>
-      <c r="B83" s="180"/>
-      <c r="C83" s="180"/>
-      <c r="D83" s="180"/>
-      <c r="E83" s="180"/>
-      <c r="F83" s="180"/>
-      <c r="G83" s="180"/>
-      <c r="H83" s="180"/>
-      <c r="I83" s="180"/>
-      <c r="J83" s="181"/>
+      <c r="B83" s="181"/>
+      <c r="C83" s="181"/>
+      <c r="D83" s="181"/>
+      <c r="E83" s="181"/>
+      <c r="F83" s="181"/>
+      <c r="G83" s="181"/>
+      <c r="H83" s="181"/>
+      <c r="I83" s="181"/>
+      <c r="J83" s="182"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="176" t="s">
+      <c r="A84" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="177"/>
-      <c r="C84" s="177"/>
-      <c r="D84" s="177"/>
-      <c r="E84" s="177"/>
-      <c r="F84" s="177"/>
-      <c r="G84" s="177"/>
-      <c r="H84" s="178"/>
+      <c r="B84" s="178"/>
+      <c r="C84" s="178"/>
+      <c r="D84" s="178"/>
+      <c r="E84" s="178"/>
+      <c r="F84" s="178"/>
+      <c r="G84" s="178"/>
+      <c r="H84" s="179"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
@@ -11645,11 +11651,11 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A90" s="175" t="s">
+      <c r="A90" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="175"/>
-      <c r="C90" s="175"/>
+      <c r="B90" s="176"/>
+      <c r="C90" s="176"/>
       <c r="D90" s="27">
         <f>SUM(D86:D89)</f>
         <v>297318</v>
@@ -11674,18 +11680,18 @@
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="176" t="s">
+      <c r="A91" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="177"/>
-      <c r="C91" s="177"/>
-      <c r="D91" s="177"/>
-      <c r="E91" s="177"/>
-      <c r="F91" s="177"/>
-      <c r="G91" s="177"/>
-      <c r="H91" s="177"/>
-      <c r="I91" s="177"/>
-      <c r="J91" s="178"/>
+      <c r="B91" s="178"/>
+      <c r="C91" s="178"/>
+      <c r="D91" s="178"/>
+      <c r="E91" s="178"/>
+      <c r="F91" s="178"/>
+      <c r="G91" s="178"/>
+      <c r="H91" s="178"/>
+      <c r="I91" s="178"/>
+      <c r="J91" s="179"/>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1">
       <c r="A92" s="16" t="s">
@@ -12524,11 +12530,11 @@
       </c>
     </row>
     <row r="122" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A122" s="191" t="s">
+      <c r="A122" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="191"/>
-      <c r="C122" s="191"/>
+      <c r="B122" s="192"/>
+      <c r="C122" s="192"/>
       <c r="D122" s="154">
         <f>SUM(D93:D121)</f>
         <v>369422.4</v>
@@ -12553,11 +12559,11 @@
       <c r="J122" s="154"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="192"/>
-      <c r="B124" s="192"/>
-      <c r="C124" s="192"/>
-      <c r="D124" s="192"/>
-      <c r="E124" s="192"/>
+      <c r="A124" s="193"/>
+      <c r="B124" s="193"/>
+      <c r="C124" s="193"/>
+      <c r="D124" s="193"/>
+      <c r="E124" s="193"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:B127"/>
@@ -12586,10 +12592,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J101"/>
+  <dimension ref="A2:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12608,30 +12614,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="180" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="181"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="182"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="178"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="179"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -12762,11 +12768,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="186" t="s">
+      <c r="A9" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="187"/>
       <c r="D9" s="33">
         <f>SUM(D5:D8)</f>
         <v>769530</v>
@@ -12791,18 +12797,18 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="177"/>
-      <c r="C10" s="177"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="177"/>
-      <c r="J10" s="178"/>
+      <c r="B10" s="178"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="179"/>
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1">
       <c r="A11" s="34" t="s">
@@ -13164,257 +13170,256 @@
         <v>439</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="165" customFormat="1" ht="16.5" customHeight="1">
+    <row r="24" spans="1:10" s="172" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="74">
-        <v>45303</v>
-      </c>
-      <c r="B24" s="76" t="s">
-        <v>520</v>
-      </c>
-      <c r="C24" s="76" t="s">
-        <v>522</v>
+        <v>45302</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>535</v>
       </c>
       <c r="D24" s="75">
-        <v>422.88</v>
+        <v>230</v>
       </c>
       <c r="E24" s="75">
-        <v>76.11</v>
+        <v>11.5</v>
       </c>
       <c r="F24" s="75"/>
       <c r="G24" s="75"/>
       <c r="H24" s="75">
         <f>D24+E24+F24+G24</f>
+        <v>241.5</v>
+      </c>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="165" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A25" s="74">
+        <v>45303</v>
+      </c>
+      <c r="B25" s="76" t="s">
+        <v>520</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>522</v>
+      </c>
+      <c r="D25" s="75">
+        <v>422.88</v>
+      </c>
+      <c r="E25" s="75">
+        <v>76.11</v>
+      </c>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75">
+        <f>D25+E25+F25+G25</f>
         <v>498.99</v>
       </c>
-      <c r="I24" s="75"/>
-      <c r="J24" s="76" t="s">
+      <c r="I25" s="75"/>
+      <c r="J25" s="76" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="165" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A25" s="11">
+    <row r="26" spans="1:10" s="165" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A26" s="11">
         <v>45304</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B26" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D26" s="12">
         <v>7495</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12">
-        <v>674.55</v>
-      </c>
-      <c r="G25" s="12">
-        <v>674.55</v>
-      </c>
-      <c r="H25" s="12">
-        <v>8845</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="163" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A26" s="11">
-        <v>45306</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="C26" s="12">
-        <v>1436</v>
-      </c>
-      <c r="D26" s="12">
-        <v>22372.720000000001</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12">
-        <v>2013.54</v>
+        <v>674.55</v>
       </c>
       <c r="G26" s="12">
-        <v>2013.54</v>
+        <v>674.55</v>
       </c>
       <c r="H26" s="12">
-        <v>26400</v>
+        <v>8845</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12" t="s">
-        <v>511</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="163" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="11">
-        <v>45307</v>
+        <v>45306</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1436</v>
       </c>
       <c r="D27" s="12">
-        <v>2942</v>
+        <v>22372.720000000001</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12">
-        <v>264.77999999999997</v>
+        <v>2013.54</v>
       </c>
       <c r="G27" s="12">
-        <v>264.77999999999997</v>
+        <v>2013.54</v>
       </c>
       <c r="H27" s="12">
-        <v>3472</v>
+        <v>26400</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="12" t="s">
-        <v>50</v>
+        <v>511</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="163" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="11">
-        <v>45308</v>
+        <v>45307</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D28" s="12">
-        <v>2438</v>
+        <v>2942</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12">
-        <v>219.42</v>
+        <v>264.77999999999997</v>
       </c>
       <c r="G28" s="12">
-        <v>219.42</v>
+        <v>264.77999999999997</v>
       </c>
       <c r="H28" s="12">
-        <v>2877</v>
+        <v>3472</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="171" customFormat="1" ht="16.5" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="163" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="11">
-        <v>45311</v>
+        <v>45308</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="D29" s="12">
-        <v>1488</v>
+        <v>2438</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12">
-        <v>133.91999999999999</v>
+        <v>219.42</v>
       </c>
       <c r="G29" s="12">
-        <v>133.91999999999999</v>
+        <v>219.42</v>
       </c>
       <c r="H29" s="12">
-        <v>1756</v>
+        <v>2877</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="169" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A30" s="74">
+    <row r="30" spans="1:10" s="171" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A30" s="11">
+        <v>45311</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="D30" s="12">
+        <v>1488</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12">
+        <v>133.91999999999999</v>
+      </c>
+      <c r="G30" s="12">
+        <v>133.91999999999999</v>
+      </c>
+      <c r="H30" s="12">
+        <v>1756</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="169" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A31" s="74">
         <v>45315</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B31" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="76" t="s">
+      <c r="C31" s="76" t="s">
         <v>528</v>
       </c>
-      <c r="D30" s="75">
+      <c r="D31" s="75">
         <v>640.62</v>
-      </c>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75">
-        <v>89.69</v>
-      </c>
-      <c r="G30" s="75">
-        <v>89.69</v>
-      </c>
-      <c r="H30" s="75">
-        <f>D30+E30+F30+G30</f>
-        <v>820</v>
-      </c>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="171" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A31" s="74">
-        <v>45316</v>
-      </c>
-      <c r="B31" s="76" t="s">
-        <v>518</v>
-      </c>
-      <c r="C31" s="76" t="s">
-        <v>531</v>
-      </c>
-      <c r="D31" s="75">
-        <v>300</v>
       </c>
       <c r="E31" s="75"/>
       <c r="F31" s="75">
-        <v>27</v>
+        <v>89.69</v>
       </c>
       <c r="G31" s="75">
-        <v>27</v>
+        <v>89.69</v>
       </c>
       <c r="H31" s="75">
         <f>D31+E31+F31+G31</f>
-        <v>354</v>
+        <v>820</v>
       </c>
       <c r="I31" s="75"/>
       <c r="J31" s="76" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="170" customFormat="1" ht="16.5" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="171" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="74">
-        <v>45318</v>
+        <v>45316</v>
       </c>
       <c r="B32" s="76" t="s">
-        <v>35</v>
+        <v>518</v>
       </c>
       <c r="C32" s="76" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D32" s="75">
-        <v>1315.49</v>
+        <v>300</v>
       </c>
       <c r="E32" s="75"/>
       <c r="F32" s="75">
-        <v>107.26</v>
+        <v>27</v>
       </c>
       <c r="G32" s="75">
-        <v>107.26</v>
+        <v>27</v>
       </c>
       <c r="H32" s="75">
-        <v>1530</v>
+        <f>D32+E32+F32+G32</f>
+        <v>354</v>
       </c>
       <c r="I32" s="75"/>
       <c r="J32" s="76" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="170" customFormat="1" ht="16.5" customHeight="1">
@@ -13425,453 +13430,466 @@
         <v>35</v>
       </c>
       <c r="C33" s="76" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D33" s="75">
-        <v>1240.43</v>
+        <v>1315.49</v>
       </c>
       <c r="E33" s="75"/>
       <c r="F33" s="75">
-        <v>109.78</v>
+        <v>107.26</v>
       </c>
       <c r="G33" s="75">
-        <v>109.78</v>
+        <v>107.26</v>
       </c>
       <c r="H33" s="75">
-        <v>1460</v>
+        <v>1530</v>
       </c>
       <c r="I33" s="75"/>
       <c r="J33" s="76" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="171" customFormat="1" ht="16.5" customHeight="1">
+    <row r="34" spans="1:10" s="170" customFormat="1" ht="16.5" customHeight="1">
       <c r="A34" s="74">
-        <v>45320</v>
+        <v>45318</v>
       </c>
       <c r="B34" s="76" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C34" s="76" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D34" s="75">
-        <v>640.62</v>
+        <v>1240.43</v>
       </c>
       <c r="E34" s="75"/>
       <c r="F34" s="75">
-        <v>89.69</v>
+        <v>109.78</v>
       </c>
       <c r="G34" s="75">
-        <v>89.69</v>
+        <v>109.78</v>
       </c>
       <c r="H34" s="75">
-        <f>D34+E34+F34+G34</f>
-        <v>820</v>
+        <v>1460</v>
       </c>
       <c r="I34" s="75"/>
       <c r="J34" s="76" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="170" customFormat="1" ht="16.5" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="171" customFormat="1" ht="16.5" customHeight="1">
       <c r="A35" s="74">
         <v>45320</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>246</v>
-      </c>
-      <c r="C35" s="76">
-        <v>6308</v>
+        <v>71</v>
+      </c>
+      <c r="C35" s="76" t="s">
+        <v>532</v>
       </c>
       <c r="D35" s="75">
-        <v>1711</v>
+        <v>640.62</v>
       </c>
       <c r="E35" s="75"/>
       <c r="F35" s="75">
-        <v>153.99</v>
+        <v>89.69</v>
       </c>
       <c r="G35" s="75">
-        <v>153.99</v>
+        <v>89.69</v>
       </c>
       <c r="H35" s="75">
-        <v>2019</v>
+        <f>D35+E35+F35+G35</f>
+        <v>820</v>
       </c>
       <c r="I35" s="75"/>
       <c r="J35" s="76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="170" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A36" s="74">
+        <v>45320</v>
+      </c>
+      <c r="B36" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" s="76">
+        <v>6308</v>
+      </c>
+      <c r="D36" s="75">
+        <v>1711</v>
+      </c>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75">
+        <v>153.99</v>
+      </c>
+      <c r="G36" s="75">
+        <v>153.99</v>
+      </c>
+      <c r="H36" s="75">
+        <v>2019</v>
+      </c>
+      <c r="I36" s="75"/>
+      <c r="J36" s="76" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="189" t="s">
+    <row r="37" spans="1:10" ht="21">
+      <c r="A37" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="189"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="42">
-        <f>SUM(D12:D35)</f>
-        <v>343421.46</v>
-      </c>
-      <c r="E36" s="42">
-        <f>SUM(E12:E35)</f>
-        <v>45170.33</v>
-      </c>
-      <c r="F36" s="42">
-        <f>SUM(F12:F35)</f>
+      <c r="B37" s="190"/>
+      <c r="C37" s="190"/>
+      <c r="D37" s="42">
+        <f>SUM(D12:D36)</f>
+        <v>343651.46</v>
+      </c>
+      <c r="E37" s="42">
+        <f>SUM(E12:E36)</f>
+        <v>45181.83</v>
+      </c>
+      <c r="F37" s="42">
+        <f>SUM(F12:F36)</f>
         <v>8373.5299999999988</v>
       </c>
-      <c r="G36" s="42">
-        <f>SUM(G12:G35)</f>
+      <c r="G37" s="42">
+        <f>SUM(G12:G36)</f>
         <v>8373.5299999999988</v>
       </c>
-      <c r="H36" s="43">
-        <f>SUM(H12:H35)</f>
-        <v>405340.99</v>
-      </c>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-    </row>
-    <row r="38" spans="1:10" ht="21">
-      <c r="A38" s="179" t="s">
+      <c r="H37" s="43">
+        <f>SUM(H12:H36)</f>
+        <v>405582.49</v>
+      </c>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+    </row>
+    <row r="39" spans="1:10" ht="21">
+      <c r="A39" s="180" t="s">
         <v>234</v>
       </c>
-      <c r="B38" s="180"/>
-      <c r="C38" s="180"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="180"/>
-      <c r="G38" s="180"/>
-      <c r="H38" s="180"/>
-      <c r="I38" s="180"/>
-      <c r="J38" s="181"/>
-    </row>
-    <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="176" t="s">
+      <c r="B39" s="181"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="181"/>
+      <c r="F39" s="181"/>
+      <c r="G39" s="181"/>
+      <c r="H39" s="181"/>
+      <c r="I39" s="181"/>
+      <c r="J39" s="182"/>
+    </row>
+    <row r="40" spans="1:10" ht="21">
+      <c r="A40" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="177"/>
-      <c r="C39" s="177"/>
-      <c r="D39" s="177"/>
-      <c r="E39" s="177"/>
-      <c r="F39" s="177"/>
-      <c r="G39" s="177"/>
-      <c r="H39" s="178"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" ht="31.2">
-      <c r="A40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B40" s="178"/>
+      <c r="C40" s="178"/>
+      <c r="D40" s="178"/>
+      <c r="E40" s="178"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="179"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A41" s="7">
+    <row r="41" spans="1:10" ht="31.2">
+      <c r="A41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A42" s="7">
         <v>45211</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="8">
         <v>1862120</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8">
+      <c r="E42" s="8"/>
+      <c r="F42" s="8">
         <v>167950.8</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G42" s="8">
         <v>167950.8</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H42" s="8">
         <v>2202021.6</v>
       </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-    </row>
-    <row r="42" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A42" s="18">
-        <v>45261</v>
-      </c>
-      <c r="B42" s="153" t="s">
-        <v>407</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="D42" s="19">
-        <v>35593</v>
-      </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19">
-        <v>3203.4</v>
-      </c>
-      <c r="G42" s="19">
-        <v>3203.4</v>
-      </c>
-      <c r="H42" s="8">
-        <v>42000</v>
-      </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="152" t="s">
-        <v>409</v>
-      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A43" s="18">
-        <v>45273</v>
+        <v>45261</v>
       </c>
       <c r="B43" s="153" t="s">
-        <v>526</v>
+        <v>407</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>527</v>
+        <v>410</v>
       </c>
       <c r="D43" s="19">
-        <v>19560</v>
+        <v>35593</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="19">
+        <v>3203.4</v>
+      </c>
+      <c r="G43" s="19">
+        <v>3203.4</v>
+      </c>
+      <c r="H43" s="8">
+        <v>42000</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="152" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A44" s="18">
+        <v>45273</v>
+      </c>
+      <c r="B44" s="153" t="s">
+        <v>526</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D44" s="19">
+        <v>19560</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19">
         <v>1760.4</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G44" s="19">
         <v>1760.4</v>
       </c>
-      <c r="H43" s="8">
-        <f>D43+E43+F43+G43</f>
+      <c r="H44" s="8">
+        <f>D44+E44+F44+G44</f>
         <v>23080.800000000003</v>
       </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="152"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.6">
-      <c r="A44" s="20">
+      <c r="I44" s="5"/>
+      <c r="J44" s="152"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.6">
+      <c r="A45" s="20">
         <v>45292</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B45" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C45" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D45" s="22">
         <v>184600</v>
       </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22">
+      <c r="E45" s="22"/>
+      <c r="F45" s="22">
         <v>19494</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G45" s="22">
         <v>19494</v>
       </c>
-      <c r="H44" s="19">
-        <f>D44+E44+F44+G44</f>
+      <c r="H45" s="19">
+        <f>D45+E45+F45+G45</f>
         <v>223588</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="162" customFormat="1" ht="15.6">
-      <c r="A45" s="18">
+    <row r="46" spans="1:10" s="162" customFormat="1" ht="15.6">
+      <c r="A46" s="18">
         <v>44991</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B46" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C46" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D46" s="19">
         <v>1713185</v>
       </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19">
+      <c r="E46" s="19"/>
+      <c r="F46" s="19">
         <v>154186.65</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G46" s="19">
         <v>154186.65</v>
       </c>
-      <c r="H45" s="8">
-        <f>D45+E45+F45+G45</f>
+      <c r="H46" s="8">
+        <f>D46+E46+F46+G46</f>
         <v>2021558.2999999998</v>
-      </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" ht="21">
-      <c r="A46" s="186" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="186"/>
-      <c r="C46" s="186"/>
-      <c r="D46" s="33">
-        <f>SUM(D41:D45)</f>
-        <v>3815058</v>
-      </c>
-      <c r="E46" s="33">
-        <f>SUM(E41:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="33">
-        <f>SUM(F41:F45)</f>
-        <v>346595.25</v>
-      </c>
-      <c r="G46" s="33">
-        <f>SUM(G41:G45)</f>
-        <v>346595.25</v>
-      </c>
-      <c r="H46" s="33">
-        <f>SUM(H41:H45)</f>
-        <v>4512248.6999999993</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" ht="21">
-      <c r="A47" s="176" t="s">
+      <c r="A47" s="187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="187"/>
+      <c r="C47" s="187"/>
+      <c r="D47" s="33">
+        <f>SUM(D42:D46)</f>
+        <v>3815058</v>
+      </c>
+      <c r="E47" s="33">
+        <f>SUM(E42:E46)</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="33">
+        <f>SUM(F42:F46)</f>
+        <v>346595.25</v>
+      </c>
+      <c r="G47" s="33">
+        <f>SUM(G42:G46)</f>
+        <v>346595.25</v>
+      </c>
+      <c r="H47" s="33">
+        <f>SUM(H42:H46)</f>
+        <v>4512248.6999999993</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" ht="21">
+      <c r="A48" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="177"/>
-      <c r="C47" s="177"/>
-      <c r="D47" s="177"/>
-      <c r="E47" s="177"/>
-      <c r="F47" s="177"/>
-      <c r="G47" s="177"/>
-      <c r="H47" s="177"/>
-      <c r="I47" s="177"/>
-      <c r="J47" s="178"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="34" t="s">
+      <c r="B48" s="178"/>
+      <c r="C48" s="178"/>
+      <c r="D48" s="178"/>
+      <c r="E48" s="178"/>
+      <c r="F48" s="178"/>
+      <c r="G48" s="178"/>
+      <c r="H48" s="178"/>
+      <c r="I48" s="178"/>
+      <c r="J48" s="179"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B49" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C49" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D49" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E49" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="F49" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="34" t="s">
+      <c r="G49" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="35" t="s">
+      <c r="H49" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I48" s="35" t="s">
+      <c r="I49" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J48" s="35" t="s">
+      <c r="J49" s="35" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.6">
-      <c r="A49" s="24">
-        <v>45325</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="C49" s="46">
-        <v>4593</v>
-      </c>
-      <c r="D49" s="21">
-        <v>1698</v>
-      </c>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21">
-        <v>152.82</v>
-      </c>
-      <c r="G49" s="21">
-        <v>152.82</v>
-      </c>
-      <c r="H49" s="47">
-        <f>D49+E49+F49+G49</f>
-        <v>2003.6399999999999</v>
-      </c>
-      <c r="I49" s="12"/>
-      <c r="J49" s="21" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="24">
+        <v>45325</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" s="46">
+        <v>4593</v>
+      </c>
+      <c r="D50" s="21">
+        <v>1698</v>
+      </c>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21">
+        <v>152.82</v>
+      </c>
+      <c r="G50" s="21">
+        <v>152.82</v>
+      </c>
+      <c r="H50" s="47">
+        <f>D50+E50+F50+G50</f>
+        <v>2003.6399999999999</v>
+      </c>
+      <c r="I50" s="12"/>
+      <c r="J50" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.6">
+      <c r="A51" s="24">
         <v>45327</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B51" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D51" s="12">
         <v>7380</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E51" s="12">
         <v>1329</v>
       </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="47">
-        <f t="shared" ref="H50:H71" si="2">D50+E50+F50+G50</f>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="47">
+        <f t="shared" ref="H51:H72" si="2">D51+E51+F51+G51</f>
         <v>8709</v>
       </c>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12" t="s">
+      <c r="I51" s="12"/>
+      <c r="J51" s="12" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="19.8" customHeight="1">
-      <c r="A51" s="24"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="49"/>
-      <c r="J51" s="48"/>
-    </row>
-    <row r="52" spans="1:10" ht="18" customHeight="1">
+    <row r="52" spans="1:10" ht="19.8" customHeight="1">
       <c r="A52" s="24"/>
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
@@ -13888,23 +13906,23 @@
     </row>
     <row r="53" spans="1:10" ht="18" customHeight="1">
       <c r="A53" s="24"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
       <c r="H53" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="12"/>
-      <c r="J53" s="45"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.6">
+      <c r="I53" s="49"/>
+      <c r="J53" s="48"/>
+    </row>
+    <row r="54" spans="1:10" ht="18" customHeight="1">
       <c r="A54" s="24"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
@@ -13914,7 +13932,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
+      <c r="J54" s="45"/>
     </row>
     <row r="55" spans="1:10" ht="15.6">
       <c r="A55" s="24"/>
@@ -13933,33 +13951,33 @@
     </row>
     <row r="56" spans="1:10" ht="15.6">
       <c r="A56" s="24"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
       <c r="H56" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="49"/>
-      <c r="J56" s="48"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
     </row>
     <row r="57" spans="1:10" ht="15.6">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
       <c r="H57" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="48"/>
     </row>
     <row r="58" spans="1:10" ht="15.6">
       <c r="A58" s="11"/>
@@ -14008,8 +14026,8 @@
     </row>
     <row r="61" spans="1:10" ht="15.6">
       <c r="A61" s="11"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
@@ -14019,12 +14037,12 @@
         <v>0</v>
       </c>
       <c r="I61" s="12"/>
-      <c r="J61" s="45"/>
+      <c r="J61" s="12"/>
     </row>
     <row r="62" spans="1:10" ht="15.6">
       <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
@@ -14034,7 +14052,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
+      <c r="J62" s="45"/>
     </row>
     <row r="63" spans="1:10" ht="15.6">
       <c r="A63" s="11"/>
@@ -14053,8 +14071,8 @@
     </row>
     <row r="64" spans="1:10" ht="15.6">
       <c r="A64" s="11"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
@@ -14064,7 +14082,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="12"/>
-      <c r="J64" s="21"/>
+      <c r="J64" s="12"/>
     </row>
     <row r="65" spans="1:10" ht="15.6">
       <c r="A65" s="11"/>
@@ -14094,12 +14112,12 @@
         <v>0</v>
       </c>
       <c r="I66" s="12"/>
-      <c r="J66" s="45"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="1:10" ht="15.6">
       <c r="A67" s="11"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -14109,7 +14127,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
+      <c r="J67" s="45"/>
     </row>
     <row r="68" spans="1:10" ht="15.6">
       <c r="A68" s="11"/>
@@ -14143,8 +14161,8 @@
     </row>
     <row r="70" spans="1:10" ht="15.6">
       <c r="A70" s="11"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="21"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
@@ -14154,117 +14172,120 @@
         <v>0</v>
       </c>
       <c r="I70" s="12"/>
-      <c r="J70" s="21"/>
+      <c r="J70" s="12"/>
     </row>
     <row r="71" spans="1:10" ht="15.6">
-      <c r="A71" s="28"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
       <c r="H71" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="31"/>
-      <c r="J71" s="29"/>
-    </row>
-    <row r="72" spans="1:10" ht="21">
-      <c r="A72" s="187" t="s">
+      <c r="I71" s="12"/>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.6">
+      <c r="A72" s="28"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="31"/>
+      <c r="J72" s="29"/>
+    </row>
+    <row r="73" spans="1:10" ht="21">
+      <c r="A73" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="187"/>
-      <c r="C72" s="187"/>
-      <c r="D72" s="50">
-        <f>SUM(D49:D71)</f>
+      <c r="B73" s="188"/>
+      <c r="C73" s="188"/>
+      <c r="D73" s="50">
+        <f>SUM(D50:D72)</f>
         <v>9078</v>
       </c>
-      <c r="E72" s="50">
-        <f>SUM(E49:E71)</f>
+      <c r="E73" s="50">
+        <f>SUM(E50:E72)</f>
         <v>1329</v>
       </c>
-      <c r="F72" s="50">
-        <f>SUM(F49:F71)</f>
+      <c r="F73" s="50">
+        <f>SUM(F50:F72)</f>
         <v>152.82</v>
       </c>
-      <c r="G72" s="50">
-        <f>SUM(G49:G71)</f>
+      <c r="G73" s="50">
+        <f>SUM(G50:G72)</f>
         <v>152.82</v>
       </c>
-      <c r="H72" s="51">
-        <f>SUM(H49:H71)</f>
+      <c r="H73" s="51">
+        <f>SUM(H50:H72)</f>
         <v>10712.64</v>
       </c>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-    </row>
-    <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="179" t="s">
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+    </row>
+    <row r="75" spans="1:10" ht="21">
+      <c r="A75" s="180" t="s">
         <v>235</v>
       </c>
-      <c r="B74" s="180"/>
-      <c r="C74" s="180"/>
-      <c r="D74" s="180"/>
-      <c r="E74" s="180"/>
-      <c r="F74" s="180"/>
-      <c r="G74" s="180"/>
-      <c r="H74" s="180"/>
-      <c r="I74" s="180"/>
-      <c r="J74" s="181"/>
-    </row>
-    <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="176" t="s">
+      <c r="B75" s="181"/>
+      <c r="C75" s="181"/>
+      <c r="D75" s="181"/>
+      <c r="E75" s="181"/>
+      <c r="F75" s="181"/>
+      <c r="G75" s="181"/>
+      <c r="H75" s="181"/>
+      <c r="I75" s="181"/>
+      <c r="J75" s="182"/>
+    </row>
+    <row r="76" spans="1:10" ht="21">
+      <c r="A76" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="177"/>
-      <c r="C75" s="177"/>
-      <c r="D75" s="177"/>
-      <c r="E75" s="177"/>
-      <c r="F75" s="177"/>
-      <c r="G75" s="177"/>
-      <c r="H75" s="178"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-    </row>
-    <row r="76" spans="1:10" ht="31.2">
-      <c r="A76" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B76" s="178"/>
+      <c r="C76" s="178"/>
+      <c r="D76" s="178"/>
+      <c r="E76" s="178"/>
+      <c r="F76" s="178"/>
+      <c r="G76" s="178"/>
+      <c r="H76" s="179"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="15.6">
-      <c r="A77" s="20"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
+    <row r="77" spans="1:10" ht="31.2">
+      <c r="A77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
@@ -14282,7 +14303,7 @@
     </row>
     <row r="79" spans="1:10" ht="15.6">
       <c r="A79" s="20"/>
-      <c r="B79" s="19"/>
+      <c r="B79" s="21"/>
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
@@ -14292,96 +14313,96 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="186" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" s="186"/>
-      <c r="C80" s="186"/>
-      <c r="D80" s="33">
-        <f>SUM(D77:D79)</f>
-        <v>0</v>
-      </c>
-      <c r="E80" s="33">
-        <f>SUM(E77:E79)</f>
-        <v>0</v>
-      </c>
-      <c r="F80" s="33">
-        <f>SUM(F77:F79)</f>
-        <v>0</v>
-      </c>
-      <c r="G80" s="33">
-        <f>SUM(G77:G79)</f>
-        <v>0</v>
-      </c>
-      <c r="H80" s="33">
-        <f>SUM(H77:H79)</f>
-        <v>0</v>
-      </c>
+    <row r="80" spans="1:10" ht="15.6">
+      <c r="A80" s="20"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" ht="21">
-      <c r="A81" s="176" t="s">
+      <c r="A81" s="187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="187"/>
+      <c r="C81" s="187"/>
+      <c r="D81" s="33">
+        <f>SUM(D78:D80)</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="33">
+        <f>SUM(E78:E80)</f>
+        <v>0</v>
+      </c>
+      <c r="F81" s="33">
+        <f>SUM(F78:F80)</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="33">
+        <f>SUM(G78:G80)</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="33">
+        <f>SUM(H78:H80)</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="1:10" ht="21">
+      <c r="A82" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="177"/>
-      <c r="C81" s="177"/>
-      <c r="D81" s="177"/>
-      <c r="E81" s="177"/>
-      <c r="F81" s="177"/>
-      <c r="G81" s="177"/>
-      <c r="H81" s="177"/>
-      <c r="I81" s="177"/>
-      <c r="J81" s="178"/>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="52" t="s">
+      <c r="B82" s="178"/>
+      <c r="C82" s="178"/>
+      <c r="D82" s="178"/>
+      <c r="E82" s="178"/>
+      <c r="F82" s="178"/>
+      <c r="G82" s="178"/>
+      <c r="H82" s="178"/>
+      <c r="I82" s="178"/>
+      <c r="J82" s="179"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="52" t="s">
+      <c r="B83" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="52" t="s">
+      <c r="C83" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="52" t="s">
+      <c r="D83" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="52" t="s">
+      <c r="E83" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F82" s="52" t="s">
+      <c r="F83" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G82" s="52" t="s">
+      <c r="G83" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="53" t="s">
+      <c r="H83" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="I82" s="53" t="s">
+      <c r="I83" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="J82" s="53" t="s">
+      <c r="J83" s="53" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="15.6">
-      <c r="A83" s="54"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="55"/>
     </row>
     <row r="84" spans="1:10" ht="15.6">
       <c r="A84" s="54"/>
-      <c r="B84" s="12"/>
+      <c r="B84" s="8"/>
       <c r="C84" s="55"/>
       <c r="D84" s="55"/>
       <c r="E84" s="55"/>
@@ -14392,16 +14413,16 @@
       <c r="J84" s="55"/>
     </row>
     <row r="85" spans="1:10" ht="15.6">
-      <c r="A85" s="56"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="57"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="57"/>
-      <c r="G85" s="57"/>
+      <c r="A85" s="54"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="55"/>
       <c r="H85" s="55"/>
-      <c r="I85" s="57"/>
-      <c r="J85" s="57"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="55"/>
     </row>
     <row r="86" spans="1:10" ht="15.6">
       <c r="A86" s="56"/>
@@ -14411,7 +14432,7 @@
       <c r="E86" s="57"/>
       <c r="F86" s="57"/>
       <c r="G86" s="57"/>
-      <c r="H86" s="57"/>
+      <c r="H86" s="55"/>
       <c r="I86" s="57"/>
       <c r="J86" s="57"/>
     </row>
@@ -14427,41 +14448,41 @@
       <c r="I87" s="57"/>
       <c r="J87" s="57"/>
     </row>
-    <row r="88" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A88" s="11"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="21"/>
+    <row r="88" spans="1:10" ht="15.6">
+      <c r="A88" s="56"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="57"/>
     </row>
     <row r="89" spans="1:10" ht="16.2" thickBot="1">
       <c r="A89" s="11"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="58"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
       <c r="H89" s="12"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="58"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.6">
-      <c r="A90" s="56"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="57"/>
-      <c r="D90" s="57"/>
-      <c r="E90" s="57"/>
-      <c r="F90" s="57"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="57"/>
-      <c r="I90" s="57"/>
-      <c r="J90" s="57"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="21"/>
+    </row>
+    <row r="90" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A90" s="11"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="58"/>
     </row>
     <row r="91" spans="1:10" ht="15.6">
       <c r="A91" s="56"/>
@@ -14500,135 +14521,147 @@
       <c r="J93" s="57"/>
     </row>
     <row r="94" spans="1:10" ht="15.6">
-      <c r="A94" s="11"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="21"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="57"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="57"/>
     </row>
     <row r="95" spans="1:10" ht="15.6">
-      <c r="A95" s="28"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="30"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="1:10" ht="15.6">
-      <c r="A96" s="59"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="60"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="60"/>
-      <c r="G96" s="60"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="60"/>
-      <c r="J96" s="60"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="30"/>
     </row>
     <row r="97" spans="1:10" ht="15.6">
-      <c r="A97" s="36"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="61"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="57"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="62"/>
+      <c r="A97" s="59"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="60"/>
+      <c r="I97" s="60"/>
+      <c r="J97" s="60"/>
     </row>
     <row r="98" spans="1:10" ht="15.6">
-      <c r="A98" s="11"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="21"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="62"/>
     </row>
     <row r="99" spans="1:10" ht="15.6">
-      <c r="A99" s="36"/>
-      <c r="B99" s="61"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="37"/>
-      <c r="E99" s="37"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="37"/>
-      <c r="I99" s="37"/>
-      <c r="J99" s="61"/>
-    </row>
-    <row r="100" spans="1:10" ht="15">
-      <c r="A100" s="63"/>
-      <c r="B100" s="64"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="66"/>
-      <c r="H100" s="66"/>
-      <c r="I100" s="66"/>
-      <c r="J100" s="65"/>
-    </row>
-    <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="188" t="s">
+      <c r="A99" s="11"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="21"/>
+    </row>
+    <row r="100" spans="1:10" ht="15.6">
+      <c r="A100" s="36"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="61"/>
+    </row>
+    <row r="101" spans="1:10" ht="15">
+      <c r="A101" s="63"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="66"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="66"/>
+      <c r="H101" s="66"/>
+      <c r="I101" s="66"/>
+      <c r="J101" s="65"/>
+    </row>
+    <row r="102" spans="1:10" ht="21">
+      <c r="A102" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="188"/>
-      <c r="C101" s="188"/>
-      <c r="D101" s="67">
-        <f>SUM(D83:D100)</f>
+      <c r="B102" s="189"/>
+      <c r="C102" s="189"/>
+      <c r="D102" s="67">
+        <f>SUM(D84:D101)</f>
         <v>0</v>
       </c>
-      <c r="E101" s="67">
-        <f>SUM(E83:E100)</f>
+      <c r="E102" s="67">
+        <f>SUM(E84:E101)</f>
         <v>0</v>
       </c>
-      <c r="F101" s="67">
-        <f>SUM(F83:F100)</f>
+      <c r="F102" s="67">
+        <f>SUM(F84:F101)</f>
         <v>0</v>
       </c>
-      <c r="G101" s="67">
-        <f>SUM(G83:G100)</f>
+      <c r="G102" s="67">
+        <f>SUM(G84:G101)</f>
         <v>0</v>
       </c>
-      <c r="H101" s="67">
-        <f>SUM(H83:H100)</f>
+      <c r="H102" s="67">
+        <f>SUM(H84:H101)</f>
         <v>0</v>
       </c>
-      <c r="I101" s="67"/>
-      <c r="J101" s="67"/>
+      <c r="I102" s="67"/>
+      <c r="J102" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A81:J81"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:J82"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="A39:J39"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="544">
   <si>
     <t>APRIL</t>
   </si>
@@ -1650,6 +1650,15 @@
   </si>
   <si>
     <t>MRSI/246/2023-24</t>
+  </si>
+  <si>
+    <t>I-C-1-24-454734</t>
+  </si>
+  <si>
+    <t>CA-710</t>
+  </si>
+  <si>
+    <t>CA-712</t>
   </si>
 </sst>
 </file>
@@ -1952,7 +1961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2476,6 +2485,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2539,10 +2563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2847,30 +2868,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="184"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="189"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="181"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="186"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -3090,11 +3111,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="185" t="s">
+      <c r="A12" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="185"/>
-      <c r="C12" s="185"/>
+      <c r="B12" s="190"/>
+      <c r="C12" s="190"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -3119,18 +3140,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="179" t="s">
+      <c r="A13" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="180"/>
-      <c r="C13" s="180"/>
-      <c r="D13" s="180"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="181"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="185"/>
+      <c r="J13" s="186"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -3917,11 +3938,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="175" t="s">
+      <c r="A42" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="176"/>
-      <c r="C42" s="177"/>
+      <c r="B42" s="181"/>
+      <c r="C42" s="182"/>
       <c r="D42" s="26">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -3946,30 +3967,30 @@
       <c r="J42" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="182" t="s">
+      <c r="A44" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="183"/>
-      <c r="C44" s="183"/>
-      <c r="D44" s="183"/>
-      <c r="E44" s="183"/>
-      <c r="F44" s="183"/>
-      <c r="G44" s="183"/>
-      <c r="H44" s="183"/>
-      <c r="I44" s="183"/>
-      <c r="J44" s="184"/>
+      <c r="B44" s="188"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="188"/>
+      <c r="E44" s="188"/>
+      <c r="F44" s="188"/>
+      <c r="G44" s="188"/>
+      <c r="H44" s="188"/>
+      <c r="I44" s="188"/>
+      <c r="J44" s="189"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="179" t="s">
+      <c r="A45" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="180"/>
-      <c r="C45" s="180"/>
-      <c r="D45" s="180"/>
-      <c r="E45" s="180"/>
-      <c r="F45" s="180"/>
-      <c r="G45" s="180"/>
-      <c r="H45" s="181"/>
+      <c r="B45" s="185"/>
+      <c r="C45" s="185"/>
+      <c r="D45" s="185"/>
+      <c r="E45" s="185"/>
+      <c r="F45" s="185"/>
+      <c r="G45" s="185"/>
+      <c r="H45" s="186"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -4245,11 +4266,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="178" t="s">
+      <c r="A56" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="178"/>
-      <c r="C56" s="178"/>
+      <c r="B56" s="183"/>
+      <c r="C56" s="183"/>
       <c r="D56" s="27">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -4274,18 +4295,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="179" t="s">
+      <c r="A57" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="180"/>
-      <c r="C57" s="180"/>
-      <c r="D57" s="180"/>
-      <c r="E57" s="180"/>
-      <c r="F57" s="180"/>
-      <c r="G57" s="180"/>
-      <c r="H57" s="180"/>
-      <c r="I57" s="180"/>
-      <c r="J57" s="181"/>
+      <c r="B57" s="185"/>
+      <c r="C57" s="185"/>
+      <c r="D57" s="185"/>
+      <c r="E57" s="185"/>
+      <c r="F57" s="185"/>
+      <c r="G57" s="185"/>
+      <c r="H57" s="185"/>
+      <c r="I57" s="185"/>
+      <c r="J57" s="186"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -5123,11 +5144,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="186" t="s">
+      <c r="A88" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="187"/>
-      <c r="C88" s="188"/>
+      <c r="B88" s="192"/>
+      <c r="C88" s="193"/>
       <c r="D88" s="27">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -5152,30 +5173,30 @@
       <c r="J88" s="27"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="182" t="s">
+      <c r="A90" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="183"/>
-      <c r="C90" s="183"/>
-      <c r="D90" s="183"/>
-      <c r="E90" s="183"/>
-      <c r="F90" s="183"/>
-      <c r="G90" s="183"/>
-      <c r="H90" s="183"/>
-      <c r="I90" s="183"/>
-      <c r="J90" s="184"/>
+      <c r="B90" s="188"/>
+      <c r="C90" s="188"/>
+      <c r="D90" s="188"/>
+      <c r="E90" s="188"/>
+      <c r="F90" s="188"/>
+      <c r="G90" s="188"/>
+      <c r="H90" s="188"/>
+      <c r="I90" s="188"/>
+      <c r="J90" s="189"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="179" t="s">
+      <c r="A91" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="180"/>
-      <c r="C91" s="180"/>
-      <c r="D91" s="180"/>
-      <c r="E91" s="180"/>
-      <c r="F91" s="180"/>
-      <c r="G91" s="180"/>
-      <c r="H91" s="181"/>
+      <c r="B91" s="185"/>
+      <c r="C91" s="185"/>
+      <c r="D91" s="185"/>
+      <c r="E91" s="185"/>
+      <c r="F91" s="185"/>
+      <c r="G91" s="185"/>
+      <c r="H91" s="186"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -5397,11 +5418,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="178" t="s">
+      <c r="A100" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="178"/>
-      <c r="C100" s="178"/>
+      <c r="B100" s="183"/>
+      <c r="C100" s="183"/>
       <c r="D100" s="27">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -5426,18 +5447,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="179" t="s">
+      <c r="A101" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="180"/>
-      <c r="C101" s="180"/>
-      <c r="D101" s="180"/>
-      <c r="E101" s="180"/>
-      <c r="F101" s="180"/>
-      <c r="G101" s="180"/>
-      <c r="H101" s="180"/>
-      <c r="I101" s="180"/>
-      <c r="J101" s="181"/>
+      <c r="B101" s="185"/>
+      <c r="C101" s="185"/>
+      <c r="D101" s="185"/>
+      <c r="E101" s="185"/>
+      <c r="F101" s="185"/>
+      <c r="G101" s="185"/>
+      <c r="H101" s="185"/>
+      <c r="I101" s="185"/>
+      <c r="J101" s="186"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -6092,11 +6113,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="175" t="s">
+      <c r="A125" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="176"/>
-      <c r="C125" s="177"/>
+      <c r="B125" s="181"/>
+      <c r="C125" s="182"/>
       <c r="D125" s="26">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -6355,30 +6376,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="184"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="189"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="181"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="186"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6465,11 +6486,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="189" t="s">
+      <c r="A7" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
       <c r="D7" s="33">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -6494,18 +6515,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="179" t="s">
+      <c r="A8" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="180"/>
-      <c r="C8" s="180"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="181"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="186"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -7163,11 +7184,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="190" t="s">
+      <c r="A32" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="190"/>
-      <c r="C32" s="190"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="195"/>
       <c r="D32" s="45">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -7197,30 +7218,30 @@
       <c r="C33" s="39"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="182" t="s">
+      <c r="A34" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="183"/>
-      <c r="C34" s="183"/>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="184"/>
+      <c r="B34" s="188"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="189"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="179" t="s">
+      <c r="A35" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="180"/>
-      <c r="C35" s="180"/>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="181"/>
+      <c r="B35" s="185"/>
+      <c r="C35" s="185"/>
+      <c r="D35" s="185"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="185"/>
+      <c r="G35" s="185"/>
+      <c r="H35" s="186"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
@@ -7361,11 +7382,11 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="189" t="s">
+      <c r="A41" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="189"/>
-      <c r="C41" s="189"/>
+      <c r="B41" s="194"/>
+      <c r="C41" s="194"/>
       <c r="D41" s="33">
         <f>SUM(D37:D40)</f>
         <v>613000</v>
@@ -7390,18 +7411,18 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="180"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="180"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="180"/>
-      <c r="G42" s="180"/>
-      <c r="H42" s="180"/>
-      <c r="I42" s="180"/>
-      <c r="J42" s="181"/>
+      <c r="B42" s="185"/>
+      <c r="C42" s="185"/>
+      <c r="D42" s="185"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="185"/>
+      <c r="G42" s="185"/>
+      <c r="H42" s="185"/>
+      <c r="I42" s="185"/>
+      <c r="J42" s="186"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
@@ -8347,11 +8368,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="192" t="s">
+      <c r="A77" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="192"/>
-      <c r="C77" s="192"/>
+      <c r="B77" s="197"/>
+      <c r="C77" s="197"/>
       <c r="D77" s="38">
         <f>SUM(D44:D76)</f>
         <v>385770.4</v>
@@ -8394,30 +8415,30 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="182" t="s">
+      <c r="A79" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="183"/>
-      <c r="C79" s="183"/>
-      <c r="D79" s="183"/>
-      <c r="E79" s="183"/>
-      <c r="F79" s="183"/>
-      <c r="G79" s="183"/>
-      <c r="H79" s="183"/>
-      <c r="I79" s="183"/>
-      <c r="J79" s="184"/>
+      <c r="B79" s="188"/>
+      <c r="C79" s="188"/>
+      <c r="D79" s="188"/>
+      <c r="E79" s="188"/>
+      <c r="F79" s="188"/>
+      <c r="G79" s="188"/>
+      <c r="H79" s="188"/>
+      <c r="I79" s="188"/>
+      <c r="J79" s="189"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="179" t="s">
+      <c r="A80" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="180"/>
-      <c r="C80" s="180"/>
-      <c r="D80" s="180"/>
-      <c r="E80" s="180"/>
-      <c r="F80" s="180"/>
-      <c r="G80" s="180"/>
-      <c r="H80" s="181"/>
+      <c r="B80" s="185"/>
+      <c r="C80" s="185"/>
+      <c r="D80" s="185"/>
+      <c r="E80" s="185"/>
+      <c r="F80" s="185"/>
+      <c r="G80" s="185"/>
+      <c r="H80" s="186"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
@@ -8531,11 +8552,11 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="189" t="s">
+      <c r="A85" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="189"/>
-      <c r="C85" s="189"/>
+      <c r="B85" s="194"/>
+      <c r="C85" s="194"/>
       <c r="D85" s="33">
         <f>SUM(D82:D84)</f>
         <v>204284</v>
@@ -8560,18 +8581,18 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="179" t="s">
+      <c r="A86" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="180"/>
-      <c r="C86" s="180"/>
-      <c r="D86" s="180"/>
-      <c r="E86" s="180"/>
-      <c r="F86" s="180"/>
-      <c r="G86" s="180"/>
-      <c r="H86" s="180"/>
-      <c r="I86" s="180"/>
-      <c r="J86" s="181"/>
+      <c r="B86" s="185"/>
+      <c r="C86" s="185"/>
+      <c r="D86" s="185"/>
+      <c r="E86" s="185"/>
+      <c r="F86" s="185"/>
+      <c r="G86" s="185"/>
+      <c r="H86" s="185"/>
+      <c r="I86" s="185"/>
+      <c r="J86" s="186"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="47" t="s">
@@ -9326,11 +9347,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="191" t="s">
+      <c r="A114" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="191"/>
-      <c r="C114" s="191"/>
+      <c r="B114" s="196"/>
+      <c r="C114" s="196"/>
       <c r="D114" s="62">
         <f>SUM(D88:D113)</f>
         <v>438291.73</v>
@@ -9402,30 +9423,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="187" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="184"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="189"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="181"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="186"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -9470,11 +9491,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" ht="21">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="185"/>
-      <c r="C6" s="185"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
       <c r="D6" s="15">
         <f>SUM(D5:D5)</f>
         <v>0</v>
@@ -9499,18 +9520,18 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="21">
-      <c r="A7" s="179" t="s">
+      <c r="A7" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="180"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="181"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="186"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="16" t="s">
@@ -10119,11 +10140,11 @@
       <c r="K28" s="63"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="193" t="s">
+      <c r="A29" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="193"/>
-      <c r="C29" s="193"/>
+      <c r="B29" s="198"/>
+      <c r="C29" s="198"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -10149,30 +10170,30 @@
       <c r="K29" s="63"/>
     </row>
     <row r="31" spans="1:11" ht="21">
-      <c r="A31" s="182" t="s">
+      <c r="A31" s="187" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="183"/>
-      <c r="C31" s="183"/>
-      <c r="D31" s="183"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="184"/>
+      <c r="B31" s="188"/>
+      <c r="C31" s="188"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="189"/>
     </row>
     <row r="32" spans="1:11" ht="21">
-      <c r="A32" s="179" t="s">
+      <c r="A32" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="180"/>
-      <c r="C32" s="180"/>
-      <c r="D32" s="180"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="181"/>
+      <c r="B32" s="185"/>
+      <c r="C32" s="185"/>
+      <c r="D32" s="185"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="185"/>
+      <c r="G32" s="185"/>
+      <c r="H32" s="186"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -10418,11 +10439,11 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="178" t="s">
+      <c r="A42" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="178"/>
-      <c r="C42" s="178"/>
+      <c r="B42" s="183"/>
+      <c r="C42" s="183"/>
       <c r="D42" s="27">
         <f>SUM(D34:D41)</f>
         <v>983754</v>
@@ -10447,18 +10468,18 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="179" t="s">
+      <c r="A43" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="180"/>
-      <c r="C43" s="180"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="180"/>
-      <c r="G43" s="180"/>
-      <c r="H43" s="180"/>
-      <c r="I43" s="180"/>
-      <c r="J43" s="181"/>
+      <c r="B43" s="185"/>
+      <c r="C43" s="185"/>
+      <c r="D43" s="185"/>
+      <c r="E43" s="185"/>
+      <c r="F43" s="185"/>
+      <c r="G43" s="185"/>
+      <c r="H43" s="185"/>
+      <c r="I43" s="185"/>
+      <c r="J43" s="186"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1">
       <c r="A44" s="16" t="s">
@@ -11488,11 +11509,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A81" s="178" t="s">
+      <c r="A81" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="178"/>
-      <c r="C81" s="178"/>
+      <c r="B81" s="183"/>
+      <c r="C81" s="183"/>
       <c r="D81" s="27">
         <f>SUM(D45:D80)</f>
         <v>599787.05000000005</v>
@@ -11517,30 +11538,30 @@
       <c r="J81" s="27"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="182" t="s">
+      <c r="A83" s="187" t="s">
         <v>232</v>
       </c>
-      <c r="B83" s="183"/>
-      <c r="C83" s="183"/>
-      <c r="D83" s="183"/>
-      <c r="E83" s="183"/>
-      <c r="F83" s="183"/>
-      <c r="G83" s="183"/>
-      <c r="H83" s="183"/>
-      <c r="I83" s="183"/>
-      <c r="J83" s="184"/>
+      <c r="B83" s="188"/>
+      <c r="C83" s="188"/>
+      <c r="D83" s="188"/>
+      <c r="E83" s="188"/>
+      <c r="F83" s="188"/>
+      <c r="G83" s="188"/>
+      <c r="H83" s="188"/>
+      <c r="I83" s="188"/>
+      <c r="J83" s="189"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="179" t="s">
+      <c r="A84" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="180"/>
-      <c r="C84" s="180"/>
-      <c r="D84" s="180"/>
-      <c r="E84" s="180"/>
-      <c r="F84" s="180"/>
-      <c r="G84" s="180"/>
-      <c r="H84" s="181"/>
+      <c r="B84" s="185"/>
+      <c r="C84" s="185"/>
+      <c r="D84" s="185"/>
+      <c r="E84" s="185"/>
+      <c r="F84" s="185"/>
+      <c r="G84" s="185"/>
+      <c r="H84" s="186"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
@@ -11685,11 +11706,11 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A90" s="178" t="s">
+      <c r="A90" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="178"/>
-      <c r="C90" s="178"/>
+      <c r="B90" s="183"/>
+      <c r="C90" s="183"/>
       <c r="D90" s="27">
         <f>SUM(D86:D89)</f>
         <v>297318</v>
@@ -11714,18 +11735,18 @@
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="179" t="s">
+      <c r="A91" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="180"/>
-      <c r="C91" s="180"/>
-      <c r="D91" s="180"/>
-      <c r="E91" s="180"/>
-      <c r="F91" s="180"/>
-      <c r="G91" s="180"/>
-      <c r="H91" s="180"/>
-      <c r="I91" s="180"/>
-      <c r="J91" s="181"/>
+      <c r="B91" s="185"/>
+      <c r="C91" s="185"/>
+      <c r="D91" s="185"/>
+      <c r="E91" s="185"/>
+      <c r="F91" s="185"/>
+      <c r="G91" s="185"/>
+      <c r="H91" s="185"/>
+      <c r="I91" s="185"/>
+      <c r="J91" s="186"/>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1">
       <c r="A92" s="16" t="s">
@@ -12564,11 +12585,11 @@
       </c>
     </row>
     <row r="122" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A122" s="194" t="s">
+      <c r="A122" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="194"/>
-      <c r="C122" s="194"/>
+      <c r="B122" s="199"/>
+      <c r="C122" s="199"/>
       <c r="D122" s="149">
         <f>SUM(D93:D121)</f>
         <v>369422.4</v>
@@ -12593,11 +12614,11 @@
       <c r="J122" s="149"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="195"/>
-      <c r="B124" s="195"/>
-      <c r="C124" s="195"/>
-      <c r="D124" s="195"/>
-      <c r="E124" s="195"/>
+      <c r="A124" s="200"/>
+      <c r="B124" s="200"/>
+      <c r="C124" s="200"/>
+      <c r="D124" s="200"/>
+      <c r="E124" s="200"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:B127"/>
@@ -12626,10 +12647,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J108"/>
+  <dimension ref="A2:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12648,30 +12669,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="187" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="184"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="189"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="181"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="186"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -12802,11 +12823,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="189"/>
-      <c r="C9" s="189"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="194"/>
       <c r="D9" s="33">
         <f>SUM(D5:D8)</f>
         <v>769530</v>
@@ -12831,18 +12852,18 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="180"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="181"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="186"/>
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1">
       <c r="A11" s="34" t="s">
@@ -13484,32 +13505,31 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="163" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A34" s="121">
-        <v>45318</v>
-      </c>
-      <c r="B34" s="119" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="119" t="s">
-        <v>529</v>
-      </c>
-      <c r="D34" s="117">
-        <v>1315.49</v>
-      </c>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117">
-        <v>107.26</v>
-      </c>
-      <c r="G34" s="117">
-        <v>107.26</v>
-      </c>
-      <c r="H34" s="117">
-        <v>1530</v>
-      </c>
-      <c r="I34" s="117"/>
-      <c r="J34" s="119" t="s">
-        <v>37</v>
+    <row r="34" spans="1:10" s="179" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A34" s="69">
+        <v>45316</v>
+      </c>
+      <c r="B34" s="71" t="s">
+        <v>440</v>
+      </c>
+      <c r="C34" s="201">
+        <v>2881089800</v>
+      </c>
+      <c r="D34" s="70">
+        <v>550</v>
+      </c>
+      <c r="E34" s="70">
+        <v>27.5</v>
+      </c>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70">
+        <f>D34+E34+F34+G34</f>
+        <v>577.5</v>
+      </c>
+      <c r="I34" s="70"/>
+      <c r="J34" s="201" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="163" customFormat="1" ht="16.5" customHeight="1">
@@ -13520,166 +13540,165 @@
         <v>35</v>
       </c>
       <c r="C35" s="119" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D35" s="117">
-        <v>1240.43</v>
+        <v>1315.49</v>
       </c>
       <c r="E35" s="117"/>
       <c r="F35" s="117">
-        <v>109.78</v>
+        <v>107.26</v>
       </c>
       <c r="G35" s="117">
-        <v>109.78</v>
+        <v>107.26</v>
       </c>
       <c r="H35" s="117">
-        <v>1460</v>
+        <v>1530</v>
       </c>
       <c r="I35" s="117"/>
       <c r="J35" s="119" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="164" customFormat="1" ht="16.5" customHeight="1">
+    <row r="36" spans="1:10" s="163" customFormat="1" ht="16.5" customHeight="1">
       <c r="A36" s="121">
-        <v>45320</v>
+        <v>45318</v>
       </c>
       <c r="B36" s="119" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C36" s="119" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D36" s="117">
-        <v>640.62</v>
+        <v>1240.43</v>
       </c>
       <c r="E36" s="117"/>
       <c r="F36" s="117">
-        <v>89.69</v>
+        <v>109.78</v>
       </c>
       <c r="G36" s="117">
-        <v>89.69</v>
+        <v>109.78</v>
       </c>
       <c r="H36" s="117">
-        <f>D36+E36+F36+G36</f>
-        <v>820</v>
+        <v>1460</v>
       </c>
       <c r="I36" s="117"/>
       <c r="J36" s="119" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="164" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A37" s="121">
+        <v>45320</v>
+      </c>
+      <c r="B37" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="119" t="s">
+        <v>532</v>
+      </c>
+      <c r="D37" s="117">
+        <v>640.62</v>
+      </c>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117">
+        <v>89.69</v>
+      </c>
+      <c r="G37" s="117">
+        <v>89.69</v>
+      </c>
+      <c r="H37" s="117">
+        <f>D37+E37+F37+G37</f>
+        <v>820</v>
+      </c>
+      <c r="I37" s="117"/>
+      <c r="J37" s="119" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="163" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A37" s="171">
-        <v>45320</v>
-      </c>
-      <c r="B37" s="172" t="s">
-        <v>246</v>
-      </c>
-      <c r="C37" s="172">
-        <v>6308</v>
-      </c>
-      <c r="D37" s="170">
-        <v>1711</v>
-      </c>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170">
-        <v>153.99</v>
-      </c>
-      <c r="G37" s="170">
-        <v>153.99</v>
-      </c>
-      <c r="H37" s="170">
-        <v>2019</v>
-      </c>
-      <c r="I37" s="170"/>
-      <c r="J37" s="172" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="168" customFormat="1" ht="16.5" customHeight="1">
+    <row r="38" spans="1:10" s="163" customFormat="1" ht="16.5" customHeight="1">
       <c r="A38" s="171">
         <v>45320</v>
       </c>
       <c r="B38" s="172" t="s">
-        <v>510</v>
-      </c>
-      <c r="C38" s="119">
-        <v>1502</v>
-      </c>
-      <c r="D38" s="117">
-        <v>11355</v>
+        <v>246</v>
+      </c>
+      <c r="C38" s="172">
+        <v>6308</v>
+      </c>
+      <c r="D38" s="170">
+        <v>1711</v>
       </c>
       <c r="E38" s="170"/>
       <c r="F38" s="170">
-        <v>1022</v>
+        <v>153.99</v>
       </c>
       <c r="G38" s="170">
-        <v>1022</v>
+        <v>153.99</v>
       </c>
       <c r="H38" s="170">
-        <v>13400</v>
+        <v>2019</v>
       </c>
       <c r="I38" s="170"/>
-      <c r="J38" s="117" t="s">
-        <v>511</v>
+      <c r="J38" s="172" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="168" customFormat="1" ht="16.5" customHeight="1">
       <c r="A39" s="171">
-        <v>45321</v>
+        <v>45320</v>
       </c>
       <c r="B39" s="172" t="s">
         <v>510</v>
       </c>
       <c r="C39" s="119">
-        <v>1530</v>
+        <v>1502</v>
       </c>
       <c r="D39" s="117">
-        <v>8071.95</v>
+        <v>11355</v>
       </c>
       <c r="E39" s="170"/>
       <c r="F39" s="170">
-        <v>726.48</v>
+        <v>1022</v>
       </c>
       <c r="G39" s="170">
-        <v>726.48</v>
+        <v>1022</v>
       </c>
       <c r="H39" s="170">
-        <v>9525</v>
+        <v>13400</v>
       </c>
       <c r="I39" s="170"/>
       <c r="J39" s="117" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="167" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A40" s="121">
-        <v>45322</v>
-      </c>
-      <c r="B40" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="122" t="s">
-        <v>537</v>
+    <row r="40" spans="1:10" s="168" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A40" s="171">
+        <v>45321</v>
+      </c>
+      <c r="B40" s="172" t="s">
+        <v>510</v>
+      </c>
+      <c r="C40" s="119">
+        <v>1530</v>
       </c>
       <c r="D40" s="117">
-        <v>50</v>
-      </c>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117">
-        <v>4.5</v>
-      </c>
-      <c r="G40" s="117">
-        <v>4.5</v>
-      </c>
-      <c r="H40" s="117">
-        <f>D40+E40+F40+G40</f>
-        <v>59</v>
-      </c>
-      <c r="I40" s="117"/>
-      <c r="J40" s="122" t="s">
-        <v>93</v>
+        <v>8071.95</v>
+      </c>
+      <c r="E40" s="170"/>
+      <c r="F40" s="170">
+        <v>726.48</v>
+      </c>
+      <c r="G40" s="170">
+        <v>726.48</v>
+      </c>
+      <c r="H40" s="170">
+        <v>9525</v>
+      </c>
+      <c r="I40" s="170"/>
+      <c r="J40" s="117" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="167" customFormat="1" ht="16.5" customHeight="1">
@@ -13689,1206 +13708,1120 @@
       <c r="B41" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="119" t="s">
-        <v>538</v>
+      <c r="C41" s="122" t="s">
+        <v>537</v>
       </c>
       <c r="D41" s="117">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="E41" s="117"/>
       <c r="F41" s="117">
-        <v>31.5</v>
+        <v>4.5</v>
       </c>
       <c r="G41" s="117">
-        <v>31.5</v>
+        <v>4.5</v>
       </c>
       <c r="H41" s="117">
         <f>D41+E41+F41+G41</f>
-        <v>413</v>
+        <v>59</v>
       </c>
       <c r="I41" s="117"/>
       <c r="J41" s="122" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="190" t="s">
+    <row r="42" spans="1:10" s="167" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A42" s="121">
+        <v>45322</v>
+      </c>
+      <c r="B42" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="119" t="s">
+        <v>538</v>
+      </c>
+      <c r="D42" s="117">
+        <v>350</v>
+      </c>
+      <c r="E42" s="117"/>
+      <c r="F42" s="117">
+        <v>31.5</v>
+      </c>
+      <c r="G42" s="117">
+        <v>31.5</v>
+      </c>
+      <c r="H42" s="117">
+        <f>D42+E42+F42+G42</f>
+        <v>413</v>
+      </c>
+      <c r="I42" s="117"/>
+      <c r="J42" s="122" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="21">
+      <c r="A43" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="45">
-        <f>SUM(D12:D41)</f>
-        <v>370766.08000000002</v>
-      </c>
-      <c r="E42" s="45">
-        <f>SUM(E12:E41)</f>
-        <v>45181.83</v>
-      </c>
-      <c r="F42" s="45">
-        <f>SUM(F12:F41)</f>
+      <c r="B43" s="195"/>
+      <c r="C43" s="195"/>
+      <c r="D43" s="45">
+        <f>SUM(D12:D42)</f>
+        <v>371316.08</v>
+      </c>
+      <c r="E43" s="45">
+        <f>SUM(E12:E42)</f>
+        <v>45209.33</v>
+      </c>
+      <c r="F43" s="45">
+        <f>SUM(F12:F42)</f>
         <v>10813.9</v>
       </c>
-      <c r="G42" s="45">
-        <f>SUM(G12:G41)</f>
+      <c r="G43" s="45">
+        <f>SUM(G12:G42)</f>
         <v>10813.9</v>
       </c>
-      <c r="H42" s="102">
-        <f>SUM(H12:H41)</f>
-        <v>437579.49</v>
-      </c>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-    </row>
-    <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="182" t="s">
+      <c r="H43" s="102">
+        <f>SUM(H12:H42)</f>
+        <v>438156.99</v>
+      </c>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+    </row>
+    <row r="45" spans="1:10" ht="21">
+      <c r="A45" s="187" t="s">
         <v>234</v>
       </c>
-      <c r="B44" s="183"/>
-      <c r="C44" s="183"/>
-      <c r="D44" s="183"/>
-      <c r="E44" s="183"/>
-      <c r="F44" s="183"/>
-      <c r="G44" s="183"/>
-      <c r="H44" s="183"/>
-      <c r="I44" s="183"/>
-      <c r="J44" s="184"/>
-    </row>
-    <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="179" t="s">
+      <c r="B45" s="188"/>
+      <c r="C45" s="188"/>
+      <c r="D45" s="188"/>
+      <c r="E45" s="188"/>
+      <c r="F45" s="188"/>
+      <c r="G45" s="188"/>
+      <c r="H45" s="188"/>
+      <c r="I45" s="188"/>
+      <c r="J45" s="189"/>
+    </row>
+    <row r="46" spans="1:10" ht="21">
+      <c r="A46" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="180"/>
-      <c r="C45" s="180"/>
-      <c r="D45" s="180"/>
-      <c r="E45" s="180"/>
-      <c r="F45" s="180"/>
-      <c r="G45" s="180"/>
-      <c r="H45" s="181"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" ht="31.2">
-      <c r="A46" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B46" s="185"/>
+      <c r="C46" s="185"/>
+      <c r="D46" s="185"/>
+      <c r="E46" s="185"/>
+      <c r="F46" s="185"/>
+      <c r="G46" s="185"/>
+      <c r="H46" s="186"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A47" s="7">
+    <row r="47" spans="1:10" ht="31.2">
+      <c r="A47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A48" s="7">
         <v>45211</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B48" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D48" s="8">
         <v>1862120</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8">
+      <c r="E48" s="8"/>
+      <c r="F48" s="8">
         <v>167950.8</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G48" s="8">
         <v>167950.8</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H48" s="8">
         <v>2202021.6</v>
       </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-    </row>
-    <row r="48" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A48" s="18">
-        <v>45261</v>
-      </c>
-      <c r="B48" s="148" t="s">
-        <v>407</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="D48" s="19">
-        <v>35593</v>
-      </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19">
-        <v>3203.4</v>
-      </c>
-      <c r="G48" s="19">
-        <v>3203.4</v>
-      </c>
-      <c r="H48" s="8">
-        <v>42000</v>
-      </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="147" t="s">
-        <v>409</v>
-      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
     </row>
     <row r="49" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A49" s="18">
-        <v>45273</v>
+        <v>45261</v>
       </c>
       <c r="B49" s="148" t="s">
-        <v>526</v>
+        <v>407</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>527</v>
+        <v>410</v>
       </c>
       <c r="D49" s="19">
-        <v>19560</v>
+        <v>35593</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="19">
+        <v>3203.4</v>
+      </c>
+      <c r="G49" s="19">
+        <v>3203.4</v>
+      </c>
+      <c r="H49" s="8">
+        <v>42000</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="147" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A50" s="18">
+        <v>45273</v>
+      </c>
+      <c r="B50" s="148" t="s">
+        <v>526</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D50" s="19">
+        <v>19560</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19">
         <v>1760.4</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G50" s="19">
         <v>1760.4</v>
       </c>
-      <c r="H49" s="8">
-        <f>D49+E49+F49+G49</f>
+      <c r="H50" s="8">
+        <f>D50+E50+F50+G50</f>
         <v>23080.800000000003</v>
       </c>
-      <c r="I49" s="5"/>
-      <c r="J49" s="147"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.6">
-      <c r="A50" s="20">
+      <c r="I50" s="5"/>
+      <c r="J50" s="147"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.6">
+      <c r="A51" s="20">
         <v>45292</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B51" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C51" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D51" s="22">
         <v>184600</v>
       </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22">
+      <c r="E51" s="22"/>
+      <c r="F51" s="22">
         <v>19494</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G51" s="22">
         <v>19494</v>
       </c>
-      <c r="H50" s="19">
-        <f>D50+E50+F50+G50</f>
+      <c r="H51" s="19">
+        <f>D51+E51+F51+G51</f>
         <v>223588</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="157" customFormat="1" ht="15.6">
-      <c r="A51" s="18">
+    <row r="52" spans="1:10" s="157" customFormat="1" ht="15.6">
+      <c r="A52" s="18">
         <v>44991</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B52" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C52" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D52" s="19">
         <v>1713185</v>
       </c>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19">
+      <c r="E52" s="19"/>
+      <c r="F52" s="19">
         <v>154186.65</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G52" s="19">
         <v>154186.65</v>
       </c>
-      <c r="H51" s="8">
-        <f>D51+E51+F51+G51</f>
+      <c r="H52" s="8">
+        <f>D52+E52+F52+G52</f>
         <v>2021558.2999999998</v>
-      </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" ht="21">
-      <c r="A52" s="189" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="189"/>
-      <c r="C52" s="189"/>
-      <c r="D52" s="33">
-        <f>SUM(D47:D51)</f>
-        <v>3815058</v>
-      </c>
-      <c r="E52" s="33">
-        <f>SUM(E47:E51)</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="33">
-        <f>SUM(F47:F51)</f>
-        <v>346595.25</v>
-      </c>
-      <c r="G52" s="33">
-        <f>SUM(G47:G51)</f>
-        <v>346595.25</v>
-      </c>
-      <c r="H52" s="33">
-        <f>SUM(H47:H51)</f>
-        <v>4512248.6999999993</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" ht="21">
-      <c r="A53" s="179" t="s">
+      <c r="A53" s="194" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="194"/>
+      <c r="C53" s="194"/>
+      <c r="D53" s="33">
+        <f>SUM(D48:D52)</f>
+        <v>3815058</v>
+      </c>
+      <c r="E53" s="33">
+        <f>SUM(E48:E52)</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="33">
+        <f>SUM(F48:F52)</f>
+        <v>346595.25</v>
+      </c>
+      <c r="G53" s="33">
+        <f>SUM(G48:G52)</f>
+        <v>346595.25</v>
+      </c>
+      <c r="H53" s="33">
+        <f>SUM(H48:H52)</f>
+        <v>4512248.6999999993</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" ht="21">
+      <c r="A54" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="180"/>
-      <c r="C53" s="180"/>
-      <c r="D53" s="180"/>
-      <c r="E53" s="180"/>
-      <c r="F53" s="180"/>
-      <c r="G53" s="180"/>
-      <c r="H53" s="180"/>
-      <c r="I53" s="180"/>
-      <c r="J53" s="181"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="34" t="s">
+      <c r="B54" s="185"/>
+      <c r="C54" s="185"/>
+      <c r="D54" s="185"/>
+      <c r="E54" s="185"/>
+      <c r="F54" s="185"/>
+      <c r="G54" s="185"/>
+      <c r="H54" s="185"/>
+      <c r="I54" s="185"/>
+      <c r="J54" s="186"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B55" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C55" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="D55" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="34" t="s">
+      <c r="E55" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="34" t="s">
+      <c r="F55" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G55" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H54" s="35" t="s">
+      <c r="H55" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I54" s="35" t="s">
+      <c r="I55" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J54" s="35" t="s">
+      <c r="J55" s="35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.6">
-      <c r="A55" s="24">
-        <v>45325</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="C55" s="41">
-        <v>4593</v>
-      </c>
-      <c r="D55" s="21">
-        <v>1698</v>
-      </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21">
-        <v>152.82</v>
-      </c>
-      <c r="G55" s="21">
-        <v>152.82</v>
-      </c>
-      <c r="H55" s="42">
-        <f>D55+E55+F55+G55</f>
-        <v>2003.6399999999999</v>
-      </c>
-      <c r="I55" s="12"/>
-      <c r="J55" s="21" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="166" customFormat="1" ht="15.6">
+    <row r="56" spans="1:10" s="2" customFormat="1" ht="15.6">
       <c r="A56" s="24">
-        <v>45325</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>536</v>
-      </c>
-      <c r="C56" s="41">
-        <v>2158</v>
+        <v>45323</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>541</v>
       </c>
       <c r="D56" s="21">
-        <v>1330</v>
+        <v>46350</v>
       </c>
       <c r="E56" s="21">
-        <v>239</v>
+        <v>8343</v>
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
-      <c r="H56" s="42">
+      <c r="H56" s="12">
         <f>D56+E56+F56+G56</f>
-        <v>1569</v>
+        <v>54693</v>
       </c>
       <c r="I56" s="12"/>
-      <c r="J56" s="21" t="s">
-        <v>427</v>
+      <c r="J56" s="12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.6">
       <c r="A57" s="24">
+        <v>45325</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" s="41">
+        <v>4593</v>
+      </c>
+      <c r="D57" s="21">
+        <v>1698</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21">
+        <v>152.82</v>
+      </c>
+      <c r="G57" s="21">
+        <v>152.82</v>
+      </c>
+      <c r="H57" s="42">
+        <f>D57+E57+F57+G57</f>
+        <v>2003.6399999999999</v>
+      </c>
+      <c r="I57" s="12"/>
+      <c r="J57" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="166" customFormat="1" ht="15.6">
+      <c r="A58" s="24">
+        <v>45325</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="C58" s="41">
+        <v>2158</v>
+      </c>
+      <c r="D58" s="21">
+        <v>1330</v>
+      </c>
+      <c r="E58" s="21">
+        <v>239</v>
+      </c>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="42">
+        <f>D58+E58+F58+G58</f>
+        <v>1569</v>
+      </c>
+      <c r="I58" s="12"/>
+      <c r="J58" s="21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="175" customFormat="1" ht="15.6">
+      <c r="A59" s="24">
+        <v>45325</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="C59" s="41">
+        <v>507</v>
+      </c>
+      <c r="D59" s="21">
+        <v>5150</v>
+      </c>
+      <c r="E59" s="21">
+        <v>927</v>
+      </c>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="42">
+        <f>D59+E59+F59+G59</f>
+        <v>6077</v>
+      </c>
+      <c r="I59" s="12"/>
+      <c r="J59" s="21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.6">
+      <c r="A60" s="24">
         <v>45327</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B60" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D60" s="12">
         <v>7380</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E60" s="12">
         <v>1329</v>
       </c>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="42">
-        <f t="shared" ref="H57:H78" si="2">D57+E57+F57+G57</f>
-        <v>8709</v>
-      </c>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="19.8" customHeight="1">
-      <c r="A58" s="196">
-        <v>45328</v>
-      </c>
-      <c r="B58" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="97" t="s">
-        <v>539</v>
-      </c>
-      <c r="D58" s="98">
-        <v>46950</v>
-      </c>
-      <c r="E58" s="98">
-        <v>8451</v>
-      </c>
-      <c r="F58" s="98"/>
-      <c r="G58" s="98"/>
-      <c r="H58" s="197">
-        <f t="shared" si="2"/>
-        <v>55401</v>
-      </c>
-      <c r="I58" s="98"/>
-      <c r="J58" s="97" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="18" customHeight="1">
-      <c r="A59" s="196">
-        <v>45331</v>
-      </c>
-      <c r="B59" s="97" t="s">
-        <v>477</v>
-      </c>
-      <c r="C59" s="97" t="s">
-        <v>540</v>
-      </c>
-      <c r="D59" s="98">
-        <v>2600</v>
-      </c>
-      <c r="E59" s="98">
-        <v>468</v>
-      </c>
-      <c r="F59" s="98"/>
-      <c r="G59" s="98"/>
-      <c r="H59" s="197">
-        <f t="shared" si="2"/>
-        <v>3068</v>
-      </c>
-      <c r="I59" s="98"/>
-      <c r="J59" s="97" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="18" customHeight="1">
-      <c r="A60" s="24"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="42">
+        <f t="shared" ref="H60:H66" si="2">D60+E60+F60+G60</f>
+        <v>8709</v>
+      </c>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="19.8" customHeight="1">
+      <c r="A61" s="176">
+        <v>45328</v>
+      </c>
+      <c r="B61" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="97" t="s">
+        <v>539</v>
+      </c>
+      <c r="D61" s="98">
+        <v>46950</v>
+      </c>
+      <c r="E61" s="98">
+        <v>8451</v>
+      </c>
+      <c r="F61" s="98"/>
+      <c r="G61" s="98"/>
+      <c r="H61" s="177">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="12"/>
-      <c r="J60" s="40"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.6">
-      <c r="A61" s="24"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="42">
+        <v>55401</v>
+      </c>
+      <c r="I61" s="98"/>
+      <c r="J61" s="97" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="18" customHeight="1">
+      <c r="A62" s="176">
+        <v>45331</v>
+      </c>
+      <c r="B62" s="97" t="s">
+        <v>477</v>
+      </c>
+      <c r="C62" s="97" t="s">
+        <v>540</v>
+      </c>
+      <c r="D62" s="98">
+        <v>2600</v>
+      </c>
+      <c r="E62" s="98">
+        <v>468</v>
+      </c>
+      <c r="F62" s="98"/>
+      <c r="G62" s="98"/>
+      <c r="H62" s="177">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.6">
-      <c r="A62" s="24"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.6">
-      <c r="A63" s="24"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
+        <v>3068</v>
+      </c>
+      <c r="I62" s="98"/>
+      <c r="J62" s="97" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="18" customHeight="1">
+      <c r="A63" s="24">
+        <v>45334</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="D63" s="12">
+        <v>3533.92</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12">
+        <v>318.05</v>
+      </c>
+      <c r="G63" s="12">
+        <v>318.05</v>
+      </c>
       <c r="H63" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="44"/>
-      <c r="J63" s="43"/>
+        <v>4170.0200000000004</v>
+      </c>
+      <c r="I63" s="12"/>
+      <c r="J63" s="40" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="64" spans="1:10" ht="15.6">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
+      <c r="A64" s="24">
+        <v>45336</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C64" s="12">
+        <v>4660</v>
+      </c>
+      <c r="D64" s="12">
+        <v>28</v>
+      </c>
       <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
+      <c r="F64" s="12">
+        <v>2.52</v>
+      </c>
+      <c r="G64" s="12">
+        <v>2.52</v>
+      </c>
       <c r="H64" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>33.04</v>
       </c>
       <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
+      <c r="J64" s="12" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="65" spans="1:10" ht="15.6">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
+      <c r="A65" s="24">
+        <v>45337</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="D65" s="12">
+        <v>966.09</v>
+      </c>
       <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
+      <c r="F65" s="12">
+        <v>86.95</v>
+      </c>
+      <c r="G65" s="12">
+        <v>86.95</v>
+      </c>
       <c r="H65" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1139.99</v>
       </c>
       <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.6">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
+      <c r="J65" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="178" customFormat="1" ht="15.6">
+      <c r="A66" s="24">
+        <v>45337</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="D66" s="31">
+        <v>780.33</v>
+      </c>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31">
+        <v>70.23</v>
+      </c>
+      <c r="G66" s="31">
+        <v>70.23</v>
+      </c>
       <c r="H66" s="42">
         <f t="shared" si="2"/>
+        <v>920.79000000000008</v>
+      </c>
+      <c r="I66" s="31"/>
+      <c r="J66" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="21">
+      <c r="A67" s="195" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="195"/>
+      <c r="C67" s="195"/>
+      <c r="D67" s="45">
+        <f>SUM(D56:D66)</f>
+        <v>116766.34</v>
+      </c>
+      <c r="E67" s="45">
+        <f>SUM(E56:E65)</f>
+        <v>19757</v>
+      </c>
+      <c r="F67" s="45">
+        <f>SUM(F56:F66)</f>
+        <v>630.57000000000005</v>
+      </c>
+      <c r="G67" s="45">
+        <f>SUM(G56:G66)</f>
+        <v>630.57000000000005</v>
+      </c>
+      <c r="H67" s="46">
+        <f>SUM(H56:H65)</f>
+        <v>136863.69</v>
+      </c>
+      <c r="I67" s="45"/>
+      <c r="J67" s="45"/>
+    </row>
+    <row r="69" spans="1:10" ht="21">
+      <c r="A69" s="187" t="s">
+        <v>235</v>
+      </c>
+      <c r="B69" s="188"/>
+      <c r="C69" s="188"/>
+      <c r="D69" s="188"/>
+      <c r="E69" s="188"/>
+      <c r="F69" s="188"/>
+      <c r="G69" s="188"/>
+      <c r="H69" s="188"/>
+      <c r="I69" s="188"/>
+      <c r="J69" s="189"/>
+    </row>
+    <row r="70" spans="1:10" ht="21">
+      <c r="A70" s="184" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="185"/>
+      <c r="C70" s="185"/>
+      <c r="D70" s="185"/>
+      <c r="E70" s="185"/>
+      <c r="F70" s="185"/>
+      <c r="G70" s="185"/>
+      <c r="H70" s="186"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" ht="31.2">
+      <c r="A71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.6">
+      <c r="A72" s="20"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.6">
+      <c r="A73" s="20"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.6">
+      <c r="A74" s="20"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" ht="21">
+      <c r="A75" s="194" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="194"/>
+      <c r="C75" s="194"/>
+      <c r="D75" s="33">
+        <f>SUM(D72:D74)</f>
         <v>0</v>
       </c>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.6">
-      <c r="A67" s="11"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="42">
-        <f t="shared" si="2"/>
+      <c r="E75" s="33">
+        <f>SUM(E72:E74)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.6">
-      <c r="A68" s="11"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="42">
-        <f t="shared" si="2"/>
+      <c r="F75" s="33">
+        <f>SUM(F72:F74)</f>
         <v>0</v>
       </c>
-      <c r="I68" s="12"/>
-      <c r="J68" s="40"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.6">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="42">
-        <f t="shared" si="2"/>
+      <c r="G75" s="33">
+        <f>SUM(G72:G74)</f>
         <v>0</v>
       </c>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.6">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="42">
-        <f t="shared" si="2"/>
+      <c r="H75" s="33">
+        <f>SUM(H72:H74)</f>
         <v>0</v>
       </c>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-    </row>
-    <row r="71" spans="1:10" ht="15.6">
-      <c r="A71" s="11"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="42">
-        <f t="shared" si="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" ht="21">
+      <c r="A76" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="185"/>
+      <c r="C76" s="185"/>
+      <c r="D76" s="185"/>
+      <c r="E76" s="185"/>
+      <c r="F76" s="185"/>
+      <c r="G76" s="185"/>
+      <c r="H76" s="185"/>
+      <c r="I76" s="185"/>
+      <c r="J76" s="186"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77" s="48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.6">
+      <c r="A78" s="49"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.6">
+      <c r="A79" s="49"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+    </row>
+    <row r="80" spans="1:10" ht="15.6">
+      <c r="A80" s="51"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="52"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="52"/>
+      <c r="J80" s="52"/>
+    </row>
+    <row r="81" spans="1:10" ht="15.6">
+      <c r="A81" s="51"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="52"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="52"/>
+      <c r="J81" s="52"/>
+    </row>
+    <row r="82" spans="1:10" ht="15.6">
+      <c r="A82" s="51"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="52"/>
+      <c r="J82" s="52"/>
+    </row>
+    <row r="83" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A83" s="11"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="21"/>
+    </row>
+    <row r="84" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A84" s="11"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="53"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.6">
+      <c r="A85" s="51"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="52"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="52"/>
+      <c r="I85" s="52"/>
+      <c r="J85" s="52"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.6">
+      <c r="A86" s="51"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="52"/>
+      <c r="J86" s="52"/>
+    </row>
+    <row r="87" spans="1:10" ht="15.6">
+      <c r="A87" s="51"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="52"/>
+      <c r="J87" s="52"/>
+    </row>
+    <row r="88" spans="1:10" ht="15.6">
+      <c r="A88" s="51"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="52"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="52"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="52"/>
+      <c r="J88" s="52"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.6">
+      <c r="A89" s="11"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="21"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.6">
+      <c r="A90" s="28"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="30"/>
+    </row>
+    <row r="91" spans="1:10" ht="15.6">
+      <c r="A91" s="54"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="55"/>
+      <c r="J91" s="55"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.6">
+      <c r="A92" s="36"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="52"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="57"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.6">
+      <c r="A93" s="11"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="21"/>
+    </row>
+    <row r="94" spans="1:10" ht="15.6">
+      <c r="A94" s="36"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="56"/>
+    </row>
+    <row r="95" spans="1:10" ht="15">
+      <c r="A95" s="58"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="60"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="61"/>
+      <c r="G95" s="61"/>
+      <c r="H95" s="61"/>
+      <c r="I95" s="61"/>
+      <c r="J95" s="60"/>
+    </row>
+    <row r="96" spans="1:10" ht="21">
+      <c r="A96" s="196" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="196"/>
+      <c r="C96" s="196"/>
+      <c r="D96" s="62">
+        <f>SUM(D78:D95)</f>
         <v>0</v>
       </c>
-      <c r="I71" s="12"/>
-      <c r="J71" s="21"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.6">
-      <c r="A72" s="11"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="42">
-        <f t="shared" si="2"/>
+      <c r="E96" s="62">
+        <f>SUM(E78:E95)</f>
         <v>0</v>
       </c>
-      <c r="I72" s="12"/>
-      <c r="J72" s="21"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.6">
-      <c r="A73" s="11"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="42">
-        <f t="shared" si="2"/>
+      <c r="F96" s="62">
+        <f>SUM(F78:F95)</f>
         <v>0</v>
       </c>
-      <c r="I73" s="12"/>
-      <c r="J73" s="40"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.6">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="42">
-        <f t="shared" si="2"/>
+      <c r="G96" s="62">
+        <f>SUM(G78:G95)</f>
         <v>0</v>
       </c>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.6">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="42">
-        <f t="shared" si="2"/>
+      <c r="H96" s="62">
+        <f>SUM(H78:H95)</f>
         <v>0</v>
       </c>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-    </row>
-    <row r="76" spans="1:10" ht="15.6">
-      <c r="A76" s="11"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-    </row>
-    <row r="77" spans="1:10" ht="15.6">
-      <c r="A77" s="11"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="12"/>
-      <c r="J77" s="21"/>
-    </row>
-    <row r="78" spans="1:10" ht="15.6">
-      <c r="A78" s="28"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="31"/>
-      <c r="J78" s="29"/>
-    </row>
-    <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="190" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="190"/>
-      <c r="C79" s="190"/>
-      <c r="D79" s="45">
-        <f>SUM(D55:D78)</f>
-        <v>59958</v>
-      </c>
-      <c r="E79" s="45">
-        <f>SUM(E55:E78)</f>
-        <v>10487</v>
-      </c>
-      <c r="F79" s="45">
-        <f>SUM(F55:F78)</f>
-        <v>152.82</v>
-      </c>
-      <c r="G79" s="45">
-        <f>SUM(G55:G78)</f>
-        <v>152.82</v>
-      </c>
-      <c r="H79" s="46">
-        <f>SUM(H55:H78)</f>
-        <v>70750.64</v>
-      </c>
-      <c r="I79" s="45"/>
-      <c r="J79" s="45"/>
-    </row>
-    <row r="81" spans="1:10" ht="21">
-      <c r="A81" s="182" t="s">
-        <v>235</v>
-      </c>
-      <c r="B81" s="183"/>
-      <c r="C81" s="183"/>
-      <c r="D81" s="183"/>
-      <c r="E81" s="183"/>
-      <c r="F81" s="183"/>
-      <c r="G81" s="183"/>
-      <c r="H81" s="183"/>
-      <c r="I81" s="183"/>
-      <c r="J81" s="184"/>
-    </row>
-    <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="179" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" s="180"/>
-      <c r="C82" s="180"/>
-      <c r="D82" s="180"/>
-      <c r="E82" s="180"/>
-      <c r="F82" s="180"/>
-      <c r="G82" s="180"/>
-      <c r="H82" s="181"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-    </row>
-    <row r="83" spans="1:10" ht="31.2">
-      <c r="A83" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-    </row>
-    <row r="84" spans="1:10" ht="15.6">
-      <c r="A84" s="20"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.6">
-      <c r="A85" s="20"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.6">
-      <c r="A86" s="20"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-    </row>
-    <row r="87" spans="1:10" ht="21">
-      <c r="A87" s="189" t="s">
-        <v>10</v>
-      </c>
-      <c r="B87" s="189"/>
-      <c r="C87" s="189"/>
-      <c r="D87" s="33">
-        <f>SUM(D84:D86)</f>
-        <v>0</v>
-      </c>
-      <c r="E87" s="33">
-        <f>SUM(E84:E86)</f>
-        <v>0</v>
-      </c>
-      <c r="F87" s="33">
-        <f>SUM(F84:F86)</f>
-        <v>0</v>
-      </c>
-      <c r="G87" s="33">
-        <f>SUM(G84:G86)</f>
-        <v>0</v>
-      </c>
-      <c r="H87" s="33">
-        <f>SUM(H84:H86)</f>
-        <v>0</v>
-      </c>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-    </row>
-    <row r="88" spans="1:10" ht="21">
-      <c r="A88" s="179" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" s="180"/>
-      <c r="C88" s="180"/>
-      <c r="D88" s="180"/>
-      <c r="E88" s="180"/>
-      <c r="F88" s="180"/>
-      <c r="G88" s="180"/>
-      <c r="H88" s="180"/>
-      <c r="I88" s="180"/>
-      <c r="J88" s="181"/>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="G89" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I89" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="J89" s="48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="15.6">
-      <c r="A90" s="49"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="50"/>
-      <c r="I90" s="50"/>
-      <c r="J90" s="50"/>
-    </row>
-    <row r="91" spans="1:10" ht="15.6">
-      <c r="A91" s="49"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="50"/>
-      <c r="I91" s="50"/>
-      <c r="J91" s="50"/>
-    </row>
-    <row r="92" spans="1:10" ht="15.6">
-      <c r="A92" s="51"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="52"/>
-      <c r="D92" s="52"/>
-      <c r="E92" s="52"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="52"/>
-      <c r="H92" s="50"/>
-      <c r="I92" s="52"/>
-      <c r="J92" s="52"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.6">
-      <c r="A93" s="51"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="52"/>
-      <c r="D93" s="52"/>
-      <c r="E93" s="52"/>
-      <c r="F93" s="52"/>
-      <c r="G93" s="52"/>
-      <c r="H93" s="52"/>
-      <c r="I93" s="52"/>
-      <c r="J93" s="52"/>
-    </row>
-    <row r="94" spans="1:10" ht="15.6">
-      <c r="A94" s="51"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="52"/>
-      <c r="E94" s="52"/>
-      <c r="F94" s="52"/>
-      <c r="G94" s="52"/>
-      <c r="H94" s="52"/>
-      <c r="I94" s="52"/>
-      <c r="J94" s="52"/>
-    </row>
-    <row r="95" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A95" s="11"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="21"/>
-    </row>
-    <row r="96" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A96" s="11"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="53"/>
-    </row>
-    <row r="97" spans="1:10" ht="15.6">
-      <c r="A97" s="51"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="52"/>
-      <c r="E97" s="52"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="52"/>
-      <c r="I97" s="52"/>
-      <c r="J97" s="52"/>
-    </row>
-    <row r="98" spans="1:10" ht="15.6">
-      <c r="A98" s="51"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="52"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="52"/>
-      <c r="G98" s="52"/>
-      <c r="H98" s="52"/>
-      <c r="I98" s="52"/>
-      <c r="J98" s="52"/>
-    </row>
-    <row r="99" spans="1:10" ht="15.6">
-      <c r="A99" s="51"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="52"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="52"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="52"/>
-      <c r="J99" s="52"/>
-    </row>
-    <row r="100" spans="1:10" ht="15.6">
-      <c r="A100" s="51"/>
-      <c r="B100" s="37"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="52"/>
-      <c r="E100" s="52"/>
-      <c r="F100" s="52"/>
-      <c r="G100" s="52"/>
-      <c r="H100" s="52"/>
-      <c r="I100" s="52"/>
-      <c r="J100" s="52"/>
-    </row>
-    <row r="101" spans="1:10" ht="15.6">
-      <c r="A101" s="11"/>
-      <c r="B101" s="21"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="21"/>
-    </row>
-    <row r="102" spans="1:10" ht="15.6">
-      <c r="A102" s="28"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="31"/>
-      <c r="I102" s="31"/>
-      <c r="J102" s="30"/>
-    </row>
-    <row r="103" spans="1:10" ht="15.6">
-      <c r="A103" s="54"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="55"/>
-      <c r="D103" s="55"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="55"/>
-      <c r="H103" s="55"/>
-      <c r="I103" s="55"/>
-      <c r="J103" s="55"/>
-    </row>
-    <row r="104" spans="1:10" ht="15.6">
-      <c r="A104" s="36"/>
-      <c r="B104" s="56"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="37"/>
-      <c r="E104" s="37"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="37"/>
-      <c r="H104" s="52"/>
-      <c r="I104" s="37"/>
-      <c r="J104" s="57"/>
-    </row>
-    <row r="105" spans="1:10" ht="15.6">
-      <c r="A105" s="11"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="21"/>
-    </row>
-    <row r="106" spans="1:10" ht="15.6">
-      <c r="A106" s="36"/>
-      <c r="B106" s="56"/>
-      <c r="C106" s="57"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="37"/>
-      <c r="I106" s="37"/>
-      <c r="J106" s="56"/>
-    </row>
-    <row r="107" spans="1:10" ht="15">
-      <c r="A107" s="58"/>
-      <c r="B107" s="59"/>
-      <c r="C107" s="60"/>
-      <c r="D107" s="61"/>
-      <c r="E107" s="61"/>
-      <c r="F107" s="61"/>
-      <c r="G107" s="61"/>
-      <c r="H107" s="61"/>
-      <c r="I107" s="61"/>
-      <c r="J107" s="60"/>
-    </row>
-    <row r="108" spans="1:10" ht="21">
-      <c r="A108" s="191" t="s">
-        <v>10</v>
-      </c>
-      <c r="B108" s="191"/>
-      <c r="C108" s="191"/>
-      <c r="D108" s="62">
-        <f>SUM(D90:D107)</f>
-        <v>0</v>
-      </c>
-      <c r="E108" s="62">
-        <f>SUM(E90:E107)</f>
-        <v>0</v>
-      </c>
-      <c r="F108" s="62">
-        <f>SUM(F90:F107)</f>
-        <v>0</v>
-      </c>
-      <c r="G108" s="62">
-        <f>SUM(G90:G107)</f>
-        <v>0</v>
-      </c>
-      <c r="H108" s="62">
-        <f>SUM(H90:H107)</f>
-        <v>0</v>
-      </c>
-      <c r="I108" s="62"/>
-      <c r="J108" s="62"/>
+      <c r="I96" s="62"/>
+      <c r="J96" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:J88"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A81:J81"/>
-    <mergeCell ref="A82:H82"/>
-    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A70:H70"/>
+    <mergeCell ref="A45:J45"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="545">
   <si>
     <t>APRIL</t>
   </si>
@@ -1659,6 +1659,9 @@
   </si>
   <si>
     <t>CA-712</t>
+  </si>
+  <si>
+    <t>b23-24MQ407</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1671,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1783,6 +1786,13 @@
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2488,9 +2498,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2500,6 +2507,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2563,7 +2573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12647,10 +12657,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J96"/>
+  <dimension ref="A2:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -13505,14 +13515,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="179" customFormat="1" ht="16.5" customHeight="1">
+    <row r="34" spans="1:10" s="178" customFormat="1" ht="16.5" customHeight="1">
       <c r="A34" s="69">
         <v>45316</v>
       </c>
       <c r="B34" s="71" t="s">
         <v>440</v>
       </c>
-      <c r="C34" s="201">
+      <c r="C34" s="179">
         <v>2881089800</v>
       </c>
       <c r="D34" s="70">
@@ -13528,7 +13538,7 @@
         <v>577.5</v>
       </c>
       <c r="I34" s="70"/>
-      <c r="J34" s="201" t="s">
+      <c r="J34" s="179" t="s">
         <v>85</v>
       </c>
     </row>
@@ -13982,482 +13992,497 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" ht="21">
-      <c r="A53" s="194" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="194"/>
-      <c r="C53" s="194"/>
-      <c r="D53" s="33">
-        <f>SUM(D48:D52)</f>
-        <v>3815058</v>
-      </c>
-      <c r="E53" s="33">
-        <f>SUM(E48:E52)</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="33">
-        <f>SUM(F48:F52)</f>
-        <v>346595.25</v>
-      </c>
-      <c r="G53" s="33">
-        <f>SUM(G48:G52)</f>
-        <v>346595.25</v>
-      </c>
-      <c r="H53" s="33">
-        <f>SUM(H48:H52)</f>
-        <v>4512248.6999999993</v>
+    <row r="53" spans="1:10" s="157" customFormat="1" ht="15.6">
+      <c r="A53" s="18">
+        <v>45342</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="D53" s="19">
+        <v>292660</v>
+      </c>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19">
+        <v>26339</v>
+      </c>
+      <c r="G53" s="19">
+        <v>26339</v>
+      </c>
+      <c r="H53" s="8">
+        <f>D53+E53+F53+G53</f>
+        <v>345338</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" ht="21">
-      <c r="A54" s="184" t="s">
+      <c r="A54" s="194" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="194"/>
+      <c r="C54" s="194"/>
+      <c r="D54" s="33">
+        <f>SUM(D48:D53)</f>
+        <v>4107718</v>
+      </c>
+      <c r="E54" s="33">
+        <f>SUM(E48:E53)</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="33">
+        <f>SUM(F48:F53)</f>
+        <v>372934.25</v>
+      </c>
+      <c r="G54" s="33">
+        <f>SUM(G48:G53)</f>
+        <v>372934.25</v>
+      </c>
+      <c r="H54" s="33">
+        <f>SUM(H48:H53)</f>
+        <v>4857586.6999999993</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" ht="21">
+      <c r="A55" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="185"/>
-      <c r="C54" s="185"/>
-      <c r="D54" s="185"/>
-      <c r="E54" s="185"/>
-      <c r="F54" s="185"/>
-      <c r="G54" s="185"/>
-      <c r="H54" s="185"/>
-      <c r="I54" s="185"/>
-      <c r="J54" s="186"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="34" t="s">
+      <c r="B55" s="185"/>
+      <c r="C55" s="185"/>
+      <c r="D55" s="185"/>
+      <c r="E55" s="185"/>
+      <c r="F55" s="185"/>
+      <c r="G55" s="185"/>
+      <c r="H55" s="185"/>
+      <c r="I55" s="185"/>
+      <c r="J55" s="186"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B56" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C56" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D56" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="34" t="s">
+      <c r="E56" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="34" t="s">
+      <c r="F56" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G55" s="34" t="s">
+      <c r="G56" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H55" s="35" t="s">
+      <c r="H56" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I55" s="35" t="s">
+      <c r="I56" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="35" t="s">
+      <c r="J56" s="35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="2" customFormat="1" ht="15.6">
-      <c r="A56" s="24">
+    <row r="57" spans="1:10" s="2" customFormat="1" ht="15.6">
+      <c r="A57" s="24">
         <v>45323</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B57" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C57" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D57" s="21">
         <v>46350</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E57" s="21">
         <v>8343</v>
       </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="12">
-        <f>D56+E56+F56+G56</f>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="12">
+        <f>D57+E57+F57+G57</f>
         <v>54693</v>
       </c>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12" t="s">
+      <c r="I57" s="12"/>
+      <c r="J57" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.6">
-      <c r="A57" s="24">
-        <v>45325</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="C57" s="41">
-        <v>4593</v>
-      </c>
-      <c r="D57" s="21">
-        <v>1698</v>
-      </c>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21">
-        <v>152.82</v>
-      </c>
-      <c r="G57" s="21">
-        <v>152.82</v>
-      </c>
-      <c r="H57" s="42">
-        <f>D57+E57+F57+G57</f>
-        <v>2003.6399999999999</v>
-      </c>
-      <c r="I57" s="12"/>
-      <c r="J57" s="21" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="166" customFormat="1" ht="15.6">
+    <row r="58" spans="1:10" ht="15.6">
       <c r="A58" s="24">
         <v>45325</v>
       </c>
-      <c r="B58" s="24" t="s">
-        <v>536</v>
+      <c r="B58" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="C58" s="41">
-        <v>2158</v>
+        <v>4593</v>
       </c>
       <c r="D58" s="21">
-        <v>1330</v>
-      </c>
-      <c r="E58" s="21">
-        <v>239</v>
-      </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
+        <v>1698</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21">
+        <v>152.82</v>
+      </c>
+      <c r="G58" s="21">
+        <v>152.82</v>
+      </c>
       <c r="H58" s="42">
         <f>D58+E58+F58+G58</f>
-        <v>1569</v>
+        <v>2003.6399999999999</v>
       </c>
       <c r="I58" s="12"/>
       <c r="J58" s="21" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="175" customFormat="1" ht="15.6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="166" customFormat="1" ht="15.6">
       <c r="A59" s="24">
         <v>45325</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>438</v>
+        <v>536</v>
       </c>
       <c r="C59" s="41">
-        <v>507</v>
+        <v>2158</v>
       </c>
       <c r="D59" s="21">
-        <v>5150</v>
+        <v>1330</v>
       </c>
       <c r="E59" s="21">
-        <v>927</v>
+        <v>239</v>
       </c>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
       <c r="H59" s="42">
         <f>D59+E59+F59+G59</f>
-        <v>6077</v>
+        <v>1569</v>
       </c>
       <c r="I59" s="12"/>
       <c r="J59" s="21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="175" customFormat="1" ht="15.6">
+      <c r="A60" s="24">
+        <v>45325</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="C60" s="41">
+        <v>507</v>
+      </c>
+      <c r="D60" s="21">
+        <v>5150</v>
+      </c>
+      <c r="E60" s="21">
+        <v>927</v>
+      </c>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="42">
+        <f>D60+E60+F60+G60</f>
+        <v>6077</v>
+      </c>
+      <c r="I60" s="12"/>
+      <c r="J60" s="21" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.6">
-      <c r="A60" s="24">
+    <row r="61" spans="1:10" ht="15.6">
+      <c r="A61" s="24">
         <v>45327</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B61" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C61" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D61" s="12">
         <v>7380</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E61" s="12">
         <v>1329</v>
       </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="42">
-        <f t="shared" ref="H60:H66" si="2">D60+E60+F60+G60</f>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="42">
+        <f t="shared" ref="H61:H67" si="2">D61+E61+F61+G61</f>
         <v>8709</v>
       </c>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12" t="s">
+      <c r="I61" s="12"/>
+      <c r="J61" s="12" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="19.8" customHeight="1">
-      <c r="A61" s="176">
+    <row r="62" spans="1:10" ht="19.8" customHeight="1">
+      <c r="A62" s="201">
         <v>45328</v>
       </c>
-      <c r="B61" s="97" t="s">
+      <c r="B62" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="97" t="s">
+      <c r="C62" s="97" t="s">
         <v>539</v>
       </c>
-      <c r="D61" s="98">
+      <c r="D62" s="98">
         <v>46950</v>
       </c>
-      <c r="E61" s="98">
+      <c r="E62" s="98">
         <v>8451</v>
       </c>
-      <c r="F61" s="98"/>
-      <c r="G61" s="98"/>
-      <c r="H61" s="177">
+      <c r="F62" s="98"/>
+      <c r="G62" s="98"/>
+      <c r="H62" s="176">
         <f t="shared" si="2"/>
         <v>55401</v>
       </c>
-      <c r="I61" s="98"/>
-      <c r="J61" s="97" t="s">
+      <c r="I62" s="98"/>
+      <c r="J62" s="97" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="18" customHeight="1">
-      <c r="A62" s="176">
+    <row r="63" spans="1:10" ht="18" customHeight="1">
+      <c r="A63" s="201">
         <v>45331</v>
       </c>
-      <c r="B62" s="97" t="s">
+      <c r="B63" s="97" t="s">
         <v>477</v>
       </c>
-      <c r="C62" s="97" t="s">
+      <c r="C63" s="97" t="s">
         <v>540</v>
       </c>
-      <c r="D62" s="98">
+      <c r="D63" s="98">
         <v>2600</v>
       </c>
-      <c r="E62" s="98">
+      <c r="E63" s="98">
         <v>468</v>
       </c>
-      <c r="F62" s="98"/>
-      <c r="G62" s="98"/>
-      <c r="H62" s="177">
+      <c r="F63" s="98"/>
+      <c r="G63" s="98"/>
+      <c r="H63" s="176">
         <f t="shared" si="2"/>
         <v>3068</v>
       </c>
-      <c r="I62" s="98"/>
-      <c r="J62" s="97" t="s">
+      <c r="I63" s="98"/>
+      <c r="J63" s="97" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="18" customHeight="1">
-      <c r="A63" s="24">
+    <row r="64" spans="1:10" ht="18" customHeight="1">
+      <c r="A64" s="24">
         <v>45334</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B64" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C64" s="21" t="s">
         <v>529</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D64" s="12">
         <v>3533.92</v>
       </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12">
+      <c r="E64" s="12"/>
+      <c r="F64" s="12">
         <v>318.05</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G64" s="12">
         <v>318.05</v>
       </c>
-      <c r="H63" s="42">
+      <c r="H64" s="42">
         <f t="shared" si="2"/>
         <v>4170.0200000000004</v>
       </c>
-      <c r="I63" s="12"/>
-      <c r="J63" s="40" t="s">
+      <c r="I64" s="12"/>
+      <c r="J64" s="40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.6">
-      <c r="A64" s="24">
+    <row r="65" spans="1:10" ht="15.6">
+      <c r="A65" s="24">
         <v>45336</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B65" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C65" s="12">
         <v>4660</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D65" s="12">
         <v>28</v>
       </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12">
+      <c r="E65" s="12"/>
+      <c r="F65" s="12">
         <v>2.52</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G65" s="12">
         <v>2.52</v>
       </c>
-      <c r="H64" s="42">
+      <c r="H65" s="42">
         <f t="shared" si="2"/>
         <v>33.04</v>
       </c>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12" t="s">
+      <c r="I65" s="12"/>
+      <c r="J65" s="12" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.6">
-      <c r="A65" s="24">
+    <row r="66" spans="1:10" ht="15.6">
+      <c r="A66" s="24">
         <v>45337</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B66" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D66" s="12">
         <v>966.09</v>
       </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12">
+      <c r="E66" s="12"/>
+      <c r="F66" s="12">
         <v>86.95</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G66" s="12">
         <v>86.95</v>
       </c>
-      <c r="H65" s="42">
+      <c r="H66" s="42">
         <f t="shared" si="2"/>
         <v>1139.99</v>
       </c>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12" t="s">
+      <c r="I66" s="12"/>
+      <c r="J66" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="178" customFormat="1" ht="15.6">
-      <c r="A66" s="24">
+    <row r="67" spans="1:10" s="177" customFormat="1" ht="15.6">
+      <c r="A67" s="24">
         <v>45337</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B67" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C67" s="31" t="s">
         <v>543</v>
       </c>
-      <c r="D66" s="31">
+      <c r="D67" s="31">
         <v>780.33</v>
       </c>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31">
+      <c r="E67" s="31"/>
+      <c r="F67" s="31">
         <v>70.23</v>
       </c>
-      <c r="G66" s="31">
+      <c r="G67" s="31">
         <v>70.23</v>
       </c>
-      <c r="H66" s="42">
+      <c r="H67" s="42">
         <f t="shared" si="2"/>
         <v>920.79000000000008</v>
       </c>
-      <c r="I66" s="31"/>
-      <c r="J66" s="12" t="s">
+      <c r="I67" s="31"/>
+      <c r="J67" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="195" t="s">
+    <row r="68" spans="1:10" ht="21">
+      <c r="A68" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="195"/>
-      <c r="C67" s="195"/>
-      <c r="D67" s="45">
-        <f>SUM(D56:D66)</f>
+      <c r="B68" s="195"/>
+      <c r="C68" s="195"/>
+      <c r="D68" s="45">
+        <f>SUM(D57:D67)</f>
         <v>116766.34</v>
       </c>
-      <c r="E67" s="45">
-        <f>SUM(E56:E65)</f>
+      <c r="E68" s="45">
+        <f>SUM(E57:E66)</f>
         <v>19757</v>
       </c>
-      <c r="F67" s="45">
-        <f>SUM(F56:F66)</f>
+      <c r="F68" s="45">
+        <f>SUM(F57:F67)</f>
         <v>630.57000000000005</v>
       </c>
-      <c r="G67" s="45">
-        <f>SUM(G56:G66)</f>
+      <c r="G68" s="45">
+        <f>SUM(G57:G67)</f>
         <v>630.57000000000005</v>
       </c>
-      <c r="H67" s="46">
-        <f>SUM(H56:H65)</f>
+      <c r="H68" s="46">
+        <f>SUM(H57:H66)</f>
         <v>136863.69</v>
       </c>
-      <c r="I67" s="45"/>
-      <c r="J67" s="45"/>
-    </row>
-    <row r="69" spans="1:10" ht="21">
-      <c r="A69" s="187" t="s">
+      <c r="I68" s="45"/>
+      <c r="J68" s="45"/>
+    </row>
+    <row r="70" spans="1:10" ht="21">
+      <c r="A70" s="187" t="s">
         <v>235</v>
       </c>
-      <c r="B69" s="188"/>
-      <c r="C69" s="188"/>
-      <c r="D69" s="188"/>
-      <c r="E69" s="188"/>
-      <c r="F69" s="188"/>
-      <c r="G69" s="188"/>
-      <c r="H69" s="188"/>
-      <c r="I69" s="188"/>
-      <c r="J69" s="189"/>
-    </row>
-    <row r="70" spans="1:10" ht="21">
-      <c r="A70" s="184" t="s">
+      <c r="B70" s="188"/>
+      <c r="C70" s="188"/>
+      <c r="D70" s="188"/>
+      <c r="E70" s="188"/>
+      <c r="F70" s="188"/>
+      <c r="G70" s="188"/>
+      <c r="H70" s="188"/>
+      <c r="I70" s="188"/>
+      <c r="J70" s="189"/>
+    </row>
+    <row r="71" spans="1:10" ht="21">
+      <c r="A71" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="185"/>
-      <c r="C70" s="185"/>
-      <c r="D70" s="185"/>
-      <c r="E70" s="185"/>
-      <c r="F70" s="185"/>
-      <c r="G70" s="185"/>
-      <c r="H70" s="186"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="1:10" ht="31.2">
-      <c r="A71" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B71" s="185"/>
+      <c r="C71" s="185"/>
+      <c r="D71" s="185"/>
+      <c r="E71" s="185"/>
+      <c r="F71" s="185"/>
+      <c r="G71" s="185"/>
+      <c r="H71" s="186"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" ht="15.6">
-      <c r="A72" s="20"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
+    <row r="72" spans="1:10" ht="31.2">
+      <c r="A72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
@@ -14475,7 +14500,7 @@
     </row>
     <row r="74" spans="1:10" ht="15.6">
       <c r="A74" s="20"/>
-      <c r="B74" s="19"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
@@ -14485,96 +14510,96 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="194" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="194"/>
-      <c r="C75" s="194"/>
-      <c r="D75" s="33">
-        <f>SUM(D72:D74)</f>
-        <v>0</v>
-      </c>
-      <c r="E75" s="33">
-        <f>SUM(E72:E74)</f>
-        <v>0</v>
-      </c>
-      <c r="F75" s="33">
-        <f>SUM(F72:F74)</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="33">
-        <f>SUM(G72:G74)</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="33">
-        <f>SUM(H72:H74)</f>
-        <v>0</v>
-      </c>
+    <row r="75" spans="1:10" ht="15.6">
+      <c r="A75" s="20"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" ht="21">
-      <c r="A76" s="184" t="s">
+      <c r="A76" s="194" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="194"/>
+      <c r="C76" s="194"/>
+      <c r="D76" s="33">
+        <f>SUM(D73:D75)</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="33">
+        <f>SUM(E73:E75)</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="33">
+        <f>SUM(F73:F75)</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="33">
+        <f>SUM(G73:G75)</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="33">
+        <f>SUM(H73:H75)</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" ht="21">
+      <c r="A77" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="185"/>
-      <c r="C76" s="185"/>
-      <c r="D76" s="185"/>
-      <c r="E76" s="185"/>
-      <c r="F76" s="185"/>
-      <c r="G76" s="185"/>
-      <c r="H76" s="185"/>
-      <c r="I76" s="185"/>
-      <c r="J76" s="186"/>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="47" t="s">
+      <c r="B77" s="185"/>
+      <c r="C77" s="185"/>
+      <c r="D77" s="185"/>
+      <c r="E77" s="185"/>
+      <c r="F77" s="185"/>
+      <c r="G77" s="185"/>
+      <c r="H77" s="185"/>
+      <c r="I77" s="185"/>
+      <c r="J77" s="186"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="47" t="s">
+      <c r="B78" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="47" t="s">
+      <c r="C78" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="47" t="s">
+      <c r="D78" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="47" t="s">
+      <c r="E78" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F77" s="47" t="s">
+      <c r="F78" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G77" s="47" t="s">
+      <c r="G78" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H77" s="48" t="s">
+      <c r="H78" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="I77" s="48" t="s">
+      <c r="I78" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="J77" s="48" t="s">
+      <c r="J78" s="48" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="15.6">
-      <c r="A78" s="49"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="50"/>
-      <c r="I78" s="50"/>
-      <c r="J78" s="50"/>
     </row>
     <row r="79" spans="1:10" ht="15.6">
       <c r="A79" s="49"/>
-      <c r="B79" s="12"/>
+      <c r="B79" s="8"/>
       <c r="C79" s="50"/>
       <c r="D79" s="50"/>
       <c r="E79" s="50"/>
@@ -14585,16 +14610,16 @@
       <c r="J79" s="50"/>
     </row>
     <row r="80" spans="1:10" ht="15.6">
-      <c r="A80" s="51"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="52"/>
-      <c r="E80" s="52"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="52"/>
+      <c r="A80" s="49"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
       <c r="H80" s="50"/>
-      <c r="I80" s="52"/>
-      <c r="J80" s="52"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="50"/>
     </row>
     <row r="81" spans="1:10" ht="15.6">
       <c r="A81" s="51"/>
@@ -14604,7 +14629,7 @@
       <c r="E81" s="52"/>
       <c r="F81" s="52"/>
       <c r="G81" s="52"/>
-      <c r="H81" s="52"/>
+      <c r="H81" s="50"/>
       <c r="I81" s="52"/>
       <c r="J81" s="52"/>
     </row>
@@ -14620,41 +14645,41 @@
       <c r="I82" s="52"/>
       <c r="J82" s="52"/>
     </row>
-    <row r="83" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A83" s="11"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="21"/>
+    <row r="83" spans="1:10" ht="15.6">
+      <c r="A83" s="51"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="52"/>
+      <c r="J83" s="52"/>
     </row>
     <row r="84" spans="1:10" ht="16.2" thickBot="1">
       <c r="A84" s="11"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
       <c r="H84" s="12"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="53"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.6">
-      <c r="A85" s="51"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="52"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="52"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="52"/>
-      <c r="J85" s="52"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A85" s="11"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="53"/>
     </row>
     <row r="86" spans="1:10" ht="15.6">
       <c r="A86" s="51"/>
@@ -14693,129 +14718,141 @@
       <c r="J88" s="52"/>
     </row>
     <row r="89" spans="1:10" ht="15.6">
-      <c r="A89" s="11"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="21"/>
+      <c r="A89" s="51"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="52"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="52"/>
+      <c r="I89" s="52"/>
+      <c r="J89" s="52"/>
     </row>
     <row r="90" spans="1:10" ht="15.6">
-      <c r="A90" s="28"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="30"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="1:10" ht="15.6">
-      <c r="A91" s="54"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="55"/>
-      <c r="J91" s="55"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="30"/>
     </row>
     <row r="92" spans="1:10" ht="15.6">
-      <c r="A92" s="36"/>
-      <c r="B92" s="56"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="52"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="57"/>
+      <c r="A92" s="54"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="55"/>
+      <c r="J92" s="55"/>
     </row>
     <row r="93" spans="1:10" ht="15.6">
-      <c r="A93" s="11"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="21"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="52"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="57"/>
     </row>
     <row r="94" spans="1:10" ht="15.6">
-      <c r="A94" s="36"/>
-      <c r="B94" s="56"/>
-      <c r="C94" s="57"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="56"/>
-    </row>
-    <row r="95" spans="1:10" ht="15">
-      <c r="A95" s="58"/>
-      <c r="B95" s="59"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="61"/>
-      <c r="H95" s="61"/>
-      <c r="I95" s="61"/>
-      <c r="J95" s="60"/>
-    </row>
-    <row r="96" spans="1:10" ht="21">
-      <c r="A96" s="196" t="s">
+      <c r="A94" s="11"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="21"/>
+    </row>
+    <row r="95" spans="1:10" ht="15.6">
+      <c r="A95" s="36"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="56"/>
+    </row>
+    <row r="96" spans="1:10" ht="15">
+      <c r="A96" s="58"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="61"/>
+      <c r="G96" s="61"/>
+      <c r="H96" s="61"/>
+      <c r="I96" s="61"/>
+      <c r="J96" s="60"/>
+    </row>
+    <row r="97" spans="1:10" ht="21">
+      <c r="A97" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="196"/>
-      <c r="C96" s="196"/>
-      <c r="D96" s="62">
-        <f>SUM(D78:D95)</f>
+      <c r="B97" s="196"/>
+      <c r="C97" s="196"/>
+      <c r="D97" s="62">
+        <f>SUM(D79:D96)</f>
         <v>0</v>
       </c>
-      <c r="E96" s="62">
-        <f>SUM(E78:E95)</f>
+      <c r="E97" s="62">
+        <f>SUM(E79:E96)</f>
         <v>0</v>
       </c>
-      <c r="F96" s="62">
-        <f>SUM(F78:F95)</f>
+      <c r="F97" s="62">
+        <f>SUM(F79:F96)</f>
         <v>0</v>
       </c>
-      <c r="G96" s="62">
-        <f>SUM(G78:G95)</f>
+      <c r="G97" s="62">
+        <f>SUM(G79:G96)</f>
         <v>0</v>
       </c>
-      <c r="H96" s="62">
-        <f>SUM(H78:H95)</f>
+      <c r="H97" s="62">
+        <f>SUM(H79:H96)</f>
         <v>0</v>
       </c>
-      <c r="I96" s="62"/>
-      <c r="J96" s="62"/>
+      <c r="I97" s="62"/>
+      <c r="J97" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A97:C97"/>
     <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A70:H70"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A71:H71"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="553">
   <si>
     <t>APRIL</t>
   </si>
@@ -1680,6 +1680,12 @@
   </si>
   <si>
     <t>W6201G202404035</t>
+  </si>
+  <si>
+    <t>Bharat Plywood &amp; Hardware</t>
+  </si>
+  <si>
+    <t>30DWGPS5592Q1ZO</t>
   </si>
 </sst>
 </file>
@@ -1989,7 +1995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2540,6 +2546,9 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2586,22 +2595,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2905,30 +2914,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="192" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="194"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="191"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -3148,11 +3157,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="194" t="s">
+      <c r="A12" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="194"/>
-      <c r="C12" s="194"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="195"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -3177,18 +3186,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="189"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="189"/>
-      <c r="J13" s="190"/>
+      <c r="B13" s="190"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="190"/>
+      <c r="J13" s="191"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -3975,11 +3984,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="184" t="s">
+      <c r="A42" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="185"/>
-      <c r="C42" s="186"/>
+      <c r="B42" s="186"/>
+      <c r="C42" s="187"/>
       <c r="D42" s="26">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -4004,30 +4013,30 @@
       <c r="J42" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="191" t="s">
+      <c r="A44" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="192"/>
-      <c r="C44" s="192"/>
-      <c r="D44" s="192"/>
-      <c r="E44" s="192"/>
-      <c r="F44" s="192"/>
-      <c r="G44" s="192"/>
-      <c r="H44" s="192"/>
-      <c r="I44" s="192"/>
-      <c r="J44" s="193"/>
+      <c r="B44" s="193"/>
+      <c r="C44" s="193"/>
+      <c r="D44" s="193"/>
+      <c r="E44" s="193"/>
+      <c r="F44" s="193"/>
+      <c r="G44" s="193"/>
+      <c r="H44" s="193"/>
+      <c r="I44" s="193"/>
+      <c r="J44" s="194"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="188" t="s">
+      <c r="A45" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="189"/>
-      <c r="C45" s="189"/>
-      <c r="D45" s="189"/>
-      <c r="E45" s="189"/>
-      <c r="F45" s="189"/>
-      <c r="G45" s="189"/>
-      <c r="H45" s="190"/>
+      <c r="B45" s="190"/>
+      <c r="C45" s="190"/>
+      <c r="D45" s="190"/>
+      <c r="E45" s="190"/>
+      <c r="F45" s="190"/>
+      <c r="G45" s="190"/>
+      <c r="H45" s="191"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -4303,11 +4312,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="187" t="s">
+      <c r="A56" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="187"/>
-      <c r="C56" s="187"/>
+      <c r="B56" s="188"/>
+      <c r="C56" s="188"/>
       <c r="D56" s="27">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -4332,18 +4341,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="188" t="s">
+      <c r="A57" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="189"/>
-      <c r="C57" s="189"/>
-      <c r="D57" s="189"/>
-      <c r="E57" s="189"/>
-      <c r="F57" s="189"/>
-      <c r="G57" s="189"/>
-      <c r="H57" s="189"/>
-      <c r="I57" s="189"/>
-      <c r="J57" s="190"/>
+      <c r="B57" s="190"/>
+      <c r="C57" s="190"/>
+      <c r="D57" s="190"/>
+      <c r="E57" s="190"/>
+      <c r="F57" s="190"/>
+      <c r="G57" s="190"/>
+      <c r="H57" s="190"/>
+      <c r="I57" s="190"/>
+      <c r="J57" s="191"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -5181,11 +5190,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="195" t="s">
+      <c r="A88" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="196"/>
-      <c r="C88" s="197"/>
+      <c r="B88" s="197"/>
+      <c r="C88" s="198"/>
       <c r="D88" s="27">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -5210,30 +5219,30 @@
       <c r="J88" s="27"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="191" t="s">
+      <c r="A90" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="192"/>
-      <c r="C90" s="192"/>
-      <c r="D90" s="192"/>
-      <c r="E90" s="192"/>
-      <c r="F90" s="192"/>
-      <c r="G90" s="192"/>
-      <c r="H90" s="192"/>
-      <c r="I90" s="192"/>
-      <c r="J90" s="193"/>
+      <c r="B90" s="193"/>
+      <c r="C90" s="193"/>
+      <c r="D90" s="193"/>
+      <c r="E90" s="193"/>
+      <c r="F90" s="193"/>
+      <c r="G90" s="193"/>
+      <c r="H90" s="193"/>
+      <c r="I90" s="193"/>
+      <c r="J90" s="194"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="188" t="s">
+      <c r="A91" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="189"/>
-      <c r="C91" s="189"/>
-      <c r="D91" s="189"/>
-      <c r="E91" s="189"/>
-      <c r="F91" s="189"/>
-      <c r="G91" s="189"/>
-      <c r="H91" s="190"/>
+      <c r="B91" s="190"/>
+      <c r="C91" s="190"/>
+      <c r="D91" s="190"/>
+      <c r="E91" s="190"/>
+      <c r="F91" s="190"/>
+      <c r="G91" s="190"/>
+      <c r="H91" s="191"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -5455,11 +5464,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="187" t="s">
+      <c r="A100" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="187"/>
-      <c r="C100" s="187"/>
+      <c r="B100" s="188"/>
+      <c r="C100" s="188"/>
       <c r="D100" s="27">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -5484,18 +5493,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="188" t="s">
+      <c r="A101" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="189"/>
-      <c r="C101" s="189"/>
-      <c r="D101" s="189"/>
-      <c r="E101" s="189"/>
-      <c r="F101" s="189"/>
-      <c r="G101" s="189"/>
-      <c r="H101" s="189"/>
-      <c r="I101" s="189"/>
-      <c r="J101" s="190"/>
+      <c r="B101" s="190"/>
+      <c r="C101" s="190"/>
+      <c r="D101" s="190"/>
+      <c r="E101" s="190"/>
+      <c r="F101" s="190"/>
+      <c r="G101" s="190"/>
+      <c r="H101" s="190"/>
+      <c r="I101" s="190"/>
+      <c r="J101" s="191"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -6150,11 +6159,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="184" t="s">
+      <c r="A125" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="185"/>
-      <c r="C125" s="186"/>
+      <c r="B125" s="186"/>
+      <c r="C125" s="187"/>
       <c r="D125" s="26">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -6413,30 +6422,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="194"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="191"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6523,11 +6532,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="198" t="s">
+      <c r="A7" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
+      <c r="B7" s="199"/>
+      <c r="C7" s="199"/>
       <c r="D7" s="33">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -6552,18 +6561,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="190"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="191"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -7221,11 +7230,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="199" t="s">
+      <c r="A32" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="199"/>
-      <c r="C32" s="199"/>
+      <c r="B32" s="202"/>
+      <c r="C32" s="202"/>
       <c r="D32" s="45">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -7255,30 +7264,30 @@
       <c r="C33" s="39"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="191" t="s">
+      <c r="A34" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="192"/>
-      <c r="C34" s="192"/>
-      <c r="D34" s="192"/>
-      <c r="E34" s="192"/>
-      <c r="F34" s="192"/>
-      <c r="G34" s="192"/>
-      <c r="H34" s="192"/>
-      <c r="I34" s="192"/>
-      <c r="J34" s="193"/>
+      <c r="B34" s="193"/>
+      <c r="C34" s="193"/>
+      <c r="D34" s="193"/>
+      <c r="E34" s="193"/>
+      <c r="F34" s="193"/>
+      <c r="G34" s="193"/>
+      <c r="H34" s="193"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="194"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="188" t="s">
+      <c r="A35" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="189"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="190"/>
+      <c r="B35" s="190"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="191"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
@@ -7419,11 +7428,11 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="198" t="s">
+      <c r="A41" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="198"/>
-      <c r="C41" s="198"/>
+      <c r="B41" s="199"/>
+      <c r="C41" s="199"/>
       <c r="D41" s="33">
         <f>SUM(D37:D40)</f>
         <v>613000</v>
@@ -7448,18 +7457,18 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="188" t="s">
+      <c r="A42" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="189"/>
-      <c r="C42" s="189"/>
-      <c r="D42" s="189"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
-      <c r="J42" s="190"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="190"/>
+      <c r="J42" s="191"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
@@ -8452,30 +8461,30 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="191" t="s">
+      <c r="A79" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="192"/>
-      <c r="C79" s="192"/>
-      <c r="D79" s="192"/>
-      <c r="E79" s="192"/>
-      <c r="F79" s="192"/>
-      <c r="G79" s="192"/>
-      <c r="H79" s="192"/>
-      <c r="I79" s="192"/>
-      <c r="J79" s="193"/>
+      <c r="B79" s="193"/>
+      <c r="C79" s="193"/>
+      <c r="D79" s="193"/>
+      <c r="E79" s="193"/>
+      <c r="F79" s="193"/>
+      <c r="G79" s="193"/>
+      <c r="H79" s="193"/>
+      <c r="I79" s="193"/>
+      <c r="J79" s="194"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="188" t="s">
+      <c r="A80" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="189"/>
-      <c r="C80" s="189"/>
-      <c r="D80" s="189"/>
-      <c r="E80" s="189"/>
-      <c r="F80" s="189"/>
-      <c r="G80" s="189"/>
-      <c r="H80" s="190"/>
+      <c r="B80" s="190"/>
+      <c r="C80" s="190"/>
+      <c r="D80" s="190"/>
+      <c r="E80" s="190"/>
+      <c r="F80" s="190"/>
+      <c r="G80" s="190"/>
+      <c r="H80" s="191"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
@@ -8589,11 +8598,11 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="198" t="s">
+      <c r="A85" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="198"/>
-      <c r="C85" s="198"/>
+      <c r="B85" s="199"/>
+      <c r="C85" s="199"/>
       <c r="D85" s="33">
         <f>SUM(D82:D84)</f>
         <v>204284</v>
@@ -8618,18 +8627,18 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="188" t="s">
+      <c r="A86" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="189"/>
-      <c r="C86" s="189"/>
-      <c r="D86" s="189"/>
-      <c r="E86" s="189"/>
-      <c r="F86" s="189"/>
-      <c r="G86" s="189"/>
-      <c r="H86" s="189"/>
-      <c r="I86" s="189"/>
-      <c r="J86" s="190"/>
+      <c r="B86" s="190"/>
+      <c r="C86" s="190"/>
+      <c r="D86" s="190"/>
+      <c r="E86" s="190"/>
+      <c r="F86" s="190"/>
+      <c r="G86" s="190"/>
+      <c r="H86" s="190"/>
+      <c r="I86" s="190"/>
+      <c r="J86" s="191"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="47" t="s">
@@ -9415,6 +9424,12 @@
   </sheetData>
   <autoFilter ref="B2:B114"/>
   <mergeCells count="15">
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A86:J86"/>
     <mergeCell ref="A114:C114"/>
@@ -9424,12 +9439,6 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A80:H80"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9460,30 +9469,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="192" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="194"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="191"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -9528,11 +9537,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" ht="21">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
       <c r="D6" s="15">
         <f>SUM(D5:D5)</f>
         <v>0</v>
@@ -9557,18 +9566,18 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="21">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="191"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="16" t="s">
@@ -10177,11 +10186,11 @@
       <c r="K28" s="62"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="202" t="s">
+      <c r="A29" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="202"/>
-      <c r="C29" s="202"/>
+      <c r="B29" s="205"/>
+      <c r="C29" s="205"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -10207,30 +10216,30 @@
       <c r="K29" s="62"/>
     </row>
     <row r="31" spans="1:11" ht="21">
-      <c r="A31" s="191" t="s">
+      <c r="A31" s="192" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="192"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="192"/>
-      <c r="E31" s="192"/>
-      <c r="F31" s="192"/>
-      <c r="G31" s="192"/>
-      <c r="H31" s="192"/>
-      <c r="I31" s="192"/>
-      <c r="J31" s="193"/>
+      <c r="B31" s="193"/>
+      <c r="C31" s="193"/>
+      <c r="D31" s="193"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="193"/>
+      <c r="G31" s="193"/>
+      <c r="H31" s="193"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="194"/>
     </row>
     <row r="32" spans="1:11" ht="21">
-      <c r="A32" s="188" t="s">
+      <c r="A32" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="189"/>
-      <c r="C32" s="189"/>
-      <c r="D32" s="189"/>
-      <c r="E32" s="189"/>
-      <c r="F32" s="189"/>
-      <c r="G32" s="189"/>
-      <c r="H32" s="190"/>
+      <c r="B32" s="190"/>
+      <c r="C32" s="190"/>
+      <c r="D32" s="190"/>
+      <c r="E32" s="190"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="190"/>
+      <c r="H32" s="191"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -10476,11 +10485,11 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="187" t="s">
+      <c r="A42" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="187"/>
-      <c r="C42" s="187"/>
+      <c r="B42" s="188"/>
+      <c r="C42" s="188"/>
       <c r="D42" s="27">
         <f>SUM(D34:D41)</f>
         <v>983754</v>
@@ -10505,18 +10514,18 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="188" t="s">
+      <c r="A43" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="189"/>
-      <c r="C43" s="189"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="189"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="189"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="190"/>
+      <c r="B43" s="190"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="190"/>
+      <c r="E43" s="190"/>
+      <c r="F43" s="190"/>
+      <c r="G43" s="190"/>
+      <c r="H43" s="190"/>
+      <c r="I43" s="190"/>
+      <c r="J43" s="191"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1">
       <c r="A44" s="16" t="s">
@@ -11546,11 +11555,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A81" s="187" t="s">
+      <c r="A81" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="187"/>
-      <c r="C81" s="187"/>
+      <c r="B81" s="188"/>
+      <c r="C81" s="188"/>
       <c r="D81" s="27">
         <f>SUM(D45:D80)</f>
         <v>599787.05000000005</v>
@@ -11575,30 +11584,30 @@
       <c r="J81" s="27"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="191" t="s">
+      <c r="A83" s="192" t="s">
         <v>232</v>
       </c>
-      <c r="B83" s="192"/>
-      <c r="C83" s="192"/>
-      <c r="D83" s="192"/>
-      <c r="E83" s="192"/>
-      <c r="F83" s="192"/>
-      <c r="G83" s="192"/>
-      <c r="H83" s="192"/>
-      <c r="I83" s="192"/>
-      <c r="J83" s="193"/>
+      <c r="B83" s="193"/>
+      <c r="C83" s="193"/>
+      <c r="D83" s="193"/>
+      <c r="E83" s="193"/>
+      <c r="F83" s="193"/>
+      <c r="G83" s="193"/>
+      <c r="H83" s="193"/>
+      <c r="I83" s="193"/>
+      <c r="J83" s="194"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="188" t="s">
+      <c r="A84" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="189"/>
-      <c r="C84" s="189"/>
-      <c r="D84" s="189"/>
-      <c r="E84" s="189"/>
-      <c r="F84" s="189"/>
-      <c r="G84" s="189"/>
-      <c r="H84" s="190"/>
+      <c r="B84" s="190"/>
+      <c r="C84" s="190"/>
+      <c r="D84" s="190"/>
+      <c r="E84" s="190"/>
+      <c r="F84" s="190"/>
+      <c r="G84" s="190"/>
+      <c r="H84" s="191"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
@@ -11743,11 +11752,11 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A90" s="187" t="s">
+      <c r="A90" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="187"/>
-      <c r="C90" s="187"/>
+      <c r="B90" s="188"/>
+      <c r="C90" s="188"/>
       <c r="D90" s="27">
         <f>SUM(D86:D89)</f>
         <v>297318</v>
@@ -11772,18 +11781,18 @@
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="188" t="s">
+      <c r="A91" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="189"/>
-      <c r="C91" s="189"/>
-      <c r="D91" s="189"/>
-      <c r="E91" s="189"/>
-      <c r="F91" s="189"/>
-      <c r="G91" s="189"/>
-      <c r="H91" s="189"/>
-      <c r="I91" s="189"/>
-      <c r="J91" s="190"/>
+      <c r="B91" s="190"/>
+      <c r="C91" s="190"/>
+      <c r="D91" s="190"/>
+      <c r="E91" s="190"/>
+      <c r="F91" s="190"/>
+      <c r="G91" s="190"/>
+      <c r="H91" s="190"/>
+      <c r="I91" s="190"/>
+      <c r="J91" s="191"/>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1">
       <c r="A92" s="16" t="s">
@@ -12660,22 +12669,22 @@
   </sheetData>
   <autoFilter ref="B2:B127"/>
   <mergeCells count="16">
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A84:H84"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A83:J83"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A84:H84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12684,10 +12693,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J96"/>
+  <dimension ref="A2:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12706,30 +12715,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="192" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="194"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="191"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -12860,11 +12869,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="198" t="s">
+      <c r="A9" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="198"/>
-      <c r="C9" s="198"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="199"/>
       <c r="D9" s="33">
         <f>SUM(D5:D8)</f>
         <v>769530</v>
@@ -12889,18 +12898,18 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="188" t="s">
+      <c r="A10" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="189"/>
-      <c r="J10" s="190"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="191"/>
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1">
       <c r="A11" s="34" t="s">
@@ -13797,11 +13806,11 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="199" t="s">
+      <c r="A43" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="199"/>
-      <c r="C43" s="199"/>
+      <c r="B43" s="202"/>
+      <c r="C43" s="202"/>
       <c r="D43" s="45">
         <f>SUM(D12:D42)</f>
         <v>371316.08</v>
@@ -13831,30 +13840,30 @@
       <c r="C44" s="39"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="191" t="s">
+      <c r="A45" s="192" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="192"/>
-      <c r="C45" s="192"/>
-      <c r="D45" s="192"/>
-      <c r="E45" s="192"/>
-      <c r="F45" s="192"/>
-      <c r="G45" s="192"/>
-      <c r="H45" s="192"/>
-      <c r="I45" s="192"/>
-      <c r="J45" s="193"/>
+      <c r="B45" s="193"/>
+      <c r="C45" s="193"/>
+      <c r="D45" s="193"/>
+      <c r="E45" s="193"/>
+      <c r="F45" s="193"/>
+      <c r="G45" s="193"/>
+      <c r="H45" s="193"/>
+      <c r="I45" s="193"/>
+      <c r="J45" s="194"/>
     </row>
     <row r="46" spans="1:10" ht="21">
-      <c r="A46" s="188" t="s">
+      <c r="A46" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="189"/>
-      <c r="C46" s="189"/>
-      <c r="D46" s="189"/>
-      <c r="E46" s="189"/>
-      <c r="F46" s="189"/>
-      <c r="G46" s="189"/>
-      <c r="H46" s="190"/>
+      <c r="B46" s="190"/>
+      <c r="C46" s="190"/>
+      <c r="D46" s="190"/>
+      <c r="E46" s="190"/>
+      <c r="F46" s="190"/>
+      <c r="G46" s="190"/>
+      <c r="H46" s="191"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
@@ -13886,849 +13895,866 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A48" s="7">
-        <v>45211</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D48" s="8">
-        <v>1862120</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8">
-        <v>167950.8</v>
-      </c>
-      <c r="G48" s="8">
-        <v>167950.8</v>
+    <row r="48" spans="1:10" s="156" customFormat="1" ht="15.6">
+      <c r="A48" s="18">
+        <v>45342</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="D48" s="19">
+        <v>292660</v>
+      </c>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19">
+        <v>26339</v>
+      </c>
+      <c r="G48" s="19">
+        <v>26339</v>
       </c>
       <c r="H48" s="8">
-        <v>2202021.6</v>
-      </c>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-    </row>
-    <row r="49" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A49" s="18">
-        <v>45261</v>
-      </c>
-      <c r="B49" s="147" t="s">
-        <v>407</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="D49" s="19">
-        <v>35593</v>
-      </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19">
-        <v>3203.4</v>
-      </c>
-      <c r="G49" s="19">
-        <v>3203.4</v>
-      </c>
-      <c r="H49" s="8">
-        <v>42000</v>
-      </c>
-      <c r="I49" s="5"/>
-      <c r="J49" s="146" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A50" s="18">
-        <v>45273</v>
-      </c>
-      <c r="B50" s="147" t="s">
-        <v>526</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="D50" s="19">
-        <v>19560</v>
-      </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19">
-        <v>1760.4</v>
-      </c>
-      <c r="G50" s="19">
-        <v>1760.4</v>
-      </c>
-      <c r="H50" s="8">
-        <f>D50+E50+F50+G50</f>
-        <v>23080.800000000003</v>
-      </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="146"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.6">
-      <c r="A51" s="20">
-        <v>45292</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="D51" s="22">
-        <v>184600</v>
-      </c>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22">
-        <v>19494</v>
-      </c>
-      <c r="G51" s="22">
-        <v>19494</v>
-      </c>
-      <c r="H51" s="19">
-        <f>D51+E51+F51+G51</f>
-        <v>223588</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="156" customFormat="1" ht="15.6">
-      <c r="A52" s="18">
-        <v>44991</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="D52" s="19">
-        <v>1713185</v>
-      </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19">
-        <v>154186.65</v>
-      </c>
-      <c r="G52" s="19">
-        <v>154186.65</v>
-      </c>
-      <c r="H52" s="8">
+        <f>D48+E48+F48+G48</f>
+        <v>345338</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" ht="21">
+      <c r="A49" s="199" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="199"/>
+      <c r="C49" s="199"/>
+      <c r="D49" s="33">
+        <f>SUM(D48)</f>
+        <v>292660</v>
+      </c>
+      <c r="E49" s="33">
+        <f>SUM(E48)</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="33">
+        <f>SUM(F48)</f>
+        <v>26339</v>
+      </c>
+      <c r="G49" s="33">
+        <f>SUM(G48)</f>
+        <v>26339</v>
+      </c>
+      <c r="H49" s="33">
+        <f>SUM(H48)</f>
+        <v>345338</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" ht="21">
+      <c r="A50" s="189" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="190"/>
+      <c r="C50" s="190"/>
+      <c r="D50" s="190"/>
+      <c r="E50" s="190"/>
+      <c r="F50" s="190"/>
+      <c r="G50" s="190"/>
+      <c r="H50" s="190"/>
+      <c r="I50" s="190"/>
+      <c r="J50" s="191"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="2" customFormat="1" ht="15.6">
+      <c r="A52" s="24">
+        <v>45323</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="D52" s="21">
+        <v>46350</v>
+      </c>
+      <c r="E52" s="21">
+        <v>8343</v>
+      </c>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="12">
         <f>D52+E52+F52+G52</f>
-        <v>2021558.2999999998</v>
-      </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" s="156" customFormat="1" ht="15.6">
-      <c r="A53" s="18">
-        <v>45342</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>544</v>
-      </c>
-      <c r="D53" s="19">
-        <v>292660</v>
-      </c>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19">
-        <v>26339</v>
-      </c>
-      <c r="G53" s="19">
-        <v>26339</v>
-      </c>
-      <c r="H53" s="8">
+        <v>54693</v>
+      </c>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.6">
+      <c r="A53" s="24">
+        <v>45325</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="41">
+        <v>4593</v>
+      </c>
+      <c r="D53" s="21">
+        <v>1698</v>
+      </c>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21">
+        <v>152.82</v>
+      </c>
+      <c r="G53" s="21">
+        <v>152.82</v>
+      </c>
+      <c r="H53" s="42">
         <f>D53+E53+F53+G53</f>
-        <v>345338</v>
-      </c>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:10" ht="21">
-      <c r="A54" s="198" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="198"/>
-      <c r="C54" s="198"/>
-      <c r="D54" s="33">
-        <f>SUM(D48:D53)</f>
-        <v>4107718</v>
-      </c>
-      <c r="E54" s="33">
-        <f>SUM(E48:E53)</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="33">
-        <f>SUM(F48:F53)</f>
-        <v>372934.25</v>
-      </c>
-      <c r="G54" s="33">
-        <f>SUM(G48:G53)</f>
-        <v>372934.25</v>
-      </c>
-      <c r="H54" s="33">
-        <f>SUM(H48:H53)</f>
-        <v>4857586.6999999993</v>
-      </c>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" ht="21">
-      <c r="A55" s="188" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="189"/>
-      <c r="C55" s="189"/>
-      <c r="D55" s="189"/>
-      <c r="E55" s="189"/>
-      <c r="F55" s="189"/>
-      <c r="G55" s="189"/>
-      <c r="H55" s="189"/>
-      <c r="I55" s="189"/>
-      <c r="J55" s="190"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="H56" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I56" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" s="35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="2" customFormat="1" ht="15.6">
-      <c r="A57" s="24">
-        <v>45323</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="D57" s="21">
-        <v>46350</v>
-      </c>
-      <c r="E57" s="21">
-        <v>8343</v>
-      </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="12">
-        <f>D57+E57+F57+G57</f>
-        <v>54693</v>
-      </c>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15.6">
-      <c r="A58" s="24">
+        <v>2003.6399999999999</v>
+      </c>
+      <c r="I53" s="12"/>
+      <c r="J53" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="165" customFormat="1" ht="15.6">
+      <c r="A54" s="24">
         <v>45325</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B54" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="C54" s="41">
+        <v>2158</v>
+      </c>
+      <c r="D54" s="21">
+        <v>1330</v>
+      </c>
+      <c r="E54" s="21">
+        <v>239</v>
+      </c>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="42">
+        <f>D54+E54+F54+G54</f>
+        <v>1569</v>
+      </c>
+      <c r="I54" s="12"/>
+      <c r="J54" s="21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="174" customFormat="1" ht="15.6">
+      <c r="A55" s="24">
+        <v>45325</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="C55" s="41">
+        <v>507</v>
+      </c>
+      <c r="D55" s="21">
+        <v>5150</v>
+      </c>
+      <c r="E55" s="21">
+        <v>927</v>
+      </c>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="42">
+        <f>D55+E55+F55+G55</f>
+        <v>6077</v>
+      </c>
+      <c r="I55" s="12"/>
+      <c r="J55" s="21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.6">
+      <c r="A56" s="24">
+        <v>45327</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="D56" s="12">
+        <v>7380</v>
+      </c>
+      <c r="E56" s="12">
+        <v>1329</v>
+      </c>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="42">
+        <f t="shared" ref="H56:H65" si="2">D56+E56+F56+G56</f>
+        <v>8709</v>
+      </c>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="19.8" customHeight="1">
+      <c r="A57" s="180">
+        <v>45328</v>
+      </c>
+      <c r="B57" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="96" t="s">
+        <v>539</v>
+      </c>
+      <c r="D57" s="97">
+        <v>46950</v>
+      </c>
+      <c r="E57" s="97">
+        <v>8451</v>
+      </c>
+      <c r="F57" s="97"/>
+      <c r="G57" s="97"/>
+      <c r="H57" s="175">
+        <f t="shared" si="2"/>
+        <v>55401</v>
+      </c>
+      <c r="I57" s="97"/>
+      <c r="J57" s="96" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="18" customHeight="1">
+      <c r="A58" s="180">
+        <v>45331</v>
+      </c>
+      <c r="B58" s="96" t="s">
+        <v>477</v>
+      </c>
+      <c r="C58" s="96" t="s">
+        <v>540</v>
+      </c>
+      <c r="D58" s="97">
+        <v>2600</v>
+      </c>
+      <c r="E58" s="97">
+        <v>468</v>
+      </c>
+      <c r="F58" s="97"/>
+      <c r="G58" s="97"/>
+      <c r="H58" s="175">
+        <f t="shared" si="2"/>
+        <v>3068</v>
+      </c>
+      <c r="I58" s="97"/>
+      <c r="J58" s="96" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="18" customHeight="1">
+      <c r="A59" s="24">
+        <v>45334</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="D59" s="12">
+        <v>3533.92</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12">
+        <v>318.05</v>
+      </c>
+      <c r="G59" s="12">
+        <v>318.05</v>
+      </c>
+      <c r="H59" s="42">
+        <f t="shared" si="2"/>
+        <v>4170.0200000000004</v>
+      </c>
+      <c r="I59" s="12"/>
+      <c r="J59" s="40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.6">
+      <c r="A60" s="24">
+        <v>45336</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C58" s="41">
-        <v>4593</v>
-      </c>
-      <c r="D58" s="21">
-        <v>1698</v>
-      </c>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21">
-        <v>152.82</v>
-      </c>
-      <c r="G58" s="21">
-        <v>152.82</v>
-      </c>
-      <c r="H58" s="42">
-        <f>D58+E58+F58+G58</f>
-        <v>2003.6399999999999</v>
-      </c>
-      <c r="I58" s="12"/>
-      <c r="J58" s="21" t="s">
+      <c r="C60" s="12">
+        <v>4660</v>
+      </c>
+      <c r="D60" s="12">
+        <v>28</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12">
+        <v>2.52</v>
+      </c>
+      <c r="G60" s="12">
+        <v>2.52</v>
+      </c>
+      <c r="H60" s="42">
+        <f t="shared" si="2"/>
+        <v>33.04</v>
+      </c>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="165" customFormat="1" ht="15.6">
-      <c r="A59" s="24">
-        <v>45325</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>536</v>
-      </c>
-      <c r="C59" s="41">
-        <v>2158</v>
-      </c>
-      <c r="D59" s="21">
-        <v>1330</v>
-      </c>
-      <c r="E59" s="21">
-        <v>239</v>
-      </c>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="42">
-        <f>D59+E59+F59+G59</f>
-        <v>1569</v>
-      </c>
-      <c r="I59" s="12"/>
-      <c r="J59" s="21" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="174" customFormat="1" ht="15.6">
-      <c r="A60" s="24">
-        <v>45325</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="C60" s="41">
-        <v>507</v>
-      </c>
-      <c r="D60" s="21">
-        <v>5150</v>
-      </c>
-      <c r="E60" s="21">
-        <v>927</v>
-      </c>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="42">
-        <f>D60+E60+F60+G60</f>
-        <v>6077</v>
-      </c>
-      <c r="I60" s="12"/>
-      <c r="J60" s="21" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.6">
       <c r="A61" s="24">
-        <v>45327</v>
+        <v>45337</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>435</v>
+        <v>35</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D61" s="12">
-        <v>7380</v>
-      </c>
-      <c r="E61" s="12">
-        <v>1329</v>
-      </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
+        <v>966.09</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12">
+        <v>86.95</v>
+      </c>
+      <c r="G61" s="12">
+        <v>86.95</v>
+      </c>
       <c r="H61" s="42">
-        <f t="shared" ref="H61:H70" si="2">D61+E61+F61+G61</f>
-        <v>8709</v>
+        <f t="shared" si="2"/>
+        <v>1139.99</v>
       </c>
       <c r="I61" s="12"/>
       <c r="J61" s="12" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="19.8" customHeight="1">
-      <c r="A62" s="180">
-        <v>45328</v>
-      </c>
-      <c r="B62" s="96" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" s="96" t="s">
-        <v>539</v>
-      </c>
-      <c r="D62" s="97">
-        <v>46950</v>
-      </c>
-      <c r="E62" s="97">
-        <v>8451</v>
-      </c>
-      <c r="F62" s="97"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="175">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="176" customFormat="1" ht="15.6">
+      <c r="A62" s="24">
+        <v>45337</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="D62" s="31">
+        <v>780.33</v>
+      </c>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31">
+        <v>70.23</v>
+      </c>
+      <c r="G62" s="31">
+        <v>70.23</v>
+      </c>
+      <c r="H62" s="42">
         <f t="shared" si="2"/>
-        <v>55401</v>
-      </c>
-      <c r="I62" s="97"/>
-      <c r="J62" s="96" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="18" customHeight="1">
-      <c r="A63" s="180">
-        <v>45331</v>
-      </c>
-      <c r="B63" s="96" t="s">
-        <v>477</v>
-      </c>
-      <c r="C63" s="96" t="s">
-        <v>540</v>
-      </c>
-      <c r="D63" s="97">
-        <v>2600</v>
-      </c>
-      <c r="E63" s="97">
-        <v>468</v>
-      </c>
-      <c r="F63" s="97"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="175">
+        <v>920.79000000000008</v>
+      </c>
+      <c r="I62" s="31"/>
+      <c r="J62" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="179" customFormat="1" ht="15">
+      <c r="A63" s="139">
+        <v>45344</v>
+      </c>
+      <c r="B63" s="70" t="s">
+        <v>548</v>
+      </c>
+      <c r="C63" s="70" t="s">
+        <v>549</v>
+      </c>
+      <c r="D63" s="69">
+        <v>2127.5</v>
+      </c>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69">
+        <v>191.48</v>
+      </c>
+      <c r="G63" s="69">
+        <v>191.48</v>
+      </c>
+      <c r="H63" s="183">
         <f t="shared" si="2"/>
-        <v>3068</v>
-      </c>
-      <c r="I63" s="97"/>
-      <c r="J63" s="96" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="18" customHeight="1">
-      <c r="A64" s="24">
-        <v>45334</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>529</v>
-      </c>
-      <c r="D64" s="12">
-        <v>3533.92</v>
-      </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12">
-        <v>318.05</v>
-      </c>
-      <c r="G64" s="12">
-        <v>318.05</v>
-      </c>
-      <c r="H64" s="42">
+        <v>2510.46</v>
+      </c>
+      <c r="I63" s="69"/>
+      <c r="J63" s="70" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="179" customFormat="1" ht="15">
+      <c r="A64" s="139">
+        <v>45344</v>
+      </c>
+      <c r="B64" s="70" t="s">
+        <v>548</v>
+      </c>
+      <c r="C64" s="70" t="s">
+        <v>550</v>
+      </c>
+      <c r="D64" s="69">
+        <v>147.24</v>
+      </c>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69">
+        <v>16.37</v>
+      </c>
+      <c r="G64" s="69">
+        <v>16.37</v>
+      </c>
+      <c r="H64" s="183">
+        <v>179.98</v>
+      </c>
+      <c r="I64" s="69"/>
+      <c r="J64" s="70" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="179" customFormat="1" ht="15.6">
+      <c r="A65" s="181">
+        <v>45346</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>546</v>
+      </c>
+      <c r="D65" s="31">
+        <v>1767.05</v>
+      </c>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31">
+        <v>159.03</v>
+      </c>
+      <c r="G65" s="31">
+        <v>159.03</v>
+      </c>
+      <c r="H65" s="182">
         <f t="shared" si="2"/>
-        <v>4170.0200000000004</v>
-      </c>
-      <c r="I64" s="12"/>
-      <c r="J64" s="40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15.6">
-      <c r="A65" s="24">
-        <v>45336</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C65" s="12">
-        <v>4660</v>
-      </c>
-      <c r="D65" s="12">
-        <v>28</v>
-      </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12">
-        <v>2.52</v>
-      </c>
-      <c r="G65" s="12">
-        <v>2.52</v>
-      </c>
-      <c r="H65" s="42">
-        <f t="shared" si="2"/>
-        <v>33.04</v>
-      </c>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="15.6">
-      <c r="A66" s="24">
-        <v>45337</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="D66" s="12">
-        <v>966.09</v>
-      </c>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12">
-        <v>86.95</v>
-      </c>
-      <c r="G66" s="12">
-        <v>86.95</v>
+        <v>2085.11</v>
+      </c>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="179" customFormat="1" ht="15.6">
+      <c r="A66" s="181">
+        <v>45348</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="C66" s="31">
+        <v>1693</v>
+      </c>
+      <c r="D66" s="31">
+        <v>23728</v>
+      </c>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31">
+        <v>2135.52</v>
+      </c>
+      <c r="G66" s="31">
+        <v>2135.52</v>
       </c>
       <c r="H66" s="42">
-        <f t="shared" si="2"/>
-        <v>1139.99</v>
-      </c>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="176" customFormat="1" ht="15.6">
-      <c r="A67" s="24">
-        <v>45337</v>
+        <v>28000</v>
+      </c>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="184" customFormat="1" ht="15.6">
+      <c r="A67" s="181">
+        <v>45350</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>543</v>
+        <v>551</v>
+      </c>
+      <c r="C67" s="31">
+        <v>57</v>
       </c>
       <c r="D67" s="31">
-        <v>780.33</v>
+        <v>594</v>
       </c>
       <c r="E67" s="31"/>
       <c r="F67" s="31">
-        <v>70.23</v>
+        <v>53.46</v>
       </c>
       <c r="G67" s="31">
-        <v>70.23</v>
-      </c>
-      <c r="H67" s="42">
-        <f t="shared" si="2"/>
-        <v>920.79000000000008</v>
+        <v>53.46</v>
+      </c>
+      <c r="H67" s="182">
+        <f>D67+E67+F67+G67</f>
+        <v>700.92000000000007</v>
       </c>
       <c r="I67" s="31"/>
-      <c r="J67" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="179" customFormat="1" ht="15">
-      <c r="A68" s="139">
-        <v>45344</v>
-      </c>
-      <c r="B68" s="70" t="s">
-        <v>548</v>
-      </c>
-      <c r="C68" s="70" t="s">
-        <v>549</v>
-      </c>
-      <c r="D68" s="69">
-        <v>2127.5</v>
-      </c>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69">
-        <v>191.48</v>
-      </c>
-      <c r="G68" s="69">
-        <v>191.48</v>
-      </c>
-      <c r="H68" s="183">
-        <f t="shared" si="2"/>
-        <v>2510.46</v>
-      </c>
-      <c r="I68" s="69"/>
-      <c r="J68" s="70" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="179" customFormat="1" ht="15">
-      <c r="A69" s="139">
-        <v>45344</v>
-      </c>
-      <c r="B69" s="70" t="s">
-        <v>548</v>
-      </c>
-      <c r="C69" s="70" t="s">
-        <v>550</v>
-      </c>
-      <c r="D69" s="69">
-        <v>147.24</v>
-      </c>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69">
-        <v>16.37</v>
-      </c>
-      <c r="G69" s="69">
-        <v>16.37</v>
-      </c>
-      <c r="H69" s="183">
-        <v>179.98</v>
-      </c>
-      <c r="I69" s="69"/>
-      <c r="J69" s="70" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="179" customFormat="1" ht="15.6">
-      <c r="A70" s="181">
-        <v>45346</v>
-      </c>
-      <c r="B70" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C70" s="31" t="s">
-        <v>546</v>
-      </c>
-      <c r="D70" s="31">
-        <v>1767.05</v>
-      </c>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31">
-        <v>159.03</v>
-      </c>
-      <c r="G70" s="31">
-        <v>159.03</v>
-      </c>
-      <c r="H70" s="182">
-        <f t="shared" si="2"/>
-        <v>2085.11</v>
-      </c>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="179" customFormat="1" ht="15.6">
-      <c r="A71" s="181">
-        <v>45348</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="C71" s="31">
-        <v>1693</v>
-      </c>
-      <c r="D71" s="31">
-        <v>23728</v>
-      </c>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31">
-        <v>2135.52</v>
-      </c>
-      <c r="G71" s="31">
-        <v>2135.52</v>
-      </c>
-      <c r="H71" s="42">
-        <v>28000</v>
-      </c>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="21">
-      <c r="A72" s="199" t="s">
+      <c r="J67" s="31" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="21">
+      <c r="A68" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="199"/>
-      <c r="C72" s="199"/>
-      <c r="D72" s="45">
-        <f>SUM(D57:D71)</f>
-        <v>144536.13</v>
-      </c>
-      <c r="E72" s="45">
-        <f>SUM(E57:E71)</f>
+      <c r="B68" s="202"/>
+      <c r="C68" s="202"/>
+      <c r="D68" s="45">
+        <f>SUM(D52:D67)</f>
+        <v>145130.13</v>
+      </c>
+      <c r="E68" s="45">
+        <f>SUM(E52:E67)</f>
         <v>19757</v>
       </c>
-      <c r="F72" s="45">
-        <f>SUM(F57:F71)</f>
-        <v>3132.9700000000003</v>
-      </c>
-      <c r="G72" s="45">
-        <f>SUM(G57:G71)</f>
-        <v>3132.9700000000003</v>
-      </c>
-      <c r="H72" s="46">
-        <f>SUM(H57:H71)</f>
-        <v>170560.03</v>
-      </c>
-      <c r="I72" s="45"/>
-      <c r="J72" s="45"/>
-    </row>
-    <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="191" t="s">
+      <c r="F68" s="45">
+        <f>SUM(F52:F67)</f>
+        <v>3186.4300000000003</v>
+      </c>
+      <c r="G68" s="45">
+        <f>SUM(G52:G67)</f>
+        <v>3186.4300000000003</v>
+      </c>
+      <c r="H68" s="46">
+        <f>SUM(H52:H67)</f>
+        <v>171260.95</v>
+      </c>
+      <c r="I68" s="45"/>
+      <c r="J68" s="45"/>
+    </row>
+    <row r="70" spans="1:10" ht="21">
+      <c r="A70" s="192" t="s">
         <v>235</v>
       </c>
-      <c r="B74" s="192"/>
-      <c r="C74" s="192"/>
-      <c r="D74" s="192"/>
-      <c r="E74" s="192"/>
-      <c r="F74" s="192"/>
-      <c r="G74" s="192"/>
-      <c r="H74" s="192"/>
-      <c r="I74" s="192"/>
-      <c r="J74" s="193"/>
-    </row>
-    <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="188" t="s">
+      <c r="B70" s="193"/>
+      <c r="C70" s="193"/>
+      <c r="D70" s="193"/>
+      <c r="E70" s="193"/>
+      <c r="F70" s="193"/>
+      <c r="G70" s="193"/>
+      <c r="H70" s="193"/>
+      <c r="I70" s="193"/>
+      <c r="J70" s="194"/>
+    </row>
+    <row r="71" spans="1:10" ht="21">
+      <c r="A71" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="189"/>
-      <c r="C75" s="189"/>
-      <c r="D75" s="189"/>
-      <c r="E75" s="189"/>
-      <c r="F75" s="189"/>
-      <c r="G75" s="189"/>
-      <c r="H75" s="190"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-    </row>
-    <row r="76" spans="1:10" ht="31.2">
-      <c r="A76" s="3" t="s">
+      <c r="B71" s="190"/>
+      <c r="C71" s="190"/>
+      <c r="D71" s="190"/>
+      <c r="E71" s="190"/>
+      <c r="F71" s="190"/>
+      <c r="G71" s="190"/>
+      <c r="H71" s="191"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" ht="31.2">
+      <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-    </row>
-    <row r="77" spans="1:10" ht="15.6">
-      <c r="A77" s="20"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A73" s="7">
+        <v>45211</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D73" s="8">
+        <v>1862120</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8">
+        <v>167950.8</v>
+      </c>
+      <c r="G73" s="8">
+        <v>167950.8</v>
+      </c>
+      <c r="H73" s="8">
+        <v>2202021.6</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+    </row>
+    <row r="74" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A74" s="18">
+        <v>45261</v>
+      </c>
+      <c r="B74" s="147" t="s">
+        <v>407</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="D74" s="19">
+        <v>35593</v>
+      </c>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19">
+        <v>3203.4</v>
+      </c>
+      <c r="G74" s="19">
+        <v>3203.4</v>
+      </c>
+      <c r="H74" s="8">
+        <v>42000</v>
+      </c>
+      <c r="I74" s="5"/>
+      <c r="J74" s="146" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A75" s="18">
+        <v>45273</v>
+      </c>
+      <c r="B75" s="147" t="s">
+        <v>526</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D75" s="19">
+        <v>19560</v>
+      </c>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19">
+        <v>1760.4</v>
+      </c>
+      <c r="G75" s="19">
+        <v>1760.4</v>
+      </c>
+      <c r="H75" s="8">
+        <f>D75+E75+F75+G75</f>
+        <v>23080.800000000003</v>
+      </c>
+      <c r="I75" s="5"/>
+      <c r="J75" s="146"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.6">
+      <c r="A76" s="20">
+        <v>45292</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="D76" s="22">
+        <v>184600</v>
+      </c>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22">
+        <v>19494</v>
+      </c>
+      <c r="G76" s="22">
+        <v>19494</v>
+      </c>
+      <c r="H76" s="19">
+        <f>D76+E76+F76+G76</f>
+        <v>223588</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="156" customFormat="1" ht="15.6">
+      <c r="A77" s="18">
+        <v>44991</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="D77" s="19">
+        <v>1713185</v>
+      </c>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19">
+        <v>154186.65</v>
+      </c>
+      <c r="G77" s="19">
+        <v>154186.65</v>
+      </c>
+      <c r="H77" s="8">
+        <f>D77+E77+F77+G77</f>
+        <v>2021558.2999999998</v>
+      </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="15.6">
-      <c r="A78" s="20"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
+    <row r="78" spans="1:10" ht="21">
+      <c r="A78" s="199" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="199"/>
+      <c r="C78" s="199"/>
+      <c r="D78" s="33">
+        <f>SUM(D73:D77)</f>
+        <v>3815058</v>
+      </c>
+      <c r="E78" s="33">
+        <f>SUM(D78)</f>
+        <v>3815058</v>
+      </c>
+      <c r="F78" s="33">
+        <f>SUM(F73:F77)</f>
+        <v>346595.25</v>
+      </c>
+      <c r="G78" s="33">
+        <f>SUM(G73:G77)</f>
+        <v>346595.25</v>
+      </c>
+      <c r="H78" s="33">
+        <f>SUM(H73:H77)</f>
+        <v>4512248.6999999993</v>
+      </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="198" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="198"/>
-      <c r="C79" s="198"/>
-      <c r="D79" s="33">
-        <f>SUM(D77:D78)</f>
-        <v>0</v>
-      </c>
-      <c r="E79" s="33">
-        <f>SUM(E77:E78)</f>
-        <v>0</v>
-      </c>
-      <c r="F79" s="33">
-        <f>SUM(F77:F78)</f>
-        <v>0</v>
-      </c>
-      <c r="G79" s="33">
-        <f>SUM(G77:G78)</f>
-        <v>0</v>
-      </c>
-      <c r="H79" s="33">
-        <f>SUM(H77:H78)</f>
-        <v>0</v>
-      </c>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-    </row>
-    <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="188" t="s">
+      <c r="A79" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="189"/>
-      <c r="C80" s="189"/>
-      <c r="D80" s="189"/>
-      <c r="E80" s="189"/>
-      <c r="F80" s="189"/>
-      <c r="G80" s="189"/>
-      <c r="H80" s="189"/>
-      <c r="I80" s="189"/>
-      <c r="J80" s="190"/>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="47" t="s">
+      <c r="B79" s="190"/>
+      <c r="C79" s="190"/>
+      <c r="D79" s="190"/>
+      <c r="E79" s="190"/>
+      <c r="F79" s="190"/>
+      <c r="G79" s="190"/>
+      <c r="H79" s="190"/>
+      <c r="I79" s="190"/>
+      <c r="J79" s="191"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="47" t="s">
+      <c r="B80" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="47" t="s">
+      <c r="C80" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="47" t="s">
+      <c r="D80" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="47" t="s">
+      <c r="E80" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="47" t="s">
+      <c r="F80" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G81" s="47" t="s">
+      <c r="G80" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H81" s="48" t="s">
+      <c r="H80" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="I81" s="48" t="s">
+      <c r="I80" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="J81" s="48" t="s">
+      <c r="J80" s="48" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.6">
+      <c r="A81" s="49"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="50"/>
     </row>
     <row r="82" spans="1:10" ht="15.6">
       <c r="A82" s="49"/>
-      <c r="B82" s="8"/>
+      <c r="B82" s="12"/>
       <c r="C82" s="50"/>
       <c r="D82" s="50"/>
       <c r="E82" s="50"/>
@@ -14739,16 +14765,16 @@
       <c r="J82" s="50"/>
     </row>
     <row r="83" spans="1:10" ht="15.6">
-      <c r="A83" s="49"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="50"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="50"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="50"/>
+      <c r="A83" s="51"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52"/>
       <c r="H83" s="50"/>
-      <c r="I83" s="50"/>
-      <c r="J83" s="50"/>
+      <c r="I83" s="52"/>
+      <c r="J83" s="52"/>
     </row>
     <row r="84" spans="1:10" ht="15.6">
       <c r="A84" s="51"/>
@@ -14758,7 +14784,7 @@
       <c r="E84" s="52"/>
       <c r="F84" s="52"/>
       <c r="G84" s="52"/>
-      <c r="H84" s="50"/>
+      <c r="H84" s="52"/>
       <c r="I84" s="52"/>
       <c r="J84" s="52"/>
     </row>
@@ -14799,147 +14825,135 @@
       <c r="J87" s="52"/>
     </row>
     <row r="88" spans="1:10" ht="15.6">
-      <c r="A88" s="51"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="52"/>
-      <c r="E88" s="52"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="52"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="52"/>
-      <c r="J88" s="52"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="1:10" ht="15.6">
-      <c r="A89" s="11"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="21"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="30"/>
     </row>
     <row r="90" spans="1:10" ht="15.6">
-      <c r="A90" s="28"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="30"/>
+      <c r="A90" s="53"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="54"/>
     </row>
     <row r="91" spans="1:10" ht="15.6">
-      <c r="A91" s="53"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="54"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="54"/>
-      <c r="H91" s="54"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="54"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="56"/>
     </row>
     <row r="92" spans="1:10" ht="15.6">
-      <c r="A92" s="36"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="52"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="56"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="1:10" ht="15.6">
-      <c r="A93" s="11"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="21"/>
-    </row>
-    <row r="94" spans="1:10" ht="15.6">
-      <c r="A94" s="36"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="55"/>
-    </row>
-    <row r="95" spans="1:10" ht="15">
-      <c r="A95" s="57"/>
-      <c r="B95" s="58"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="60"/>
-      <c r="H95" s="60"/>
-      <c r="I95" s="60"/>
-      <c r="J95" s="59"/>
-    </row>
-    <row r="96" spans="1:10" ht="21">
-      <c r="A96" s="200" t="s">
+      <c r="A93" s="36"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="55"/>
+    </row>
+    <row r="94" spans="1:10" ht="15">
+      <c r="A94" s="57"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="60"/>
+      <c r="I94" s="60"/>
+      <c r="J94" s="59"/>
+    </row>
+    <row r="95" spans="1:10" ht="21">
+      <c r="A95" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="200"/>
-      <c r="C96" s="200"/>
-      <c r="D96" s="61">
-        <f>SUM(D82:D95)</f>
+      <c r="B95" s="200"/>
+      <c r="C95" s="200"/>
+      <c r="D95" s="61">
+        <f>SUM(D81:D94)</f>
         <v>0</v>
       </c>
-      <c r="E96" s="61">
-        <f>SUM(E82:E95)</f>
+      <c r="E95" s="61">
+        <f>SUM(E81:E94)</f>
         <v>0</v>
       </c>
-      <c r="F96" s="61">
-        <f>SUM(F82:F95)</f>
+      <c r="F95" s="61">
+        <f>SUM(F81:F94)</f>
         <v>0</v>
       </c>
-      <c r="G96" s="61">
-        <f>SUM(G82:G95)</f>
+      <c r="G95" s="61">
+        <f>SUM(G81:G94)</f>
         <v>0</v>
       </c>
-      <c r="H96" s="61">
-        <f>SUM(H82:H95)</f>
+      <c r="H95" s="61">
+        <f>SUM(H81:H94)</f>
         <v>0</v>
       </c>
-      <c r="I96" s="61"/>
-      <c r="J96" s="61"/>
+      <c r="I95" s="61"/>
+      <c r="J95" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A80:J80"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="A75:H75"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A71:H71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
